--- a/data/DreamLeague23-24.xlsx
+++ b/data/DreamLeague23-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="255" documentId="8_{2143D4C5-D5B5-4416-B5A6-A1B2D5502F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B81D44B6-B386-4803-BEE0-A6F483B8E5F8}"/>
+  <xr:revisionPtr revIDLastSave="426" documentId="8_{2143D4C5-D5B5-4416-B5A6-A1B2D5502F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B4717F7-D007-48D4-8661-19F1FB9DC31D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="319">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -840,9 +840,6 @@
     <t>COVENTRY</t>
   </si>
   <si>
-    <t>MACAULEY LONGSTAFF</t>
-  </si>
-  <si>
     <t>JULIAN ALVAREZ</t>
   </si>
   <si>
@@ -973,6 +970,27 @@
   </si>
   <si>
     <t>EVERTON</t>
+  </si>
+  <si>
+    <t>CAMBRIDGE</t>
+  </si>
+  <si>
+    <t>YOANE WISSA</t>
+  </si>
+  <si>
+    <t>ANDRE VIDIGAL</t>
+  </si>
+  <si>
+    <t>MOUSSA DIABY</t>
+  </si>
+  <si>
+    <t>CHRISTIAN FASSNACHT</t>
+  </si>
+  <si>
+    <t>VICTOR ADEBOYEJO</t>
+  </si>
+  <si>
+    <t>MACAULEY LANGSTAFF</t>
   </si>
 </sst>
 </file>
@@ -2897,7 +2915,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -2911,34 +2929,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX377"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R61" sqref="R61"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="81" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" style="81" customWidth="1"/>
     <col min="2" max="2" width="16" style="81" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" style="81" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" style="81" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="81" customWidth="1"/>
+    <col min="3" max="3" width="39.296875" style="81" customWidth="1"/>
+    <col min="4" max="4" width="32.796875" style="81" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" style="81" customWidth="1"/>
     <col min="6" max="6" width="17" style="81" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" style="81" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="81" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="81" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.33203125" style="81" customWidth="1"/>
+    <col min="7" max="8" width="11.296875" style="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.69921875" style="81" customWidth="1"/>
+    <col min="10" max="10" width="7.19921875" style="81" customWidth="1"/>
+    <col min="11" max="11" width="25.69921875" style="81" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.296875" style="81" customWidth="1"/>
     <col min="13" max="14" width="12" style="81" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="81" customWidth="1"/>
+    <col min="15" max="15" width="10.296875" style="81" customWidth="1"/>
     <col min="16" max="17" width="9" style="81" customWidth="1"/>
-    <col min="18" max="18" width="32.33203125" style="81" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.296875" style="81" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="9" style="81" customWidth="1"/>
-    <col min="22" max="22" width="30.1640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.19921875" style="81" bestFit="1" customWidth="1"/>
     <col min="23" max="258" width="9" style="81" customWidth="1"/>
     <col min="259" max="16384" width="9" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2957,7 +2975,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -2978,7 +2996,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2995,7 +3013,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="83"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -3032,14 +3050,14 @@
         <v>12</v>
       </c>
       <c r="R4" s="116" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S4" s="116"/>
       <c r="T4" s="116"/>
       <c r="U4" s="116"/>
       <c r="V4" s="116"/>
     </row>
-    <row r="5" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
       <c r="B5" s="12" t="s">
         <v>13</v>
@@ -3068,11 +3086,11 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
@@ -3083,10 +3101,10 @@
       </c>
       <c r="S5" s="115">
         <f>_xlfn.XLOOKUP(R5,K:K,M:M)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T5" s="114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U5" s="115">
         <f>_xlfn.XLOOKUP(V5,K:K,M:M)</f>
@@ -3096,7 +3114,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -3117,35 +3135,35 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R6" s="81" t="s">
         <v>2</v>
       </c>
       <c r="S6" s="115">
         <f>_xlfn.XLOOKUP(R6,K:K,M:M)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T6" s="114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U6" s="115">
         <f>_xlfn.XLOOKUP(V6,K:K,M:M)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V6" s="81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3166,35 +3184,35 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7" s="81" t="s">
         <v>2</v>
       </c>
       <c r="S7" s="115">
         <f>_xlfn.XLOOKUP(R7,K:K,M:M)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T7" s="114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U7" s="115">
         <f>_xlfn.XLOOKUP(V7,K:K,M:M)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V7" s="81" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
       <c r="B8" s="28" t="s">
         <v>15</v>
@@ -3224,18 +3242,18 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
       <c r="B9" s="28" t="s">
         <v>15</v>
@@ -3266,18 +3284,18 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" s="77">
         <f>SUM(F116:F133)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O9" s="78">
         <f>SUM(F113:F115)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
       <c r="B10" s="103"/>
       <c r="C10" s="28"/>
@@ -3298,25 +3316,25 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F143:F160)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F140:F142)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R10" s="116" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S10" s="116"/>
       <c r="T10" s="116"/>
       <c r="U10" s="116"/>
       <c r="V10" s="116"/>
     </row>
-    <row r="11" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
       <c r="B11" s="28" t="s">
         <v>18</v>
@@ -3331,7 +3349,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="87"/>
       <c r="H11" s="88"/>
@@ -3347,35 +3365,35 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F170:F187)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F167:F169)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11" s="81" t="s">
         <v>2</v>
       </c>
       <c r="S11" s="115">
         <f>SUM(F11:F15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T11" s="114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U11" s="115">
         <f>SUM(F227:F231)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="81" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
       <c r="B12" s="28" t="s">
         <v>18</v>
@@ -3390,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="92"/>
       <c r="H12" s="88"/>
@@ -3406,18 +3424,18 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="77">
         <f>SUM(F197:F214)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12" s="78">
         <f>SUM(F194:F196)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
       <c r="B13" s="28" t="s">
         <v>18</v>
@@ -3448,25 +3466,25 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N13" s="77">
         <f>SUM(F224:F241)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O13" s="78">
         <f>SUM(F221:F223)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R13" s="116" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S13" s="116"/>
       <c r="T13" s="116"/>
       <c r="U13" s="116"/>
       <c r="V13" s="116"/>
     </row>
-    <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
       <c r="B14" s="28"/>
       <c r="C14" s="103"/>
@@ -3491,21 +3509,21 @@
       </c>
       <c r="N14" s="77">
         <f>SUM(F251:F268)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O14" s="78">
         <f>SUM(F248:F250)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R14" s="81" t="s">
         <v>200</v>
       </c>
       <c r="S14" s="115">
         <f>_xlfn.XLOOKUP(R14,C:C,F:F)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U14" s="115">
         <f>_xlfn.XLOOKUP(V14,C:C,F:F)</f>
@@ -3515,7 +3533,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -3536,24 +3554,24 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F277:F295)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F275:F276)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R15" s="81" t="s">
+        <v>290</v>
+      </c>
+      <c r="V15" s="81" t="s">
         <v>291</v>
       </c>
-      <c r="V15" s="81" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
       <c r="B16" s="28" t="s">
         <v>19</v>
@@ -3584,18 +3602,18 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F305:F322)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F302:F304)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
       <c r="B17" s="103" t="s">
         <v>19</v>
@@ -3613,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="87" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H17" s="88">
         <v>45155</v>
@@ -3630,37 +3648,37 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F332:F349)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F329:F331)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R17" s="116" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S17" s="116"/>
       <c r="T17" s="116"/>
       <c r="U17" s="116"/>
       <c r="V17" s="116"/>
     </row>
-    <row r="18" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="83"/>
       <c r="B18" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>36</v>
+        <v>312</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F18" s="30">
         <v>0</v>
@@ -3685,31 +3703,31 @@
       </c>
       <c r="N18" s="26">
         <f>SUM(F359:F376)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F356:F358)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18" s="81" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S18" s="115">
         <f>_xlfn.XLOOKUP(R18,K:K,O:O)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T18" s="114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U18" s="115">
         <f>_xlfn.XLOOKUP(V18,K:K,O:O)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V18" s="81" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
       <c r="B19" s="28" t="s">
         <v>19</v>
@@ -3736,7 +3754,7 @@
       <c r="N19" s="93"/>
       <c r="O19" s="93"/>
     </row>
-    <row r="20" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
       <c r="B20" s="103" t="s">
         <v>19</v>
@@ -3754,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="92" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H20" s="88">
         <v>45155</v>
@@ -3767,26 +3785,26 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="R20" s="116" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S20" s="116"/>
       <c r="T20" s="116"/>
       <c r="U20" s="116"/>
       <c r="V20" s="116"/>
     </row>
-    <row r="21" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
       <c r="B21" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F21" s="30">
         <v>0</v>
@@ -3810,17 +3828,17 @@
         <v>1</v>
       </c>
       <c r="T21" s="114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U21" s="115">
         <f>_xlfn.XLOOKUP(V22,C:C,F:F)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="81" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
       <c r="B22" s="28" t="s">
         <v>19</v>
@@ -3853,7 +3871,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="83"/>
       <c r="B23" s="28"/>
       <c r="C23" s="103"/>
@@ -3870,7 +3888,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="83"/>
       <c r="B24" s="103"/>
       <c r="C24" s="103"/>
@@ -3887,14 +3905,14 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="R24" s="116" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S24" s="116"/>
       <c r="T24" s="116"/>
       <c r="U24" s="116"/>
       <c r="V24" s="116"/>
     </row>
-    <row r="25" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="83"/>
       <c r="B25" s="21"/>
       <c r="C25" s="28"/>
@@ -3915,20 +3933,20 @@
       </c>
       <c r="S25" s="115">
         <f>(_xlfn.XLOOKUP(R25,K:K,M:M))-(_xlfn.XLOOKUP(R26,C:C,F:F))</f>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="T25" s="114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U25" s="115">
         <f>(_xlfn.XLOOKUP(V25,K:K,M:M))-(_xlfn.XLOOKUP(V26,C:C,F:F))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V25" s="81" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -3939,7 +3957,7 @@
       </c>
       <c r="F26" s="38">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="84"/>
       <c r="H26" s="97"/>
@@ -3957,7 +3975,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3974,7 +3992,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3991,14 +4009,14 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="R28" s="116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S28" s="116"/>
       <c r="T28" s="116"/>
       <c r="U28" s="116"/>
       <c r="V28" s="116"/>
     </row>
-    <row r="29" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
@@ -4026,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4050,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="83"/>
       <c r="B31" s="6" t="s">
         <v>3</v>
@@ -4084,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="83"/>
       <c r="B32" s="12" t="s">
         <v>13</v>
@@ -4097,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="15">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G32" s="84"/>
       <c r="H32" s="99"/>
@@ -4116,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="83"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -4140,7 +4158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="83"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -4164,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="83"/>
       <c r="B35" s="28" t="s">
         <v>15</v>
@@ -4198,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="83"/>
       <c r="B36" s="28" t="s">
         <v>15</v>
@@ -4225,14 +4243,14 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="R36" s="81" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S36" s="81">
         <f>SUM(F305:F307)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="83"/>
       <c r="B37" s="103"/>
       <c r="C37" s="28"/>
@@ -4249,7 +4267,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="83"/>
       <c r="B38" s="28" t="s">
         <v>18</v>
@@ -4276,14 +4294,14 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="R38" s="116" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S38" s="116"/>
       <c r="T38" s="116"/>
       <c r="U38" s="116"/>
       <c r="V38" s="116"/>
     </row>
-    <row r="39" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="83"/>
       <c r="B39" s="28" t="s">
         <v>18</v>
@@ -4320,7 +4338,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="83"/>
       <c r="B40" s="28" t="s">
         <v>18</v>
@@ -4335,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="87"/>
       <c r="H40" s="96"/>
@@ -4357,7 +4375,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="83"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -4384,7 +4402,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="83"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -4405,13 +4423,13 @@
       </c>
       <c r="S42" s="81">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V42" s="81" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="83"/>
       <c r="B43" s="28" t="s">
         <v>19</v>
@@ -4448,7 +4466,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="83"/>
       <c r="B44" s="28" t="s">
         <v>19</v>
@@ -4485,7 +4503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="83"/>
       <c r="B45" s="28" t="s">
         <v>19</v>
@@ -4522,7 +4540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="83"/>
       <c r="B46" s="103" t="s">
         <v>19</v>
@@ -4540,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="113" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H46" s="113">
         <v>45148</v>
@@ -4563,19 +4581,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="83"/>
       <c r="B47" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>107</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F47" s="30">
         <v>0</v>
@@ -4602,7 +4620,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="83"/>
       <c r="B48" s="28" t="s">
         <v>19</v>
@@ -4639,7 +4657,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="83"/>
       <c r="B49" s="103"/>
       <c r="C49" s="28"/>
@@ -4656,7 +4674,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="R49" s="81" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S49" s="81">
         <f t="shared" si="2"/>
@@ -4666,7 +4684,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="83"/>
       <c r="B50" s="28"/>
       <c r="C50" s="103"/>
@@ -4683,7 +4701,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="R50" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S50" s="81">
         <f t="shared" si="2"/>
@@ -4693,7 +4711,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="83"/>
       <c r="B51" s="103"/>
       <c r="C51" s="28"/>
@@ -4710,7 +4728,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="R51" s="81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S51" s="81">
         <f t="shared" si="2"/>
@@ -4720,7 +4738,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="83"/>
       <c r="B52" s="21"/>
       <c r="C52" s="28"/>
@@ -4737,7 +4755,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="R52" s="81" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S52" s="81">
         <f t="shared" si="2"/>
@@ -4747,7 +4765,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
@@ -4758,7 +4776,7 @@
       </c>
       <c r="F53" s="38">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="G53" s="84"/>
       <c r="H53" s="97"/>
@@ -4770,7 +4788,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="R53" s="81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S53" s="81">
         <f t="shared" si="2"/>
@@ -4780,7 +4798,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4797,7 +4815,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="R54" s="81" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S54" s="81">
         <f t="shared" si="2"/>
@@ -4807,7 +4825,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4824,7 +4842,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="R55" s="81" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S55" s="81">
         <f t="shared" si="2"/>
@@ -4834,7 +4852,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
@@ -4855,7 +4873,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="R56" s="81" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S56" s="81">
         <f t="shared" si="2"/>
@@ -4865,7 +4883,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4892,7 +4910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="83"/>
       <c r="B58" s="6" t="s">
         <v>3</v>
@@ -4929,7 +4947,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="83"/>
       <c r="B59" s="12" t="s">
         <v>13</v>
@@ -4942,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" s="84"/>
       <c r="H59" s="97"/>
@@ -4958,13 +4976,13 @@
       </c>
       <c r="S59" s="81">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V59" s="81" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="83"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -4981,17 +4999,17 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="R60" s="81" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S60" s="81">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V60" s="81" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="83"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -5018,7 +5036,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="83"/>
       <c r="B62" s="28" t="s">
         <v>15</v>
@@ -5055,7 +5073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="83"/>
       <c r="B63" s="28" t="s">
         <v>15</v>
@@ -5092,7 +5110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="83"/>
       <c r="B64" s="103"/>
       <c r="C64" s="21"/>
@@ -5119,7 +5137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="83"/>
       <c r="B65" s="28" t="s">
         <v>18</v>
@@ -5156,7 +5174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="83"/>
       <c r="B66" s="28" t="s">
         <v>18</v>
@@ -5187,19 +5205,19 @@
       </c>
       <c r="S66" s="81">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V66" s="81" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="83"/>
       <c r="B67" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D67" s="28" t="s">
         <v>44</v>
@@ -5230,7 +5248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="83"/>
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
@@ -5257,7 +5275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="83"/>
       <c r="B69" s="28"/>
       <c r="C69" s="21"/>
@@ -5284,7 +5302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="83"/>
       <c r="B70" s="28" t="s">
         <v>19</v>
@@ -5299,7 +5317,7 @@
         <v>12</v>
       </c>
       <c r="F70" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G70" s="92"/>
       <c r="H70" s="95"/>
@@ -5311,7 +5329,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="83"/>
       <c r="B71" s="28" t="s">
         <v>19</v>
@@ -5338,7 +5356,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="83"/>
       <c r="B72" s="28" t="s">
         <v>19</v>
@@ -5353,7 +5371,7 @@
         <v>13</v>
       </c>
       <c r="F72" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="92"/>
       <c r="H72" s="96"/>
@@ -5365,25 +5383,29 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="83"/>
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="28" t="s">
+      <c r="C73" s="103" t="s">
         <v>170</v>
       </c>
-      <c r="D73" s="28" t="s">
+      <c r="D73" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="E73" s="29">
+      <c r="E73" s="104">
         <v>1</v>
       </c>
-      <c r="F73" s="30">
-        <v>0</v>
-      </c>
-      <c r="G73" s="87"/>
-      <c r="H73" s="96"/>
+      <c r="F73" s="105">
+        <v>0</v>
+      </c>
+      <c r="G73" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="H73" s="96">
+        <v>45162</v>
+      </c>
       <c r="I73" s="95"/>
       <c r="J73" s="101"/>
       <c r="K73" s="1"/>
@@ -5392,24 +5414,26 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="83"/>
       <c r="B74" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>171</v>
+        <v>314</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="E74" s="29">
-        <v>1</v>
+        <v>263</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>284</v>
       </c>
       <c r="F74" s="30">
-        <v>1</v>
-      </c>
-      <c r="G74" s="92"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="92">
+        <v>45162</v>
+      </c>
       <c r="H74" s="95"/>
       <c r="I74" s="95"/>
       <c r="J74" s="80"/>
@@ -5419,13 +5443,23 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="83"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="105"/>
+      <c r="B75" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E75" s="29">
+        <v>1</v>
+      </c>
+      <c r="F75" s="30">
+        <v>1</v>
+      </c>
       <c r="G75" s="87"/>
       <c r="H75" s="96"/>
       <c r="I75" s="95"/>
@@ -5436,7 +5470,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="83"/>
       <c r="B76" s="103"/>
       <c r="C76" s="28"/>
@@ -5453,7 +5487,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="83"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
@@ -5470,7 +5504,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="83"/>
       <c r="B78" s="103"/>
       <c r="C78" s="28"/>
@@ -5487,7 +5521,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="83"/>
       <c r="B79" s="21"/>
       <c r="C79" s="28"/>
@@ -5504,7 +5538,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="35"/>
       <c r="C80" s="35"/>
@@ -5515,7 +5549,7 @@
       </c>
       <c r="F80" s="38">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G80" s="84"/>
       <c r="H80" s="97"/>
@@ -5527,7 +5561,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5544,7 +5578,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5561,7 +5595,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
@@ -5582,7 +5616,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5599,7 +5633,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="83"/>
       <c r="B85" s="6" t="s">
         <v>3</v>
@@ -5626,7 +5660,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="83"/>
       <c r="B86" s="12" t="s">
         <v>13</v>
@@ -5651,7 +5685,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="83"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -5668,7 +5702,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="83"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -5685,7 +5719,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="83"/>
       <c r="B89" s="28" t="s">
         <v>15</v>
@@ -5712,7 +5746,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="83"/>
       <c r="B90" s="28" t="s">
         <v>15</v>
@@ -5739,7 +5773,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="83"/>
       <c r="B91" s="103"/>
       <c r="C91" s="21"/>
@@ -5756,7 +5790,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="83"/>
       <c r="B92" s="28" t="s">
         <v>18</v>
@@ -5771,7 +5805,7 @@
         <v>13</v>
       </c>
       <c r="F92" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" s="87"/>
       <c r="H92" s="96"/>
@@ -5783,7 +5817,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="83"/>
       <c r="B93" s="28" t="s">
         <v>18</v>
@@ -5810,7 +5844,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="83"/>
       <c r="B94" s="28" t="s">
         <v>18</v>
@@ -5837,7 +5871,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="83"/>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
@@ -5854,7 +5888,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="83"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -5871,25 +5905,29 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="83"/>
-      <c r="B97" s="28" t="s">
+      <c r="B97" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C97" s="28" t="s">
+      <c r="C97" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="D97" s="28" t="s">
+      <c r="D97" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="E97" s="29">
+      <c r="E97" s="104">
         <v>20</v>
       </c>
-      <c r="F97" s="30">
-        <v>0</v>
-      </c>
-      <c r="G97" s="96"/>
-      <c r="H97" s="95"/>
+      <c r="F97" s="105">
+        <v>0</v>
+      </c>
+      <c r="G97" s="96" t="s">
+        <v>285</v>
+      </c>
+      <c r="H97" s="96">
+        <v>45155</v>
+      </c>
       <c r="I97" s="95"/>
       <c r="J97" s="80"/>
       <c r="K97" s="1"/>
@@ -5898,29 +5936,27 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="83"/>
-      <c r="B98" s="103" t="s">
+      <c r="B98" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C98" s="103" t="s">
-        <v>174</v>
-      </c>
-      <c r="D98" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="E98" s="104">
-        <v>7</v>
-      </c>
-      <c r="F98" s="105">
-        <v>0</v>
-      </c>
-      <c r="G98" s="87" t="s">
-        <v>286</v>
-      </c>
-      <c r="H98" s="96">
-        <v>45148</v>
-      </c>
+      <c r="C98" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E98" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="F98" s="30">
+        <v>0</v>
+      </c>
+      <c r="G98" s="92">
+        <v>45155</v>
+      </c>
+      <c r="H98" s="96"/>
       <c r="I98" s="95"/>
       <c r="J98" s="80"/>
       <c r="K98" s="1"/>
@@ -5929,27 +5965,29 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="83"/>
-      <c r="B99" s="28" t="s">
+      <c r="B99" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C99" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="D99" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="E99" s="29" t="s">
+      <c r="C99" s="103" t="s">
+        <v>174</v>
+      </c>
+      <c r="D99" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="E99" s="104">
+        <v>7</v>
+      </c>
+      <c r="F99" s="105">
+        <v>0</v>
+      </c>
+      <c r="G99" s="87" t="s">
         <v>285</v>
       </c>
-      <c r="F99" s="30">
-        <v>0</v>
-      </c>
-      <c r="G99" s="92">
+      <c r="H99" s="96">
         <v>45148</v>
       </c>
-      <c r="H99" s="96"/>
       <c r="I99" s="95"/>
       <c r="J99" s="80"/>
       <c r="K99" s="1"/>
@@ -5958,24 +5996,26 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="83"/>
       <c r="B100" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>127</v>
+        <v>300</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E100" s="29">
-        <v>12</v>
+        <v>247</v>
+      </c>
+      <c r="E100" s="29" t="s">
+        <v>284</v>
       </c>
       <c r="F100" s="30">
-        <v>0</v>
-      </c>
-      <c r="G100" s="87"/>
+        <v>3</v>
+      </c>
+      <c r="G100" s="92">
+        <v>45148</v>
+      </c>
       <c r="H100" s="96"/>
       <c r="I100" s="95"/>
       <c r="J100" s="80"/>
@@ -5985,24 +6025,24 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="83"/>
       <c r="B101" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E101" s="29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F101" s="30">
         <v>0</v>
       </c>
-      <c r="G101" s="92"/>
+      <c r="G101" s="87"/>
       <c r="H101" s="96"/>
       <c r="I101" s="95"/>
       <c r="J101" s="80"/>
@@ -6012,22 +6052,22 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="83"/>
       <c r="B102" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="E102" s="29">
         <v>10</v>
       </c>
       <c r="F102" s="30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G102" s="92"/>
       <c r="H102" s="96"/>
@@ -6039,13 +6079,23 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="83"/>
-      <c r="B103" s="103"/>
-      <c r="C103" s="103"/>
-      <c r="D103" s="103"/>
-      <c r="E103" s="104"/>
-      <c r="F103" s="105"/>
+      <c r="B103" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E103" s="29">
+        <v>10</v>
+      </c>
+      <c r="F103" s="30">
+        <v>4</v>
+      </c>
       <c r="G103" s="92"/>
       <c r="H103" s="96"/>
       <c r="I103" s="95"/>
@@ -6056,7 +6106,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="83"/>
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
@@ -6073,7 +6123,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="83"/>
       <c r="B105" s="103"/>
       <c r="C105" s="103"/>
@@ -6090,7 +6140,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="83"/>
       <c r="B106" s="21"/>
       <c r="C106" s="28"/>
@@ -6107,7 +6157,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="35"/>
       <c r="C107" s="35"/>
@@ -6118,7 +6168,7 @@
       </c>
       <c r="F107" s="38">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G107" s="84"/>
       <c r="H107" s="97"/>
@@ -6130,7 +6180,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6147,7 +6197,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6164,7 +6214,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
@@ -6185,7 +6235,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6202,7 +6252,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="83"/>
       <c r="B112" s="6" t="s">
         <v>3</v>
@@ -6229,7 +6279,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="83"/>
       <c r="B113" s="12" t="s">
         <v>13</v>
@@ -6242,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G113" s="84"/>
       <c r="H113" s="99"/>
@@ -6254,7 +6304,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="83"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -6271,7 +6321,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="83"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -6288,7 +6338,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="83"/>
       <c r="B116" s="28" t="s">
         <v>15</v>
@@ -6315,7 +6365,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="83"/>
       <c r="B117" s="28" t="s">
         <v>15</v>
@@ -6342,7 +6392,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="83"/>
       <c r="B118" s="103"/>
       <c r="C118" s="28"/>
@@ -6359,7 +6409,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="83"/>
       <c r="B119" s="28" t="s">
         <v>18</v>
@@ -6374,7 +6424,7 @@
         <v>15</v>
       </c>
       <c r="F119" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" s="87"/>
       <c r="H119" s="96"/>
@@ -6386,7 +6436,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="83"/>
       <c r="B120" s="28" t="s">
         <v>18</v>
@@ -6413,7 +6463,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="83"/>
       <c r="B121" s="103" t="s">
         <v>18</v>
@@ -6431,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="G121" s="92" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H121" s="96">
         <v>45155</v>
@@ -6444,19 +6494,19 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="83"/>
       <c r="B122" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C122" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="D122" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="D122" s="28" t="s">
-        <v>304</v>
-      </c>
       <c r="E122" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F122" s="30">
         <v>0</v>
@@ -6473,7 +6523,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="83"/>
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
@@ -6490,7 +6540,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="83"/>
       <c r="B124" s="28" t="s">
         <v>19</v>
@@ -6505,7 +6555,7 @@
         <v>35</v>
       </c>
       <c r="F124" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" s="90"/>
       <c r="H124" s="99"/>
@@ -6517,7 +6567,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="83"/>
       <c r="B125" s="28" t="s">
         <v>19</v>
@@ -6544,7 +6594,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="83"/>
       <c r="B126" s="28" t="s">
         <v>19</v>
@@ -6571,7 +6621,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="83"/>
       <c r="B127" s="28" t="s">
         <v>19</v>
@@ -6598,7 +6648,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="83"/>
       <c r="B128" s="28" t="s">
         <v>19</v>
@@ -6613,7 +6663,7 @@
         <v>8</v>
       </c>
       <c r="F128" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G128" s="87"/>
       <c r="H128" s="96"/>
@@ -6625,7 +6675,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="83"/>
       <c r="B129" s="28"/>
       <c r="C129" s="103"/>
@@ -6642,7 +6692,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="83"/>
       <c r="B130" s="103"/>
       <c r="C130" s="28"/>
@@ -6659,7 +6709,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="83"/>
       <c r="B131" s="28"/>
       <c r="C131" s="103"/>
@@ -6676,7 +6726,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="83"/>
       <c r="B132" s="103"/>
       <c r="C132" s="103"/>
@@ -6693,7 +6743,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="83"/>
       <c r="B133" s="21"/>
       <c r="C133" s="21"/>
@@ -6710,7 +6760,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="35"/>
       <c r="C134" s="35"/>
@@ -6721,7 +6771,7 @@
       </c>
       <c r="F134" s="38">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G134" s="84"/>
       <c r="H134" s="97"/>
@@ -6733,7 +6783,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6750,7 +6800,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6767,7 +6817,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="3" t="s">
@@ -6788,7 +6838,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6805,7 +6855,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="83"/>
       <c r="B139" s="6" t="s">
         <v>3</v>
@@ -6832,7 +6882,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="83"/>
       <c r="B140" s="12" t="s">
         <v>13</v>
@@ -6845,7 +6895,7 @@
         <v>3</v>
       </c>
       <c r="F140" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G140" s="84"/>
       <c r="H140" s="99"/>
@@ -6857,7 +6907,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="83"/>
       <c r="B141" s="21"/>
       <c r="C141" s="21"/>
@@ -6874,7 +6924,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="83"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -6891,7 +6941,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="83"/>
       <c r="B143" s="28" t="s">
         <v>15</v>
@@ -6918,7 +6968,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="83"/>
       <c r="B144" s="28" t="s">
         <v>15</v>
@@ -6945,7 +6995,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="83"/>
       <c r="B145" s="103"/>
       <c r="C145" s="21"/>
@@ -6962,7 +7012,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="83"/>
       <c r="B146" s="28" t="s">
         <v>18</v>
@@ -6977,7 +7027,7 @@
         <v>39</v>
       </c>
       <c r="F146" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146" s="92"/>
       <c r="H146" s="95"/>
@@ -6989,7 +7039,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="83"/>
       <c r="B147" s="28" t="s">
         <v>18</v>
@@ -7004,7 +7054,7 @@
         <v>3</v>
       </c>
       <c r="F147" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" s="87"/>
       <c r="H147" s="95"/>
@@ -7016,7 +7066,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="83"/>
       <c r="B148" s="28" t="s">
         <v>18</v>
@@ -7043,7 +7093,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="83"/>
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
@@ -7060,7 +7110,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="83"/>
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
@@ -7077,7 +7127,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="83"/>
       <c r="B151" s="28" t="s">
         <v>19</v>
@@ -7104,7 +7154,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="83"/>
       <c r="B152" s="28" t="s">
         <v>19</v>
@@ -7131,7 +7181,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="83"/>
       <c r="B153" s="28" t="s">
         <v>19</v>
@@ -7158,7 +7208,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="83"/>
       <c r="B154" s="28" t="s">
         <v>19</v>
@@ -7167,13 +7217,13 @@
         <v>161</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="E154" s="29">
         <v>1</v>
       </c>
       <c r="F154" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G154" s="87"/>
       <c r="H154" s="96"/>
@@ -7185,7 +7235,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="83"/>
       <c r="B155" s="28" t="s">
         <v>19</v>
@@ -7194,7 +7244,7 @@
         <v>39</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E155" s="29">
         <v>1</v>
@@ -7212,7 +7262,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="83"/>
       <c r="B156" s="28"/>
       <c r="C156" s="103"/>
@@ -7229,7 +7279,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="83"/>
       <c r="B157" s="103"/>
       <c r="C157" s="103"/>
@@ -7246,7 +7296,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="83"/>
       <c r="B158" s="28"/>
       <c r="C158" s="21"/>
@@ -7263,7 +7313,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="83"/>
       <c r="B159" s="103"/>
       <c r="C159" s="21"/>
@@ -7280,7 +7330,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="83"/>
       <c r="B160" s="21"/>
       <c r="C160" s="33"/>
@@ -7297,7 +7347,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="35"/>
       <c r="C161" s="35"/>
@@ -7308,7 +7358,7 @@
       </c>
       <c r="F161" s="38">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G161" s="84"/>
       <c r="H161" s="97"/>
@@ -7320,7 +7370,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -7337,7 +7387,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7354,7 +7404,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="3" t="s">
@@ -7375,7 +7425,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -7392,7 +7442,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="83"/>
       <c r="B166" s="6" t="s">
         <v>3</v>
@@ -7419,7 +7469,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="83"/>
       <c r="B167" s="12" t="s">
         <v>13</v>
@@ -7432,7 +7482,7 @@
         <v>4</v>
       </c>
       <c r="F167" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G167" s="84"/>
       <c r="H167" s="99"/>
@@ -7444,7 +7494,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="83"/>
       <c r="B168" s="21"/>
       <c r="C168" s="21"/>
@@ -7461,7 +7511,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="83"/>
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
@@ -7478,7 +7528,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="83"/>
       <c r="B170" s="28" t="s">
         <v>15</v>
@@ -7505,7 +7555,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="83"/>
       <c r="B171" s="28" t="s">
         <v>15</v>
@@ -7532,7 +7582,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="83"/>
       <c r="B172" s="28"/>
       <c r="C172" s="28"/>
@@ -7549,7 +7599,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="83"/>
       <c r="B173" s="28" t="s">
         <v>18</v>
@@ -7576,7 +7626,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="83"/>
       <c r="B174" s="28" t="s">
         <v>18</v>
@@ -7603,7 +7653,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="83"/>
       <c r="B175" s="28" t="s">
         <v>18</v>
@@ -7618,7 +7668,7 @@
         <v>1</v>
       </c>
       <c r="F175" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G175" s="92"/>
       <c r="H175" s="96"/>
@@ -7630,7 +7680,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="83"/>
       <c r="B176" s="28"/>
       <c r="C176" s="28"/>
@@ -7647,7 +7697,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="83"/>
       <c r="B177" s="28"/>
       <c r="C177" s="28"/>
@@ -7664,7 +7714,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="83"/>
       <c r="B178" s="28" t="s">
         <v>19</v>
@@ -7691,13 +7741,13 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="83"/>
       <c r="B179" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C179" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D179" s="28" t="s">
         <v>22</v>
@@ -7706,7 +7756,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G179" s="87"/>
       <c r="H179" s="96"/>
@@ -7718,7 +7768,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="83"/>
       <c r="B180" s="28" t="s">
         <v>19</v>
@@ -7745,7 +7795,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="83"/>
       <c r="B181" s="28" t="s">
         <v>19</v>
@@ -7772,7 +7822,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="83"/>
       <c r="B182" s="28" t="s">
         <v>19</v>
@@ -7787,7 +7837,7 @@
         <v>15</v>
       </c>
       <c r="F182" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" s="96"/>
       <c r="H182" s="92"/>
@@ -7799,7 +7849,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="83"/>
       <c r="B183" s="28"/>
       <c r="C183" s="103"/>
@@ -7816,7 +7866,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="83"/>
       <c r="B184" s="103"/>
       <c r="C184" s="103"/>
@@ -7833,7 +7883,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="83"/>
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
@@ -7850,7 +7900,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="83"/>
       <c r="B186" s="103"/>
       <c r="C186" s="103"/>
@@ -7867,7 +7917,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="83"/>
       <c r="B187" s="21"/>
       <c r="C187" s="28"/>
@@ -7884,7 +7934,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="35"/>
       <c r="C188" s="35"/>
@@ -7895,7 +7945,7 @@
       </c>
       <c r="F188" s="38">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G188" s="84"/>
       <c r="H188" s="97"/>
@@ -7907,7 +7957,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7924,7 +7974,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7941,7 +7991,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="3" t="s">
@@ -7962,7 +8012,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -7979,7 +8029,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="83"/>
       <c r="B193" s="6" t="s">
         <v>3</v>
@@ -8006,7 +8056,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="83"/>
       <c r="B194" s="12" t="s">
         <v>13</v>
@@ -8031,7 +8081,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="83"/>
       <c r="B195" s="21"/>
       <c r="C195" s="21"/>
@@ -8048,7 +8098,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="83"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -8065,7 +8115,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="83"/>
       <c r="B197" s="28" t="s">
         <v>15</v>
@@ -8092,7 +8142,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="83"/>
       <c r="B198" s="28" t="s">
         <v>15</v>
@@ -8119,7 +8169,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="83"/>
       <c r="B199" s="103"/>
       <c r="C199" s="28"/>
@@ -8136,7 +8186,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="83"/>
       <c r="B200" s="28" t="s">
         <v>18</v>
@@ -8163,7 +8213,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="83"/>
       <c r="B201" s="28" t="s">
         <v>18</v>
@@ -8190,7 +8240,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="83"/>
       <c r="B202" s="28" t="s">
         <v>18</v>
@@ -8217,7 +8267,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="83"/>
       <c r="B203" s="28"/>
       <c r="C203" s="21"/>
@@ -8234,7 +8284,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="83"/>
       <c r="B204" s="28"/>
       <c r="C204" s="21"/>
@@ -8251,7 +8301,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="83"/>
       <c r="B205" s="28" t="s">
         <v>19</v>
@@ -8278,7 +8328,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="83"/>
       <c r="B206" s="28" t="s">
         <v>19</v>
@@ -8305,7 +8355,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="83"/>
       <c r="B207" s="28" t="s">
         <v>19</v>
@@ -8332,7 +8382,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="83"/>
       <c r="B208" s="28" t="s">
         <v>19</v>
@@ -8347,7 +8397,7 @@
         <v>3</v>
       </c>
       <c r="F208" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G208" s="87"/>
       <c r="H208" s="96"/>
@@ -8359,7 +8409,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="83"/>
       <c r="B209" s="28" t="s">
         <v>19</v>
@@ -8386,7 +8436,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="83"/>
       <c r="B210" s="28"/>
       <c r="C210" s="28"/>
@@ -8403,7 +8453,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="83"/>
       <c r="B211" s="103"/>
       <c r="C211" s="28"/>
@@ -8420,7 +8470,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="83"/>
       <c r="B212" s="28"/>
       <c r="C212" s="28"/>
@@ -8437,7 +8487,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="83"/>
       <c r="B213" s="103"/>
       <c r="C213" s="21"/>
@@ -8454,7 +8504,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="83"/>
       <c r="B214" s="21"/>
       <c r="C214" s="33"/>
@@ -8471,7 +8521,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="35"/>
       <c r="C215" s="35"/>
@@ -8482,7 +8532,7 @@
       </c>
       <c r="F215" s="38">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G215" s="84"/>
       <c r="H215" s="97"/>
@@ -8494,7 +8544,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8511,7 +8561,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8528,7 +8578,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="3" t="s">
@@ -8549,7 +8599,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -8566,7 +8616,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="83"/>
       <c r="B220" s="6" t="s">
         <v>3</v>
@@ -8593,7 +8643,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="61"/>
       <c r="B221" s="12" t="s">
         <v>13</v>
@@ -8606,7 +8656,7 @@
         <v>6</v>
       </c>
       <c r="F221" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G221" s="84"/>
       <c r="H221" s="99"/>
@@ -8618,7 +8668,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="83"/>
       <c r="B222" s="21"/>
       <c r="C222" s="21"/>
@@ -8635,7 +8685,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="83"/>
       <c r="B223" s="21"/>
       <c r="C223" s="21"/>
@@ -8652,7 +8702,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="83"/>
       <c r="B224" s="28" t="s">
         <v>15</v>
@@ -8679,7 +8729,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="83"/>
       <c r="B225" s="28" t="s">
         <v>15</v>
@@ -8706,7 +8756,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="83"/>
       <c r="B226" s="103"/>
       <c r="C226" s="21"/>
@@ -8723,7 +8773,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="83"/>
       <c r="B227" s="28" t="s">
         <v>18</v>
@@ -8737,8 +8787,8 @@
       <c r="E227" s="29">
         <v>17</v>
       </c>
-      <c r="F227" s="105">
-        <v>0</v>
+      <c r="F227" s="30">
+        <v>1</v>
       </c>
       <c r="G227" s="87"/>
       <c r="H227" s="96"/>
@@ -8750,7 +8800,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="83"/>
       <c r="B228" s="28" t="s">
         <v>18</v>
@@ -8777,7 +8827,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="83"/>
       <c r="B229" s="28" t="s">
         <v>18</v>
@@ -8804,7 +8854,7 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="83"/>
       <c r="B230" s="28"/>
       <c r="C230" s="28"/>
@@ -8821,7 +8871,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="83"/>
       <c r="B231" s="28"/>
       <c r="C231" s="28"/>
@@ -8838,7 +8888,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="83"/>
       <c r="B232" s="28" t="s">
         <v>19</v>
@@ -8865,7 +8915,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="83"/>
       <c r="B233" s="28" t="s">
         <v>19</v>
@@ -8892,7 +8942,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="83"/>
       <c r="B234" s="28" t="s">
         <v>19</v>
@@ -8919,7 +8969,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="83"/>
       <c r="B235" s="28" t="s">
         <v>19</v>
@@ -8934,7 +8984,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G235" s="92"/>
       <c r="H235" s="96"/>
@@ -8946,7 +8996,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="83"/>
       <c r="B236" s="28" t="s">
         <v>19</v>
@@ -8973,7 +9023,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="83"/>
       <c r="B237" s="28"/>
       <c r="C237" s="103"/>
@@ -8990,7 +9040,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="83"/>
       <c r="B238" s="103"/>
       <c r="C238" s="28"/>
@@ -9007,7 +9057,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="83"/>
       <c r="B239" s="28"/>
       <c r="C239" s="103"/>
@@ -9024,7 +9074,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="83"/>
       <c r="B240" s="103"/>
       <c r="C240" s="28"/>
@@ -9041,7 +9091,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="83"/>
       <c r="B241" s="21"/>
       <c r="C241" s="28"/>
@@ -9058,7 +9108,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="35"/>
       <c r="C242" s="35"/>
@@ -9069,7 +9119,7 @@
       </c>
       <c r="F242" s="38">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G242" s="84"/>
       <c r="H242" s="97"/>
@@ -9081,7 +9131,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -9098,7 +9148,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9115,7 +9165,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="3" t="s">
@@ -9136,7 +9186,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -9153,7 +9203,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="83"/>
       <c r="B247" s="6" t="s">
         <v>3</v>
@@ -9172,7 +9222,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="83"/>
       <c r="B248" s="12" t="s">
         <v>13</v>
@@ -9185,7 +9235,7 @@
         <v>3</v>
       </c>
       <c r="F248" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G248" s="84"/>
       <c r="H248" s="99"/>
@@ -9197,7 +9247,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="83"/>
       <c r="B249" s="21"/>
       <c r="C249" s="21"/>
@@ -9214,7 +9264,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="83"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
@@ -9231,7 +9281,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="83"/>
       <c r="B251" s="28" t="s">
         <v>15</v>
@@ -9258,7 +9308,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="83"/>
       <c r="B252" s="28" t="s">
         <v>15</v>
@@ -9285,7 +9335,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="83"/>
       <c r="B253" s="103"/>
       <c r="C253" s="28"/>
@@ -9302,7 +9352,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="83"/>
       <c r="B254" s="28" t="s">
         <v>18</v>
@@ -9329,7 +9379,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="83"/>
       <c r="B255" s="28" t="s">
         <v>18</v>
@@ -9356,7 +9406,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="83"/>
       <c r="B256" s="28" t="s">
         <v>18</v>
@@ -9383,7 +9433,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="83"/>
       <c r="B257" s="28"/>
       <c r="C257" s="28"/>
@@ -9400,7 +9450,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="83"/>
       <c r="B258" s="28"/>
       <c r="C258" s="28"/>
@@ -9417,25 +9467,29 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="83"/>
-      <c r="B259" s="28" t="s">
+      <c r="B259" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C259" s="28" t="s">
+      <c r="C259" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="D259" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="E259" s="29">
+      <c r="D259" s="103" t="s">
+        <v>305</v>
+      </c>
+      <c r="E259" s="104">
         <v>26</v>
       </c>
-      <c r="F259" s="30">
-        <v>0</v>
-      </c>
-      <c r="G259" s="87"/>
-      <c r="H259" s="95"/>
+      <c r="F259" s="105">
+        <v>0</v>
+      </c>
+      <c r="G259" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="H259" s="96">
+        <v>45162</v>
+      </c>
       <c r="I259" s="95"/>
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
@@ -9444,24 +9498,26 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="83"/>
       <c r="B260" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>232</v>
+        <v>313</v>
       </c>
       <c r="D260" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="E260" s="29">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="E260" s="29" t="s">
+        <v>284</v>
       </c>
       <c r="F260" s="30">
-        <v>1</v>
-      </c>
-      <c r="G260" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G260" s="92">
+        <v>45162</v>
+      </c>
       <c r="H260" s="95"/>
       <c r="I260" s="95"/>
       <c r="J260" s="1"/>
@@ -9471,19 +9527,19 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="83"/>
       <c r="B261" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D261" s="28" t="s">
-        <v>26</v>
+        <v>226</v>
       </c>
       <c r="E261" s="29">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F261" s="30">
         <v>1</v>
@@ -9498,22 +9554,22 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="83"/>
       <c r="B262" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D262" s="28" t="s">
-        <v>236</v>
+        <v>26</v>
       </c>
       <c r="E262" s="29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F262" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G262" s="92"/>
       <c r="H262" s="96"/>
@@ -9525,22 +9581,22 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="83"/>
       <c r="B263" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D263" s="28" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="E263" s="29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F263" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G263" s="92"/>
       <c r="H263" s="96"/>
@@ -9552,13 +9608,23 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="83"/>
-      <c r="B264" s="28"/>
-      <c r="C264" s="28"/>
-      <c r="D264" s="28"/>
-      <c r="E264" s="29"/>
-      <c r="F264" s="30"/>
+      <c r="B264" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C264" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D264" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E264" s="29">
+        <v>1</v>
+      </c>
+      <c r="F264" s="30">
+        <v>1</v>
+      </c>
       <c r="G264" s="92"/>
       <c r="H264" s="96"/>
       <c r="I264" s="95"/>
@@ -9569,7 +9635,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="83"/>
       <c r="B265" s="103"/>
       <c r="C265" s="28"/>
@@ -9586,7 +9652,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="83"/>
       <c r="B266" s="28"/>
       <c r="C266" s="103"/>
@@ -9603,7 +9669,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="83"/>
       <c r="B267" s="103"/>
       <c r="C267" s="21"/>
@@ -9620,7 +9686,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="83"/>
       <c r="B268" s="21"/>
       <c r="C268" s="33"/>
@@ -9637,7 +9703,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="B269" s="35"/>
       <c r="C269" s="35"/>
@@ -9660,7 +9726,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -9677,7 +9743,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9694,7 +9760,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1" t="s">
@@ -9715,7 +9781,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -9732,7 +9798,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="83"/>
       <c r="B274" s="6" t="s">
         <v>3</v>
@@ -9759,7 +9825,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="83"/>
       <c r="B275" s="12" t="s">
         <v>13</v>
@@ -9772,7 +9838,7 @@
         <v>11</v>
       </c>
       <c r="F275" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G275" s="84"/>
       <c r="H275" s="97"/>
@@ -9784,7 +9850,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="83"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
@@ -9801,7 +9867,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="83"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
@@ -9818,7 +9884,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="83"/>
       <c r="B278" s="28" t="s">
         <v>15</v>
@@ -9845,7 +9911,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="83"/>
       <c r="B279" s="28" t="s">
         <v>15</v>
@@ -9872,7 +9938,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="83"/>
       <c r="B280" s="103"/>
       <c r="C280" s="21"/>
@@ -9889,7 +9955,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="83"/>
       <c r="B281" s="28" t="s">
         <v>18</v>
@@ -9916,7 +9982,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="83"/>
       <c r="B282" s="103" t="s">
         <v>18</v>
@@ -9934,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="G282" s="96" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H282" s="96">
         <v>45148</v>
@@ -9947,19 +10013,19 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="83"/>
       <c r="B283" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C283" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D283" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="D283" s="21" t="s">
-        <v>300</v>
-      </c>
       <c r="E283" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F283" s="30">
         <v>0</v>
@@ -9976,7 +10042,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="83"/>
       <c r="B284" s="28" t="s">
         <v>18</v>
@@ -10003,7 +10069,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="83"/>
       <c r="B285" s="28"/>
       <c r="C285" s="21"/>
@@ -10020,7 +10086,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="83"/>
       <c r="B286" s="28" t="s">
         <v>19</v>
@@ -10035,7 +10101,7 @@
         <v>30</v>
       </c>
       <c r="F286" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G286" s="87"/>
       <c r="H286" s="96"/>
@@ -10047,7 +10113,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="83"/>
       <c r="B287" s="28" t="s">
         <v>19</v>
@@ -10074,7 +10140,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="83"/>
       <c r="B288" s="28" t="s">
         <v>19</v>
@@ -10101,7 +10167,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="83"/>
       <c r="B289" s="28" t="s">
         <v>19</v>
@@ -10128,7 +10194,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="83"/>
       <c r="B290" s="28" t="s">
         <v>19</v>
@@ -10155,7 +10221,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="83"/>
       <c r="B291" s="28"/>
       <c r="C291" s="107"/>
@@ -10172,7 +10238,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="83"/>
       <c r="B292" s="103"/>
       <c r="C292" s="21"/>
@@ -10189,7 +10255,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="83"/>
       <c r="B293" s="28"/>
       <c r="C293" s="21"/>
@@ -10206,7 +10272,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="83"/>
       <c r="B294" s="103"/>
       <c r="C294" s="107"/>
@@ -10223,7 +10289,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="83"/>
       <c r="B295" s="21"/>
       <c r="C295" s="21"/>
@@ -10240,7 +10306,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1"/>
       <c r="B296" s="35"/>
       <c r="C296" s="35"/>
@@ -10251,7 +10317,7 @@
       </c>
       <c r="F296" s="38">
         <f>SUM(F277:F295)-SUM(F275:F276)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G296" s="84"/>
       <c r="H296" s="97"/>
@@ -10263,7 +10329,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -10280,7 +10346,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -10297,14 +10363,14 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E299" s="2"/>
       <c r="F299" s="1"/>
@@ -10318,7 +10384,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -10335,7 +10401,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="83"/>
       <c r="B301" s="6" t="s">
         <v>3</v>
@@ -10362,7 +10428,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="83"/>
       <c r="B302" s="12" t="s">
         <v>13</v>
@@ -10375,7 +10441,7 @@
         <v>6</v>
       </c>
       <c r="F302" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G302" s="84"/>
       <c r="H302" s="96"/>
@@ -10387,7 +10453,7 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="83"/>
       <c r="B303" s="21"/>
       <c r="C303" s="21"/>
@@ -10404,7 +10470,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="83"/>
       <c r="B304" s="21"/>
       <c r="C304" s="21"/>
@@ -10421,7 +10487,7 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="83"/>
       <c r="B305" s="28" t="s">
         <v>15</v>
@@ -10448,7 +10514,7 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="83"/>
       <c r="B306" s="28" t="s">
         <v>15</v>
@@ -10463,7 +10529,7 @@
         <v>1</v>
       </c>
       <c r="F306" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G306" s="92"/>
       <c r="H306" s="95"/>
@@ -10475,7 +10541,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="83"/>
       <c r="B307" s="103"/>
       <c r="C307" s="21"/>
@@ -10492,7 +10558,7 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="83"/>
       <c r="B308" s="28" t="s">
         <v>18</v>
@@ -10519,7 +10585,7 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="83"/>
       <c r="B309" s="28" t="s">
         <v>18</v>
@@ -10534,7 +10600,7 @@
         <v>1</v>
       </c>
       <c r="F309" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G309" s="87"/>
       <c r="H309" s="95"/>
@@ -10546,7 +10612,7 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="83"/>
       <c r="B310" s="28" t="s">
         <v>18</v>
@@ -10573,7 +10639,7 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="83"/>
       <c r="B311" s="28"/>
       <c r="C311" s="21"/>
@@ -10590,7 +10656,7 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="83"/>
       <c r="B312" s="28"/>
       <c r="C312" s="21"/>
@@ -10607,7 +10673,7 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="83"/>
       <c r="B313" s="28" t="s">
         <v>19</v>
@@ -10634,7 +10700,7 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="83"/>
       <c r="B314" s="28" t="s">
         <v>19</v>
@@ -10649,7 +10715,7 @@
         <v>20</v>
       </c>
       <c r="F314" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G314" s="92"/>
       <c r="H314" s="95"/>
@@ -10661,7 +10727,7 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="83"/>
       <c r="B315" s="28" t="s">
         <v>19</v>
@@ -10688,7 +10754,7 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="83"/>
       <c r="B316" s="28" t="s">
         <v>19</v>
@@ -10715,7 +10781,7 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="83"/>
       <c r="B317" s="28" t="s">
         <v>19</v>
@@ -10742,7 +10808,7 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="83"/>
       <c r="B318" s="28"/>
       <c r="C318" s="21"/>
@@ -10759,7 +10825,7 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="83"/>
       <c r="B319" s="103"/>
       <c r="C319" s="107"/>
@@ -10776,7 +10842,7 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="83"/>
       <c r="B320" s="28"/>
       <c r="C320" s="21"/>
@@ -10793,7 +10859,7 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="83"/>
       <c r="B321" s="103"/>
       <c r="C321" s="21"/>
@@ -10810,7 +10876,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="83"/>
       <c r="B322" s="21"/>
       <c r="C322" s="33"/>
@@ -10827,7 +10893,7 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" s="1"/>
       <c r="B323" s="35"/>
       <c r="C323" s="35"/>
@@ -10838,7 +10904,7 @@
       </c>
       <c r="F323" s="38">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G323" s="84"/>
       <c r="H323" s="97"/>
@@ -10850,7 +10916,7 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -10867,7 +10933,7 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -10884,7 +10950,7 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1" t="s">
@@ -10905,7 +10971,7 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -10922,7 +10988,7 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="83"/>
       <c r="B328" s="6" t="s">
         <v>3</v>
@@ -10949,7 +11015,7 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="83"/>
       <c r="B329" s="12" t="s">
         <v>13</v>
@@ -10962,7 +11028,7 @@
         <v>1</v>
       </c>
       <c r="F329" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G329" s="87"/>
       <c r="H329" s="95"/>
@@ -10974,7 +11040,7 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="83"/>
       <c r="B330" s="21"/>
       <c r="C330" s="21"/>
@@ -10991,7 +11057,7 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="83"/>
       <c r="B331" s="21"/>
       <c r="C331" s="21"/>
@@ -11008,7 +11074,7 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="83"/>
       <c r="B332" s="28" t="s">
         <v>15</v>
@@ -11035,7 +11101,7 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="83"/>
       <c r="B333" s="28" t="s">
         <v>15</v>
@@ -11062,7 +11128,7 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="83"/>
       <c r="B334" s="103"/>
       <c r="C334" s="21"/>
@@ -11079,25 +11145,29 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="83"/>
-      <c r="B335" s="28" t="s">
+      <c r="B335" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C335" s="21" t="s">
+      <c r="C335" s="107" t="s">
         <v>264</v>
       </c>
-      <c r="D335" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="E335" s="22">
+      <c r="D335" s="107" t="s">
+        <v>304</v>
+      </c>
+      <c r="E335" s="108">
         <v>22</v>
       </c>
       <c r="F335" s="105">
         <v>0</v>
       </c>
-      <c r="G335" s="92"/>
-      <c r="H335" s="96"/>
+      <c r="G335" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="H335" s="96">
+        <v>45155</v>
+      </c>
       <c r="I335" s="95"/>
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
@@ -11106,24 +11176,26 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="83"/>
       <c r="B336" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C336" s="21" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="D336" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E336" s="22">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E336" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="F336" s="30">
-        <v>1</v>
-      </c>
-      <c r="G336" s="92"/>
+        <v>0</v>
+      </c>
+      <c r="G336" s="92">
+        <v>45155</v>
+      </c>
       <c r="H336" s="95"/>
       <c r="I336" s="95"/>
       <c r="J336" s="1"/>
@@ -11133,24 +11205,24 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="83"/>
       <c r="B337" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C337" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D337" s="21" t="s">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="E337" s="22">
+        <v>19</v>
+      </c>
+      <c r="F337" s="30">
         <v>1</v>
       </c>
-      <c r="F337" s="30">
-        <v>0</v>
-      </c>
-      <c r="G337" s="87"/>
+      <c r="G337" s="92"/>
       <c r="H337" s="95"/>
       <c r="I337" s="95"/>
       <c r="J337" s="1"/>
@@ -11160,15 +11232,29 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="83"/>
-      <c r="B338" s="28"/>
-      <c r="C338" s="21"/>
-      <c r="D338" s="21"/>
-      <c r="E338" s="22"/>
-      <c r="F338" s="30"/>
-      <c r="G338" s="87"/>
-      <c r="H338" s="96"/>
+      <c r="B338" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C338" s="107" t="s">
+        <v>266</v>
+      </c>
+      <c r="D338" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="E338" s="108">
+        <v>1</v>
+      </c>
+      <c r="F338" s="105">
+        <v>0</v>
+      </c>
+      <c r="G338" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="H338" s="96">
+        <v>45155</v>
+      </c>
       <c r="I338" s="95"/>
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
@@ -11177,27 +11263,39 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="83"/>
-      <c r="B339" s="28"/>
-      <c r="C339" s="21"/>
-      <c r="D339" s="21"/>
-      <c r="E339" s="22"/>
-      <c r="F339" s="30"/>
-      <c r="G339" s="92"/>
-      <c r="H339" s="95"/>
+      <c r="B339" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C339" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="D339" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E339" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F339" s="30">
+        <v>0</v>
+      </c>
+      <c r="G339" s="92">
+        <v>45155</v>
+      </c>
+      <c r="H339" s="96"/>
       <c r="I339" s="95"/>
       <c r="J339" s="1"/>
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="83"/>
       <c r="B340" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C340" s="21" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="D340" s="21" t="s">
         <v>226</v>
@@ -11206,7 +11304,7 @@
         <v>22</v>
       </c>
       <c r="F340" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G340" s="87"/>
       <c r="H340" s="95"/>
@@ -11215,13 +11313,13 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="83"/>
       <c r="B341" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C341" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D341" s="21" t="s">
         <v>25</v>
@@ -11230,7 +11328,7 @@
         <v>20</v>
       </c>
       <c r="F341" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G341" s="87"/>
       <c r="H341" s="96"/>
@@ -11239,13 +11337,13 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="83"/>
       <c r="B342" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C342" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D342" s="21" t="s">
         <v>100</v>
@@ -11263,16 +11361,16 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="83"/>
       <c r="B343" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C343" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D343" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E343" s="22">
         <v>3</v>
@@ -11287,13 +11385,13 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="83"/>
       <c r="B344" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C344" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D344" s="21" t="s">
         <v>14</v>
@@ -11311,7 +11409,7 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="83"/>
       <c r="B345" s="28"/>
       <c r="C345" s="21"/>
@@ -11325,7 +11423,7 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="83"/>
       <c r="B346" s="103"/>
       <c r="C346" s="107"/>
@@ -11339,7 +11437,7 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="83"/>
       <c r="B347" s="28"/>
       <c r="C347" s="21"/>
@@ -11353,7 +11451,7 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="83"/>
       <c r="B348" s="103"/>
       <c r="C348" s="107"/>
@@ -11367,7 +11465,7 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="83"/>
       <c r="B349" s="21"/>
       <c r="C349" s="21"/>
@@ -11381,7 +11479,7 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="1"/>
       <c r="B350" s="35"/>
       <c r="C350" s="35"/>
@@ -11392,7 +11490,7 @@
       </c>
       <c r="F350" s="38">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="G350" s="87"/>
       <c r="H350" s="95"/>
@@ -11401,7 +11499,7 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -11415,7 +11513,7 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="353" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B353" s="1"/>
       <c r="C353" s="1" t="s">
         <v>223</v>
@@ -11426,14 +11524,14 @@
       <c r="E353" s="2"/>
       <c r="F353" s="1"/>
     </row>
-    <row r="354" spans="2:6" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="5"/>
       <c r="F354" s="4"/>
     </row>
-    <row r="355" spans="2:6" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B355" s="6" t="s">
         <v>3</v>
       </c>
@@ -11450,7 +11548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B356" s="12" t="s">
         <v>13</v>
       </c>
@@ -11462,29 +11560,29 @@
         <v>1</v>
       </c>
       <c r="F356" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B357" s="21"/>
       <c r="C357" s="21"/>
       <c r="D357" s="21"/>
       <c r="E357" s="22"/>
       <c r="F357" s="21"/>
     </row>
-    <row r="358" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B358" s="21"/>
       <c r="C358" s="21"/>
       <c r="D358" s="21"/>
       <c r="E358" s="22"/>
       <c r="F358" s="21"/>
     </row>
-    <row r="359" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B359" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C359" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D359" s="21" t="s">
         <v>79</v>
@@ -11496,12 +11594,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B360" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C360" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D360" s="21" t="s">
         <v>48</v>
@@ -11513,19 +11611,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B361" s="103"/>
       <c r="C361" s="107"/>
       <c r="D361" s="107"/>
       <c r="E361" s="108"/>
       <c r="F361" s="105"/>
     </row>
-    <row r="362" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B362" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C362" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D362" s="21" t="s">
         <v>164</v>
@@ -11537,12 +11635,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B363" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C363" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D363" s="21" t="s">
         <v>103</v>
@@ -11554,15 +11652,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B364" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C364" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D364" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E364" s="22">
         <v>1</v>
@@ -11571,26 +11669,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B365" s="28"/>
       <c r="C365" s="21"/>
       <c r="D365" s="21"/>
       <c r="E365" s="22"/>
       <c r="F365" s="30"/>
     </row>
-    <row r="366" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B366" s="28"/>
       <c r="C366" s="21"/>
       <c r="D366" s="21"/>
       <c r="E366" s="22"/>
       <c r="F366" s="30"/>
     </row>
-    <row r="367" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B367" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C367" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D367" s="21" t="s">
         <v>182</v>
@@ -11602,12 +11700,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B368" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C368" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D368" s="21" t="s">
         <v>36</v>
@@ -11616,15 +11714,15 @@
         <v>35</v>
       </c>
       <c r="F368" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B369" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C369" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D369" s="21" t="s">
         <v>118</v>
@@ -11636,12 +11734,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C370" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D370" s="21" t="s">
         <v>118</v>
@@ -11653,12 +11751,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B371" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C371" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D371" s="21" t="s">
         <v>21</v>
@@ -11670,42 +11768,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B372" s="28"/>
       <c r="C372" s="21"/>
       <c r="D372" s="21"/>
       <c r="E372" s="22"/>
       <c r="F372" s="30"/>
     </row>
-    <row r="373" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B373" s="103"/>
       <c r="C373" s="107"/>
       <c r="D373" s="107"/>
       <c r="E373" s="108"/>
       <c r="F373" s="105"/>
     </row>
-    <row r="374" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B374" s="28"/>
       <c r="C374" s="21"/>
       <c r="D374" s="21"/>
       <c r="E374" s="22"/>
       <c r="F374" s="30"/>
     </row>
-    <row r="375" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B375" s="103"/>
       <c r="C375" s="107"/>
       <c r="D375" s="107"/>
       <c r="E375" s="108"/>
       <c r="F375" s="105"/>
     </row>
-    <row r="376" spans="2:6" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B376" s="21"/>
       <c r="C376" s="21"/>
       <c r="D376" s="21"/>
       <c r="E376" s="22"/>
       <c r="F376" s="21"/>
     </row>
-    <row r="377" spans="2:6" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B377" s="35"/>
       <c r="C377" s="35"/>
       <c r="D377" s="36"/>
@@ -11753,21 +11851,21 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="41" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" style="41" customWidth="1"/>
     <col min="3" max="3" width="31" style="41" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="35.296875" style="41" customWidth="1"/>
     <col min="5" max="6" width="9" style="41" customWidth="1"/>
     <col min="7" max="7" width="11" style="41" customWidth="1"/>
     <col min="8" max="256" width="9" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -11784,7 +11882,7 @@
       </c>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -11799,7 +11897,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -11812,12 +11910,12 @@
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="44"/>
@@ -11827,7 +11925,7 @@
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
     </row>
-    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="43"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -11840,7 +11938,7 @@
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
     </row>
-    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="14.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="50"/>
       <c r="B6" s="51" t="s">
         <v>3</v>
@@ -11865,97 +11963,97 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50"/>
       <c r="B7" s="57">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>116</v>
       </c>
       <c r="E7" s="25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F7" s="26">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G7" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="55"/>
       <c r="I7" s="44"/>
       <c r="J7" s="44"/>
       <c r="K7" s="56"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50"/>
       <c r="B8" s="57">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E8" s="25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="44"/>
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="50"/>
       <c r="B9" s="57">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E9" s="25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="26">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G9" s="27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H9" s="55"/>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50"/>
       <c r="B10" s="57">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="E10" s="25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" s="27">
         <v>2</v>
@@ -11965,72 +12063,72 @@
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50"/>
       <c r="B11" s="57">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>224</v>
+        <v>2</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>223</v>
+        <v>1</v>
       </c>
       <c r="E11" s="25">
+        <v>3</v>
+      </c>
+      <c r="F11" s="26">
+        <v>5</v>
+      </c>
+      <c r="G11" s="27">
         <v>2</v>
-      </c>
-      <c r="F11" s="26">
-        <v>3</v>
-      </c>
-      <c r="G11" s="27">
-        <v>1</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50"/>
       <c r="B12" s="57">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E12" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50"/>
       <c r="B13" s="57">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="25">
         <v>2</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="25">
-        <v>1</v>
-      </c>
       <c r="F13" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="27">
         <v>2</v>
@@ -12040,157 +12138,157 @@
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50"/>
       <c r="B14" s="57">
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="E14" s="25">
         <v>1</v>
       </c>
       <c r="F14" s="59">
+        <v>3</v>
+      </c>
+      <c r="G14" s="60">
         <v>2</v>
-      </c>
-      <c r="G14" s="60">
-        <v>1</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="50"/>
       <c r="B15" s="57">
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="E15" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G15" s="27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H15" s="55"/>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50"/>
       <c r="B16" s="57">
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>222</v>
+        <v>84</v>
       </c>
       <c r="E16" s="25">
         <v>0</v>
       </c>
       <c r="F16" s="26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50"/>
       <c r="B17" s="57">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="E17" s="25">
         <v>0</v>
       </c>
       <c r="F17" s="26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G17" s="27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
       <c r="K17" s="44"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50"/>
       <c r="B18" s="57">
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="E18" s="25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F18" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50"/>
       <c r="B19" s="57">
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E19" s="25">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F19" s="26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19" s="27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
     </row>
-    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="50"/>
       <c r="B20" s="62">
         <v>14</v>
@@ -12202,20 +12300,20 @@
         <v>98</v>
       </c>
       <c r="E20" s="25">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F20" s="26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G20" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" s="55"/>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
     </row>
-    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="63"/>
       <c r="C21" s="63"/>
@@ -12228,7 +12326,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -12262,17 +12360,17 @@
       <selection activeCell="A24" sqref="A24:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="41" customWidth="1"/>
-    <col min="6" max="7" width="9.33203125" style="41" customWidth="1"/>
-    <col min="8" max="257" width="8.83203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="33.296875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="31.296875" style="41" customWidth="1"/>
+    <col min="6" max="7" width="9.296875" style="41" customWidth="1"/>
+    <col min="8" max="257" width="8.796875" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="66" t="s">
         <v>117</v>
       </c>
@@ -12282,7 +12380,7 @@
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -12290,7 +12388,7 @@
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="67" t="s">
         <v>54</v>
       </c>
@@ -12300,7 +12398,7 @@
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="71" t="s">
         <v>61</v>
       </c>
@@ -12323,7 +12421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="71" t="s">
         <v>62</v>
       </c>
@@ -12346,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="71" t="s">
         <v>63</v>
       </c>
@@ -12369,7 +12467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="71" t="s">
         <v>64</v>
       </c>
@@ -12392,7 +12490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="71" t="s">
         <v>65</v>
       </c>
@@ -12415,7 +12513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="71"/>
       <c r="B9" s="69"/>
       <c r="C9" s="69"/>
@@ -12424,7 +12522,7 @@
       <c r="F9" s="43"/>
       <c r="G9" s="65"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="67" t="s">
         <v>93</v>
       </c>
@@ -12434,7 +12532,7 @@
       <c r="F10" s="43"/>
       <c r="G10" s="65"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="71" t="s">
         <v>66</v>
       </c>
@@ -12457,7 +12555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="71" t="s">
         <v>67</v>
       </c>
@@ -12480,7 +12578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="71" t="s">
         <v>68</v>
       </c>
@@ -12503,7 +12601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="71" t="s">
         <v>69</v>
       </c>
@@ -12526,7 +12624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="69"/>
       <c r="C15" s="68"/>
       <c r="D15" s="43"/>
@@ -12534,7 +12632,7 @@
       <c r="F15" s="70"/>
       <c r="G15" s="43"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="67" t="s">
         <v>150</v>
       </c>
@@ -12544,7 +12642,7 @@
       <c r="F16" s="70"/>
       <c r="G16" s="43"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -12567,7 +12665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="69"/>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
@@ -12575,7 +12673,7 @@
       <c r="F18" s="70"/>
       <c r="G18" s="43"/>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="69"/>
       <c r="C19" s="68"/>
       <c r="D19" s="43"/>
@@ -12583,7 +12681,7 @@
       <c r="F19" s="70"/>
       <c r="G19" s="43"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="67" t="s">
         <v>55</v>
       </c>
@@ -12593,7 +12691,7 @@
       <c r="F20" s="70"/>
       <c r="G20" s="43"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="71" t="s">
         <v>129</v>
       </c>
@@ -12616,7 +12714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="71" t="s">
         <v>130</v>
       </c>
@@ -12639,7 +12737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="69"/>
       <c r="C23" s="69"/>
       <c r="D23" s="68"/>
@@ -12647,7 +12745,7 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="67" t="s">
         <v>56</v>
       </c>
@@ -12657,7 +12755,7 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="71" t="s">
         <v>151</v>
       </c>
@@ -12680,7 +12778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
       <c r="D26" s="68"/>
@@ -12688,7 +12786,7 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="67" t="s">
         <v>57</v>
       </c>
@@ -12699,7 +12797,7 @@
       <c r="G27" s="43"/>
       <c r="K27" s="109"/>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="69" t="s">
         <v>86</v>
       </c>

--- a/data/DreamLeague23-24.xlsx
+++ b/data/DreamLeague23-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\dreamleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="426" documentId="8_{2143D4C5-D5B5-4416-B5A6-A1B2D5502F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B4717F7-D007-48D4-8661-19F1FB9DC31D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DFD8AE-238C-4BF7-9D73-72BAB152ED2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Table" sheetId="3" r:id="rId3"/>
     <sheet name="Cup" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="327">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -991,6 +991,30 @@
   </si>
   <si>
     <t>MACAULEY LANGSTAFF</t>
+  </si>
+  <si>
+    <t>CHRIS LONG</t>
+  </si>
+  <si>
+    <t>CREWE</t>
+  </si>
+  <si>
+    <t>JAKE YOUNG</t>
+  </si>
+  <si>
+    <t>JONATHAN ROWE</t>
+  </si>
+  <si>
+    <t>MARTYN WAGHORN</t>
+  </si>
+  <si>
+    <t>SOLLY MARCH</t>
+  </si>
+  <si>
+    <t>WATFORD</t>
+  </si>
+  <si>
+    <t>WILL EVANS</t>
   </si>
 </sst>
 </file>
@@ -1727,9 +1751,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1738,6 +1759,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2929,8 +2953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX377"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:O16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A137" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3049,13 +3073,13 @@
       <c r="O4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="116" t="s">
+      <c r="R4" s="115" t="s">
         <v>287</v>
       </c>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
+      <c r="S4" s="115"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="115"/>
     </row>
     <row r="5" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
@@ -3070,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="87"/>
       <c r="H5" s="88"/>
@@ -3090,25 +3114,25 @@
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="115">
+      <c r="S5" s="114">
         <f>_xlfn.XLOOKUP(R5,K:K,M:M)</f>
         <v>3</v>
       </c>
-      <c r="T5" s="114" t="s">
+      <c r="T5" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="U5" s="115">
+      <c r="U5" s="114">
         <f>_xlfn.XLOOKUP(V5,K:K,M:M)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V5" s="81" t="s">
         <v>224</v>
@@ -3135,11 +3159,11 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
@@ -3148,14 +3172,14 @@
       <c r="R6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="115">
+      <c r="S6" s="114">
         <f>_xlfn.XLOOKUP(R6,K:K,M:M)</f>
         <v>3</v>
       </c>
-      <c r="T6" s="114" t="s">
+      <c r="T6" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="U6" s="115">
+      <c r="U6" s="114">
         <f>_xlfn.XLOOKUP(V6,K:K,M:M)</f>
         <v>4</v>
       </c>
@@ -3188,25 +3212,25 @@
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R7" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="S7" s="115">
+      <c r="S7" s="114">
         <f>_xlfn.XLOOKUP(R7,K:K,M:M)</f>
         <v>3</v>
       </c>
-      <c r="T7" s="114" t="s">
+      <c r="T7" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="U7" s="115">
+      <c r="U7" s="114">
         <f>_xlfn.XLOOKUP(V7,K:K,M:M)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="V7" s="81" t="s">
         <v>34</v>
@@ -3242,11 +3266,11 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
@@ -3284,11 +3308,11 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N9" s="77">
         <f>SUM(F116:F133)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O9" s="78">
         <f>SUM(F113:F115)</f>
@@ -3316,43 +3340,47 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F143:F160)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F140:F142)</f>
-        <v>6</v>
-      </c>
-      <c r="R10" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="116"/>
-      <c r="V10" s="116"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="115"/>
     </row>
     <row r="11" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="103" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="104">
         <v>17</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="105">
         <v>1</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="88"/>
+      <c r="G11" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="H11" s="88">
+        <v>45169</v>
+      </c>
       <c r="I11" s="110"/>
       <c r="J11" s="86"/>
       <c r="K11" s="23" t="str">
@@ -3369,23 +3397,23 @@
       </c>
       <c r="N11" s="26">
         <f>SUM(F170:F187)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F167:F169)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R11" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="S11" s="115">
+      <c r="S11" s="114">
         <f>SUM(F11:F15)</f>
-        <v>2</v>
-      </c>
-      <c r="T11" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="U11" s="115">
+      <c r="U11" s="114">
         <f>SUM(F227:F231)</f>
         <v>1</v>
       </c>
@@ -3399,18 +3427,20 @@
         <v>18</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>104</v>
+        <v>324</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="29">
-        <v>4</v>
+        <v>79</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>284</v>
       </c>
       <c r="F12" s="30">
-        <v>1</v>
-      </c>
-      <c r="G12" s="92"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="92">
+        <v>45169</v>
+      </c>
       <c r="H12" s="88"/>
       <c r="I12" s="110"/>
       <c r="J12" s="86"/>
@@ -3424,15 +3454,15 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="77">
         <f>SUM(F197:F214)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O12" s="78">
         <f>SUM(F194:F196)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -3441,19 +3471,19 @@
         <v>18</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="E13" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="92"/>
-      <c r="H13" s="79"/>
+      <c r="H13" s="88"/>
       <c r="I13" s="110"/>
       <c r="J13" s="86"/>
       <c r="K13" s="75" t="str">
@@ -3466,33 +3496,47 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="77">
         <f>SUM(F224:F241)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O13" s="78">
         <f>SUM(F221:F223)</f>
-        <v>5</v>
-      </c>
-      <c r="R13" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="115" t="s">
         <v>289</v>
       </c>
-      <c r="S13" s="116"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="116"/>
-      <c r="V13" s="116"/>
+      <c r="S13" s="115"/>
+      <c r="T13" s="115"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="115"/>
     </row>
     <row r="14" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="88"/>
+      <c r="B14" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="103" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="104">
+        <v>2</v>
+      </c>
+      <c r="F14" s="105">
+        <v>0</v>
+      </c>
+      <c r="G14" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="H14" s="88">
+        <v>45162</v>
+      </c>
       <c r="I14" s="110"/>
       <c r="J14" s="83"/>
       <c r="K14" s="75" t="str">
@@ -3509,25 +3553,25 @@
       </c>
       <c r="N14" s="77">
         <f>SUM(F251:F268)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O14" s="78">
         <f>SUM(F248:F250)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R14" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="S14" s="115">
+      <c r="S14" s="114">
         <f>_xlfn.XLOOKUP(R14,C:C,F:F)</f>
         <v>1</v>
       </c>
-      <c r="T14" s="114" t="s">
+      <c r="T14" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="U14" s="115">
+      <c r="U14" s="114">
         <f>_xlfn.XLOOKUP(V14,C:C,F:F)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V14" s="81" t="s">
         <v>232</v>
@@ -3535,12 +3579,24 @@
     </row>
     <row r="15" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="92"/>
+      <c r="B15" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="F15" s="30">
+        <v>1</v>
+      </c>
+      <c r="G15" s="92">
+        <v>45162</v>
+      </c>
       <c r="H15" s="88"/>
       <c r="I15" s="110"/>
       <c r="J15" s="86"/>
@@ -3554,11 +3610,11 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F277:F295)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F275:F276)</f>
@@ -3606,11 +3662,11 @@
       </c>
       <c r="N16" s="26">
         <f>SUM(F305:F322)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F302:F304)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -3648,23 +3704,23 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F332:F349)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F329:F331)</f>
-        <v>9</v>
-      </c>
-      <c r="R17" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" s="115" t="s">
         <v>292</v>
       </c>
-      <c r="S17" s="116"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="116"/>
-      <c r="V17" s="116"/>
+      <c r="S17" s="115"/>
+      <c r="T17" s="115"/>
+      <c r="U17" s="115"/>
+      <c r="V17" s="115"/>
     </row>
     <row r="18" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="83"/>
@@ -3699,29 +3755,29 @@
       </c>
       <c r="M18" s="25">
         <f t="shared" ref="M18" si="1">N18-O18</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F359:F376)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F356:F358)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R18" s="81" t="s">
         <v>301</v>
       </c>
-      <c r="S18" s="115">
+      <c r="S18" s="114">
         <f>_xlfn.XLOOKUP(R18,K:K,O:O)</f>
-        <v>2</v>
-      </c>
-      <c r="T18" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="U18" s="115">
+      <c r="U18" s="114">
         <f>_xlfn.XLOOKUP(V18,K:K,O:O)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V18" s="81" t="s">
         <v>46</v>
@@ -3784,35 +3840,37 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="R20" s="116" t="s">
+      <c r="R20" s="115" t="s">
         <v>293</v>
       </c>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="116"/>
+      <c r="S20" s="115"/>
+      <c r="T20" s="115"/>
+      <c r="U20" s="115"/>
+      <c r="V20" s="115"/>
     </row>
     <row r="21" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="103" t="s">
         <v>306</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="104" t="s">
         <v>284</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="105">
         <v>0</v>
       </c>
       <c r="G21" s="92">
         <v>45155</v>
       </c>
-      <c r="H21" s="88"/>
+      <c r="H21" s="88">
+        <v>45169</v>
+      </c>
       <c r="I21" s="110"/>
       <c r="J21" s="80"/>
       <c r="K21" s="1"/>
@@ -3823,16 +3881,16 @@
       <c r="R21" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="S21" s="115">
+      <c r="S21" s="114">
         <f>_xlfn.XLOOKUP(R22,C:C,F:F)</f>
         <v>1</v>
       </c>
-      <c r="T21" s="114" t="s">
+      <c r="T21" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="U21" s="115">
+      <c r="U21" s="114">
         <f>_xlfn.XLOOKUP(V22,C:C,F:F)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" s="81" t="s">
         <v>70</v>
@@ -3844,18 +3902,20 @@
         <v>19</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>165</v>
+        <v>323</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="29">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>284</v>
       </c>
       <c r="F22" s="30">
         <v>0</v>
       </c>
-      <c r="G22" s="92"/>
+      <c r="G22" s="92">
+        <v>45169</v>
+      </c>
       <c r="H22" s="79"/>
       <c r="I22" s="94"/>
       <c r="J22" s="80"/>
@@ -3873,11 +3933,21 @@
     </row>
     <row r="23" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="83"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="105"/>
+      <c r="B23" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="29">
+        <v>1</v>
+      </c>
+      <c r="F23" s="30">
+        <v>0</v>
+      </c>
       <c r="G23" s="92"/>
       <c r="H23" s="88"/>
       <c r="I23" s="94"/>
@@ -3904,13 +3974,13 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="R24" s="116" t="s">
+      <c r="R24" s="115" t="s">
         <v>294</v>
       </c>
-      <c r="S24" s="116"/>
-      <c r="T24" s="116"/>
-      <c r="U24" s="116"/>
-      <c r="V24" s="116"/>
+      <c r="S24" s="115"/>
+      <c r="T24" s="115"/>
+      <c r="U24" s="115"/>
+      <c r="V24" s="115"/>
     </row>
     <row r="25" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="83"/>
@@ -3931,16 +4001,16 @@
       <c r="R25" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="S25" s="115">
+      <c r="S25" s="114">
         <f>(_xlfn.XLOOKUP(R25,K:K,M:M))-(_xlfn.XLOOKUP(R26,C:C,F:F))</f>
-        <v>-5</v>
-      </c>
-      <c r="T25" s="114" t="s">
+        <v>-2</v>
+      </c>
+      <c r="T25" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="U25" s="115">
+      <c r="U25" s="114">
         <f>(_xlfn.XLOOKUP(V25,K:K,M:M))-(_xlfn.XLOOKUP(V26,C:C,F:F))</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V25" s="81" t="s">
         <v>70</v>
@@ -4008,13 +4078,13 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="R28" s="116" t="s">
+      <c r="R28" s="115" t="s">
         <v>295</v>
       </c>
-      <c r="S28" s="116"/>
-      <c r="T28" s="116"/>
-      <c r="U28" s="116"/>
-      <c r="V28" s="116"/>
+      <c r="S28" s="115"/>
+      <c r="T28" s="115"/>
+      <c r="U28" s="115"/>
+      <c r="V28" s="115"/>
     </row>
     <row r="29" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -4108,7 +4178,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="116" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="14">
@@ -4117,8 +4187,12 @@
       <c r="F32" s="15">
         <v>8</v>
       </c>
-      <c r="G32" s="84"/>
-      <c r="H32" s="99"/>
+      <c r="G32" s="84" t="s">
+        <v>285</v>
+      </c>
+      <c r="H32" s="99">
+        <v>45169</v>
+      </c>
       <c r="I32" s="100"/>
       <c r="J32" s="80"/>
       <c r="K32" s="1"/>
@@ -4136,12 +4210,22 @@
     </row>
     <row r="33" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="83"/>
-      <c r="B33" s="21"/>
+      <c r="B33" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="90"/>
+      <c r="D33" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F33" s="21">
+        <v>0</v>
+      </c>
+      <c r="G33" s="90">
+        <v>45169</v>
+      </c>
       <c r="H33" s="97"/>
       <c r="I33" s="98"/>
       <c r="J33" s="80"/>
@@ -4293,13 +4377,13 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="R38" s="116" t="s">
+      <c r="R38" s="115" t="s">
         <v>296</v>
       </c>
-      <c r="S38" s="116"/>
-      <c r="T38" s="116"/>
-      <c r="U38" s="116"/>
-      <c r="V38" s="116"/>
+      <c r="S38" s="115"/>
+      <c r="T38" s="115"/>
+      <c r="U38" s="115"/>
+      <c r="V38" s="115"/>
     </row>
     <row r="39" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="83"/>
@@ -4316,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39" s="92"/>
       <c r="H39" s="95"/>
@@ -4444,7 +4528,7 @@
         <v>90</v>
       </c>
       <c r="F43" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" s="87"/>
       <c r="H43" s="92"/>
@@ -4557,10 +4641,10 @@
       <c r="F46" s="105">
         <v>0</v>
       </c>
-      <c r="G46" s="113" t="s">
+      <c r="G46" s="96" t="s">
         <v>285</v>
       </c>
-      <c r="H46" s="113">
+      <c r="H46" s="96">
         <v>45148</v>
       </c>
       <c r="I46" s="94"/>
@@ -4635,7 +4719,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="92"/>
       <c r="H48" s="96"/>
@@ -4776,7 +4860,7 @@
       </c>
       <c r="F53" s="38">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="G53" s="84"/>
       <c r="H53" s="97"/>
@@ -4877,7 +4961,7 @@
       </c>
       <c r="S56" s="81">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56" s="81" t="s">
         <v>224</v>
@@ -4960,7 +5044,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59" s="84"/>
       <c r="H59" s="97"/>
@@ -5003,7 +5087,7 @@
       </c>
       <c r="S60" s="81">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V60" s="81" t="s">
         <v>46</v>
@@ -5152,7 +5236,7 @@
         <v>30</v>
       </c>
       <c r="F65" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="87"/>
       <c r="H65" s="95"/>
@@ -5168,7 +5252,7 @@
       </c>
       <c r="S65" s="81">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V65" s="81" t="s">
         <v>24</v>
@@ -5296,7 +5380,7 @@
       </c>
       <c r="S69" s="81">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V69" s="81" t="s">
         <v>24</v>
@@ -5805,7 +5889,7 @@
         <v>13</v>
       </c>
       <c r="F92" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G92" s="87"/>
       <c r="H92" s="96"/>
@@ -5832,7 +5916,7 @@
         <v>6</v>
       </c>
       <c r="F93" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" s="92"/>
       <c r="H93" s="96"/>
@@ -6040,7 +6124,7 @@
         <v>12</v>
       </c>
       <c r="F101" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G101" s="87"/>
       <c r="H101" s="96"/>
@@ -6067,7 +6151,7 @@
         <v>10</v>
       </c>
       <c r="F102" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G102" s="92"/>
       <c r="H102" s="96"/>
@@ -6168,7 +6252,7 @@
       </c>
       <c r="F107" s="38">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G107" s="84"/>
       <c r="H107" s="97"/>
@@ -6424,7 +6508,7 @@
         <v>15</v>
       </c>
       <c r="F119" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G119" s="87"/>
       <c r="H119" s="96"/>
@@ -6509,7 +6593,7 @@
         <v>284</v>
       </c>
       <c r="F122" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G122" s="92">
         <v>45155</v>
@@ -6555,7 +6639,7 @@
         <v>35</v>
       </c>
       <c r="F124" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G124" s="90"/>
       <c r="H124" s="99"/>
@@ -6636,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G127" s="92"/>
       <c r="H127" s="96"/>
@@ -6771,7 +6855,7 @@
       </c>
       <c r="F134" s="38">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G134" s="84"/>
       <c r="H134" s="97"/>
@@ -6895,7 +6979,7 @@
         <v>3</v>
       </c>
       <c r="F140" s="15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G140" s="84"/>
       <c r="H140" s="99"/>
@@ -7136,13 +7220,13 @@
         <v>92</v>
       </c>
       <c r="D151" s="28" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="E151" s="29">
         <v>34</v>
       </c>
       <c r="F151" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G151" s="87"/>
       <c r="H151" s="96"/>
@@ -7240,10 +7324,10 @@
       <c r="B155" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C155" s="28" t="s">
+      <c r="C155" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="D155" s="28" t="s">
+      <c r="D155" s="103" t="s">
         <v>308</v>
       </c>
       <c r="E155" s="29">
@@ -7252,8 +7336,12 @@
       <c r="F155" s="30">
         <v>0</v>
       </c>
-      <c r="G155" s="92"/>
-      <c r="H155" s="96"/>
+      <c r="G155" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="H155" s="96">
+        <v>45169</v>
+      </c>
       <c r="I155" s="95"/>
       <c r="J155" s="80"/>
       <c r="K155" s="1"/>
@@ -7264,12 +7352,24 @@
     </row>
     <row r="156" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="83"/>
-      <c r="B156" s="28"/>
-      <c r="C156" s="103"/>
-      <c r="D156" s="103"/>
-      <c r="E156" s="104"/>
-      <c r="F156" s="105"/>
-      <c r="G156" s="87"/>
+      <c r="B156" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="D156" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E156" s="104" t="s">
+        <v>284</v>
+      </c>
+      <c r="F156" s="105">
+        <v>0</v>
+      </c>
+      <c r="G156" s="92">
+        <v>45169</v>
+      </c>
       <c r="H156" s="96"/>
       <c r="I156" s="95"/>
       <c r="J156" s="80"/>
@@ -7358,7 +7458,7 @@
       </c>
       <c r="F161" s="38">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G161" s="84"/>
       <c r="H161" s="97"/>
@@ -7482,7 +7582,7 @@
         <v>4</v>
       </c>
       <c r="F167" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G167" s="84"/>
       <c r="H167" s="99"/>
@@ -7756,7 +7856,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G179" s="87"/>
       <c r="H179" s="96"/>
@@ -8069,7 +8169,7 @@
         <v>2</v>
       </c>
       <c r="F194" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G194" s="84"/>
       <c r="H194" s="99"/>
@@ -8424,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G209" s="92"/>
       <c r="H209" s="96"/>
@@ -8532,7 +8632,7 @@
       </c>
       <c r="F215" s="38">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G215" s="84"/>
       <c r="H215" s="97"/>
@@ -8649,17 +8749,21 @@
         <v>13</v>
       </c>
       <c r="C221" s="112"/>
-      <c r="D221" s="12" t="s">
+      <c r="D221" s="116" t="s">
         <v>204</v>
       </c>
       <c r="E221" s="14">
         <v>6</v>
       </c>
       <c r="F221" s="15">
-        <v>5</v>
-      </c>
-      <c r="G221" s="84"/>
-      <c r="H221" s="99"/>
+        <v>6</v>
+      </c>
+      <c r="G221" s="84" t="s">
+        <v>285</v>
+      </c>
+      <c r="H221" s="99">
+        <v>45169</v>
+      </c>
       <c r="I221" s="98"/>
       <c r="J221" s="80"/>
       <c r="K221" s="1"/>
@@ -8670,12 +8774,22 @@
     </row>
     <row r="222" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="83"/>
-      <c r="B222" s="21"/>
+      <c r="B222" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="C222" s="21"/>
-      <c r="D222" s="21"/>
-      <c r="E222" s="22"/>
-      <c r="F222" s="21"/>
-      <c r="G222" s="99"/>
+      <c r="D222" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E222" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F222" s="21">
+        <v>0</v>
+      </c>
+      <c r="G222" s="99">
+        <v>45169</v>
+      </c>
       <c r="H222" s="97"/>
       <c r="I222" s="94"/>
       <c r="J222" s="80"/>
@@ -8717,7 +8831,7 @@
         <v>5</v>
       </c>
       <c r="F224" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224" s="87"/>
       <c r="H224" s="95"/>
@@ -8903,7 +9017,7 @@
         <v>25</v>
       </c>
       <c r="F232" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G232" s="92"/>
       <c r="H232" s="95"/>
@@ -8944,23 +9058,27 @@
     </row>
     <row r="234" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="83"/>
-      <c r="B234" s="28" t="s">
+      <c r="B234" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C234" s="28" t="s">
+      <c r="C234" s="103" t="s">
         <v>212</v>
       </c>
-      <c r="D234" s="28" t="s">
+      <c r="D234" s="103" t="s">
         <v>213</v>
       </c>
-      <c r="E234" s="29">
+      <c r="E234" s="104">
         <v>12</v>
       </c>
-      <c r="F234" s="30">
-        <v>0</v>
-      </c>
-      <c r="G234" s="92"/>
-      <c r="H234" s="96"/>
+      <c r="F234" s="105">
+        <v>0</v>
+      </c>
+      <c r="G234" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="H234" s="96">
+        <v>45162</v>
+      </c>
       <c r="I234" s="94"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -8975,18 +9093,20 @@
         <v>19</v>
       </c>
       <c r="C235" s="28" t="s">
-        <v>216</v>
+        <v>319</v>
       </c>
       <c r="D235" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="E235" s="29">
-        <v>1</v>
+        <v>320</v>
+      </c>
+      <c r="E235" s="29" t="s">
+        <v>284</v>
       </c>
       <c r="F235" s="30">
-        <v>2</v>
-      </c>
-      <c r="G235" s="92"/>
+        <v>0</v>
+      </c>
+      <c r="G235" s="92">
+        <v>45162</v>
+      </c>
       <c r="H235" s="96"/>
       <c r="I235" s="94"/>
       <c r="J235" s="80"/>
@@ -9002,16 +9122,16 @@
         <v>19</v>
       </c>
       <c r="C236" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D236" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E236" s="29">
         <v>1</v>
       </c>
       <c r="F236" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G236" s="87"/>
       <c r="H236" s="96"/>
@@ -9025,11 +9145,21 @@
     </row>
     <row r="237" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="83"/>
-      <c r="B237" s="28"/>
-      <c r="C237" s="103"/>
-      <c r="D237" s="103"/>
-      <c r="E237" s="104"/>
-      <c r="F237" s="105"/>
+      <c r="B237" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C237" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="D237" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="E237" s="29">
+        <v>1</v>
+      </c>
+      <c r="F237" s="30">
+        <v>0</v>
+      </c>
       <c r="G237" s="92"/>
       <c r="H237" s="96"/>
       <c r="I237" s="94"/>
@@ -9119,7 +9249,7 @@
       </c>
       <c r="F242" s="38">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G242" s="84"/>
       <c r="H242" s="97"/>
@@ -9235,7 +9365,7 @@
         <v>3</v>
       </c>
       <c r="F248" s="15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G248" s="84"/>
       <c r="H248" s="99"/>
@@ -9394,7 +9524,7 @@
         <v>4</v>
       </c>
       <c r="F255" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G255" s="87"/>
       <c r="H255" s="96"/>
@@ -9542,7 +9672,7 @@
         <v>40</v>
       </c>
       <c r="F261" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G261" s="87"/>
       <c r="H261" s="96"/>
@@ -10057,7 +10187,7 @@
         <v>2</v>
       </c>
       <c r="F284" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G284" s="92"/>
       <c r="H284" s="95"/>
@@ -10101,7 +10231,7 @@
         <v>30</v>
       </c>
       <c r="F286" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G286" s="87"/>
       <c r="H286" s="96"/>
@@ -10317,7 +10447,7 @@
       </c>
       <c r="F296" s="38">
         <f>SUM(F277:F295)-SUM(F275:F276)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G296" s="84"/>
       <c r="H296" s="97"/>
@@ -10441,7 +10571,7 @@
         <v>6</v>
       </c>
       <c r="F302" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G302" s="84"/>
       <c r="H302" s="96"/>
@@ -10560,23 +10690,27 @@
     </row>
     <row r="308" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="83"/>
-      <c r="B308" s="28" t="s">
+      <c r="B308" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C308" s="21" t="s">
+      <c r="C308" s="107" t="s">
         <v>253</v>
       </c>
-      <c r="D308" s="21" t="s">
+      <c r="D308" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="E308" s="22">
+      <c r="E308" s="108">
         <v>4</v>
       </c>
       <c r="F308" s="105">
         <v>0</v>
       </c>
-      <c r="G308" s="87"/>
-      <c r="H308" s="95"/>
+      <c r="G308" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="H308" s="96">
+        <v>45169</v>
+      </c>
       <c r="I308" s="95"/>
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
@@ -10591,18 +10725,20 @@
         <v>18</v>
       </c>
       <c r="C309" s="21" t="s">
-        <v>254</v>
+        <v>322</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E309" s="22">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E309" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="F309" s="30">
-        <v>3</v>
-      </c>
-      <c r="G309" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G309" s="92">
+        <v>45169</v>
+      </c>
       <c r="H309" s="95"/>
       <c r="I309" s="95"/>
       <c r="J309" s="1"/>
@@ -10618,16 +10754,16 @@
         <v>18</v>
       </c>
       <c r="C310" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D310" s="21" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E310" s="22">
         <v>1</v>
       </c>
       <c r="F310" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G310" s="87"/>
       <c r="H310" s="96"/>
@@ -10641,11 +10777,21 @@
     </row>
     <row r="311" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="83"/>
-      <c r="B311" s="28"/>
-      <c r="C311" s="21"/>
-      <c r="D311" s="21"/>
-      <c r="E311" s="22"/>
-      <c r="F311" s="30"/>
+      <c r="B311" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C311" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D311" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E311" s="22">
+        <v>1</v>
+      </c>
+      <c r="F311" s="30">
+        <v>1</v>
+      </c>
       <c r="G311" s="92"/>
       <c r="H311" s="95"/>
       <c r="I311" s="95"/>
@@ -10715,7 +10861,7 @@
         <v>20</v>
       </c>
       <c r="F314" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G314" s="92"/>
       <c r="H314" s="95"/>
@@ -10783,23 +10929,27 @@
     </row>
     <row r="317" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="83"/>
-      <c r="B317" s="28" t="s">
+      <c r="B317" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C317" s="21" t="s">
+      <c r="C317" s="107" t="s">
         <v>260</v>
       </c>
-      <c r="D317" s="21" t="s">
+      <c r="D317" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="E317" s="22">
+      <c r="E317" s="108">
         <v>1</v>
       </c>
-      <c r="F317" s="30">
+      <c r="F317" s="105">
         <v>1</v>
       </c>
-      <c r="G317" s="87"/>
-      <c r="H317" s="96"/>
+      <c r="G317" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="H317" s="96">
+        <v>45169</v>
+      </c>
       <c r="I317" s="95"/>
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
@@ -10810,12 +10960,24 @@
     </row>
     <row r="318" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="83"/>
-      <c r="B318" s="28"/>
-      <c r="C318" s="21"/>
-      <c r="D318" s="21"/>
-      <c r="E318" s="22"/>
-      <c r="F318" s="30"/>
-      <c r="G318" s="92"/>
+      <c r="B318" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C318" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D318" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E318" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F318" s="30">
+        <v>0</v>
+      </c>
+      <c r="G318" s="92">
+        <v>45169</v>
+      </c>
       <c r="H318" s="95"/>
       <c r="I318" s="95"/>
       <c r="J318" s="1"/>
@@ -11028,7 +11190,7 @@
         <v>1</v>
       </c>
       <c r="F329" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G329" s="87"/>
       <c r="H329" s="95"/>
@@ -11220,7 +11382,7 @@
         <v>19</v>
       </c>
       <c r="F337" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G337" s="92"/>
       <c r="H337" s="95"/>
@@ -11278,7 +11440,7 @@
         <v>284</v>
       </c>
       <c r="F339" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G339" s="92">
         <v>45155</v>
@@ -11490,7 +11652,7 @@
       </c>
       <c r="F350" s="38">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="G350" s="87"/>
       <c r="H350" s="95"/>
@@ -11560,7 +11722,7 @@
         <v>1</v>
       </c>
       <c r="F356" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -11765,7 +11927,7 @@
         <v>1</v>
       </c>
       <c r="F371" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -11813,7 +11975,7 @@
       </c>
       <c r="F377" s="38">
         <f>SUM(F359:F376)-SUM(F356:F358)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11850,8 +12012,8 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11969,16 +12131,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>301</v>
+        <v>34</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="E7" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" s="26">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G7" s="27">
         <v>2</v>
@@ -11994,19 +12156,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="E8" s="25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8" s="26">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G8" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="44"/>
@@ -12025,10 +12187,10 @@
         <v>71</v>
       </c>
       <c r="E9" s="25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F9" s="26">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G9" s="27">
         <v>7</v>
@@ -12053,10 +12215,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="55"/>
       <c r="I10" s="44"/>
@@ -12078,10 +12240,10 @@
         <v>3</v>
       </c>
       <c r="F11" s="26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="44"/>
@@ -12091,7 +12253,7 @@
     <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50"/>
       <c r="B12" s="57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>46</v>
@@ -12103,10 +12265,10 @@
         <v>3</v>
       </c>
       <c r="F12" s="26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="44"/>
@@ -12119,19 +12281,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>223</v>
+        <v>84</v>
       </c>
       <c r="E13" s="25">
         <v>2</v>
       </c>
       <c r="F13" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G13" s="27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="44"/>
@@ -12144,19 +12306,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="E14" s="25">
         <v>1</v>
       </c>
       <c r="F14" s="59">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G14" s="60">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="44"/>
@@ -12166,22 +12328,22 @@
     <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="50"/>
       <c r="B15" s="57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="E15" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" s="27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H15" s="55"/>
       <c r="I15" s="44"/>
@@ -12191,22 +12353,22 @@
     <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50"/>
       <c r="B16" s="57">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c r="E16" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="26">
         <v>5</v>
       </c>
       <c r="G16" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="44"/>
@@ -12216,7 +12378,7 @@
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50"/>
       <c r="B17" s="57">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>75</v>
@@ -12228,10 +12390,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G17" s="27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="44"/>
@@ -12244,16 +12406,16 @@
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E18" s="25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" s="27">
         <v>4</v>
@@ -12269,16 +12431,16 @@
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E19" s="25">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F19" s="26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G19" s="27">
         <v>8</v>
@@ -12300,13 +12462,13 @@
         <v>98</v>
       </c>
       <c r="E20" s="25">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F20" s="26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G20" s="27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H20" s="55"/>
       <c r="I20" s="44"/>

--- a/data/DreamLeague23-24.xlsx
+++ b/data/DreamLeague23-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\dreamleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354E7F59-8594-4F77-B99C-668EDD158291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261FF66E-DD23-4677-8818-255D8B1B0BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="334">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1024,6 +1024,18 @@
   </si>
   <si>
     <t>METZ</t>
+  </si>
+  <si>
+    <t>MATT GODDEN</t>
+  </si>
+  <si>
+    <t>JOSEPH TAYLOR</t>
+  </si>
+  <si>
+    <t>COLCHESTER</t>
+  </si>
+  <si>
+    <t>JAMES TILLEY</t>
   </si>
 </sst>
 </file>
@@ -1751,9 +1763,6 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1762,6 +1771,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2951,10 +2963,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IY378"/>
+  <dimension ref="A1:IY380"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A111" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A219" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G230" sqref="G230:H231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2998,7 +3010,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="116"/>
+      <c r="P1" s="115"/>
     </row>
     <row r="2" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -3020,7 +3032,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="116"/>
+      <c r="P2" s="115"/>
     </row>
     <row r="3" spans="1:23" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -3038,7 +3050,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="116"/>
+      <c r="P3" s="115"/>
     </row>
     <row r="4" spans="1:23" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="82"/>
@@ -3076,14 +3088,14 @@
       <c r="O4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="117"/>
-      <c r="S4" s="115" t="s">
+      <c r="P4" s="116"/>
+      <c r="S4" s="118" t="s">
         <v>286</v>
       </c>
-      <c r="T4" s="115"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="115"/>
-      <c r="W4" s="115"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
     </row>
     <row r="5" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="82"/>
@@ -3125,7 +3137,7 @@
         <v>7</v>
       </c>
       <c r="P5" s="1">
-        <f>RANK(M5,$M$5:$M$18)</f>
+        <f t="shared" ref="P5:P18" si="1">RANK(M5,$M$5:$M$18)</f>
         <v>10</v>
       </c>
       <c r="S5" s="80" t="s">
@@ -3178,7 +3190,7 @@
         <v>14</v>
       </c>
       <c r="P6" s="1">
-        <f>RANK(M6,$M$5:$M$18)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="S6" s="80" t="s">
@@ -3231,7 +3243,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="1">
-        <f>RANK(M7,$M$5:$M$18)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="S7" s="80" t="s">
@@ -3293,7 +3305,7 @@
         <v>6</v>
       </c>
       <c r="P8" s="1">
-        <f>RANK(M8,$M$5:$M$18)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3339,7 +3351,7 @@
         <v>10</v>
       </c>
       <c r="P9" s="1">
-        <f>RANK(M9,$M$5:$M$18)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3375,16 +3387,16 @@
         <v>11</v>
       </c>
       <c r="P10" s="1">
-        <f>RANK(M10,$M$5:$M$18)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="S10" s="115" t="s">
+      <c r="S10" s="118" t="s">
         <v>287</v>
       </c>
-      <c r="T10" s="115"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="115"/>
-      <c r="W10" s="115"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="118"/>
+      <c r="W10" s="118"/>
     </row>
     <row r="11" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="82"/>
@@ -3432,7 +3444,7 @@
         <v>5</v>
       </c>
       <c r="P11" s="1">
-        <f>RANK(M11,$M$5:$M$18)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="S11" s="80" t="s">
@@ -3497,7 +3509,7 @@
         <v>5</v>
       </c>
       <c r="P12" s="1">
-        <f>RANK(M12,$M$5:$M$18)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -3535,7 +3547,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="76">
-        <f>SUM(F225:F242)</f>
+        <f>SUM(F225:F243)</f>
         <v>15</v>
       </c>
       <c r="O13" s="77">
@@ -3543,16 +3555,16 @@
         <v>11</v>
       </c>
       <c r="P13" s="1">
-        <f>RANK(M13,$M$5:$M$18)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="S13" s="115" t="s">
+      <c r="S13" s="118" t="s">
         <v>288</v>
       </c>
-      <c r="T13" s="115"/>
-      <c r="U13" s="115"/>
-      <c r="V13" s="115"/>
-      <c r="W13" s="115"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="118"/>
     </row>
     <row r="14" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="82"/>
@@ -3580,11 +3592,11 @@
       <c r="I14" s="109"/>
       <c r="J14" s="82"/>
       <c r="K14" s="74" t="str">
-        <f>D246</f>
+        <f>D247</f>
         <v>SAM HARPER</v>
       </c>
       <c r="L14" s="75" t="str">
-        <f>C246</f>
+        <f>C247</f>
         <v>ONE AND A HALF A HARPER FC</v>
       </c>
       <c r="M14" s="25">
@@ -3592,15 +3604,15 @@
         <v>-2</v>
       </c>
       <c r="N14" s="76">
-        <f>SUM(F252:F269)</f>
+        <f>SUM(F253:F270)</f>
         <v>11</v>
       </c>
       <c r="O14" s="77">
-        <f>SUM(F249:F251)</f>
+        <f>SUM(F250:F252)</f>
         <v>13</v>
       </c>
       <c r="P14" s="1">
-        <f>RANK(M14,$M$5:$M$18)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="S14" s="80" t="s">
@@ -3645,11 +3657,11 @@
       <c r="I15" s="109"/>
       <c r="J15" s="85"/>
       <c r="K15" s="31" t="str">
-        <f>D273</f>
+        <f>D274</f>
         <v>TAMIKO JELENJE</v>
       </c>
       <c r="L15" s="32" t="str">
-        <f>C273</f>
+        <f>C274</f>
         <v>DREAMVILLE</v>
       </c>
       <c r="M15" s="25">
@@ -3657,15 +3669,15 @@
         <v>6</v>
       </c>
       <c r="N15" s="26">
-        <f>SUM(F278:F296)</f>
+        <f>SUM(F279:F297)</f>
         <v>12</v>
       </c>
       <c r="O15" s="27">
-        <f>SUM(F276:F277)</f>
+        <f>SUM(F277:F278)</f>
         <v>6</v>
       </c>
       <c r="P15" s="1">
-        <f>RANK(M15,$M$5:$M$18)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S15" s="80" t="s">
@@ -3697,11 +3709,11 @@
       <c r="I16" s="109"/>
       <c r="J16" s="85"/>
       <c r="K16" s="31" t="str">
-        <f>D300</f>
+        <f>D301</f>
         <v>CHRIS MCD, JIMBO &amp; ADG</v>
       </c>
       <c r="L16" s="32" t="str">
-        <f>C300</f>
+        <f>C301</f>
         <v>TIKI TAKA FC</v>
       </c>
       <c r="M16" s="25">
@@ -3709,15 +3721,15 @@
         <v>14</v>
       </c>
       <c r="N16" s="26">
-        <f>SUM(F306:F323)</f>
+        <f>SUM(F307:F324)</f>
         <v>19</v>
       </c>
       <c r="O16" s="27">
-        <f>SUM(F303:F305)</f>
+        <f>SUM(F304:F306)</f>
         <v>5</v>
       </c>
       <c r="P16" s="1">
-        <f>RANK(M16,$M$5:$M$18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3747,11 +3759,11 @@
       <c r="I17" s="109"/>
       <c r="J17" s="85"/>
       <c r="K17" s="31" t="str">
-        <f>D327</f>
+        <f>D328</f>
         <v>JAMIE DUGGAN</v>
       </c>
       <c r="L17" s="32" t="str">
-        <f>C327</f>
+        <f>C328</f>
         <v>DUGGAN'S DREAMERS</v>
       </c>
       <c r="M17" s="25">
@@ -3759,24 +3771,24 @@
         <v>-8</v>
       </c>
       <c r="N17" s="26">
-        <f>SUM(F333:F350)</f>
+        <f>SUM(F334:F352)</f>
         <v>11</v>
       </c>
       <c r="O17" s="27">
-        <f>SUM(F330:F332)</f>
+        <f>SUM(F331:F333)</f>
         <v>19</v>
       </c>
       <c r="P17" s="1">
-        <f>RANK(M17,$M$5:$M$18)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="S17" s="115" t="s">
+      <c r="S17" s="118" t="s">
         <v>291</v>
       </c>
-      <c r="T17" s="115"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="115"/>
-      <c r="W17" s="115"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="118"/>
     </row>
     <row r="18" spans="1:23" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="82"/>
@@ -3802,27 +3814,27 @@
       <c r="I18" s="109"/>
       <c r="J18" s="85"/>
       <c r="K18" s="31" t="str">
-        <f>D354</f>
+        <f>D356</f>
         <v>CHARLIE REED</v>
       </c>
       <c r="L18" s="32" t="str">
-        <f>C354</f>
+        <f>C356</f>
         <v>CHARLIE'S ANGELS</v>
       </c>
       <c r="M18" s="25">
-        <f t="shared" ref="M18" si="1">N18-O18</f>
+        <f t="shared" ref="M18" si="2">N18-O18</f>
         <v>3</v>
       </c>
       <c r="N18" s="26">
-        <f>SUM(F360:F377)</f>
+        <f>SUM(F362:F379)</f>
         <v>10</v>
       </c>
       <c r="O18" s="27">
-        <f>SUM(F357:F359)</f>
+        <f>SUM(F359:F361)</f>
         <v>7</v>
       </c>
       <c r="P18" s="1">
-        <f>RANK(M18,$M$5:$M$18)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="S18" s="80" t="s">
@@ -3869,7 +3881,7 @@
       <c r="M19" s="92"/>
       <c r="N19" s="92"/>
       <c r="O19" s="92"/>
-      <c r="P19" s="118"/>
+      <c r="P19" s="117"/>
     </row>
     <row r="20" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="82"/>
@@ -3901,14 +3913,14 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="116"/>
-      <c r="S20" s="115" t="s">
+      <c r="P20" s="115"/>
+      <c r="S20" s="118" t="s">
         <v>292</v>
       </c>
-      <c r="T20" s="115"/>
-      <c r="U20" s="115"/>
-      <c r="V20" s="115"/>
-      <c r="W20" s="115"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
     </row>
     <row r="21" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="82"/>
@@ -3939,7 +3951,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="116"/>
+      <c r="P21" s="115"/>
       <c r="S21" s="80" t="s">
         <v>2</v>
       </c>
@@ -3986,7 +3998,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="116"/>
+      <c r="P22" s="115"/>
       <c r="S22" s="80" t="s">
         <v>51</v>
       </c>
@@ -4020,7 +4032,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="116"/>
+      <c r="P23" s="115"/>
     </row>
     <row r="24" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="82"/>
@@ -4038,14 +4050,14 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="116"/>
-      <c r="S24" s="115" t="s">
+      <c r="P24" s="115"/>
+      <c r="S24" s="118" t="s">
         <v>293</v>
       </c>
-      <c r="T24" s="115"/>
-      <c r="U24" s="115"/>
-      <c r="V24" s="115"/>
-      <c r="W24" s="115"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="118"/>
     </row>
     <row r="25" spans="1:23" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="82"/>
@@ -4063,7 +4075,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="116"/>
+      <c r="P25" s="115"/>
       <c r="S25" s="80" t="s">
         <v>24</v>
       </c>
@@ -4104,7 +4116,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="116"/>
+      <c r="P26" s="115"/>
       <c r="S26" s="80" t="s">
         <v>109</v>
       </c>
@@ -4128,7 +4140,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="116"/>
+      <c r="P27" s="115"/>
     </row>
     <row r="28" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
@@ -4146,14 +4158,14 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="116"/>
-      <c r="S28" s="115" t="s">
+      <c r="P28" s="115"/>
+      <c r="S28" s="118" t="s">
         <v>294</v>
       </c>
-      <c r="T28" s="115"/>
-      <c r="U28" s="115"/>
-      <c r="V28" s="115"/>
-      <c r="W28" s="115"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="118"/>
     </row>
     <row r="29" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -4175,7 +4187,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="116"/>
+      <c r="P29" s="115"/>
       <c r="S29" s="80" t="s">
         <v>42</v>
       </c>
@@ -4200,7 +4212,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="116"/>
+      <c r="P30" s="115"/>
       <c r="S30" s="80" t="s">
         <v>30</v>
       </c>
@@ -4235,12 +4247,12 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="116"/>
+      <c r="P31" s="115"/>
       <c r="S31" s="80" t="s">
         <v>75</v>
       </c>
       <c r="T31" s="80">
-        <f>SUM(F252:F254)</f>
+        <f>SUM(F253:F255)</f>
         <v>0</v>
       </c>
     </row>
@@ -4272,7 +4284,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="116"/>
+      <c r="P32" s="115"/>
       <c r="S32" s="80" t="s">
         <v>34</v>
       </c>
@@ -4307,7 +4319,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="116"/>
+      <c r="P33" s="115"/>
       <c r="S33" s="80" t="s">
         <v>70</v>
       </c>
@@ -4332,7 +4344,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="116"/>
+      <c r="P34" s="115"/>
       <c r="S34" s="80" t="s">
         <v>2</v>
       </c>
@@ -4367,7 +4379,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="116"/>
+      <c r="P35" s="115"/>
       <c r="S35" s="80" t="s">
         <v>72</v>
       </c>
@@ -4402,12 +4414,12 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="116"/>
+      <c r="P36" s="115"/>
       <c r="S36" s="80" t="s">
         <v>300</v>
       </c>
       <c r="T36" s="80">
-        <f>SUM(F306:F308)</f>
+        <f>SUM(F307:F309)</f>
         <v>1</v>
       </c>
     </row>
@@ -4427,7 +4439,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="116"/>
+      <c r="P37" s="115"/>
     </row>
     <row r="38" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="82"/>
@@ -4455,14 +4467,14 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="P38" s="116"/>
-      <c r="S38" s="115" t="s">
+      <c r="P38" s="115"/>
+      <c r="S38" s="118" t="s">
         <v>295</v>
       </c>
-      <c r="T38" s="115"/>
-      <c r="U38" s="115"/>
-      <c r="V38" s="115"/>
-      <c r="W38" s="115"/>
+      <c r="T38" s="118"/>
+      <c r="U38" s="118"/>
+      <c r="V38" s="118"/>
+      <c r="W38" s="118"/>
     </row>
     <row r="39" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="82"/>
@@ -4490,12 +4502,12 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="116"/>
+      <c r="P39" s="115"/>
       <c r="S39" s="80" t="s">
         <v>96</v>
       </c>
       <c r="T39" s="80">
-        <f t="shared" ref="T39:T69" si="2">_xlfn.XLOOKUP(S39,C:C,F:F)</f>
+        <f>_xlfn.XLOOKUP(S39,C:C,F:F)</f>
         <v>0</v>
       </c>
       <c r="W39" s="80" t="s">
@@ -4528,12 +4540,12 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="P40" s="116"/>
+      <c r="P40" s="115"/>
       <c r="S40" s="80" t="s">
         <v>183</v>
       </c>
       <c r="T40" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S40,C:C,F:F)</f>
         <v>0</v>
       </c>
       <c r="W40" s="80" t="s">
@@ -4556,12 +4568,12 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-      <c r="P41" s="116"/>
+      <c r="P41" s="115"/>
       <c r="S41" s="80" t="s">
         <v>184</v>
       </c>
       <c r="T41" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S41,C:C,F:F)</f>
         <v>0</v>
       </c>
       <c r="W41" s="80" t="s">
@@ -4584,12 +4596,12 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
-      <c r="P42" s="116"/>
+      <c r="P42" s="115"/>
       <c r="S42" s="80" t="s">
         <v>161</v>
       </c>
       <c r="T42" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S42,C:C,F:F)</f>
         <v>2</v>
       </c>
       <c r="W42" s="80" t="s">
@@ -4622,12 +4634,12 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="116"/>
+      <c r="P43" s="115"/>
       <c r="S43" s="80" t="s">
         <v>39</v>
       </c>
       <c r="T43" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S43,C:C,F:F)</f>
         <v>0</v>
       </c>
       <c r="W43" s="80" t="s">
@@ -4660,12 +4672,12 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
-      <c r="P44" s="116"/>
+      <c r="P44" s="115"/>
       <c r="S44" s="80" t="s">
         <v>132</v>
       </c>
       <c r="T44" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S44,C:C,F:F)</f>
         <v>0</v>
       </c>
       <c r="W44" s="80" t="s">
@@ -4698,12 +4710,12 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="116"/>
+      <c r="P45" s="115"/>
       <c r="S45" s="80" t="s">
         <v>134</v>
       </c>
       <c r="T45" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S45,C:C,F:F)</f>
         <v>0</v>
       </c>
       <c r="W45" s="80" t="s">
@@ -4740,12 +4752,12 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="116"/>
+      <c r="P46" s="115"/>
       <c r="S46" s="80" t="s">
         <v>165</v>
       </c>
       <c r="T46" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S46,C:C,F:F)</f>
         <v>0</v>
       </c>
       <c r="W46" s="80" t="s">
@@ -4780,12 +4792,12 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="116"/>
+      <c r="P47" s="115"/>
       <c r="S47" s="80" t="s">
         <v>260</v>
       </c>
       <c r="T47" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S47,C:C,F:F)</f>
         <v>0</v>
       </c>
       <c r="W47" s="80" t="s">
@@ -4818,12 +4830,12 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="116"/>
+      <c r="P48" s="115"/>
       <c r="S48" s="80" t="s">
         <v>265</v>
       </c>
       <c r="T48" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S48,C:C,F:F)</f>
         <v>0</v>
       </c>
       <c r="W48" s="80" t="s">
@@ -4846,12 +4858,12 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="116"/>
+      <c r="P49" s="115"/>
       <c r="S49" s="80" t="s">
         <v>271</v>
       </c>
       <c r="T49" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S49,C:C,F:F)</f>
         <v>0</v>
       </c>
       <c r="W49" s="80" t="s">
@@ -4874,12 +4886,12 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
-      <c r="P50" s="116"/>
+      <c r="P50" s="115"/>
       <c r="S50" s="80" t="s">
         <v>272</v>
       </c>
       <c r="T50" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S50,C:C,F:F)</f>
         <v>0</v>
       </c>
       <c r="W50" s="80" t="s">
@@ -4902,12 +4914,12 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
-      <c r="P51" s="116"/>
+      <c r="P51" s="115"/>
       <c r="S51" s="80" t="s">
         <v>273</v>
       </c>
       <c r="T51" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S51,C:C,F:F)</f>
         <v>1</v>
       </c>
       <c r="W51" s="80" t="s">
@@ -4930,12 +4942,12 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
-      <c r="P52" s="116"/>
+      <c r="P52" s="115"/>
       <c r="S52" s="80" t="s">
         <v>274</v>
       </c>
       <c r="T52" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S52,C:C,F:F)</f>
         <v>2</v>
       </c>
       <c r="W52" s="80" t="s">
@@ -4964,12 +4976,12 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
-      <c r="P53" s="116"/>
+      <c r="P53" s="115"/>
       <c r="S53" s="80" t="s">
         <v>275</v>
       </c>
       <c r="T53" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S53,C:C,F:F)</f>
         <v>1</v>
       </c>
       <c r="W53" s="80" t="s">
@@ -4992,12 +5004,12 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
-      <c r="P54" s="116"/>
+      <c r="P54" s="115"/>
       <c r="S54" s="80" t="s">
         <v>276</v>
       </c>
       <c r="T54" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S54,C:C,F:F)</f>
         <v>0</v>
       </c>
       <c r="W54" s="80" t="s">
@@ -5020,12 +5032,12 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
-      <c r="P55" s="116"/>
+      <c r="P55" s="115"/>
       <c r="S55" s="80" t="s">
         <v>280</v>
       </c>
       <c r="T55" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S55,C:C,F:F)</f>
         <v>1</v>
       </c>
       <c r="W55" s="80" t="s">
@@ -5052,12 +5064,12 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
-      <c r="P56" s="116"/>
+      <c r="P56" s="115"/>
       <c r="S56" s="80" t="s">
         <v>281</v>
       </c>
       <c r="T56" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S56,C:C,F:F)</f>
         <v>1</v>
       </c>
       <c r="W56" s="80" t="s">
@@ -5080,12 +5092,12 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-      <c r="P57" s="116"/>
+      <c r="P57" s="115"/>
       <c r="S57" s="80" t="s">
         <v>185</v>
       </c>
       <c r="T57" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S57,C:C,F:F)</f>
         <v>0</v>
       </c>
       <c r="W57" s="80" t="s">
@@ -5118,12 +5130,12 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
-      <c r="P58" s="116"/>
+      <c r="P58" s="115"/>
       <c r="S58" s="80" t="s">
         <v>186</v>
       </c>
       <c r="T58" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S58,C:C,F:F)</f>
         <v>0</v>
       </c>
       <c r="W58" s="80" t="s">
@@ -5154,12 +5166,12 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-      <c r="P59" s="116"/>
+      <c r="P59" s="115"/>
       <c r="S59" s="80" t="s">
         <v>187</v>
       </c>
       <c r="T59" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S59,C:C,F:F)</f>
         <v>3</v>
       </c>
       <c r="W59" s="80" t="s">
@@ -5182,12 +5194,12 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="P60" s="116"/>
+      <c r="P60" s="115"/>
       <c r="S60" s="80" t="s">
         <v>309</v>
       </c>
       <c r="T60" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S60,C:C,F:F)</f>
         <v>3</v>
       </c>
       <c r="W60" s="80" t="s">
@@ -5210,12 +5222,12 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
-      <c r="P61" s="116"/>
+      <c r="P61" s="115"/>
       <c r="S61" s="80" t="s">
         <v>188</v>
       </c>
       <c r="T61" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S61,C:C,F:F)</f>
         <v>1</v>
       </c>
       <c r="W61" s="80" t="s">
@@ -5248,12 +5260,12 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
-      <c r="P62" s="116"/>
+      <c r="P62" s="115"/>
       <c r="S62" s="80" t="s">
         <v>156</v>
       </c>
       <c r="T62" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S62,C:C,F:F)</f>
         <v>1</v>
       </c>
       <c r="W62" s="80" t="s">
@@ -5286,12 +5298,12 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="P63" s="116"/>
+      <c r="P63" s="115"/>
       <c r="S63" s="80" t="s">
         <v>102</v>
       </c>
       <c r="T63" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S63,C:C,F:F)</f>
         <v>0</v>
       </c>
       <c r="W63" s="80" t="s">
@@ -5314,12 +5326,12 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="116"/>
+      <c r="P64" s="115"/>
       <c r="S64" s="80" t="s">
         <v>88</v>
       </c>
       <c r="T64" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S64,C:C,F:F)</f>
         <v>0</v>
       </c>
       <c r="W64" s="80" t="s">
@@ -5352,12 +5364,12 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
-      <c r="P65" s="116"/>
+      <c r="P65" s="115"/>
       <c r="S65" s="80" t="s">
         <v>47</v>
       </c>
       <c r="T65" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S65,C:C,F:F)</f>
         <v>2</v>
       </c>
       <c r="W65" s="80" t="s">
@@ -5390,12 +5402,12 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
-      <c r="P66" s="116"/>
+      <c r="P66" s="115"/>
       <c r="S66" s="80" t="s">
         <v>97</v>
       </c>
       <c r="T66" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S66,C:C,F:F)</f>
         <v>2</v>
       </c>
       <c r="W66" s="80" t="s">
@@ -5428,12 +5440,12 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
-      <c r="P67" s="116"/>
+      <c r="P67" s="115"/>
       <c r="S67" s="80" t="s">
         <v>90</v>
       </c>
       <c r="T67" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S67,C:C,F:F)</f>
         <v>0</v>
       </c>
       <c r="W67" s="80" t="s">
@@ -5456,12 +5468,12 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
-      <c r="P68" s="116"/>
+      <c r="P68" s="115"/>
       <c r="S68" s="80" t="s">
         <v>89</v>
       </c>
       <c r="T68" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S68,C:C,F:F)</f>
         <v>0</v>
       </c>
       <c r="W68" s="80" t="s">
@@ -5484,12 +5496,12 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
-      <c r="P69" s="116"/>
+      <c r="P69" s="115"/>
       <c r="S69" s="80" t="s">
         <v>166</v>
       </c>
       <c r="T69" s="80">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(S69,C:C,F:F)</f>
         <v>2</v>
       </c>
       <c r="W69" s="80" t="s">
@@ -5522,7 +5534,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
-      <c r="P70" s="116"/>
+      <c r="P70" s="115"/>
     </row>
     <row r="71" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="82"/>
@@ -5550,7 +5562,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
-      <c r="P71" s="116"/>
+      <c r="P71" s="115"/>
     </row>
     <row r="72" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="82"/>
@@ -5578,7 +5590,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
-      <c r="P72" s="116"/>
+      <c r="P72" s="115"/>
     </row>
     <row r="73" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="82"/>
@@ -5610,7 +5622,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
-      <c r="P73" s="116"/>
+      <c r="P73" s="115"/>
     </row>
     <row r="74" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="82"/>
@@ -5640,7 +5652,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
-      <c r="P74" s="116"/>
+      <c r="P74" s="115"/>
     </row>
     <row r="75" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="82"/>
@@ -5668,7 +5680,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
-      <c r="P75" s="116"/>
+      <c r="P75" s="115"/>
     </row>
     <row r="76" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="82"/>
@@ -5686,7 +5698,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
-      <c r="P76" s="116"/>
+      <c r="P76" s="115"/>
     </row>
     <row r="77" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="82"/>
@@ -5704,7 +5716,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
-      <c r="P77" s="116"/>
+      <c r="P77" s="115"/>
     </row>
     <row r="78" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="82"/>
@@ -5722,7 +5734,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="116"/>
+      <c r="P78" s="115"/>
     </row>
     <row r="79" spans="1:23" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="82"/>
@@ -5740,7 +5752,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
-      <c r="P79" s="116"/>
+      <c r="P79" s="115"/>
     </row>
     <row r="80" spans="1:23" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
@@ -5764,7 +5776,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="116"/>
+      <c r="P80" s="115"/>
     </row>
     <row r="81" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
@@ -5782,7 +5794,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
-      <c r="P81" s="116"/>
+      <c r="P81" s="115"/>
     </row>
     <row r="82" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
@@ -5800,7 +5812,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="116"/>
+      <c r="P82" s="115"/>
     </row>
     <row r="83" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
@@ -5822,7 +5834,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
-      <c r="P83" s="116"/>
+      <c r="P83" s="115"/>
     </row>
     <row r="84" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
@@ -5840,7 +5852,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
-      <c r="P84" s="116"/>
+      <c r="P84" s="115"/>
     </row>
     <row r="85" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="82"/>
@@ -5868,7 +5880,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="116"/>
+      <c r="P85" s="115"/>
     </row>
     <row r="86" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="82"/>
@@ -5894,7 +5906,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
-      <c r="P86" s="116"/>
+      <c r="P86" s="115"/>
     </row>
     <row r="87" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="82"/>
@@ -5912,7 +5924,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
-      <c r="P87" s="116"/>
+      <c r="P87" s="115"/>
     </row>
     <row r="88" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="82"/>
@@ -5930,7 +5942,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
-      <c r="P88" s="116"/>
+      <c r="P88" s="115"/>
     </row>
     <row r="89" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="82"/>
@@ -5958,7 +5970,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
-      <c r="P89" s="116"/>
+      <c r="P89" s="115"/>
     </row>
     <row r="90" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="82"/>
@@ -5986,7 +5998,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
-      <c r="P90" s="116"/>
+      <c r="P90" s="115"/>
     </row>
     <row r="91" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="82"/>
@@ -6004,7 +6016,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
-      <c r="P91" s="116"/>
+      <c r="P91" s="115"/>
     </row>
     <row r="92" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="82"/>
@@ -6032,7 +6044,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
-      <c r="P92" s="116"/>
+      <c r="P92" s="115"/>
     </row>
     <row r="93" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="82"/>
@@ -6060,7 +6072,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
-      <c r="P93" s="116"/>
+      <c r="P93" s="115"/>
     </row>
     <row r="94" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="82"/>
@@ -6088,7 +6100,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
-      <c r="P94" s="116"/>
+      <c r="P94" s="115"/>
     </row>
     <row r="95" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="82"/>
@@ -6106,7 +6118,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
-      <c r="P95" s="116"/>
+      <c r="P95" s="115"/>
     </row>
     <row r="96" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="82"/>
@@ -6124,7 +6136,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
-      <c r="P96" s="116"/>
+      <c r="P96" s="115"/>
     </row>
     <row r="97" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="82"/>
@@ -6156,7 +6168,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
-      <c r="P97" s="116"/>
+      <c r="P97" s="115"/>
     </row>
     <row r="98" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="82"/>
@@ -6186,7 +6198,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
-      <c r="P98" s="116"/>
+      <c r="P98" s="115"/>
     </row>
     <row r="99" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="82"/>
@@ -6218,7 +6230,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
-      <c r="P99" s="116"/>
+      <c r="P99" s="115"/>
     </row>
     <row r="100" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="82"/>
@@ -6248,7 +6260,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
-      <c r="P100" s="116"/>
+      <c r="P100" s="115"/>
     </row>
     <row r="101" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="82"/>
@@ -6276,7 +6288,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
-      <c r="P101" s="116"/>
+      <c r="P101" s="115"/>
     </row>
     <row r="102" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="82"/>
@@ -6304,7 +6316,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
-      <c r="P102" s="116"/>
+      <c r="P102" s="115"/>
     </row>
     <row r="103" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="82"/>
@@ -6332,7 +6344,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
-      <c r="P103" s="116"/>
+      <c r="P103" s="115"/>
     </row>
     <row r="104" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="82"/>
@@ -6350,7 +6362,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
-      <c r="P104" s="116"/>
+      <c r="P104" s="115"/>
     </row>
     <row r="105" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="82"/>
@@ -6368,7 +6380,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
-      <c r="P105" s="116"/>
+      <c r="P105" s="115"/>
     </row>
     <row r="106" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="82"/>
@@ -6386,7 +6398,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
-      <c r="P106" s="116"/>
+      <c r="P106" s="115"/>
     </row>
     <row r="107" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
@@ -6410,7 +6422,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
-      <c r="P107" s="116"/>
+      <c r="P107" s="115"/>
     </row>
     <row r="108" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
@@ -6428,7 +6440,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
-      <c r="P108" s="116"/>
+      <c r="P108" s="115"/>
     </row>
     <row r="109" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
@@ -6446,7 +6458,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
-      <c r="P109" s="116"/>
+      <c r="P109" s="115"/>
     </row>
     <row r="110" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
@@ -6468,7 +6480,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
-      <c r="P110" s="116"/>
+      <c r="P110" s="115"/>
     </row>
     <row r="111" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
@@ -6486,7 +6498,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
-      <c r="P111" s="116"/>
+      <c r="P111" s="115"/>
     </row>
     <row r="112" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="82"/>
@@ -6514,7 +6526,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
-      <c r="P112" s="116"/>
+      <c r="P112" s="115"/>
     </row>
     <row r="113" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="82"/>
@@ -6540,7 +6552,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
-      <c r="P113" s="116"/>
+      <c r="P113" s="115"/>
     </row>
     <row r="114" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="82"/>
@@ -6558,7 +6570,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
-      <c r="P114" s="116"/>
+      <c r="P114" s="115"/>
     </row>
     <row r="115" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="82"/>
@@ -6576,7 +6588,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
-      <c r="P115" s="116"/>
+      <c r="P115" s="115"/>
     </row>
     <row r="116" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="82"/>
@@ -6604,7 +6616,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
-      <c r="P116" s="116"/>
+      <c r="P116" s="115"/>
     </row>
     <row r="117" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="82"/>
@@ -6632,7 +6644,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
-      <c r="P117" s="116"/>
+      <c r="P117" s="115"/>
     </row>
     <row r="118" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="82"/>
@@ -6650,7 +6662,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
-      <c r="P118" s="116"/>
+      <c r="P118" s="115"/>
     </row>
     <row r="119" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="82"/>
@@ -6678,7 +6690,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
-      <c r="P119" s="116"/>
+      <c r="P119" s="115"/>
     </row>
     <row r="120" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="82"/>
@@ -6706,7 +6718,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
-      <c r="P120" s="116"/>
+      <c r="P120" s="115"/>
     </row>
     <row r="121" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="82"/>
@@ -6738,7 +6750,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
-      <c r="P121" s="116"/>
+      <c r="P121" s="115"/>
     </row>
     <row r="122" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="82"/>
@@ -6768,7 +6780,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
-      <c r="P122" s="116"/>
+      <c r="P122" s="115"/>
     </row>
     <row r="123" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="82"/>
@@ -6786,7 +6798,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
-      <c r="P123" s="116"/>
+      <c r="P123" s="115"/>
     </row>
     <row r="124" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="82"/>
@@ -6814,7 +6826,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
-      <c r="P124" s="116"/>
+      <c r="P124" s="115"/>
     </row>
     <row r="125" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="82"/>
@@ -6842,7 +6854,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
-      <c r="P125" s="116"/>
+      <c r="P125" s="115"/>
     </row>
     <row r="126" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="82"/>
@@ -6874,7 +6886,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
-      <c r="P126" s="116"/>
+      <c r="P126" s="115"/>
     </row>
     <row r="127" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="82"/>
@@ -6904,7 +6916,7 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
-      <c r="P127" s="116"/>
+      <c r="P127" s="115"/>
     </row>
     <row r="128" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="82"/>
@@ -6932,7 +6944,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
-      <c r="P128" s="116"/>
+      <c r="P128" s="115"/>
     </row>
     <row r="129" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="82"/>
@@ -6960,7 +6972,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
-      <c r="P129" s="116"/>
+      <c r="P129" s="115"/>
     </row>
     <row r="130" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="82"/>
@@ -6978,7 +6990,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
-      <c r="P130" s="116"/>
+      <c r="P130" s="115"/>
     </row>
     <row r="131" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="82"/>
@@ -6996,7 +7008,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
-      <c r="P131" s="116"/>
+      <c r="P131" s="115"/>
     </row>
     <row r="132" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="82"/>
@@ -7014,7 +7026,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
-      <c r="P132" s="116"/>
+      <c r="P132" s="115"/>
     </row>
     <row r="133" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="82"/>
@@ -7032,7 +7044,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
-      <c r="P133" s="116"/>
+      <c r="P133" s="115"/>
     </row>
     <row r="134" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="82"/>
@@ -7050,7 +7062,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
-      <c r="P134" s="116"/>
+      <c r="P134" s="115"/>
     </row>
     <row r="135" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
@@ -7074,7 +7086,7 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
-      <c r="P135" s="116"/>
+      <c r="P135" s="115"/>
     </row>
     <row r="136" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
@@ -7092,7 +7104,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
-      <c r="P136" s="116"/>
+      <c r="P136" s="115"/>
     </row>
     <row r="137" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
@@ -7110,7 +7122,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
-      <c r="P137" s="116"/>
+      <c r="P137" s="115"/>
     </row>
     <row r="138" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
@@ -7132,7 +7144,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
-      <c r="P138" s="116"/>
+      <c r="P138" s="115"/>
     </row>
     <row r="139" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
@@ -7150,7 +7162,7 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
-      <c r="P139" s="116"/>
+      <c r="P139" s="115"/>
     </row>
     <row r="140" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="82"/>
@@ -7178,7 +7190,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
-      <c r="P140" s="116"/>
+      <c r="P140" s="115"/>
     </row>
     <row r="141" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="82"/>
@@ -7204,7 +7216,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
-      <c r="P141" s="116"/>
+      <c r="P141" s="115"/>
     </row>
     <row r="142" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="82"/>
@@ -7222,7 +7234,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
-      <c r="P142" s="116"/>
+      <c r="P142" s="115"/>
     </row>
     <row r="143" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="82"/>
@@ -7240,7 +7252,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
-      <c r="P143" s="116"/>
+      <c r="P143" s="115"/>
     </row>
     <row r="144" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="82"/>
@@ -7268,7 +7280,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
-      <c r="P144" s="116"/>
+      <c r="P144" s="115"/>
     </row>
     <row r="145" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="82"/>
@@ -7296,7 +7308,7 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
-      <c r="P145" s="116"/>
+      <c r="P145" s="115"/>
     </row>
     <row r="146" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="82"/>
@@ -7314,7 +7326,7 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
-      <c r="P146" s="116"/>
+      <c r="P146" s="115"/>
     </row>
     <row r="147" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="82"/>
@@ -7342,7 +7354,7 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
-      <c r="P147" s="116"/>
+      <c r="P147" s="115"/>
     </row>
     <row r="148" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="82"/>
@@ -7368,7 +7380,7 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
-      <c r="P148" s="116"/>
+      <c r="P148" s="115"/>
     </row>
     <row r="149" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="82"/>
@@ -7400,7 +7412,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
-      <c r="P149" s="116"/>
+      <c r="P149" s="115"/>
     </row>
     <row r="150" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="82"/>
@@ -7430,7 +7442,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
-      <c r="P150" s="116"/>
+      <c r="P150" s="115"/>
     </row>
     <row r="151" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="82"/>
@@ -7448,7 +7460,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
-      <c r="P151" s="116"/>
+      <c r="P151" s="115"/>
     </row>
     <row r="152" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="82"/>
@@ -7476,7 +7488,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
-      <c r="P152" s="116"/>
+      <c r="P152" s="115"/>
     </row>
     <row r="153" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="82"/>
@@ -7504,7 +7516,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
-      <c r="P153" s="116"/>
+      <c r="P153" s="115"/>
     </row>
     <row r="154" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="82"/>
@@ -7532,7 +7544,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
-      <c r="P154" s="116"/>
+      <c r="P154" s="115"/>
     </row>
     <row r="155" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="82"/>
@@ -7560,7 +7572,7 @@
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
-      <c r="P155" s="116"/>
+      <c r="P155" s="115"/>
     </row>
     <row r="156" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="82"/>
@@ -7592,7 +7604,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
-      <c r="P156" s="116"/>
+      <c r="P156" s="115"/>
     </row>
     <row r="157" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="82"/>
@@ -7622,7 +7634,7 @@
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
-      <c r="P157" s="116"/>
+      <c r="P157" s="115"/>
     </row>
     <row r="158" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="82"/>
@@ -7640,7 +7652,7 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
-      <c r="P158" s="116"/>
+      <c r="P158" s="115"/>
     </row>
     <row r="159" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="82"/>
@@ -7658,7 +7670,7 @@
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
-      <c r="P159" s="116"/>
+      <c r="P159" s="115"/>
     </row>
     <row r="160" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="82"/>
@@ -7676,7 +7688,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
-      <c r="P160" s="116"/>
+      <c r="P160" s="115"/>
     </row>
     <row r="161" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="82"/>
@@ -7694,7 +7706,7 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
-      <c r="P161" s="116"/>
+      <c r="P161" s="115"/>
     </row>
     <row r="162" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
@@ -7718,7 +7730,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
-      <c r="P162" s="116"/>
+      <c r="P162" s="115"/>
     </row>
     <row r="163" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
@@ -7736,7 +7748,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
-      <c r="P163" s="116"/>
+      <c r="P163" s="115"/>
     </row>
     <row r="164" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
@@ -7754,7 +7766,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
-      <c r="P164" s="116"/>
+      <c r="P164" s="115"/>
     </row>
     <row r="165" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
@@ -7776,7 +7788,7 @@
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
-      <c r="P165" s="116"/>
+      <c r="P165" s="115"/>
     </row>
     <row r="166" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
@@ -7794,7 +7806,7 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
-      <c r="P166" s="116"/>
+      <c r="P166" s="115"/>
     </row>
     <row r="167" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="82"/>
@@ -7822,7 +7834,7 @@
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
-      <c r="P167" s="116"/>
+      <c r="P167" s="115"/>
     </row>
     <row r="168" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="82"/>
@@ -7848,7 +7860,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
-      <c r="P168" s="116"/>
+      <c r="P168" s="115"/>
     </row>
     <row r="169" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="82"/>
@@ -7866,7 +7878,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
-      <c r="P169" s="116"/>
+      <c r="P169" s="115"/>
     </row>
     <row r="170" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="82"/>
@@ -7884,7 +7896,7 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
-      <c r="P170" s="116"/>
+      <c r="P170" s="115"/>
     </row>
     <row r="171" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="82"/>
@@ -7912,7 +7924,7 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
-      <c r="P171" s="116"/>
+      <c r="P171" s="115"/>
     </row>
     <row r="172" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="82"/>
@@ -7940,7 +7952,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
-      <c r="P172" s="116"/>
+      <c r="P172" s="115"/>
     </row>
     <row r="173" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="82"/>
@@ -7958,7 +7970,7 @@
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
-      <c r="P173" s="116"/>
+      <c r="P173" s="115"/>
     </row>
     <row r="174" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="82"/>
@@ -7986,7 +7998,7 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
-      <c r="P174" s="116"/>
+      <c r="P174" s="115"/>
     </row>
     <row r="175" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="82"/>
@@ -8014,7 +8026,7 @@
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
-      <c r="P175" s="116"/>
+      <c r="P175" s="115"/>
     </row>
     <row r="176" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="82"/>
@@ -8042,7 +8054,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
-      <c r="P176" s="116"/>
+      <c r="P176" s="115"/>
     </row>
     <row r="177" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="82"/>
@@ -8060,7 +8072,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
-      <c r="P177" s="116"/>
+      <c r="P177" s="115"/>
     </row>
     <row r="178" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="82"/>
@@ -8078,7 +8090,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
-      <c r="P178" s="116"/>
+      <c r="P178" s="115"/>
     </row>
     <row r="179" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="82"/>
@@ -8106,7 +8118,7 @@
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
-      <c r="P179" s="116"/>
+      <c r="P179" s="115"/>
     </row>
     <row r="180" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="82"/>
@@ -8134,7 +8146,7 @@
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
-      <c r="P180" s="116"/>
+      <c r="P180" s="115"/>
     </row>
     <row r="181" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="82"/>
@@ -8162,7 +8174,7 @@
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
-      <c r="P181" s="116"/>
+      <c r="P181" s="115"/>
     </row>
     <row r="182" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="82"/>
@@ -8190,7 +8202,7 @@
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
-      <c r="P182" s="116"/>
+      <c r="P182" s="115"/>
     </row>
     <row r="183" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="82"/>
@@ -8218,7 +8230,7 @@
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
-      <c r="P183" s="116"/>
+      <c r="P183" s="115"/>
     </row>
     <row r="184" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="82"/>
@@ -8236,7 +8248,7 @@
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
-      <c r="P184" s="116"/>
+      <c r="P184" s="115"/>
     </row>
     <row r="185" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="82"/>
@@ -8254,7 +8266,7 @@
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
-      <c r="P185" s="116"/>
+      <c r="P185" s="115"/>
     </row>
     <row r="186" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="82"/>
@@ -8272,7 +8284,7 @@
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
-      <c r="P186" s="116"/>
+      <c r="P186" s="115"/>
     </row>
     <row r="187" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="82"/>
@@ -8290,7 +8302,7 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
-      <c r="P187" s="116"/>
+      <c r="P187" s="115"/>
     </row>
     <row r="188" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="82"/>
@@ -8308,7 +8320,7 @@
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
-      <c r="P188" s="116"/>
+      <c r="P188" s="115"/>
     </row>
     <row r="189" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
@@ -8332,7 +8344,7 @@
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
-      <c r="P189" s="116"/>
+      <c r="P189" s="115"/>
     </row>
     <row r="190" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
@@ -8350,7 +8362,7 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
-      <c r="P190" s="116"/>
+      <c r="P190" s="115"/>
     </row>
     <row r="191" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
@@ -8368,7 +8380,7 @@
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
-      <c r="P191" s="116"/>
+      <c r="P191" s="115"/>
     </row>
     <row r="192" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
@@ -8390,7 +8402,7 @@
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
-      <c r="P192" s="116"/>
+      <c r="P192" s="115"/>
     </row>
     <row r="193" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
@@ -8408,7 +8420,7 @@
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
-      <c r="P193" s="116"/>
+      <c r="P193" s="115"/>
     </row>
     <row r="194" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="82"/>
@@ -8436,7 +8448,7 @@
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
-      <c r="P194" s="116"/>
+      <c r="P194" s="115"/>
     </row>
     <row r="195" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="82"/>
@@ -8462,7 +8474,7 @@
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
-      <c r="P195" s="116"/>
+      <c r="P195" s="115"/>
     </row>
     <row r="196" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="82"/>
@@ -8480,7 +8492,7 @@
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
-      <c r="P196" s="116"/>
+      <c r="P196" s="115"/>
     </row>
     <row r="197" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="82"/>
@@ -8498,7 +8510,7 @@
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
-      <c r="P197" s="116"/>
+      <c r="P197" s="115"/>
     </row>
     <row r="198" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="82"/>
@@ -8526,7 +8538,7 @@
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
-      <c r="P198" s="116"/>
+      <c r="P198" s="115"/>
     </row>
     <row r="199" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="82"/>
@@ -8554,7 +8566,7 @@
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
-      <c r="P199" s="116"/>
+      <c r="P199" s="115"/>
     </row>
     <row r="200" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="82"/>
@@ -8572,7 +8584,7 @@
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
-      <c r="P200" s="116"/>
+      <c r="P200" s="115"/>
     </row>
     <row r="201" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="82"/>
@@ -8600,7 +8612,7 @@
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
-      <c r="P201" s="116"/>
+      <c r="P201" s="115"/>
     </row>
     <row r="202" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="82"/>
@@ -8628,7 +8640,7 @@
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
-      <c r="P202" s="116"/>
+      <c r="P202" s="115"/>
     </row>
     <row r="203" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="82"/>
@@ -8656,7 +8668,7 @@
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
-      <c r="P203" s="116"/>
+      <c r="P203" s="115"/>
     </row>
     <row r="204" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="82"/>
@@ -8674,7 +8686,7 @@
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
-      <c r="P204" s="116"/>
+      <c r="P204" s="115"/>
     </row>
     <row r="205" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="82"/>
@@ -8692,7 +8704,7 @@
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
-      <c r="P205" s="116"/>
+      <c r="P205" s="115"/>
     </row>
     <row r="206" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="82"/>
@@ -8720,7 +8732,7 @@
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
-      <c r="P206" s="116"/>
+      <c r="P206" s="115"/>
     </row>
     <row r="207" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="82"/>
@@ -8748,7 +8760,7 @@
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
-      <c r="P207" s="116"/>
+      <c r="P207" s="115"/>
     </row>
     <row r="208" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="82"/>
@@ -8776,7 +8788,7 @@
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
-      <c r="P208" s="116"/>
+      <c r="P208" s="115"/>
     </row>
     <row r="209" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="82"/>
@@ -8804,7 +8816,7 @@
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
-      <c r="P209" s="116"/>
+      <c r="P209" s="115"/>
     </row>
     <row r="210" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="82"/>
@@ -8832,7 +8844,7 @@
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
-      <c r="P210" s="116"/>
+      <c r="P210" s="115"/>
     </row>
     <row r="211" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="82"/>
@@ -8850,7 +8862,7 @@
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
-      <c r="P211" s="116"/>
+      <c r="P211" s="115"/>
     </row>
     <row r="212" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="82"/>
@@ -8868,7 +8880,7 @@
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
-      <c r="P212" s="116"/>
+      <c r="P212" s="115"/>
     </row>
     <row r="213" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="82"/>
@@ -8886,7 +8898,7 @@
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
-      <c r="P213" s="116"/>
+      <c r="P213" s="115"/>
     </row>
     <row r="214" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="82"/>
@@ -8904,7 +8916,7 @@
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
-      <c r="P214" s="116"/>
+      <c r="P214" s="115"/>
     </row>
     <row r="215" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="82"/>
@@ -8922,7 +8934,7 @@
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
-      <c r="P215" s="116"/>
+      <c r="P215" s="115"/>
     </row>
     <row r="216" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
@@ -8946,7 +8958,7 @@
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
-      <c r="P216" s="116"/>
+      <c r="P216" s="115"/>
     </row>
     <row r="217" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
@@ -8964,7 +8976,7 @@
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
-      <c r="P217" s="116"/>
+      <c r="P217" s="115"/>
     </row>
     <row r="218" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
@@ -8982,7 +8994,7 @@
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
-      <c r="P218" s="116"/>
+      <c r="P218" s="115"/>
     </row>
     <row r="219" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
@@ -9004,7 +9016,7 @@
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
-      <c r="P219" s="116"/>
+      <c r="P219" s="115"/>
     </row>
     <row r="220" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
@@ -9022,7 +9034,7 @@
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
-      <c r="P220" s="116"/>
+      <c r="P220" s="115"/>
     </row>
     <row r="221" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="82"/>
@@ -9050,7 +9062,7 @@
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
-      <c r="P221" s="116"/>
+      <c r="P221" s="115"/>
     </row>
     <row r="222" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="61"/>
@@ -9080,7 +9092,7 @@
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
-      <c r="P222" s="116"/>
+      <c r="P222" s="115"/>
     </row>
     <row r="223" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="82"/>
@@ -9108,7 +9120,7 @@
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
-      <c r="P223" s="116"/>
+      <c r="P223" s="115"/>
     </row>
     <row r="224" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="82"/>
@@ -9126,7 +9138,7 @@
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
-      <c r="P224" s="116"/>
+      <c r="P224" s="115"/>
     </row>
     <row r="225" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="82"/>
@@ -9154,7 +9166,7 @@
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
-      <c r="P225" s="116"/>
+      <c r="P225" s="115"/>
     </row>
     <row r="226" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="82"/>
@@ -9182,7 +9194,7 @@
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
-      <c r="P226" s="116"/>
+      <c r="P226" s="115"/>
     </row>
     <row r="227" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="82"/>
@@ -9200,7 +9212,7 @@
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
-      <c r="P227" s="116"/>
+      <c r="P227" s="115"/>
     </row>
     <row r="228" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="82"/>
@@ -9228,7 +9240,7 @@
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
-      <c r="P228" s="116"/>
+      <c r="P228" s="115"/>
     </row>
     <row r="229" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="82"/>
@@ -9256,7 +9268,7 @@
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
-      <c r="P229" s="116"/>
+      <c r="P229" s="115"/>
     </row>
     <row r="230" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="82"/>
@@ -9275,8 +9287,12 @@
       <c r="F230" s="30">
         <v>0</v>
       </c>
-      <c r="G230" s="91"/>
-      <c r="H230" s="94"/>
+      <c r="G230" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="H230" s="95">
+        <v>45190</v>
+      </c>
       <c r="I230" s="93"/>
       <c r="J230" s="79"/>
       <c r="K230" s="1"/>
@@ -9284,16 +9300,28 @@
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
-      <c r="P230" s="116"/>
+      <c r="P230" s="115"/>
     </row>
     <row r="231" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="82"/>
-      <c r="B231" s="28"/>
-      <c r="C231" s="28"/>
-      <c r="D231" s="28"/>
-      <c r="E231" s="29"/>
-      <c r="F231" s="30"/>
-      <c r="G231" s="86"/>
+      <c r="B231" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C231" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="D231" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E231" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="F231" s="30">
+        <v>0</v>
+      </c>
+      <c r="G231" s="91">
+        <v>45190</v>
+      </c>
       <c r="H231" s="95"/>
       <c r="I231" s="93"/>
       <c r="J231" s="79"/>
@@ -9302,7 +9330,7 @@
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
-      <c r="P231" s="116"/>
+      <c r="P231" s="115"/>
     </row>
     <row r="232" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="82"/>
@@ -9320,7 +9348,7 @@
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
-      <c r="P232" s="116"/>
+      <c r="P232" s="115"/>
     </row>
     <row r="233" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="82"/>
@@ -9348,27 +9376,31 @@
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
-      <c r="P233" s="116"/>
+      <c r="P233" s="115"/>
     </row>
     <row r="234" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="82"/>
       <c r="B234" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C234" s="28" t="s">
+      <c r="C234" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="D234" s="28" t="s">
+      <c r="D234" s="102" t="s">
         <v>328</v>
       </c>
-      <c r="E234" s="29">
+      <c r="E234" s="103">
         <v>18</v>
       </c>
-      <c r="F234" s="30">
+      <c r="F234" s="104">
         <v>0</v>
       </c>
-      <c r="G234" s="86"/>
-      <c r="H234" s="95"/>
+      <c r="G234" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="H234" s="95">
+        <v>45190</v>
+      </c>
       <c r="I234" s="93"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -9376,31 +9408,29 @@
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
-      <c r="P234" s="116"/>
+      <c r="P234" s="115"/>
     </row>
     <row r="235" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="82"/>
-      <c r="B235" s="102" t="s">
+      <c r="B235" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C235" s="102" t="s">
-        <v>211</v>
-      </c>
-      <c r="D235" s="102" t="s">
-        <v>212</v>
-      </c>
-      <c r="E235" s="103">
-        <v>12</v>
-      </c>
-      <c r="F235" s="104">
+      <c r="C235" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="D235" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="E235" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="F235" s="30">
         <v>0</v>
       </c>
-      <c r="G235" s="91" t="s">
-        <v>284</v>
-      </c>
-      <c r="H235" s="95">
-        <v>45162</v>
-      </c>
+      <c r="G235" s="91">
+        <v>45190</v>
+      </c>
+      <c r="H235" s="95"/>
       <c r="I235" s="93"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
@@ -9408,37 +9438,39 @@
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
-      <c r="P235" s="116"/>
+      <c r="P235" s="115"/>
     </row>
     <row r="236" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="82"/>
-      <c r="B236" s="28" t="s">
+      <c r="B236" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C236" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="D236" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="E236" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="F236" s="30">
-        <v>2</v>
-      </c>
-      <c r="G236" s="91">
+      <c r="C236" s="102" t="s">
+        <v>211</v>
+      </c>
+      <c r="D236" s="102" t="s">
+        <v>212</v>
+      </c>
+      <c r="E236" s="103">
+        <v>12</v>
+      </c>
+      <c r="F236" s="104">
+        <v>0</v>
+      </c>
+      <c r="G236" s="91" t="s">
+        <v>284</v>
+      </c>
+      <c r="H236" s="95">
         <v>45162</v>
       </c>
-      <c r="H236" s="95"/>
       <c r="I236" s="93"/>
-      <c r="J236" s="79"/>
+      <c r="J236" s="1"/>
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
-      <c r="P236" s="116"/>
+      <c r="P236" s="115"/>
     </row>
     <row r="237" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="82"/>
@@ -9446,18 +9478,20 @@
         <v>19</v>
       </c>
       <c r="C237" s="28" t="s">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="D237" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="E237" s="29">
-        <v>1</v>
+        <v>319</v>
+      </c>
+      <c r="E237" s="29" t="s">
+        <v>283</v>
       </c>
       <c r="F237" s="30">
-        <v>3</v>
-      </c>
-      <c r="G237" s="86"/>
+        <v>2</v>
+      </c>
+      <c r="G237" s="91">
+        <v>45162</v>
+      </c>
       <c r="H237" s="95"/>
       <c r="I237" s="93"/>
       <c r="J237" s="79"/>
@@ -9466,7 +9500,7 @@
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
-      <c r="P237" s="116"/>
+      <c r="P237" s="115"/>
     </row>
     <row r="238" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="82"/>
@@ -9474,18 +9508,18 @@
         <v>19</v>
       </c>
       <c r="C238" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D238" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E238" s="29">
         <v>1</v>
       </c>
       <c r="F238" s="30">
-        <v>0</v>
-      </c>
-      <c r="G238" s="91"/>
+        <v>3</v>
+      </c>
+      <c r="G238" s="86"/>
       <c r="H238" s="95"/>
       <c r="I238" s="93"/>
       <c r="J238" s="79"/>
@@ -9494,15 +9528,25 @@
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
-      <c r="P238" s="116"/>
+      <c r="P238" s="115"/>
     </row>
     <row r="239" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="82"/>
-      <c r="B239" s="102"/>
-      <c r="C239" s="28"/>
-      <c r="D239" s="28"/>
-      <c r="E239" s="29"/>
-      <c r="F239" s="30"/>
+      <c r="B239" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C239" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D239" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E239" s="29">
+        <v>1</v>
+      </c>
+      <c r="F239" s="30">
+        <v>0</v>
+      </c>
       <c r="G239" s="91"/>
       <c r="H239" s="95"/>
       <c r="I239" s="93"/>
@@ -9512,15 +9556,15 @@
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
-      <c r="P239" s="116"/>
+      <c r="P239" s="115"/>
     </row>
     <row r="240" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="82"/>
-      <c r="B240" s="28"/>
-      <c r="C240" s="102"/>
-      <c r="D240" s="102"/>
-      <c r="E240" s="103"/>
-      <c r="F240" s="104"/>
+      <c r="B240" s="102"/>
+      <c r="C240" s="28"/>
+      <c r="D240" s="28"/>
+      <c r="E240" s="29"/>
+      <c r="F240" s="30"/>
       <c r="G240" s="91"/>
       <c r="H240" s="95"/>
       <c r="I240" s="93"/>
@@ -9530,35 +9574,35 @@
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
-      <c r="P240" s="116"/>
+      <c r="P240" s="115"/>
     </row>
     <row r="241" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="82"/>
-      <c r="B241" s="102"/>
-      <c r="C241" s="28"/>
-      <c r="D241" s="28"/>
-      <c r="E241" s="29"/>
-      <c r="F241" s="30"/>
+      <c r="B241" s="28"/>
+      <c r="C241" s="102"/>
+      <c r="D241" s="102"/>
+      <c r="E241" s="103"/>
+      <c r="F241" s="104"/>
       <c r="G241" s="91"/>
-      <c r="H241" s="98"/>
-      <c r="I241" s="94"/>
+      <c r="H241" s="95"/>
+      <c r="I241" s="93"/>
       <c r="J241" s="79"/>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
-      <c r="P241" s="116"/>
-    </row>
-    <row r="242" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P241" s="115"/>
+    </row>
+    <row r="242" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="82"/>
-      <c r="B242" s="21"/>
+      <c r="B242" s="102"/>
       <c r="C242" s="28"/>
       <c r="D242" s="28"/>
       <c r="E242" s="29"/>
       <c r="F242" s="30"/>
-      <c r="G242" s="98"/>
-      <c r="H242" s="94"/>
+      <c r="G242" s="91"/>
+      <c r="H242" s="98"/>
       <c r="I242" s="94"/>
       <c r="J242" s="79"/>
       <c r="K242" s="1"/>
@@ -9566,97 +9610,97 @@
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
-      <c r="P242" s="116"/>
+      <c r="P242" s="115"/>
     </row>
     <row r="243" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="1"/>
-      <c r="B243" s="35"/>
-      <c r="C243" s="35"/>
-      <c r="D243" s="36"/>
-      <c r="E243" s="37">
-        <f>SUM(E222:E242)</f>
-        <v>92</v>
-      </c>
-      <c r="F243" s="38">
-        <f>SUM(F225:F242)-SUM(F222:F224)</f>
-        <v>4</v>
-      </c>
-      <c r="G243" s="83"/>
-      <c r="H243" s="96"/>
-      <c r="I243" s="96"/>
+      <c r="A243" s="82"/>
+      <c r="B243" s="21"/>
+      <c r="C243" s="28"/>
+      <c r="D243" s="28"/>
+      <c r="E243" s="29"/>
+      <c r="F243" s="30"/>
+      <c r="G243" s="98"/>
+      <c r="H243" s="94"/>
+      <c r="I243" s="94"/>
       <c r="J243" s="79"/>
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
-      <c r="P243" s="116"/>
-    </row>
-    <row r="244" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P243" s="115"/>
+    </row>
+    <row r="244" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
-      <c r="E244" s="39"/>
-      <c r="F244" s="35"/>
-      <c r="G244" s="78"/>
-      <c r="H244" s="78"/>
-      <c r="I244" s="78"/>
+      <c r="B244" s="35"/>
+      <c r="C244" s="35"/>
+      <c r="D244" s="36"/>
+      <c r="E244" s="37">
+        <f>SUM(E222:E243)</f>
+        <v>92</v>
+      </c>
+      <c r="F244" s="38">
+        <f>SUM(F225:F243)-SUM(F222:F224)</f>
+        <v>4</v>
+      </c>
+      <c r="G244" s="83"/>
+      <c r="H244" s="96"/>
+      <c r="I244" s="96"/>
       <c r="J244" s="79"/>
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
-      <c r="P244" s="116"/>
-    </row>
-    <row r="245" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P244" s="115"/>
+    </row>
+    <row r="245" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
-      <c r="G245" s="1"/>
-      <c r="H245" s="1"/>
-      <c r="I245" s="1"/>
-      <c r="J245" s="1"/>
+      <c r="E245" s="39"/>
+      <c r="F245" s="35"/>
+      <c r="G245" s="78"/>
+      <c r="H245" s="78"/>
+      <c r="I245" s="78"/>
+      <c r="J245" s="79"/>
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
-      <c r="P245" s="116"/>
-    </row>
-    <row r="246" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P245" s="115"/>
+    </row>
+    <row r="246" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
-      <c r="C246" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E246" s="2"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
       <c r="F246" s="1"/>
-      <c r="G246" s="78"/>
-      <c r="H246" s="78"/>
-      <c r="I246" s="78"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
       <c r="M246" s="1"/>
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
-      <c r="P246" s="116"/>
-    </row>
-    <row r="247" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P246" s="115"/>
+    </row>
+    <row r="247" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
-      <c r="B247" s="4"/>
-      <c r="C247" s="4"/>
-      <c r="D247" s="4"/>
-      <c r="E247" s="5"/>
-      <c r="F247" s="4"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E247" s="2"/>
+      <c r="F247" s="1"/>
       <c r="G247" s="78"/>
       <c r="H247" s="78"/>
       <c r="I247" s="78"/>
@@ -9666,71 +9710,71 @@
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
-      <c r="P247" s="116"/>
+      <c r="P247" s="115"/>
     </row>
     <row r="248" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="82"/>
-      <c r="B248" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C248" s="6"/>
-      <c r="D248" s="6"/>
-      <c r="E248" s="6"/>
-      <c r="F248" s="6"/>
-      <c r="G248" s="83"/>
-      <c r="H248" s="96"/>
-      <c r="I248" s="96"/>
+      <c r="A248" s="1"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="4"/>
+      <c r="D248" s="4"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="4"/>
+      <c r="G248" s="78"/>
+      <c r="H248" s="78"/>
+      <c r="I248" s="78"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
-      <c r="P248" s="116"/>
-    </row>
-    <row r="249" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P248" s="115"/>
+    </row>
+    <row r="249" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="82"/>
-      <c r="B249" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C249" s="13"/>
-      <c r="D249" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E249" s="14">
+      <c r="B249" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F249" s="15">
-        <v>13</v>
-      </c>
+      <c r="C249" s="6"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="6"/>
       <c r="G249" s="83"/>
-      <c r="H249" s="98"/>
-      <c r="I249" s="94"/>
+      <c r="H249" s="96"/>
+      <c r="I249" s="96"/>
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
-      <c r="P249" s="116"/>
+      <c r="P249" s="115"/>
     </row>
     <row r="250" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="82"/>
-      <c r="B250" s="21"/>
-      <c r="C250" s="21"/>
-      <c r="D250" s="21"/>
-      <c r="E250" s="22"/>
-      <c r="F250" s="21"/>
-      <c r="G250" s="89"/>
-      <c r="H250" s="96"/>
-      <c r="I250" s="96"/>
+      <c r="B250" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C250" s="13"/>
+      <c r="D250" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E250" s="14">
+        <v>3</v>
+      </c>
+      <c r="F250" s="15">
+        <v>13</v>
+      </c>
+      <c r="G250" s="83"/>
+      <c r="H250" s="98"/>
+      <c r="I250" s="94"/>
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
-      <c r="P250" s="116"/>
+      <c r="P250" s="115"/>
     </row>
     <row r="251" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="82"/>
@@ -9739,7 +9783,7 @@
       <c r="D251" s="21"/>
       <c r="E251" s="22"/>
       <c r="F251" s="21"/>
-      <c r="G251" s="83"/>
+      <c r="G251" s="89"/>
       <c r="H251" s="96"/>
       <c r="I251" s="96"/>
       <c r="J251" s="1"/>
@@ -9748,35 +9792,25 @@
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
-      <c r="P251" s="116"/>
+      <c r="P251" s="115"/>
     </row>
     <row r="252" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="82"/>
-      <c r="B252" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C252" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="D252" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="E252" s="29">
-        <v>3</v>
-      </c>
-      <c r="F252" s="30">
-        <v>0</v>
-      </c>
-      <c r="G252" s="86"/>
-      <c r="H252" s="95"/>
-      <c r="I252" s="94"/>
+      <c r="B252" s="21"/>
+      <c r="C252" s="21"/>
+      <c r="D252" s="21"/>
+      <c r="E252" s="22"/>
+      <c r="F252" s="21"/>
+      <c r="G252" s="83"/>
+      <c r="H252" s="96"/>
+      <c r="I252" s="96"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
-      <c r="P252" s="116"/>
+      <c r="P252" s="115"/>
     </row>
     <row r="253" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="82"/>
@@ -9784,19 +9818,19 @@
         <v>15</v>
       </c>
       <c r="C253" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D253" s="28" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="E253" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F253" s="30">
         <v>0</v>
       </c>
-      <c r="G253" s="91"/>
-      <c r="H253" s="94"/>
+      <c r="G253" s="86"/>
+      <c r="H253" s="95"/>
       <c r="I253" s="94"/>
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
@@ -9804,16 +9838,26 @@
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
-      <c r="P253" s="116"/>
+      <c r="P253" s="115"/>
     </row>
     <row r="254" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="82"/>
-      <c r="B254" s="102"/>
-      <c r="C254" s="28"/>
-      <c r="D254" s="28"/>
-      <c r="E254" s="29"/>
-      <c r="F254" s="104"/>
-      <c r="G254" s="86"/>
+      <c r="B254" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C254" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D254" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E254" s="29">
+        <v>1</v>
+      </c>
+      <c r="F254" s="30">
+        <v>0</v>
+      </c>
+      <c r="G254" s="91"/>
       <c r="H254" s="94"/>
       <c r="I254" s="94"/>
       <c r="J254" s="1"/>
@@ -9822,25 +9866,15 @@
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
-      <c r="P254" s="116"/>
+      <c r="P254" s="115"/>
     </row>
     <row r="255" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="82"/>
-      <c r="B255" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C255" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="D255" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="E255" s="29">
-        <v>1</v>
-      </c>
-      <c r="F255" s="104">
-        <v>0</v>
-      </c>
+      <c r="B255" s="102"/>
+      <c r="C255" s="28"/>
+      <c r="D255" s="28"/>
+      <c r="E255" s="29"/>
+      <c r="F255" s="104"/>
       <c r="G255" s="86"/>
       <c r="H255" s="94"/>
       <c r="I255" s="94"/>
@@ -9850,7 +9884,7 @@
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
-      <c r="P255" s="116"/>
+      <c r="P255" s="115"/>
     </row>
     <row r="256" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="82"/>
@@ -9858,19 +9892,19 @@
         <v>18</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D256" s="28" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="E256" s="29">
-        <v>4</v>
-      </c>
-      <c r="F256" s="30">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F256" s="104">
+        <v>0</v>
       </c>
       <c r="G256" s="86"/>
-      <c r="H256" s="95"/>
+      <c r="H256" s="94"/>
       <c r="I256" s="94"/>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
@@ -9878,7 +9912,7 @@
       <c r="M256" s="1"/>
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
-      <c r="P256" s="116"/>
+      <c r="P256" s="115"/>
     </row>
     <row r="257" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="82"/>
@@ -9886,18 +9920,18 @@
         <v>18</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D257" s="28" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E257" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F257" s="30">
-        <v>3</v>
-      </c>
-      <c r="G257" s="95"/>
+        <v>2</v>
+      </c>
+      <c r="G257" s="86"/>
       <c r="H257" s="95"/>
       <c r="I257" s="94"/>
       <c r="J257" s="1"/>
@@ -9906,17 +9940,27 @@
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
-      <c r="P257" s="116"/>
+      <c r="P257" s="115"/>
     </row>
     <row r="258" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="82"/>
-      <c r="B258" s="28"/>
-      <c r="C258" s="28"/>
-      <c r="D258" s="28"/>
-      <c r="E258" s="29"/>
-      <c r="F258" s="30"/>
-      <c r="G258" s="91"/>
-      <c r="H258" s="94"/>
+      <c r="B258" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C258" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D258" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E258" s="29">
+        <v>5</v>
+      </c>
+      <c r="F258" s="30">
+        <v>3</v>
+      </c>
+      <c r="G258" s="95"/>
+      <c r="H258" s="95"/>
       <c r="I258" s="94"/>
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
@@ -9924,7 +9968,7 @@
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
-      <c r="P258" s="116"/>
+      <c r="P258" s="115"/>
     </row>
     <row r="259" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="82"/>
@@ -9933,7 +9977,7 @@
       <c r="D259" s="28"/>
       <c r="E259" s="29"/>
       <c r="F259" s="30"/>
-      <c r="G259" s="86"/>
+      <c r="G259" s="91"/>
       <c r="H259" s="94"/>
       <c r="I259" s="94"/>
       <c r="J259" s="1"/>
@@ -9942,31 +9986,17 @@
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
-      <c r="P259" s="116"/>
+      <c r="P259" s="115"/>
     </row>
     <row r="260" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="82"/>
-      <c r="B260" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="C260" s="102" t="s">
-        <v>230</v>
-      </c>
-      <c r="D260" s="102" t="s">
-        <v>304</v>
-      </c>
-      <c r="E260" s="103">
-        <v>26</v>
-      </c>
-      <c r="F260" s="104">
-        <v>0</v>
-      </c>
-      <c r="G260" s="86" t="s">
-        <v>284</v>
-      </c>
-      <c r="H260" s="95">
-        <v>45162</v>
-      </c>
+      <c r="B260" s="28"/>
+      <c r="C260" s="28"/>
+      <c r="D260" s="28"/>
+      <c r="E260" s="29"/>
+      <c r="F260" s="30"/>
+      <c r="G260" s="86"/>
+      <c r="H260" s="94"/>
       <c r="I260" s="94"/>
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
@@ -9974,29 +10004,31 @@
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
-      <c r="P260" s="116"/>
+      <c r="P260" s="115"/>
     </row>
     <row r="261" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="82"/>
-      <c r="B261" s="28" t="s">
+      <c r="B261" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C261" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="D261" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E261" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="F261" s="30">
+      <c r="C261" s="102" t="s">
+        <v>230</v>
+      </c>
+      <c r="D261" s="102" t="s">
+        <v>304</v>
+      </c>
+      <c r="E261" s="103">
+        <v>26</v>
+      </c>
+      <c r="F261" s="104">
         <v>0</v>
       </c>
-      <c r="G261" s="91">
+      <c r="G261" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="H261" s="95">
         <v>45162</v>
       </c>
-      <c r="H261" s="94"/>
       <c r="I261" s="94"/>
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
@@ -10004,7 +10036,7 @@
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
-      <c r="P261" s="116"/>
+      <c r="P261" s="115"/>
     </row>
     <row r="262" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="82"/>
@@ -10012,19 +10044,21 @@
         <v>19</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>231</v>
+        <v>312</v>
       </c>
       <c r="D262" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="E262" s="29">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="E262" s="29" t="s">
+        <v>283</v>
       </c>
       <c r="F262" s="30">
-        <v>3</v>
-      </c>
-      <c r="G262" s="86"/>
-      <c r="H262" s="95"/>
+        <v>0</v>
+      </c>
+      <c r="G262" s="91">
+        <v>45162</v>
+      </c>
+      <c r="H262" s="94"/>
       <c r="I262" s="94"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
@@ -10032,7 +10066,7 @@
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
-      <c r="P262" s="116"/>
+      <c r="P262" s="115"/>
     </row>
     <row r="263" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="82"/>
@@ -10040,18 +10074,18 @@
         <v>19</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D263" s="28" t="s">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="E263" s="29">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F263" s="30">
-        <v>2</v>
-      </c>
-      <c r="G263" s="91"/>
+        <v>3</v>
+      </c>
+      <c r="G263" s="86"/>
       <c r="H263" s="95"/>
       <c r="I263" s="94"/>
       <c r="J263" s="1"/>
@@ -10060,7 +10094,7 @@
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
-      <c r="P263" s="116"/>
+      <c r="P263" s="115"/>
     </row>
     <row r="264" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="82"/>
@@ -10068,16 +10102,16 @@
         <v>19</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D264" s="28" t="s">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="E264" s="29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F264" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G264" s="91"/>
       <c r="H264" s="95"/>
@@ -10088,7 +10122,7 @@
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
-      <c r="P264" s="116"/>
+      <c r="P264" s="115"/>
     </row>
     <row r="265" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="82"/>
@@ -10096,16 +10130,16 @@
         <v>19</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D265" s="28" t="s">
-        <v>103</v>
+        <v>235</v>
       </c>
       <c r="E265" s="29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F265" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G265" s="91"/>
       <c r="H265" s="95"/>
@@ -10116,17 +10150,27 @@
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
-      <c r="P265" s="116"/>
+      <c r="P265" s="115"/>
     </row>
     <row r="266" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="82"/>
-      <c r="B266" s="102"/>
-      <c r="C266" s="28"/>
-      <c r="D266" s="28"/>
-      <c r="E266" s="29"/>
-      <c r="F266" s="30"/>
-      <c r="G266" s="86"/>
-      <c r="H266" s="94"/>
+      <c r="B266" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C266" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="D266" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E266" s="29">
+        <v>1</v>
+      </c>
+      <c r="F266" s="30">
+        <v>1</v>
+      </c>
+      <c r="G266" s="91"/>
+      <c r="H266" s="95"/>
       <c r="I266" s="94"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
@@ -10134,17 +10178,17 @@
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
-      <c r="P266" s="116"/>
+      <c r="P266" s="115"/>
     </row>
     <row r="267" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="82"/>
-      <c r="B267" s="28"/>
-      <c r="C267" s="102"/>
-      <c r="D267" s="102"/>
-      <c r="E267" s="103"/>
-      <c r="F267" s="104"/>
-      <c r="G267" s="91"/>
-      <c r="H267" s="95"/>
+      <c r="B267" s="102"/>
+      <c r="C267" s="28"/>
+      <c r="D267" s="28"/>
+      <c r="E267" s="29"/>
+      <c r="F267" s="30"/>
+      <c r="G267" s="86"/>
+      <c r="H267" s="94"/>
       <c r="I267" s="94"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
@@ -10152,17 +10196,17 @@
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
-      <c r="P267" s="116"/>
+      <c r="P267" s="115"/>
     </row>
     <row r="268" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="82"/>
-      <c r="B268" s="102"/>
-      <c r="C268" s="21"/>
-      <c r="D268" s="21"/>
-      <c r="E268" s="22"/>
-      <c r="F268" s="21"/>
+      <c r="B268" s="28"/>
+      <c r="C268" s="102"/>
+      <c r="D268" s="102"/>
+      <c r="E268" s="103"/>
+      <c r="F268" s="104"/>
       <c r="G268" s="91"/>
-      <c r="H268" s="94"/>
+      <c r="H268" s="95"/>
       <c r="I268" s="94"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
@@ -10170,16 +10214,16 @@
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
-      <c r="P268" s="116"/>
-    </row>
-    <row r="269" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P268" s="115"/>
+    </row>
+    <row r="269" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="82"/>
-      <c r="B269" s="21"/>
-      <c r="C269" s="33"/>
-      <c r="D269" s="33"/>
-      <c r="E269" s="34"/>
-      <c r="F269" s="33"/>
-      <c r="G269" s="86"/>
+      <c r="B269" s="102"/>
+      <c r="C269" s="21"/>
+      <c r="D269" s="21"/>
+      <c r="E269" s="22"/>
+      <c r="F269" s="21"/>
+      <c r="G269" s="91"/>
       <c r="H269" s="94"/>
       <c r="I269" s="94"/>
       <c r="J269" s="1"/>
@@ -10188,97 +10232,97 @@
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
-      <c r="P269" s="116"/>
+      <c r="P269" s="115"/>
     </row>
     <row r="270" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="1"/>
-      <c r="B270" s="35"/>
-      <c r="C270" s="35"/>
-      <c r="D270" s="36"/>
-      <c r="E270" s="37">
-        <f>SUM(E249:E269)</f>
-        <v>94</v>
-      </c>
-      <c r="F270" s="38">
-        <f>SUM(F252:F269)-SUM(F249:F251)</f>
-        <v>-2</v>
-      </c>
-      <c r="G270" s="83"/>
-      <c r="H270" s="96"/>
-      <c r="I270" s="96"/>
+      <c r="A270" s="82"/>
+      <c r="B270" s="21"/>
+      <c r="C270" s="33"/>
+      <c r="D270" s="33"/>
+      <c r="E270" s="34"/>
+      <c r="F270" s="33"/>
+      <c r="G270" s="86"/>
+      <c r="H270" s="94"/>
+      <c r="I270" s="94"/>
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
       <c r="L270" s="1"/>
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
-      <c r="P270" s="116"/>
-    </row>
-    <row r="271" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P270" s="115"/>
+    </row>
+    <row r="271" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
-      <c r="D271" s="1"/>
-      <c r="E271" s="39"/>
-      <c r="F271" s="35"/>
-      <c r="G271" s="78"/>
-      <c r="H271" s="78"/>
-      <c r="I271" s="78"/>
+      <c r="B271" s="35"/>
+      <c r="C271" s="35"/>
+      <c r="D271" s="36"/>
+      <c r="E271" s="37">
+        <f>SUM(E250:E270)</f>
+        <v>94</v>
+      </c>
+      <c r="F271" s="38">
+        <f>SUM(F253:F270)-SUM(F250:F252)</f>
+        <v>-2</v>
+      </c>
+      <c r="G271" s="83"/>
+      <c r="H271" s="96"/>
+      <c r="I271" s="96"/>
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
       <c r="L271" s="1"/>
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
-      <c r="P271" s="116"/>
-    </row>
-    <row r="272" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P271" s="115"/>
+    </row>
+    <row r="272" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
-      <c r="E272" s="4"/>
-      <c r="F272" s="4"/>
-      <c r="G272" s="1"/>
-      <c r="H272" s="1"/>
-      <c r="I272" s="1"/>
+      <c r="E272" s="39"/>
+      <c r="F272" s="35"/>
+      <c r="G272" s="78"/>
+      <c r="H272" s="78"/>
+      <c r="I272" s="78"/>
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
       <c r="L272" s="1"/>
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
-      <c r="P272" s="116"/>
-    </row>
-    <row r="273" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P272" s="115"/>
+    </row>
+    <row r="273" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
-      <c r="C273" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E273" s="2"/>
-      <c r="F273" s="1"/>
-      <c r="G273" s="78"/>
-      <c r="H273" s="78"/>
-      <c r="I273" s="78"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="4"/>
+      <c r="F273" s="4"/>
+      <c r="G273" s="1"/>
+      <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
-      <c r="P273" s="116"/>
-    </row>
-    <row r="274" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P273" s="115"/>
+    </row>
+    <row r="274" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
-      <c r="B274" s="4"/>
-      <c r="C274" s="4"/>
-      <c r="D274" s="4"/>
-      <c r="E274" s="5"/>
-      <c r="F274" s="4"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E274" s="2"/>
+      <c r="F274" s="1"/>
       <c r="G274" s="78"/>
       <c r="H274" s="78"/>
       <c r="I274" s="78"/>
@@ -10288,50 +10332,42 @@
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
-      <c r="P274" s="116"/>
+      <c r="P274" s="115"/>
     </row>
     <row r="275" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="82"/>
-      <c r="B275" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D275" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E275" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F275" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G275" s="83"/>
-      <c r="H275" s="96"/>
-      <c r="I275" s="96"/>
+      <c r="A275" s="1"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="4"/>
+      <c r="G275" s="78"/>
+      <c r="H275" s="78"/>
+      <c r="I275" s="78"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
-      <c r="P275" s="116"/>
-    </row>
-    <row r="276" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P275" s="115"/>
+    </row>
+    <row r="276" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="82"/>
-      <c r="B276" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C276" s="13"/>
-      <c r="D276" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E276" s="40">
-        <v>11</v>
-      </c>
-      <c r="F276" s="15">
+      <c r="B276" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E276" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="F276" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G276" s="83"/>
       <c r="H276" s="96"/>
@@ -10342,15 +10378,23 @@
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
-      <c r="P276" s="116"/>
+      <c r="P276" s="115"/>
     </row>
     <row r="277" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="82"/>
-      <c r="B277" s="21"/>
-      <c r="C277" s="21"/>
-      <c r="D277" s="21"/>
-      <c r="E277" s="22"/>
-      <c r="F277" s="21"/>
+      <c r="B277" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C277" s="13"/>
+      <c r="D277" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E277" s="40">
+        <v>11</v>
+      </c>
+      <c r="F277" s="15">
+        <v>6</v>
+      </c>
       <c r="G277" s="83"/>
       <c r="H277" s="96"/>
       <c r="I277" s="96"/>
@@ -10360,7 +10404,7 @@
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
-      <c r="P277" s="116"/>
+      <c r="P277" s="115"/>
     </row>
     <row r="278" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="82"/>
@@ -10378,35 +10422,25 @@
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
-      <c r="P278" s="116"/>
+      <c r="P278" s="115"/>
     </row>
     <row r="279" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="82"/>
-      <c r="B279" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C279" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="D279" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E279" s="22">
-        <v>1</v>
-      </c>
-      <c r="F279" s="30">
-        <v>0</v>
-      </c>
-      <c r="G279" s="86"/>
-      <c r="H279" s="94"/>
-      <c r="I279" s="94"/>
+      <c r="B279" s="21"/>
+      <c r="C279" s="21"/>
+      <c r="D279" s="21"/>
+      <c r="E279" s="22"/>
+      <c r="F279" s="21"/>
+      <c r="G279" s="83"/>
+      <c r="H279" s="96"/>
+      <c r="I279" s="96"/>
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
       <c r="L279" s="1"/>
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
-      <c r="P279" s="116"/>
+      <c r="P279" s="115"/>
     </row>
     <row r="280" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="82"/>
@@ -10414,10 +10448,10 @@
         <v>15</v>
       </c>
       <c r="C280" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D280" s="21" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E280" s="22">
         <v>1</v>
@@ -10426,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="86"/>
-      <c r="H280" s="95"/>
+      <c r="H280" s="94"/>
       <c r="I280" s="94"/>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
@@ -10434,17 +10468,27 @@
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
-      <c r="P280" s="116"/>
+      <c r="P280" s="115"/>
     </row>
     <row r="281" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="82"/>
-      <c r="B281" s="102"/>
-      <c r="C281" s="21"/>
-      <c r="D281" s="21"/>
-      <c r="E281" s="22"/>
-      <c r="F281" s="104"/>
-      <c r="G281" s="91"/>
-      <c r="H281" s="94"/>
+      <c r="B281" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C281" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D281" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E281" s="22">
+        <v>1</v>
+      </c>
+      <c r="F281" s="30">
+        <v>0</v>
+      </c>
+      <c r="G281" s="86"/>
+      <c r="H281" s="95"/>
       <c r="I281" s="94"/>
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
@@ -10452,27 +10496,17 @@
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
-      <c r="P281" s="116"/>
+      <c r="P281" s="115"/>
     </row>
     <row r="282" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="82"/>
-      <c r="B282" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C282" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="D282" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E282" s="22">
-        <v>18</v>
-      </c>
-      <c r="F282" s="30">
-        <v>0</v>
-      </c>
-      <c r="G282" s="86"/>
-      <c r="H282" s="95"/>
+      <c r="B282" s="102"/>
+      <c r="C282" s="21"/>
+      <c r="D282" s="21"/>
+      <c r="E282" s="22"/>
+      <c r="F282" s="104"/>
+      <c r="G282" s="91"/>
+      <c r="H282" s="94"/>
       <c r="I282" s="94"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
@@ -10480,31 +10514,27 @@
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
-      <c r="P282" s="116"/>
+      <c r="P282" s="115"/>
     </row>
     <row r="283" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="82"/>
-      <c r="B283" s="102" t="s">
+      <c r="B283" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C283" s="106" t="s">
-        <v>239</v>
-      </c>
-      <c r="D283" s="106" t="s">
-        <v>182</v>
-      </c>
-      <c r="E283" s="107">
-        <v>8</v>
-      </c>
-      <c r="F283" s="104">
+      <c r="C283" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D283" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E283" s="22">
+        <v>18</v>
+      </c>
+      <c r="F283" s="30">
         <v>0</v>
       </c>
-      <c r="G283" s="95" t="s">
-        <v>284</v>
-      </c>
-      <c r="H283" s="95">
-        <v>45148</v>
-      </c>
+      <c r="G283" s="86"/>
+      <c r="H283" s="95"/>
       <c r="I283" s="94"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
@@ -10512,29 +10542,31 @@
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
-      <c r="P283" s="116"/>
+      <c r="P283" s="115"/>
     </row>
     <row r="284" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="82"/>
-      <c r="B284" s="28" t="s">
+      <c r="B284" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C284" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="D284" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="E284" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="F284" s="30">
+      <c r="C284" s="106" t="s">
+        <v>239</v>
+      </c>
+      <c r="D284" s="106" t="s">
+        <v>182</v>
+      </c>
+      <c r="E284" s="107">
+        <v>8</v>
+      </c>
+      <c r="F284" s="104">
         <v>0</v>
       </c>
-      <c r="G284" s="91">
+      <c r="G284" s="95" t="s">
+        <v>284</v>
+      </c>
+      <c r="H284" s="95">
         <v>45148</v>
       </c>
-      <c r="H284" s="95"/>
       <c r="I284" s="94"/>
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
@@ -10542,7 +10574,7 @@
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
-      <c r="P284" s="116"/>
+      <c r="P284" s="115"/>
     </row>
     <row r="285" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="82"/>
@@ -10550,19 +10582,21 @@
         <v>18</v>
       </c>
       <c r="C285" s="21" t="s">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c r="D285" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E285" s="22">
-        <v>2</v>
+        <v>298</v>
+      </c>
+      <c r="E285" s="22" t="s">
+        <v>283</v>
       </c>
       <c r="F285" s="30">
-        <v>2</v>
-      </c>
-      <c r="G285" s="91"/>
-      <c r="H285" s="94"/>
+        <v>0</v>
+      </c>
+      <c r="G285" s="91">
+        <v>45148</v>
+      </c>
+      <c r="H285" s="95"/>
       <c r="I285" s="94"/>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
@@ -10570,16 +10604,26 @@
       <c r="M285" s="1"/>
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
-      <c r="P285" s="116"/>
+      <c r="P285" s="115"/>
     </row>
     <row r="286" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="82"/>
-      <c r="B286" s="28"/>
-      <c r="C286" s="21"/>
-      <c r="D286" s="21"/>
-      <c r="E286" s="22"/>
-      <c r="F286" s="30"/>
-      <c r="G286" s="86"/>
+      <c r="B286" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C286" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D286" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E286" s="22">
+        <v>2</v>
+      </c>
+      <c r="F286" s="30">
+        <v>2</v>
+      </c>
+      <c r="G286" s="91"/>
       <c r="H286" s="94"/>
       <c r="I286" s="94"/>
       <c r="J286" s="1"/>
@@ -10588,27 +10632,17 @@
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
-      <c r="P286" s="116"/>
+      <c r="P286" s="115"/>
     </row>
     <row r="287" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="82"/>
-      <c r="B287" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C287" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="D287" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="E287" s="22">
-        <v>30</v>
-      </c>
-      <c r="F287" s="30">
-        <v>4</v>
-      </c>
+      <c r="B287" s="28"/>
+      <c r="C287" s="21"/>
+      <c r="D287" s="21"/>
+      <c r="E287" s="22"/>
+      <c r="F287" s="30"/>
       <c r="G287" s="86"/>
-      <c r="H287" s="95"/>
+      <c r="H287" s="94"/>
       <c r="I287" s="94"/>
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
@@ -10616,7 +10650,7 @@
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
-      <c r="P287" s="116"/>
+      <c r="P287" s="115"/>
     </row>
     <row r="288" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="82"/>
@@ -10624,18 +10658,18 @@
         <v>19</v>
       </c>
       <c r="C288" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D288" s="21" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="E288" s="22">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F288" s="30">
-        <v>1</v>
-      </c>
-      <c r="G288" s="91"/>
+        <v>4</v>
+      </c>
+      <c r="G288" s="86"/>
       <c r="H288" s="95"/>
       <c r="I288" s="94"/>
       <c r="J288" s="1"/>
@@ -10644,7 +10678,7 @@
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
-      <c r="P288" s="116"/>
+      <c r="P288" s="115"/>
     </row>
     <row r="289" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="82"/>
@@ -10652,16 +10686,16 @@
         <v>19</v>
       </c>
       <c r="C289" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="E289" s="22">
+        <v>20</v>
+      </c>
+      <c r="F289" s="30">
         <v>1</v>
-      </c>
-      <c r="F289" s="30">
-        <v>4</v>
       </c>
       <c r="G289" s="91"/>
       <c r="H289" s="95"/>
@@ -10672,7 +10706,7 @@
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
-      <c r="P289" s="116"/>
+      <c r="P289" s="115"/>
     </row>
     <row r="290" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="82"/>
@@ -10680,16 +10714,16 @@
         <v>19</v>
       </c>
       <c r="C290" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D290" s="21" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="E290" s="22">
         <v>1</v>
       </c>
       <c r="F290" s="30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G290" s="91"/>
       <c r="H290" s="95"/>
@@ -10700,7 +10734,7 @@
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
-      <c r="P290" s="116"/>
+      <c r="P290" s="115"/>
     </row>
     <row r="291" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="82"/>
@@ -10708,16 +10742,16 @@
         <v>19</v>
       </c>
       <c r="C291" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>246</v>
+        <v>33</v>
       </c>
       <c r="E291" s="22">
         <v>1</v>
       </c>
       <c r="F291" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G291" s="91"/>
       <c r="H291" s="95"/>
@@ -10728,15 +10762,25 @@
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
-      <c r="P291" s="116"/>
+      <c r="P291" s="115"/>
     </row>
     <row r="292" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="82"/>
-      <c r="B292" s="28"/>
-      <c r="C292" s="106"/>
-      <c r="D292" s="106"/>
-      <c r="E292" s="107"/>
-      <c r="F292" s="104"/>
+      <c r="B292" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C292" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D292" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E292" s="22">
+        <v>1</v>
+      </c>
+      <c r="F292" s="30">
+        <v>1</v>
+      </c>
       <c r="G292" s="91"/>
       <c r="H292" s="95"/>
       <c r="I292" s="94"/>
@@ -10746,15 +10790,15 @@
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
-      <c r="P292" s="116"/>
+      <c r="P292" s="115"/>
     </row>
     <row r="293" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="82"/>
-      <c r="B293" s="102"/>
-      <c r="C293" s="21"/>
-      <c r="D293" s="21"/>
-      <c r="E293" s="22"/>
-      <c r="F293" s="30"/>
+      <c r="B293" s="28"/>
+      <c r="C293" s="106"/>
+      <c r="D293" s="106"/>
+      <c r="E293" s="107"/>
+      <c r="F293" s="104"/>
       <c r="G293" s="91"/>
       <c r="H293" s="95"/>
       <c r="I293" s="94"/>
@@ -10764,11 +10808,11 @@
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
-      <c r="P293" s="116"/>
+      <c r="P293" s="115"/>
     </row>
     <row r="294" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="82"/>
-      <c r="B294" s="28"/>
+      <c r="B294" s="102"/>
       <c r="C294" s="21"/>
       <c r="D294" s="21"/>
       <c r="E294" s="22"/>
@@ -10782,16 +10826,16 @@
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
-      <c r="P294" s="116"/>
+      <c r="P294" s="115"/>
     </row>
     <row r="295" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="82"/>
-      <c r="B295" s="102"/>
-      <c r="C295" s="106"/>
-      <c r="D295" s="106"/>
-      <c r="E295" s="107"/>
-      <c r="F295" s="104"/>
-      <c r="G295" s="86"/>
+      <c r="B295" s="28"/>
+      <c r="C295" s="21"/>
+      <c r="D295" s="21"/>
+      <c r="E295" s="22"/>
+      <c r="F295" s="30"/>
+      <c r="G295" s="91"/>
       <c r="H295" s="95"/>
       <c r="I295" s="94"/>
       <c r="J295" s="1"/>
@@ -10800,16 +10844,16 @@
       <c r="M295" s="1"/>
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
-      <c r="P295" s="116"/>
-    </row>
-    <row r="296" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P295" s="115"/>
+    </row>
+    <row r="296" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="82"/>
-      <c r="B296" s="21"/>
-      <c r="C296" s="21"/>
-      <c r="D296" s="21"/>
-      <c r="E296" s="22"/>
-      <c r="F296" s="30"/>
-      <c r="G296" s="91"/>
+      <c r="B296" s="102"/>
+      <c r="C296" s="106"/>
+      <c r="D296" s="106"/>
+      <c r="E296" s="107"/>
+      <c r="F296" s="104"/>
+      <c r="G296" s="86"/>
       <c r="H296" s="95"/>
       <c r="I296" s="94"/>
       <c r="J296" s="1"/>
@@ -10818,97 +10862,97 @@
       <c r="M296" s="1"/>
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
-      <c r="P296" s="116"/>
+      <c r="P296" s="115"/>
     </row>
     <row r="297" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A297" s="1"/>
-      <c r="B297" s="35"/>
-      <c r="C297" s="35"/>
-      <c r="D297" s="36"/>
-      <c r="E297" s="37">
-        <f>SUM(E276:E296)</f>
-        <v>94</v>
-      </c>
-      <c r="F297" s="38">
-        <f>SUM(F278:F296)-SUM(F276:F277)</f>
-        <v>6</v>
-      </c>
-      <c r="G297" s="83"/>
-      <c r="H297" s="96"/>
-      <c r="I297" s="96"/>
+      <c r="A297" s="82"/>
+      <c r="B297" s="21"/>
+      <c r="C297" s="21"/>
+      <c r="D297" s="21"/>
+      <c r="E297" s="22"/>
+      <c r="F297" s="30"/>
+      <c r="G297" s="91"/>
+      <c r="H297" s="95"/>
+      <c r="I297" s="94"/>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
       <c r="L297" s="1"/>
       <c r="M297" s="1"/>
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
-      <c r="P297" s="116"/>
-    </row>
-    <row r="298" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P297" s="115"/>
+    </row>
+    <row r="298" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
-      <c r="C298" s="1"/>
-      <c r="D298" s="1"/>
-      <c r="E298" s="39"/>
-      <c r="F298" s="35"/>
-      <c r="G298" s="78"/>
-      <c r="H298" s="78"/>
-      <c r="I298" s="78"/>
+      <c r="B298" s="35"/>
+      <c r="C298" s="35"/>
+      <c r="D298" s="36"/>
+      <c r="E298" s="37">
+        <f>SUM(E277:E297)</f>
+        <v>94</v>
+      </c>
+      <c r="F298" s="38">
+        <f>SUM(F279:F297)-SUM(F277:F278)</f>
+        <v>6</v>
+      </c>
+      <c r="G298" s="83"/>
+      <c r="H298" s="96"/>
+      <c r="I298" s="96"/>
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
       <c r="L298" s="1"/>
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
-      <c r="P298" s="116"/>
+      <c r="P298" s="115"/>
     </row>
     <row r="299" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
-      <c r="E299" s="1"/>
-      <c r="F299" s="1"/>
-      <c r="G299" s="1"/>
-      <c r="H299" s="1"/>
-      <c r="I299" s="1"/>
+      <c r="E299" s="39"/>
+      <c r="F299" s="35"/>
+      <c r="G299" s="78"/>
+      <c r="H299" s="78"/>
+      <c r="I299" s="78"/>
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
       <c r="L299" s="1"/>
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
-      <c r="P299" s="116"/>
+      <c r="P299" s="115"/>
     </row>
     <row r="300" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
-      <c r="C300" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E300" s="2"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
       <c r="F300" s="1"/>
-      <c r="G300" s="78"/>
-      <c r="H300" s="78"/>
-      <c r="I300" s="78"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="1"/>
+      <c r="I300" s="1"/>
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
       <c r="L300" s="1"/>
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
-      <c r="P300" s="116"/>
-    </row>
-    <row r="301" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P300" s="115"/>
+    </row>
+    <row r="301" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
-      <c r="B301" s="4"/>
-      <c r="C301" s="4"/>
-      <c r="D301" s="4"/>
-      <c r="E301" s="5"/>
-      <c r="F301" s="4"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E301" s="2"/>
+      <c r="F301" s="1"/>
       <c r="G301" s="78"/>
       <c r="H301" s="78"/>
       <c r="I301" s="78"/>
@@ -10918,53 +10962,45 @@
       <c r="M301" s="1"/>
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
-      <c r="P301" s="116"/>
+      <c r="P301" s="115"/>
     </row>
     <row r="302" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="82"/>
-      <c r="B302" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C302" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D302" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E302" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F302" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G302" s="83"/>
-      <c r="H302" s="96"/>
-      <c r="I302" s="96"/>
+      <c r="A302" s="1"/>
+      <c r="B302" s="4"/>
+      <c r="C302" s="4"/>
+      <c r="D302" s="4"/>
+      <c r="E302" s="5"/>
+      <c r="F302" s="4"/>
+      <c r="G302" s="78"/>
+      <c r="H302" s="78"/>
+      <c r="I302" s="78"/>
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
       <c r="L302" s="1"/>
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
-      <c r="P302" s="116"/>
-    </row>
-    <row r="303" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P302" s="115"/>
+    </row>
+    <row r="303" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="82"/>
-      <c r="B303" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C303" s="13"/>
-      <c r="D303" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E303" s="40">
+      <c r="B303" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E303" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F303" s="15">
-        <v>5</v>
+      <c r="F303" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G303" s="83"/>
-      <c r="H303" s="95"/>
+      <c r="H303" s="96"/>
       <c r="I303" s="96"/>
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
@@ -10972,16 +11008,24 @@
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
-      <c r="P303" s="116"/>
+      <c r="P303" s="115"/>
     </row>
     <row r="304" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="82"/>
-      <c r="B304" s="21"/>
-      <c r="C304" s="21"/>
-      <c r="D304" s="21"/>
-      <c r="E304" s="22"/>
-      <c r="F304" s="21"/>
-      <c r="G304" s="91"/>
+      <c r="B304" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C304" s="13"/>
+      <c r="D304" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E304" s="40">
+        <v>6</v>
+      </c>
+      <c r="F304" s="15">
+        <v>5</v>
+      </c>
+      <c r="G304" s="83"/>
       <c r="H304" s="95"/>
       <c r="I304" s="96"/>
       <c r="J304" s="1"/>
@@ -10990,7 +11034,7 @@
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
-      <c r="P304" s="116"/>
+      <c r="P304" s="115"/>
     </row>
     <row r="305" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="82"/>
@@ -11000,35 +11044,25 @@
       <c r="E305" s="22"/>
       <c r="F305" s="21"/>
       <c r="G305" s="91"/>
-      <c r="H305" s="96"/>
-      <c r="I305" s="94"/>
+      <c r="H305" s="95"/>
+      <c r="I305" s="96"/>
       <c r="J305" s="1"/>
       <c r="K305" s="1"/>
       <c r="L305" s="1"/>
       <c r="M305" s="1"/>
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
-      <c r="P305" s="116"/>
+      <c r="P305" s="115"/>
     </row>
     <row r="306" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="82"/>
-      <c r="B306" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C306" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D306" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="E306" s="22">
-        <v>1</v>
-      </c>
-      <c r="F306" s="30">
-        <v>0</v>
-      </c>
-      <c r="G306" s="86"/>
-      <c r="H306" s="95"/>
+      <c r="B306" s="21"/>
+      <c r="C306" s="21"/>
+      <c r="D306" s="21"/>
+      <c r="E306" s="22"/>
+      <c r="F306" s="21"/>
+      <c r="G306" s="91"/>
+      <c r="H306" s="96"/>
       <c r="I306" s="94"/>
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
@@ -11036,7 +11070,7 @@
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
-      <c r="P306" s="116"/>
+      <c r="P306" s="115"/>
     </row>
     <row r="307" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="82"/>
@@ -11044,19 +11078,19 @@
         <v>15</v>
       </c>
       <c r="C307" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E307" s="22">
         <v>1</v>
       </c>
       <c r="F307" s="30">
-        <v>1</v>
-      </c>
-      <c r="G307" s="91"/>
-      <c r="H307" s="94"/>
+        <v>0</v>
+      </c>
+      <c r="G307" s="86"/>
+      <c r="H307" s="95"/>
       <c r="I307" s="94"/>
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
@@ -11064,16 +11098,26 @@
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
-      <c r="P307" s="116"/>
+      <c r="P307" s="115"/>
     </row>
     <row r="308" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="82"/>
-      <c r="B308" s="102"/>
-      <c r="C308" s="21"/>
-      <c r="D308" s="21"/>
-      <c r="E308" s="22"/>
-      <c r="F308" s="104"/>
-      <c r="G308" s="86"/>
+      <c r="B308" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C308" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D308" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E308" s="22">
+        <v>1</v>
+      </c>
+      <c r="F308" s="30">
+        <v>1</v>
+      </c>
+      <c r="G308" s="91"/>
       <c r="H308" s="94"/>
       <c r="I308" s="94"/>
       <c r="J308" s="1"/>
@@ -11082,31 +11126,17 @@
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
-      <c r="P308" s="116"/>
+      <c r="P308" s="115"/>
     </row>
     <row r="309" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="82"/>
-      <c r="B309" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="C309" s="106" t="s">
-        <v>252</v>
-      </c>
-      <c r="D309" s="106" t="s">
-        <v>103</v>
-      </c>
-      <c r="E309" s="107">
-        <v>4</v>
-      </c>
-      <c r="F309" s="104">
-        <v>0</v>
-      </c>
-      <c r="G309" s="86" t="s">
-        <v>284</v>
-      </c>
-      <c r="H309" s="95">
-        <v>45169</v>
-      </c>
+      <c r="B309" s="102"/>
+      <c r="C309" s="21"/>
+      <c r="D309" s="21"/>
+      <c r="E309" s="22"/>
+      <c r="F309" s="104"/>
+      <c r="G309" s="86"/>
+      <c r="H309" s="94"/>
       <c r="I309" s="94"/>
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
@@ -11114,29 +11144,31 @@
       <c r="M309" s="1"/>
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
-      <c r="P309" s="116"/>
+      <c r="P309" s="115"/>
     </row>
     <row r="310" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="82"/>
-      <c r="B310" s="28" t="s">
+      <c r="B310" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C310" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="D310" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E310" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="F310" s="30">
+      <c r="C310" s="106" t="s">
+        <v>252</v>
+      </c>
+      <c r="D310" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="E310" s="107">
+        <v>4</v>
+      </c>
+      <c r="F310" s="104">
         <v>0</v>
       </c>
-      <c r="G310" s="91">
+      <c r="G310" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="H310" s="95">
         <v>45169</v>
       </c>
-      <c r="H310" s="94"/>
       <c r="I310" s="94"/>
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
@@ -11144,7 +11176,7 @@
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
-      <c r="P310" s="116"/>
+      <c r="P310" s="115"/>
     </row>
     <row r="311" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="82"/>
@@ -11152,19 +11184,21 @@
         <v>18</v>
       </c>
       <c r="C311" s="21" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
       <c r="D311" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E311" s="22">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E311" s="22" t="s">
+        <v>283</v>
       </c>
       <c r="F311" s="30">
-        <v>4</v>
-      </c>
-      <c r="G311" s="86"/>
-      <c r="H311" s="95"/>
+        <v>0</v>
+      </c>
+      <c r="G311" s="91">
+        <v>45169</v>
+      </c>
+      <c r="H311" s="94"/>
       <c r="I311" s="94"/>
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
@@ -11172,7 +11206,7 @@
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
-      <c r="P311" s="116"/>
+      <c r="P311" s="115"/>
     </row>
     <row r="312" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="82"/>
@@ -11180,19 +11214,19 @@
         <v>18</v>
       </c>
       <c r="C312" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D312" s="21" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E312" s="22">
         <v>1</v>
       </c>
       <c r="F312" s="30">
-        <v>1</v>
-      </c>
-      <c r="G312" s="91"/>
-      <c r="H312" s="94"/>
+        <v>4</v>
+      </c>
+      <c r="G312" s="86"/>
+      <c r="H312" s="95"/>
       <c r="I312" s="94"/>
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
@@ -11200,16 +11234,26 @@
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
-      <c r="P312" s="116"/>
+      <c r="P312" s="115"/>
     </row>
     <row r="313" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="82"/>
-      <c r="B313" s="28"/>
-      <c r="C313" s="21"/>
-      <c r="D313" s="21"/>
-      <c r="E313" s="22"/>
-      <c r="F313" s="30"/>
-      <c r="G313" s="86"/>
+      <c r="B313" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C313" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D313" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E313" s="22">
+        <v>1</v>
+      </c>
+      <c r="F313" s="30">
+        <v>1</v>
+      </c>
+      <c r="G313" s="91"/>
       <c r="H313" s="94"/>
       <c r="I313" s="94"/>
       <c r="J313" s="1"/>
@@ -11218,27 +11262,17 @@
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
-      <c r="P313" s="116"/>
+      <c r="P313" s="115"/>
     </row>
     <row r="314" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="82"/>
-      <c r="B314" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C314" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="D314" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E314" s="22">
-        <v>20</v>
-      </c>
-      <c r="F314" s="30">
-        <v>0</v>
-      </c>
+      <c r="B314" s="28"/>
+      <c r="C314" s="21"/>
+      <c r="D314" s="21"/>
+      <c r="E314" s="22"/>
+      <c r="F314" s="30"/>
       <c r="G314" s="86"/>
-      <c r="H314" s="95"/>
+      <c r="H314" s="94"/>
       <c r="I314" s="94"/>
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
@@ -11246,7 +11280,7 @@
       <c r="M314" s="1"/>
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
-      <c r="P314" s="116"/>
+      <c r="P314" s="115"/>
     </row>
     <row r="315" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="82"/>
@@ -11254,19 +11288,19 @@
         <v>19</v>
       </c>
       <c r="C315" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="E315" s="22">
         <v>20</v>
       </c>
       <c r="F315" s="30">
-        <v>8</v>
-      </c>
-      <c r="G315" s="91"/>
-      <c r="H315" s="94"/>
+        <v>0</v>
+      </c>
+      <c r="G315" s="86"/>
+      <c r="H315" s="95"/>
       <c r="I315" s="94"/>
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
@@ -11274,7 +11308,7 @@
       <c r="M315" s="1"/>
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
-      <c r="P315" s="116"/>
+      <c r="P315" s="115"/>
     </row>
     <row r="316" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="82"/>
@@ -11282,18 +11316,18 @@
         <v>19</v>
       </c>
       <c r="C316" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D316" s="21" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="E316" s="22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F316" s="30">
-        <v>2</v>
-      </c>
-      <c r="G316" s="86"/>
+        <v>8</v>
+      </c>
+      <c r="G316" s="91"/>
       <c r="H316" s="94"/>
       <c r="I316" s="94"/>
       <c r="J316" s="1"/>
@@ -11302,7 +11336,7 @@
       <c r="M316" s="1"/>
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
-      <c r="P316" s="116"/>
+      <c r="P316" s="115"/>
     </row>
     <row r="317" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="82"/>
@@ -11310,16 +11344,16 @@
         <v>19</v>
       </c>
       <c r="C317" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="E317" s="22">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F317" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G317" s="86"/>
       <c r="H317" s="94"/>
@@ -11330,31 +11364,27 @@
       <c r="M317" s="1"/>
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
-      <c r="P317" s="116"/>
+      <c r="P317" s="115"/>
     </row>
     <row r="318" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="82"/>
-      <c r="B318" s="102" t="s">
+      <c r="B318" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C318" s="106" t="s">
-        <v>259</v>
-      </c>
-      <c r="D318" s="106" t="s">
-        <v>115</v>
-      </c>
-      <c r="E318" s="107">
-        <v>1</v>
-      </c>
-      <c r="F318" s="104">
-        <v>1</v>
-      </c>
-      <c r="G318" s="86" t="s">
-        <v>284</v>
-      </c>
-      <c r="H318" s="95">
-        <v>45169</v>
-      </c>
+      <c r="C318" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D318" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E318" s="22">
+        <v>5</v>
+      </c>
+      <c r="F318" s="30">
+        <v>0</v>
+      </c>
+      <c r="G318" s="86"/>
+      <c r="H318" s="94"/>
       <c r="I318" s="94"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
@@ -11362,29 +11392,31 @@
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
-      <c r="P318" s="116"/>
+      <c r="P318" s="115"/>
     </row>
     <row r="319" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="82"/>
-      <c r="B319" s="28" t="s">
+      <c r="B319" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C319" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="D319" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="E319" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="F319" s="30">
-        <v>2</v>
-      </c>
-      <c r="G319" s="91">
+      <c r="C319" s="106" t="s">
+        <v>259</v>
+      </c>
+      <c r="D319" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="E319" s="107">
+        <v>1</v>
+      </c>
+      <c r="F319" s="104">
+        <v>1</v>
+      </c>
+      <c r="G319" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="H319" s="95">
         <v>45169</v>
       </c>
-      <c r="H319" s="94"/>
       <c r="I319" s="94"/>
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
@@ -11392,17 +11424,29 @@
       <c r="M319" s="1"/>
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
-      <c r="P319" s="116"/>
+      <c r="P319" s="115"/>
     </row>
     <row r="320" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="82"/>
-      <c r="B320" s="102"/>
-      <c r="C320" s="106"/>
-      <c r="D320" s="106"/>
-      <c r="E320" s="107"/>
-      <c r="F320" s="104"/>
-      <c r="G320" s="86"/>
-      <c r="H320" s="95"/>
+      <c r="B320" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C320" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="D320" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E320" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="F320" s="30">
+        <v>2</v>
+      </c>
+      <c r="G320" s="91">
+        <v>45169</v>
+      </c>
+      <c r="H320" s="94"/>
       <c r="I320" s="94"/>
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
@@ -11410,17 +11454,17 @@
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
-      <c r="P320" s="116"/>
+      <c r="P320" s="115"/>
     </row>
     <row r="321" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="82"/>
-      <c r="B321" s="28"/>
-      <c r="C321" s="21"/>
-      <c r="D321" s="21"/>
-      <c r="E321" s="22"/>
-      <c r="F321" s="21"/>
-      <c r="G321" s="91"/>
-      <c r="H321" s="94"/>
+      <c r="B321" s="102"/>
+      <c r="C321" s="106"/>
+      <c r="D321" s="106"/>
+      <c r="E321" s="107"/>
+      <c r="F321" s="104"/>
+      <c r="G321" s="86"/>
+      <c r="H321" s="95"/>
       <c r="I321" s="94"/>
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
@@ -11428,16 +11472,16 @@
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
-      <c r="P321" s="116"/>
+      <c r="P321" s="115"/>
     </row>
     <row r="322" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="82"/>
-      <c r="B322" s="102"/>
+      <c r="B322" s="28"/>
       <c r="C322" s="21"/>
       <c r="D322" s="21"/>
       <c r="E322" s="22"/>
       <c r="F322" s="21"/>
-      <c r="G322" s="86"/>
+      <c r="G322" s="91"/>
       <c r="H322" s="94"/>
       <c r="I322" s="94"/>
       <c r="J322" s="1"/>
@@ -11446,39 +11490,33 @@
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
-      <c r="P322" s="116"/>
-    </row>
-    <row r="323" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P322" s="115"/>
+    </row>
+    <row r="323" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="82"/>
-      <c r="B323" s="21"/>
-      <c r="C323" s="33"/>
-      <c r="D323" s="33"/>
-      <c r="E323" s="34"/>
-      <c r="F323" s="33"/>
-      <c r="G323" s="83"/>
-      <c r="H323" s="96"/>
-      <c r="I323" s="96"/>
+      <c r="B323" s="102"/>
+      <c r="C323" s="21"/>
+      <c r="D323" s="21"/>
+      <c r="E323" s="22"/>
+      <c r="F323" s="21"/>
+      <c r="G323" s="86"/>
+      <c r="H323" s="94"/>
+      <c r="I323" s="94"/>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
       <c r="M323" s="1"/>
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
-      <c r="P323" s="116"/>
+      <c r="P323" s="115"/>
     </row>
     <row r="324" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="1"/>
-      <c r="B324" s="35"/>
-      <c r="C324" s="35"/>
-      <c r="D324" s="36"/>
-      <c r="E324" s="37">
-        <f>SUM(E303:E323)</f>
-        <v>81</v>
-      </c>
-      <c r="F324" s="38">
-        <f>SUM(F306:F323)-SUM(F303:F305)</f>
-        <v>14</v>
-      </c>
+      <c r="A324" s="82"/>
+      <c r="B324" s="21"/>
+      <c r="C324" s="33"/>
+      <c r="D324" s="33"/>
+      <c r="E324" s="34"/>
+      <c r="F324" s="33"/>
       <c r="G324" s="83"/>
       <c r="H324" s="96"/>
       <c r="I324" s="96"/>
@@ -11488,54 +11526,56 @@
       <c r="M324" s="1"/>
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
-      <c r="P324" s="116"/>
-    </row>
-    <row r="325" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P324" s="115"/>
+    </row>
+    <row r="325" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" s="1"/>
-      <c r="B325" s="1"/>
-      <c r="C325" s="1"/>
-      <c r="D325" s="1"/>
-      <c r="E325" s="39"/>
-      <c r="F325" s="35"/>
-      <c r="G325" s="78"/>
-      <c r="H325" s="78"/>
-      <c r="I325" s="78"/>
+      <c r="B325" s="35"/>
+      <c r="C325" s="35"/>
+      <c r="D325" s="36"/>
+      <c r="E325" s="37">
+        <f>SUM(E304:E324)</f>
+        <v>81</v>
+      </c>
+      <c r="F325" s="38">
+        <f>SUM(F307:F324)-SUM(F304:F306)</f>
+        <v>14</v>
+      </c>
+      <c r="G325" s="83"/>
+      <c r="H325" s="96"/>
+      <c r="I325" s="96"/>
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
-      <c r="P325" s="116"/>
+      <c r="P325" s="115"/>
     </row>
     <row r="326" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
-      <c r="E326" s="1"/>
-      <c r="F326" s="1"/>
-      <c r="G326" s="1"/>
-      <c r="H326" s="1"/>
-      <c r="I326" s="1"/>
+      <c r="E326" s="39"/>
+      <c r="F326" s="35"/>
+      <c r="G326" s="78"/>
+      <c r="H326" s="78"/>
+      <c r="I326" s="78"/>
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
       <c r="M326" s="1"/>
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
-      <c r="P326" s="116"/>
+      <c r="P326" s="115"/>
     </row>
     <row r="327" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
-      <c r="C327" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E327" s="2"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
@@ -11546,15 +11586,19 @@
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
-      <c r="P327" s="116"/>
-    </row>
-    <row r="328" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P327" s="115"/>
+    </row>
+    <row r="328" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
-      <c r="B328" s="4"/>
-      <c r="C328" s="4"/>
-      <c r="D328" s="4"/>
-      <c r="E328" s="5"/>
-      <c r="F328" s="4"/>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E328" s="2"/>
+      <c r="F328" s="1"/>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
@@ -11564,57 +11608,45 @@
       <c r="M328" s="1"/>
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
-      <c r="P328" s="116"/>
+      <c r="P328" s="115"/>
     </row>
     <row r="329" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A329" s="82"/>
-      <c r="B329" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C329" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D329" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E329" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F329" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G329" s="86"/>
-      <c r="H329" s="94"/>
-      <c r="I329" s="94"/>
+      <c r="A329" s="1"/>
+      <c r="B329" s="4"/>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4"/>
+      <c r="E329" s="5"/>
+      <c r="F329" s="4"/>
+      <c r="G329" s="1"/>
+      <c r="H329" s="1"/>
+      <c r="I329" s="1"/>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
       <c r="M329" s="1"/>
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
-      <c r="P329" s="116"/>
+      <c r="P329" s="115"/>
     </row>
     <row r="330" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" s="82"/>
-      <c r="B330" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C330" s="13"/>
-      <c r="D330" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E330" s="40">
-        <v>1</v>
-      </c>
-      <c r="F330" s="15">
-        <v>16</v>
-      </c>
-      <c r="G330" s="86" t="s">
-        <v>284</v>
-      </c>
-      <c r="H330" s="91">
-        <v>45183</v>
-      </c>
+      <c r="B330" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E330" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F330" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G330" s="86"/>
+      <c r="H330" s="94"/>
       <c r="I330" s="94"/>
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
@@ -11622,27 +11654,29 @@
       <c r="M330" s="1"/>
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
-      <c r="P330" s="116"/>
-    </row>
-    <row r="331" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P330" s="115"/>
+    </row>
+    <row r="331" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A331" s="82"/>
       <c r="B331" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C331" s="21"/>
-      <c r="D331" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="E331" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="F331" s="21">
-        <v>3</v>
-      </c>
-      <c r="G331" s="91">
+      <c r="C331" s="13"/>
+      <c r="D331" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E331" s="40">
+        <v>1</v>
+      </c>
+      <c r="F331" s="15">
+        <v>16</v>
+      </c>
+      <c r="G331" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="H331" s="91">
         <v>45183</v>
       </c>
-      <c r="H331" s="94"/>
       <c r="I331" s="94"/>
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
@@ -11650,16 +11684,26 @@
       <c r="M331" s="1"/>
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
-      <c r="P331" s="116"/>
+      <c r="P331" s="115"/>
     </row>
     <row r="332" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="82"/>
-      <c r="B332" s="21"/>
+      <c r="B332" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="C332" s="21"/>
-      <c r="D332" s="21"/>
-      <c r="E332" s="22"/>
-      <c r="F332" s="21"/>
-      <c r="G332" s="86"/>
+      <c r="D332" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E332" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="F332" s="21">
+        <v>3</v>
+      </c>
+      <c r="G332" s="91">
+        <v>45183</v>
+      </c>
       <c r="H332" s="94"/>
       <c r="I332" s="94"/>
       <c r="J332" s="1"/>
@@ -11668,25 +11712,15 @@
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
-      <c r="P332" s="116"/>
+      <c r="P332" s="115"/>
     </row>
     <row r="333" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="82"/>
-      <c r="B333" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C333" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D333" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E333" s="22">
-        <v>1</v>
-      </c>
-      <c r="F333" s="30">
-        <v>0</v>
-      </c>
+      <c r="B333" s="21"/>
+      <c r="C333" s="21"/>
+      <c r="D333" s="21"/>
+      <c r="E333" s="22"/>
+      <c r="F333" s="21"/>
       <c r="G333" s="86"/>
       <c r="H333" s="94"/>
       <c r="I333" s="94"/>
@@ -11696,7 +11730,7 @@
       <c r="M333" s="1"/>
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
-      <c r="P333" s="116"/>
+      <c r="P333" s="115"/>
     </row>
     <row r="334" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="82"/>
@@ -11704,16 +11738,16 @@
         <v>15</v>
       </c>
       <c r="C334" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D334" s="21" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="E334" s="22">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F334" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G334" s="86"/>
       <c r="H334" s="94"/>
@@ -11724,17 +11758,27 @@
       <c r="M334" s="1"/>
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
-      <c r="P334" s="116"/>
+      <c r="P334" s="115"/>
     </row>
     <row r="335" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="82"/>
-      <c r="B335" s="102"/>
-      <c r="C335" s="21"/>
-      <c r="D335" s="21"/>
-      <c r="E335" s="22"/>
-      <c r="F335" s="104"/>
+      <c r="B335" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C335" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D335" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E335" s="22">
+        <v>8</v>
+      </c>
+      <c r="F335" s="30">
+        <v>1</v>
+      </c>
       <c r="G335" s="86"/>
-      <c r="H335" s="95"/>
+      <c r="H335" s="94"/>
       <c r="I335" s="94"/>
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
@@ -11742,31 +11786,17 @@
       <c r="M335" s="1"/>
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
-      <c r="P335" s="116"/>
+      <c r="P335" s="115"/>
     </row>
     <row r="336" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="82"/>
-      <c r="B336" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="C336" s="106" t="s">
-        <v>263</v>
-      </c>
-      <c r="D336" s="106" t="s">
-        <v>303</v>
-      </c>
-      <c r="E336" s="107">
-        <v>22</v>
-      </c>
-      <c r="F336" s="104">
-        <v>0</v>
-      </c>
-      <c r="G336" s="91" t="s">
-        <v>284</v>
-      </c>
-      <c r="H336" s="95">
-        <v>45155</v>
-      </c>
+      <c r="B336" s="102"/>
+      <c r="C336" s="21"/>
+      <c r="D336" s="21"/>
+      <c r="E336" s="22"/>
+      <c r="F336" s="104"/>
+      <c r="G336" s="86"/>
+      <c r="H336" s="95"/>
       <c r="I336" s="94"/>
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
@@ -11774,29 +11804,31 @@
       <c r="M336" s="1"/>
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
-      <c r="P336" s="116"/>
+      <c r="P336" s="115"/>
     </row>
     <row r="337" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="82"/>
-      <c r="B337" s="28" t="s">
+      <c r="B337" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C337" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="D337" s="21" t="s">
+      <c r="C337" s="106" t="s">
+        <v>263</v>
+      </c>
+      <c r="D337" s="106" t="s">
+        <v>303</v>
+      </c>
+      <c r="E337" s="107">
         <v>22</v>
       </c>
-      <c r="E337" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="F337" s="30">
-        <v>1</v>
-      </c>
-      <c r="G337" s="91">
+      <c r="F337" s="104">
+        <v>0</v>
+      </c>
+      <c r="G337" s="91" t="s">
+        <v>284</v>
+      </c>
+      <c r="H337" s="95">
         <v>45155</v>
       </c>
-      <c r="H337" s="94"/>
       <c r="I337" s="94"/>
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
@@ -11804,7 +11836,7 @@
       <c r="M337" s="1"/>
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
-      <c r="P337" s="116"/>
+      <c r="P337" s="115"/>
     </row>
     <row r="338" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="82"/>
@@ -11812,18 +11844,20 @@
         <v>18</v>
       </c>
       <c r="C338" s="21" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="D338" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E338" s="22">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E338" s="22" t="s">
+        <v>283</v>
       </c>
       <c r="F338" s="30">
-        <v>2</v>
-      </c>
-      <c r="G338" s="91"/>
+        <v>1</v>
+      </c>
+      <c r="G338" s="91">
+        <v>45155</v>
+      </c>
       <c r="H338" s="94"/>
       <c r="I338" s="94"/>
       <c r="J338" s="1"/>
@@ -11832,31 +11866,27 @@
       <c r="M338" s="1"/>
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
-      <c r="P338" s="116"/>
+      <c r="P338" s="115"/>
     </row>
     <row r="339" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="82"/>
-      <c r="B339" s="102" t="s">
+      <c r="B339" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C339" s="106" t="s">
-        <v>265</v>
-      </c>
-      <c r="D339" s="106" t="s">
-        <v>198</v>
-      </c>
-      <c r="E339" s="107">
-        <v>1</v>
-      </c>
-      <c r="F339" s="104">
-        <v>0</v>
-      </c>
-      <c r="G339" s="86" t="s">
-        <v>284</v>
-      </c>
-      <c r="H339" s="95">
-        <v>45155</v>
-      </c>
+      <c r="C339" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D339" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E339" s="22">
+        <v>19</v>
+      </c>
+      <c r="F339" s="30">
+        <v>2</v>
+      </c>
+      <c r="G339" s="91"/>
+      <c r="H339" s="94"/>
       <c r="I339" s="94"/>
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
@@ -11864,59 +11894,66 @@
       <c r="M339" s="1"/>
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
-      <c r="P339" s="116"/>
+      <c r="P339" s="115"/>
     </row>
     <row r="340" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="82"/>
-      <c r="B340" s="28" t="s">
+      <c r="B340" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C340" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="D340" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E340" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="F340" s="30">
+      <c r="C340" s="106" t="s">
+        <v>265</v>
+      </c>
+      <c r="D340" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="E340" s="107">
         <v>1</v>
       </c>
-      <c r="G340" s="91">
+      <c r="F340" s="104">
+        <v>0</v>
+      </c>
+      <c r="G340" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="H340" s="95">
         <v>45155</v>
       </c>
-      <c r="H340" s="95"/>
       <c r="I340" s="94"/>
       <c r="J340" s="1"/>
+      <c r="K340" s="1"/>
+      <c r="L340" s="1"/>
+      <c r="M340" s="1"/>
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
-      <c r="P340" s="116"/>
+      <c r="P340" s="115"/>
     </row>
     <row r="341" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="82"/>
       <c r="B341" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C341" s="21" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D341" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="E341" s="22">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="E341" s="22" t="s">
+        <v>283</v>
       </c>
       <c r="F341" s="30">
-        <v>4</v>
-      </c>
-      <c r="G341" s="86"/>
-      <c r="H341" s="94"/>
+        <v>1</v>
+      </c>
+      <c r="G341" s="91">
+        <v>45155</v>
+      </c>
+      <c r="H341" s="95"/>
       <c r="I341" s="94"/>
       <c r="J341" s="1"/>
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
-      <c r="P341" s="116"/>
+      <c r="P341" s="115"/>
     </row>
     <row r="342" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="82"/>
@@ -11924,24 +11961,24 @@
         <v>19</v>
       </c>
       <c r="C342" s="21" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="D342" s="21" t="s">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="E342" s="22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F342" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G342" s="86"/>
-      <c r="H342" s="95"/>
+      <c r="H342" s="94"/>
       <c r="I342" s="94"/>
       <c r="J342" s="1"/>
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
-      <c r="P342" s="116"/>
+      <c r="P342" s="115"/>
     </row>
     <row r="343" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="82"/>
@@ -11949,49 +11986,53 @@
         <v>19</v>
       </c>
       <c r="C343" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D343" s="21" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E343" s="22">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F343" s="30">
-        <v>0</v>
-      </c>
-      <c r="G343" s="91"/>
+        <v>2</v>
+      </c>
+      <c r="G343" s="86"/>
       <c r="H343" s="95"/>
       <c r="I343" s="94"/>
       <c r="J343" s="1"/>
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
-      <c r="P343" s="116"/>
+      <c r="P343" s="115"/>
     </row>
     <row r="344" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="82"/>
-      <c r="B344" s="28" t="s">
+      <c r="B344" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C344" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="D344" s="21" t="s">
-        <v>270</v>
+      <c r="C344" s="106" t="s">
+        <v>271</v>
+      </c>
+      <c r="D344" s="106" t="s">
+        <v>100</v>
       </c>
       <c r="E344" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F344" s="30">
         <v>0</v>
       </c>
-      <c r="G344" s="91"/>
-      <c r="H344" s="95"/>
+      <c r="G344" s="91" t="s">
+        <v>284</v>
+      </c>
+      <c r="H344" s="95">
+        <v>45190</v>
+      </c>
       <c r="I344" s="94"/>
       <c r="J344" s="1"/>
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
-      <c r="P344" s="116"/>
+      <c r="P344" s="115"/>
     </row>
     <row r="345" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="82"/>
@@ -11999,54 +12040,76 @@
         <v>19</v>
       </c>
       <c r="C345" s="21" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E345" s="22">
-        <v>2</v>
+        <v>266</v>
+      </c>
+      <c r="E345" s="22" t="s">
+        <v>283</v>
       </c>
       <c r="F345" s="30">
         <v>0</v>
       </c>
-      <c r="G345" s="91"/>
-      <c r="H345" s="94"/>
+      <c r="G345" s="91">
+        <v>45190</v>
+      </c>
+      <c r="H345" s="95"/>
       <c r="I345" s="94"/>
       <c r="J345" s="1"/>
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
-      <c r="P345" s="116"/>
+      <c r="P345" s="115"/>
     </row>
     <row r="346" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="82"/>
-      <c r="B346" s="28"/>
-      <c r="C346" s="21"/>
-      <c r="D346" s="21"/>
-      <c r="E346" s="22"/>
-      <c r="F346" s="30"/>
-      <c r="G346" s="86"/>
-      <c r="H346" s="94"/>
+      <c r="B346" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C346" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D346" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E346" s="22">
+        <v>3</v>
+      </c>
+      <c r="F346" s="30">
+        <v>0</v>
+      </c>
+      <c r="G346" s="91"/>
+      <c r="H346" s="95"/>
       <c r="I346" s="94"/>
       <c r="J346" s="1"/>
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
-      <c r="P346" s="116"/>
+      <c r="P346" s="115"/>
     </row>
     <row r="347" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="82"/>
-      <c r="B347" s="102"/>
-      <c r="C347" s="106"/>
-      <c r="D347" s="106"/>
-      <c r="E347" s="107"/>
-      <c r="F347" s="104"/>
-      <c r="G347" s="86"/>
-      <c r="H347" s="95"/>
+      <c r="B347" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C347" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D347" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E347" s="22">
+        <v>2</v>
+      </c>
+      <c r="F347" s="30">
+        <v>0</v>
+      </c>
+      <c r="G347" s="91"/>
+      <c r="H347" s="94"/>
       <c r="I347" s="94"/>
       <c r="J347" s="1"/>
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
-      <c r="P347" s="116"/>
+      <c r="P347" s="115"/>
     </row>
     <row r="348" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="82"/>
@@ -12055,13 +12118,13 @@
       <c r="D348" s="21"/>
       <c r="E348" s="22"/>
       <c r="F348" s="30"/>
-      <c r="G348" s="91"/>
+      <c r="G348" s="86"/>
       <c r="H348" s="94"/>
       <c r="I348" s="94"/>
       <c r="J348" s="1"/>
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
-      <c r="P348" s="116"/>
+      <c r="P348" s="115"/>
     </row>
     <row r="349" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="82"/>
@@ -12076,275 +12139,271 @@
       <c r="J349" s="1"/>
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
-      <c r="P349" s="116"/>
-    </row>
-    <row r="350" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P349" s="115"/>
+    </row>
+    <row r="350" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="82"/>
-      <c r="B350" s="21"/>
+      <c r="B350" s="28"/>
       <c r="C350" s="21"/>
       <c r="D350" s="21"/>
       <c r="E350" s="22"/>
-      <c r="F350" s="21"/>
+      <c r="F350" s="30"/>
       <c r="G350" s="91"/>
       <c r="H350" s="94"/>
       <c r="I350" s="94"/>
       <c r="J350" s="1"/>
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
-      <c r="P350" s="116"/>
-    </row>
-    <row r="351" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A351" s="1"/>
-      <c r="B351" s="35"/>
-      <c r="C351" s="35"/>
-      <c r="D351" s="36"/>
-      <c r="E351" s="37">
-        <f>SUM(E330:E350)</f>
-        <v>100</v>
-      </c>
-      <c r="F351" s="38">
-        <f>SUM(F333:F350)-SUM(F330:F332)</f>
-        <v>-8</v>
-      </c>
+      <c r="P350" s="115"/>
+    </row>
+    <row r="351" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="82"/>
+      <c r="B351" s="102"/>
+      <c r="C351" s="106"/>
+      <c r="D351" s="106"/>
+      <c r="E351" s="107"/>
+      <c r="F351" s="104"/>
       <c r="G351" s="86"/>
-      <c r="H351" s="94"/>
+      <c r="H351" s="95"/>
       <c r="I351" s="94"/>
       <c r="J351" s="1"/>
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
-      <c r="P351" s="116"/>
-    </row>
-    <row r="352" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="1"/>
-      <c r="B352" s="1"/>
-      <c r="C352" s="1"/>
-      <c r="D352" s="1"/>
-      <c r="E352" s="39"/>
-      <c r="F352" s="35"/>
-      <c r="G352" s="1"/>
-      <c r="H352" s="1"/>
-      <c r="I352" s="1"/>
+      <c r="P351" s="115"/>
+    </row>
+    <row r="352" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="82"/>
+      <c r="B352" s="21"/>
+      <c r="C352" s="21"/>
+      <c r="D352" s="21"/>
+      <c r="E352" s="22"/>
+      <c r="F352" s="21"/>
+      <c r="G352" s="91"/>
+      <c r="H352" s="94"/>
+      <c r="I352" s="94"/>
       <c r="J352" s="1"/>
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
-      <c r="P352" s="116"/>
-    </row>
-    <row r="354" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P352" s="115"/>
+    </row>
+    <row r="353" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="1"/>
+      <c r="B353" s="35"/>
+      <c r="C353" s="35"/>
+      <c r="D353" s="36"/>
+      <c r="E353" s="37">
+        <f>SUM(E331:E352)</f>
+        <v>100</v>
+      </c>
+      <c r="F353" s="38">
+        <f>SUM(F334:F352)-SUM(F331:F333)</f>
+        <v>-8</v>
+      </c>
+      <c r="G353" s="86"/>
+      <c r="H353" s="94"/>
+      <c r="I353" s="94"/>
+      <c r="J353" s="1"/>
+      <c r="N353" s="1"/>
+      <c r="O353" s="1"/>
+      <c r="P353" s="115"/>
+    </row>
+    <row r="354" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="1"/>
       <c r="B354" s="1"/>
-      <c r="C354" s="1" t="s">
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="39"/>
+      <c r="F354" s="35"/>
+      <c r="G354" s="1"/>
+      <c r="H354" s="1"/>
+      <c r="I354" s="1"/>
+      <c r="J354" s="1"/>
+      <c r="N354" s="1"/>
+      <c r="O354" s="1"/>
+      <c r="P354" s="115"/>
+    </row>
+    <row r="356" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B356" s="1"/>
+      <c r="C356" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D354" s="1" t="s">
+      <c r="D356" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E354" s="2"/>
-      <c r="F354" s="1"/>
-    </row>
-    <row r="355" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B355" s="4"/>
-      <c r="C355" s="4"/>
-      <c r="D355" s="4"/>
-      <c r="E355" s="5"/>
-      <c r="F355" s="4"/>
-    </row>
-    <row r="356" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B356" s="6" t="s">
+      <c r="E356" s="2"/>
+      <c r="F356" s="1"/>
+    </row>
+    <row r="357" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B357" s="4"/>
+      <c r="C357" s="4"/>
+      <c r="D357" s="4"/>
+      <c r="E357" s="5"/>
+      <c r="F357" s="4"/>
+    </row>
+    <row r="358" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B358" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C356" s="6" t="s">
+      <c r="C358" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D356" s="6" t="s">
+      <c r="D358" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E356" s="6" t="s">
+      <c r="E358" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F356" s="6" t="s">
+      <c r="F358" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B357" s="12" t="s">
+    <row r="359" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B359" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C357" s="13"/>
-      <c r="D357" s="13" t="s">
+      <c r="C359" s="13"/>
+      <c r="D359" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E357" s="40">
+      <c r="E359" s="40">
         <v>1</v>
       </c>
-      <c r="F357" s="15">
+      <c r="F359" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="358" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B358" s="21"/>
-      <c r="C358" s="21"/>
-      <c r="D358" s="21"/>
-      <c r="E358" s="22"/>
-      <c r="F358" s="21"/>
-    </row>
-    <row r="359" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B359" s="21"/>
-      <c r="C359" s="21"/>
-      <c r="D359" s="21"/>
-      <c r="E359" s="22"/>
-      <c r="F359" s="21"/>
-    </row>
-    <row r="360" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B360" s="28" t="s">
+    <row r="360" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B360" s="21"/>
+      <c r="C360" s="21"/>
+      <c r="D360" s="21"/>
+      <c r="E360" s="22"/>
+      <c r="F360" s="21"/>
+    </row>
+    <row r="361" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B361" s="21"/>
+      <c r="C361" s="21"/>
+      <c r="D361" s="21"/>
+      <c r="E361" s="22"/>
+      <c r="F361" s="21"/>
+    </row>
+    <row r="362" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B362" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C360" s="21" t="s">
+      <c r="C362" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="D360" s="21" t="s">
+      <c r="D362" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E360" s="22">
+      <c r="E362" s="22">
         <v>1</v>
       </c>
-      <c r="F360" s="30">
+      <c r="F362" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B361" s="28" t="s">
+    <row r="363" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B363" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C361" s="21" t="s">
+      <c r="C363" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D361" s="21" t="s">
+      <c r="D363" s="21" t="s">
         <v>48</v>
-      </c>
-      <c r="E361" s="22">
-        <v>1</v>
-      </c>
-      <c r="F361" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B362" s="102"/>
-      <c r="C362" s="106"/>
-      <c r="D362" s="106"/>
-      <c r="E362" s="107"/>
-      <c r="F362" s="104"/>
-    </row>
-    <row r="363" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B363" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C363" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="D363" s="21" t="s">
-        <v>164</v>
       </c>
       <c r="E363" s="22">
         <v>1</v>
       </c>
-      <c r="F363" s="104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="364" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B364" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C364" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="D364" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E364" s="22">
+      <c r="F363" s="30">
         <v>1</v>
       </c>
-      <c r="F364" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="364" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B364" s="102"/>
+      <c r="C364" s="106"/>
+      <c r="D364" s="106"/>
+      <c r="E364" s="107"/>
+      <c r="F364" s="104"/>
+    </row>
+    <row r="365" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B365" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C365" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D365" s="21" t="s">
-        <v>310</v>
+        <v>164</v>
       </c>
       <c r="E365" s="22">
         <v>1</v>
       </c>
-      <c r="F365" s="30">
+      <c r="F365" s="104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B366" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C366" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D366" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E366" s="22">
+        <v>1</v>
+      </c>
+      <c r="F366" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B367" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C367" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D367" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="E367" s="22">
+        <v>1</v>
+      </c>
+      <c r="F367" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B366" s="28"/>
-      <c r="C366" s="21"/>
-      <c r="D366" s="21"/>
-      <c r="E366" s="22"/>
-      <c r="F366" s="30"/>
-    </row>
-    <row r="367" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B367" s="28"/>
-      <c r="C367" s="21"/>
-      <c r="D367" s="21"/>
-      <c r="E367" s="22"/>
-      <c r="F367" s="30"/>
-    </row>
-    <row r="368" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B368" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C368" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="D368" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="E368" s="22">
-        <v>50</v>
-      </c>
-      <c r="F368" s="30">
-        <v>0</v>
-      </c>
+    <row r="368" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B368" s="28"/>
+      <c r="C368" s="21"/>
+      <c r="D368" s="21"/>
+      <c r="E368" s="22"/>
+      <c r="F368" s="30"/>
     </row>
     <row r="369" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B369" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C369" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="D369" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E369" s="22">
-        <v>35</v>
-      </c>
-      <c r="F369" s="30">
-        <v>4</v>
-      </c>
+      <c r="B369" s="28"/>
+      <c r="C369" s="21"/>
+      <c r="D369" s="21"/>
+      <c r="E369" s="22"/>
+      <c r="F369" s="30"/>
     </row>
     <row r="370" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C370" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D370" s="21" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E370" s="22">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F370" s="30">
         <v>0</v>
@@ -12355,16 +12414,16 @@
         <v>19</v>
       </c>
       <c r="C371" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D371" s="21" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="E371" s="22">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F371" s="30">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -12372,31 +12431,51 @@
         <v>19</v>
       </c>
       <c r="C372" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="D372" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E372" s="22">
+        <v>5</v>
+      </c>
+      <c r="F372" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B373" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C373" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D373" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E373" s="22">
+        <v>1</v>
+      </c>
+      <c r="F373" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B374" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C374" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="D372" s="21" t="s">
+      <c r="D374" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E372" s="22">
+      <c r="E374" s="22">
         <v>1</v>
       </c>
-      <c r="F372" s="30">
+      <c r="F374" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="373" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B373" s="28"/>
-      <c r="C373" s="21"/>
-      <c r="D373" s="21"/>
-      <c r="E373" s="22"/>
-      <c r="F373" s="30"/>
-    </row>
-    <row r="374" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B374" s="102"/>
-      <c r="C374" s="106"/>
-      <c r="D374" s="106"/>
-      <c r="E374" s="107"/>
-      <c r="F374" s="104"/>
     </row>
     <row r="375" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B375" s="28"/>
@@ -12412,23 +12491,37 @@
       <c r="E376" s="107"/>
       <c r="F376" s="104"/>
     </row>
-    <row r="377" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B377" s="21"/>
+    <row r="377" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B377" s="28"/>
       <c r="C377" s="21"/>
       <c r="D377" s="21"/>
       <c r="E377" s="22"/>
-      <c r="F377" s="21"/>
-    </row>
-    <row r="378" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B378" s="35"/>
-      <c r="C378" s="35"/>
-      <c r="D378" s="36"/>
-      <c r="E378" s="37">
-        <f>SUM(E357:E377)</f>
+      <c r="F377" s="30"/>
+    </row>
+    <row r="378" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B378" s="102"/>
+      <c r="C378" s="106"/>
+      <c r="D378" s="106"/>
+      <c r="E378" s="107"/>
+      <c r="F378" s="104"/>
+    </row>
+    <row r="379" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B379" s="21"/>
+      <c r="C379" s="21"/>
+      <c r="D379" s="21"/>
+      <c r="E379" s="22"/>
+      <c r="F379" s="21"/>
+    </row>
+    <row r="380" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B380" s="35"/>
+      <c r="C380" s="35"/>
+      <c r="D380" s="36"/>
+      <c r="E380" s="37">
+        <f>SUM(E359:E379)</f>
         <v>98</v>
       </c>
-      <c r="F378" s="38">
-        <f>SUM(F360:F377)-SUM(F357:F359)</f>
+      <c r="F380" s="38">
+        <f>SUM(F362:F379)-SUM(F359:F361)</f>
         <v>3</v>
       </c>
     </row>

--- a/data/DreamLeague23-24.xlsx
+++ b/data/DreamLeague23-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\dreamleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EAA5D2B-D00B-4157-97BA-6818B3BF3E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB00153-48EC-4E3D-A259-3E6EE32F0B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Table" sheetId="3" r:id="rId3"/>
     <sheet name="Cup" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="339">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -933,9 +933,6 @@
     <t>KIERNAN DEWSBURY HALL</t>
   </si>
   <si>
-    <t>LECIESTER</t>
-  </si>
-  <si>
     <t>CHARLIE WYKE</t>
   </si>
   <si>
@@ -1036,6 +1033,24 @@
   </si>
   <si>
     <t>LOUIE BARRY</t>
+  </si>
+  <si>
+    <t>DAN KEMP</t>
+  </si>
+  <si>
+    <t>ISAAC OLAOFE</t>
+  </si>
+  <si>
+    <t>JORDAN RHODES</t>
+  </si>
+  <si>
+    <t>MATT SMITH</t>
+  </si>
+  <si>
+    <t>OXFORD UTD</t>
+  </si>
+  <si>
+    <t>MACAULEY BONNE</t>
   </si>
 </sst>
 </file>
@@ -1781,9 +1796,6 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1792,6 +1804,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2969,7 +2984,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -2983,34 +2998,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX378"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:O6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="81" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" style="81" customWidth="1"/>
     <col min="2" max="2" width="16" style="81" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" style="81" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" style="81" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="81" customWidth="1"/>
+    <col min="3" max="3" width="39.296875" style="81" customWidth="1"/>
+    <col min="4" max="4" width="32.796875" style="81" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" style="81" customWidth="1"/>
     <col min="6" max="6" width="17" style="81" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" style="81" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="81" customWidth="1"/>
-    <col min="10" max="10" width="7.21875" style="81" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.33203125" style="81" customWidth="1"/>
+    <col min="7" max="8" width="11.296875" style="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.69921875" style="81" customWidth="1"/>
+    <col min="10" max="10" width="7.19921875" style="81" customWidth="1"/>
+    <col min="11" max="11" width="25.69921875" style="81" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.296875" style="81" customWidth="1"/>
     <col min="13" max="14" width="12" style="81" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="81" customWidth="1"/>
+    <col min="15" max="15" width="10.296875" style="81" customWidth="1"/>
     <col min="16" max="17" width="9" style="81" customWidth="1"/>
-    <col min="18" max="18" width="32.33203125" style="81" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.296875" style="81" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="9" style="81" customWidth="1"/>
-    <col min="22" max="22" width="30.21875" style="81" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.19921875" style="81" bestFit="1" customWidth="1"/>
     <col min="23" max="258" width="9" style="81" customWidth="1"/>
     <col min="259" max="16384" width="9" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3029,7 +3044,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -3050,7 +3065,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3067,7 +3082,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="83"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -3103,31 +3118,35 @@
       <c r="O4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="116" t="s">
+      <c r="R4" s="119" t="s">
         <v>287</v>
       </c>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-    </row>
-    <row r="5" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+    </row>
+    <row r="5" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="83"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="115" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="106"/>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="118">
         <v>1</v>
       </c>
-      <c r="F5" s="15">
-        <v>12</v>
-      </c>
-      <c r="G5" s="87"/>
-      <c r="H5" s="88"/>
+      <c r="F5" s="117">
+        <v>14</v>
+      </c>
+      <c r="G5" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="H5" s="88">
+        <v>45218</v>
+      </c>
       <c r="I5" s="89"/>
       <c r="J5" s="86"/>
       <c r="K5" s="16" t="str">
@@ -3144,11 +3163,11 @@
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R5" s="81" t="s">
         <v>2</v>
@@ -3162,20 +3181,30 @@
       </c>
       <c r="U5" s="114">
         <f>_xlfn.XLOOKUP(V5,K:K,M:M)</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="V5" s="81" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="21"/>
+      <c r="B6" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="90"/>
+      <c r="D6" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="90">
+        <v>45218</v>
+      </c>
       <c r="H6" s="88"/>
       <c r="I6" s="85"/>
       <c r="J6" s="83"/>
@@ -3189,15 +3218,15 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R6" s="81" t="s">
         <v>2</v>
@@ -3211,13 +3240,13 @@
       </c>
       <c r="U6" s="114">
         <f>_xlfn.XLOOKUP(V6,K:K,M:M)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V6" s="81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3238,15 +3267,15 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R7" s="81" t="s">
         <v>2</v>
@@ -3260,13 +3289,13 @@
       </c>
       <c r="U7" s="114">
         <f>_xlfn.XLOOKUP(V7,K:K,M:M)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="V7" s="81" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
       <c r="B8" s="28" t="s">
         <v>15</v>
@@ -3296,18 +3325,18 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
       <c r="B9" s="28" t="s">
         <v>15</v>
@@ -3338,18 +3367,18 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N9" s="77">
         <f>SUM(F116:F134)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O9" s="78">
         <f>SUM(F113:F115)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
       <c r="B10" s="103"/>
       <c r="C10" s="28"/>
@@ -3370,25 +3399,25 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F144:F161)</f>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F141:F143)</f>
-        <v>11</v>
-      </c>
-      <c r="R10" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="119" t="s">
         <v>288</v>
       </c>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="116"/>
-      <c r="V10" s="116"/>
-    </row>
-    <row r="11" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="119"/>
+    </row>
+    <row r="11" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
       <c r="B11" s="103" t="s">
         <v>18</v>
@@ -3423,11 +3452,11 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F171:F188)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F168:F170)</f>
@@ -3438,26 +3467,26 @@
       </c>
       <c r="S11" s="114">
         <f>SUM(F11:F15)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T11" s="113" t="s">
         <v>286</v>
       </c>
       <c r="U11" s="114">
         <f>SUM(F228:F232)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V11" s="81" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
       <c r="B12" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>79</v>
@@ -3484,7 +3513,7 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N12" s="77">
         <f>SUM(F198:F215)</f>
@@ -3492,10 +3521,10 @@
       </c>
       <c r="O12" s="78">
         <f>SUM(F195:F197)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
       <c r="B13" s="28" t="s">
         <v>18</v>
@@ -3526,25 +3555,25 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N13" s="77">
         <f>SUM(F225:F242)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O13" s="78">
         <f>SUM(F222:F224)</f>
-        <v>15</v>
-      </c>
-      <c r="R13" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="119" t="s">
         <v>289</v>
       </c>
-      <c r="S13" s="116"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="116"/>
-      <c r="V13" s="116"/>
-    </row>
-    <row r="14" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="119"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="119"/>
+    </row>
+    <row r="14" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
       <c r="B14" s="103" t="s">
         <v>18</v>
@@ -3579,15 +3608,15 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N14" s="77">
         <f>SUM(F252:F269)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O14" s="78">
         <f>SUM(F249:F251)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R14" s="81" t="s">
         <v>200</v>
@@ -3601,13 +3630,13 @@
       </c>
       <c r="U14" s="114">
         <f>_xlfn.XLOOKUP(V14,C:C,F:F)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V14" s="81" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
       <c r="B15" s="28" t="s">
         <v>18</v>
@@ -3622,7 +3651,7 @@
         <v>284</v>
       </c>
       <c r="F15" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="92">
         <v>45162</v>
@@ -3640,15 +3669,15 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F278:F296)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F276:F277)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R15" s="81" t="s">
         <v>290</v>
@@ -3657,7 +3686,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
       <c r="B16" s="28" t="s">
         <v>19</v>
@@ -3688,18 +3717,18 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F306:F323)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F303:F305)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
       <c r="B17" s="103" t="s">
         <v>19</v>
@@ -3734,45 +3763,47 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F333:F350)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F330:F332)</f>
         <v>22</v>
       </c>
-      <c r="R17" s="116" t="s">
+      <c r="R17" s="119" t="s">
         <v>292</v>
       </c>
-      <c r="S17" s="116"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="116"/>
-      <c r="V17" s="116"/>
-    </row>
-    <row r="18" spans="1:22" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S17" s="119"/>
+      <c r="T17" s="119"/>
+      <c r="U17" s="119"/>
+      <c r="V17" s="119"/>
+    </row>
+    <row r="18" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="83"/>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="E18" s="29" t="s">
+      <c r="C18" s="103" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>311</v>
+      </c>
+      <c r="E18" s="104" t="s">
         <v>284</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="105">
         <v>0</v>
       </c>
       <c r="G18" s="92">
         <v>45155</v>
       </c>
-      <c r="H18" s="88"/>
+      <c r="H18" s="88">
+        <v>45218</v>
+      </c>
       <c r="I18" s="110"/>
       <c r="J18" s="86"/>
       <c r="K18" s="31" t="str">
@@ -3785,22 +3816,22 @@
       </c>
       <c r="M18" s="25">
         <f t="shared" ref="M18" si="1">N18-O18</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F360:F377)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F357:F359)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R18" s="81" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S18" s="114">
         <f>_xlfn.XLOOKUP(R18,K:K,O:O)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T18" s="113" t="s">
         <v>286</v>
@@ -3813,25 +3844,29 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="104">
         <v>21</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="105">
         <v>2</v>
       </c>
-      <c r="G19" s="92"/>
-      <c r="H19" s="79"/>
+      <c r="G19" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="H19" s="88">
+        <v>45218</v>
+      </c>
       <c r="I19" s="110"/>
       <c r="J19" s="80"/>
       <c r="K19" s="35"/>
@@ -3840,29 +3875,27 @@
       <c r="N19" s="93"/>
       <c r="O19" s="93"/>
     </row>
-    <row r="20" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="103" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="104">
-        <v>11</v>
-      </c>
-      <c r="F20" s="105">
+      <c r="C20" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="30">
         <v>0</v>
       </c>
-      <c r="G20" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="H20" s="88">
-        <v>45155</v>
-      </c>
+      <c r="G20" s="92">
+        <v>45218</v>
+      </c>
+      <c r="H20" s="88"/>
       <c r="I20" s="110"/>
       <c r="J20" s="80"/>
       <c r="K20" s="1"/>
@@ -3870,37 +3903,35 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="R20" s="116" t="s">
+      <c r="R20" s="119" t="s">
         <v>293</v>
       </c>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="116"/>
-    </row>
-    <row r="21" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="119"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="119"/>
+      <c r="V20" s="119"/>
+    </row>
+    <row r="21" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="103" t="s">
-        <v>306</v>
-      </c>
-      <c r="D21" s="103" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="104" t="s">
+      <c r="C21" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="F21" s="105">
+      <c r="F21" s="30">
         <v>0</v>
       </c>
       <c r="G21" s="92">
-        <v>45155</v>
-      </c>
-      <c r="H21" s="88">
-        <v>45169</v>
-      </c>
+        <v>45218</v>
+      </c>
+      <c r="H21" s="88"/>
       <c r="I21" s="110"/>
       <c r="J21" s="80"/>
       <c r="K21" s="1"/>
@@ -3926,27 +3957,29 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="F22" s="30">
+      <c r="C22" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="104">
+        <v>11</v>
+      </c>
+      <c r="F22" s="105">
         <v>0</v>
       </c>
-      <c r="G22" s="92">
-        <v>45169</v>
-      </c>
-      <c r="H22" s="79"/>
+      <c r="G22" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="H22" s="88">
+        <v>45155</v>
+      </c>
       <c r="I22" s="94"/>
       <c r="J22" s="80"/>
       <c r="K22" s="1"/>
@@ -3961,25 +3994,29 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="83"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="29">
-        <v>1</v>
-      </c>
-      <c r="F23" s="30">
-        <v>4</v>
-      </c>
-      <c r="G23" s="92"/>
-      <c r="H23" s="88"/>
+      <c r="C23" s="103" t="s">
+        <v>305</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="104" t="s">
+        <v>284</v>
+      </c>
+      <c r="F23" s="105">
+        <v>0</v>
+      </c>
+      <c r="G23" s="92">
+        <v>45155</v>
+      </c>
+      <c r="H23" s="88">
+        <v>45169</v>
+      </c>
       <c r="I23" s="94"/>
       <c r="J23" s="80"/>
       <c r="K23" s="1"/>
@@ -3988,15 +4025,27 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="83"/>
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="91"/>
+      <c r="B24" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="F24" s="30">
+        <v>1</v>
+      </c>
+      <c r="G24" s="92">
+        <v>45169</v>
+      </c>
+      <c r="H24" s="79"/>
       <c r="I24" s="94"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -4004,23 +4053,33 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="R24" s="116" t="s">
+      <c r="R24" s="119" t="s">
         <v>294</v>
       </c>
-      <c r="S24" s="116"/>
-      <c r="T24" s="116"/>
-      <c r="U24" s="116"/>
-      <c r="V24" s="116"/>
-    </row>
-    <row r="25" spans="1:22" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S24" s="119"/>
+      <c r="T24" s="119"/>
+      <c r="U24" s="119"/>
+      <c r="V24" s="119"/>
+    </row>
+    <row r="25" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="83"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
+      <c r="B25" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="29">
+        <v>1</v>
+      </c>
+      <c r="F25" s="30">
+        <v>4</v>
+      </c>
       <c r="G25" s="92"/>
-      <c r="H25" s="91"/>
+      <c r="H25" s="88"/>
       <c r="I25" s="94"/>
       <c r="J25" s="80"/>
       <c r="K25" s="1"/>
@@ -4033,20 +4092,20 @@
       </c>
       <c r="S25" s="114">
         <f>(_xlfn.XLOOKUP(R25,K:K,M:M))-(_xlfn.XLOOKUP(R26,C:C,F:F))</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="T25" s="113" t="s">
         <v>286</v>
       </c>
       <c r="U25" s="114">
         <f>(_xlfn.XLOOKUP(V25,K:K,M:M))-(_xlfn.XLOOKUP(V26,C:C,F:F))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V25" s="81" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -4075,7 +4134,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4092,7 +4151,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4108,15 +4167,15 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="R28" s="116" t="s">
+      <c r="R28" s="119" t="s">
         <v>295</v>
       </c>
-      <c r="S28" s="116"/>
-      <c r="T28" s="116"/>
-      <c r="U28" s="116"/>
-      <c r="V28" s="116"/>
-    </row>
-    <row r="29" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S28" s="119"/>
+      <c r="T28" s="119"/>
+      <c r="U28" s="119"/>
+      <c r="V28" s="119"/>
+    </row>
+    <row r="29" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
@@ -4144,7 +4203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4168,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="83"/>
       <c r="B31" s="6" t="s">
         <v>3</v>
@@ -4202,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="83"/>
       <c r="B32" s="12" t="s">
         <v>13</v>
@@ -4235,23 +4294,23 @@
       </c>
       <c r="S32" s="81">
         <f>SUM(F89:F91)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="83"/>
       <c r="B33" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E33" s="22" t="s">
         <v>284</v>
       </c>
       <c r="F33" s="21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G33" s="90">
         <v>45169</v>
@@ -4272,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="83"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -4296,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="83"/>
       <c r="B35" s="28" t="s">
         <v>15</v>
@@ -4330,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="83"/>
       <c r="B36" s="28" t="s">
         <v>15</v>
@@ -4357,14 +4416,14 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="R36" s="81" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S36" s="81">
         <f>SUM(F306:F308)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="83"/>
       <c r="B37" s="103"/>
       <c r="C37" s="28"/>
@@ -4381,7 +4440,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="83"/>
       <c r="B38" s="28" t="s">
         <v>18</v>
@@ -4407,15 +4466,15 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="R38" s="116" t="s">
+      <c r="R38" s="119" t="s">
         <v>296</v>
       </c>
-      <c r="S38" s="116"/>
-      <c r="T38" s="116"/>
-      <c r="U38" s="116"/>
-      <c r="V38" s="116"/>
-    </row>
-    <row r="39" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S38" s="119"/>
+      <c r="T38" s="119"/>
+      <c r="U38" s="119"/>
+      <c r="V38" s="119"/>
+    </row>
+    <row r="39" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="83"/>
       <c r="B39" s="28" t="s">
         <v>18</v>
@@ -4430,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" s="92"/>
       <c r="H39" s="95"/>
@@ -4452,7 +4511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="83"/>
       <c r="B40" s="28" t="s">
         <v>18</v>
@@ -4489,7 +4548,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="83"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -4516,7 +4575,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="83"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -4543,7 +4602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="83"/>
       <c r="B43" s="28" t="s">
         <v>19</v>
@@ -4580,25 +4639,29 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="83"/>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="29">
+      <c r="E44" s="104">
         <v>1</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="105">
         <v>0</v>
       </c>
-      <c r="G44" s="92"/>
-      <c r="H44" s="96"/>
+      <c r="G44" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="H44" s="96">
+        <v>45204</v>
+      </c>
       <c r="I44" s="94"/>
       <c r="J44" s="80"/>
       <c r="K44" s="1"/>
@@ -4617,25 +4680,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="83"/>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="104">
         <v>1</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="105">
         <v>1</v>
       </c>
-      <c r="G45" s="92"/>
-      <c r="H45" s="96"/>
+      <c r="G45" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="H45" s="96">
+        <v>45204</v>
+      </c>
       <c r="I45" s="94"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -4654,29 +4721,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="83"/>
-      <c r="B46" s="103" t="s">
+      <c r="B46" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="E46" s="104">
+      <c r="C46" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="F46" s="30">
         <v>1</v>
       </c>
-      <c r="F46" s="105">
-        <v>0</v>
-      </c>
-      <c r="G46" s="96" t="s">
-        <v>285</v>
-      </c>
-      <c r="H46" s="96">
-        <v>45148</v>
-      </c>
+      <c r="G46" s="96">
+        <v>45204</v>
+      </c>
+      <c r="H46" s="96"/>
       <c r="I46" s="94"/>
       <c r="J46" s="80"/>
       <c r="K46" s="1"/>
@@ -4695,16 +4760,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="83"/>
       <c r="B47" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="E47" s="29" t="s">
         <v>284</v>
@@ -4713,7 +4778,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="92">
-        <v>45148</v>
+        <v>45204</v>
       </c>
       <c r="H47" s="96"/>
       <c r="I47" s="94"/>
@@ -4734,25 +4799,29 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="83"/>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="E48" s="29">
+      <c r="C48" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="104">
         <v>1</v>
       </c>
-      <c r="F48" s="30">
-        <v>2</v>
-      </c>
-      <c r="G48" s="92"/>
-      <c r="H48" s="96"/>
+      <c r="F48" s="105">
+        <v>0</v>
+      </c>
+      <c r="G48" s="96" t="s">
+        <v>285</v>
+      </c>
+      <c r="H48" s="96">
+        <v>45148</v>
+      </c>
       <c r="I48" s="94"/>
       <c r="J48" s="80"/>
       <c r="K48" s="1"/>
@@ -4771,14 +4840,26 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="83"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="92"/>
+      <c r="B49" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="F49" s="30">
+        <v>3</v>
+      </c>
+      <c r="G49" s="92">
+        <v>45148</v>
+      </c>
       <c r="H49" s="96"/>
       <c r="I49" s="94"/>
       <c r="J49" s="80"/>
@@ -4798,14 +4879,24 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="83"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="87"/>
+      <c r="B50" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="29">
+        <v>1</v>
+      </c>
+      <c r="F50" s="30">
+        <v>2</v>
+      </c>
+      <c r="G50" s="92"/>
       <c r="H50" s="96"/>
       <c r="I50" s="94"/>
       <c r="J50" s="80"/>
@@ -4819,13 +4910,13 @@
       </c>
       <c r="S50" s="81">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="81" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="83"/>
       <c r="B51" s="103"/>
       <c r="C51" s="28"/>
@@ -4852,7 +4943,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="83"/>
       <c r="B52" s="21"/>
       <c r="C52" s="28"/>
@@ -4873,13 +4964,13 @@
       </c>
       <c r="S52" s="81">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V52" s="81" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
@@ -4890,7 +4981,7 @@
       </c>
       <c r="F53" s="38">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G53" s="84"/>
       <c r="H53" s="97"/>
@@ -4912,7 +5003,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4933,13 +5024,13 @@
       </c>
       <c r="S54" s="81">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V54" s="81" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4960,13 +5051,13 @@
       </c>
       <c r="S55" s="81">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V55" s="81" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
@@ -4991,13 +5082,13 @@
       </c>
       <c r="S56" s="81">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V56" s="81" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -5024,7 +5115,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="83"/>
       <c r="B58" s="6" t="s">
         <v>3</v>
@@ -5061,7 +5152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="83"/>
       <c r="B59" s="12" t="s">
         <v>13</v>
@@ -5074,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G59" s="84"/>
       <c r="H59" s="97"/>
@@ -5090,13 +5181,13 @@
       </c>
       <c r="S59" s="81">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V59" s="81" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="83"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -5113,7 +5204,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="R60" s="81" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S60" s="81">
         <f t="shared" si="2"/>
@@ -5123,7 +5214,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="83"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -5150,7 +5241,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="83"/>
       <c r="B62" s="28" t="s">
         <v>15</v>
@@ -5187,7 +5278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="83"/>
       <c r="B63" s="28" t="s">
         <v>15</v>
@@ -5224,7 +5315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="83"/>
       <c r="B64" s="103"/>
       <c r="C64" s="21"/>
@@ -5251,7 +5342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="83"/>
       <c r="B65" s="28" t="s">
         <v>18</v>
@@ -5282,13 +5373,13 @@
       </c>
       <c r="S65" s="81">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V65" s="81" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="83"/>
       <c r="B66" s="28" t="s">
         <v>18</v>
@@ -5325,13 +5416,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="83"/>
       <c r="B67" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D67" s="28" t="s">
         <v>44</v>
@@ -5362,7 +5453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="83"/>
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
@@ -5389,7 +5480,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="83"/>
       <c r="B69" s="28"/>
       <c r="C69" s="21"/>
@@ -5416,7 +5507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="83"/>
       <c r="B70" s="28" t="s">
         <v>19</v>
@@ -5443,7 +5534,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="83"/>
       <c r="B71" s="28" t="s">
         <v>19</v>
@@ -5470,7 +5561,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="83"/>
       <c r="B72" s="28" t="s">
         <v>19</v>
@@ -5485,7 +5576,7 @@
         <v>13</v>
       </c>
       <c r="F72" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G72" s="92"/>
       <c r="H72" s="96"/>
@@ -5497,7 +5588,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="83"/>
       <c r="B73" s="103" t="s">
         <v>19</v>
@@ -5528,13 +5619,13 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="83"/>
       <c r="B74" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D74" s="28" t="s">
         <v>263</v>
@@ -5557,7 +5648,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="83"/>
       <c r="B75" s="28" t="s">
         <v>19</v>
@@ -5584,7 +5675,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="83"/>
       <c r="B76" s="103"/>
       <c r="C76" s="28"/>
@@ -5601,7 +5692,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="83"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
@@ -5618,7 +5709,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:22" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="83"/>
       <c r="B78" s="103"/>
       <c r="C78" s="28"/>
@@ -5635,7 +5726,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:22" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="83"/>
       <c r="B79" s="21"/>
       <c r="C79" s="28"/>
@@ -5652,7 +5743,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:22" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="35"/>
       <c r="C80" s="35"/>
@@ -5663,7 +5754,7 @@
       </c>
       <c r="F80" s="38">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G80" s="84"/>
       <c r="H80" s="97"/>
@@ -5675,7 +5766,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5692,7 +5783,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5709,7 +5800,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
@@ -5730,7 +5821,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5747,7 +5838,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="83"/>
       <c r="B85" s="6" t="s">
         <v>3</v>
@@ -5774,7 +5865,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="83"/>
       <c r="B86" s="12" t="s">
         <v>13</v>
@@ -5799,7 +5890,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="83"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -5816,7 +5907,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="83"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -5833,7 +5924,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="83"/>
       <c r="B89" s="28" t="s">
         <v>15</v>
@@ -5848,7 +5939,7 @@
         <v>7</v>
       </c>
       <c r="F89" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" s="87"/>
       <c r="H89" s="95"/>
@@ -5860,7 +5951,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="83"/>
       <c r="B90" s="28" t="s">
         <v>15</v>
@@ -5887,7 +5978,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="83"/>
       <c r="B91" s="103"/>
       <c r="C91" s="21"/>
@@ -5904,7 +5995,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="83"/>
       <c r="B92" s="28" t="s">
         <v>18</v>
@@ -5919,7 +6010,7 @@
         <v>13</v>
       </c>
       <c r="F92" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G92" s="87"/>
       <c r="H92" s="96"/>
@@ -5931,7 +6022,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="83"/>
       <c r="B93" s="28" t="s">
         <v>18</v>
@@ -5958,7 +6049,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="83"/>
       <c r="B94" s="28" t="s">
         <v>18</v>
@@ -5975,8 +6066,12 @@
       <c r="F94" s="30">
         <v>0</v>
       </c>
-      <c r="G94" s="96"/>
-      <c r="H94" s="96"/>
+      <c r="G94" s="96" t="s">
+        <v>285</v>
+      </c>
+      <c r="H94" s="96">
+        <v>45155</v>
+      </c>
       <c r="I94" s="95"/>
       <c r="J94" s="80"/>
       <c r="K94" s="1"/>
@@ -5985,14 +6080,26 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="83"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="96"/>
+      <c r="B95" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E95" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="F95" s="30">
+        <v>3</v>
+      </c>
+      <c r="G95" s="92">
+        <v>45155</v>
+      </c>
       <c r="H95" s="96"/>
       <c r="I95" s="95"/>
       <c r="J95" s="80"/>
@@ -6002,7 +6109,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="83"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -6019,7 +6126,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="83"/>
       <c r="B97" s="103" t="s">
         <v>19</v>
@@ -6050,13 +6157,13 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="83"/>
       <c r="B98" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D98" s="28" t="s">
         <v>204</v>
@@ -6079,7 +6186,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="83"/>
       <c r="B99" s="103" t="s">
         <v>19</v>
@@ -6110,13 +6217,13 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="83"/>
       <c r="B100" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D100" s="28" t="s">
         <v>247</v>
@@ -6139,7 +6246,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="83"/>
       <c r="B101" s="28" t="s">
         <v>19</v>
@@ -6166,7 +6273,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="83"/>
       <c r="B102" s="28" t="s">
         <v>19</v>
@@ -6193,7 +6300,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="83"/>
       <c r="B103" s="28" t="s">
         <v>19</v>
@@ -6220,7 +6327,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="83"/>
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
@@ -6237,7 +6344,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="83"/>
       <c r="B105" s="103"/>
       <c r="C105" s="103"/>
@@ -6254,7 +6361,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="83"/>
       <c r="B106" s="21"/>
       <c r="C106" s="28"/>
@@ -6271,7 +6378,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="35"/>
       <c r="C107" s="35"/>
@@ -6282,7 +6389,7 @@
       </c>
       <c r="F107" s="38">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G107" s="84"/>
       <c r="H107" s="97"/>
@@ -6294,7 +6401,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6311,7 +6418,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6328,7 +6435,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
@@ -6349,7 +6456,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6366,7 +6473,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="83"/>
       <c r="B112" s="6" t="s">
         <v>3</v>
@@ -6393,7 +6500,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="83"/>
       <c r="B113" s="12" t="s">
         <v>13</v>
@@ -6406,7 +6513,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G113" s="84"/>
       <c r="H113" s="99"/>
@@ -6418,7 +6525,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="83"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -6435,7 +6542,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="83"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -6452,7 +6559,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="83"/>
       <c r="B116" s="28" t="s">
         <v>15</v>
@@ -6479,7 +6586,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="83"/>
       <c r="B117" s="28" t="s">
         <v>15</v>
@@ -6506,7 +6613,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="83"/>
       <c r="B118" s="103"/>
       <c r="C118" s="28"/>
@@ -6523,7 +6630,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="83"/>
       <c r="B119" s="28" t="s">
         <v>18</v>
@@ -6538,7 +6645,7 @@
         <v>15</v>
       </c>
       <c r="F119" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G119" s="87"/>
       <c r="H119" s="96"/>
@@ -6550,7 +6657,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="83"/>
       <c r="B120" s="28" t="s">
         <v>18</v>
@@ -6577,7 +6684,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="83"/>
       <c r="B121" s="103" t="s">
         <v>18</v>
@@ -6608,16 +6715,16 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="83"/>
       <c r="B122" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C122" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="D122" s="28" t="s">
         <v>302</v>
-      </c>
-      <c r="D122" s="28" t="s">
-        <v>303</v>
       </c>
       <c r="E122" s="29" t="s">
         <v>284</v>
@@ -6637,7 +6744,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="83"/>
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
@@ -6654,7 +6761,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="83"/>
       <c r="B124" s="28" t="s">
         <v>19</v>
@@ -6681,7 +6788,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="83"/>
       <c r="B125" s="28" t="s">
         <v>19</v>
@@ -6708,7 +6815,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="83"/>
       <c r="B126" s="103" t="s">
         <v>19</v>
@@ -6739,13 +6846,13 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="83"/>
       <c r="B127" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D127" s="28" t="s">
         <v>103</v>
@@ -6768,7 +6875,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="83"/>
       <c r="B128" s="28" t="s">
         <v>19</v>
@@ -6783,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G128" s="92"/>
       <c r="H128" s="96"/>
@@ -6795,7 +6902,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="83"/>
       <c r="B129" s="28" t="s">
         <v>19</v>
@@ -6822,7 +6929,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="83"/>
       <c r="B130" s="28"/>
       <c r="C130" s="103"/>
@@ -6839,7 +6946,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="83"/>
       <c r="B131" s="103"/>
       <c r="C131" s="28"/>
@@ -6856,7 +6963,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="83"/>
       <c r="B132" s="28"/>
       <c r="C132" s="103"/>
@@ -6873,7 +6980,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="83"/>
       <c r="B133" s="103"/>
       <c r="C133" s="103"/>
@@ -6890,7 +6997,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="83"/>
       <c r="B134" s="21"/>
       <c r="C134" s="21"/>
@@ -6907,7 +7014,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="35"/>
       <c r="C135" s="35"/>
@@ -6918,7 +7025,7 @@
       </c>
       <c r="F135" s="38">
         <f>SUM(F116:F134)-SUM(F113:F115)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G135" s="84"/>
       <c r="H135" s="97"/>
@@ -6930,7 +7037,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6947,7 +7054,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6964,7 +7071,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="3" t="s">
@@ -6985,7 +7092,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -7002,7 +7109,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="83"/>
       <c r="B140" s="6" t="s">
         <v>3</v>
@@ -7029,7 +7136,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="83"/>
       <c r="B141" s="12" t="s">
         <v>13</v>
@@ -7042,7 +7149,7 @@
         <v>3</v>
       </c>
       <c r="F141" s="15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G141" s="84"/>
       <c r="H141" s="99"/>
@@ -7054,7 +7161,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="83"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -7071,7 +7178,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="83"/>
       <c r="B143" s="21"/>
       <c r="C143" s="21"/>
@@ -7088,7 +7195,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="83"/>
       <c r="B144" s="28" t="s">
         <v>15</v>
@@ -7115,7 +7222,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="83"/>
       <c r="B145" s="28" t="s">
         <v>15</v>
@@ -7142,7 +7249,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="83"/>
       <c r="B146" s="103"/>
       <c r="C146" s="21"/>
@@ -7159,7 +7266,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="83"/>
       <c r="B147" s="28" t="s">
         <v>18</v>
@@ -7174,7 +7281,7 @@
         <v>39</v>
       </c>
       <c r="F147" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G147" s="92"/>
       <c r="H147" s="95"/>
@@ -7186,7 +7293,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="83"/>
       <c r="B148" s="28" t="s">
         <v>18</v>
@@ -7211,7 +7318,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="83"/>
       <c r="B149" s="28" t="s">
         <v>18</v>
@@ -7242,13 +7349,13 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="83"/>
       <c r="B150" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C150" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D150" s="28" t="s">
         <v>106</v>
@@ -7257,7 +7364,7 @@
         <v>284</v>
       </c>
       <c r="F150" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G150" s="92">
         <v>45183</v>
@@ -7271,7 +7378,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="83"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
@@ -7288,7 +7395,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="83"/>
       <c r="B152" s="28" t="s">
         <v>19</v>
@@ -7303,7 +7410,7 @@
         <v>34</v>
       </c>
       <c r="F152" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G152" s="87"/>
       <c r="H152" s="96"/>
@@ -7315,7 +7422,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="83"/>
       <c r="B153" s="28" t="s">
         <v>19</v>
@@ -7342,7 +7449,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="83"/>
       <c r="B154" s="28" t="s">
         <v>19</v>
@@ -7357,7 +7464,7 @@
         <v>7</v>
       </c>
       <c r="F154" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G154" s="92"/>
       <c r="H154" s="95"/>
@@ -7369,7 +7476,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="83"/>
       <c r="B155" s="28" t="s">
         <v>19</v>
@@ -7396,7 +7503,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="83"/>
       <c r="B156" s="28" t="s">
         <v>19</v>
@@ -7405,12 +7512,12 @@
         <v>39</v>
       </c>
       <c r="D156" s="103" t="s">
-        <v>308</v>
-      </c>
-      <c r="E156" s="29">
+        <v>307</v>
+      </c>
+      <c r="E156" s="104">
         <v>1</v>
       </c>
-      <c r="F156" s="30">
+      <c r="F156" s="105">
         <v>0</v>
       </c>
       <c r="G156" s="92" t="s">
@@ -7427,22 +7534,22 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="83"/>
       <c r="B157" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C157" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D157" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="E157" s="104" t="s">
+      <c r="E157" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="F157" s="105">
-        <v>1</v>
+      <c r="F157" s="30">
+        <v>3</v>
       </c>
       <c r="G157" s="92">
         <v>45169</v>
@@ -7456,7 +7563,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="83"/>
       <c r="B158" s="103"/>
       <c r="C158" s="103"/>
@@ -7473,7 +7580,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="83"/>
       <c r="B159" s="28"/>
       <c r="C159" s="21"/>
@@ -7490,7 +7597,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="83"/>
       <c r="B160" s="103"/>
       <c r="C160" s="21"/>
@@ -7507,7 +7614,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="83"/>
       <c r="B161" s="21"/>
       <c r="C161" s="33"/>
@@ -7524,7 +7631,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="35"/>
       <c r="C162" s="35"/>
@@ -7535,7 +7642,7 @@
       </c>
       <c r="F162" s="38">
         <f>SUM(F144:F161)-SUM(F141:F143)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G162" s="84"/>
       <c r="H162" s="97"/>
@@ -7547,7 +7654,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7564,7 +7671,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7581,7 +7688,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="3" t="s">
@@ -7602,7 +7709,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -7619,7 +7726,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="83"/>
       <c r="B167" s="6" t="s">
         <v>3</v>
@@ -7646,7 +7753,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="83"/>
       <c r="B168" s="12" t="s">
         <v>13</v>
@@ -7671,7 +7778,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="83"/>
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
@@ -7688,7 +7795,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="83"/>
       <c r="B170" s="21"/>
       <c r="C170" s="21"/>
@@ -7705,7 +7812,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="83"/>
       <c r="B171" s="28" t="s">
         <v>15</v>
@@ -7732,7 +7839,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="83"/>
       <c r="B172" s="28" t="s">
         <v>15</v>
@@ -7759,7 +7866,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="83"/>
       <c r="B173" s="28"/>
       <c r="C173" s="28"/>
@@ -7776,7 +7883,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="83"/>
       <c r="B174" s="28" t="s">
         <v>18</v>
@@ -7791,7 +7898,7 @@
         <v>17</v>
       </c>
       <c r="F174" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174" s="87"/>
       <c r="H174" s="96"/>
@@ -7803,7 +7910,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="83"/>
       <c r="B175" s="28" t="s">
         <v>18</v>
@@ -7818,7 +7925,7 @@
         <v>5</v>
       </c>
       <c r="F175" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G175" s="96"/>
       <c r="H175" s="95"/>
@@ -7830,7 +7937,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="83"/>
       <c r="B176" s="28" t="s">
         <v>18</v>
@@ -7845,7 +7952,7 @@
         <v>1</v>
       </c>
       <c r="F176" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G176" s="92"/>
       <c r="H176" s="96"/>
@@ -7857,7 +7964,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="83"/>
       <c r="B177" s="28"/>
       <c r="C177" s="28"/>
@@ -7874,7 +7981,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="83"/>
       <c r="B178" s="28"/>
       <c r="C178" s="28"/>
@@ -7891,7 +7998,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="83"/>
       <c r="B179" s="28" t="s">
         <v>19</v>
@@ -7918,13 +8025,13 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="83"/>
       <c r="B180" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C180" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D180" s="28" t="s">
         <v>22</v>
@@ -7945,7 +8052,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="83"/>
       <c r="B181" s="28" t="s">
         <v>19</v>
@@ -7960,7 +8067,7 @@
         <v>29</v>
       </c>
       <c r="F181" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G181" s="96"/>
       <c r="H181" s="95"/>
@@ -7972,7 +8079,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="83"/>
       <c r="B182" s="28" t="s">
         <v>19</v>
@@ -7999,7 +8106,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="83"/>
       <c r="B183" s="28" t="s">
         <v>19</v>
@@ -8026,7 +8133,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="83"/>
       <c r="B184" s="28"/>
       <c r="C184" s="103"/>
@@ -8043,7 +8150,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="83"/>
       <c r="B185" s="103"/>
       <c r="C185" s="103"/>
@@ -8060,7 +8167,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="83"/>
       <c r="B186" s="28"/>
       <c r="C186" s="28"/>
@@ -8077,7 +8184,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="83"/>
       <c r="B187" s="103"/>
       <c r="C187" s="103"/>
@@ -8094,7 +8201,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="83"/>
       <c r="B188" s="21"/>
       <c r="C188" s="28"/>
@@ -8111,7 +8218,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="35"/>
       <c r="C189" s="35"/>
@@ -8122,7 +8229,7 @@
       </c>
       <c r="F189" s="38">
         <f>SUM(F171:F188)-SUM(F168:F170)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G189" s="84"/>
       <c r="H189" s="97"/>
@@ -8134,7 +8241,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -8151,7 +8258,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -8168,7 +8275,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="3" t="s">
@@ -8189,7 +8296,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -8206,7 +8313,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="83"/>
       <c r="B194" s="6" t="s">
         <v>3</v>
@@ -8233,7 +8340,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="83"/>
       <c r="B195" s="12" t="s">
         <v>13</v>
@@ -8246,7 +8353,7 @@
         <v>2</v>
       </c>
       <c r="F195" s="15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G195" s="84"/>
       <c r="H195" s="99"/>
@@ -8258,7 +8365,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="83"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -8275,7 +8382,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="83"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
@@ -8292,7 +8399,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="83"/>
       <c r="B198" s="28" t="s">
         <v>15</v>
@@ -8319,7 +8426,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="83"/>
       <c r="B199" s="28" t="s">
         <v>15</v>
@@ -8346,7 +8453,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="83"/>
       <c r="B200" s="103"/>
       <c r="C200" s="28"/>
@@ -8363,7 +8470,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="83"/>
       <c r="B201" s="28" t="s">
         <v>18</v>
@@ -8390,7 +8497,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="83"/>
       <c r="B202" s="28" t="s">
         <v>18</v>
@@ -8417,7 +8524,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="83"/>
       <c r="B203" s="28" t="s">
         <v>18</v>
@@ -8444,7 +8551,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="83"/>
       <c r="B204" s="28"/>
       <c r="C204" s="21"/>
@@ -8461,7 +8568,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="83"/>
       <c r="B205" s="28"/>
       <c r="C205" s="21"/>
@@ -8478,7 +8585,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="83"/>
       <c r="B206" s="28" t="s">
         <v>19</v>
@@ -8505,7 +8612,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="83"/>
       <c r="B207" s="28" t="s">
         <v>19</v>
@@ -8532,7 +8639,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="83"/>
       <c r="B208" s="28" t="s">
         <v>19</v>
@@ -8559,7 +8666,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="83"/>
       <c r="B209" s="28" t="s">
         <v>19</v>
@@ -8586,7 +8693,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="83"/>
       <c r="B210" s="28" t="s">
         <v>19</v>
@@ -8613,7 +8720,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="83"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -8630,7 +8737,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="83"/>
       <c r="B212" s="103"/>
       <c r="C212" s="28"/>
@@ -8647,7 +8754,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="83"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
@@ -8664,7 +8771,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="83"/>
       <c r="B214" s="103"/>
       <c r="C214" s="21"/>
@@ -8681,7 +8788,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="83"/>
       <c r="B215" s="21"/>
       <c r="C215" s="33"/>
@@ -8698,7 +8805,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="35"/>
       <c r="C216" s="35"/>
@@ -8709,7 +8816,7 @@
       </c>
       <c r="F216" s="38">
         <f>SUM(F198:F215)-SUM(F195:F197)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G216" s="84"/>
       <c r="H216" s="97"/>
@@ -8721,7 +8828,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8738,7 +8845,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8755,7 +8862,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="3" t="s">
@@ -8776,7 +8883,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -8793,7 +8900,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="83"/>
       <c r="B221" s="6" t="s">
         <v>3</v>
@@ -8820,7 +8927,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="61"/>
       <c r="B222" s="12" t="s">
         <v>13</v>
@@ -8829,10 +8936,10 @@
       <c r="D222" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="E222" s="119">
+      <c r="E222" s="118">
         <v>6</v>
       </c>
-      <c r="F222" s="118">
+      <c r="F222" s="117">
         <v>9</v>
       </c>
       <c r="G222" s="84" t="s">
@@ -8849,7 +8956,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="83"/>
       <c r="B223" s="21" t="s">
         <v>13</v>
@@ -8862,7 +8969,7 @@
         <v>284</v>
       </c>
       <c r="F223" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G223" s="99">
         <v>45169</v>
@@ -8876,7 +8983,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="83"/>
       <c r="B224" s="21"/>
       <c r="C224" s="21"/>
@@ -8893,7 +9000,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="83"/>
       <c r="B225" s="28" t="s">
         <v>15</v>
@@ -8908,7 +9015,7 @@
         <v>5</v>
       </c>
       <c r="F225" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G225" s="87"/>
       <c r="H225" s="95"/>
@@ -8920,7 +9027,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="83"/>
       <c r="B226" s="28" t="s">
         <v>15</v>
@@ -8947,7 +9054,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="83"/>
       <c r="B227" s="103"/>
       <c r="C227" s="21"/>
@@ -8964,7 +9071,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="83"/>
       <c r="B228" s="28" t="s">
         <v>18</v>
@@ -8991,7 +9098,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="83"/>
       <c r="B229" s="28" t="s">
         <v>18</v>
@@ -9006,7 +9113,7 @@
         <v>5</v>
       </c>
       <c r="F229" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G229" s="92"/>
       <c r="H229" s="95"/>
@@ -9018,7 +9125,7 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="83"/>
       <c r="B230" s="103" t="s">
         <v>18</v>
@@ -9049,13 +9156,13 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="83"/>
       <c r="B231" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C231" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D231" s="28" t="s">
         <v>108</v>
@@ -9078,7 +9185,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="83"/>
       <c r="B232" s="28"/>
       <c r="C232" s="28"/>
@@ -9095,7 +9202,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="83"/>
       <c r="B233" s="28" t="s">
         <v>19</v>
@@ -9110,7 +9217,7 @@
         <v>25</v>
       </c>
       <c r="F233" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G233" s="92"/>
       <c r="H233" s="95"/>
@@ -9122,7 +9229,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="83"/>
       <c r="B234" s="103" t="s">
         <v>19</v>
@@ -9153,16 +9260,16 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="83"/>
       <c r="B235" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C235" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="D235" s="28" t="s">
         <v>331</v>
-      </c>
-      <c r="D235" s="28" t="s">
-        <v>332</v>
       </c>
       <c r="E235" s="29" t="s">
         <v>284</v>
@@ -9182,7 +9289,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="83"/>
       <c r="B236" s="103" t="s">
         <v>19</v>
@@ -9213,22 +9320,22 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="83"/>
       <c r="B237" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C237" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="D237" s="28" t="s">
         <v>319</v>
-      </c>
-      <c r="D237" s="28" t="s">
-        <v>320</v>
       </c>
       <c r="E237" s="29" t="s">
         <v>284</v>
       </c>
       <c r="F237" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G237" s="92">
         <v>45162</v>
@@ -9242,7 +9349,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="83"/>
       <c r="B238" s="28" t="s">
         <v>19</v>
@@ -9269,7 +9376,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="83"/>
       <c r="B239" s="28" t="s">
         <v>19</v>
@@ -9284,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="F239" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G239" s="92"/>
       <c r="H239" s="96"/>
@@ -9296,7 +9403,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="83"/>
       <c r="B240" s="28"/>
       <c r="C240" s="103"/>
@@ -9313,7 +9420,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="83"/>
       <c r="B241" s="103"/>
       <c r="C241" s="28"/>
@@ -9330,7 +9437,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="83"/>
       <c r="B242" s="21"/>
       <c r="C242" s="28"/>
@@ -9347,7 +9454,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="35"/>
       <c r="C243" s="35"/>
@@ -9358,7 +9465,7 @@
       </c>
       <c r="F243" s="38">
         <f>SUM(F225:F242)-SUM(F222:F224)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G243" s="84"/>
       <c r="H243" s="97"/>
@@ -9370,7 +9477,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9387,7 +9494,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -9404,7 +9511,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="3" t="s">
@@ -9425,7 +9532,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -9442,7 +9549,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="83"/>
       <c r="B248" s="6" t="s">
         <v>3</v>
@@ -9461,7 +9568,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="83"/>
       <c r="B249" s="12" t="s">
         <v>13</v>
@@ -9474,7 +9581,7 @@
         <v>3</v>
       </c>
       <c r="F249" s="15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G249" s="84"/>
       <c r="H249" s="99"/>
@@ -9486,7 +9593,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="83"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
@@ -9503,7 +9610,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="83"/>
       <c r="B251" s="21"/>
       <c r="C251" s="21"/>
@@ -9520,7 +9627,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="83"/>
       <c r="B252" s="28" t="s">
         <v>15</v>
@@ -9547,7 +9654,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="83"/>
       <c r="B253" s="28" t="s">
         <v>15</v>
@@ -9574,7 +9681,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="83"/>
       <c r="B254" s="103"/>
       <c r="C254" s="28"/>
@@ -9591,7 +9698,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="83"/>
       <c r="B255" s="28" t="s">
         <v>18</v>
@@ -9618,7 +9725,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="83"/>
       <c r="B256" s="28" t="s">
         <v>18</v>
@@ -9645,7 +9752,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="83"/>
       <c r="B257" s="28" t="s">
         <v>18</v>
@@ -9672,7 +9779,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="83"/>
       <c r="B258" s="28"/>
       <c r="C258" s="28"/>
@@ -9689,7 +9796,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="83"/>
       <c r="B259" s="28"/>
       <c r="C259" s="28"/>
@@ -9706,7 +9813,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="83"/>
       <c r="B260" s="103" t="s">
         <v>19</v>
@@ -9715,7 +9822,7 @@
         <v>231</v>
       </c>
       <c r="D260" s="103" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E260" s="104">
         <v>26</v>
@@ -9737,13 +9844,13 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="83"/>
       <c r="B261" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D261" s="28" t="s">
         <v>27</v>
@@ -9766,7 +9873,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="83"/>
       <c r="B262" s="28" t="s">
         <v>19</v>
@@ -9781,7 +9888,7 @@
         <v>40</v>
       </c>
       <c r="F262" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G262" s="87"/>
       <c r="H262" s="96"/>
@@ -9793,7 +9900,7 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="83"/>
       <c r="B263" s="28" t="s">
         <v>19</v>
@@ -9808,7 +9915,7 @@
         <v>4</v>
       </c>
       <c r="F263" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G263" s="92"/>
       <c r="H263" s="96"/>
@@ -9820,7 +9927,7 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="83"/>
       <c r="B264" s="28" t="s">
         <v>19</v>
@@ -9835,7 +9942,7 @@
         <v>6</v>
       </c>
       <c r="F264" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G264" s="92"/>
       <c r="H264" s="96"/>
@@ -9847,7 +9954,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="83"/>
       <c r="B265" s="28" t="s">
         <v>19</v>
@@ -9874,7 +9981,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="83"/>
       <c r="B266" s="103"/>
       <c r="C266" s="28"/>
@@ -9891,7 +9998,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="83"/>
       <c r="B267" s="28"/>
       <c r="C267" s="103"/>
@@ -9908,7 +10015,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="83"/>
       <c r="B268" s="103"/>
       <c r="C268" s="21"/>
@@ -9925,7 +10032,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="83"/>
       <c r="B269" s="21"/>
       <c r="C269" s="33"/>
@@ -9942,7 +10049,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="1"/>
       <c r="B270" s="35"/>
       <c r="C270" s="35"/>
@@ -9953,7 +10060,7 @@
       </c>
       <c r="F270" s="38">
         <f>SUM(F252:F269)-SUM(F249:F251)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G270" s="84"/>
       <c r="H270" s="97"/>
@@ -9965,7 +10072,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9982,7 +10089,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -9999,7 +10106,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1" t="s">
@@ -10020,7 +10127,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="1"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -10037,7 +10144,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="83"/>
       <c r="B275" s="6" t="s">
         <v>3</v>
@@ -10064,7 +10171,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="83"/>
       <c r="B276" s="12" t="s">
         <v>13</v>
@@ -10077,7 +10184,7 @@
         <v>11</v>
       </c>
       <c r="F276" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G276" s="84"/>
       <c r="H276" s="97"/>
@@ -10089,7 +10196,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="83"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
@@ -10106,7 +10213,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="83"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
@@ -10123,7 +10230,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="83"/>
       <c r="B279" s="28" t="s">
         <v>15</v>
@@ -10150,7 +10257,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="83"/>
       <c r="B280" s="28" t="s">
         <v>15</v>
@@ -10177,7 +10284,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="83"/>
       <c r="B281" s="103"/>
       <c r="C281" s="21"/>
@@ -10194,7 +10301,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="83"/>
       <c r="B282" s="28" t="s">
         <v>18</v>
@@ -10209,7 +10316,7 @@
         <v>18</v>
       </c>
       <c r="F282" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G282" s="87"/>
       <c r="H282" s="96"/>
@@ -10221,7 +10328,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="83"/>
       <c r="B283" s="103" t="s">
         <v>18</v>
@@ -10252,7 +10359,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="83"/>
       <c r="B284" s="28" t="s">
         <v>18</v>
@@ -10261,13 +10368,13 @@
         <v>298</v>
       </c>
       <c r="D284" s="21" t="s">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="E284" s="22" t="s">
         <v>284</v>
       </c>
       <c r="F284" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G284" s="92">
         <v>45148</v>
@@ -10281,7 +10388,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="83"/>
       <c r="B285" s="28" t="s">
         <v>18</v>
@@ -10308,7 +10415,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="83"/>
       <c r="B286" s="28"/>
       <c r="C286" s="21"/>
@@ -10325,7 +10432,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="83"/>
       <c r="B287" s="28" t="s">
         <v>19</v>
@@ -10340,7 +10447,7 @@
         <v>30</v>
       </c>
       <c r="F287" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G287" s="87"/>
       <c r="H287" s="96"/>
@@ -10352,7 +10459,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="83"/>
       <c r="B288" s="28" t="s">
         <v>19</v>
@@ -10367,7 +10474,7 @@
         <v>20</v>
       </c>
       <c r="F288" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G288" s="92"/>
       <c r="H288" s="96"/>
@@ -10379,7 +10486,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="83"/>
       <c r="B289" s="28" t="s">
         <v>19</v>
@@ -10406,7 +10513,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="83"/>
       <c r="B290" s="28" t="s">
         <v>19</v>
@@ -10433,7 +10540,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="83"/>
       <c r="B291" s="28" t="s">
         <v>19</v>
@@ -10460,7 +10567,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="83"/>
       <c r="B292" s="28"/>
       <c r="C292" s="107"/>
@@ -10477,7 +10584,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="83"/>
       <c r="B293" s="103"/>
       <c r="C293" s="21"/>
@@ -10494,7 +10601,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="83"/>
       <c r="B294" s="28"/>
       <c r="C294" s="21"/>
@@ -10511,7 +10618,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="83"/>
       <c r="B295" s="103"/>
       <c r="C295" s="107"/>
@@ -10528,7 +10635,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="83"/>
       <c r="B296" s="21"/>
       <c r="C296" s="21"/>
@@ -10545,7 +10652,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="1"/>
       <c r="B297" s="35"/>
       <c r="C297" s="35"/>
@@ -10556,7 +10663,7 @@
       </c>
       <c r="F297" s="38">
         <f>SUM(F278:F296)-SUM(F276:F277)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G297" s="84"/>
       <c r="H297" s="97"/>
@@ -10568,7 +10675,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -10585,7 +10692,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -10602,14 +10709,14 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E300" s="2"/>
       <c r="F300" s="1"/>
@@ -10623,7 +10730,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="1"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -10640,7 +10747,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A302" s="83"/>
       <c r="B302" s="6" t="s">
         <v>3</v>
@@ -10667,7 +10774,7 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="83"/>
       <c r="B303" s="12" t="s">
         <v>13</v>
@@ -10680,7 +10787,7 @@
         <v>6</v>
       </c>
       <c r="F303" s="15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G303" s="84"/>
       <c r="H303" s="96"/>
@@ -10692,7 +10799,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="83"/>
       <c r="B304" s="21"/>
       <c r="C304" s="21"/>
@@ -10709,7 +10816,7 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="83"/>
       <c r="B305" s="21"/>
       <c r="C305" s="21"/>
@@ -10726,7 +10833,7 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="83"/>
       <c r="B306" s="28" t="s">
         <v>15</v>
@@ -10753,7 +10860,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="83"/>
       <c r="B307" s="28" t="s">
         <v>15</v>
@@ -10780,7 +10887,7 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="83"/>
       <c r="B308" s="103"/>
       <c r="C308" s="21"/>
@@ -10797,7 +10904,7 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="83"/>
       <c r="B309" s="103" t="s">
         <v>18</v>
@@ -10828,13 +10935,13 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="83"/>
       <c r="B310" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C310" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D310" s="21" t="s">
         <v>22</v>
@@ -10843,7 +10950,7 @@
         <v>284</v>
       </c>
       <c r="F310" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G310" s="92">
         <v>45169</v>
@@ -10857,7 +10964,7 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="83"/>
       <c r="B311" s="28" t="s">
         <v>18</v>
@@ -10884,7 +10991,7 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="83"/>
       <c r="B312" s="28" t="s">
         <v>18</v>
@@ -10911,7 +11018,7 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="83"/>
       <c r="B313" s="28"/>
       <c r="C313" s="21"/>
@@ -10928,7 +11035,7 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="83"/>
       <c r="B314" s="28" t="s">
         <v>19</v>
@@ -10943,7 +11050,7 @@
         <v>20</v>
       </c>
       <c r="F314" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G314" s="87"/>
       <c r="H314" s="96"/>
@@ -10955,7 +11062,7 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="83"/>
       <c r="B315" s="28" t="s">
         <v>19</v>
@@ -10982,7 +11089,7 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="83"/>
       <c r="B316" s="28" t="s">
         <v>19</v>
@@ -10997,7 +11104,7 @@
         <v>21</v>
       </c>
       <c r="F316" s="30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G316" s="87"/>
       <c r="H316" s="95"/>
@@ -11009,7 +11116,7 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="83"/>
       <c r="B317" s="28" t="s">
         <v>19</v>
@@ -11036,7 +11143,7 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="83"/>
       <c r="B318" s="103" t="s">
         <v>19</v>
@@ -11067,13 +11174,13 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="83"/>
       <c r="B319" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C319" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D319" s="21" t="s">
         <v>201</v>
@@ -11096,7 +11203,7 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="83"/>
       <c r="B320" s="103"/>
       <c r="C320" s="107"/>
@@ -11113,7 +11220,7 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="83"/>
       <c r="B321" s="28"/>
       <c r="C321" s="21"/>
@@ -11130,7 +11237,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="83"/>
       <c r="B322" s="103"/>
       <c r="C322" s="21"/>
@@ -11147,7 +11254,7 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" s="83"/>
       <c r="B323" s="21"/>
       <c r="C323" s="33"/>
@@ -11164,7 +11271,7 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="1"/>
       <c r="B324" s="35"/>
       <c r="C324" s="35"/>
@@ -11175,7 +11282,7 @@
       </c>
       <c r="F324" s="38">
         <f>SUM(F306:F323)-SUM(F303:F305)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G324" s="84"/>
       <c r="H324" s="97"/>
@@ -11187,7 +11294,7 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -11204,7 +11311,7 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -11221,7 +11328,7 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1" t="s">
@@ -11242,7 +11349,7 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="1"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -11259,7 +11366,7 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="83"/>
       <c r="B329" s="6" t="s">
         <v>3</v>
@@ -11286,7 +11393,7 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" s="83"/>
       <c r="B330" s="115" t="s">
         <v>13</v>
@@ -11295,10 +11402,10 @@
       <c r="D330" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="E330" s="117">
+      <c r="E330" s="116">
         <v>1</v>
       </c>
-      <c r="F330" s="118">
+      <c r="F330" s="117">
         <v>16</v>
       </c>
       <c r="G330" s="87" t="s">
@@ -11315,7 +11422,7 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="83"/>
       <c r="B331" s="12" t="s">
         <v>13</v>
@@ -11342,7 +11449,7 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="83"/>
       <c r="B332" s="21"/>
       <c r="C332" s="21"/>
@@ -11359,7 +11466,7 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="83"/>
       <c r="B333" s="28" t="s">
         <v>15</v>
@@ -11386,7 +11493,7 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="83"/>
       <c r="B334" s="28" t="s">
         <v>15</v>
@@ -11413,7 +11520,7 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="83"/>
       <c r="B335" s="103"/>
       <c r="C335" s="21"/>
@@ -11430,7 +11537,7 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="83"/>
       <c r="B336" s="103" t="s">
         <v>18</v>
@@ -11439,7 +11546,7 @@
         <v>264</v>
       </c>
       <c r="D336" s="107" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E336" s="108">
         <v>22</v>
@@ -11461,13 +11568,13 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="83"/>
       <c r="B337" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C337" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D337" s="21" t="s">
         <v>22</v>
@@ -11490,7 +11597,7 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="83"/>
       <c r="B338" s="28" t="s">
         <v>18</v>
@@ -11517,7 +11624,7 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="83"/>
       <c r="B339" s="103" t="s">
         <v>18</v>
@@ -11548,13 +11655,13 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="83"/>
       <c r="B340" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C340" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D340" s="21" t="s">
         <v>31</v>
@@ -11574,13 +11681,13 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="83"/>
       <c r="B341" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C341" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D341" s="21" t="s">
         <v>226</v>
@@ -11589,7 +11696,7 @@
         <v>22</v>
       </c>
       <c r="F341" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G341" s="87"/>
       <c r="H341" s="95"/>
@@ -11598,7 +11705,7 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="83"/>
       <c r="B342" s="28" t="s">
         <v>19</v>
@@ -11613,7 +11720,7 @@
         <v>20</v>
       </c>
       <c r="F342" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G342" s="87"/>
       <c r="H342" s="96"/>
@@ -11622,7 +11729,7 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="83"/>
       <c r="B343" s="103" t="s">
         <v>19</v>
@@ -11650,13 +11757,13 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="83"/>
       <c r="B344" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C344" s="21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D344" s="21" t="s">
         <v>267</v>
@@ -11676,7 +11783,7 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="83"/>
       <c r="B345" s="103" t="s">
         <v>19</v>
@@ -11704,13 +11811,13 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="83"/>
       <c r="B346" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C346" s="21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D346" s="21" t="s">
         <v>59</v>
@@ -11730,7 +11837,7 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="83"/>
       <c r="B347" s="28" t="s">
         <v>19</v>
@@ -11754,7 +11861,7 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="83"/>
       <c r="B348" s="28"/>
       <c r="C348" s="21"/>
@@ -11768,7 +11875,7 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="83"/>
       <c r="B349" s="103"/>
       <c r="C349" s="107"/>
@@ -11782,7 +11889,7 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="83"/>
       <c r="B350" s="21"/>
       <c r="C350" s="21"/>
@@ -11796,7 +11903,7 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="1"/>
       <c r="B351" s="35"/>
       <c r="C351" s="35"/>
@@ -11807,7 +11914,7 @@
       </c>
       <c r="F351" s="38">
         <f>SUM(F333:F350)-SUM(F330:F332)</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G351" s="87"/>
       <c r="H351" s="95"/>
@@ -11816,7 +11923,7 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="352" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -11830,7 +11937,7 @@
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
     </row>
-    <row r="354" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B354" s="1"/>
       <c r="C354" s="1" t="s">
         <v>223</v>
@@ -11841,14 +11948,14 @@
       <c r="E354" s="2"/>
       <c r="F354" s="1"/>
     </row>
-    <row r="355" spans="2:6" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="5"/>
       <c r="F355" s="4"/>
     </row>
-    <row r="356" spans="2:6" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B356" s="6" t="s">
         <v>3</v>
       </c>
@@ -11865,7 +11972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B357" s="12" t="s">
         <v>13</v>
       </c>
@@ -11877,24 +11984,24 @@
         <v>1</v>
       </c>
       <c r="F357" s="15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="358" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B358" s="21"/>
       <c r="C358" s="21"/>
       <c r="D358" s="21"/>
       <c r="E358" s="22"/>
       <c r="F358" s="21"/>
     </row>
-    <row r="359" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B359" s="21"/>
       <c r="C359" s="21"/>
       <c r="D359" s="21"/>
       <c r="E359" s="22"/>
       <c r="F359" s="21"/>
     </row>
-    <row r="360" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B360" s="28" t="s">
         <v>15</v>
       </c>
@@ -11908,10 +12015,10 @@
         <v>1</v>
       </c>
       <c r="F360" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B361" s="28" t="s">
         <v>15</v>
       </c>
@@ -11928,14 +12035,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B362" s="103"/>
       <c r="C362" s="107"/>
       <c r="D362" s="107"/>
       <c r="E362" s="108"/>
       <c r="F362" s="105"/>
     </row>
-    <row r="363" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B363" s="28" t="s">
         <v>18</v>
       </c>
@@ -11949,10 +12056,10 @@
         <v>1</v>
       </c>
       <c r="F363" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="364" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B364" s="28" t="s">
         <v>18</v>
       </c>
@@ -11969,7 +12076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B365" s="28" t="s">
         <v>18</v>
       </c>
@@ -11977,30 +12084,30 @@
         <v>277</v>
       </c>
       <c r="D365" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E365" s="22">
         <v>1</v>
       </c>
       <c r="F365" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B366" s="28"/>
       <c r="C366" s="21"/>
       <c r="D366" s="21"/>
       <c r="E366" s="22"/>
       <c r="F366" s="30"/>
     </row>
-    <row r="367" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B367" s="28"/>
       <c r="C367" s="21"/>
       <c r="D367" s="21"/>
       <c r="E367" s="22"/>
       <c r="F367" s="30"/>
     </row>
-    <row r="368" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B368" s="28" t="s">
         <v>19</v>
       </c>
@@ -12017,7 +12124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B369" s="28" t="s">
         <v>19</v>
       </c>
@@ -12031,10 +12138,10 @@
         <v>35</v>
       </c>
       <c r="F369" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="370" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="28" t="s">
         <v>19</v>
       </c>
@@ -12051,7 +12158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B371" s="28" t="s">
         <v>19</v>
       </c>
@@ -12065,10 +12172,10 @@
         <v>1</v>
       </c>
       <c r="F371" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="372" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B372" s="28" t="s">
         <v>19</v>
       </c>
@@ -12082,45 +12189,45 @@
         <v>1</v>
       </c>
       <c r="F372" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="373" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B373" s="28"/>
       <c r="C373" s="21"/>
       <c r="D373" s="21"/>
       <c r="E373" s="22"/>
       <c r="F373" s="30"/>
     </row>
-    <row r="374" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B374" s="103"/>
       <c r="C374" s="107"/>
       <c r="D374" s="107"/>
       <c r="E374" s="108"/>
       <c r="F374" s="105"/>
     </row>
-    <row r="375" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B375" s="28"/>
       <c r="C375" s="21"/>
       <c r="D375" s="21"/>
       <c r="E375" s="22"/>
       <c r="F375" s="30"/>
     </row>
-    <row r="376" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B376" s="103"/>
       <c r="C376" s="107"/>
       <c r="D376" s="107"/>
       <c r="E376" s="108"/>
       <c r="F376" s="105"/>
     </row>
-    <row r="377" spans="2:6" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B377" s="21"/>
       <c r="C377" s="21"/>
       <c r="D377" s="21"/>
       <c r="E377" s="22"/>
       <c r="F377" s="21"/>
     </row>
-    <row r="378" spans="2:6" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B378" s="35"/>
       <c r="C378" s="35"/>
       <c r="D378" s="36"/>
@@ -12130,7 +12237,7 @@
       </c>
       <c r="F378" s="38">
         <f>SUM(F360:F377)-SUM(F357:F359)</f>
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -12167,22 +12274,22 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="41" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" style="41" customWidth="1"/>
     <col min="3" max="3" width="31" style="41" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="35.296875" style="41" customWidth="1"/>
     <col min="5" max="6" width="9" style="41" customWidth="1"/>
     <col min="7" max="7" width="11" style="41" customWidth="1"/>
     <col min="8" max="256" width="9" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -12199,7 +12306,7 @@
       </c>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -12214,7 +12321,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -12227,7 +12334,7 @@
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -12242,7 +12349,7 @@
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
     </row>
-    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="43"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -12255,7 +12362,7 @@
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
     </row>
-    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="50"/>
       <c r="B6" s="51" t="s">
         <v>3</v>
@@ -12280,7 +12387,7 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50"/>
       <c r="B7" s="57">
         <v>1</v>
@@ -12292,10 +12399,10 @@
         <v>16</v>
       </c>
       <c r="E7" s="25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" s="26">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="27">
         <v>9</v>
@@ -12305,7 +12412,7 @@
       <c r="J7" s="44"/>
       <c r="K7" s="56"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50"/>
       <c r="B8" s="57">
         <v>2</v>
@@ -12317,45 +12424,45 @@
         <v>71</v>
       </c>
       <c r="E8" s="25">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="26">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G8" s="27">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="44"/>
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="50"/>
       <c r="B9" s="57">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>116</v>
       </c>
       <c r="E9" s="25">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="26">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G9" s="27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H9" s="55"/>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50"/>
       <c r="B10" s="57">
         <v>4</v>
@@ -12367,70 +12474,70 @@
         <v>41</v>
       </c>
       <c r="E10" s="25">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F10" s="26">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G10" s="27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="55"/>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50"/>
       <c r="B11" s="57">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="E11" s="25">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F11" s="26">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G11" s="27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50"/>
       <c r="B12" s="57">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="E12" s="25">
+        <v>13</v>
+      </c>
+      <c r="F12" s="26">
+        <v>22</v>
+      </c>
+      <c r="G12" s="27">
         <v>9</v>
-      </c>
-      <c r="F12" s="26">
-        <v>16</v>
-      </c>
-      <c r="G12" s="27">
-        <v>7</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50"/>
       <c r="B13" s="57">
         <v>7</v>
@@ -12442,20 +12549,20 @@
         <v>86</v>
       </c>
       <c r="E13" s="25">
+        <v>13</v>
+      </c>
+      <c r="F13" s="26">
+        <v>21</v>
+      </c>
+      <c r="G13" s="27">
         <v>8</v>
-      </c>
-      <c r="F13" s="26">
-        <v>15</v>
-      </c>
-      <c r="G13" s="27">
-        <v>7</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50"/>
       <c r="B14" s="57">
         <v>8</v>
@@ -12467,79 +12574,79 @@
         <v>84</v>
       </c>
       <c r="E14" s="25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F14" s="59">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G14" s="60">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="50"/>
       <c r="B15" s="57">
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="E15" s="25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F15" s="26">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G15" s="27">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H15" s="55"/>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50"/>
       <c r="B16" s="57">
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="E16" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="26">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G16" s="27">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50"/>
       <c r="B17" s="57">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="E17" s="25">
         <v>5</v>
@@ -12555,32 +12662,32 @@
       <c r="J17" s="44"/>
       <c r="K17" s="44"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50"/>
       <c r="B18" s="57">
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="E18" s="25">
         <v>5</v>
       </c>
       <c r="F18" s="26">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G18" s="27">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50"/>
       <c r="B19" s="57">
         <v>13</v>
@@ -12592,10 +12699,10 @@
         <v>98</v>
       </c>
       <c r="E19" s="25">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="26">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G19" s="27">
         <v>22</v>
@@ -12605,7 +12712,7 @@
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
     </row>
-    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="50"/>
       <c r="B20" s="62">
         <v>14</v>
@@ -12617,20 +12724,20 @@
         <v>23</v>
       </c>
       <c r="E20" s="25">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F20" s="26">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G20" s="27">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H20" s="55"/>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
     </row>
-    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="63"/>
       <c r="C21" s="63"/>
@@ -12643,7 +12750,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -12677,17 +12784,17 @@
       <selection activeCell="A24" sqref="A24:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="41" customWidth="1"/>
-    <col min="6" max="7" width="9.33203125" style="41" customWidth="1"/>
-    <col min="8" max="257" width="8.77734375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="33.296875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="31.296875" style="41" customWidth="1"/>
+    <col min="6" max="7" width="9.296875" style="41" customWidth="1"/>
+    <col min="8" max="257" width="8.796875" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="66" t="s">
         <v>117</v>
       </c>
@@ -12697,7 +12804,7 @@
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -12705,7 +12812,7 @@
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="67" t="s">
         <v>54</v>
       </c>
@@ -12715,7 +12822,7 @@
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="71" t="s">
         <v>61</v>
       </c>
@@ -12738,7 +12845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="71" t="s">
         <v>62</v>
       </c>
@@ -12761,7 +12868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="71" t="s">
         <v>63</v>
       </c>
@@ -12784,7 +12891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="71" t="s">
         <v>64</v>
       </c>
@@ -12807,7 +12914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="71" t="s">
         <v>65</v>
       </c>
@@ -12830,7 +12937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="71"/>
       <c r="B9" s="69"/>
       <c r="C9" s="69"/>
@@ -12839,7 +12946,7 @@
       <c r="F9" s="43"/>
       <c r="G9" s="65"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="67" t="s">
         <v>93</v>
       </c>
@@ -12849,7 +12956,7 @@
       <c r="F10" s="43"/>
       <c r="G10" s="65"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="71" t="s">
         <v>66</v>
       </c>
@@ -12872,7 +12979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="71" t="s">
         <v>67</v>
       </c>
@@ -12895,7 +13002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="71" t="s">
         <v>68</v>
       </c>
@@ -12918,7 +13025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="71" t="s">
         <v>69</v>
       </c>
@@ -12941,7 +13048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="69"/>
       <c r="C15" s="68"/>
       <c r="D15" s="43"/>
@@ -12949,7 +13056,7 @@
       <c r="F15" s="70"/>
       <c r="G15" s="43"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="67" t="s">
         <v>150</v>
       </c>
@@ -12959,7 +13066,7 @@
       <c r="F16" s="70"/>
       <c r="G16" s="43"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -12982,7 +13089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="69"/>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
@@ -12990,7 +13097,7 @@
       <c r="F18" s="70"/>
       <c r="G18" s="43"/>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="69"/>
       <c r="C19" s="68"/>
       <c r="D19" s="43"/>
@@ -12998,7 +13105,7 @@
       <c r="F19" s="70"/>
       <c r="G19" s="43"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="67" t="s">
         <v>55</v>
       </c>
@@ -13008,7 +13115,7 @@
       <c r="F20" s="70"/>
       <c r="G20" s="43"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="71" t="s">
         <v>129</v>
       </c>
@@ -13031,7 +13138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="71" t="s">
         <v>130</v>
       </c>
@@ -13054,7 +13161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="69"/>
       <c r="C23" s="69"/>
       <c r="D23" s="68"/>
@@ -13062,7 +13169,7 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="67" t="s">
         <v>56</v>
       </c>
@@ -13072,7 +13179,7 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="71" t="s">
         <v>151</v>
       </c>
@@ -13095,7 +13202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
       <c r="D26" s="68"/>
@@ -13103,7 +13210,7 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="67" t="s">
         <v>57</v>
       </c>
@@ -13114,7 +13221,7 @@
       <c r="G27" s="43"/>
       <c r="K27" s="109"/>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="69" t="s">
         <v>86</v>
       </c>

--- a/data/DreamLeague23-24.xlsx
+++ b/data/DreamLeague23-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\dreamleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED4C75E-2E02-4849-B047-2740C136DF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDE2840-75AB-49FD-B097-C5764EE31C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="343">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1060,6 +1060,9 @@
   </si>
   <si>
     <t>GREG LEIGH</t>
+  </si>
+  <si>
+    <t>NATHAN BROADHEAD</t>
   </si>
 </sst>
 </file>
@@ -1817,14 +1820,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3002,7 +3005,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -3014,36 +3017,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IX380"/>
+  <dimension ref="A1:IX381"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F35" sqref="B35:F35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A294" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K325" sqref="K325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.296875" style="81" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="81" customWidth="1"/>
     <col min="2" max="2" width="16" style="81" customWidth="1"/>
-    <col min="3" max="3" width="39.296875" style="81" customWidth="1"/>
-    <col min="4" max="4" width="32.796875" style="81" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" style="81" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" style="81" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" style="81" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="81" customWidth="1"/>
     <col min="6" max="6" width="17" style="81" customWidth="1"/>
-    <col min="7" max="8" width="11.296875" style="81" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.69921875" style="81" customWidth="1"/>
-    <col min="10" max="10" width="7.19921875" style="81" customWidth="1"/>
-    <col min="11" max="11" width="25.69921875" style="81" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.296875" style="81" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" style="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="81" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="81" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" style="81" customWidth="1"/>
     <col min="13" max="14" width="12" style="81" customWidth="1"/>
-    <col min="15" max="15" width="10.296875" style="81" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="81" customWidth="1"/>
     <col min="16" max="17" width="9" style="81" customWidth="1"/>
-    <col min="18" max="18" width="32.296875" style="81" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.33203125" style="81" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="9" style="81" customWidth="1"/>
-    <col min="22" max="22" width="30.19921875" style="81" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.1640625" style="81" bestFit="1" customWidth="1"/>
     <col min="23" max="258" width="9" style="81" customWidth="1"/>
     <col min="259" max="16384" width="9" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3062,7 +3065,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -3083,7 +3086,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3100,7 +3103,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="83"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -3136,15 +3139,15 @@
       <c r="O4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="120" t="s">
+      <c r="R4" s="122" t="s">
         <v>287</v>
       </c>
-      <c r="S4" s="120"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="120"/>
-      <c r="V4" s="120"/>
-    </row>
-    <row r="5" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
+    </row>
+    <row r="5" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="83"/>
       <c r="B5" s="115" t="s">
         <v>13</v>
@@ -3205,7 +3208,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="83"/>
       <c r="B6" s="12" t="s">
         <v>13</v>
@@ -3264,7 +3267,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="83"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3313,7 +3316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="83"/>
       <c r="B8" s="28" t="s">
         <v>15</v>
@@ -3354,7 +3357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="83"/>
       <c r="B9" s="28" t="s">
         <v>15</v>
@@ -3396,7 +3399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="83"/>
       <c r="B10" s="103"/>
       <c r="C10" s="28"/>
@@ -3427,15 +3430,15 @@
         <f>SUM(F143:F145)</f>
         <v>13</v>
       </c>
-      <c r="R10" s="120" t="s">
+      <c r="R10" s="122" t="s">
         <v>288</v>
       </c>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="120"/>
-    </row>
-    <row r="11" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S10" s="122"/>
+      <c r="T10" s="122"/>
+      <c r="U10" s="122"/>
+      <c r="V10" s="122"/>
+    </row>
+    <row r="11" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="83"/>
       <c r="B11" s="103" t="s">
         <v>18</v>
@@ -3498,7 +3501,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="83"/>
       <c r="B12" s="28" t="s">
         <v>18</v>
@@ -3542,7 +3545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="83"/>
       <c r="B13" s="28" t="s">
         <v>18</v>
@@ -3583,15 +3586,15 @@
         <f>SUM(F224:F226)</f>
         <v>16</v>
       </c>
-      <c r="R13" s="120" t="s">
+      <c r="R13" s="122" t="s">
         <v>289</v>
       </c>
-      <c r="S13" s="120"/>
-      <c r="T13" s="120"/>
-      <c r="U13" s="120"/>
-      <c r="V13" s="120"/>
-    </row>
-    <row r="14" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S13" s="122"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+    </row>
+    <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="83"/>
       <c r="B14" s="103" t="s">
         <v>18</v>
@@ -3654,7 +3657,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="83"/>
       <c r="B15" s="28" t="s">
         <v>18</v>
@@ -3704,7 +3707,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="83"/>
       <c r="B16" s="28" t="s">
         <v>19</v>
@@ -3738,7 +3741,7 @@
         <v>22</v>
       </c>
       <c r="N16" s="26">
-        <f>SUM(F308:F325)</f>
+        <f>SUM(F308:F326)</f>
         <v>33</v>
       </c>
       <c r="O16" s="27">
@@ -3746,7 +3749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="83"/>
       <c r="B17" s="103" t="s">
         <v>19</v>
@@ -3772,11 +3775,11 @@
       <c r="I17" s="110"/>
       <c r="J17" s="86"/>
       <c r="K17" s="31" t="str">
-        <f>D329</f>
+        <f>D330</f>
         <v>JAMIE DUGGAN</v>
       </c>
       <c r="L17" s="32" t="str">
-        <f>C329</f>
+        <f>C330</f>
         <v>DUGGAN'S DREAMERS</v>
       </c>
       <c r="M17" s="25">
@@ -3784,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="N17" s="26">
-        <f>SUM(F335:F352)</f>
+        <f>SUM(F336:F353)</f>
         <v>22</v>
       </c>
       <c r="O17" s="27">
-        <f>SUM(F332:F334)</f>
+        <f>SUM(F333:F335)</f>
         <v>22</v>
       </c>
-      <c r="R17" s="120" t="s">
+      <c r="R17" s="122" t="s">
         <v>292</v>
       </c>
-      <c r="S17" s="120"/>
-      <c r="T17" s="120"/>
-      <c r="U17" s="120"/>
-      <c r="V17" s="120"/>
-    </row>
-    <row r="18" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S17" s="122"/>
+      <c r="T17" s="122"/>
+      <c r="U17" s="122"/>
+      <c r="V17" s="122"/>
+    </row>
+    <row r="18" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="83"/>
       <c r="B18" s="103" t="s">
         <v>19</v>
@@ -3825,11 +3828,11 @@
       <c r="I18" s="110"/>
       <c r="J18" s="86"/>
       <c r="K18" s="31" t="str">
-        <f>D356</f>
+        <f>D357</f>
         <v>CHARLIE REED</v>
       </c>
       <c r="L18" s="32" t="str">
-        <f>C356</f>
+        <f>C357</f>
         <v>CHARLIE'S ANGELS</v>
       </c>
       <c r="M18" s="25">
@@ -3837,11 +3840,11 @@
         <v>17</v>
       </c>
       <c r="N18" s="26">
-        <f>SUM(F362:F379)</f>
+        <f>SUM(F363:F380)</f>
         <v>27</v>
       </c>
       <c r="O18" s="27">
-        <f>SUM(F359:F361)</f>
+        <f>SUM(F360:F362)</f>
         <v>10</v>
       </c>
       <c r="R18" s="81" t="s">
@@ -3862,7 +3865,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="83"/>
       <c r="B19" s="103" t="s">
         <v>19</v>
@@ -3893,7 +3896,7 @@
       <c r="N19" s="93"/>
       <c r="O19" s="93"/>
     </row>
-    <row r="20" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="83"/>
       <c r="B20" s="28" t="s">
         <v>19</v>
@@ -3921,15 +3924,15 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="R20" s="120" t="s">
+      <c r="R20" s="122" t="s">
         <v>293</v>
       </c>
-      <c r="S20" s="120"/>
-      <c r="T20" s="120"/>
-      <c r="U20" s="120"/>
-      <c r="V20" s="120"/>
-    </row>
-    <row r="21" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S20" s="122"/>
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
+    </row>
+    <row r="21" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="83"/>
       <c r="B21" s="28" t="s">
         <v>19</v>
@@ -3975,7 +3978,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="83"/>
       <c r="B22" s="103" t="s">
         <v>19</v>
@@ -4012,7 +4015,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="83"/>
       <c r="B23" s="103" t="s">
         <v>19</v>
@@ -4043,7 +4046,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="83"/>
       <c r="B24" s="28" t="s">
         <v>19</v>
@@ -4071,15 +4074,15 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="R24" s="120" t="s">
+      <c r="R24" s="122" t="s">
         <v>294</v>
       </c>
-      <c r="S24" s="120"/>
-      <c r="T24" s="120"/>
-      <c r="U24" s="120"/>
-      <c r="V24" s="120"/>
-    </row>
-    <row r="25" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S24" s="122"/>
+      <c r="T24" s="122"/>
+      <c r="U24" s="122"/>
+      <c r="V24" s="122"/>
+    </row>
+    <row r="25" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="83"/>
       <c r="B25" s="28" t="s">
         <v>19</v>
@@ -4123,7 +4126,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -4152,7 +4155,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4169,7 +4172,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4185,15 +4188,15 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="R28" s="120" t="s">
+      <c r="R28" s="122" t="s">
         <v>295</v>
       </c>
-      <c r="S28" s="120"/>
-      <c r="T28" s="120"/>
-      <c r="U28" s="120"/>
-      <c r="V28" s="120"/>
-    </row>
-    <row r="29" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S28" s="122"/>
+      <c r="T28" s="122"/>
+      <c r="U28" s="122"/>
+      <c r="V28" s="122"/>
+    </row>
+    <row r="29" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
@@ -4221,7 +4224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4245,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="83"/>
       <c r="B31" s="6" t="s">
         <v>3</v>
@@ -4279,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="83"/>
       <c r="B32" s="12" t="s">
         <v>13</v>
@@ -4315,7 +4318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="83"/>
       <c r="B33" s="21" t="s">
         <v>13</v>
@@ -4349,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="83"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -4373,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="83"/>
       <c r="B35" s="103" t="s">
         <v>15</v>
@@ -4390,11 +4393,11 @@
       <c r="F35" s="105">
         <v>1</v>
       </c>
-      <c r="G35" s="121" t="s">
+      <c r="G35" s="120" t="s">
         <v>285</v>
       </c>
-      <c r="H35" s="122">
-        <v>45224</v>
+      <c r="H35" s="121">
+        <v>45225</v>
       </c>
       <c r="I35" s="94"/>
       <c r="J35" s="80"/>
@@ -4411,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="83"/>
       <c r="B36" s="28" t="s">
         <v>15</v>
@@ -4429,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="92">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="H36" s="96"/>
       <c r="I36" s="94"/>
@@ -4440,7 +4443,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="83"/>
       <c r="B37" s="28" t="s">
         <v>15</v>
@@ -4474,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="83"/>
       <c r="B38" s="103"/>
       <c r="C38" s="28"/>
@@ -4491,7 +4494,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="83"/>
       <c r="B39" s="103" t="s">
         <v>18</v>
@@ -4508,11 +4511,11 @@
       <c r="F39" s="105">
         <v>1</v>
       </c>
-      <c r="G39" s="121" t="s">
+      <c r="G39" s="120" t="s">
         <v>285</v>
       </c>
-      <c r="H39" s="122">
-        <v>45224</v>
+      <c r="H39" s="121">
+        <v>45225</v>
       </c>
       <c r="I39" s="98"/>
       <c r="J39" s="80"/>
@@ -4521,15 +4524,15 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="R39" s="120" t="s">
+      <c r="R39" s="122" t="s">
         <v>296</v>
       </c>
-      <c r="S39" s="120"/>
-      <c r="T39" s="120"/>
-      <c r="U39" s="120"/>
-      <c r="V39" s="120"/>
-    </row>
-    <row r="40" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S39" s="122"/>
+      <c r="T39" s="122"/>
+      <c r="U39" s="122"/>
+      <c r="V39" s="122"/>
+    </row>
+    <row r="40" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="83"/>
       <c r="B40" s="28" t="s">
         <v>18</v>
@@ -4547,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="92">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="H40" s="96"/>
       <c r="I40" s="98"/>
@@ -4563,7 +4566,7 @@
       <c r="U40" s="119"/>
       <c r="V40" s="119"/>
     </row>
-    <row r="41" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="83"/>
       <c r="B41" s="28" t="s">
         <v>18</v>
@@ -4600,7 +4603,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="83"/>
       <c r="B42" s="28" t="s">
         <v>18</v>
@@ -4637,7 +4640,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="83"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -4664,7 +4667,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="83"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -4691,7 +4694,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="83"/>
       <c r="B45" s="28" t="s">
         <v>19</v>
@@ -4728,7 +4731,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="83"/>
       <c r="B46" s="103" t="s">
         <v>19</v>
@@ -4769,7 +4772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="83"/>
       <c r="B47" s="103" t="s">
         <v>19</v>
@@ -4810,7 +4813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="83"/>
       <c r="B48" s="28" t="s">
         <v>19</v>
@@ -4849,7 +4852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="83"/>
       <c r="B49" s="28" t="s">
         <v>19</v>
@@ -4888,7 +4891,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="83"/>
       <c r="B50" s="103" t="s">
         <v>19</v>
@@ -4929,7 +4932,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="83"/>
       <c r="B51" s="28" t="s">
         <v>19</v>
@@ -4968,7 +4971,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="83"/>
       <c r="B52" s="28" t="s">
         <v>19</v>
@@ -5005,7 +5008,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="83"/>
       <c r="B53" s="103"/>
       <c r="C53" s="28"/>
@@ -5032,7 +5035,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="83"/>
       <c r="B54" s="21"/>
       <c r="C54" s="28"/>
@@ -5059,7 +5062,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="35"/>
       <c r="C55" s="35"/>
@@ -5092,7 +5095,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5119,7 +5122,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -5146,7 +5149,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="3" t="s">
@@ -5177,7 +5180,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -5204,7 +5207,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="83"/>
       <c r="B60" s="6" t="s">
         <v>3</v>
@@ -5241,7 +5244,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="83"/>
       <c r="B61" s="12" t="s">
         <v>13</v>
@@ -5276,7 +5279,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="83"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -5303,7 +5306,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="83"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -5330,7 +5333,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="83"/>
       <c r="B64" s="28" t="s">
         <v>15</v>
@@ -5367,7 +5370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="83"/>
       <c r="B65" s="28" t="s">
         <v>15</v>
@@ -5404,7 +5407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="83"/>
       <c r="B66" s="103"/>
       <c r="C66" s="21"/>
@@ -5431,7 +5434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="83"/>
       <c r="B67" s="28" t="s">
         <v>18</v>
@@ -5468,7 +5471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="83"/>
       <c r="B68" s="28" t="s">
         <v>18</v>
@@ -5505,7 +5508,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="83"/>
       <c r="B69" s="28" t="s">
         <v>18</v>
@@ -5542,7 +5545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="83"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
@@ -5569,7 +5572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="83"/>
       <c r="B71" s="28"/>
       <c r="C71" s="21"/>
@@ -5596,7 +5599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="83"/>
       <c r="B72" s="28" t="s">
         <v>19</v>
@@ -5623,7 +5626,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="83"/>
       <c r="B73" s="28" t="s">
         <v>19</v>
@@ -5650,7 +5653,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="83"/>
       <c r="B74" s="28" t="s">
         <v>19</v>
@@ -5677,7 +5680,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="83"/>
       <c r="B75" s="103" t="s">
         <v>19</v>
@@ -5708,7 +5711,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="83"/>
       <c r="B76" s="28" t="s">
         <v>19</v>
@@ -5737,7 +5740,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="83"/>
       <c r="B77" s="28" t="s">
         <v>19</v>
@@ -5764,7 +5767,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="83"/>
       <c r="B78" s="103"/>
       <c r="C78" s="28"/>
@@ -5781,7 +5784,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="83"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
@@ -5798,7 +5801,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="83"/>
       <c r="B80" s="103"/>
       <c r="C80" s="28"/>
@@ -5815,7 +5818,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="83"/>
       <c r="B81" s="21"/>
       <c r="C81" s="28"/>
@@ -5832,7 +5835,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="35"/>
       <c r="C82" s="35"/>
@@ -5855,7 +5858,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -5872,7 +5875,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5889,7 +5892,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="3" t="s">
@@ -5910,7 +5913,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -5927,7 +5930,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="83"/>
       <c r="B87" s="6" t="s">
         <v>3</v>
@@ -5954,7 +5957,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="83"/>
       <c r="B88" s="12" t="s">
         <v>13</v>
@@ -5979,7 +5982,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="83"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -5996,7 +5999,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="83"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -6013,7 +6016,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="83"/>
       <c r="B91" s="28" t="s">
         <v>15</v>
@@ -6040,7 +6043,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="83"/>
       <c r="B92" s="28" t="s">
         <v>15</v>
@@ -6067,7 +6070,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="83"/>
       <c r="B93" s="103"/>
       <c r="C93" s="21"/>
@@ -6084,7 +6087,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="83"/>
       <c r="B94" s="28" t="s">
         <v>18</v>
@@ -6111,7 +6114,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="83"/>
       <c r="B95" s="28" t="s">
         <v>18</v>
@@ -6138,7 +6141,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="83"/>
       <c r="B96" s="28" t="s">
         <v>18</v>
@@ -6169,7 +6172,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="83"/>
       <c r="B97" s="28" t="s">
         <v>18</v>
@@ -6198,7 +6201,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="83"/>
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
@@ -6215,7 +6218,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="83"/>
       <c r="B99" s="103" t="s">
         <v>19</v>
@@ -6246,7 +6249,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="83"/>
       <c r="B100" s="28" t="s">
         <v>19</v>
@@ -6275,7 +6278,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="83"/>
       <c r="B101" s="103" t="s">
         <v>19</v>
@@ -6306,7 +6309,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="83"/>
       <c r="B102" s="28" t="s">
         <v>19</v>
@@ -6335,7 +6338,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="83"/>
       <c r="B103" s="28" t="s">
         <v>19</v>
@@ -6362,7 +6365,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="83"/>
       <c r="B104" s="28" t="s">
         <v>19</v>
@@ -6389,7 +6392,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="83"/>
       <c r="B105" s="28" t="s">
         <v>19</v>
@@ -6416,7 +6419,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="83"/>
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
@@ -6433,7 +6436,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="83"/>
       <c r="B107" s="103"/>
       <c r="C107" s="103"/>
@@ -6450,7 +6453,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="83"/>
       <c r="B108" s="21"/>
       <c r="C108" s="28"/>
@@ -6467,7 +6470,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="35"/>
       <c r="C109" s="35"/>
@@ -6490,7 +6493,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -6507,7 +6510,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -6524,7 +6527,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="3" t="s">
@@ -6545,7 +6548,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -6562,7 +6565,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="83"/>
       <c r="B114" s="6" t="s">
         <v>3</v>
@@ -6589,7 +6592,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="83"/>
       <c r="B115" s="12" t="s">
         <v>13</v>
@@ -6614,7 +6617,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="83"/>
       <c r="B116" s="21"/>
       <c r="C116" s="21"/>
@@ -6631,7 +6634,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="83"/>
       <c r="B117" s="21"/>
       <c r="C117" s="21"/>
@@ -6648,7 +6651,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="83"/>
       <c r="B118" s="28" t="s">
         <v>15</v>
@@ -6675,7 +6678,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="83"/>
       <c r="B119" s="28" t="s">
         <v>15</v>
@@ -6702,7 +6705,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="83"/>
       <c r="B120" s="103"/>
       <c r="C120" s="28"/>
@@ -6719,7 +6722,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="83"/>
       <c r="B121" s="28" t="s">
         <v>18</v>
@@ -6746,7 +6749,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="83"/>
       <c r="B122" s="28" t="s">
         <v>18</v>
@@ -6773,7 +6776,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="83"/>
       <c r="B123" s="103" t="s">
         <v>18</v>
@@ -6804,7 +6807,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="83"/>
       <c r="B124" s="28" t="s">
         <v>18</v>
@@ -6833,7 +6836,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="83"/>
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
@@ -6850,7 +6853,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="83"/>
       <c r="B126" s="28" t="s">
         <v>19</v>
@@ -6877,7 +6880,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="83"/>
       <c r="B127" s="28" t="s">
         <v>19</v>
@@ -6904,7 +6907,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="83"/>
       <c r="B128" s="103" t="s">
         <v>19</v>
@@ -6935,7 +6938,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="83"/>
       <c r="B129" s="28" t="s">
         <v>19</v>
@@ -6964,7 +6967,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="83"/>
       <c r="B130" s="28" t="s">
         <v>19</v>
@@ -6991,7 +6994,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="83"/>
       <c r="B131" s="28" t="s">
         <v>19</v>
@@ -7018,7 +7021,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="83"/>
       <c r="B132" s="28"/>
       <c r="C132" s="103"/>
@@ -7035,7 +7038,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="83"/>
       <c r="B133" s="103"/>
       <c r="C133" s="28"/>
@@ -7052,7 +7055,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="83"/>
       <c r="B134" s="28"/>
       <c r="C134" s="103"/>
@@ -7069,7 +7072,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="83"/>
       <c r="B135" s="103"/>
       <c r="C135" s="103"/>
@@ -7086,7 +7089,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="83"/>
       <c r="B136" s="21"/>
       <c r="C136" s="21"/>
@@ -7103,7 +7106,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="35"/>
       <c r="C137" s="35"/>
@@ -7126,7 +7129,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -7143,7 +7146,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -7160,7 +7163,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="3" t="s">
@@ -7181,7 +7184,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -7198,7 +7201,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="83"/>
       <c r="B142" s="6" t="s">
         <v>3</v>
@@ -7225,7 +7228,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="83"/>
       <c r="B143" s="12" t="s">
         <v>13</v>
@@ -7250,7 +7253,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="83"/>
       <c r="B144" s="21"/>
       <c r="C144" s="21"/>
@@ -7267,7 +7270,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="83"/>
       <c r="B145" s="21"/>
       <c r="C145" s="21"/>
@@ -7284,7 +7287,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="83"/>
       <c r="B146" s="28" t="s">
         <v>15</v>
@@ -7311,7 +7314,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="83"/>
       <c r="B147" s="28" t="s">
         <v>15</v>
@@ -7338,7 +7341,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="83"/>
       <c r="B148" s="103"/>
       <c r="C148" s="21"/>
@@ -7355,7 +7358,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="83"/>
       <c r="B149" s="28" t="s">
         <v>18</v>
@@ -7382,7 +7385,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="83"/>
       <c r="B150" s="28" t="s">
         <v>18</v>
@@ -7407,7 +7410,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="83"/>
       <c r="B151" s="28" t="s">
         <v>18</v>
@@ -7438,7 +7441,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="83"/>
       <c r="B152" s="28" t="s">
         <v>18</v>
@@ -7467,7 +7470,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="83"/>
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
@@ -7484,7 +7487,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="83"/>
       <c r="B154" s="28" t="s">
         <v>19</v>
@@ -7511,7 +7514,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="83"/>
       <c r="B155" s="28" t="s">
         <v>19</v>
@@ -7538,7 +7541,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="83"/>
       <c r="B156" s="28" t="s">
         <v>19</v>
@@ -7565,7 +7568,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="83"/>
       <c r="B157" s="28" t="s">
         <v>19</v>
@@ -7592,7 +7595,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="83"/>
       <c r="B158" s="28" t="s">
         <v>19</v>
@@ -7623,7 +7626,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="83"/>
       <c r="B159" s="28" t="s">
         <v>19</v>
@@ -7652,7 +7655,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="83"/>
       <c r="B160" s="103"/>
       <c r="C160" s="103"/>
@@ -7669,7 +7672,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="83"/>
       <c r="B161" s="28"/>
       <c r="C161" s="21"/>
@@ -7686,7 +7689,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="83"/>
       <c r="B162" s="103"/>
       <c r="C162" s="21"/>
@@ -7703,7 +7706,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="83"/>
       <c r="B163" s="21"/>
       <c r="C163" s="33"/>
@@ -7720,7 +7723,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="35"/>
       <c r="C164" s="35"/>
@@ -7743,7 +7746,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -7760,7 +7763,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -7777,7 +7780,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="3" t="s">
@@ -7798,7 +7801,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -7815,7 +7818,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="83"/>
       <c r="B169" s="6" t="s">
         <v>3</v>
@@ -7842,7 +7845,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="83"/>
       <c r="B170" s="12" t="s">
         <v>13</v>
@@ -7867,7 +7870,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="83"/>
       <c r="B171" s="21"/>
       <c r="C171" s="21"/>
@@ -7884,7 +7887,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="83"/>
       <c r="B172" s="21"/>
       <c r="C172" s="21"/>
@@ -7901,7 +7904,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="83"/>
       <c r="B173" s="28" t="s">
         <v>15</v>
@@ -7928,7 +7931,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="83"/>
       <c r="B174" s="28" t="s">
         <v>15</v>
@@ -7955,7 +7958,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="83"/>
       <c r="B175" s="28"/>
       <c r="C175" s="28"/>
@@ -7972,7 +7975,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="83"/>
       <c r="B176" s="28" t="s">
         <v>18</v>
@@ -7999,7 +8002,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="83"/>
       <c r="B177" s="28" t="s">
         <v>18</v>
@@ -8026,7 +8029,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="83"/>
       <c r="B178" s="28" t="s">
         <v>18</v>
@@ -8053,7 +8056,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="83"/>
       <c r="B179" s="28"/>
       <c r="C179" s="28"/>
@@ -8070,7 +8073,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="83"/>
       <c r="B180" s="28"/>
       <c r="C180" s="28"/>
@@ -8087,7 +8090,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="83"/>
       <c r="B181" s="28" t="s">
         <v>19</v>
@@ -8114,7 +8117,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="83"/>
       <c r="B182" s="28" t="s">
         <v>19</v>
@@ -8141,7 +8144,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="83"/>
       <c r="B183" s="28" t="s">
         <v>19</v>
@@ -8168,7 +8171,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="83"/>
       <c r="B184" s="28" t="s">
         <v>19</v>
@@ -8195,7 +8198,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="83"/>
       <c r="B185" s="28" t="s">
         <v>19</v>
@@ -8222,7 +8225,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="83"/>
       <c r="B186" s="28"/>
       <c r="C186" s="103"/>
@@ -8239,7 +8242,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="83"/>
       <c r="B187" s="103"/>
       <c r="C187" s="103"/>
@@ -8256,7 +8259,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="83"/>
       <c r="B188" s="28"/>
       <c r="C188" s="28"/>
@@ -8273,7 +8276,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="83"/>
       <c r="B189" s="103"/>
       <c r="C189" s="103"/>
@@ -8290,7 +8293,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="83"/>
       <c r="B190" s="21"/>
       <c r="C190" s="28"/>
@@ -8307,7 +8310,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="35"/>
       <c r="C191" s="35"/>
@@ -8330,7 +8333,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -8347,7 +8350,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -8364,7 +8367,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="3" t="s">
@@ -8385,7 +8388,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -8402,7 +8405,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="83"/>
       <c r="B196" s="6" t="s">
         <v>3</v>
@@ -8429,7 +8432,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="83"/>
       <c r="B197" s="12" t="s">
         <v>13</v>
@@ -8454,7 +8457,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="83"/>
       <c r="B198" s="21"/>
       <c r="C198" s="21"/>
@@ -8471,7 +8474,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="83"/>
       <c r="B199" s="21"/>
       <c r="C199" s="21"/>
@@ -8488,7 +8491,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="83"/>
       <c r="B200" s="28" t="s">
         <v>15</v>
@@ -8515,7 +8518,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="83"/>
       <c r="B201" s="28" t="s">
         <v>15</v>
@@ -8542,7 +8545,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="83"/>
       <c r="B202" s="103"/>
       <c r="C202" s="28"/>
@@ -8559,7 +8562,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="83"/>
       <c r="B203" s="28" t="s">
         <v>18</v>
@@ -8586,7 +8589,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="83"/>
       <c r="B204" s="28" t="s">
         <v>18</v>
@@ -8613,7 +8616,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="83"/>
       <c r="B205" s="28" t="s">
         <v>18</v>
@@ -8640,7 +8643,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="83"/>
       <c r="B206" s="28"/>
       <c r="C206" s="21"/>
@@ -8657,7 +8660,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="83"/>
       <c r="B207" s="28"/>
       <c r="C207" s="21"/>
@@ -8674,7 +8677,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="83"/>
       <c r="B208" s="28" t="s">
         <v>19</v>
@@ -8701,7 +8704,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="83"/>
       <c r="B209" s="28" t="s">
         <v>19</v>
@@ -8728,7 +8731,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="83"/>
       <c r="B210" s="28" t="s">
         <v>19</v>
@@ -8755,7 +8758,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="83"/>
       <c r="B211" s="28" t="s">
         <v>19</v>
@@ -8782,7 +8785,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="83"/>
       <c r="B212" s="28" t="s">
         <v>19</v>
@@ -8809,7 +8812,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="83"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
@@ -8826,7 +8829,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="83"/>
       <c r="B214" s="103"/>
       <c r="C214" s="28"/>
@@ -8843,7 +8846,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="83"/>
       <c r="B215" s="28"/>
       <c r="C215" s="28"/>
@@ -8860,7 +8863,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="83"/>
       <c r="B216" s="103"/>
       <c r="C216" s="21"/>
@@ -8877,7 +8880,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="83"/>
       <c r="B217" s="21"/>
       <c r="C217" s="33"/>
@@ -8894,7 +8897,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="35"/>
       <c r="C218" s="35"/>
@@ -8917,7 +8920,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8934,7 +8937,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8951,7 +8954,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="3" t="s">
@@ -8972,7 +8975,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -8989,7 +8992,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="83"/>
       <c r="B223" s="6" t="s">
         <v>3</v>
@@ -9016,7 +9019,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="61"/>
       <c r="B224" s="12" t="s">
         <v>13</v>
@@ -9045,7 +9048,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="83"/>
       <c r="B225" s="21" t="s">
         <v>13</v>
@@ -9072,7 +9075,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="83"/>
       <c r="B226" s="21"/>
       <c r="C226" s="21"/>
@@ -9089,7 +9092,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="83"/>
       <c r="B227" s="28" t="s">
         <v>15</v>
@@ -9116,7 +9119,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="83"/>
       <c r="B228" s="28" t="s">
         <v>15</v>
@@ -9143,7 +9146,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="83"/>
       <c r="B229" s="103"/>
       <c r="C229" s="21"/>
@@ -9160,7 +9163,7 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="83"/>
       <c r="B230" s="28" t="s">
         <v>18</v>
@@ -9187,7 +9190,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="83"/>
       <c r="B231" s="28" t="s">
         <v>18</v>
@@ -9214,7 +9217,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="83"/>
       <c r="B232" s="103" t="s">
         <v>18</v>
@@ -9245,7 +9248,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="83"/>
       <c r="B233" s="28" t="s">
         <v>18</v>
@@ -9274,7 +9277,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="83"/>
       <c r="B234" s="28"/>
       <c r="C234" s="28"/>
@@ -9291,7 +9294,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="83"/>
       <c r="B235" s="28" t="s">
         <v>19</v>
@@ -9318,7 +9321,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="83"/>
       <c r="B236" s="103" t="s">
         <v>19</v>
@@ -9349,7 +9352,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="83"/>
       <c r="B237" s="28" t="s">
         <v>19</v>
@@ -9378,7 +9381,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="83"/>
       <c r="B238" s="103" t="s">
         <v>19</v>
@@ -9409,7 +9412,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="83"/>
       <c r="B239" s="28" t="s">
         <v>19</v>
@@ -9438,7 +9441,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="83"/>
       <c r="B240" s="28" t="s">
         <v>19</v>
@@ -9465,7 +9468,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="83"/>
       <c r="B241" s="28" t="s">
         <v>19</v>
@@ -9492,7 +9495,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="83"/>
       <c r="B242" s="28"/>
       <c r="C242" s="103"/>
@@ -9509,7 +9512,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="83"/>
       <c r="B243" s="103"/>
       <c r="C243" s="28"/>
@@ -9526,7 +9529,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="83"/>
       <c r="B244" s="21"/>
       <c r="C244" s="28"/>
@@ -9543,7 +9546,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="35"/>
       <c r="C245" s="35"/>
@@ -9566,7 +9569,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -9583,7 +9586,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -9600,7 +9603,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="3" t="s">
@@ -9621,7 +9624,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -9638,7 +9641,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="83"/>
       <c r="B250" s="6" t="s">
         <v>3</v>
@@ -9657,7 +9660,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="83"/>
       <c r="B251" s="12" t="s">
         <v>13</v>
@@ -9682,7 +9685,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="83"/>
       <c r="B252" s="21"/>
       <c r="C252" s="21"/>
@@ -9699,7 +9702,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="83"/>
       <c r="B253" s="21"/>
       <c r="C253" s="21"/>
@@ -9716,7 +9719,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="83"/>
       <c r="B254" s="28" t="s">
         <v>15</v>
@@ -9743,7 +9746,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="83"/>
       <c r="B255" s="28" t="s">
         <v>15</v>
@@ -9770,7 +9773,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="83"/>
       <c r="B256" s="103"/>
       <c r="C256" s="28"/>
@@ -9787,7 +9790,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="83"/>
       <c r="B257" s="28" t="s">
         <v>18</v>
@@ -9814,7 +9817,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="83"/>
       <c r="B258" s="28" t="s">
         <v>18</v>
@@ -9841,7 +9844,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="83"/>
       <c r="B259" s="28" t="s">
         <v>18</v>
@@ -9868,7 +9871,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="83"/>
       <c r="B260" s="28"/>
       <c r="C260" s="28"/>
@@ -9885,7 +9888,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="83"/>
       <c r="B261" s="28"/>
       <c r="C261" s="28"/>
@@ -9902,7 +9905,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="83"/>
       <c r="B262" s="103" t="s">
         <v>19</v>
@@ -9933,7 +9936,7 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="83"/>
       <c r="B263" s="28" t="s">
         <v>19</v>
@@ -9962,7 +9965,7 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="83"/>
       <c r="B264" s="28" t="s">
         <v>19</v>
@@ -9989,7 +9992,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="83"/>
       <c r="B265" s="28" t="s">
         <v>19</v>
@@ -10016,7 +10019,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="83"/>
       <c r="B266" s="28" t="s">
         <v>19</v>
@@ -10043,7 +10046,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="83"/>
       <c r="B267" s="28" t="s">
         <v>19</v>
@@ -10070,7 +10073,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="83"/>
       <c r="B268" s="103"/>
       <c r="C268" s="28"/>
@@ -10087,7 +10090,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="83"/>
       <c r="B269" s="28"/>
       <c r="C269" s="103"/>
@@ -10104,7 +10107,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="83"/>
       <c r="B270" s="103"/>
       <c r="C270" s="21"/>
@@ -10121,7 +10124,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="83"/>
       <c r="B271" s="21"/>
       <c r="C271" s="33"/>
@@ -10138,7 +10141,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="35"/>
       <c r="C272" s="35"/>
@@ -10161,7 +10164,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -10178,7 +10181,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -10195,7 +10198,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1" t="s">
@@ -10216,7 +10219,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -10233,7 +10236,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="83"/>
       <c r="B277" s="6" t="s">
         <v>3</v>
@@ -10260,7 +10263,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="83"/>
       <c r="B278" s="12" t="s">
         <v>13</v>
@@ -10285,7 +10288,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="83"/>
       <c r="B279" s="21"/>
       <c r="C279" s="21"/>
@@ -10302,7 +10305,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="83"/>
       <c r="B280" s="21"/>
       <c r="C280" s="21"/>
@@ -10319,7 +10322,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="83"/>
       <c r="B281" s="28" t="s">
         <v>15</v>
@@ -10346,7 +10349,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="83"/>
       <c r="B282" s="28" t="s">
         <v>15</v>
@@ -10373,7 +10376,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="83"/>
       <c r="B283" s="103"/>
       <c r="C283" s="21"/>
@@ -10390,7 +10393,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="83"/>
       <c r="B284" s="28" t="s">
         <v>18</v>
@@ -10417,7 +10420,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="83"/>
       <c r="B285" s="103" t="s">
         <v>18</v>
@@ -10448,7 +10451,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="83"/>
       <c r="B286" s="28" t="s">
         <v>18</v>
@@ -10477,7 +10480,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="83"/>
       <c r="B287" s="28" t="s">
         <v>18</v>
@@ -10504,7 +10507,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="83"/>
       <c r="B288" s="28"/>
       <c r="C288" s="21"/>
@@ -10521,7 +10524,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="83"/>
       <c r="B289" s="28" t="s">
         <v>19</v>
@@ -10548,7 +10551,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="83"/>
       <c r="B290" s="28" t="s">
         <v>19</v>
@@ -10575,7 +10578,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="83"/>
       <c r="B291" s="28" t="s">
         <v>19</v>
@@ -10602,7 +10605,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="83"/>
       <c r="B292" s="28" t="s">
         <v>19</v>
@@ -10629,7 +10632,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="83"/>
       <c r="B293" s="28" t="s">
         <v>19</v>
@@ -10656,7 +10659,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="83"/>
       <c r="B294" s="28"/>
       <c r="C294" s="107"/>
@@ -10673,7 +10676,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="83"/>
       <c r="B295" s="103"/>
       <c r="C295" s="21"/>
@@ -10690,7 +10693,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="83"/>
       <c r="B296" s="28"/>
       <c r="C296" s="21"/>
@@ -10707,7 +10710,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="83"/>
       <c r="B297" s="103"/>
       <c r="C297" s="107"/>
@@ -10724,7 +10727,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A298" s="83"/>
       <c r="B298" s="21"/>
       <c r="C298" s="21"/>
@@ -10741,7 +10744,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="35"/>
       <c r="C299" s="35"/>
@@ -10764,7 +10767,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -10781,7 +10784,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -10798,7 +10801,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1" t="s">
@@ -10819,7 +10822,7 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -10836,7 +10839,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A304" s="83"/>
       <c r="B304" s="6" t="s">
         <v>3</v>
@@ -10863,7 +10866,7 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="83"/>
       <c r="B305" s="12" t="s">
         <v>13</v>
@@ -10888,7 +10891,7 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="83"/>
       <c r="B306" s="21"/>
       <c r="C306" s="21"/>
@@ -10905,7 +10908,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="83"/>
       <c r="B307" s="21"/>
       <c r="C307" s="21"/>
@@ -10922,7 +10925,7 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="83"/>
       <c r="B308" s="28" t="s">
         <v>15</v>
@@ -10949,7 +10952,7 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="83"/>
       <c r="B309" s="28" t="s">
         <v>15</v>
@@ -10976,7 +10979,7 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="83"/>
       <c r="B310" s="103"/>
       <c r="C310" s="21"/>
@@ -10993,7 +10996,7 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="83"/>
       <c r="B311" s="103" t="s">
         <v>18</v>
@@ -11024,7 +11027,7 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="83"/>
       <c r="B312" s="28" t="s">
         <v>18</v>
@@ -11053,7 +11056,7 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="83"/>
       <c r="B313" s="28" t="s">
         <v>18</v>
@@ -11080,25 +11083,29 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="83"/>
-      <c r="B314" s="28" t="s">
+      <c r="B314" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C314" s="21" t="s">
+      <c r="C314" s="107" t="s">
         <v>255</v>
       </c>
-      <c r="D314" s="21" t="s">
+      <c r="D314" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="E314" s="22">
+      <c r="E314" s="108">
         <v>1</v>
       </c>
-      <c r="F314" s="30">
+      <c r="F314" s="105">
         <v>1</v>
       </c>
-      <c r="G314" s="92"/>
-      <c r="H314" s="95"/>
+      <c r="G314" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="H314" s="96">
+        <v>45232</v>
+      </c>
       <c r="I314" s="95"/>
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
@@ -11107,14 +11114,26 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="83"/>
-      <c r="B315" s="28"/>
-      <c r="C315" s="21"/>
-      <c r="D315" s="21"/>
-      <c r="E315" s="22"/>
-      <c r="F315" s="30"/>
-      <c r="G315" s="87"/>
+      <c r="B315" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C315" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="D315" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E315" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F315" s="30">
+        <v>0</v>
+      </c>
+      <c r="G315" s="92">
+        <v>45232</v>
+      </c>
       <c r="H315" s="95"/>
       <c r="I315" s="95"/>
       <c r="J315" s="1"/>
@@ -11124,25 +11143,15 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="83"/>
-      <c r="B316" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C316" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="D316" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E316" s="22">
-        <v>20</v>
-      </c>
-      <c r="F316" s="30">
-        <v>5</v>
-      </c>
+      <c r="B316" s="28"/>
+      <c r="C316" s="21"/>
+      <c r="D316" s="21"/>
+      <c r="E316" s="22"/>
+      <c r="F316" s="30"/>
       <c r="G316" s="87"/>
-      <c r="H316" s="96"/>
+      <c r="H316" s="95"/>
       <c r="I316" s="95"/>
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
@@ -11151,25 +11160,25 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="83"/>
       <c r="B317" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C317" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="E317" s="22">
         <v>20</v>
       </c>
       <c r="F317" s="30">
-        <v>9</v>
-      </c>
-      <c r="G317" s="92"/>
-      <c r="H317" s="95"/>
+        <v>5</v>
+      </c>
+      <c r="G317" s="87"/>
+      <c r="H317" s="96"/>
       <c r="I317" s="95"/>
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
@@ -11178,24 +11187,24 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="83"/>
       <c r="B318" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C318" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="E318" s="22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F318" s="30">
-        <v>7</v>
-      </c>
-      <c r="G318" s="87"/>
+        <v>9</v>
+      </c>
+      <c r="G318" s="92"/>
       <c r="H318" s="95"/>
       <c r="I318" s="95"/>
       <c r="J318" s="1"/>
@@ -11205,22 +11214,22 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="83"/>
       <c r="B319" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C319" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D319" s="21" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="E319" s="22">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F319" s="30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G319" s="87"/>
       <c r="H319" s="95"/>
@@ -11232,29 +11241,25 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="83"/>
-      <c r="B320" s="103" t="s">
+      <c r="B320" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C320" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="D320" s="107" t="s">
-        <v>115</v>
-      </c>
-      <c r="E320" s="108">
+      <c r="C320" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D320" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E320" s="22">
+        <v>5</v>
+      </c>
+      <c r="F320" s="30">
         <v>1</v>
       </c>
-      <c r="F320" s="105">
-        <v>1</v>
-      </c>
-      <c r="G320" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="H320" s="96">
-        <v>45169</v>
-      </c>
+      <c r="G320" s="87"/>
+      <c r="H320" s="95"/>
       <c r="I320" s="95"/>
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
@@ -11263,27 +11268,29 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="83"/>
-      <c r="B321" s="28" t="s">
+      <c r="B321" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C321" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="D321" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="E321" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F321" s="30">
-        <v>2</v>
-      </c>
-      <c r="G321" s="92">
+      <c r="C321" s="107" t="s">
+        <v>260</v>
+      </c>
+      <c r="D321" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="E321" s="108">
+        <v>1</v>
+      </c>
+      <c r="F321" s="105">
+        <v>1</v>
+      </c>
+      <c r="G321" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="H321" s="96">
         <v>45169</v>
       </c>
-      <c r="H321" s="95"/>
       <c r="I321" s="95"/>
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
@@ -11292,15 +11299,27 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="83"/>
-      <c r="B322" s="103"/>
-      <c r="C322" s="107"/>
-      <c r="D322" s="107"/>
-      <c r="E322" s="108"/>
-      <c r="F322" s="105"/>
-      <c r="G322" s="87"/>
-      <c r="H322" s="96"/>
+      <c r="B322" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C322" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="D322" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E322" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F322" s="30">
+        <v>2</v>
+      </c>
+      <c r="G322" s="92">
+        <v>45169</v>
+      </c>
+      <c r="H322" s="95"/>
       <c r="I322" s="95"/>
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
@@ -11309,15 +11328,15 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="83"/>
-      <c r="B323" s="28"/>
-      <c r="C323" s="21"/>
-      <c r="D323" s="21"/>
-      <c r="E323" s="22"/>
-      <c r="F323" s="21"/>
-      <c r="G323" s="92"/>
-      <c r="H323" s="95"/>
+      <c r="B323" s="103"/>
+      <c r="C323" s="107"/>
+      <c r="D323" s="107"/>
+      <c r="E323" s="108"/>
+      <c r="F323" s="105"/>
+      <c r="G323" s="87"/>
+      <c r="H323" s="96"/>
       <c r="I323" s="95"/>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
@@ -11326,14 +11345,14 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="83"/>
-      <c r="B324" s="103"/>
+      <c r="B324" s="28"/>
       <c r="C324" s="21"/>
       <c r="D324" s="21"/>
       <c r="E324" s="22"/>
       <c r="F324" s="21"/>
-      <c r="G324" s="87"/>
+      <c r="G324" s="92"/>
       <c r="H324" s="95"/>
       <c r="I324" s="95"/>
       <c r="J324" s="1"/>
@@ -11343,16 +11362,16 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="83"/>
-      <c r="B325" s="21"/>
-      <c r="C325" s="33"/>
-      <c r="D325" s="33"/>
-      <c r="E325" s="34"/>
-      <c r="F325" s="33"/>
-      <c r="G325" s="84"/>
-      <c r="H325" s="97"/>
-      <c r="I325" s="97"/>
+      <c r="B325" s="103"/>
+      <c r="C325" s="21"/>
+      <c r="D325" s="21"/>
+      <c r="E325" s="22"/>
+      <c r="F325" s="21"/>
+      <c r="G325" s="87"/>
+      <c r="H325" s="95"/>
+      <c r="I325" s="95"/>
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
@@ -11360,19 +11379,13 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A326" s="1"/>
-      <c r="B326" s="35"/>
-      <c r="C326" s="35"/>
-      <c r="D326" s="36"/>
-      <c r="E326" s="37">
-        <f>SUM(E305:E325)</f>
-        <v>81</v>
-      </c>
-      <c r="F326" s="38">
-        <f>SUM(F308:F325)-SUM(F305:F307)</f>
-        <v>22</v>
-      </c>
+    <row r="326" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="83"/>
+      <c r="B326" s="21"/>
+      <c r="C326" s="33"/>
+      <c r="D326" s="33"/>
+      <c r="E326" s="34"/>
+      <c r="F326" s="33"/>
       <c r="G326" s="84"/>
       <c r="H326" s="97"/>
       <c r="I326" s="97"/>
@@ -11383,16 +11396,22 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
-      <c r="B327" s="1"/>
-      <c r="C327" s="1"/>
-      <c r="D327" s="1"/>
-      <c r="E327" s="39"/>
-      <c r="F327" s="35"/>
-      <c r="G327" s="79"/>
-      <c r="H327" s="79"/>
-      <c r="I327" s="79"/>
+      <c r="B327" s="35"/>
+      <c r="C327" s="35"/>
+      <c r="D327" s="36"/>
+      <c r="E327" s="37">
+        <f>SUM(E305:E326)</f>
+        <v>81</v>
+      </c>
+      <c r="F327" s="38">
+        <f>SUM(F308:F326)-SUM(F305:F307)</f>
+        <v>22</v>
+      </c>
+      <c r="G327" s="84"/>
+      <c r="H327" s="97"/>
+      <c r="I327" s="97"/>
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
       <c r="L327" s="1"/>
@@ -11400,16 +11419,16 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
-      <c r="E328" s="1"/>
-      <c r="F328" s="1"/>
-      <c r="G328" s="1"/>
-      <c r="H328" s="1"/>
-      <c r="I328" s="1"/>
+      <c r="E328" s="39"/>
+      <c r="F328" s="35"/>
+      <c r="G328" s="79"/>
+      <c r="H328" s="79"/>
+      <c r="I328" s="79"/>
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
       <c r="L328" s="1"/>
@@ -11417,16 +11436,12 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
-      <c r="C329" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E329" s="2"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
@@ -11438,13 +11453,17 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
-      <c r="B330" s="4"/>
-      <c r="C330" s="4"/>
-      <c r="D330" s="4"/>
-      <c r="E330" s="5"/>
-      <c r="F330" s="4"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E330" s="2"/>
+      <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
@@ -11455,26 +11474,16 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A331" s="83"/>
-      <c r="B331" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C331" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D331" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E331" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F331" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G331" s="87"/>
-      <c r="H331" s="95"/>
-      <c r="I331" s="95"/>
+    <row r="331" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1"/>
+      <c r="B331" s="4"/>
+      <c r="C331" s="4"/>
+      <c r="D331" s="4"/>
+      <c r="E331" s="5"/>
+      <c r="F331" s="4"/>
+      <c r="G331" s="1"/>
+      <c r="H331" s="1"/>
+      <c r="I331" s="1"/>
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
       <c r="L331" s="1"/>
@@ -11482,27 +11491,25 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A332" s="83"/>
-      <c r="B332" s="115" t="s">
-        <v>13</v>
-      </c>
-      <c r="C332" s="106"/>
-      <c r="D332" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="E332" s="116">
-        <v>1</v>
-      </c>
-      <c r="F332" s="117">
-        <v>16</v>
-      </c>
-      <c r="G332" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="H332" s="92">
-        <v>45183</v>
-      </c>
+      <c r="B332" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E332" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F332" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G332" s="87"/>
+      <c r="H332" s="95"/>
       <c r="I332" s="95"/>
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
@@ -11511,25 +11518,27 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A333" s="83"/>
-      <c r="B333" s="12" t="s">
+      <c r="B333" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="C333" s="21"/>
-      <c r="D333" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="E333" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F333" s="21">
-        <v>6</v>
-      </c>
-      <c r="G333" s="92">
+      <c r="C333" s="106"/>
+      <c r="D333" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="E333" s="116">
+        <v>1</v>
+      </c>
+      <c r="F333" s="117">
+        <v>16</v>
+      </c>
+      <c r="G333" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="H333" s="92">
         <v>45183</v>
       </c>
-      <c r="H333" s="95"/>
       <c r="I333" s="95"/>
       <c r="J333" s="1"/>
       <c r="K333" s="1"/>
@@ -11538,14 +11547,24 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="83"/>
-      <c r="B334" s="21"/>
+      <c r="B334" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="C334" s="21"/>
-      <c r="D334" s="21"/>
-      <c r="E334" s="22"/>
-      <c r="F334" s="21"/>
-      <c r="G334" s="87"/>
+      <c r="D334" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E334" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F334" s="21">
+        <v>6</v>
+      </c>
+      <c r="G334" s="92">
+        <v>45183</v>
+      </c>
       <c r="H334" s="95"/>
       <c r="I334" s="95"/>
       <c r="J334" s="1"/>
@@ -11555,23 +11574,13 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="83"/>
-      <c r="B335" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C335" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="D335" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E335" s="22">
-        <v>1</v>
-      </c>
-      <c r="F335" s="30">
-        <v>0</v>
-      </c>
+      <c r="B335" s="21"/>
+      <c r="C335" s="21"/>
+      <c r="D335" s="21"/>
+      <c r="E335" s="22"/>
+      <c r="F335" s="21"/>
       <c r="G335" s="87"/>
       <c r="H335" s="95"/>
       <c r="I335" s="95"/>
@@ -11582,22 +11591,22 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="83"/>
       <c r="B336" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C336" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D336" s="21" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="E336" s="22">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F336" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G336" s="87"/>
       <c r="H336" s="95"/>
@@ -11609,15 +11618,25 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="83"/>
-      <c r="B337" s="103"/>
-      <c r="C337" s="21"/>
-      <c r="D337" s="21"/>
-      <c r="E337" s="22"/>
-      <c r="F337" s="105"/>
+      <c r="B337" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C337" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D337" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E337" s="22">
+        <v>8</v>
+      </c>
+      <c r="F337" s="30">
+        <v>1</v>
+      </c>
       <c r="G337" s="87"/>
-      <c r="H337" s="96"/>
+      <c r="H337" s="95"/>
       <c r="I337" s="95"/>
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
@@ -11626,29 +11645,15 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="83"/>
-      <c r="B338" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C338" s="107" t="s">
-        <v>264</v>
-      </c>
-      <c r="D338" s="107" t="s">
-        <v>303</v>
-      </c>
-      <c r="E338" s="108">
-        <v>22</v>
-      </c>
-      <c r="F338" s="105">
-        <v>0</v>
-      </c>
-      <c r="G338" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="H338" s="96">
-        <v>45155</v>
-      </c>
+      <c r="B338" s="103"/>
+      <c r="C338" s="21"/>
+      <c r="D338" s="21"/>
+      <c r="E338" s="22"/>
+      <c r="F338" s="105"/>
+      <c r="G338" s="87"/>
+      <c r="H338" s="96"/>
       <c r="I338" s="95"/>
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
@@ -11657,27 +11662,29 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="83"/>
-      <c r="B339" s="28" t="s">
+      <c r="B339" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C339" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="D339" s="21" t="s">
+      <c r="C339" s="107" t="s">
+        <v>264</v>
+      </c>
+      <c r="D339" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="E339" s="108">
         <v>22</v>
       </c>
-      <c r="E339" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F339" s="30">
-        <v>1</v>
-      </c>
-      <c r="G339" s="92">
+      <c r="F339" s="105">
+        <v>0</v>
+      </c>
+      <c r="G339" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="H339" s="96">
         <v>45155</v>
       </c>
-      <c r="H339" s="95"/>
       <c r="I339" s="95"/>
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
@@ -11686,24 +11693,26 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="83"/>
       <c r="B340" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C340" s="21" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="D340" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E340" s="22">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E340" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="F340" s="30">
-        <v>5</v>
-      </c>
-      <c r="G340" s="92"/>
+        <v>1</v>
+      </c>
+      <c r="G340" s="92">
+        <v>45155</v>
+      </c>
       <c r="H340" s="95"/>
       <c r="I340" s="95"/>
       <c r="J340" s="1"/>
@@ -11713,29 +11722,25 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="83"/>
-      <c r="B341" s="103" t="s">
+      <c r="B341" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C341" s="107" t="s">
-        <v>266</v>
-      </c>
-      <c r="D341" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="E341" s="108">
-        <v>1</v>
-      </c>
-      <c r="F341" s="105">
-        <v>0</v>
-      </c>
-      <c r="G341" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="H341" s="96">
-        <v>45155</v>
-      </c>
+      <c r="C341" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D341" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E341" s="22">
+        <v>19</v>
+      </c>
+      <c r="F341" s="30">
+        <v>5</v>
+      </c>
+      <c r="G341" s="92"/>
+      <c r="H341" s="95"/>
       <c r="I341" s="95"/>
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
@@ -11744,378 +11749,392 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="83"/>
-      <c r="B342" s="28" t="s">
+      <c r="B342" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C342" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="D342" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E342" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F342" s="30">
+      <c r="C342" s="107" t="s">
+        <v>266</v>
+      </c>
+      <c r="D342" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="E342" s="108">
         <v>1</v>
       </c>
-      <c r="G342" s="92">
+      <c r="F342" s="105">
+        <v>0</v>
+      </c>
+      <c r="G342" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="H342" s="96">
         <v>45155</v>
       </c>
-      <c r="H342" s="96"/>
       <c r="I342" s="95"/>
       <c r="J342" s="1"/>
+      <c r="K342" s="1"/>
+      <c r="L342" s="1"/>
+      <c r="M342" s="1"/>
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="83"/>
       <c r="B343" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C343" s="21" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D343" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="E343" s="22">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="E343" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="F343" s="30">
-        <v>8</v>
-      </c>
-      <c r="G343" s="87"/>
-      <c r="H343" s="95"/>
+        <v>1</v>
+      </c>
+      <c r="G343" s="92">
+        <v>45155</v>
+      </c>
+      <c r="H343" s="96"/>
       <c r="I343" s="95"/>
       <c r="J343" s="1"/>
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="83"/>
       <c r="B344" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C344" s="21" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="E344" s="22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F344" s="30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G344" s="87"/>
-      <c r="H344" s="96"/>
+      <c r="H344" s="95"/>
       <c r="I344" s="95"/>
       <c r="J344" s="1"/>
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="83"/>
-      <c r="B345" s="103" t="s">
+      <c r="B345" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C345" s="107" t="s">
-        <v>272</v>
-      </c>
-      <c r="D345" s="107" t="s">
-        <v>100</v>
-      </c>
-      <c r="E345" s="108">
-        <v>1</v>
-      </c>
-      <c r="F345" s="105">
-        <v>0</v>
-      </c>
-      <c r="G345" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="H345" s="96">
-        <v>45190</v>
-      </c>
+      <c r="C345" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D345" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E345" s="22">
+        <v>20</v>
+      </c>
+      <c r="F345" s="30">
+        <v>6</v>
+      </c>
+      <c r="G345" s="87"/>
+      <c r="H345" s="96"/>
       <c r="I345" s="95"/>
       <c r="J345" s="1"/>
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="83"/>
-      <c r="B346" s="28" t="s">
+      <c r="B346" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C346" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="D346" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="E346" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F346" s="30">
+      <c r="C346" s="107" t="s">
+        <v>272</v>
+      </c>
+      <c r="D346" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="E346" s="108">
+        <v>1</v>
+      </c>
+      <c r="F346" s="105">
         <v>0</v>
       </c>
-      <c r="G346" s="92">
+      <c r="G346" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="H346" s="96">
         <v>45190</v>
       </c>
-      <c r="H346" s="96"/>
       <c r="I346" s="95"/>
       <c r="J346" s="1"/>
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="83"/>
-      <c r="B347" s="103" t="s">
+      <c r="B347" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C347" s="107" t="s">
-        <v>269</v>
-      </c>
-      <c r="D347" s="107" t="s">
-        <v>271</v>
-      </c>
-      <c r="E347" s="108">
-        <v>3</v>
-      </c>
-      <c r="F347" s="105">
+      <c r="C347" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D347" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E347" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F347" s="30">
         <v>0</v>
       </c>
-      <c r="G347" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="H347" s="96">
-        <v>45197</v>
-      </c>
+      <c r="G347" s="92">
+        <v>45190</v>
+      </c>
+      <c r="H347" s="96"/>
       <c r="I347" s="95"/>
       <c r="J347" s="1"/>
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="83"/>
-      <c r="B348" s="28" t="s">
+      <c r="B348" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C348" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="D348" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E348" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F348" s="30">
+      <c r="C348" s="107" t="s">
+        <v>269</v>
+      </c>
+      <c r="D348" s="107" t="s">
+        <v>271</v>
+      </c>
+      <c r="E348" s="108">
+        <v>3</v>
+      </c>
+      <c r="F348" s="105">
         <v>0</v>
       </c>
-      <c r="G348" s="92">
+      <c r="G348" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="H348" s="96">
         <v>45197</v>
       </c>
-      <c r="H348" s="95"/>
       <c r="I348" s="95"/>
       <c r="J348" s="1"/>
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="83"/>
       <c r="B349" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C349" s="21" t="s">
-        <v>270</v>
+        <v>328</v>
       </c>
       <c r="D349" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E349" s="22">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="E349" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="F349" s="30">
         <v>0</v>
       </c>
-      <c r="G349" s="87"/>
-      <c r="H349" s="96"/>
+      <c r="G349" s="92">
+        <v>45197</v>
+      </c>
+      <c r="H349" s="95"/>
       <c r="I349" s="95"/>
       <c r="J349" s="1"/>
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="83"/>
-      <c r="B350" s="28"/>
-      <c r="C350" s="21"/>
-      <c r="D350" s="21"/>
-      <c r="E350" s="22"/>
-      <c r="F350" s="30"/>
-      <c r="G350" s="92"/>
-      <c r="H350" s="95"/>
+      <c r="B350" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C350" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="D350" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E350" s="22">
+        <v>2</v>
+      </c>
+      <c r="F350" s="30">
+        <v>0</v>
+      </c>
+      <c r="G350" s="87"/>
+      <c r="H350" s="96"/>
       <c r="I350" s="95"/>
       <c r="J350" s="1"/>
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="83"/>
-      <c r="B351" s="103"/>
-      <c r="C351" s="107"/>
-      <c r="D351" s="107"/>
-      <c r="E351" s="108"/>
-      <c r="F351" s="105"/>
-      <c r="G351" s="87"/>
-      <c r="H351" s="96"/>
+      <c r="B351" s="28"/>
+      <c r="C351" s="21"/>
+      <c r="D351" s="21"/>
+      <c r="E351" s="22"/>
+      <c r="F351" s="30"/>
+      <c r="G351" s="92"/>
+      <c r="H351" s="95"/>
       <c r="I351" s="95"/>
       <c r="J351" s="1"/>
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="352" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="83"/>
-      <c r="B352" s="21"/>
-      <c r="C352" s="21"/>
-      <c r="D352" s="21"/>
-      <c r="E352" s="22"/>
-      <c r="F352" s="21"/>
-      <c r="G352" s="92"/>
-      <c r="H352" s="95"/>
+      <c r="B352" s="103"/>
+      <c r="C352" s="107"/>
+      <c r="D352" s="107"/>
+      <c r="E352" s="108"/>
+      <c r="F352" s="105"/>
+      <c r="G352" s="87"/>
+      <c r="H352" s="96"/>
       <c r="I352" s="95"/>
       <c r="J352" s="1"/>
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
     </row>
-    <row r="353" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="1"/>
-      <c r="B353" s="35"/>
-      <c r="C353" s="35"/>
-      <c r="D353" s="36"/>
-      <c r="E353" s="37">
-        <f>SUM(E332:E352)</f>
-        <v>100</v>
-      </c>
-      <c r="F353" s="38">
-        <f>SUM(F335:F352)-SUM(F332:F334)</f>
-        <v>0</v>
-      </c>
-      <c r="G353" s="87"/>
+    <row r="353" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="83"/>
+      <c r="B353" s="21"/>
+      <c r="C353" s="21"/>
+      <c r="D353" s="21"/>
+      <c r="E353" s="22"/>
+      <c r="F353" s="21"/>
+      <c r="G353" s="92"/>
       <c r="H353" s="95"/>
       <c r="I353" s="95"/>
       <c r="J353" s="1"/>
       <c r="N353" s="1"/>
       <c r="O353" s="1"/>
     </row>
-    <row r="354" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
-      <c r="B354" s="1"/>
-      <c r="C354" s="1"/>
-      <c r="D354" s="1"/>
-      <c r="E354" s="39"/>
-      <c r="F354" s="35"/>
-      <c r="G354" s="1"/>
-      <c r="H354" s="1"/>
-      <c r="I354" s="1"/>
+      <c r="B354" s="35"/>
+      <c r="C354" s="35"/>
+      <c r="D354" s="36"/>
+      <c r="E354" s="37">
+        <f>SUM(E333:E353)</f>
+        <v>100</v>
+      </c>
+      <c r="F354" s="38">
+        <f>SUM(F336:F353)-SUM(F333:F335)</f>
+        <v>0</v>
+      </c>
+      <c r="G354" s="87"/>
+      <c r="H354" s="95"/>
+      <c r="I354" s="95"/>
       <c r="J354" s="1"/>
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
     </row>
-    <row r="356" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B356" s="1"/>
-      <c r="C356" s="1" t="s">
+    <row r="355" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="39"/>
+      <c r="F355" s="35"/>
+      <c r="G355" s="1"/>
+      <c r="H355" s="1"/>
+      <c r="I355" s="1"/>
+      <c r="J355" s="1"/>
+      <c r="N355" s="1"/>
+      <c r="O355" s="1"/>
+    </row>
+    <row r="357" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B357" s="1"/>
+      <c r="C357" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D356" s="1" t="s">
+      <c r="D357" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E356" s="2"/>
-      <c r="F356" s="1"/>
-    </row>
-    <row r="357" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B357" s="4"/>
-      <c r="C357" s="4"/>
-      <c r="D357" s="4"/>
-      <c r="E357" s="5"/>
-      <c r="F357" s="4"/>
-    </row>
-    <row r="358" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B358" s="6" t="s">
+      <c r="E357" s="2"/>
+      <c r="F357" s="1"/>
+    </row>
+    <row r="358" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B358" s="4"/>
+      <c r="C358" s="4"/>
+      <c r="D358" s="4"/>
+      <c r="E358" s="5"/>
+      <c r="F358" s="4"/>
+    </row>
+    <row r="359" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B359" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C358" s="6" t="s">
+      <c r="C359" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D358" s="6" t="s">
+      <c r="D359" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E358" s="6" t="s">
+      <c r="E359" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F358" s="6" t="s">
+      <c r="F359" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B359" s="12" t="s">
+    <row r="360" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B360" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C359" s="13"/>
-      <c r="D359" s="13" t="s">
+      <c r="C360" s="13"/>
+      <c r="D360" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E359" s="40">
+      <c r="E360" s="40">
         <v>1</v>
       </c>
-      <c r="F359" s="15">
+      <c r="F360" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B360" s="21"/>
-      <c r="C360" s="21"/>
-      <c r="D360" s="21"/>
-      <c r="E360" s="22"/>
-      <c r="F360" s="21"/>
-    </row>
-    <row r="361" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="21"/>
       <c r="C361" s="21"/>
       <c r="D361" s="21"/>
       <c r="E361" s="22"/>
       <c r="F361" s="21"/>
     </row>
-    <row r="362" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B362" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C362" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="D362" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E362" s="22">
-        <v>1</v>
-      </c>
-      <c r="F362" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B362" s="21"/>
+      <c r="C362" s="21"/>
+      <c r="D362" s="21"/>
+      <c r="E362" s="22"/>
+      <c r="F362" s="21"/>
+    </row>
+    <row r="363" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B363" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C363" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D363" s="21" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E363" s="22">
         <v>1</v>
@@ -12124,56 +12143,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B364" s="103"/>
-      <c r="C364" s="107"/>
-      <c r="D364" s="107"/>
-      <c r="E364" s="108"/>
-      <c r="F364" s="105"/>
-    </row>
-    <row r="365" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B365" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C365" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="D365" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="E365" s="22">
+    <row r="364" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B364" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C364" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D364" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E364" s="22">
         <v>1</v>
       </c>
-      <c r="F365" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="366" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F364" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B365" s="103"/>
+      <c r="C365" s="107"/>
+      <c r="D365" s="107"/>
+      <c r="E365" s="108"/>
+      <c r="F365" s="105"/>
+    </row>
+    <row r="366" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C366" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D366" s="21" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="E366" s="22">
         <v>1</v>
       </c>
       <c r="F366" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C367" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D367" s="21" t="s">
-        <v>310</v>
+        <v>103</v>
       </c>
       <c r="E367" s="22">
         <v>1</v>
@@ -12182,150 +12201,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B368" s="28"/>
-      <c r="C368" s="21"/>
-      <c r="D368" s="21"/>
-      <c r="E368" s="22"/>
-      <c r="F368" s="30"/>
-    </row>
-    <row r="369" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B368" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C368" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D368" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="E368" s="22">
+        <v>1</v>
+      </c>
+      <c r="F368" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="28"/>
       <c r="C369" s="21"/>
       <c r="D369" s="21"/>
       <c r="E369" s="22"/>
       <c r="F369" s="30"/>
     </row>
-    <row r="370" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B370" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C370" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="D370" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="E370" s="22">
-        <v>50</v>
-      </c>
-      <c r="F370" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="371" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B370" s="28"/>
+      <c r="C370" s="21"/>
+      <c r="D370" s="21"/>
+      <c r="E370" s="22"/>
+      <c r="F370" s="30"/>
+    </row>
+    <row r="371" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C371" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D371" s="21" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="E371" s="22">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F371" s="30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="372" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C372" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D372" s="21" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="E372" s="22">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F372" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C373" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D373" s="21" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="E373" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F373" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="374" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C374" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D374" s="21" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E374" s="22">
         <v>1</v>
       </c>
       <c r="F374" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B375" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C375" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D375" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E375" s="22">
+        <v>1</v>
+      </c>
+      <c r="F375" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B375" s="28"/>
-      <c r="C375" s="21"/>
-      <c r="D375" s="21"/>
-      <c r="E375" s="22"/>
-      <c r="F375" s="30"/>
-    </row>
-    <row r="376" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B376" s="103"/>
-      <c r="C376" s="107"/>
-      <c r="D376" s="107"/>
-      <c r="E376" s="108"/>
-      <c r="F376" s="105"/>
-    </row>
-    <row r="377" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B377" s="28"/>
-      <c r="C377" s="21"/>
-      <c r="D377" s="21"/>
-      <c r="E377" s="22"/>
-      <c r="F377" s="30"/>
-    </row>
-    <row r="378" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B378" s="103"/>
-      <c r="C378" s="107"/>
-      <c r="D378" s="107"/>
-      <c r="E378" s="108"/>
-      <c r="F378" s="105"/>
-    </row>
-    <row r="379" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B379" s="21"/>
-      <c r="C379" s="21"/>
-      <c r="D379" s="21"/>
-      <c r="E379" s="22"/>
-      <c r="F379" s="21"/>
-    </row>
-    <row r="380" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B380" s="35"/>
-      <c r="C380" s="35"/>
-      <c r="D380" s="36"/>
-      <c r="E380" s="37">
-        <f>SUM(E359:E379)</f>
+    <row r="376" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B376" s="28"/>
+      <c r="C376" s="21"/>
+      <c r="D376" s="21"/>
+      <c r="E376" s="22"/>
+      <c r="F376" s="30"/>
+    </row>
+    <row r="377" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B377" s="103"/>
+      <c r="C377" s="107"/>
+      <c r="D377" s="107"/>
+      <c r="E377" s="108"/>
+      <c r="F377" s="105"/>
+    </row>
+    <row r="378" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B378" s="28"/>
+      <c r="C378" s="21"/>
+      <c r="D378" s="21"/>
+      <c r="E378" s="22"/>
+      <c r="F378" s="30"/>
+    </row>
+    <row r="379" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B379" s="103"/>
+      <c r="C379" s="107"/>
+      <c r="D379" s="107"/>
+      <c r="E379" s="108"/>
+      <c r="F379" s="105"/>
+    </row>
+    <row r="380" spans="2:6" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B380" s="21"/>
+      <c r="C380" s="21"/>
+      <c r="D380" s="21"/>
+      <c r="E380" s="22"/>
+      <c r="F380" s="21"/>
+    </row>
+    <row r="381" spans="2:6" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B381" s="35"/>
+      <c r="C381" s="35"/>
+      <c r="D381" s="36"/>
+      <c r="E381" s="37">
+        <f>SUM(E360:E380)</f>
         <v>98</v>
       </c>
-      <c r="F380" s="38">
-        <f>SUM(F362:F379)-SUM(F359:F361)</f>
+      <c r="F381" s="38">
+        <f>SUM(F363:F380)-SUM(F360:F362)</f>
         <v>17</v>
       </c>
     </row>
@@ -12367,18 +12403,18 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.296875" style="41" customWidth="1"/>
-    <col min="2" max="2" width="11.796875" style="41" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="41" customWidth="1"/>
     <col min="3" max="3" width="31" style="41" customWidth="1"/>
-    <col min="4" max="4" width="35.296875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="41" customWidth="1"/>
     <col min="5" max="6" width="9" style="41" customWidth="1"/>
     <col min="7" max="7" width="11" style="41" customWidth="1"/>
     <col min="8" max="256" width="9" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -12395,7 +12431,7 @@
       </c>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -12410,7 +12446,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -12423,7 +12459,7 @@
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -12438,7 +12474,7 @@
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
     </row>
-    <row r="5" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -12451,7 +12487,7 @@
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
     </row>
-    <row r="6" spans="1:11" ht="14.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
       <c r="B6" s="51" t="s">
         <v>3</v>
@@ -12476,7 +12512,7 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50"/>
       <c r="B7" s="57">
         <v>1</v>
@@ -12501,7 +12537,7 @@
       <c r="J7" s="44"/>
       <c r="K7" s="56"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
       <c r="B8" s="57">
         <v>2</v>
@@ -12526,7 +12562,7 @@
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="50"/>
       <c r="B9" s="57">
         <v>3</v>
@@ -12551,7 +12587,7 @@
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50"/>
       <c r="B10" s="57">
         <v>4</v>
@@ -12576,7 +12612,7 @@
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
       <c r="B11" s="57">
         <v>5</v>
@@ -12601,7 +12637,7 @@
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50"/>
       <c r="B12" s="57">
         <v>6</v>
@@ -12626,7 +12662,7 @@
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="50"/>
       <c r="B13" s="57">
         <v>7</v>
@@ -12651,7 +12687,7 @@
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="50"/>
       <c r="B14" s="57">
         <v>8</v>
@@ -12676,7 +12712,7 @@
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="50"/>
       <c r="B15" s="57">
         <v>9</v>
@@ -12701,7 +12737,7 @@
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="50"/>
       <c r="B16" s="57">
         <v>10</v>
@@ -12726,7 +12762,7 @@
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
       <c r="B17" s="57">
         <v>11</v>
@@ -12751,7 +12787,7 @@
       <c r="J17" s="44"/>
       <c r="K17" s="44"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="50"/>
       <c r="B18" s="57">
         <v>12</v>
@@ -12776,7 +12812,7 @@
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="B19" s="57">
         <v>13</v>
@@ -12801,7 +12837,7 @@
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
     </row>
-    <row r="20" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
       <c r="B20" s="62">
         <v>14</v>
@@ -12826,7 +12862,7 @@
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
     </row>
-    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="43"/>
       <c r="B21" s="63"/>
       <c r="C21" s="63"/>
@@ -12839,7 +12875,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -12873,17 +12909,17 @@
       <selection activeCell="A24" sqref="A24:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.296875" style="41" customWidth="1"/>
-    <col min="3" max="3" width="10.19921875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="9.296875" style="41" customWidth="1"/>
-    <col min="5" max="5" width="31.296875" style="41" customWidth="1"/>
-    <col min="6" max="7" width="9.296875" style="41" customWidth="1"/>
-    <col min="8" max="257" width="8.796875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="41" customWidth="1"/>
+    <col min="6" max="7" width="9.33203125" style="41" customWidth="1"/>
+    <col min="8" max="257" width="8.83203125" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="66" t="s">
         <v>117</v>
       </c>
@@ -12893,7 +12929,7 @@
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -12901,7 +12937,7 @@
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="67" t="s">
         <v>54</v>
       </c>
@@ -12911,7 +12947,7 @@
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="71" t="s">
         <v>61</v>
       </c>
@@ -12934,7 +12970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="71" t="s">
         <v>62</v>
       </c>
@@ -12957,7 +12993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="71" t="s">
         <v>63</v>
       </c>
@@ -12980,7 +13016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="71" t="s">
         <v>64</v>
       </c>
@@ -13003,7 +13039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="71" t="s">
         <v>65</v>
       </c>
@@ -13026,7 +13062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="71"/>
       <c r="B9" s="69"/>
       <c r="C9" s="69"/>
@@ -13035,7 +13071,7 @@
       <c r="F9" s="43"/>
       <c r="G9" s="65"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="67" t="s">
         <v>93</v>
       </c>
@@ -13045,7 +13081,7 @@
       <c r="F10" s="43"/>
       <c r="G10" s="65"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="71" t="s">
         <v>66</v>
       </c>
@@ -13068,7 +13104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="71" t="s">
         <v>67</v>
       </c>
@@ -13091,7 +13127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="71" t="s">
         <v>68</v>
       </c>
@@ -13114,7 +13150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="71" t="s">
         <v>69</v>
       </c>
@@ -13137,7 +13173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="69"/>
       <c r="C15" s="68"/>
       <c r="D15" s="43"/>
@@ -13145,7 +13181,7 @@
       <c r="F15" s="70"/>
       <c r="G15" s="43"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="67" t="s">
         <v>150</v>
       </c>
@@ -13155,7 +13191,7 @@
       <c r="F16" s="70"/>
       <c r="G16" s="43"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -13178,7 +13214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="69"/>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
@@ -13186,7 +13222,7 @@
       <c r="F18" s="70"/>
       <c r="G18" s="43"/>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="69"/>
       <c r="C19" s="68"/>
       <c r="D19" s="43"/>
@@ -13194,7 +13230,7 @@
       <c r="F19" s="70"/>
       <c r="G19" s="43"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="67" t="s">
         <v>55</v>
       </c>
@@ -13204,7 +13240,7 @@
       <c r="F20" s="70"/>
       <c r="G20" s="43"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="71" t="s">
         <v>129</v>
       </c>
@@ -13227,7 +13263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="71" t="s">
         <v>130</v>
       </c>
@@ -13250,7 +13286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="69"/>
       <c r="C23" s="69"/>
       <c r="D23" s="68"/>
@@ -13258,7 +13294,7 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="67" t="s">
         <v>56</v>
       </c>
@@ -13268,7 +13304,7 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="71" t="s">
         <v>151</v>
       </c>
@@ -13291,7 +13327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
       <c r="D26" s="68"/>
@@ -13299,7 +13335,7 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="67" t="s">
         <v>57</v>
       </c>
@@ -13310,7 +13346,7 @@
       <c r="G27" s="43"/>
       <c r="K27" s="109"/>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="69" t="s">
         <v>86</v>
       </c>

--- a/data/DreamLeague23-24.xlsx
+++ b/data/DreamLeague23-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\dreamleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDE2840-75AB-49FD-B097-C5764EE31C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2305AB82-3D6D-483D-A04A-A3D442688D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="345">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1063,6 +1063,12 @@
   </si>
   <si>
     <t>NATHAN BROADHEAD</t>
+  </si>
+  <si>
+    <t>MICHAEL MELLON</t>
+  </si>
+  <si>
+    <t>BURNLEY</t>
   </si>
 </sst>
 </file>
@@ -3005,7 +3011,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -3017,36 +3023,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IX381"/>
+  <dimension ref="A1:IX382"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A294" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K325" sqref="K325"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A114" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129:F129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="81" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" style="81" customWidth="1"/>
     <col min="2" max="2" width="16" style="81" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" style="81" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" style="81" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="81" customWidth="1"/>
+    <col min="3" max="3" width="39.296875" style="81" customWidth="1"/>
+    <col min="4" max="4" width="32.796875" style="81" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" style="81" customWidth="1"/>
     <col min="6" max="6" width="17" style="81" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" style="81" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="81" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="81" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.33203125" style="81" customWidth="1"/>
+    <col min="7" max="8" width="11.296875" style="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.69921875" style="81" customWidth="1"/>
+    <col min="10" max="10" width="7.19921875" style="81" customWidth="1"/>
+    <col min="11" max="11" width="25.69921875" style="81" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.296875" style="81" customWidth="1"/>
     <col min="13" max="14" width="12" style="81" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="81" customWidth="1"/>
+    <col min="15" max="15" width="10.296875" style="81" customWidth="1"/>
     <col min="16" max="17" width="9" style="81" customWidth="1"/>
-    <col min="18" max="18" width="32.33203125" style="81" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.296875" style="81" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="9" style="81" customWidth="1"/>
-    <col min="22" max="22" width="30.1640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.19921875" style="81" bestFit="1" customWidth="1"/>
     <col min="23" max="258" width="9" style="81" customWidth="1"/>
     <col min="259" max="16384" width="9" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3065,7 +3071,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -3086,7 +3092,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3103,7 +3109,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="83"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -3147,7 +3153,7 @@
       <c r="U4" s="122"/>
       <c r="V4" s="122"/>
     </row>
-    <row r="5" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="83"/>
       <c r="B5" s="115" t="s">
         <v>13</v>
@@ -3208,7 +3214,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
       <c r="B6" s="12" t="s">
         <v>13</v>
@@ -3267,7 +3273,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3316,7 +3322,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
       <c r="B8" s="28" t="s">
         <v>15</v>
@@ -3357,7 +3363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
       <c r="B9" s="28" t="s">
         <v>15</v>
@@ -3391,7 +3397,7 @@
         <v>22</v>
       </c>
       <c r="N9" s="77">
-        <f>SUM(F118:F136)</f>
+        <f>SUM(F118:F137)</f>
         <v>40</v>
       </c>
       <c r="O9" s="78">
@@ -3399,7 +3405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
       <c r="B10" s="103"/>
       <c r="C10" s="28"/>
@@ -3411,11 +3417,11 @@
       <c r="I10" s="89"/>
       <c r="J10" s="86"/>
       <c r="K10" s="23" t="str">
-        <f>D140</f>
+        <f>D141</f>
         <v>MARK WHITTLE</v>
       </c>
       <c r="L10" s="24" t="str">
-        <f>C140</f>
+        <f>C141</f>
         <v>RASH IN THE ATTIC</v>
       </c>
       <c r="M10" s="25">
@@ -3423,11 +3429,11 @@
         <v>18</v>
       </c>
       <c r="N10" s="26">
-        <f>SUM(F146:F163)</f>
+        <f>SUM(F147:F164)</f>
         <v>31</v>
       </c>
       <c r="O10" s="27">
-        <f>SUM(F143:F145)</f>
+        <f>SUM(F144:F146)</f>
         <v>13</v>
       </c>
       <c r="R10" s="122" t="s">
@@ -3438,7 +3444,7 @@
       <c r="U10" s="122"/>
       <c r="V10" s="122"/>
     </row>
-    <row r="11" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
       <c r="B11" s="103" t="s">
         <v>18</v>
@@ -3464,11 +3470,11 @@
       <c r="I11" s="110"/>
       <c r="J11" s="86"/>
       <c r="K11" s="23" t="str">
-        <f>D167</f>
+        <f>D168</f>
         <v>RICHARD KILPATRICK</v>
       </c>
       <c r="L11" s="24" t="str">
-        <f>C167</f>
+        <f>C168</f>
         <v>ERIMUS</v>
       </c>
       <c r="M11" s="25">
@@ -3476,11 +3482,11 @@
         <v>13</v>
       </c>
       <c r="N11" s="26">
-        <f>SUM(F173:F190)</f>
+        <f>SUM(F174:F191)</f>
         <v>22</v>
       </c>
       <c r="O11" s="27">
-        <f>SUM(F170:F172)</f>
+        <f>SUM(F171:F173)</f>
         <v>9</v>
       </c>
       <c r="R11" s="81" t="s">
@@ -3494,14 +3500,14 @@
         <v>286</v>
       </c>
       <c r="U11" s="114">
-        <f>SUM(F230:F234)</f>
+        <f>SUM(F231:F235)</f>
         <v>6</v>
       </c>
       <c r="V11" s="81" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
       <c r="B12" s="28" t="s">
         <v>18</v>
@@ -3525,11 +3531,11 @@
       <c r="I12" s="110"/>
       <c r="J12" s="86"/>
       <c r="K12" s="75" t="str">
-        <f>D194</f>
+        <f>D195</f>
         <v>CHRIS DUFFY</v>
       </c>
       <c r="L12" s="76" t="str">
-        <f>C194</f>
+        <f>C195</f>
         <v>NUTMEG UTD</v>
       </c>
       <c r="M12" s="25">
@@ -3537,15 +3543,15 @@
         <v>5</v>
       </c>
       <c r="N12" s="77">
-        <f>SUM(F200:F217)</f>
+        <f>SUM(F201:F218)</f>
         <v>14</v>
       </c>
       <c r="O12" s="78">
-        <f>SUM(F197:F199)</f>
+        <f>SUM(F198:F200)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
       <c r="B13" s="28" t="s">
         <v>18</v>
@@ -3567,11 +3573,11 @@
       <c r="I13" s="110"/>
       <c r="J13" s="86"/>
       <c r="K13" s="75" t="str">
-        <f>D221</f>
+        <f>D222</f>
         <v>SEB BATE</v>
       </c>
       <c r="L13" s="76" t="str">
-        <f>C221</f>
+        <f>C222</f>
         <v>MICHU IN DE GEA BAR</v>
       </c>
       <c r="M13" s="25">
@@ -3579,11 +3585,11 @@
         <v>11</v>
       </c>
       <c r="N13" s="77">
-        <f>SUM(F227:F244)</f>
+        <f>SUM(F228:F245)</f>
         <v>27</v>
       </c>
       <c r="O13" s="78">
-        <f>SUM(F224:F226)</f>
+        <f>SUM(F225:F227)</f>
         <v>16</v>
       </c>
       <c r="R13" s="122" t="s">
@@ -3594,7 +3600,7 @@
       <c r="U13" s="122"/>
       <c r="V13" s="122"/>
     </row>
-    <row r="14" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
       <c r="B14" s="103" t="s">
         <v>18</v>
@@ -3620,11 +3626,11 @@
       <c r="I14" s="110"/>
       <c r="J14" s="83"/>
       <c r="K14" s="75" t="str">
-        <f>D248</f>
+        <f>D249</f>
         <v>SAM HARPER</v>
       </c>
       <c r="L14" s="76" t="str">
-        <f>C248</f>
+        <f>C249</f>
         <v>ONE AND A HALF A HARPER FC</v>
       </c>
       <c r="M14" s="25">
@@ -3632,11 +3638,11 @@
         <v>9</v>
       </c>
       <c r="N14" s="77">
-        <f>SUM(F254:F271)</f>
+        <f>SUM(F255:F272)</f>
         <v>24</v>
       </c>
       <c r="O14" s="78">
-        <f>SUM(F251:F253)</f>
+        <f>SUM(F252:F254)</f>
         <v>15</v>
       </c>
       <c r="R14" s="81" t="s">
@@ -3657,7 +3663,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
       <c r="B15" s="28" t="s">
         <v>18</v>
@@ -3681,11 +3687,11 @@
       <c r="I15" s="110"/>
       <c r="J15" s="86"/>
       <c r="K15" s="31" t="str">
-        <f>D275</f>
+        <f>D276</f>
         <v>TAMIKO JELENJE</v>
       </c>
       <c r="L15" s="32" t="str">
-        <f>C275</f>
+        <f>C276</f>
         <v>DREAMVILLE</v>
       </c>
       <c r="M15" s="25">
@@ -3693,11 +3699,11 @@
         <v>13</v>
       </c>
       <c r="N15" s="26">
-        <f>SUM(F280:F298)</f>
+        <f>SUM(F281:F299)</f>
         <v>21</v>
       </c>
       <c r="O15" s="27">
-        <f>SUM(F278:F279)</f>
+        <f>SUM(F279:F280)</f>
         <v>8</v>
       </c>
       <c r="R15" s="81" t="s">
@@ -3707,7 +3713,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
       <c r="B16" s="28" t="s">
         <v>19</v>
@@ -3729,11 +3735,11 @@
       <c r="I16" s="110"/>
       <c r="J16" s="86"/>
       <c r="K16" s="31" t="str">
-        <f>D302</f>
+        <f>D303</f>
         <v>CHRIS MCD, JIMBO &amp; ADG</v>
       </c>
       <c r="L16" s="32" t="str">
-        <f>C302</f>
+        <f>C303</f>
         <v>TIKI TAKA FC</v>
       </c>
       <c r="M16" s="25">
@@ -3741,15 +3747,15 @@
         <v>22</v>
       </c>
       <c r="N16" s="26">
-        <f>SUM(F308:F326)</f>
+        <f>SUM(F309:F327)</f>
         <v>33</v>
       </c>
       <c r="O16" s="27">
-        <f>SUM(F305:F307)</f>
+        <f>SUM(F306:F308)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
       <c r="B17" s="103" t="s">
         <v>19</v>
@@ -3775,11 +3781,11 @@
       <c r="I17" s="110"/>
       <c r="J17" s="86"/>
       <c r="K17" s="31" t="str">
-        <f>D330</f>
+        <f>D331</f>
         <v>JAMIE DUGGAN</v>
       </c>
       <c r="L17" s="32" t="str">
-        <f>C330</f>
+        <f>C331</f>
         <v>DUGGAN'S DREAMERS</v>
       </c>
       <c r="M17" s="25">
@@ -3787,11 +3793,11 @@
         <v>0</v>
       </c>
       <c r="N17" s="26">
-        <f>SUM(F336:F353)</f>
+        <f>SUM(F337:F354)</f>
         <v>22</v>
       </c>
       <c r="O17" s="27">
-        <f>SUM(F333:F335)</f>
+        <f>SUM(F334:F336)</f>
         <v>22</v>
       </c>
       <c r="R17" s="122" t="s">
@@ -3802,7 +3808,7 @@
       <c r="U17" s="122"/>
       <c r="V17" s="122"/>
     </row>
-    <row r="18" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="83"/>
       <c r="B18" s="103" t="s">
         <v>19</v>
@@ -3828,11 +3834,11 @@
       <c r="I18" s="110"/>
       <c r="J18" s="86"/>
       <c r="K18" s="31" t="str">
-        <f>D357</f>
+        <f>D358</f>
         <v>CHARLIE REED</v>
       </c>
       <c r="L18" s="32" t="str">
-        <f>C357</f>
+        <f>C358</f>
         <v>CHARLIE'S ANGELS</v>
       </c>
       <c r="M18" s="25">
@@ -3840,11 +3846,11 @@
         <v>17</v>
       </c>
       <c r="N18" s="26">
-        <f>SUM(F363:F380)</f>
+        <f>SUM(F364:F381)</f>
         <v>27</v>
       </c>
       <c r="O18" s="27">
-        <f>SUM(F360:F362)</f>
+        <f>SUM(F361:F363)</f>
         <v>10</v>
       </c>
       <c r="R18" s="81" t="s">
@@ -3865,7 +3871,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
       <c r="B19" s="103" t="s">
         <v>19</v>
@@ -3896,7 +3902,7 @@
       <c r="N19" s="93"/>
       <c r="O19" s="93"/>
     </row>
-    <row r="20" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
       <c r="B20" s="28" t="s">
         <v>19</v>
@@ -3932,7 +3938,7 @@
       <c r="U20" s="122"/>
       <c r="V20" s="122"/>
     </row>
-    <row r="21" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
       <c r="B21" s="28" t="s">
         <v>19</v>
@@ -3978,7 +3984,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
       <c r="B22" s="103" t="s">
         <v>19</v>
@@ -4015,7 +4021,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="83"/>
       <c r="B23" s="103" t="s">
         <v>19</v>
@@ -4046,7 +4052,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="83"/>
       <c r="B24" s="28" t="s">
         <v>19</v>
@@ -4082,7 +4088,7 @@
       <c r="U24" s="122"/>
       <c r="V24" s="122"/>
     </row>
-    <row r="25" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="83"/>
       <c r="B25" s="28" t="s">
         <v>19</v>
@@ -4126,7 +4132,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -4155,7 +4161,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4172,7 +4178,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4196,7 +4202,7 @@
       <c r="U28" s="122"/>
       <c r="V28" s="122"/>
     </row>
-    <row r="29" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
@@ -4220,11 +4226,11 @@
         <v>42</v>
       </c>
       <c r="S29" s="81">
-        <f>SUM(F146:F148)</f>
+        <f>SUM(F147:F149)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4248,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="83"/>
       <c r="B31" s="6" t="s">
         <v>3</v>
@@ -4278,11 +4284,11 @@
         <v>75</v>
       </c>
       <c r="S31" s="81">
-        <f>SUM(F254:F256)</f>
+        <f>SUM(F255:F257)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="83"/>
       <c r="B32" s="12" t="s">
         <v>13</v>
@@ -4318,7 +4324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="83"/>
       <c r="B33" s="21" t="s">
         <v>13</v>
@@ -4352,7 +4358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="83"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -4376,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="83"/>
       <c r="B35" s="103" t="s">
         <v>15</v>
@@ -4410,11 +4416,11 @@
         <v>72</v>
       </c>
       <c r="S35" s="81">
-        <f>SUM(F200:F202)</f>
+        <f>SUM(F201:F203)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="83"/>
       <c r="B36" s="28" t="s">
         <v>15</v>
@@ -4443,7 +4449,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="83"/>
       <c r="B37" s="28" t="s">
         <v>15</v>
@@ -4473,11 +4479,11 @@
         <v>300</v>
       </c>
       <c r="S37" s="81">
-        <f>SUM(F308:F310)</f>
+        <f>SUM(F309:F311)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="83"/>
       <c r="B38" s="103"/>
       <c r="C38" s="28"/>
@@ -4494,7 +4500,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="83"/>
       <c r="B39" s="103" t="s">
         <v>18</v>
@@ -4532,7 +4538,7 @@
       <c r="U39" s="122"/>
       <c r="V39" s="122"/>
     </row>
-    <row r="40" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="83"/>
       <c r="B40" s="28" t="s">
         <v>18</v>
@@ -4566,7 +4572,7 @@
       <c r="U40" s="119"/>
       <c r="V40" s="119"/>
     </row>
-    <row r="41" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="83"/>
       <c r="B41" s="28" t="s">
         <v>18</v>
@@ -4603,7 +4609,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="83"/>
       <c r="B42" s="28" t="s">
         <v>18</v>
@@ -4640,7 +4646,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="83"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -4667,7 +4673,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="83"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -4694,7 +4700,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="83"/>
       <c r="B45" s="28" t="s">
         <v>19</v>
@@ -4731,7 +4737,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="83"/>
       <c r="B46" s="103" t="s">
         <v>19</v>
@@ -4772,7 +4778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="83"/>
       <c r="B47" s="103" t="s">
         <v>19</v>
@@ -4813,7 +4819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="83"/>
       <c r="B48" s="28" t="s">
         <v>19</v>
@@ -4852,7 +4858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="83"/>
       <c r="B49" s="28" t="s">
         <v>19</v>
@@ -4891,7 +4897,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="83"/>
       <c r="B50" s="103" t="s">
         <v>19</v>
@@ -4932,7 +4938,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="83"/>
       <c r="B51" s="28" t="s">
         <v>19</v>
@@ -4971,7 +4977,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="83"/>
       <c r="B52" s="28" t="s">
         <v>19</v>
@@ -5008,7 +5014,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="83"/>
       <c r="B53" s="103"/>
       <c r="C53" s="28"/>
@@ -5035,7 +5041,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="83"/>
       <c r="B54" s="21"/>
       <c r="C54" s="28"/>
@@ -5062,7 +5068,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="35"/>
       <c r="C55" s="35"/>
@@ -5095,7 +5101,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5122,7 +5128,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -5149,7 +5155,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="3" t="s">
@@ -5180,7 +5186,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -5207,7 +5213,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="83"/>
       <c r="B60" s="6" t="s">
         <v>3</v>
@@ -5244,7 +5250,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="83"/>
       <c r="B61" s="12" t="s">
         <v>13</v>
@@ -5279,7 +5285,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="83"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -5306,7 +5312,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="83"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -5333,7 +5339,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="83"/>
       <c r="B64" s="28" t="s">
         <v>15</v>
@@ -5370,7 +5376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="83"/>
       <c r="B65" s="28" t="s">
         <v>15</v>
@@ -5407,7 +5413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="83"/>
       <c r="B66" s="103"/>
       <c r="C66" s="21"/>
@@ -5434,7 +5440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="83"/>
       <c r="B67" s="28" t="s">
         <v>18</v>
@@ -5471,7 +5477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="83"/>
       <c r="B68" s="28" t="s">
         <v>18</v>
@@ -5508,7 +5514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="83"/>
       <c r="B69" s="28" t="s">
         <v>18</v>
@@ -5545,7 +5551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="83"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
@@ -5572,7 +5578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="83"/>
       <c r="B71" s="28"/>
       <c r="C71" s="21"/>
@@ -5599,7 +5605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="83"/>
       <c r="B72" s="28" t="s">
         <v>19</v>
@@ -5626,7 +5632,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="83"/>
       <c r="B73" s="28" t="s">
         <v>19</v>
@@ -5653,7 +5659,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="83"/>
       <c r="B74" s="28" t="s">
         <v>19</v>
@@ -5680,7 +5686,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="83"/>
       <c r="B75" s="103" t="s">
         <v>19</v>
@@ -5711,7 +5717,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="83"/>
       <c r="B76" s="28" t="s">
         <v>19</v>
@@ -5740,7 +5746,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="83"/>
       <c r="B77" s="28" t="s">
         <v>19</v>
@@ -5767,7 +5773,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="83"/>
       <c r="B78" s="103"/>
       <c r="C78" s="28"/>
@@ -5784,7 +5790,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="83"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
@@ -5801,7 +5807,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="83"/>
       <c r="B80" s="103"/>
       <c r="C80" s="28"/>
@@ -5818,7 +5824,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="83"/>
       <c r="B81" s="21"/>
       <c r="C81" s="28"/>
@@ -5835,7 +5841,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="35"/>
       <c r="C82" s="35"/>
@@ -5858,7 +5864,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -5875,7 +5881,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5892,7 +5898,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="3" t="s">
@@ -5913,7 +5919,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -5930,7 +5936,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="83"/>
       <c r="B87" s="6" t="s">
         <v>3</v>
@@ -5957,7 +5963,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="83"/>
       <c r="B88" s="12" t="s">
         <v>13</v>
@@ -5982,7 +5988,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="83"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -5999,7 +6005,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="83"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -6016,7 +6022,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="83"/>
       <c r="B91" s="28" t="s">
         <v>15</v>
@@ -6043,7 +6049,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="83"/>
       <c r="B92" s="28" t="s">
         <v>15</v>
@@ -6070,7 +6076,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="83"/>
       <c r="B93" s="103"/>
       <c r="C93" s="21"/>
@@ -6087,7 +6093,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="83"/>
       <c r="B94" s="28" t="s">
         <v>18</v>
@@ -6114,7 +6120,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="83"/>
       <c r="B95" s="28" t="s">
         <v>18</v>
@@ -6141,7 +6147,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="83"/>
       <c r="B96" s="28" t="s">
         <v>18</v>
@@ -6172,7 +6178,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="83"/>
       <c r="B97" s="28" t="s">
         <v>18</v>
@@ -6201,7 +6207,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="83"/>
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
@@ -6218,7 +6224,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="83"/>
       <c r="B99" s="103" t="s">
         <v>19</v>
@@ -6249,7 +6255,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="83"/>
       <c r="B100" s="28" t="s">
         <v>19</v>
@@ -6278,7 +6284,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="83"/>
       <c r="B101" s="103" t="s">
         <v>19</v>
@@ -6309,7 +6315,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="83"/>
       <c r="B102" s="28" t="s">
         <v>19</v>
@@ -6338,7 +6344,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="83"/>
       <c r="B103" s="28" t="s">
         <v>19</v>
@@ -6365,7 +6371,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="83"/>
       <c r="B104" s="28" t="s">
         <v>19</v>
@@ -6392,7 +6398,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="83"/>
       <c r="B105" s="28" t="s">
         <v>19</v>
@@ -6419,7 +6425,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="83"/>
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
@@ -6436,7 +6442,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="83"/>
       <c r="B107" s="103"/>
       <c r="C107" s="103"/>
@@ -6453,7 +6459,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="83"/>
       <c r="B108" s="21"/>
       <c r="C108" s="28"/>
@@ -6470,7 +6476,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="35"/>
       <c r="C109" s="35"/>
@@ -6493,7 +6499,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -6510,7 +6516,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -6527,7 +6533,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="3" t="s">
@@ -6548,7 +6554,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -6565,7 +6571,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="83"/>
       <c r="B114" s="6" t="s">
         <v>3</v>
@@ -6592,7 +6598,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="83"/>
       <c r="B115" s="12" t="s">
         <v>13</v>
@@ -6607,8 +6613,12 @@
       <c r="F115" s="15">
         <v>18</v>
       </c>
-      <c r="G115" s="84"/>
-      <c r="H115" s="99"/>
+      <c r="G115" s="84" t="s">
+        <v>285</v>
+      </c>
+      <c r="H115" s="99">
+        <v>45239</v>
+      </c>
       <c r="I115" s="99"/>
       <c r="J115" s="80"/>
       <c r="K115" s="1"/>
@@ -6617,14 +6627,24 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="83"/>
-      <c r="B116" s="21"/>
+      <c r="B116" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="C116" s="21"/>
-      <c r="D116" s="21"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="99"/>
+      <c r="D116" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F116" s="21">
+        <v>0</v>
+      </c>
+      <c r="G116" s="99">
+        <v>45239</v>
+      </c>
       <c r="H116" s="99"/>
       <c r="I116" s="95"/>
       <c r="J116" s="80"/>
@@ -6634,7 +6654,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="83"/>
       <c r="B117" s="21"/>
       <c r="C117" s="21"/>
@@ -6651,7 +6671,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="83"/>
       <c r="B118" s="28" t="s">
         <v>15</v>
@@ -6678,7 +6698,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="83"/>
       <c r="B119" s="28" t="s">
         <v>15</v>
@@ -6705,7 +6725,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="83"/>
       <c r="B120" s="103"/>
       <c r="C120" s="28"/>
@@ -6722,7 +6742,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="83"/>
       <c r="B121" s="28" t="s">
         <v>18</v>
@@ -6749,7 +6769,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="83"/>
       <c r="B122" s="28" t="s">
         <v>18</v>
@@ -6776,7 +6796,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="83"/>
       <c r="B123" s="103" t="s">
         <v>18</v>
@@ -6807,7 +6827,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="83"/>
       <c r="B124" s="28" t="s">
         <v>18</v>
@@ -6836,7 +6856,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="83"/>
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
@@ -6853,7 +6873,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="83"/>
       <c r="B126" s="28" t="s">
         <v>19</v>
@@ -6880,7 +6900,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="83"/>
       <c r="B127" s="28" t="s">
         <v>19</v>
@@ -6907,7 +6927,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="83"/>
       <c r="B128" s="103" t="s">
         <v>19</v>
@@ -6938,27 +6958,29 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="83"/>
-      <c r="B129" s="28" t="s">
+      <c r="B129" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C129" s="28" t="s">
+      <c r="C129" s="103" t="s">
         <v>332</v>
       </c>
-      <c r="D129" s="28" t="s">
+      <c r="D129" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="E129" s="29" t="s">
+      <c r="E129" s="104" t="s">
         <v>284</v>
       </c>
-      <c r="F129" s="30">
+      <c r="F129" s="105">
         <v>4</v>
       </c>
       <c r="G129" s="92">
         <v>45176</v>
       </c>
-      <c r="H129" s="96"/>
+      <c r="H129" s="96">
+        <v>45232</v>
+      </c>
       <c r="I129" s="95"/>
       <c r="J129" s="80"/>
       <c r="K129" s="1"/>
@@ -6967,24 +6989,26 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="83"/>
       <c r="B130" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>49</v>
+        <v>343</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E130" s="29">
-        <v>1</v>
+        <v>344</v>
+      </c>
+      <c r="E130" s="29" t="s">
+        <v>284</v>
       </c>
       <c r="F130" s="30">
-        <v>9</v>
-      </c>
-      <c r="G130" s="92"/>
+        <v>0</v>
+      </c>
+      <c r="G130" s="92">
+        <v>45232</v>
+      </c>
       <c r="H130" s="96"/>
       <c r="I130" s="95"/>
       <c r="J130" s="80"/>
@@ -6994,24 +7018,24 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="83"/>
       <c r="B131" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C131" s="28" t="s">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="D131" s="28" t="s">
         <v>48</v>
       </c>
       <c r="E131" s="29">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F131" s="30">
-        <v>3</v>
-      </c>
-      <c r="G131" s="87"/>
+        <v>9</v>
+      </c>
+      <c r="G131" s="92"/>
       <c r="H131" s="96"/>
       <c r="I131" s="95"/>
       <c r="J131" s="80"/>
@@ -7021,14 +7045,24 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="83"/>
-      <c r="B132" s="28"/>
-      <c r="C132" s="103"/>
-      <c r="D132" s="103"/>
-      <c r="E132" s="104"/>
-      <c r="F132" s="105"/>
-      <c r="G132" s="92"/>
+      <c r="B132" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D132" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E132" s="29">
+        <v>8</v>
+      </c>
+      <c r="F132" s="30">
+        <v>3</v>
+      </c>
+      <c r="G132" s="87"/>
       <c r="H132" s="96"/>
       <c r="I132" s="95"/>
       <c r="J132" s="80"/>
@@ -7038,13 +7072,13 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="83"/>
-      <c r="B133" s="103"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="30"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="103"/>
+      <c r="D133" s="103"/>
+      <c r="E133" s="104"/>
+      <c r="F133" s="105"/>
       <c r="G133" s="92"/>
       <c r="H133" s="96"/>
       <c r="I133" s="95"/>
@@ -7055,13 +7089,13 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="83"/>
-      <c r="B134" s="28"/>
-      <c r="C134" s="103"/>
-      <c r="D134" s="103"/>
-      <c r="E134" s="104"/>
-      <c r="F134" s="105"/>
+      <c r="B134" s="103"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="30"/>
       <c r="G134" s="92"/>
       <c r="H134" s="96"/>
       <c r="I134" s="95"/>
@@ -7072,9 +7106,9 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="83"/>
-      <c r="B135" s="103"/>
+      <c r="B135" s="28"/>
       <c r="C135" s="103"/>
       <c r="D135" s="103"/>
       <c r="E135" s="104"/>
@@ -7089,15 +7123,15 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="83"/>
-      <c r="B136" s="21"/>
-      <c r="C136" s="21"/>
-      <c r="D136" s="21"/>
-      <c r="E136" s="22"/>
-      <c r="F136" s="21"/>
+      <c r="B136" s="103"/>
+      <c r="C136" s="103"/>
+      <c r="D136" s="103"/>
+      <c r="E136" s="104"/>
+      <c r="F136" s="105"/>
       <c r="G136" s="92"/>
-      <c r="H136" s="95"/>
+      <c r="H136" s="96"/>
       <c r="I136" s="95"/>
       <c r="J136" s="80"/>
       <c r="K136" s="1"/>
@@ -7106,22 +7140,16 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="35"/>
-      <c r="C137" s="35"/>
-      <c r="D137" s="36"/>
-      <c r="E137" s="37">
-        <f>SUM(E115:E136)</f>
-        <v>97</v>
-      </c>
-      <c r="F137" s="38">
-        <f>SUM(F118:F136)-SUM(F115:F117)</f>
-        <v>22</v>
-      </c>
-      <c r="G137" s="84"/>
-      <c r="H137" s="97"/>
-      <c r="I137" s="97"/>
+    <row r="137" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="83"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="22"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="92"/>
+      <c r="H137" s="95"/>
+      <c r="I137" s="95"/>
       <c r="J137" s="80"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
@@ -7129,16 +7157,22 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="39"/>
-      <c r="F138" s="35"/>
-      <c r="G138" s="79"/>
-      <c r="H138" s="79"/>
-      <c r="I138" s="79"/>
+      <c r="B138" s="35"/>
+      <c r="C138" s="35"/>
+      <c r="D138" s="36"/>
+      <c r="E138" s="37">
+        <f>SUM(E115:E137)</f>
+        <v>97</v>
+      </c>
+      <c r="F138" s="38">
+        <f>SUM(F118:F137)-SUM(F115:F117)</f>
+        <v>22</v>
+      </c>
+      <c r="G138" s="84"/>
+      <c r="H138" s="97"/>
+      <c r="I138" s="97"/>
       <c r="J138" s="80"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
@@ -7146,13 +7180,13 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="1"/>
+      <c r="E139" s="39"/>
+      <c r="F139" s="35"/>
       <c r="G139" s="79"/>
       <c r="H139" s="79"/>
       <c r="I139" s="79"/>
@@ -7163,15 +7197,11 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
-      <c r="C140" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
       <c r="E140" s="2"/>
       <c r="F140" s="1"/>
       <c r="G140" s="79"/>
@@ -7184,13 +7214,17 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="4"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" s="1"/>
       <c r="G141" s="79"/>
       <c r="H141" s="79"/>
       <c r="I141" s="79"/>
@@ -7201,26 +7235,16 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="83"/>
-      <c r="B142" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G142" s="84"/>
-      <c r="H142" s="97"/>
-      <c r="I142" s="97"/>
+    <row r="142" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="1"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="79"/>
+      <c r="H142" s="79"/>
+      <c r="I142" s="79"/>
       <c r="J142" s="80"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -7228,24 +7252,26 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="83"/>
-      <c r="B143" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C143" s="13"/>
-      <c r="D143" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E143" s="14">
+      <c r="B143" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F143" s="15">
-        <v>13</v>
+      <c r="C143" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G143" s="84"/>
-      <c r="H143" s="99"/>
-      <c r="I143" s="99"/>
+      <c r="H143" s="97"/>
+      <c r="I143" s="97"/>
       <c r="J143" s="80"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
@@ -7253,16 +7279,24 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="83"/>
-      <c r="B144" s="21"/>
-      <c r="C144" s="21"/>
-      <c r="D144" s="21"/>
-      <c r="E144" s="22"/>
-      <c r="F144" s="21"/>
-      <c r="G144" s="90"/>
-      <c r="H144" s="97"/>
-      <c r="I144" s="97"/>
+      <c r="B144" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" s="13"/>
+      <c r="D144" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E144" s="14">
+        <v>3</v>
+      </c>
+      <c r="F144" s="15">
+        <v>13</v>
+      </c>
+      <c r="G144" s="84"/>
+      <c r="H144" s="99"/>
+      <c r="I144" s="99"/>
       <c r="J144" s="80"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -7270,14 +7304,14 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="83"/>
       <c r="B145" s="21"/>
       <c r="C145" s="21"/>
       <c r="D145" s="21"/>
       <c r="E145" s="22"/>
       <c r="F145" s="21"/>
-      <c r="G145" s="84"/>
+      <c r="G145" s="90"/>
       <c r="H145" s="97"/>
       <c r="I145" s="97"/>
       <c r="J145" s="80"/>
@@ -7287,26 +7321,16 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="83"/>
-      <c r="B146" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C146" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="D146" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E146" s="29">
-        <v>3</v>
-      </c>
-      <c r="F146" s="30">
-        <v>1</v>
-      </c>
-      <c r="G146" s="87"/>
-      <c r="H146" s="96"/>
-      <c r="I146" s="95"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="22"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="84"/>
+      <c r="H146" s="97"/>
+      <c r="I146" s="97"/>
       <c r="J146" s="80"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -7314,22 +7338,22 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="83"/>
       <c r="B147" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C147" s="28" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="D147" s="28" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="E147" s="29">
+        <v>3</v>
+      </c>
+      <c r="F147" s="30">
         <v>1</v>
-      </c>
-      <c r="F147" s="30">
-        <v>0</v>
       </c>
       <c r="G147" s="87"/>
       <c r="H147" s="96"/>
@@ -7341,15 +7365,25 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="83"/>
-      <c r="B148" s="103"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="21"/>
-      <c r="E148" s="22"/>
-      <c r="F148" s="105"/>
-      <c r="G148" s="92"/>
-      <c r="H148" s="95"/>
+      <c r="B148" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D148" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E148" s="29">
+        <v>1</v>
+      </c>
+      <c r="F148" s="30">
+        <v>0</v>
+      </c>
+      <c r="G148" s="87"/>
+      <c r="H148" s="96"/>
       <c r="I148" s="95"/>
       <c r="J148" s="80"/>
       <c r="K148" s="1"/>
@@ -7358,23 +7392,13 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="83"/>
-      <c r="B149" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C149" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D149" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E149" s="29">
-        <v>39</v>
-      </c>
-      <c r="F149" s="30">
-        <v>6</v>
-      </c>
+      <c r="B149" s="103"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="105"/>
       <c r="G149" s="92"/>
       <c r="H149" s="95"/>
       <c r="I149" s="95"/>
@@ -7385,23 +7409,25 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="83"/>
       <c r="B150" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C150" s="28" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="E150" s="29">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F150" s="30">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G150" s="92"/>
+      <c r="H150" s="95"/>
       <c r="I150" s="95"/>
       <c r="J150" s="80"/>
       <c r="K150" s="1"/>
@@ -7410,28 +7436,22 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="83"/>
       <c r="B151" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C151" s="103" t="s">
-        <v>183</v>
-      </c>
-      <c r="D151" s="103" t="s">
-        <v>107</v>
+      <c r="C151" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D151" s="28" t="s">
+        <v>79</v>
       </c>
       <c r="E151" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F151" s="30">
-        <v>0</v>
-      </c>
-      <c r="G151" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="H151" s="92">
-        <v>45183</v>
+        <v>3</v>
       </c>
       <c r="I151" s="95"/>
       <c r="J151" s="80"/>
@@ -7441,27 +7461,29 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="83"/>
       <c r="B152" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C152" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="D152" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E152" s="29" t="s">
-        <v>284</v>
+      <c r="C152" s="103" t="s">
+        <v>183</v>
+      </c>
+      <c r="D152" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="E152" s="29">
+        <v>1</v>
       </c>
       <c r="F152" s="30">
-        <v>4</v>
-      </c>
-      <c r="G152" s="92">
+        <v>0</v>
+      </c>
+      <c r="G152" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="H152" s="92">
         <v>45183</v>
       </c>
-      <c r="H152" s="96"/>
       <c r="I152" s="95"/>
       <c r="J152" s="80"/>
       <c r="K152" s="1"/>
@@ -7470,14 +7492,26 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="83"/>
-      <c r="B153" s="28"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="30"/>
-      <c r="G153" s="96"/>
+      <c r="B153" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="D153" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E153" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="F153" s="30">
+        <v>4</v>
+      </c>
+      <c r="G153" s="92">
+        <v>45183</v>
+      </c>
       <c r="H153" s="96"/>
       <c r="I153" s="95"/>
       <c r="J153" s="80"/>
@@ -7487,24 +7521,14 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="83"/>
-      <c r="B154" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C154" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D154" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="E154" s="29">
-        <v>34</v>
-      </c>
-      <c r="F154" s="30">
-        <v>7</v>
-      </c>
-      <c r="G154" s="87"/>
+      <c r="B154" s="28"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="28"/>
+      <c r="E154" s="29"/>
+      <c r="F154" s="30"/>
+      <c r="G154" s="96"/>
       <c r="H154" s="96"/>
       <c r="I154" s="95"/>
       <c r="J154" s="80"/>
@@ -7514,25 +7538,25 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="83"/>
       <c r="B155" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C155" s="28" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="E155" s="29">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F155" s="30">
-        <v>0</v>
-      </c>
-      <c r="G155" s="92"/>
-      <c r="H155" s="95"/>
+        <v>7</v>
+      </c>
+      <c r="G155" s="87"/>
+      <c r="H155" s="96"/>
       <c r="I155" s="95"/>
       <c r="J155" s="80"/>
       <c r="K155" s="1"/>
@@ -7541,52 +7565,52 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="83"/>
       <c r="B156" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C156" s="28" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E156" s="29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F156" s="30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G156" s="92"/>
       <c r="H156" s="95"/>
       <c r="I156" s="95"/>
-      <c r="J156" s="101"/>
+      <c r="J156" s="80"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="83"/>
       <c r="B157" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C157" s="28" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="E157" s="29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F157" s="30">
-        <v>2</v>
-      </c>
-      <c r="G157" s="87"/>
-      <c r="H157" s="96"/>
+        <v>5</v>
+      </c>
+      <c r="G157" s="92"/>
+      <c r="H157" s="95"/>
       <c r="I157" s="95"/>
       <c r="J157" s="101"/>
       <c r="K157" s="1"/>
@@ -7595,58 +7619,56 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="83"/>
       <c r="B158" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C158" s="103" t="s">
-        <v>39</v>
-      </c>
-      <c r="D158" s="103" t="s">
-        <v>307</v>
-      </c>
-      <c r="E158" s="104">
+      <c r="C158" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D158" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E158" s="29">
         <v>1</v>
       </c>
-      <c r="F158" s="105">
-        <v>0</v>
-      </c>
-      <c r="G158" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="H158" s="96">
-        <v>45169</v>
-      </c>
+      <c r="F158" s="30">
+        <v>2</v>
+      </c>
+      <c r="G158" s="87"/>
+      <c r="H158" s="96"/>
       <c r="I158" s="95"/>
-      <c r="J158" s="80"/>
+      <c r="J158" s="101"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="83"/>
       <c r="B159" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C159" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="D159" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="E159" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="F159" s="30">
-        <v>3</v>
-      </c>
-      <c r="G159" s="92">
+      <c r="C159" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D159" s="103" t="s">
+        <v>307</v>
+      </c>
+      <c r="E159" s="104">
+        <v>1</v>
+      </c>
+      <c r="F159" s="105">
+        <v>0</v>
+      </c>
+      <c r="G159" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="H159" s="96">
         <v>45169</v>
       </c>
-      <c r="H159" s="96"/>
       <c r="I159" s="95"/>
       <c r="J159" s="80"/>
       <c r="K159" s="1"/>
@@ -7655,14 +7677,26 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="83"/>
-      <c r="B160" s="103"/>
-      <c r="C160" s="103"/>
-      <c r="D160" s="103"/>
-      <c r="E160" s="104"/>
-      <c r="F160" s="105"/>
-      <c r="G160" s="92"/>
+      <c r="B160" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D160" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E160" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="F160" s="30">
+        <v>3</v>
+      </c>
+      <c r="G160" s="92">
+        <v>45169</v>
+      </c>
       <c r="H160" s="96"/>
       <c r="I160" s="95"/>
       <c r="J160" s="80"/>
@@ -7672,15 +7706,15 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="83"/>
-      <c r="B161" s="28"/>
-      <c r="C161" s="21"/>
-      <c r="D161" s="21"/>
-      <c r="E161" s="22"/>
-      <c r="F161" s="21"/>
+      <c r="B161" s="103"/>
+      <c r="C161" s="103"/>
+      <c r="D161" s="103"/>
+      <c r="E161" s="104"/>
+      <c r="F161" s="105"/>
       <c r="G161" s="92"/>
-      <c r="H161" s="95"/>
+      <c r="H161" s="96"/>
       <c r="I161" s="95"/>
       <c r="J161" s="80"/>
       <c r="K161" s="1"/>
@@ -7689,9 +7723,9 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="83"/>
-      <c r="B162" s="103"/>
+      <c r="B162" s="28"/>
       <c r="C162" s="21"/>
       <c r="D162" s="21"/>
       <c r="E162" s="22"/>
@@ -7706,16 +7740,16 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="83"/>
-      <c r="B163" s="21"/>
-      <c r="C163" s="33"/>
-      <c r="D163" s="33"/>
-      <c r="E163" s="34"/>
-      <c r="F163" s="33"/>
-      <c r="G163" s="84"/>
-      <c r="H163" s="97"/>
-      <c r="I163" s="97"/>
+      <c r="B163" s="103"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="92"/>
+      <c r="H163" s="95"/>
+      <c r="I163" s="95"/>
       <c r="J163" s="80"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
@@ -7723,19 +7757,13 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="35"/>
-      <c r="C164" s="35"/>
-      <c r="D164" s="36"/>
-      <c r="E164" s="37">
-        <f>SUM(E143:E163)</f>
-        <v>94</v>
-      </c>
-      <c r="F164" s="38">
-        <f>SUM(F146:F163)-SUM(F143:F145)</f>
-        <v>18</v>
-      </c>
+    <row r="164" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="83"/>
+      <c r="B164" s="21"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="34"/>
+      <c r="F164" s="33"/>
       <c r="G164" s="84"/>
       <c r="H164" s="97"/>
       <c r="I164" s="97"/>
@@ -7746,16 +7774,22 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="39"/>
-      <c r="F165" s="35"/>
-      <c r="G165" s="79"/>
-      <c r="H165" s="79"/>
-      <c r="I165" s="79"/>
+      <c r="B165" s="35"/>
+      <c r="C165" s="35"/>
+      <c r="D165" s="36"/>
+      <c r="E165" s="37">
+        <f>SUM(E144:E164)</f>
+        <v>94</v>
+      </c>
+      <c r="F165" s="38">
+        <f>SUM(F147:F164)-SUM(F144:F146)</f>
+        <v>18</v>
+      </c>
+      <c r="G165" s="84"/>
+      <c r="H165" s="97"/>
+      <c r="I165" s="97"/>
       <c r="J165" s="80"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
@@ -7763,13 +7797,13 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="1"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="35"/>
       <c r="G166" s="79"/>
       <c r="H166" s="79"/>
       <c r="I166" s="79"/>
@@ -7780,15 +7814,11 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
-      <c r="C167" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
       <c r="E167" s="2"/>
       <c r="F167" s="1"/>
       <c r="G167" s="79"/>
@@ -7801,13 +7831,17 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="4"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E168" s="2"/>
+      <c r="F168" s="1"/>
       <c r="G168" s="79"/>
       <c r="H168" s="79"/>
       <c r="I168" s="79"/>
@@ -7818,26 +7852,16 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="83"/>
-      <c r="B169" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F169" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G169" s="84"/>
-      <c r="H169" s="97"/>
-      <c r="I169" s="97"/>
+    <row r="169" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="1"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="79"/>
+      <c r="H169" s="79"/>
+      <c r="I169" s="79"/>
       <c r="J169" s="80"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
@@ -7845,23 +7869,25 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="83"/>
-      <c r="B170" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C170" s="13"/>
-      <c r="D170" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E170" s="14">
+      <c r="B170" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F170" s="15">
-        <v>9</v>
+      <c r="D170" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G170" s="84"/>
-      <c r="H170" s="99"/>
+      <c r="H170" s="97"/>
       <c r="I170" s="97"/>
       <c r="J170" s="80"/>
       <c r="K170" s="1"/>
@@ -7870,15 +7896,23 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="83"/>
-      <c r="B171" s="21"/>
-      <c r="C171" s="21"/>
-      <c r="D171" s="21"/>
-      <c r="E171" s="22"/>
-      <c r="F171" s="21"/>
-      <c r="G171" s="90"/>
-      <c r="H171" s="97"/>
+      <c r="B171" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" s="13"/>
+      <c r="D171" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E171" s="14">
+        <v>4</v>
+      </c>
+      <c r="F171" s="15">
+        <v>9</v>
+      </c>
+      <c r="G171" s="84"/>
+      <c r="H171" s="99"/>
       <c r="I171" s="97"/>
       <c r="J171" s="80"/>
       <c r="K171" s="1"/>
@@ -7887,14 +7921,14 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="83"/>
       <c r="B172" s="21"/>
       <c r="C172" s="21"/>
       <c r="D172" s="21"/>
       <c r="E172" s="22"/>
       <c r="F172" s="21"/>
-      <c r="G172" s="84"/>
+      <c r="G172" s="90"/>
       <c r="H172" s="97"/>
       <c r="I172" s="97"/>
       <c r="J172" s="80"/>
@@ -7904,26 +7938,16 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="83"/>
-      <c r="B173" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C173" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="D173" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E173" s="29">
-        <v>1</v>
-      </c>
-      <c r="F173" s="30">
-        <v>0</v>
-      </c>
-      <c r="G173" s="87"/>
-      <c r="H173" s="96"/>
-      <c r="I173" s="96"/>
+      <c r="B173" s="21"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="21"/>
+      <c r="E173" s="22"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="84"/>
+      <c r="H173" s="97"/>
+      <c r="I173" s="97"/>
       <c r="J173" s="80"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
@@ -7931,16 +7955,16 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="83"/>
       <c r="B174" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C174" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D174" s="28" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E174" s="29">
         <v>1</v>
@@ -7948,9 +7972,9 @@
       <c r="F174" s="30">
         <v>0</v>
       </c>
-      <c r="G174" s="92"/>
-      <c r="H174" s="95"/>
-      <c r="I174" s="95"/>
+      <c r="G174" s="87"/>
+      <c r="H174" s="96"/>
+      <c r="I174" s="96"/>
       <c r="J174" s="80"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
@@ -7958,15 +7982,25 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="83"/>
-      <c r="B175" s="28"/>
-      <c r="C175" s="28"/>
-      <c r="D175" s="28"/>
-      <c r="E175" s="29"/>
-      <c r="F175" s="105"/>
-      <c r="G175" s="87"/>
-      <c r="H175" s="96"/>
+      <c r="B175" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D175" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E175" s="29">
+        <v>1</v>
+      </c>
+      <c r="F175" s="30">
+        <v>0</v>
+      </c>
+      <c r="G175" s="92"/>
+      <c r="H175" s="95"/>
       <c r="I175" s="95"/>
       <c r="J175" s="80"/>
       <c r="K175" s="1"/>
@@ -7975,26 +8009,16 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="83"/>
-      <c r="B176" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C176" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D176" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E176" s="29">
-        <v>17</v>
-      </c>
-      <c r="F176" s="30">
-        <v>1</v>
-      </c>
+      <c r="B176" s="28"/>
+      <c r="C176" s="28"/>
+      <c r="D176" s="28"/>
+      <c r="E176" s="29"/>
+      <c r="F176" s="105"/>
       <c r="G176" s="87"/>
       <c r="H176" s="96"/>
-      <c r="I176" s="96"/>
+      <c r="I176" s="95"/>
       <c r="J176" s="80"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
@@ -8002,26 +8026,26 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="83"/>
       <c r="B177" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C177" s="28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E177" s="29">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F177" s="30">
-        <v>3</v>
-      </c>
-      <c r="G177" s="96"/>
-      <c r="H177" s="95"/>
-      <c r="I177" s="95"/>
+        <v>1</v>
+      </c>
+      <c r="G177" s="87"/>
+      <c r="H177" s="96"/>
+      <c r="I177" s="96"/>
       <c r="J177" s="80"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
@@ -8029,51 +8053,61 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="83"/>
       <c r="B178" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C178" s="28" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="E178" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F178" s="30">
-        <v>5</v>
-      </c>
-      <c r="G178" s="92"/>
-      <c r="H178" s="96"/>
+        <v>3</v>
+      </c>
+      <c r="G178" s="96"/>
+      <c r="H178" s="95"/>
       <c r="I178" s="95"/>
-      <c r="J178" s="1"/>
+      <c r="J178" s="80"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="83"/>
-      <c r="B179" s="28"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="28"/>
-      <c r="E179" s="29"/>
-      <c r="F179" s="30"/>
-      <c r="G179" s="96"/>
+      <c r="B179" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D179" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E179" s="29">
+        <v>1</v>
+      </c>
+      <c r="F179" s="30">
+        <v>5</v>
+      </c>
+      <c r="G179" s="92"/>
       <c r="H179" s="96"/>
       <c r="I179" s="95"/>
-      <c r="J179" s="80"/>
+      <c r="J179" s="1"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="83"/>
       <c r="B180" s="28"/>
       <c r="C180" s="28"/>
@@ -8081,7 +8115,7 @@
       <c r="E180" s="29"/>
       <c r="F180" s="30"/>
       <c r="G180" s="96"/>
-      <c r="H180" s="95"/>
+      <c r="H180" s="96"/>
       <c r="I180" s="95"/>
       <c r="J180" s="80"/>
       <c r="K180" s="1"/>
@@ -8090,79 +8124,69 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="83"/>
-      <c r="B181" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C181" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D181" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E181" s="29">
-        <v>12</v>
-      </c>
-      <c r="F181" s="30">
-        <v>4</v>
-      </c>
-      <c r="G181" s="87"/>
-      <c r="H181" s="96"/>
+      <c r="B181" s="28"/>
+      <c r="C181" s="28"/>
+      <c r="D181" s="28"/>
+      <c r="E181" s="29"/>
+      <c r="F181" s="30"/>
+      <c r="G181" s="96"/>
+      <c r="H181" s="95"/>
       <c r="I181" s="95"/>
-      <c r="J181" s="1"/>
+      <c r="J181" s="80"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="83"/>
       <c r="B182" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E182" s="29">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F182" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G182" s="87"/>
       <c r="H182" s="96"/>
       <c r="I182" s="95"/>
-      <c r="J182" s="80"/>
+      <c r="J182" s="1"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="83"/>
       <c r="B183" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C183" s="28" t="s">
-        <v>113</v>
+        <v>309</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E183" s="29">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F183" s="30">
         <v>3</v>
       </c>
-      <c r="G183" s="96"/>
-      <c r="H183" s="95"/>
+      <c r="G183" s="87"/>
+      <c r="H183" s="96"/>
       <c r="I183" s="95"/>
       <c r="J183" s="80"/>
       <c r="K183" s="1"/>
@@ -8171,26 +8195,26 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="83"/>
       <c r="B184" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="E184" s="29">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F184" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G184" s="96"/>
-      <c r="H184" s="96"/>
-      <c r="I184" s="96"/>
+      <c r="H184" s="95"/>
+      <c r="I184" s="95"/>
       <c r="J184" s="80"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
@@ -8198,26 +8222,26 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="83"/>
       <c r="B185" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D185" s="28" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E185" s="29">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F185" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G185" s="96"/>
-      <c r="H185" s="92"/>
-      <c r="I185" s="94"/>
+      <c r="H185" s="96"/>
+      <c r="I185" s="96"/>
       <c r="J185" s="80"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
@@ -8225,47 +8249,57 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="83"/>
-      <c r="B186" s="28"/>
-      <c r="C186" s="103"/>
-      <c r="D186" s="103"/>
-      <c r="E186" s="104"/>
-      <c r="F186" s="105"/>
+      <c r="B186" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C186" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D186" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E186" s="29">
+        <v>15</v>
+      </c>
+      <c r="F186" s="30">
+        <v>2</v>
+      </c>
       <c r="G186" s="96"/>
       <c r="H186" s="92"/>
-      <c r="I186" s="95"/>
-      <c r="J186" s="1"/>
+      <c r="I186" s="94"/>
+      <c r="J186" s="80"/>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="83"/>
-      <c r="B187" s="103"/>
+      <c r="B187" s="28"/>
       <c r="C187" s="103"/>
       <c r="D187" s="103"/>
       <c r="E187" s="104"/>
       <c r="F187" s="105"/>
-      <c r="G187" s="92"/>
+      <c r="G187" s="96"/>
       <c r="H187" s="92"/>
       <c r="I187" s="95"/>
-      <c r="J187" s="80"/>
+      <c r="J187" s="1"/>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="83"/>
-      <c r="B188" s="28"/>
-      <c r="C188" s="28"/>
-      <c r="D188" s="28"/>
-      <c r="E188" s="29"/>
-      <c r="F188" s="30"/>
+      <c r="B188" s="103"/>
+      <c r="C188" s="103"/>
+      <c r="D188" s="103"/>
+      <c r="E188" s="104"/>
+      <c r="F188" s="105"/>
       <c r="G188" s="92"/>
       <c r="H188" s="92"/>
       <c r="I188" s="95"/>
@@ -8276,14 +8310,14 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="83"/>
-      <c r="B189" s="103"/>
-      <c r="C189" s="103"/>
-      <c r="D189" s="103"/>
-      <c r="E189" s="104"/>
-      <c r="F189" s="105"/>
-      <c r="G189" s="87"/>
+      <c r="B189" s="28"/>
+      <c r="C189" s="28"/>
+      <c r="D189" s="28"/>
+      <c r="E189" s="29"/>
+      <c r="F189" s="30"/>
+      <c r="G189" s="92"/>
       <c r="H189" s="92"/>
       <c r="I189" s="95"/>
       <c r="J189" s="80"/>
@@ -8293,15 +8327,15 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="83"/>
-      <c r="B190" s="21"/>
-      <c r="C190" s="28"/>
-      <c r="D190" s="28"/>
-      <c r="E190" s="29"/>
-      <c r="F190" s="30"/>
-      <c r="G190" s="92"/>
-      <c r="H190" s="96"/>
+      <c r="B190" s="103"/>
+      <c r="C190" s="103"/>
+      <c r="D190" s="103"/>
+      <c r="E190" s="104"/>
+      <c r="F190" s="105"/>
+      <c r="G190" s="87"/>
+      <c r="H190" s="92"/>
       <c r="I190" s="95"/>
       <c r="J190" s="80"/>
       <c r="K190" s="1"/>
@@ -8310,22 +8344,16 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-      <c r="B191" s="35"/>
-      <c r="C191" s="35"/>
-      <c r="D191" s="36"/>
-      <c r="E191" s="37">
-        <f>SUM(E170:E190)</f>
-        <v>87</v>
-      </c>
-      <c r="F191" s="38">
-        <f>SUM(F173:F190)-SUM(F170:F172)</f>
-        <v>13</v>
-      </c>
-      <c r="G191" s="84"/>
-      <c r="H191" s="97"/>
-      <c r="I191" s="97"/>
+    <row r="191" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="83"/>
+      <c r="B191" s="21"/>
+      <c r="C191" s="28"/>
+      <c r="D191" s="28"/>
+      <c r="E191" s="29"/>
+      <c r="F191" s="30"/>
+      <c r="G191" s="92"/>
+      <c r="H191" s="96"/>
+      <c r="I191" s="95"/>
       <c r="J191" s="80"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
@@ -8333,16 +8361,22 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="39"/>
-      <c r="F192" s="35"/>
-      <c r="G192" s="79"/>
-      <c r="H192" s="79"/>
-      <c r="I192" s="79"/>
+      <c r="B192" s="35"/>
+      <c r="C192" s="35"/>
+      <c r="D192" s="36"/>
+      <c r="E192" s="37">
+        <f>SUM(E171:E191)</f>
+        <v>87</v>
+      </c>
+      <c r="F192" s="38">
+        <f>SUM(F174:F191)-SUM(F171:F173)</f>
+        <v>13</v>
+      </c>
+      <c r="G192" s="84"/>
+      <c r="H192" s="97"/>
+      <c r="I192" s="97"/>
       <c r="J192" s="80"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
@@ -8350,13 +8384,13 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="1"/>
+      <c r="E193" s="39"/>
+      <c r="F193" s="35"/>
       <c r="G193" s="79"/>
       <c r="H193" s="79"/>
       <c r="I193" s="79"/>
@@ -8367,15 +8401,11 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
-      <c r="C194" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
       <c r="E194" s="2"/>
       <c r="F194" s="1"/>
       <c r="G194" s="79"/>
@@ -8388,13 +8418,17 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="5"/>
-      <c r="F195" s="4"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E195" s="2"/>
+      <c r="F195" s="1"/>
       <c r="G195" s="79"/>
       <c r="H195" s="79"/>
       <c r="I195" s="79"/>
@@ -8405,26 +8439,16 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="83"/>
-      <c r="B196" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D196" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E196" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F196" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G196" s="84"/>
-      <c r="H196" s="97"/>
-      <c r="I196" s="97"/>
+    <row r="196" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="1"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="79"/>
+      <c r="H196" s="79"/>
+      <c r="I196" s="79"/>
       <c r="J196" s="80"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
@@ -8432,24 +8456,26 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="83"/>
-      <c r="B197" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C197" s="13"/>
-      <c r="D197" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E197" s="14">
-        <v>2</v>
-      </c>
-      <c r="F197" s="15">
-        <v>9</v>
+      <c r="B197" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G197" s="84"/>
-      <c r="H197" s="99"/>
-      <c r="I197" s="95"/>
+      <c r="H197" s="97"/>
+      <c r="I197" s="97"/>
       <c r="J197" s="80"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
@@ -8457,16 +8483,24 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="83"/>
-      <c r="B198" s="21"/>
-      <c r="C198" s="21"/>
-      <c r="D198" s="21"/>
-      <c r="E198" s="22"/>
-      <c r="F198" s="21"/>
-      <c r="G198" s="90"/>
-      <c r="H198" s="97"/>
-      <c r="I198" s="97"/>
+      <c r="B198" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" s="13"/>
+      <c r="D198" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E198" s="14">
+        <v>2</v>
+      </c>
+      <c r="F198" s="15">
+        <v>9</v>
+      </c>
+      <c r="G198" s="84"/>
+      <c r="H198" s="99"/>
+      <c r="I198" s="95"/>
       <c r="J198" s="80"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
@@ -8474,14 +8508,14 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="83"/>
       <c r="B199" s="21"/>
       <c r="C199" s="21"/>
       <c r="D199" s="21"/>
       <c r="E199" s="22"/>
       <c r="F199" s="21"/>
-      <c r="G199" s="84"/>
+      <c r="G199" s="90"/>
       <c r="H199" s="97"/>
       <c r="I199" s="97"/>
       <c r="J199" s="80"/>
@@ -8491,26 +8525,16 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="83"/>
-      <c r="B200" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C200" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D200" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E200" s="29">
-        <v>1</v>
-      </c>
-      <c r="F200" s="30">
-        <v>0</v>
-      </c>
-      <c r="G200" s="87"/>
-      <c r="H200" s="96"/>
-      <c r="I200" s="95"/>
+      <c r="B200" s="21"/>
+      <c r="C200" s="21"/>
+      <c r="D200" s="21"/>
+      <c r="E200" s="22"/>
+      <c r="F200" s="21"/>
+      <c r="G200" s="84"/>
+      <c r="H200" s="97"/>
+      <c r="I200" s="97"/>
       <c r="J200" s="80"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
@@ -8518,25 +8542,25 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="83"/>
       <c r="B201" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D201" s="28" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="E201" s="29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F201" s="30">
         <v>0</v>
       </c>
-      <c r="G201" s="92"/>
-      <c r="H201" s="95"/>
+      <c r="G201" s="87"/>
+      <c r="H201" s="96"/>
       <c r="I201" s="95"/>
       <c r="J201" s="80"/>
       <c r="K201" s="1"/>
@@ -8545,14 +8569,24 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="83"/>
-      <c r="B202" s="103"/>
-      <c r="C202" s="28"/>
-      <c r="D202" s="28"/>
-      <c r="E202" s="29"/>
-      <c r="F202" s="105"/>
-      <c r="G202" s="87"/>
+      <c r="B202" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D202" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E202" s="29">
+        <v>7</v>
+      </c>
+      <c r="F202" s="30">
+        <v>0</v>
+      </c>
+      <c r="G202" s="92"/>
       <c r="H202" s="95"/>
       <c r="I202" s="95"/>
       <c r="J202" s="80"/>
@@ -8562,23 +8596,13 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="83"/>
-      <c r="B203" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C203" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="D203" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E203" s="29">
-        <v>3</v>
-      </c>
-      <c r="F203" s="30">
-        <v>0</v>
-      </c>
+      <c r="B203" s="103"/>
+      <c r="C203" s="28"/>
+      <c r="D203" s="28"/>
+      <c r="E203" s="29"/>
+      <c r="F203" s="105"/>
       <c r="G203" s="87"/>
       <c r="H203" s="95"/>
       <c r="I203" s="95"/>
@@ -8589,22 +8613,22 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="83"/>
       <c r="B204" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C204" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D204" s="28" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="E204" s="29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F204" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G204" s="87"/>
       <c r="H204" s="95"/>
@@ -8616,19 +8640,19 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="83"/>
       <c r="B205" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C205" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D205" s="28" t="s">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c r="E205" s="29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F205" s="30">
         <v>1</v>
@@ -8643,13 +8667,23 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="83"/>
-      <c r="B206" s="28"/>
-      <c r="C206" s="21"/>
-      <c r="D206" s="21"/>
-      <c r="E206" s="22"/>
-      <c r="F206" s="30"/>
+      <c r="B206" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C206" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D206" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E206" s="29">
+        <v>3</v>
+      </c>
+      <c r="F206" s="30">
+        <v>1</v>
+      </c>
       <c r="G206" s="87"/>
       <c r="H206" s="95"/>
       <c r="I206" s="95"/>
@@ -8660,7 +8694,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="83"/>
       <c r="B207" s="28"/>
       <c r="C207" s="21"/>
@@ -8677,25 +8711,15 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="83"/>
-      <c r="B208" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C208" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="D208" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="E208" s="29">
-        <v>45</v>
-      </c>
-      <c r="F208" s="30">
-        <v>1</v>
-      </c>
+      <c r="B208" s="28"/>
+      <c r="C208" s="21"/>
+      <c r="D208" s="21"/>
+      <c r="E208" s="22"/>
+      <c r="F208" s="30"/>
       <c r="G208" s="87"/>
-      <c r="H208" s="96"/>
+      <c r="H208" s="95"/>
       <c r="I208" s="95"/>
       <c r="J208" s="80"/>
       <c r="K208" s="1"/>
@@ -8704,25 +8728,25 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="83"/>
       <c r="B209" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D209" s="28" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="E209" s="29">
+        <v>45</v>
+      </c>
+      <c r="F209" s="30">
         <v>1</v>
       </c>
-      <c r="F209" s="30">
-        <v>0</v>
-      </c>
-      <c r="G209" s="92"/>
-      <c r="H209" s="95"/>
+      <c r="G209" s="87"/>
+      <c r="H209" s="96"/>
       <c r="I209" s="95"/>
       <c r="J209" s="80"/>
       <c r="K209" s="1"/>
@@ -8731,24 +8755,24 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="83"/>
       <c r="B210" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D210" s="28" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="E210" s="29">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F210" s="30">
-        <v>6</v>
-      </c>
-      <c r="G210" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G210" s="92"/>
       <c r="H210" s="95"/>
       <c r="I210" s="95"/>
       <c r="J210" s="80"/>
@@ -8758,69 +8782,79 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="83"/>
       <c r="B211" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C211" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D211" s="28" t="s">
-        <v>201</v>
+        <v>28</v>
       </c>
       <c r="E211" s="29">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F211" s="30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G211" s="87"/>
-      <c r="H211" s="96"/>
+      <c r="H211" s="95"/>
       <c r="I211" s="95"/>
-      <c r="J211" s="1"/>
+      <c r="J211" s="80"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="83"/>
       <c r="B212" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C212" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D212" s="28" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="E212" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F212" s="30">
-        <v>2</v>
-      </c>
-      <c r="G212" s="92"/>
+        <v>3</v>
+      </c>
+      <c r="G212" s="87"/>
       <c r="H212" s="96"/>
       <c r="I212" s="95"/>
-      <c r="J212" s="80"/>
+      <c r="J212" s="1"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="83"/>
-      <c r="B213" s="28"/>
-      <c r="C213" s="28"/>
-      <c r="D213" s="28"/>
-      <c r="E213" s="29"/>
-      <c r="F213" s="30"/>
+      <c r="B213" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C213" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D213" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E213" s="29">
+        <v>1</v>
+      </c>
+      <c r="F213" s="30">
+        <v>2</v>
+      </c>
       <c r="G213" s="92"/>
-      <c r="H213" s="95"/>
+      <c r="H213" s="96"/>
       <c r="I213" s="95"/>
       <c r="J213" s="80"/>
       <c r="K213" s="1"/>
@@ -8829,14 +8863,14 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="83"/>
-      <c r="B214" s="103"/>
+      <c r="B214" s="28"/>
       <c r="C214" s="28"/>
       <c r="D214" s="28"/>
       <c r="E214" s="29"/>
       <c r="F214" s="30"/>
-      <c r="G214" s="87"/>
+      <c r="G214" s="92"/>
       <c r="H214" s="95"/>
       <c r="I214" s="95"/>
       <c r="J214" s="80"/>
@@ -8846,9 +8880,9 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="83"/>
-      <c r="B215" s="28"/>
+      <c r="B215" s="103"/>
       <c r="C215" s="28"/>
       <c r="D215" s="28"/>
       <c r="E215" s="29"/>
@@ -8863,13 +8897,13 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="83"/>
-      <c r="B216" s="103"/>
-      <c r="C216" s="21"/>
-      <c r="D216" s="21"/>
-      <c r="E216" s="22"/>
-      <c r="F216" s="21"/>
+      <c r="B216" s="28"/>
+      <c r="C216" s="28"/>
+      <c r="D216" s="28"/>
+      <c r="E216" s="29"/>
+      <c r="F216" s="30"/>
       <c r="G216" s="87"/>
       <c r="H216" s="95"/>
       <c r="I216" s="95"/>
@@ -8880,16 +8914,16 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="83"/>
-      <c r="B217" s="21"/>
-      <c r="C217" s="33"/>
-      <c r="D217" s="33"/>
-      <c r="E217" s="34"/>
-      <c r="F217" s="33"/>
-      <c r="G217" s="84"/>
-      <c r="H217" s="97"/>
-      <c r="I217" s="97"/>
+      <c r="B217" s="103"/>
+      <c r="C217" s="21"/>
+      <c r="D217" s="21"/>
+      <c r="E217" s="22"/>
+      <c r="F217" s="21"/>
+      <c r="G217" s="87"/>
+      <c r="H217" s="95"/>
+      <c r="I217" s="95"/>
       <c r="J217" s="80"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
@@ -8897,19 +8931,13 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="35"/>
-      <c r="C218" s="35"/>
-      <c r="D218" s="36"/>
-      <c r="E218" s="37">
-        <f>SUM(E197:E217)</f>
-        <v>95</v>
-      </c>
-      <c r="F218" s="38">
-        <f>SUM(F200:F217)-SUM(F197:F199)</f>
-        <v>5</v>
-      </c>
+    <row r="218" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="83"/>
+      <c r="B218" s="21"/>
+      <c r="C218" s="33"/>
+      <c r="D218" s="33"/>
+      <c r="E218" s="34"/>
+      <c r="F218" s="33"/>
       <c r="G218" s="84"/>
       <c r="H218" s="97"/>
       <c r="I218" s="97"/>
@@ -8920,16 +8948,22 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="39"/>
-      <c r="F219" s="35"/>
-      <c r="G219" s="79"/>
-      <c r="H219" s="79"/>
-      <c r="I219" s="79"/>
+      <c r="B219" s="35"/>
+      <c r="C219" s="35"/>
+      <c r="D219" s="36"/>
+      <c r="E219" s="37">
+        <f>SUM(E198:E218)</f>
+        <v>95</v>
+      </c>
+      <c r="F219" s="38">
+        <f>SUM(F201:F218)-SUM(F198:F200)</f>
+        <v>5</v>
+      </c>
+      <c r="G219" s="84"/>
+      <c r="H219" s="97"/>
+      <c r="I219" s="97"/>
       <c r="J219" s="80"/>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
@@ -8937,13 +8971,13 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="1"/>
+      <c r="E220" s="39"/>
+      <c r="F220" s="35"/>
       <c r="G220" s="79"/>
       <c r="H220" s="79"/>
       <c r="I220" s="79"/>
@@ -8954,15 +8988,11 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
-      <c r="C221" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
       <c r="E221" s="2"/>
       <c r="F221" s="1"/>
       <c r="G221" s="79"/>
@@ -8975,13 +9005,17 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="5"/>
-      <c r="F222" s="4"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E222" s="2"/>
+      <c r="F222" s="1"/>
       <c r="G222" s="79"/>
       <c r="H222" s="79"/>
       <c r="I222" s="79"/>
@@ -8992,26 +9026,16 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="83"/>
-      <c r="B223" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D223" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E223" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F223" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G223" s="84"/>
-      <c r="H223" s="97"/>
-      <c r="I223" s="97"/>
+    <row r="223" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="1"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="4"/>
+      <c r="G223" s="79"/>
+      <c r="H223" s="79"/>
+      <c r="I223" s="79"/>
       <c r="J223" s="80"/>
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
@@ -9019,28 +9043,26 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="61"/>
-      <c r="B224" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C224" s="112"/>
-      <c r="D224" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="E224" s="118">
+    <row r="224" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="83"/>
+      <c r="B224" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E224" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F224" s="117">
-        <v>9</v>
-      </c>
-      <c r="G224" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="H224" s="99">
-        <v>45169</v>
-      </c>
-      <c r="I224" s="98"/>
+      <c r="F224" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G224" s="84"/>
+      <c r="H224" s="97"/>
+      <c r="I224" s="97"/>
       <c r="J224" s="80"/>
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
@@ -9048,26 +9070,28 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="83"/>
-      <c r="B225" s="21" t="s">
+    <row r="225" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="61"/>
+      <c r="B225" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C225" s="21"/>
-      <c r="D225" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E225" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F225" s="21">
-        <v>7</v>
-      </c>
-      <c r="G225" s="99">
+      <c r="C225" s="112"/>
+      <c r="D225" s="115" t="s">
+        <v>204</v>
+      </c>
+      <c r="E225" s="118">
+        <v>6</v>
+      </c>
+      <c r="F225" s="117">
+        <v>9</v>
+      </c>
+      <c r="G225" s="84" t="s">
+        <v>285</v>
+      </c>
+      <c r="H225" s="99">
         <v>45169</v>
       </c>
-      <c r="H225" s="97"/>
-      <c r="I225" s="94"/>
+      <c r="I225" s="98"/>
       <c r="J225" s="80"/>
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
@@ -9075,16 +9099,26 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="83"/>
-      <c r="B226" s="21"/>
+      <c r="B226" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="C226" s="21"/>
-      <c r="D226" s="21"/>
-      <c r="E226" s="22"/>
-      <c r="F226" s="21"/>
-      <c r="G226" s="84"/>
+      <c r="D226" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E226" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F226" s="21">
+        <v>7</v>
+      </c>
+      <c r="G226" s="99">
+        <v>45169</v>
+      </c>
       <c r="H226" s="97"/>
-      <c r="I226" s="98"/>
+      <c r="I226" s="94"/>
       <c r="J226" s="80"/>
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
@@ -9092,26 +9126,16 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="83"/>
-      <c r="B227" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C227" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="D227" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E227" s="29">
-        <v>5</v>
-      </c>
-      <c r="F227" s="30">
-        <v>3</v>
-      </c>
-      <c r="G227" s="87"/>
-      <c r="H227" s="95"/>
-      <c r="I227" s="94"/>
+      <c r="B227" s="21"/>
+      <c r="C227" s="21"/>
+      <c r="D227" s="21"/>
+      <c r="E227" s="22"/>
+      <c r="F227" s="21"/>
+      <c r="G227" s="84"/>
+      <c r="H227" s="97"/>
+      <c r="I227" s="98"/>
       <c r="J227" s="80"/>
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
@@ -9119,25 +9143,25 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="83"/>
       <c r="B228" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D228" s="28" t="s">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="E228" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F228" s="30">
-        <v>0</v>
-      </c>
-      <c r="G228" s="92"/>
-      <c r="H228" s="96"/>
+        <v>3</v>
+      </c>
+      <c r="G228" s="87"/>
+      <c r="H228" s="95"/>
       <c r="I228" s="94"/>
       <c r="J228" s="80"/>
       <c r="K228" s="1"/>
@@ -9146,15 +9170,25 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="83"/>
-      <c r="B229" s="103"/>
-      <c r="C229" s="21"/>
-      <c r="D229" s="21"/>
-      <c r="E229" s="22"/>
-      <c r="F229" s="105"/>
+      <c r="B229" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D229" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="E229" s="29">
+        <v>1</v>
+      </c>
+      <c r="F229" s="30">
+        <v>0</v>
+      </c>
       <c r="G229" s="92"/>
-      <c r="H229" s="95"/>
+      <c r="H229" s="96"/>
       <c r="I229" s="94"/>
       <c r="J229" s="80"/>
       <c r="K229" s="1"/>
@@ -9163,25 +9197,15 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="83"/>
-      <c r="B230" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C230" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="D230" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E230" s="29">
-        <v>17</v>
-      </c>
-      <c r="F230" s="30">
-        <v>4</v>
-      </c>
-      <c r="G230" s="87"/>
-      <c r="H230" s="96"/>
+      <c r="B230" s="103"/>
+      <c r="C230" s="21"/>
+      <c r="D230" s="21"/>
+      <c r="E230" s="22"/>
+      <c r="F230" s="105"/>
+      <c r="G230" s="92"/>
+      <c r="H230" s="95"/>
       <c r="I230" s="94"/>
       <c r="J230" s="80"/>
       <c r="K230" s="1"/>
@@ -9190,85 +9214,83 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="83"/>
       <c r="B231" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C231" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D231" s="28" t="s">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="E231" s="29">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F231" s="30">
-        <v>2</v>
-      </c>
-      <c r="G231" s="92"/>
-      <c r="H231" s="95"/>
+        <v>4</v>
+      </c>
+      <c r="G231" s="87"/>
+      <c r="H231" s="96"/>
       <c r="I231" s="94"/>
-      <c r="J231" s="1"/>
+      <c r="J231" s="80"/>
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="83"/>
-      <c r="B232" s="103" t="s">
+      <c r="B232" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C232" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D232" s="103" t="s">
-        <v>215</v>
-      </c>
-      <c r="E232" s="104">
-        <v>1</v>
-      </c>
-      <c r="F232" s="105">
-        <v>0</v>
-      </c>
-      <c r="G232" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="H232" s="96">
-        <v>45190</v>
-      </c>
+      <c r="C232" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D232" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="E232" s="29">
+        <v>5</v>
+      </c>
+      <c r="F232" s="30">
+        <v>2</v>
+      </c>
+      <c r="G232" s="92"/>
+      <c r="H232" s="95"/>
       <c r="I232" s="94"/>
-      <c r="J232" s="80"/>
+      <c r="J232" s="1"/>
       <c r="K232" s="1"/>
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="83"/>
-      <c r="B233" s="28" t="s">
+      <c r="B233" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C233" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="D233" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E233" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="F233" s="30">
+      <c r="C233" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D233" s="103" t="s">
+        <v>215</v>
+      </c>
+      <c r="E233" s="104">
+        <v>1</v>
+      </c>
+      <c r="F233" s="105">
         <v>0</v>
       </c>
-      <c r="G233" s="92">
+      <c r="G233" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="H233" s="96">
         <v>45190</v>
       </c>
-      <c r="H233" s="96"/>
       <c r="I233" s="94"/>
       <c r="J233" s="80"/>
       <c r="K233" s="1"/>
@@ -9277,14 +9299,26 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="83"/>
-      <c r="B234" s="28"/>
-      <c r="C234" s="28"/>
-      <c r="D234" s="28"/>
-      <c r="E234" s="29"/>
-      <c r="F234" s="30"/>
-      <c r="G234" s="92"/>
+      <c r="B234" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C234" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="D234" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E234" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="F234" s="30">
+        <v>0</v>
+      </c>
+      <c r="G234" s="92">
+        <v>45190</v>
+      </c>
       <c r="H234" s="96"/>
       <c r="I234" s="94"/>
       <c r="J234" s="80"/>
@@ -9294,56 +9328,42 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="83"/>
-      <c r="B235" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C235" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="D235" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="E235" s="29">
-        <v>25</v>
-      </c>
-      <c r="F235" s="30">
-        <v>8</v>
-      </c>
+      <c r="B235" s="28"/>
+      <c r="C235" s="28"/>
+      <c r="D235" s="28"/>
+      <c r="E235" s="29"/>
+      <c r="F235" s="30"/>
       <c r="G235" s="92"/>
-      <c r="H235" s="95"/>
+      <c r="H235" s="96"/>
       <c r="I235" s="94"/>
-      <c r="J235" s="1"/>
+      <c r="J235" s="80"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="83"/>
-      <c r="B236" s="103" t="s">
+      <c r="B236" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C236" s="103" t="s">
-        <v>210</v>
-      </c>
-      <c r="D236" s="103" t="s">
-        <v>211</v>
-      </c>
-      <c r="E236" s="104">
-        <v>18</v>
-      </c>
-      <c r="F236" s="105">
-        <v>0</v>
-      </c>
-      <c r="G236" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="H236" s="96">
-        <v>45190</v>
-      </c>
+      <c r="C236" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D236" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E236" s="29">
+        <v>25</v>
+      </c>
+      <c r="F236" s="30">
+        <v>8</v>
+      </c>
+      <c r="G236" s="92"/>
+      <c r="H236" s="95"/>
       <c r="I236" s="94"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
@@ -9352,27 +9372,29 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="83"/>
-      <c r="B237" s="28" t="s">
+      <c r="B237" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C237" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="D237" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="E237" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="F237" s="30">
+      <c r="C237" s="103" t="s">
+        <v>210</v>
+      </c>
+      <c r="D237" s="103" t="s">
+        <v>211</v>
+      </c>
+      <c r="E237" s="104">
+        <v>18</v>
+      </c>
+      <c r="F237" s="105">
         <v>0</v>
       </c>
-      <c r="G237" s="92">
+      <c r="G237" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="H237" s="96">
         <v>45190</v>
       </c>
-      <c r="H237" s="96"/>
       <c r="I237" s="94"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
@@ -9381,58 +9403,58 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="83"/>
-      <c r="B238" s="103" t="s">
+      <c r="B238" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C238" s="103" t="s">
-        <v>212</v>
-      </c>
-      <c r="D238" s="103" t="s">
-        <v>213</v>
-      </c>
-      <c r="E238" s="104">
-        <v>12</v>
-      </c>
-      <c r="F238" s="105">
+      <c r="C238" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="D238" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E238" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="F238" s="30">
         <v>0</v>
       </c>
-      <c r="G238" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="H238" s="96">
-        <v>45162</v>
-      </c>
+      <c r="G238" s="92">
+        <v>45190</v>
+      </c>
+      <c r="H238" s="96"/>
       <c r="I238" s="94"/>
-      <c r="J238" s="80"/>
+      <c r="J238" s="1"/>
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="83"/>
-      <c r="B239" s="28" t="s">
+      <c r="B239" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C239" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="D239" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="E239" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="F239" s="30">
-        <v>6</v>
-      </c>
-      <c r="G239" s="92">
+      <c r="C239" s="103" t="s">
+        <v>212</v>
+      </c>
+      <c r="D239" s="103" t="s">
+        <v>213</v>
+      </c>
+      <c r="E239" s="104">
+        <v>12</v>
+      </c>
+      <c r="F239" s="105">
+        <v>0</v>
+      </c>
+      <c r="G239" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="H239" s="96">
         <v>45162</v>
       </c>
-      <c r="H239" s="96"/>
       <c r="I239" s="94"/>
       <c r="J239" s="80"/>
       <c r="K239" s="1"/>
@@ -9441,24 +9463,26 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="83"/>
       <c r="B240" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C240" s="28" t="s">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="D240" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="E240" s="29">
-        <v>1</v>
+        <v>319</v>
+      </c>
+      <c r="E240" s="29" t="s">
+        <v>284</v>
       </c>
       <c r="F240" s="30">
-        <v>3</v>
-      </c>
-      <c r="G240" s="87"/>
+        <v>6</v>
+      </c>
+      <c r="G240" s="92">
+        <v>45162</v>
+      </c>
       <c r="H240" s="96"/>
       <c r="I240" s="94"/>
       <c r="J240" s="80"/>
@@ -9468,24 +9492,24 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="83"/>
       <c r="B241" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C241" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D241" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E241" s="29">
         <v>1</v>
       </c>
       <c r="F241" s="30">
-        <v>1</v>
-      </c>
-      <c r="G241" s="92"/>
+        <v>3</v>
+      </c>
+      <c r="G241" s="87"/>
       <c r="H241" s="96"/>
       <c r="I241" s="94"/>
       <c r="J241" s="80"/>
@@ -9495,13 +9519,23 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="83"/>
-      <c r="B242" s="28"/>
-      <c r="C242" s="103"/>
-      <c r="D242" s="103"/>
-      <c r="E242" s="104"/>
-      <c r="F242" s="105"/>
+      <c r="B242" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C242" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="D242" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="E242" s="29">
+        <v>1</v>
+      </c>
+      <c r="F242" s="30">
+        <v>1</v>
+      </c>
       <c r="G242" s="92"/>
       <c r="H242" s="96"/>
       <c r="I242" s="94"/>
@@ -9512,16 +9546,16 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="83"/>
-      <c r="B243" s="103"/>
-      <c r="C243" s="28"/>
-      <c r="D243" s="28"/>
-      <c r="E243" s="29"/>
-      <c r="F243" s="30"/>
+      <c r="B243" s="28"/>
+      <c r="C243" s="103"/>
+      <c r="D243" s="103"/>
+      <c r="E243" s="104"/>
+      <c r="F243" s="105"/>
       <c r="G243" s="92"/>
-      <c r="H243" s="99"/>
-      <c r="I243" s="95"/>
+      <c r="H243" s="96"/>
+      <c r="I243" s="94"/>
       <c r="J243" s="80"/>
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
@@ -9529,15 +9563,15 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="83"/>
-      <c r="B244" s="21"/>
+      <c r="B244" s="103"/>
       <c r="C244" s="28"/>
       <c r="D244" s="28"/>
       <c r="E244" s="29"/>
       <c r="F244" s="30"/>
-      <c r="G244" s="99"/>
-      <c r="H244" s="95"/>
+      <c r="G244" s="92"/>
+      <c r="H244" s="99"/>
       <c r="I244" s="95"/>
       <c r="J244" s="80"/>
       <c r="K244" s="1"/>
@@ -9546,22 +9580,16 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
-      <c r="B245" s="35"/>
-      <c r="C245" s="35"/>
-      <c r="D245" s="36"/>
-      <c r="E245" s="37">
-        <f>SUM(E224:E244)</f>
-        <v>92</v>
-      </c>
-      <c r="F245" s="38">
-        <f>SUM(F227:F244)-SUM(F224:F226)</f>
-        <v>11</v>
-      </c>
-      <c r="G245" s="84"/>
-      <c r="H245" s="97"/>
-      <c r="I245" s="97"/>
+    <row r="245" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="83"/>
+      <c r="B245" s="21"/>
+      <c r="C245" s="28"/>
+      <c r="D245" s="28"/>
+      <c r="E245" s="29"/>
+      <c r="F245" s="30"/>
+      <c r="G245" s="99"/>
+      <c r="H245" s="95"/>
+      <c r="I245" s="95"/>
       <c r="J245" s="80"/>
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
@@ -9569,16 +9597,22 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
-      <c r="D246" s="1"/>
-      <c r="E246" s="39"/>
-      <c r="F246" s="35"/>
-      <c r="G246" s="79"/>
-      <c r="H246" s="79"/>
-      <c r="I246" s="79"/>
+      <c r="B246" s="35"/>
+      <c r="C246" s="35"/>
+      <c r="D246" s="36"/>
+      <c r="E246" s="37">
+        <f>SUM(E225:E245)</f>
+        <v>92</v>
+      </c>
+      <c r="F246" s="38">
+        <f>SUM(F228:F245)-SUM(F225:F227)</f>
+        <v>11</v>
+      </c>
+      <c r="G246" s="84"/>
+      <c r="H246" s="97"/>
+      <c r="I246" s="97"/>
       <c r="J246" s="80"/>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
@@ -9586,37 +9620,33 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
-      <c r="G247" s="1"/>
-      <c r="H247" s="1"/>
-      <c r="I247" s="1"/>
-      <c r="J247" s="1"/>
+      <c r="E247" s="39"/>
+      <c r="F247" s="35"/>
+      <c r="G247" s="79"/>
+      <c r="H247" s="79"/>
+      <c r="I247" s="79"/>
+      <c r="J247" s="80"/>
       <c r="K247" s="1"/>
       <c r="L247" s="1"/>
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
-      <c r="C248" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E248" s="2"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
       <c r="F248" s="1"/>
-      <c r="G248" s="79"/>
-      <c r="H248" s="79"/>
-      <c r="I248" s="79"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
@@ -9624,13 +9654,17 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
-      <c r="B249" s="4"/>
-      <c r="C249" s="4"/>
-      <c r="D249" s="4"/>
-      <c r="E249" s="5"/>
-      <c r="F249" s="4"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E249" s="2"/>
+      <c r="F249" s="1"/>
       <c r="G249" s="79"/>
       <c r="H249" s="79"/>
       <c r="I249" s="79"/>
@@ -9641,18 +9675,16 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="83"/>
-      <c r="B250" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C250" s="6"/>
-      <c r="D250" s="6"/>
-      <c r="E250" s="6"/>
-      <c r="F250" s="6"/>
-      <c r="G250" s="84"/>
-      <c r="H250" s="97"/>
-      <c r="I250" s="97"/>
+    <row r="250" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="1"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="4"/>
+      <c r="G250" s="79"/>
+      <c r="H250" s="79"/>
+      <c r="I250" s="79"/>
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
@@ -9660,24 +9692,18 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="83"/>
-      <c r="B251" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C251" s="13"/>
-      <c r="D251" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E251" s="14">
+      <c r="B251" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F251" s="15">
-        <v>15</v>
-      </c>
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+      <c r="F251" s="6"/>
       <c r="G251" s="84"/>
-      <c r="H251" s="99"/>
-      <c r="I251" s="95"/>
+      <c r="H251" s="97"/>
+      <c r="I251" s="97"/>
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
       <c r="L251" s="1"/>
@@ -9685,16 +9711,24 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="83"/>
-      <c r="B252" s="21"/>
-      <c r="C252" s="21"/>
-      <c r="D252" s="21"/>
-      <c r="E252" s="22"/>
-      <c r="F252" s="21"/>
-      <c r="G252" s="90"/>
-      <c r="H252" s="97"/>
-      <c r="I252" s="97"/>
+      <c r="B252" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C252" s="13"/>
+      <c r="D252" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E252" s="14">
+        <v>3</v>
+      </c>
+      <c r="F252" s="15">
+        <v>15</v>
+      </c>
+      <c r="G252" s="84"/>
+      <c r="H252" s="99"/>
+      <c r="I252" s="95"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
@@ -9702,14 +9736,14 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="83"/>
       <c r="B253" s="21"/>
       <c r="C253" s="21"/>
       <c r="D253" s="21"/>
       <c r="E253" s="22"/>
       <c r="F253" s="21"/>
-      <c r="G253" s="84"/>
+      <c r="G253" s="90"/>
       <c r="H253" s="97"/>
       <c r="I253" s="97"/>
       <c r="J253" s="1"/>
@@ -9719,26 +9753,16 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="83"/>
-      <c r="B254" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C254" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D254" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="E254" s="29">
-        <v>3</v>
-      </c>
-      <c r="F254" s="30">
-        <v>0</v>
-      </c>
-      <c r="G254" s="87"/>
-      <c r="H254" s="96"/>
-      <c r="I254" s="95"/>
+      <c r="B254" s="21"/>
+      <c r="C254" s="21"/>
+      <c r="D254" s="21"/>
+      <c r="E254" s="22"/>
+      <c r="F254" s="21"/>
+      <c r="G254" s="84"/>
+      <c r="H254" s="97"/>
+      <c r="I254" s="97"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
       <c r="L254" s="1"/>
@@ -9746,25 +9770,25 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="83"/>
       <c r="B255" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D255" s="28" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="E255" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F255" s="30">
         <v>0</v>
       </c>
-      <c r="G255" s="92"/>
-      <c r="H255" s="95"/>
+      <c r="G255" s="87"/>
+      <c r="H255" s="96"/>
       <c r="I255" s="95"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
@@ -9773,14 +9797,24 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="83"/>
-      <c r="B256" s="103"/>
-      <c r="C256" s="28"/>
-      <c r="D256" s="28"/>
-      <c r="E256" s="29"/>
-      <c r="F256" s="105"/>
-      <c r="G256" s="87"/>
+      <c r="B256" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C256" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D256" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" s="29">
+        <v>1</v>
+      </c>
+      <c r="F256" s="30">
+        <v>0</v>
+      </c>
+      <c r="G256" s="92"/>
       <c r="H256" s="95"/>
       <c r="I256" s="95"/>
       <c r="J256" s="1"/>
@@ -9790,23 +9824,13 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="83"/>
-      <c r="B257" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C257" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="D257" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="E257" s="29">
-        <v>1</v>
-      </c>
-      <c r="F257" s="105">
-        <v>0</v>
-      </c>
+      <c r="B257" s="103"/>
+      <c r="C257" s="28"/>
+      <c r="D257" s="28"/>
+      <c r="E257" s="29"/>
+      <c r="F257" s="105"/>
       <c r="G257" s="87"/>
       <c r="H257" s="95"/>
       <c r="I257" s="95"/>
@@ -9817,25 +9841,25 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="83"/>
       <c r="B258" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D258" s="28" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="E258" s="29">
-        <v>4</v>
-      </c>
-      <c r="F258" s="30">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F258" s="105">
+        <v>0</v>
       </c>
       <c r="G258" s="87"/>
-      <c r="H258" s="96"/>
+      <c r="H258" s="95"/>
       <c r="I258" s="95"/>
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
@@ -9844,24 +9868,24 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="83"/>
       <c r="B259" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C259" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D259" s="28" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E259" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F259" s="30">
-        <v>7</v>
-      </c>
-      <c r="G259" s="96"/>
+        <v>2</v>
+      </c>
+      <c r="G259" s="87"/>
       <c r="H259" s="96"/>
       <c r="I259" s="95"/>
       <c r="J259" s="1"/>
@@ -9871,15 +9895,25 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="83"/>
-      <c r="B260" s="28"/>
-      <c r="C260" s="28"/>
-      <c r="D260" s="28"/>
-      <c r="E260" s="29"/>
-      <c r="F260" s="30"/>
-      <c r="G260" s="92"/>
-      <c r="H260" s="95"/>
+      <c r="B260" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C260" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D260" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E260" s="29">
+        <v>5</v>
+      </c>
+      <c r="F260" s="30">
+        <v>7</v>
+      </c>
+      <c r="G260" s="96"/>
+      <c r="H260" s="96"/>
       <c r="I260" s="95"/>
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
@@ -9888,14 +9922,14 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="83"/>
       <c r="B261" s="28"/>
       <c r="C261" s="28"/>
       <c r="D261" s="28"/>
       <c r="E261" s="29"/>
       <c r="F261" s="30"/>
-      <c r="G261" s="87"/>
+      <c r="G261" s="92"/>
       <c r="H261" s="95"/>
       <c r="I261" s="95"/>
       <c r="J261" s="1"/>
@@ -9905,29 +9939,15 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="83"/>
-      <c r="B262" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="C262" s="103" t="s">
-        <v>231</v>
-      </c>
-      <c r="D262" s="103" t="s">
-        <v>304</v>
-      </c>
-      <c r="E262" s="104">
-        <v>26</v>
-      </c>
-      <c r="F262" s="105">
-        <v>0</v>
-      </c>
-      <c r="G262" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="H262" s="96">
-        <v>45162</v>
-      </c>
+      <c r="B262" s="28"/>
+      <c r="C262" s="28"/>
+      <c r="D262" s="28"/>
+      <c r="E262" s="29"/>
+      <c r="F262" s="30"/>
+      <c r="G262" s="87"/>
+      <c r="H262" s="95"/>
       <c r="I262" s="95"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
@@ -9936,27 +9956,29 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="83"/>
-      <c r="B263" s="28" t="s">
+      <c r="B263" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C263" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="D263" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E263" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="F263" s="30">
+      <c r="C263" s="103" t="s">
+        <v>231</v>
+      </c>
+      <c r="D263" s="103" t="s">
+        <v>304</v>
+      </c>
+      <c r="E263" s="104">
+        <v>26</v>
+      </c>
+      <c r="F263" s="105">
         <v>0</v>
       </c>
-      <c r="G263" s="92">
+      <c r="G263" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="H263" s="96">
         <v>45162</v>
       </c>
-      <c r="H263" s="95"/>
       <c r="I263" s="95"/>
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
@@ -9965,25 +9987,27 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="83"/>
       <c r="B264" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="D264" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="E264" s="29">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="E264" s="29" t="s">
+        <v>284</v>
       </c>
       <c r="F264" s="30">
-        <v>6</v>
-      </c>
-      <c r="G264" s="87"/>
-      <c r="H264" s="96"/>
+        <v>0</v>
+      </c>
+      <c r="G264" s="92">
+        <v>45162</v>
+      </c>
+      <c r="H264" s="95"/>
       <c r="I264" s="95"/>
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
@@ -9992,24 +10016,24 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="83"/>
       <c r="B265" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D265" s="28" t="s">
-        <v>26</v>
+        <v>226</v>
       </c>
       <c r="E265" s="29">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F265" s="30">
-        <v>4</v>
-      </c>
-      <c r="G265" s="92"/>
+        <v>6</v>
+      </c>
+      <c r="G265" s="87"/>
       <c r="H265" s="96"/>
       <c r="I265" s="95"/>
       <c r="J265" s="1"/>
@@ -10019,22 +10043,22 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="83"/>
       <c r="B266" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C266" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D266" s="28" t="s">
-        <v>236</v>
+        <v>26</v>
       </c>
       <c r="E266" s="29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F266" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G266" s="92"/>
       <c r="H266" s="96"/>
@@ -10046,22 +10070,22 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="83"/>
       <c r="B267" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D267" s="28" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="E267" s="29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F267" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G267" s="92"/>
       <c r="H267" s="96"/>
@@ -10073,15 +10097,25 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="83"/>
-      <c r="B268" s="103"/>
-      <c r="C268" s="28"/>
-      <c r="D268" s="28"/>
-      <c r="E268" s="29"/>
-      <c r="F268" s="30"/>
-      <c r="G268" s="87"/>
-      <c r="H268" s="95"/>
+      <c r="B268" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C268" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D268" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E268" s="29">
+        <v>1</v>
+      </c>
+      <c r="F268" s="30">
+        <v>2</v>
+      </c>
+      <c r="G268" s="92"/>
+      <c r="H268" s="96"/>
       <c r="I268" s="95"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
@@ -10090,15 +10124,15 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="83"/>
-      <c r="B269" s="28"/>
-      <c r="C269" s="103"/>
-      <c r="D269" s="103"/>
-      <c r="E269" s="104"/>
-      <c r="F269" s="105"/>
-      <c r="G269" s="92"/>
-      <c r="H269" s="96"/>
+      <c r="B269" s="103"/>
+      <c r="C269" s="28"/>
+      <c r="D269" s="28"/>
+      <c r="E269" s="29"/>
+      <c r="F269" s="30"/>
+      <c r="G269" s="87"/>
+      <c r="H269" s="95"/>
       <c r="I269" s="95"/>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
@@ -10107,15 +10141,15 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="83"/>
-      <c r="B270" s="103"/>
-      <c r="C270" s="21"/>
-      <c r="D270" s="21"/>
-      <c r="E270" s="22"/>
-      <c r="F270" s="21"/>
+      <c r="B270" s="28"/>
+      <c r="C270" s="103"/>
+      <c r="D270" s="103"/>
+      <c r="E270" s="104"/>
+      <c r="F270" s="105"/>
       <c r="G270" s="92"/>
-      <c r="H270" s="95"/>
+      <c r="H270" s="96"/>
       <c r="I270" s="95"/>
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
@@ -10124,14 +10158,14 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="83"/>
-      <c r="B271" s="21"/>
-      <c r="C271" s="33"/>
-      <c r="D271" s="33"/>
-      <c r="E271" s="34"/>
-      <c r="F271" s="33"/>
-      <c r="G271" s="87"/>
+      <c r="B271" s="103"/>
+      <c r="C271" s="21"/>
+      <c r="D271" s="21"/>
+      <c r="E271" s="22"/>
+      <c r="F271" s="21"/>
+      <c r="G271" s="92"/>
       <c r="H271" s="95"/>
       <c r="I271" s="95"/>
       <c r="J271" s="1"/>
@@ -10141,22 +10175,16 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="1"/>
-      <c r="B272" s="35"/>
-      <c r="C272" s="35"/>
-      <c r="D272" s="36"/>
-      <c r="E272" s="37">
-        <f>SUM(E251:E271)</f>
-        <v>94</v>
-      </c>
-      <c r="F272" s="38">
-        <f>SUM(F254:F271)-SUM(F251:F253)</f>
-        <v>9</v>
-      </c>
-      <c r="G272" s="84"/>
-      <c r="H272" s="97"/>
-      <c r="I272" s="97"/>
+    <row r="272" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="83"/>
+      <c r="B272" s="21"/>
+      <c r="C272" s="33"/>
+      <c r="D272" s="33"/>
+      <c r="E272" s="34"/>
+      <c r="F272" s="33"/>
+      <c r="G272" s="87"/>
+      <c r="H272" s="95"/>
+      <c r="I272" s="95"/>
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
       <c r="L272" s="1"/>
@@ -10164,16 +10192,22 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
-      <c r="D273" s="1"/>
-      <c r="E273" s="39"/>
-      <c r="F273" s="35"/>
-      <c r="G273" s="79"/>
-      <c r="H273" s="79"/>
-      <c r="I273" s="79"/>
+      <c r="B273" s="35"/>
+      <c r="C273" s="35"/>
+      <c r="D273" s="36"/>
+      <c r="E273" s="37">
+        <f>SUM(E252:E272)</f>
+        <v>94</v>
+      </c>
+      <c r="F273" s="38">
+        <f>SUM(F255:F272)-SUM(F252:F254)</f>
+        <v>9</v>
+      </c>
+      <c r="G273" s="84"/>
+      <c r="H273" s="97"/>
+      <c r="I273" s="97"/>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
@@ -10181,16 +10215,16 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
-      <c r="E274" s="4"/>
-      <c r="F274" s="4"/>
-      <c r="G274" s="1"/>
-      <c r="H274" s="1"/>
-      <c r="I274" s="1"/>
+      <c r="E274" s="39"/>
+      <c r="F274" s="35"/>
+      <c r="G274" s="79"/>
+      <c r="H274" s="79"/>
+      <c r="I274" s="79"/>
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
@@ -10198,20 +10232,16 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
-      <c r="C275" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E275" s="2"/>
-      <c r="F275" s="1"/>
-      <c r="G275" s="79"/>
-      <c r="H275" s="79"/>
-      <c r="I275" s="79"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="4"/>
+      <c r="F275" s="4"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1"/>
+      <c r="I275" s="1"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
@@ -10219,13 +10249,17 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
-      <c r="B276" s="4"/>
-      <c r="C276" s="4"/>
-      <c r="D276" s="4"/>
-      <c r="E276" s="5"/>
-      <c r="F276" s="4"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E276" s="2"/>
+      <c r="F276" s="1"/>
       <c r="G276" s="79"/>
       <c r="H276" s="79"/>
       <c r="I276" s="79"/>
@@ -10236,26 +10270,16 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="83"/>
-      <c r="B277" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D277" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E277" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F277" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G277" s="84"/>
-      <c r="H277" s="97"/>
-      <c r="I277" s="97"/>
+    <row r="277" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="1"/>
+      <c r="B277" s="4"/>
+      <c r="C277" s="4"/>
+      <c r="D277" s="4"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="4"/>
+      <c r="G277" s="79"/>
+      <c r="H277" s="79"/>
+      <c r="I277" s="79"/>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
@@ -10263,20 +10287,22 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" s="83"/>
-      <c r="B278" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C278" s="13"/>
-      <c r="D278" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E278" s="40">
-        <v>11</v>
-      </c>
-      <c r="F278" s="15">
-        <v>8</v>
+      <c r="B278" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F278" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G278" s="84"/>
       <c r="H278" s="97"/>
@@ -10288,13 +10314,21 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="83"/>
-      <c r="B279" s="21"/>
-      <c r="C279" s="21"/>
-      <c r="D279" s="21"/>
-      <c r="E279" s="22"/>
-      <c r="F279" s="21"/>
+      <c r="B279" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C279" s="13"/>
+      <c r="D279" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E279" s="40">
+        <v>11</v>
+      </c>
+      <c r="F279" s="15">
+        <v>8</v>
+      </c>
       <c r="G279" s="84"/>
       <c r="H279" s="97"/>
       <c r="I279" s="97"/>
@@ -10305,7 +10339,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="83"/>
       <c r="B280" s="21"/>
       <c r="C280" s="21"/>
@@ -10322,26 +10356,16 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="83"/>
-      <c r="B281" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C281" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="D281" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E281" s="22">
-        <v>1</v>
-      </c>
-      <c r="F281" s="30">
-        <v>0</v>
-      </c>
-      <c r="G281" s="87"/>
-      <c r="H281" s="95"/>
-      <c r="I281" s="95"/>
+      <c r="B281" s="21"/>
+      <c r="C281" s="21"/>
+      <c r="D281" s="21"/>
+      <c r="E281" s="22"/>
+      <c r="F281" s="21"/>
+      <c r="G281" s="84"/>
+      <c r="H281" s="97"/>
+      <c r="I281" s="97"/>
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
       <c r="L281" s="1"/>
@@ -10349,16 +10373,16 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="83"/>
       <c r="B282" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C282" s="21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E282" s="22">
         <v>1</v>
@@ -10367,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="G282" s="87"/>
-      <c r="H282" s="96"/>
+      <c r="H282" s="95"/>
       <c r="I282" s="95"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
@@ -10376,15 +10400,25 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="83"/>
-      <c r="B283" s="103"/>
-      <c r="C283" s="21"/>
-      <c r="D283" s="21"/>
-      <c r="E283" s="22"/>
-      <c r="F283" s="105"/>
-      <c r="G283" s="92"/>
-      <c r="H283" s="95"/>
+      <c r="B283" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C283" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D283" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E283" s="22">
+        <v>1</v>
+      </c>
+      <c r="F283" s="30">
+        <v>0</v>
+      </c>
+      <c r="G283" s="87"/>
+      <c r="H283" s="96"/>
       <c r="I283" s="95"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
@@ -10393,25 +10427,15 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="83"/>
-      <c r="B284" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C284" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="D284" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E284" s="22">
-        <v>18</v>
-      </c>
-      <c r="F284" s="30">
-        <v>2</v>
-      </c>
-      <c r="G284" s="87"/>
-      <c r="H284" s="96"/>
+      <c r="B284" s="103"/>
+      <c r="C284" s="21"/>
+      <c r="D284" s="21"/>
+      <c r="E284" s="22"/>
+      <c r="F284" s="105"/>
+      <c r="G284" s="92"/>
+      <c r="H284" s="95"/>
       <c r="I284" s="95"/>
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
@@ -10420,29 +10444,25 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="83"/>
-      <c r="B285" s="103" t="s">
+      <c r="B285" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C285" s="107" t="s">
-        <v>240</v>
-      </c>
-      <c r="D285" s="107" t="s">
-        <v>182</v>
-      </c>
-      <c r="E285" s="108">
-        <v>8</v>
-      </c>
-      <c r="F285" s="105">
-        <v>0</v>
-      </c>
-      <c r="G285" s="96" t="s">
-        <v>285</v>
-      </c>
-      <c r="H285" s="96">
-        <v>45148</v>
-      </c>
+      <c r="C285" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D285" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E285" s="22">
+        <v>18</v>
+      </c>
+      <c r="F285" s="30">
+        <v>2</v>
+      </c>
+      <c r="G285" s="87"/>
+      <c r="H285" s="96"/>
       <c r="I285" s="95"/>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
@@ -10451,27 +10471,29 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="83"/>
-      <c r="B286" s="28" t="s">
+      <c r="B286" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C286" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="D286" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E286" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F286" s="30">
-        <v>3</v>
-      </c>
-      <c r="G286" s="92">
+      <c r="C286" s="107" t="s">
+        <v>240</v>
+      </c>
+      <c r="D286" s="107" t="s">
+        <v>182</v>
+      </c>
+      <c r="E286" s="108">
+        <v>8</v>
+      </c>
+      <c r="F286" s="105">
+        <v>0</v>
+      </c>
+      <c r="G286" s="96" t="s">
+        <v>285</v>
+      </c>
+      <c r="H286" s="96">
         <v>45148</v>
       </c>
-      <c r="H286" s="96"/>
       <c r="I286" s="95"/>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
@@ -10480,25 +10502,27 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="83"/>
       <c r="B287" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C287" s="21" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="D287" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E287" s="22">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="E287" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="F287" s="30">
-        <v>2</v>
-      </c>
-      <c r="G287" s="92"/>
-      <c r="H287" s="95"/>
+        <v>3</v>
+      </c>
+      <c r="G287" s="92">
+        <v>45148</v>
+      </c>
+      <c r="H287" s="96"/>
       <c r="I287" s="95"/>
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
@@ -10507,14 +10531,24 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="83"/>
-      <c r="B288" s="28"/>
-      <c r="C288" s="21"/>
-      <c r="D288" s="21"/>
-      <c r="E288" s="22"/>
-      <c r="F288" s="30"/>
-      <c r="G288" s="87"/>
+      <c r="B288" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C288" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D288" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E288" s="22">
+        <v>2</v>
+      </c>
+      <c r="F288" s="30">
+        <v>2</v>
+      </c>
+      <c r="G288" s="92"/>
       <c r="H288" s="95"/>
       <c r="I288" s="95"/>
       <c r="J288" s="1"/>
@@ -10524,25 +10558,15 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="83"/>
-      <c r="B289" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C289" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D289" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="E289" s="22">
-        <v>30</v>
-      </c>
-      <c r="F289" s="30">
-        <v>6</v>
-      </c>
+      <c r="B289" s="28"/>
+      <c r="C289" s="21"/>
+      <c r="D289" s="21"/>
+      <c r="E289" s="22"/>
+      <c r="F289" s="30"/>
       <c r="G289" s="87"/>
-      <c r="H289" s="96"/>
+      <c r="H289" s="95"/>
       <c r="I289" s="95"/>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
@@ -10551,24 +10575,24 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="83"/>
       <c r="B290" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C290" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D290" s="21" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="E290" s="22">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F290" s="30">
-        <v>3</v>
-      </c>
-      <c r="G290" s="92"/>
+        <v>6</v>
+      </c>
+      <c r="G290" s="87"/>
       <c r="H290" s="96"/>
       <c r="I290" s="95"/>
       <c r="J290" s="1"/>
@@ -10578,22 +10602,22 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="83"/>
       <c r="B291" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C291" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="E291" s="22">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F291" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G291" s="92"/>
       <c r="H291" s="96"/>
@@ -10605,22 +10629,22 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="83"/>
       <c r="B292" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C292" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D292" s="21" t="s">
-        <v>33</v>
+        <v>248</v>
       </c>
       <c r="E292" s="22">
         <v>1</v>
       </c>
       <c r="F292" s="30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G292" s="92"/>
       <c r="H292" s="96"/>
@@ -10632,22 +10656,22 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="83"/>
       <c r="B293" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C293" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D293" s="21" t="s">
-        <v>247</v>
+        <v>33</v>
       </c>
       <c r="E293" s="22">
         <v>1</v>
       </c>
       <c r="F293" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G293" s="92"/>
       <c r="H293" s="96"/>
@@ -10659,13 +10683,23 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="83"/>
-      <c r="B294" s="28"/>
-      <c r="C294" s="107"/>
-      <c r="D294" s="107"/>
-      <c r="E294" s="108"/>
-      <c r="F294" s="105"/>
+      <c r="B294" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C294" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D294" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E294" s="22">
+        <v>1</v>
+      </c>
+      <c r="F294" s="30">
+        <v>1</v>
+      </c>
       <c r="G294" s="92"/>
       <c r="H294" s="96"/>
       <c r="I294" s="95"/>
@@ -10676,13 +10710,13 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="83"/>
-      <c r="B295" s="103"/>
-      <c r="C295" s="21"/>
-      <c r="D295" s="21"/>
-      <c r="E295" s="22"/>
-      <c r="F295" s="30"/>
+      <c r="B295" s="28"/>
+      <c r="C295" s="107"/>
+      <c r="D295" s="107"/>
+      <c r="E295" s="108"/>
+      <c r="F295" s="105"/>
       <c r="G295" s="92"/>
       <c r="H295" s="96"/>
       <c r="I295" s="95"/>
@@ -10693,9 +10727,9 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="83"/>
-      <c r="B296" s="28"/>
+      <c r="B296" s="103"/>
       <c r="C296" s="21"/>
       <c r="D296" s="21"/>
       <c r="E296" s="22"/>
@@ -10710,14 +10744,14 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="83"/>
-      <c r="B297" s="103"/>
-      <c r="C297" s="107"/>
-      <c r="D297" s="107"/>
-      <c r="E297" s="108"/>
-      <c r="F297" s="105"/>
-      <c r="G297" s="87"/>
+      <c r="B297" s="28"/>
+      <c r="C297" s="21"/>
+      <c r="D297" s="21"/>
+      <c r="E297" s="22"/>
+      <c r="F297" s="30"/>
+      <c r="G297" s="92"/>
       <c r="H297" s="96"/>
       <c r="I297" s="95"/>
       <c r="J297" s="1"/>
@@ -10727,14 +10761,14 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="83"/>
-      <c r="B298" s="21"/>
-      <c r="C298" s="21"/>
-      <c r="D298" s="21"/>
-      <c r="E298" s="22"/>
-      <c r="F298" s="30"/>
-      <c r="G298" s="92"/>
+      <c r="B298" s="103"/>
+      <c r="C298" s="107"/>
+      <c r="D298" s="107"/>
+      <c r="E298" s="108"/>
+      <c r="F298" s="105"/>
+      <c r="G298" s="87"/>
       <c r="H298" s="96"/>
       <c r="I298" s="95"/>
       <c r="J298" s="1"/>
@@ -10744,22 +10778,16 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="1"/>
-      <c r="B299" s="35"/>
-      <c r="C299" s="35"/>
-      <c r="D299" s="36"/>
-      <c r="E299" s="37">
-        <f>SUM(E278:E298)</f>
-        <v>94</v>
-      </c>
-      <c r="F299" s="38">
-        <f>SUM(F280:F298)-SUM(F278:F279)</f>
-        <v>13</v>
-      </c>
-      <c r="G299" s="84"/>
-      <c r="H299" s="97"/>
-      <c r="I299" s="97"/>
+    <row r="299" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="83"/>
+      <c r="B299" s="21"/>
+      <c r="C299" s="21"/>
+      <c r="D299" s="21"/>
+      <c r="E299" s="22"/>
+      <c r="F299" s="30"/>
+      <c r="G299" s="92"/>
+      <c r="H299" s="96"/>
+      <c r="I299" s="95"/>
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
       <c r="L299" s="1"/>
@@ -10767,16 +10795,22 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
-      <c r="C300" s="1"/>
-      <c r="D300" s="1"/>
-      <c r="E300" s="39"/>
-      <c r="F300" s="35"/>
-      <c r="G300" s="79"/>
-      <c r="H300" s="79"/>
-      <c r="I300" s="79"/>
+      <c r="B300" s="35"/>
+      <c r="C300" s="35"/>
+      <c r="D300" s="36"/>
+      <c r="E300" s="37">
+        <f>SUM(E279:E299)</f>
+        <v>94</v>
+      </c>
+      <c r="F300" s="38">
+        <f>SUM(F281:F299)-SUM(F279:F280)</f>
+        <v>13</v>
+      </c>
+      <c r="G300" s="84"/>
+      <c r="H300" s="97"/>
+      <c r="I300" s="97"/>
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
       <c r="L300" s="1"/>
@@ -10784,16 +10818,16 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
-      <c r="E301" s="1"/>
-      <c r="F301" s="1"/>
-      <c r="G301" s="1"/>
-      <c r="H301" s="1"/>
-      <c r="I301" s="1"/>
+      <c r="E301" s="39"/>
+      <c r="F301" s="35"/>
+      <c r="G301" s="79"/>
+      <c r="H301" s="79"/>
+      <c r="I301" s="79"/>
       <c r="J301" s="1"/>
       <c r="K301" s="1"/>
       <c r="L301" s="1"/>
@@ -10801,20 +10835,16 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
-      <c r="C302" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E302" s="2"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
       <c r="F302" s="1"/>
-      <c r="G302" s="79"/>
-      <c r="H302" s="79"/>
-      <c r="I302" s="79"/>
+      <c r="G302" s="1"/>
+      <c r="H302" s="1"/>
+      <c r="I302" s="1"/>
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
       <c r="L302" s="1"/>
@@ -10822,13 +10852,17 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
-      <c r="B303" s="4"/>
-      <c r="C303" s="4"/>
-      <c r="D303" s="4"/>
-      <c r="E303" s="5"/>
-      <c r="F303" s="4"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E303" s="2"/>
+      <c r="F303" s="1"/>
       <c r="G303" s="79"/>
       <c r="H303" s="79"/>
       <c r="I303" s="79"/>
@@ -10839,26 +10873,16 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="83"/>
-      <c r="B304" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C304" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D304" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E304" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F304" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G304" s="84"/>
-      <c r="H304" s="97"/>
-      <c r="I304" s="97"/>
+    <row r="304" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="1"/>
+      <c r="B304" s="4"/>
+      <c r="C304" s="4"/>
+      <c r="D304" s="4"/>
+      <c r="E304" s="5"/>
+      <c r="F304" s="4"/>
+      <c r="G304" s="79"/>
+      <c r="H304" s="79"/>
+      <c r="I304" s="79"/>
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
       <c r="L304" s="1"/>
@@ -10866,23 +10890,25 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A305" s="83"/>
-      <c r="B305" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C305" s="13"/>
-      <c r="D305" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E305" s="40">
+      <c r="B305" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E305" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F305" s="15">
-        <v>11</v>
+      <c r="F305" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G305" s="84"/>
-      <c r="H305" s="96"/>
+      <c r="H305" s="97"/>
       <c r="I305" s="97"/>
       <c r="J305" s="1"/>
       <c r="K305" s="1"/>
@@ -10891,14 +10917,22 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="83"/>
-      <c r="B306" s="21"/>
-      <c r="C306" s="21"/>
-      <c r="D306" s="21"/>
-      <c r="E306" s="22"/>
-      <c r="F306" s="21"/>
-      <c r="G306" s="92"/>
+      <c r="B306" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C306" s="13"/>
+      <c r="D306" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E306" s="40">
+        <v>6</v>
+      </c>
+      <c r="F306" s="15">
+        <v>11</v>
+      </c>
+      <c r="G306" s="84"/>
       <c r="H306" s="96"/>
       <c r="I306" s="97"/>
       <c r="J306" s="1"/>
@@ -10908,7 +10942,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="83"/>
       <c r="B307" s="21"/>
       <c r="C307" s="21"/>
@@ -10916,8 +10950,8 @@
       <c r="E307" s="22"/>
       <c r="F307" s="21"/>
       <c r="G307" s="92"/>
-      <c r="H307" s="97"/>
-      <c r="I307" s="95"/>
+      <c r="H307" s="96"/>
+      <c r="I307" s="97"/>
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
       <c r="L307" s="1"/>
@@ -10925,25 +10959,15 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="83"/>
-      <c r="B308" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C308" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="D308" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="E308" s="22">
-        <v>1</v>
-      </c>
-      <c r="F308" s="30">
-        <v>0</v>
-      </c>
-      <c r="G308" s="87"/>
-      <c r="H308" s="96"/>
+      <c r="B308" s="21"/>
+      <c r="C308" s="21"/>
+      <c r="D308" s="21"/>
+      <c r="E308" s="22"/>
+      <c r="F308" s="21"/>
+      <c r="G308" s="92"/>
+      <c r="H308" s="97"/>
       <c r="I308" s="95"/>
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
@@ -10952,25 +10976,25 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="83"/>
       <c r="B309" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C309" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E309" s="22">
         <v>1</v>
       </c>
       <c r="F309" s="30">
-        <v>1</v>
-      </c>
-      <c r="G309" s="92"/>
-      <c r="H309" s="95"/>
+        <v>0</v>
+      </c>
+      <c r="G309" s="87"/>
+      <c r="H309" s="96"/>
       <c r="I309" s="95"/>
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
@@ -10979,14 +11003,24 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="83"/>
-      <c r="B310" s="103"/>
-      <c r="C310" s="21"/>
-      <c r="D310" s="21"/>
-      <c r="E310" s="22"/>
-      <c r="F310" s="105"/>
-      <c r="G310" s="87"/>
+      <c r="B310" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C310" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D310" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E310" s="22">
+        <v>1</v>
+      </c>
+      <c r="F310" s="30">
+        <v>1</v>
+      </c>
+      <c r="G310" s="92"/>
       <c r="H310" s="95"/>
       <c r="I310" s="95"/>
       <c r="J310" s="1"/>
@@ -10996,29 +11030,15 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="83"/>
-      <c r="B311" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C311" s="107" t="s">
-        <v>253</v>
-      </c>
-      <c r="D311" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="E311" s="108">
-        <v>4</v>
-      </c>
-      <c r="F311" s="105">
-        <v>0</v>
-      </c>
-      <c r="G311" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="H311" s="96">
-        <v>45169</v>
-      </c>
+      <c r="B311" s="103"/>
+      <c r="C311" s="21"/>
+      <c r="D311" s="21"/>
+      <c r="E311" s="22"/>
+      <c r="F311" s="105"/>
+      <c r="G311" s="87"/>
+      <c r="H311" s="95"/>
       <c r="I311" s="95"/>
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
@@ -11027,27 +11047,29 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="83"/>
-      <c r="B312" s="28" t="s">
+      <c r="B312" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C312" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="D312" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E312" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F312" s="30">
-        <v>2</v>
-      </c>
-      <c r="G312" s="92">
+      <c r="C312" s="107" t="s">
+        <v>253</v>
+      </c>
+      <c r="D312" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="E312" s="108">
+        <v>4</v>
+      </c>
+      <c r="F312" s="105">
+        <v>0</v>
+      </c>
+      <c r="G312" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="H312" s="96">
         <v>45169</v>
       </c>
-      <c r="H312" s="95"/>
       <c r="I312" s="95"/>
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
@@ -11056,25 +11078,27 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="83"/>
       <c r="B313" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C313" s="21" t="s">
-        <v>254</v>
+        <v>326</v>
       </c>
       <c r="D313" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E313" s="22">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E313" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="F313" s="30">
-        <v>4</v>
-      </c>
-      <c r="G313" s="87"/>
-      <c r="H313" s="96"/>
+        <v>2</v>
+      </c>
+      <c r="G313" s="92">
+        <v>45169</v>
+      </c>
+      <c r="H313" s="95"/>
       <c r="I313" s="95"/>
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
@@ -11083,29 +11107,25 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="83"/>
-      <c r="B314" s="103" t="s">
+      <c r="B314" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C314" s="107" t="s">
-        <v>255</v>
-      </c>
-      <c r="D314" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="E314" s="108">
+      <c r="C314" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D314" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E314" s="22">
         <v>1</v>
       </c>
-      <c r="F314" s="105">
-        <v>1</v>
-      </c>
-      <c r="G314" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="H314" s="96">
-        <v>45232</v>
-      </c>
+      <c r="F314" s="30">
+        <v>4</v>
+      </c>
+      <c r="G314" s="87"/>
+      <c r="H314" s="96"/>
       <c r="I314" s="95"/>
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
@@ -11114,27 +11134,29 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="83"/>
-      <c r="B315" s="28" t="s">
+      <c r="B315" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C315" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="D315" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E315" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F315" s="30">
-        <v>0</v>
-      </c>
-      <c r="G315" s="92">
+      <c r="C315" s="107" t="s">
+        <v>255</v>
+      </c>
+      <c r="D315" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="E315" s="108">
+        <v>1</v>
+      </c>
+      <c r="F315" s="105">
+        <v>1</v>
+      </c>
+      <c r="G315" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="H315" s="96">
         <v>45232</v>
       </c>
-      <c r="H315" s="95"/>
       <c r="I315" s="95"/>
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
@@ -11143,14 +11165,26 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="83"/>
-      <c r="B316" s="28"/>
-      <c r="C316" s="21"/>
-      <c r="D316" s="21"/>
-      <c r="E316" s="22"/>
-      <c r="F316" s="30"/>
-      <c r="G316" s="87"/>
+      <c r="B316" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C316" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="D316" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E316" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F316" s="30">
+        <v>0</v>
+      </c>
+      <c r="G316" s="92">
+        <v>45232</v>
+      </c>
       <c r="H316" s="95"/>
       <c r="I316" s="95"/>
       <c r="J316" s="1"/>
@@ -11160,25 +11194,15 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="83"/>
-      <c r="B317" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C317" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="D317" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E317" s="22">
-        <v>20</v>
-      </c>
-      <c r="F317" s="30">
-        <v>5</v>
-      </c>
+      <c r="B317" s="28"/>
+      <c r="C317" s="21"/>
+      <c r="D317" s="21"/>
+      <c r="E317" s="22"/>
+      <c r="F317" s="30"/>
       <c r="G317" s="87"/>
-      <c r="H317" s="96"/>
+      <c r="H317" s="95"/>
       <c r="I317" s="95"/>
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
@@ -11187,25 +11211,25 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="83"/>
       <c r="B318" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C318" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="E318" s="22">
         <v>20</v>
       </c>
       <c r="F318" s="30">
-        <v>9</v>
-      </c>
-      <c r="G318" s="92"/>
-      <c r="H318" s="95"/>
+        <v>5</v>
+      </c>
+      <c r="G318" s="87"/>
+      <c r="H318" s="96"/>
       <c r="I318" s="95"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
@@ -11214,24 +11238,24 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="83"/>
       <c r="B319" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C319" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D319" s="21" t="s">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="E319" s="22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F319" s="30">
-        <v>7</v>
-      </c>
-      <c r="G319" s="87"/>
+        <v>9</v>
+      </c>
+      <c r="G319" s="92"/>
       <c r="H319" s="95"/>
       <c r="I319" s="95"/>
       <c r="J319" s="1"/>
@@ -11241,22 +11265,22 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="83"/>
       <c r="B320" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C320" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D320" s="21" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="E320" s="22">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F320" s="30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G320" s="87"/>
       <c r="H320" s="95"/>
@@ -11268,29 +11292,25 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="83"/>
-      <c r="B321" s="103" t="s">
+      <c r="B321" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C321" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="D321" s="107" t="s">
-        <v>115</v>
-      </c>
-      <c r="E321" s="108">
+      <c r="C321" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D321" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E321" s="22">
+        <v>5</v>
+      </c>
+      <c r="F321" s="30">
         <v>1</v>
       </c>
-      <c r="F321" s="105">
-        <v>1</v>
-      </c>
-      <c r="G321" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="H321" s="96">
-        <v>45169</v>
-      </c>
+      <c r="G321" s="87"/>
+      <c r="H321" s="95"/>
       <c r="I321" s="95"/>
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
@@ -11299,27 +11319,29 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="83"/>
-      <c r="B322" s="28" t="s">
+      <c r="B322" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C322" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="D322" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="E322" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F322" s="30">
-        <v>2</v>
-      </c>
-      <c r="G322" s="92">
+      <c r="C322" s="107" t="s">
+        <v>260</v>
+      </c>
+      <c r="D322" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="E322" s="108">
+        <v>1</v>
+      </c>
+      <c r="F322" s="105">
+        <v>1</v>
+      </c>
+      <c r="G322" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="H322" s="96">
         <v>45169</v>
       </c>
-      <c r="H322" s="95"/>
       <c r="I322" s="95"/>
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
@@ -11328,15 +11350,27 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="83"/>
-      <c r="B323" s="103"/>
-      <c r="C323" s="107"/>
-      <c r="D323" s="107"/>
-      <c r="E323" s="108"/>
-      <c r="F323" s="105"/>
-      <c r="G323" s="87"/>
-      <c r="H323" s="96"/>
+      <c r="B323" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C323" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="D323" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E323" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F323" s="30">
+        <v>2</v>
+      </c>
+      <c r="G323" s="92">
+        <v>45169</v>
+      </c>
+      <c r="H323" s="95"/>
       <c r="I323" s="95"/>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
@@ -11345,15 +11379,15 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="83"/>
-      <c r="B324" s="28"/>
-      <c r="C324" s="21"/>
-      <c r="D324" s="21"/>
-      <c r="E324" s="22"/>
-      <c r="F324" s="21"/>
-      <c r="G324" s="92"/>
-      <c r="H324" s="95"/>
+      <c r="B324" s="103"/>
+      <c r="C324" s="107"/>
+      <c r="D324" s="107"/>
+      <c r="E324" s="108"/>
+      <c r="F324" s="105"/>
+      <c r="G324" s="87"/>
+      <c r="H324" s="96"/>
       <c r="I324" s="95"/>
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
@@ -11362,14 +11396,14 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="83"/>
-      <c r="B325" s="103"/>
+      <c r="B325" s="28"/>
       <c r="C325" s="21"/>
       <c r="D325" s="21"/>
       <c r="E325" s="22"/>
       <c r="F325" s="21"/>
-      <c r="G325" s="87"/>
+      <c r="G325" s="92"/>
       <c r="H325" s="95"/>
       <c r="I325" s="95"/>
       <c r="J325" s="1"/>
@@ -11379,16 +11413,16 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="83"/>
-      <c r="B326" s="21"/>
-      <c r="C326" s="33"/>
-      <c r="D326" s="33"/>
-      <c r="E326" s="34"/>
-      <c r="F326" s="33"/>
-      <c r="G326" s="84"/>
-      <c r="H326" s="97"/>
-      <c r="I326" s="97"/>
+      <c r="B326" s="103"/>
+      <c r="C326" s="21"/>
+      <c r="D326" s="21"/>
+      <c r="E326" s="22"/>
+      <c r="F326" s="21"/>
+      <c r="G326" s="87"/>
+      <c r="H326" s="95"/>
+      <c r="I326" s="95"/>
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
@@ -11396,19 +11430,13 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="1"/>
-      <c r="B327" s="35"/>
-      <c r="C327" s="35"/>
-      <c r="D327" s="36"/>
-      <c r="E327" s="37">
-        <f>SUM(E305:E326)</f>
-        <v>81</v>
-      </c>
-      <c r="F327" s="38">
-        <f>SUM(F308:F326)-SUM(F305:F307)</f>
-        <v>22</v>
-      </c>
+    <row r="327" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="83"/>
+      <c r="B327" s="21"/>
+      <c r="C327" s="33"/>
+      <c r="D327" s="33"/>
+      <c r="E327" s="34"/>
+      <c r="F327" s="33"/>
       <c r="G327" s="84"/>
       <c r="H327" s="97"/>
       <c r="I327" s="97"/>
@@ -11419,16 +11447,22 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="1"/>
-      <c r="B328" s="1"/>
-      <c r="C328" s="1"/>
-      <c r="D328" s="1"/>
-      <c r="E328" s="39"/>
-      <c r="F328" s="35"/>
-      <c r="G328" s="79"/>
-      <c r="H328" s="79"/>
-      <c r="I328" s="79"/>
+      <c r="B328" s="35"/>
+      <c r="C328" s="35"/>
+      <c r="D328" s="36"/>
+      <c r="E328" s="37">
+        <f>SUM(E306:E327)</f>
+        <v>81</v>
+      </c>
+      <c r="F328" s="38">
+        <f>SUM(F309:F327)-SUM(F306:F308)</f>
+        <v>22</v>
+      </c>
+      <c r="G328" s="84"/>
+      <c r="H328" s="97"/>
+      <c r="I328" s="97"/>
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
       <c r="L328" s="1"/>
@@ -11436,16 +11470,16 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
-      <c r="E329" s="1"/>
-      <c r="F329" s="1"/>
-      <c r="G329" s="1"/>
-      <c r="H329" s="1"/>
-      <c r="I329" s="1"/>
+      <c r="E329" s="39"/>
+      <c r="F329" s="35"/>
+      <c r="G329" s="79"/>
+      <c r="H329" s="79"/>
+      <c r="I329" s="79"/>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
@@ -11453,16 +11487,12 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
-      <c r="C330" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E330" s="2"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
@@ -11474,13 +11504,17 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
-      <c r="B331" s="4"/>
-      <c r="C331" s="4"/>
-      <c r="D331" s="4"/>
-      <c r="E331" s="5"/>
-      <c r="F331" s="4"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E331" s="2"/>
+      <c r="F331" s="1"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
@@ -11491,26 +11525,16 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="83"/>
-      <c r="B332" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C332" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D332" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E332" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F332" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G332" s="87"/>
-      <c r="H332" s="95"/>
-      <c r="I332" s="95"/>
+    <row r="332" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="1"/>
+      <c r="B332" s="4"/>
+      <c r="C332" s="4"/>
+      <c r="D332" s="4"/>
+      <c r="E332" s="5"/>
+      <c r="F332" s="4"/>
+      <c r="G332" s="1"/>
+      <c r="H332" s="1"/>
+      <c r="I332" s="1"/>
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
       <c r="L332" s="1"/>
@@ -11518,27 +11542,25 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A333" s="83"/>
-      <c r="B333" s="115" t="s">
-        <v>13</v>
-      </c>
-      <c r="C333" s="106"/>
-      <c r="D333" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="E333" s="116">
-        <v>1</v>
-      </c>
-      <c r="F333" s="117">
-        <v>16</v>
-      </c>
-      <c r="G333" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="H333" s="92">
-        <v>45183</v>
-      </c>
+      <c r="B333" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E333" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F333" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G333" s="87"/>
+      <c r="H333" s="95"/>
       <c r="I333" s="95"/>
       <c r="J333" s="1"/>
       <c r="K333" s="1"/>
@@ -11547,25 +11569,27 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A334" s="83"/>
-      <c r="B334" s="12" t="s">
+      <c r="B334" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="C334" s="21"/>
-      <c r="D334" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="E334" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F334" s="21">
-        <v>6</v>
-      </c>
-      <c r="G334" s="92">
+      <c r="C334" s="106"/>
+      <c r="D334" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="E334" s="116">
+        <v>1</v>
+      </c>
+      <c r="F334" s="117">
+        <v>16</v>
+      </c>
+      <c r="G334" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="H334" s="92">
         <v>45183</v>
       </c>
-      <c r="H334" s="95"/>
       <c r="I334" s="95"/>
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
@@ -11574,14 +11598,24 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="83"/>
-      <c r="B335" s="21"/>
+      <c r="B335" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="C335" s="21"/>
-      <c r="D335" s="21"/>
-      <c r="E335" s="22"/>
-      <c r="F335" s="21"/>
-      <c r="G335" s="87"/>
+      <c r="D335" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E335" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F335" s="21">
+        <v>6</v>
+      </c>
+      <c r="G335" s="92">
+        <v>45183</v>
+      </c>
       <c r="H335" s="95"/>
       <c r="I335" s="95"/>
       <c r="J335" s="1"/>
@@ -11591,23 +11625,13 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="83"/>
-      <c r="B336" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C336" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="D336" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E336" s="22">
-        <v>1</v>
-      </c>
-      <c r="F336" s="30">
-        <v>0</v>
-      </c>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
+      <c r="D336" s="21"/>
+      <c r="E336" s="22"/>
+      <c r="F336" s="21"/>
       <c r="G336" s="87"/>
       <c r="H336" s="95"/>
       <c r="I336" s="95"/>
@@ -11618,22 +11642,22 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="83"/>
       <c r="B337" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C337" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D337" s="21" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="E337" s="22">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F337" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G337" s="87"/>
       <c r="H337" s="95"/>
@@ -11645,15 +11669,25 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="83"/>
-      <c r="B338" s="103"/>
-      <c r="C338" s="21"/>
-      <c r="D338" s="21"/>
-      <c r="E338" s="22"/>
-      <c r="F338" s="105"/>
+      <c r="B338" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C338" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D338" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E338" s="22">
+        <v>8</v>
+      </c>
+      <c r="F338" s="30">
+        <v>1</v>
+      </c>
       <c r="G338" s="87"/>
-      <c r="H338" s="96"/>
+      <c r="H338" s="95"/>
       <c r="I338" s="95"/>
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
@@ -11662,29 +11696,15 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="83"/>
-      <c r="B339" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C339" s="107" t="s">
-        <v>264</v>
-      </c>
-      <c r="D339" s="107" t="s">
-        <v>303</v>
-      </c>
-      <c r="E339" s="108">
-        <v>22</v>
-      </c>
-      <c r="F339" s="105">
-        <v>0</v>
-      </c>
-      <c r="G339" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="H339" s="96">
-        <v>45155</v>
-      </c>
+      <c r="B339" s="103"/>
+      <c r="C339" s="21"/>
+      <c r="D339" s="21"/>
+      <c r="E339" s="22"/>
+      <c r="F339" s="105"/>
+      <c r="G339" s="87"/>
+      <c r="H339" s="96"/>
       <c r="I339" s="95"/>
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
@@ -11693,27 +11713,29 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="83"/>
-      <c r="B340" s="28" t="s">
+      <c r="B340" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C340" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="D340" s="21" t="s">
+      <c r="C340" s="107" t="s">
+        <v>264</v>
+      </c>
+      <c r="D340" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="E340" s="108">
         <v>22</v>
       </c>
-      <c r="E340" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F340" s="30">
-        <v>1</v>
-      </c>
-      <c r="G340" s="92">
+      <c r="F340" s="105">
+        <v>0</v>
+      </c>
+      <c r="G340" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="H340" s="96">
         <v>45155</v>
       </c>
-      <c r="H340" s="95"/>
       <c r="I340" s="95"/>
       <c r="J340" s="1"/>
       <c r="K340" s="1"/>
@@ -11722,24 +11744,26 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="83"/>
       <c r="B341" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C341" s="21" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="D341" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E341" s="22">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E341" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="F341" s="30">
-        <v>5</v>
-      </c>
-      <c r="G341" s="92"/>
+        <v>1</v>
+      </c>
+      <c r="G341" s="92">
+        <v>45155</v>
+      </c>
       <c r="H341" s="95"/>
       <c r="I341" s="95"/>
       <c r="J341" s="1"/>
@@ -11749,29 +11773,25 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="83"/>
-      <c r="B342" s="103" t="s">
+      <c r="B342" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C342" s="107" t="s">
-        <v>266</v>
-      </c>
-      <c r="D342" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="E342" s="108">
-        <v>1</v>
-      </c>
-      <c r="F342" s="105">
-        <v>0</v>
-      </c>
-      <c r="G342" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="H342" s="96">
-        <v>45155</v>
-      </c>
+      <c r="C342" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D342" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E342" s="22">
+        <v>19</v>
+      </c>
+      <c r="F342" s="30">
+        <v>5</v>
+      </c>
+      <c r="G342" s="92"/>
+      <c r="H342" s="95"/>
       <c r="I342" s="95"/>
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
@@ -11780,378 +11800,392 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="83"/>
-      <c r="B343" s="28" t="s">
+      <c r="B343" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C343" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="D343" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E343" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F343" s="30">
+      <c r="C343" s="107" t="s">
+        <v>266</v>
+      </c>
+      <c r="D343" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="E343" s="108">
         <v>1</v>
       </c>
-      <c r="G343" s="92">
+      <c r="F343" s="105">
+        <v>0</v>
+      </c>
+      <c r="G343" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="H343" s="96">
         <v>45155</v>
       </c>
-      <c r="H343" s="96"/>
       <c r="I343" s="95"/>
       <c r="J343" s="1"/>
+      <c r="K343" s="1"/>
+      <c r="L343" s="1"/>
+      <c r="M343" s="1"/>
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="83"/>
       <c r="B344" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C344" s="21" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="E344" s="22">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="E344" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="F344" s="30">
-        <v>8</v>
-      </c>
-      <c r="G344" s="87"/>
-      <c r="H344" s="95"/>
+        <v>1</v>
+      </c>
+      <c r="G344" s="92">
+        <v>45155</v>
+      </c>
+      <c r="H344" s="96"/>
       <c r="I344" s="95"/>
       <c r="J344" s="1"/>
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="83"/>
       <c r="B345" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C345" s="21" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="E345" s="22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F345" s="30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G345" s="87"/>
-      <c r="H345" s="96"/>
+      <c r="H345" s="95"/>
       <c r="I345" s="95"/>
       <c r="J345" s="1"/>
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="83"/>
-      <c r="B346" s="103" t="s">
+      <c r="B346" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C346" s="107" t="s">
-        <v>272</v>
-      </c>
-      <c r="D346" s="107" t="s">
-        <v>100</v>
-      </c>
-      <c r="E346" s="108">
-        <v>1</v>
-      </c>
-      <c r="F346" s="105">
-        <v>0</v>
-      </c>
-      <c r="G346" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="H346" s="96">
-        <v>45190</v>
-      </c>
+      <c r="C346" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D346" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E346" s="22">
+        <v>20</v>
+      </c>
+      <c r="F346" s="30">
+        <v>6</v>
+      </c>
+      <c r="G346" s="87"/>
+      <c r="H346" s="96"/>
       <c r="I346" s="95"/>
       <c r="J346" s="1"/>
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="83"/>
-      <c r="B347" s="28" t="s">
+      <c r="B347" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C347" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="D347" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="E347" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F347" s="30">
+      <c r="C347" s="107" t="s">
+        <v>272</v>
+      </c>
+      <c r="D347" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="E347" s="108">
+        <v>1</v>
+      </c>
+      <c r="F347" s="105">
         <v>0</v>
       </c>
-      <c r="G347" s="92">
+      <c r="G347" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="H347" s="96">
         <v>45190</v>
       </c>
-      <c r="H347" s="96"/>
       <c r="I347" s="95"/>
       <c r="J347" s="1"/>
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="83"/>
-      <c r="B348" s="103" t="s">
+      <c r="B348" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C348" s="107" t="s">
-        <v>269</v>
-      </c>
-      <c r="D348" s="107" t="s">
-        <v>271</v>
-      </c>
-      <c r="E348" s="108">
-        <v>3</v>
-      </c>
-      <c r="F348" s="105">
+      <c r="C348" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D348" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E348" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F348" s="30">
         <v>0</v>
       </c>
-      <c r="G348" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="H348" s="96">
-        <v>45197</v>
-      </c>
+      <c r="G348" s="92">
+        <v>45190</v>
+      </c>
+      <c r="H348" s="96"/>
       <c r="I348" s="95"/>
       <c r="J348" s="1"/>
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="83"/>
-      <c r="B349" s="28" t="s">
+      <c r="B349" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C349" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="D349" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E349" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F349" s="30">
+      <c r="C349" s="107" t="s">
+        <v>269</v>
+      </c>
+      <c r="D349" s="107" t="s">
+        <v>271</v>
+      </c>
+      <c r="E349" s="108">
+        <v>3</v>
+      </c>
+      <c r="F349" s="105">
         <v>0</v>
       </c>
-      <c r="G349" s="92">
+      <c r="G349" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="H349" s="96">
         <v>45197</v>
       </c>
-      <c r="H349" s="95"/>
       <c r="I349" s="95"/>
       <c r="J349" s="1"/>
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="83"/>
       <c r="B350" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C350" s="21" t="s">
-        <v>270</v>
+        <v>328</v>
       </c>
       <c r="D350" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E350" s="22">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="E350" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="F350" s="30">
         <v>0</v>
       </c>
-      <c r="G350" s="87"/>
-      <c r="H350" s="96"/>
+      <c r="G350" s="92">
+        <v>45197</v>
+      </c>
+      <c r="H350" s="95"/>
       <c r="I350" s="95"/>
       <c r="J350" s="1"/>
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="83"/>
-      <c r="B351" s="28"/>
-      <c r="C351" s="21"/>
-      <c r="D351" s="21"/>
-      <c r="E351" s="22"/>
-      <c r="F351" s="30"/>
-      <c r="G351" s="92"/>
-      <c r="H351" s="95"/>
+      <c r="B351" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C351" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="D351" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E351" s="22">
+        <v>2</v>
+      </c>
+      <c r="F351" s="30">
+        <v>0</v>
+      </c>
+      <c r="G351" s="87"/>
+      <c r="H351" s="96"/>
       <c r="I351" s="95"/>
       <c r="J351" s="1"/>
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="352" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="83"/>
-      <c r="B352" s="103"/>
-      <c r="C352" s="107"/>
-      <c r="D352" s="107"/>
-      <c r="E352" s="108"/>
-      <c r="F352" s="105"/>
-      <c r="G352" s="87"/>
-      <c r="H352" s="96"/>
+      <c r="B352" s="28"/>
+      <c r="C352" s="21"/>
+      <c r="D352" s="21"/>
+      <c r="E352" s="22"/>
+      <c r="F352" s="30"/>
+      <c r="G352" s="92"/>
+      <c r="H352" s="95"/>
       <c r="I352" s="95"/>
       <c r="J352" s="1"/>
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
     </row>
-    <row r="353" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="83"/>
-      <c r="B353" s="21"/>
-      <c r="C353" s="21"/>
-      <c r="D353" s="21"/>
-      <c r="E353" s="22"/>
-      <c r="F353" s="21"/>
-      <c r="G353" s="92"/>
-      <c r="H353" s="95"/>
+      <c r="B353" s="103"/>
+      <c r="C353" s="107"/>
+      <c r="D353" s="107"/>
+      <c r="E353" s="108"/>
+      <c r="F353" s="105"/>
+      <c r="G353" s="87"/>
+      <c r="H353" s="96"/>
       <c r="I353" s="95"/>
       <c r="J353" s="1"/>
       <c r="N353" s="1"/>
       <c r="O353" s="1"/>
     </row>
-    <row r="354" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="1"/>
-      <c r="B354" s="35"/>
-      <c r="C354" s="35"/>
-      <c r="D354" s="36"/>
-      <c r="E354" s="37">
-        <f>SUM(E333:E353)</f>
-        <v>100</v>
-      </c>
-      <c r="F354" s="38">
-        <f>SUM(F336:F353)-SUM(F333:F335)</f>
-        <v>0</v>
-      </c>
-      <c r="G354" s="87"/>
+    <row r="354" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="83"/>
+      <c r="B354" s="21"/>
+      <c r="C354" s="21"/>
+      <c r="D354" s="21"/>
+      <c r="E354" s="22"/>
+      <c r="F354" s="21"/>
+      <c r="G354" s="92"/>
       <c r="H354" s="95"/>
       <c r="I354" s="95"/>
       <c r="J354" s="1"/>
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
     </row>
-    <row r="355" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" s="1"/>
-      <c r="B355" s="1"/>
-      <c r="C355" s="1"/>
-      <c r="D355" s="1"/>
-      <c r="E355" s="39"/>
-      <c r="F355" s="35"/>
-      <c r="G355" s="1"/>
-      <c r="H355" s="1"/>
-      <c r="I355" s="1"/>
+      <c r="B355" s="35"/>
+      <c r="C355" s="35"/>
+      <c r="D355" s="36"/>
+      <c r="E355" s="37">
+        <f>SUM(E334:E354)</f>
+        <v>100</v>
+      </c>
+      <c r="F355" s="38">
+        <f>SUM(F337:F354)-SUM(F334:F336)</f>
+        <v>0</v>
+      </c>
+      <c r="G355" s="87"/>
+      <c r="H355" s="95"/>
+      <c r="I355" s="95"/>
       <c r="J355" s="1"/>
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
     </row>
-    <row r="357" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B357" s="1"/>
-      <c r="C357" s="1" t="s">
+    <row r="356" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+      <c r="D356" s="1"/>
+      <c r="E356" s="39"/>
+      <c r="F356" s="35"/>
+      <c r="G356" s="1"/>
+      <c r="H356" s="1"/>
+      <c r="I356" s="1"/>
+      <c r="J356" s="1"/>
+      <c r="N356" s="1"/>
+      <c r="O356" s="1"/>
+    </row>
+    <row r="358" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B358" s="1"/>
+      <c r="C358" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D357" s="1" t="s">
+      <c r="D358" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E357" s="2"/>
-      <c r="F357" s="1"/>
-    </row>
-    <row r="358" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B358" s="4"/>
-      <c r="C358" s="4"/>
-      <c r="D358" s="4"/>
-      <c r="E358" s="5"/>
-      <c r="F358" s="4"/>
-    </row>
-    <row r="359" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B359" s="6" t="s">
+      <c r="E358" s="2"/>
+      <c r="F358" s="1"/>
+    </row>
+    <row r="359" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B359" s="4"/>
+      <c r="C359" s="4"/>
+      <c r="D359" s="4"/>
+      <c r="E359" s="5"/>
+      <c r="F359" s="4"/>
+    </row>
+    <row r="360" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B360" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C359" s="6" t="s">
+      <c r="C360" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D359" s="6" t="s">
+      <c r="D360" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E359" s="6" t="s">
+      <c r="E360" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F359" s="6" t="s">
+      <c r="F360" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B360" s="12" t="s">
+    <row r="361" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B361" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C360" s="13"/>
-      <c r="D360" s="13" t="s">
+      <c r="C361" s="13"/>
+      <c r="D361" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E360" s="40">
+      <c r="E361" s="40">
         <v>1</v>
       </c>
-      <c r="F360" s="15">
+      <c r="F361" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B361" s="21"/>
-      <c r="C361" s="21"/>
-      <c r="D361" s="21"/>
-      <c r="E361" s="22"/>
-      <c r="F361" s="21"/>
-    </row>
-    <row r="362" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B362" s="21"/>
       <c r="C362" s="21"/>
       <c r="D362" s="21"/>
       <c r="E362" s="22"/>
       <c r="F362" s="21"/>
     </row>
-    <row r="363" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B363" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C363" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="D363" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E363" s="22">
-        <v>1</v>
-      </c>
-      <c r="F363" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B363" s="21"/>
+      <c r="C363" s="21"/>
+      <c r="D363" s="21"/>
+      <c r="E363" s="22"/>
+      <c r="F363" s="21"/>
+    </row>
+    <row r="364" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B364" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C364" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D364" s="21" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E364" s="22">
         <v>1</v>
@@ -12160,56 +12194,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B365" s="103"/>
-      <c r="C365" s="107"/>
-      <c r="D365" s="107"/>
-      <c r="E365" s="108"/>
-      <c r="F365" s="105"/>
-    </row>
-    <row r="366" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B366" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C366" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="D366" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="E366" s="22">
+    <row r="365" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B365" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C365" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D365" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E365" s="22">
         <v>1</v>
       </c>
-      <c r="F366" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="367" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F365" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B366" s="103"/>
+      <c r="C366" s="107"/>
+      <c r="D366" s="107"/>
+      <c r="E366" s="108"/>
+      <c r="F366" s="105"/>
+    </row>
+    <row r="367" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B367" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C367" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D367" s="21" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="E367" s="22">
         <v>1</v>
       </c>
       <c r="F367" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B368" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C368" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D368" s="21" t="s">
-        <v>310</v>
+        <v>103</v>
       </c>
       <c r="E368" s="22">
         <v>1</v>
@@ -12218,150 +12252,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B369" s="28"/>
-      <c r="C369" s="21"/>
-      <c r="D369" s="21"/>
-      <c r="E369" s="22"/>
-      <c r="F369" s="30"/>
-    </row>
-    <row r="370" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B369" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C369" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D369" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="E369" s="22">
+        <v>1</v>
+      </c>
+      <c r="F369" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="28"/>
       <c r="C370" s="21"/>
       <c r="D370" s="21"/>
       <c r="E370" s="22"/>
       <c r="F370" s="30"/>
     </row>
-    <row r="371" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B371" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C371" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="D371" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="E371" s="22">
-        <v>50</v>
-      </c>
-      <c r="F371" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="372" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B371" s="28"/>
+      <c r="C371" s="21"/>
+      <c r="D371" s="21"/>
+      <c r="E371" s="22"/>
+      <c r="F371" s="30"/>
+    </row>
+    <row r="372" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B372" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C372" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D372" s="21" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="E372" s="22">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F372" s="30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="373" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B373" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C373" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D373" s="21" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="E373" s="22">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F373" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B374" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C374" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D374" s="21" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="E374" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F374" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="375" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B375" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C375" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D375" s="21" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E375" s="22">
         <v>1</v>
       </c>
       <c r="F375" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B376" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C376" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D376" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E376" s="22">
+        <v>1</v>
+      </c>
+      <c r="F376" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B376" s="28"/>
-      <c r="C376" s="21"/>
-      <c r="D376" s="21"/>
-      <c r="E376" s="22"/>
-      <c r="F376" s="30"/>
-    </row>
-    <row r="377" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B377" s="103"/>
-      <c r="C377" s="107"/>
-      <c r="D377" s="107"/>
-      <c r="E377" s="108"/>
-      <c r="F377" s="105"/>
-    </row>
-    <row r="378" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B378" s="28"/>
-      <c r="C378" s="21"/>
-      <c r="D378" s="21"/>
-      <c r="E378" s="22"/>
-      <c r="F378" s="30"/>
-    </row>
-    <row r="379" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B379" s="103"/>
-      <c r="C379" s="107"/>
-      <c r="D379" s="107"/>
-      <c r="E379" s="108"/>
-      <c r="F379" s="105"/>
-    </row>
-    <row r="380" spans="2:6" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B380" s="21"/>
-      <c r="C380" s="21"/>
-      <c r="D380" s="21"/>
-      <c r="E380" s="22"/>
-      <c r="F380" s="21"/>
-    </row>
-    <row r="381" spans="2:6" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B381" s="35"/>
-      <c r="C381" s="35"/>
-      <c r="D381" s="36"/>
-      <c r="E381" s="37">
-        <f>SUM(E360:E380)</f>
+    <row r="377" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B377" s="28"/>
+      <c r="C377" s="21"/>
+      <c r="D377" s="21"/>
+      <c r="E377" s="22"/>
+      <c r="F377" s="30"/>
+    </row>
+    <row r="378" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B378" s="103"/>
+      <c r="C378" s="107"/>
+      <c r="D378" s="107"/>
+      <c r="E378" s="108"/>
+      <c r="F378" s="105"/>
+    </row>
+    <row r="379" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B379" s="28"/>
+      <c r="C379" s="21"/>
+      <c r="D379" s="21"/>
+      <c r="E379" s="22"/>
+      <c r="F379" s="30"/>
+    </row>
+    <row r="380" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B380" s="103"/>
+      <c r="C380" s="107"/>
+      <c r="D380" s="107"/>
+      <c r="E380" s="108"/>
+      <c r="F380" s="105"/>
+    </row>
+    <row r="381" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B381" s="21"/>
+      <c r="C381" s="21"/>
+      <c r="D381" s="21"/>
+      <c r="E381" s="22"/>
+      <c r="F381" s="21"/>
+    </row>
+    <row r="382" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B382" s="35"/>
+      <c r="C382" s="35"/>
+      <c r="D382" s="36"/>
+      <c r="E382" s="37">
+        <f>SUM(E361:E381)</f>
         <v>98</v>
       </c>
-      <c r="F381" s="38">
-        <f>SUM(F363:F380)-SUM(F360:F362)</f>
+      <c r="F382" s="38">
+        <f>SUM(F364:F381)-SUM(F361:F363)</f>
         <v>17</v>
       </c>
     </row>
@@ -12403,18 +12454,18 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="41" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" style="41" customWidth="1"/>
     <col min="3" max="3" width="31" style="41" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="35.296875" style="41" customWidth="1"/>
     <col min="5" max="6" width="9" style="41" customWidth="1"/>
     <col min="7" max="7" width="11" style="41" customWidth="1"/>
     <col min="8" max="256" width="9" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -12431,7 +12482,7 @@
       </c>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -12446,7 +12497,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -12459,7 +12510,7 @@
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -12474,7 +12525,7 @@
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
     </row>
-    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="43"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -12487,7 +12538,7 @@
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
     </row>
-    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="14.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="50"/>
       <c r="B6" s="51" t="s">
         <v>3</v>
@@ -12512,7 +12563,7 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50"/>
       <c r="B7" s="57">
         <v>1</v>
@@ -12537,7 +12588,7 @@
       <c r="J7" s="44"/>
       <c r="K7" s="56"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50"/>
       <c r="B8" s="57">
         <v>2</v>
@@ -12562,7 +12613,7 @@
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="50"/>
       <c r="B9" s="57">
         <v>3</v>
@@ -12587,7 +12638,7 @@
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50"/>
       <c r="B10" s="57">
         <v>4</v>
@@ -12612,7 +12663,7 @@
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50"/>
       <c r="B11" s="57">
         <v>5</v>
@@ -12637,7 +12688,7 @@
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50"/>
       <c r="B12" s="57">
         <v>6</v>
@@ -12662,7 +12713,7 @@
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50"/>
       <c r="B13" s="57">
         <v>7</v>
@@ -12687,7 +12738,7 @@
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50"/>
       <c r="B14" s="57">
         <v>8</v>
@@ -12712,7 +12763,7 @@
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="50"/>
       <c r="B15" s="57">
         <v>9</v>
@@ -12737,7 +12788,7 @@
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50"/>
       <c r="B16" s="57">
         <v>10</v>
@@ -12762,7 +12813,7 @@
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50"/>
       <c r="B17" s="57">
         <v>11</v>
@@ -12787,7 +12838,7 @@
       <c r="J17" s="44"/>
       <c r="K17" s="44"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50"/>
       <c r="B18" s="57">
         <v>12</v>
@@ -12812,7 +12863,7 @@
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50"/>
       <c r="B19" s="57">
         <v>13</v>
@@ -12837,7 +12888,7 @@
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
     </row>
-    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="50"/>
       <c r="B20" s="62">
         <v>14</v>
@@ -12862,7 +12913,7 @@
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
     </row>
-    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="63"/>
       <c r="C21" s="63"/>
@@ -12875,7 +12926,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -12909,17 +12960,17 @@
       <selection activeCell="A24" sqref="A24:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="41" customWidth="1"/>
-    <col min="6" max="7" width="9.33203125" style="41" customWidth="1"/>
-    <col min="8" max="257" width="8.83203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="33.296875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="31.296875" style="41" customWidth="1"/>
+    <col min="6" max="7" width="9.296875" style="41" customWidth="1"/>
+    <col min="8" max="257" width="8.796875" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="66" t="s">
         <v>117</v>
       </c>
@@ -12929,7 +12980,7 @@
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -12937,7 +12988,7 @@
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="67" t="s">
         <v>54</v>
       </c>
@@ -12947,7 +12998,7 @@
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="71" t="s">
         <v>61</v>
       </c>
@@ -12970,7 +13021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="71" t="s">
         <v>62</v>
       </c>
@@ -12993,7 +13044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="71" t="s">
         <v>63</v>
       </c>
@@ -13016,7 +13067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="71" t="s">
         <v>64</v>
       </c>
@@ -13039,7 +13090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="71" t="s">
         <v>65</v>
       </c>
@@ -13062,7 +13113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="71"/>
       <c r="B9" s="69"/>
       <c r="C9" s="69"/>
@@ -13071,7 +13122,7 @@
       <c r="F9" s="43"/>
       <c r="G9" s="65"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="67" t="s">
         <v>93</v>
       </c>
@@ -13081,7 +13132,7 @@
       <c r="F10" s="43"/>
       <c r="G10" s="65"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="71" t="s">
         <v>66</v>
       </c>
@@ -13104,7 +13155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="71" t="s">
         <v>67</v>
       </c>
@@ -13127,7 +13178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="71" t="s">
         <v>68</v>
       </c>
@@ -13150,7 +13201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="71" t="s">
         <v>69</v>
       </c>
@@ -13173,7 +13224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="69"/>
       <c r="C15" s="68"/>
       <c r="D15" s="43"/>
@@ -13181,7 +13232,7 @@
       <c r="F15" s="70"/>
       <c r="G15" s="43"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="67" t="s">
         <v>150</v>
       </c>
@@ -13191,7 +13242,7 @@
       <c r="F16" s="70"/>
       <c r="G16" s="43"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -13214,7 +13265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="69"/>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
@@ -13222,7 +13273,7 @@
       <c r="F18" s="70"/>
       <c r="G18" s="43"/>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="69"/>
       <c r="C19" s="68"/>
       <c r="D19" s="43"/>
@@ -13230,7 +13281,7 @@
       <c r="F19" s="70"/>
       <c r="G19" s="43"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="67" t="s">
         <v>55</v>
       </c>
@@ -13240,7 +13291,7 @@
       <c r="F20" s="70"/>
       <c r="G20" s="43"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="71" t="s">
         <v>129</v>
       </c>
@@ -13263,7 +13314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="71" t="s">
         <v>130</v>
       </c>
@@ -13286,7 +13337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="69"/>
       <c r="C23" s="69"/>
       <c r="D23" s="68"/>
@@ -13294,7 +13345,7 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="67" t="s">
         <v>56</v>
       </c>
@@ -13304,7 +13355,7 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="71" t="s">
         <v>151</v>
       </c>
@@ -13327,7 +13378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
       <c r="D26" s="68"/>
@@ -13335,7 +13386,7 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="67" t="s">
         <v>57</v>
       </c>
@@ -13346,7 +13397,7 @@
       <c r="G27" s="43"/>
       <c r="K27" s="109"/>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="69" t="s">
         <v>86</v>
       </c>

--- a/data/DreamLeague23-24.xlsx
+++ b/data/DreamLeague23-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="8_{752A8788-F056-4140-BB86-F6521855C67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5515D23-3641-4B4A-A791-0207EF4972A6}"/>
+  <xr:revisionPtr revIDLastSave="356" documentId="8_{752A8788-F056-4140-BB86-F6521855C67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DEDA271-7D88-4C62-86F8-831986C48339}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="360">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1105,6 +1105,15 @@
   </si>
   <si>
     <t>EPHRON MASON-CLARK</t>
+  </si>
+  <si>
+    <t>JOE IRONSIDE</t>
+  </si>
+  <si>
+    <t>DONCASTER</t>
+  </si>
+  <si>
+    <t>STEPHEN HUMPHREYS</t>
   </si>
 </sst>
 </file>
@@ -3052,8 +3061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX378"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3213,11 +3222,11 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
@@ -3228,7 +3237,7 @@
       </c>
       <c r="S5" s="114">
         <f>_xlfn.XLOOKUP(R5,K:K,M:M)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T5" s="113" t="s">
         <v>285</v>
@@ -3272,29 +3281,29 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R6" s="81" t="s">
         <v>2</v>
       </c>
       <c r="S6" s="114">
         <f>_xlfn.XLOOKUP(R6,K:K,M:M)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T6" s="113" t="s">
         <v>285</v>
       </c>
       <c r="U6" s="114">
         <f>_xlfn.XLOOKUP(V6,K:K,M:M)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V6" s="81" t="s">
         <v>30</v>
@@ -3321,29 +3330,29 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R7" s="81" t="s">
         <v>2</v>
       </c>
       <c r="S7" s="114">
         <f>_xlfn.XLOOKUP(R7,K:K,M:M)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T7" s="113" t="s">
         <v>285</v>
       </c>
       <c r="U7" s="114">
         <f>_xlfn.XLOOKUP(V7,K:K,M:M)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V7" s="81" t="s">
         <v>34</v>
@@ -3379,15 +3388,15 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3421,15 +3430,15 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N9" s="77">
         <f>SUM(F116:F134)</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O9" s="78">
         <f>SUM(F113:F115)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3453,11 +3462,11 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F144:F161)</f>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F141:F143)</f>
@@ -3506,29 +3515,29 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F171:F188)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F168:F170)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R11" s="81" t="s">
         <v>2</v>
       </c>
       <c r="S11" s="114">
         <f>SUM(F11:F15)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T11" s="113" t="s">
         <v>285</v>
       </c>
       <c r="U11" s="114">
         <f>SUM(F228:F232)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V11" s="81" t="s">
         <v>74</v>
@@ -3567,15 +3576,15 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N12" s="77">
         <f>SUM(F198:F215)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O12" s="78">
         <f>SUM(F195:F197)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3609,15 +3618,15 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N13" s="77">
         <f>SUM(F225:F242)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O13" s="78">
         <f>SUM(F222:F224)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R13" s="119" t="s">
         <v>288</v>
@@ -3662,29 +3671,29 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N14" s="77">
         <f>SUM(F252:F269)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O14" s="78">
         <f>SUM(F249:F251)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R14" s="81" t="s">
         <v>199</v>
       </c>
       <c r="S14" s="114">
         <f>_xlfn.XLOOKUP(R14,C:C,F:F)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T14" s="113" t="s">
         <v>285</v>
       </c>
       <c r="U14" s="114">
         <f>_xlfn.XLOOKUP(V14,C:C,F:F)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V14" s="81" t="s">
         <v>231</v>
@@ -3705,7 +3714,7 @@
         <v>283</v>
       </c>
       <c r="F15" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G15" s="92">
         <v>45162</v>
@@ -3723,15 +3732,15 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F278:F296)</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F276:F277)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R15" s="81" t="s">
         <v>289</v>
@@ -3775,11 +3784,11 @@
       </c>
       <c r="N16" s="26">
         <f>SUM(F306:F323)</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F303:F305)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3817,11 +3826,11 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F333:F350)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F330:F332)</f>
@@ -3874,25 +3883,25 @@
       </c>
       <c r="N18" s="26">
         <f>SUM(F360:F377)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F357:F359)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R18" s="81" t="s">
         <v>299</v>
       </c>
       <c r="S18" s="114">
         <f>_xlfn.XLOOKUP(R18,K:K,O:O)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T18" s="113" t="s">
         <v>285</v>
       </c>
       <c r="U18" s="114">
         <f>_xlfn.XLOOKUP(V18,K:K,O:O)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V18" s="81" t="s">
         <v>46</v>
@@ -3944,7 +3953,7 @@
         <v>283</v>
       </c>
       <c r="F20" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" s="92">
         <v>45218</v>
@@ -4146,14 +4155,14 @@
       </c>
       <c r="S25" s="114">
         <f>(_xlfn.XLOOKUP(R25,K:K,M:M))-(_xlfn.XLOOKUP(R26,C:C,F:F))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T25" s="113" t="s">
         <v>285</v>
       </c>
       <c r="U25" s="114">
         <f>(_xlfn.XLOOKUP(V25,K:K,M:M))-(_xlfn.XLOOKUP(V26,C:C,F:F))</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V25" s="81" t="s">
         <v>70</v>
@@ -4170,7 +4179,7 @@
       </c>
       <c r="F26" s="38">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G26" s="84"/>
       <c r="H26" s="97"/>
@@ -4278,7 +4287,7 @@
       </c>
       <c r="S30" s="81">
         <f>SUM(F62:F64)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4364,7 +4373,7 @@
         <v>283</v>
       </c>
       <c r="F33" s="21">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G33" s="90">
         <v>45169</v>
@@ -4563,7 +4572,7 @@
         <v>283</v>
       </c>
       <c r="F39" s="30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G39" s="92">
         <v>45225</v>
@@ -4639,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G41" s="92"/>
       <c r="H41" s="96"/>
@@ -4703,7 +4712,7 @@
         <v>90</v>
       </c>
       <c r="F43" s="30">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G43" s="87"/>
       <c r="H43" s="92"/>
@@ -4861,7 +4870,7 @@
         <v>283</v>
       </c>
       <c r="F47" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G47" s="92">
         <v>45204</v>
@@ -4980,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G50" s="92"/>
       <c r="H50" s="96"/>
@@ -5067,7 +5076,7 @@
       </c>
       <c r="F53" s="38">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G53" s="84"/>
       <c r="H53" s="97"/>
@@ -5251,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="15">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G59" s="84"/>
       <c r="H59" s="97"/>
@@ -5321,7 +5330,7 @@
       </c>
       <c r="S61" s="81">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V61" s="81" t="s">
         <v>46</v>
@@ -5342,7 +5351,7 @@
         <v>8</v>
       </c>
       <c r="F62" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" s="87"/>
       <c r="H62" s="95"/>
@@ -5379,7 +5388,7 @@
         <v>4</v>
       </c>
       <c r="F63" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="87"/>
       <c r="H63" s="96"/>
@@ -5443,7 +5452,7 @@
         <v>30</v>
       </c>
       <c r="F65" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G65" s="87"/>
       <c r="H65" s="95"/>
@@ -5500,7 +5509,7 @@
       </c>
       <c r="S66" s="81">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V66" s="81" t="s">
         <v>24</v>
@@ -5521,7 +5530,7 @@
         <v>283</v>
       </c>
       <c r="F67" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="92">
         <v>45260</v>
@@ -5603,7 +5612,7 @@
       </c>
       <c r="S69" s="81">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V69" s="81" t="s">
         <v>24</v>
@@ -5856,7 +5865,7 @@
       </c>
       <c r="F80" s="38">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G80" s="84"/>
       <c r="H80" s="97"/>
@@ -5980,7 +5989,7 @@
         <v>3</v>
       </c>
       <c r="F86" s="15">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G86" s="84"/>
       <c r="H86" s="99"/>
@@ -6112,7 +6121,7 @@
         <v>13</v>
       </c>
       <c r="F92" s="30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G92" s="87"/>
       <c r="H92" s="96"/>
@@ -6228,7 +6237,7 @@
         <v>283</v>
       </c>
       <c r="F96" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" s="96">
         <v>45260</v>
@@ -6335,25 +6344,27 @@
     </row>
     <row r="100" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="83"/>
-      <c r="B100" s="28" t="s">
+      <c r="B100" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C100" s="28" t="s">
+      <c r="C100" s="103" t="s">
         <v>298</v>
       </c>
-      <c r="D100" s="28" t="s">
+      <c r="D100" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="E100" s="29" t="s">
+      <c r="E100" s="104" t="s">
         <v>283</v>
       </c>
-      <c r="F100" s="30">
+      <c r="F100" s="105">
         <v>4</v>
       </c>
       <c r="G100" s="92">
         <v>45148</v>
       </c>
-      <c r="H100" s="96"/>
+      <c r="H100" s="96">
+        <v>45260</v>
+      </c>
       <c r="I100" s="95"/>
       <c r="J100" s="80"/>
       <c r="K100" s="1"/>
@@ -6368,18 +6379,20 @@
         <v>19</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>126</v>
+        <v>359</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="E101" s="29">
         <v>12</v>
       </c>
       <c r="F101" s="30">
-        <v>12</v>
-      </c>
-      <c r="G101" s="87"/>
+        <v>1</v>
+      </c>
+      <c r="G101" s="92">
+        <v>45260</v>
+      </c>
       <c r="H101" s="96"/>
       <c r="I101" s="95"/>
       <c r="J101" s="80"/>
@@ -6395,16 +6408,16 @@
         <v>19</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E102" s="29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F102" s="30">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G102" s="92"/>
       <c r="H102" s="96"/>
@@ -6422,16 +6435,16 @@
         <v>19</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="E103" s="29">
         <v>10</v>
       </c>
       <c r="F103" s="30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G103" s="92"/>
       <c r="H103" s="96"/>
@@ -6445,11 +6458,21 @@
     </row>
     <row r="104" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="83"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="30"/>
+      <c r="B104" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E104" s="29">
+        <v>10</v>
+      </c>
+      <c r="F104" s="30">
+        <v>5</v>
+      </c>
       <c r="G104" s="92"/>
       <c r="H104" s="96"/>
       <c r="I104" s="95"/>
@@ -6501,11 +6524,11 @@
       <c r="D107" s="36"/>
       <c r="E107" s="37">
         <f>SUM(E86:E106)</f>
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F107" s="38">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G107" s="84"/>
       <c r="H107" s="97"/>
@@ -6658,7 +6681,7 @@
         <v>283</v>
       </c>
       <c r="F114" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G114" s="99">
         <v>45239</v>
@@ -6775,7 +6798,7 @@
         <v>15</v>
       </c>
       <c r="F119" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G119" s="87"/>
       <c r="H119" s="96"/>
@@ -6964,7 +6987,7 @@
         <v>283</v>
       </c>
       <c r="F126" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" s="92">
         <v>45246</v>
@@ -7055,7 +7078,7 @@
         <v>283</v>
       </c>
       <c r="F129" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129" s="92">
         <v>45232</v>
@@ -7084,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G130" s="87"/>
       <c r="H130" s="96"/>
@@ -7201,7 +7224,7 @@
       </c>
       <c r="F135" s="38">
         <f>SUM(F116:F134)-SUM(F113:F115)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G135" s="84"/>
       <c r="H135" s="97"/>
@@ -7457,7 +7480,7 @@
         <v>39</v>
       </c>
       <c r="F147" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" s="92"/>
       <c r="H147" s="95"/>
@@ -7540,7 +7563,7 @@
         <v>283</v>
       </c>
       <c r="F150" s="30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G150" s="92">
         <v>45183</v>
@@ -7586,7 +7609,7 @@
         <v>34</v>
       </c>
       <c r="F152" s="30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G152" s="87"/>
       <c r="H152" s="96"/>
@@ -7834,7 +7857,7 @@
       </c>
       <c r="F162" s="38">
         <f>SUM(F144:F161)-SUM(F141:F143)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G162" s="84"/>
       <c r="H162" s="97"/>
@@ -7958,7 +7981,7 @@
         <v>4</v>
       </c>
       <c r="F168" s="15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G168" s="84"/>
       <c r="H168" s="99"/>
@@ -8090,7 +8113,7 @@
         <v>17</v>
       </c>
       <c r="F174" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G174" s="87"/>
       <c r="H174" s="96"/>
@@ -8259,7 +8282,7 @@
         <v>29</v>
       </c>
       <c r="F181" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G181" s="96"/>
       <c r="H181" s="95"/>
@@ -8286,7 +8309,7 @@
         <v>1</v>
       </c>
       <c r="F182" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G182" s="96"/>
       <c r="H182" s="96"/>
@@ -8313,7 +8336,7 @@
         <v>15</v>
       </c>
       <c r="F183" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G183" s="96"/>
       <c r="H183" s="92"/>
@@ -8421,7 +8444,7 @@
       </c>
       <c r="F189" s="38">
         <f>SUM(F171:F188)-SUM(F168:F170)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G189" s="84"/>
       <c r="H189" s="97"/>
@@ -8545,7 +8568,7 @@
         <v>2</v>
       </c>
       <c r="F195" s="15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G195" s="84"/>
       <c r="H195" s="99"/>
@@ -8677,7 +8700,7 @@
         <v>3</v>
       </c>
       <c r="F201" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201" s="87"/>
       <c r="H201" s="95"/>
@@ -8846,7 +8869,7 @@
         <v>22</v>
       </c>
       <c r="F208" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G208" s="87"/>
       <c r="H208" s="95"/>
@@ -8873,7 +8896,7 @@
         <v>3</v>
       </c>
       <c r="F209" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G209" s="87"/>
       <c r="H209" s="96"/>
@@ -9008,7 +9031,7 @@
       </c>
       <c r="F216" s="38">
         <f>SUM(F198:F215)-SUM(F195:F197)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G216" s="84"/>
       <c r="H216" s="97"/>
@@ -9161,7 +9184,7 @@
         <v>283</v>
       </c>
       <c r="F223" s="21">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G223" s="99">
         <v>45169</v>
@@ -9278,7 +9301,7 @@
         <v>17</v>
       </c>
       <c r="F228" s="30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G228" s="87"/>
       <c r="H228" s="96"/>
@@ -9570,23 +9593,27 @@
     </row>
     <row r="239" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="83"/>
-      <c r="B239" s="28" t="s">
+      <c r="B239" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C239" s="28" t="s">
+      <c r="C239" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="D239" s="28" t="s">
+      <c r="D239" s="103" t="s">
         <v>218</v>
       </c>
-      <c r="E239" s="29">
+      <c r="E239" s="104">
         <v>1</v>
       </c>
-      <c r="F239" s="30">
+      <c r="F239" s="105">
         <v>2</v>
       </c>
-      <c r="G239" s="92"/>
-      <c r="H239" s="96"/>
+      <c r="G239" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="H239" s="96">
+        <v>45260</v>
+      </c>
       <c r="I239" s="94"/>
       <c r="J239" s="80"/>
       <c r="K239" s="1"/>
@@ -9597,12 +9624,24 @@
     </row>
     <row r="240" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="83"/>
-      <c r="B240" s="28"/>
-      <c r="C240" s="103"/>
-      <c r="D240" s="103"/>
-      <c r="E240" s="104"/>
-      <c r="F240" s="105"/>
-      <c r="G240" s="92"/>
+      <c r="B240" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C240" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="D240" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="E240" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="F240" s="30">
+        <v>0</v>
+      </c>
+      <c r="G240" s="92">
+        <v>45260</v>
+      </c>
       <c r="H240" s="96"/>
       <c r="I240" s="94"/>
       <c r="J240" s="80"/>
@@ -9657,7 +9696,7 @@
       </c>
       <c r="F243" s="38">
         <f>SUM(F225:F242)-SUM(F222:F224)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G243" s="84"/>
       <c r="H243" s="97"/>
@@ -9773,7 +9812,7 @@
         <v>3</v>
       </c>
       <c r="F249" s="15">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G249" s="84"/>
       <c r="H249" s="99"/>
@@ -9967,7 +10006,7 @@
         <v>283</v>
       </c>
       <c r="F257" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G257" s="96">
         <v>45246</v>
@@ -9996,7 +10035,7 @@
         <v>283</v>
       </c>
       <c r="F258" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G258" s="92">
         <v>45246</v>
@@ -10025,7 +10064,7 @@
         <v>5</v>
       </c>
       <c r="F259" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G259" s="87"/>
       <c r="H259" s="95"/>
@@ -10112,7 +10151,7 @@
         <v>40</v>
       </c>
       <c r="F262" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G262" s="87"/>
       <c r="H262" s="96"/>
@@ -10316,7 +10355,7 @@
       </c>
       <c r="F270" s="38">
         <f>SUM(F252:F269)-SUM(F249:F251)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G270" s="84"/>
       <c r="H270" s="97"/>
@@ -10440,7 +10479,7 @@
         <v>11</v>
       </c>
       <c r="F276" s="15">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G276" s="84"/>
       <c r="H276" s="97"/>
@@ -10572,7 +10611,7 @@
         <v>18</v>
       </c>
       <c r="F282" s="30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G282" s="87"/>
       <c r="H282" s="96"/>
@@ -10630,7 +10669,7 @@
         <v>283</v>
       </c>
       <c r="F284" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G284" s="92">
         <v>45148</v>
@@ -10703,7 +10742,7 @@
         <v>30</v>
       </c>
       <c r="F287" s="30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G287" s="87"/>
       <c r="H287" s="96"/>
@@ -10919,7 +10958,7 @@
       </c>
       <c r="F297" s="38">
         <f>SUM(F278:F296)-SUM(F276:F277)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G297" s="84"/>
       <c r="H297" s="97"/>
@@ -11043,7 +11082,7 @@
         <v>6</v>
       </c>
       <c r="F303" s="15">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G303" s="84"/>
       <c r="H303" s="96"/>
@@ -11293,7 +11332,7 @@
         <v>283</v>
       </c>
       <c r="F313" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G313" s="92">
         <v>45232</v>
@@ -11339,7 +11378,7 @@
         <v>20</v>
       </c>
       <c r="F315" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G315" s="87"/>
       <c r="H315" s="96"/>
@@ -11393,7 +11432,7 @@
         <v>21</v>
       </c>
       <c r="F317" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G317" s="87"/>
       <c r="H317" s="95"/>
@@ -11478,7 +11517,7 @@
         <v>283</v>
       </c>
       <c r="F320" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G320" s="92">
         <v>45169</v>
@@ -11884,7 +11923,7 @@
         <v>19</v>
       </c>
       <c r="F338" s="30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G338" s="92"/>
       <c r="H338" s="95"/>
@@ -11942,7 +11981,7 @@
         <v>283</v>
       </c>
       <c r="F340" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G340" s="92">
         <v>45155</v>
@@ -12006,7 +12045,7 @@
         <v>20</v>
       </c>
       <c r="F343" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G343" s="87"/>
       <c r="H343" s="96"/>
@@ -12186,7 +12225,7 @@
       </c>
       <c r="F351" s="38">
         <f>SUM(F333:F350)-SUM(F330:F332)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G351" s="87"/>
       <c r="H351" s="95"/>
@@ -12256,7 +12295,7 @@
         <v>1</v>
       </c>
       <c r="F357" s="15">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="358" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -12410,7 +12449,7 @@
         <v>35</v>
       </c>
       <c r="F369" s="30">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="370" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -12546,8 +12585,8 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12671,13 +12710,13 @@
         <v>16</v>
       </c>
       <c r="E7" s="25">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="26">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G7" s="27">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H7" s="55"/>
       <c r="I7" s="44"/>
@@ -12690,19 +12729,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>299</v>
+        <v>42</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="E8" s="25">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F8" s="26">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G8" s="27">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="44"/>
@@ -12715,16 +12754,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>299</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E9" s="25">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="26">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="27">
         <v>23</v>
@@ -12746,13 +12785,13 @@
         <v>71</v>
       </c>
       <c r="E10" s="25">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F10" s="26">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G10" s="27">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H10" s="55"/>
       <c r="I10" s="44"/>
@@ -12771,13 +12810,13 @@
         <v>23</v>
       </c>
       <c r="E11" s="25">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F11" s="26">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G11" s="27">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="44"/>
@@ -12799,10 +12838,10 @@
         <v>23</v>
       </c>
       <c r="F12" s="26">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="44"/>
@@ -12815,19 +12854,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="E13" s="25">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="26">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G13" s="27">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="44"/>
@@ -12840,19 +12879,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="E14" s="25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" s="59">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G14" s="60">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="44"/>
@@ -12871,10 +12910,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="25">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F15" s="26">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G15" s="27">
         <v>23</v>
@@ -12896,13 +12935,13 @@
         <v>85</v>
       </c>
       <c r="E16" s="25">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F16" s="26">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G16" s="27">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="44"/>
@@ -12921,13 +12960,13 @@
         <v>221</v>
       </c>
       <c r="E17" s="25">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F17" s="26">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G17" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="44"/>
@@ -12940,16 +12979,16 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="25">
+        <v>12</v>
+      </c>
+      <c r="F18" s="26">
         <v>30</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="25">
-        <v>10</v>
-      </c>
-      <c r="F18" s="26">
-        <v>28</v>
       </c>
       <c r="G18" s="27">
         <v>18</v>
@@ -12965,19 +13004,19 @@
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="E19" s="25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" s="26">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G19" s="27">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="44"/>
@@ -12996,10 +13035,10 @@
         <v>97</v>
       </c>
       <c r="E20" s="25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F20" s="26">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G20" s="27">
         <v>33</v>
@@ -13524,7 +13563,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DAC8563-3C75-41C7-85EB-C7A1DD643F85}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B8D1209-C5F3-4ED2-B405-C06249E0F80A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.sap.com/cof/excel/application"/>
   </ds:schemaRefs>

--- a/data/DreamLeague23-24.xlsx
+++ b/data/DreamLeague23-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\dreamleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="356" documentId="8_{752A8788-F056-4140-BB86-F6521855C67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DEDA271-7D88-4C62-86F8-831986C48339}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFDA73F8-8FCA-45BF-B6D6-4C7E08EB462C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="367">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1114,6 +1114,27 @@
   </si>
   <si>
     <t>STEPHEN HUMPHREYS</t>
+  </si>
+  <si>
+    <t>KWAME POKU</t>
+  </si>
+  <si>
+    <t>MAX DEAN</t>
+  </si>
+  <si>
+    <t>COLE PALMER</t>
+  </si>
+  <si>
+    <t>IVAN TONEY</t>
+  </si>
+  <si>
+    <t>DOMINIC SOLANKE</t>
+  </si>
+  <si>
+    <t>BOURNEMOUTH</t>
+  </si>
+  <si>
+    <t>BEN BRERETON DIAZ</t>
   </si>
 </sst>
 </file>
@@ -3047,7 +3068,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -3061,21 +3082,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX378"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:O17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A170" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G183" sqref="G183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="81" customWidth="1"/>
     <col min="2" max="2" width="16" style="81" customWidth="1"/>
     <col min="3" max="3" width="39.33203125" style="81" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" style="81" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="81" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" style="81" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="81" customWidth="1"/>
     <col min="6" max="6" width="17" style="81" customWidth="1"/>
     <col min="7" max="8" width="11.33203125" style="81" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" style="81" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="81" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="81" customWidth="1"/>
     <col min="11" max="11" width="25.6640625" style="81" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="33.33203125" style="81" customWidth="1"/>
     <col min="13" max="14" width="12" style="81" customWidth="1"/>
@@ -3083,12 +3104,12 @@
     <col min="16" max="17" width="9" style="81" customWidth="1"/>
     <col min="18" max="18" width="32.33203125" style="81" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="9" style="81" customWidth="1"/>
-    <col min="22" max="22" width="30.109375" style="81" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.1640625" style="81" bestFit="1" customWidth="1"/>
     <col min="23" max="258" width="9" style="81" customWidth="1"/>
     <col min="259" max="16384" width="9" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3107,7 +3128,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -3128,7 +3149,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3145,7 +3166,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="83"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -3189,7 +3210,7 @@
       <c r="U4" s="119"/>
       <c r="V4" s="119"/>
     </row>
-    <row r="5" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="83"/>
       <c r="B5" s="115" t="s">
         <v>13</v>
@@ -3222,35 +3243,35 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="R5" s="81" t="s">
         <v>2</v>
       </c>
       <c r="S5" s="114">
         <f>_xlfn.XLOOKUP(R5,K:K,M:M)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="T5" s="113" t="s">
         <v>285</v>
       </c>
       <c r="U5" s="114">
         <f>_xlfn.XLOOKUP(V5,K:K,M:M)</f>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="V5" s="81" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="83"/>
       <c r="B6" s="12" t="s">
         <v>13</v>
@@ -3263,7 +3284,7 @@
         <v>283</v>
       </c>
       <c r="F6" s="21">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G6" s="90">
         <v>45218</v>
@@ -3281,35 +3302,35 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="R6" s="81" t="s">
         <v>2</v>
       </c>
       <c r="S6" s="114">
         <f>_xlfn.XLOOKUP(R6,K:K,M:M)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="T6" s="113" t="s">
         <v>285</v>
       </c>
       <c r="U6" s="114">
         <f>_xlfn.XLOOKUP(V6,K:K,M:M)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V6" s="81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="83"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3330,35 +3351,35 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="R7" s="81" t="s">
         <v>2</v>
       </c>
       <c r="S7" s="114">
         <f>_xlfn.XLOOKUP(R7,K:K,M:M)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="T7" s="113" t="s">
         <v>285</v>
       </c>
       <c r="U7" s="114">
         <f>_xlfn.XLOOKUP(V7,K:K,M:M)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="V7" s="81" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="83"/>
       <c r="B8" s="28" t="s">
         <v>15</v>
@@ -3388,18 +3409,18 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="83"/>
       <c r="B9" s="28" t="s">
         <v>15</v>
@@ -3414,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="87"/>
       <c r="H9" s="79"/>
@@ -3430,26 +3451,40 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N9" s="77">
         <f>SUM(F116:F134)</f>
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="O9" s="78">
         <f>SUM(F113:F115)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="83"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="79"/>
+      <c r="B10" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="104">
+        <v>17</v>
+      </c>
+      <c r="F10" s="105">
+        <v>1</v>
+      </c>
+      <c r="G10" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="H10" s="88">
+        <v>45169</v>
+      </c>
       <c r="I10" s="89"/>
       <c r="J10" s="86"/>
       <c r="K10" s="23" t="str">
@@ -3462,15 +3497,15 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F144:F161)</f>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F141:F143)</f>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R10" s="119" t="s">
         <v>287</v>
@@ -3480,28 +3515,28 @@
       <c r="U10" s="119"/>
       <c r="V10" s="119"/>
     </row>
-    <row r="11" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="83"/>
       <c r="B11" s="103" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="103" t="s">
-        <v>143</v>
+        <v>320</v>
       </c>
       <c r="D11" s="103" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="104">
-        <v>17</v>
+        <v>78</v>
+      </c>
+      <c r="E11" s="104" t="s">
+        <v>283</v>
       </c>
       <c r="F11" s="105">
-        <v>1</v>
-      </c>
-      <c r="G11" s="87" t="s">
-        <v>284</v>
+        <v>0</v>
+      </c>
+      <c r="G11" s="92">
+        <v>45169</v>
       </c>
       <c r="H11" s="88">
-        <v>45169</v>
+        <v>45267</v>
       </c>
       <c r="I11" s="110"/>
       <c r="J11" s="86"/>
@@ -3515,53 +3550,53 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F171:F188)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F168:F170)</f>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="R11" s="81" t="s">
         <v>2</v>
       </c>
       <c r="S11" s="114">
         <f>SUM(F11:F15)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="T11" s="113" t="s">
         <v>285</v>
       </c>
       <c r="U11" s="114">
         <f>SUM(F228:F232)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V11" s="81" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="83"/>
       <c r="B12" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>283</v>
       </c>
       <c r="F12" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="92">
-        <v>45169</v>
+        <v>45267</v>
       </c>
       <c r="H12" s="88"/>
       <c r="I12" s="110"/>
@@ -3576,18 +3611,18 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N12" s="77">
         <f>SUM(F198:F215)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O12" s="78">
         <f>SUM(F195:F197)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="83"/>
       <c r="B13" s="28" t="s">
         <v>18</v>
@@ -3602,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G13" s="92"/>
       <c r="H13" s="88"/>
@@ -3618,15 +3653,15 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N13" s="77">
         <f>SUM(F225:F242)</f>
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="O13" s="78">
         <f>SUM(F222:F224)</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="R13" s="119" t="s">
         <v>288</v>
@@ -3636,7 +3671,7 @@
       <c r="U13" s="119"/>
       <c r="V13" s="119"/>
     </row>
-    <row r="14" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="83"/>
       <c r="B14" s="103" t="s">
         <v>18</v>
@@ -3671,35 +3706,35 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N14" s="77">
         <f>SUM(F252:F269)</f>
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="O14" s="78">
         <f>SUM(F249:F251)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R14" s="81" t="s">
         <v>199</v>
       </c>
       <c r="S14" s="114">
         <f>_xlfn.XLOOKUP(R14,C:C,F:F)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T14" s="113" t="s">
         <v>285</v>
       </c>
       <c r="U14" s="114">
         <f>_xlfn.XLOOKUP(V14,C:C,F:F)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V14" s="81" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="83"/>
       <c r="B15" s="28" t="s">
         <v>18</v>
@@ -3714,7 +3749,7 @@
         <v>283</v>
       </c>
       <c r="F15" s="30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G15" s="92">
         <v>45162</v>
@@ -3732,15 +3767,15 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F278:F296)</f>
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F276:F277)</f>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="R15" s="81" t="s">
         <v>289</v>
@@ -3749,7 +3784,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="83"/>
       <c r="B16" s="28" t="s">
         <v>19</v>
@@ -3764,7 +3799,7 @@
         <v>31</v>
       </c>
       <c r="F16" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
@@ -3780,18 +3815,18 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F306:F323)</f>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F303:F305)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="83"/>
       <c r="B17" s="103" t="s">
         <v>19</v>
@@ -3826,15 +3861,15 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F333:F350)</f>
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F330:F332)</f>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R17" s="119" t="s">
         <v>291</v>
@@ -3844,7 +3879,7 @@
       <c r="U17" s="119"/>
       <c r="V17" s="119"/>
     </row>
-    <row r="18" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="83"/>
       <c r="B18" s="103" t="s">
         <v>19</v>
@@ -3879,35 +3914,35 @@
       </c>
       <c r="M18" s="25">
         <f t="shared" ref="M18" si="1">N18-O18</f>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F360:F377)</f>
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F357:F359)</f>
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="R18" s="81" t="s">
         <v>299</v>
       </c>
       <c r="S18" s="114">
         <f>_xlfn.XLOOKUP(R18,K:K,O:O)</f>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="T18" s="113" t="s">
         <v>285</v>
       </c>
       <c r="U18" s="114">
         <f>_xlfn.XLOOKUP(V18,K:K,O:O)</f>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="V18" s="81" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="83"/>
       <c r="B19" s="103" t="s">
         <v>19</v>
@@ -3938,7 +3973,7 @@
       <c r="N19" s="93"/>
       <c r="O19" s="93"/>
     </row>
-    <row r="20" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="83"/>
       <c r="B20" s="28" t="s">
         <v>19</v>
@@ -3953,7 +3988,7 @@
         <v>283</v>
       </c>
       <c r="F20" s="30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G20" s="92">
         <v>45218</v>
@@ -3974,7 +4009,7 @@
       <c r="U20" s="119"/>
       <c r="V20" s="119"/>
     </row>
-    <row r="21" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="83"/>
       <c r="B21" s="28" t="s">
         <v>19</v>
@@ -3989,7 +4024,7 @@
         <v>283</v>
       </c>
       <c r="F21" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" s="92">
         <v>45218</v>
@@ -4007,20 +4042,20 @@
       </c>
       <c r="S21" s="114">
         <f>_xlfn.XLOOKUP(R22,C:C,F:F)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T21" s="113" t="s">
         <v>285</v>
       </c>
       <c r="U21" s="114">
         <f>_xlfn.XLOOKUP(V22,C:C,F:F)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V21" s="81" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="83"/>
       <c r="B22" s="103" t="s">
         <v>19</v>
@@ -4057,7 +4092,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="83"/>
       <c r="B23" s="103" t="s">
         <v>19</v>
@@ -4088,7 +4123,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="83"/>
       <c r="B24" s="28" t="s">
         <v>19</v>
@@ -4124,7 +4159,7 @@
       <c r="U24" s="119"/>
       <c r="V24" s="119"/>
     </row>
-    <row r="25" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="83"/>
       <c r="B25" s="28" t="s">
         <v>19</v>
@@ -4139,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="30">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G25" s="92"/>
       <c r="H25" s="88"/>
@@ -4155,20 +4190,20 @@
       </c>
       <c r="S25" s="114">
         <f>(_xlfn.XLOOKUP(R25,K:K,M:M))-(_xlfn.XLOOKUP(R26,C:C,F:F))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T25" s="113" t="s">
         <v>285</v>
       </c>
       <c r="U25" s="114">
         <f>(_xlfn.XLOOKUP(V25,K:K,M:M))-(_xlfn.XLOOKUP(V26,C:C,F:F))</f>
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="V25" s="81" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -4179,7 +4214,7 @@
       </c>
       <c r="F26" s="38">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G26" s="84"/>
       <c r="H26" s="97"/>
@@ -4197,7 +4232,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4214,7 +4249,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4238,7 +4273,7 @@
       <c r="U28" s="119"/>
       <c r="V28" s="119"/>
     </row>
-    <row r="29" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
@@ -4266,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4290,7 +4325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="83"/>
       <c r="B31" s="6" t="s">
         <v>3</v>
@@ -4321,10 +4356,10 @@
       </c>
       <c r="S31" s="81">
         <f>SUM(F252:F254)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="83"/>
       <c r="B32" s="12" t="s">
         <v>13</v>
@@ -4357,10 +4392,10 @@
       </c>
       <c r="S32" s="81">
         <f>SUM(F89:F91)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="83"/>
       <c r="B33" s="21" t="s">
         <v>13</v>
@@ -4373,7 +4408,7 @@
         <v>283</v>
       </c>
       <c r="F33" s="21">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G33" s="90">
         <v>45169</v>
@@ -4394,7 +4429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="83"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -4415,10 +4450,10 @@
       </c>
       <c r="S34" s="81">
         <f>SUM(F8:F10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="83"/>
       <c r="B35" s="103" t="s">
         <v>15</v>
@@ -4456,7 +4491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="83"/>
       <c r="B36" s="28" t="s">
         <v>15</v>
@@ -4489,10 +4524,10 @@
       </c>
       <c r="S36" s="81">
         <f>SUM(F306:F308)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="83"/>
       <c r="B37" s="28" t="s">
         <v>15</v>
@@ -4507,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="90"/>
       <c r="H37" s="99"/>
@@ -4519,7 +4554,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="83"/>
       <c r="B38" s="103" t="s">
         <v>18</v>
@@ -4557,7 +4592,7 @@
       <c r="U38" s="119"/>
       <c r="V38" s="119"/>
     </row>
-    <row r="39" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="83"/>
       <c r="B39" s="28" t="s">
         <v>18</v>
@@ -4572,7 +4607,7 @@
         <v>283</v>
       </c>
       <c r="F39" s="30">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G39" s="92">
         <v>45225</v>
@@ -4596,7 +4631,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="83"/>
       <c r="B40" s="28" t="s">
         <v>18</v>
@@ -4611,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G40" s="87"/>
       <c r="H40" s="96"/>
@@ -4633,7 +4668,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="83"/>
       <c r="B41" s="28" t="s">
         <v>18</v>
@@ -4670,7 +4705,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="83"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -4697,7 +4732,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="83"/>
       <c r="B43" s="28" t="s">
         <v>19</v>
@@ -4734,7 +4769,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="83"/>
       <c r="B44" s="103" t="s">
         <v>19</v>
@@ -4769,13 +4804,13 @@
       </c>
       <c r="S44" s="81">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" s="81" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="83"/>
       <c r="B45" s="103" t="s">
         <v>19</v>
@@ -4816,7 +4851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="83"/>
       <c r="B46" s="28" t="s">
         <v>19</v>
@@ -4831,7 +4866,7 @@
         <v>283</v>
       </c>
       <c r="F46" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G46" s="96">
         <v>45204</v>
@@ -4849,13 +4884,13 @@
       </c>
       <c r="S46" s="81">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="V46" s="81" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="83"/>
       <c r="B47" s="28" t="s">
         <v>19</v>
@@ -4870,7 +4905,7 @@
         <v>283</v>
       </c>
       <c r="F47" s="30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G47" s="92">
         <v>45204</v>
@@ -4894,7 +4929,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="83"/>
       <c r="B48" s="103" t="s">
         <v>19</v>
@@ -4935,7 +4970,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="83"/>
       <c r="B49" s="28" t="s">
         <v>19</v>
@@ -4950,7 +4985,7 @@
         <v>283</v>
       </c>
       <c r="F49" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G49" s="92">
         <v>45148</v>
@@ -4974,7 +5009,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="83"/>
       <c r="B50" s="28" t="s">
         <v>19</v>
@@ -5005,13 +5040,13 @@
       </c>
       <c r="S50" s="81">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V50" s="81" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="83"/>
       <c r="B51" s="103"/>
       <c r="C51" s="28"/>
@@ -5038,7 +5073,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="83"/>
       <c r="B52" s="21"/>
       <c r="C52" s="28"/>
@@ -5059,13 +5094,13 @@
       </c>
       <c r="S52" s="81">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V52" s="81" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
@@ -5076,7 +5111,7 @@
       </c>
       <c r="F53" s="38">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G53" s="84"/>
       <c r="H53" s="97"/>
@@ -5092,13 +5127,13 @@
       </c>
       <c r="S53" s="81">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V53" s="81" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -5125,7 +5160,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -5152,7 +5187,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
@@ -5177,13 +5212,13 @@
       </c>
       <c r="S56" s="81">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V56" s="81" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -5210,7 +5245,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="83"/>
       <c r="B58" s="6" t="s">
         <v>3</v>
@@ -5247,7 +5282,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="83"/>
       <c r="B59" s="12" t="s">
         <v>13</v>
@@ -5260,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="15">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G59" s="84"/>
       <c r="H59" s="97"/>
@@ -5282,7 +5317,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="83"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -5309,7 +5344,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="83"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -5336,7 +5371,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="83"/>
       <c r="B62" s="28" t="s">
         <v>15</v>
@@ -5373,7 +5408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="83"/>
       <c r="B63" s="28" t="s">
         <v>15</v>
@@ -5404,13 +5439,13 @@
       </c>
       <c r="S63" s="81">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63" s="81" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="83"/>
       <c r="B64" s="103"/>
       <c r="C64" s="21"/>
@@ -5437,7 +5472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="83"/>
       <c r="B65" s="28" t="s">
         <v>18</v>
@@ -5452,7 +5487,7 @@
         <v>30</v>
       </c>
       <c r="F65" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G65" s="87"/>
       <c r="H65" s="95"/>
@@ -5468,13 +5503,13 @@
       </c>
       <c r="S65" s="81">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V65" s="81" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="83"/>
       <c r="B66" s="103" t="s">
         <v>18</v>
@@ -5515,7 +5550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="83"/>
       <c r="B67" s="28" t="s">
         <v>18</v>
@@ -5530,7 +5565,7 @@
         <v>283</v>
       </c>
       <c r="F67" s="30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G67" s="92">
         <v>45260</v>
@@ -5554,7 +5589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="83"/>
       <c r="B68" s="28" t="s">
         <v>18</v>
@@ -5569,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G68" s="96"/>
       <c r="H68" s="96"/>
@@ -5591,7 +5626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="83"/>
       <c r="B69" s="28"/>
       <c r="C69" s="21"/>
@@ -5618,7 +5653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="83"/>
       <c r="B70" s="28" t="s">
         <v>19</v>
@@ -5645,7 +5680,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="83"/>
       <c r="B71" s="28" t="s">
         <v>19</v>
@@ -5672,7 +5707,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="83"/>
       <c r="B72" s="28" t="s">
         <v>19</v>
@@ -5687,7 +5722,7 @@
         <v>13</v>
       </c>
       <c r="F72" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G72" s="92"/>
       <c r="H72" s="96"/>
@@ -5699,7 +5734,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="83"/>
       <c r="B73" s="103" t="s">
         <v>19</v>
@@ -5730,7 +5765,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="83"/>
       <c r="B74" s="28" t="s">
         <v>19</v>
@@ -5745,7 +5780,7 @@
         <v>283</v>
       </c>
       <c r="F74" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" s="92">
         <v>45162</v>
@@ -5759,25 +5794,29 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="83"/>
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="103" t="s">
         <v>170</v>
       </c>
-      <c r="D75" s="28" t="s">
+      <c r="D75" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="E75" s="29">
+      <c r="E75" s="104">
         <v>1</v>
       </c>
-      <c r="F75" s="30">
+      <c r="F75" s="105">
         <v>3</v>
       </c>
-      <c r="G75" s="87"/>
-      <c r="H75" s="96"/>
+      <c r="G75" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="H75" s="96">
+        <v>45295</v>
+      </c>
       <c r="I75" s="95"/>
       <c r="J75" s="80"/>
       <c r="K75" s="1"/>
@@ -5786,14 +5825,26 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="83"/>
-      <c r="B76" s="103"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="92"/>
+      <c r="B76" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="F76" s="30">
+        <v>0</v>
+      </c>
+      <c r="G76" s="92">
+        <v>45295</v>
+      </c>
       <c r="H76" s="96"/>
       <c r="I76" s="95"/>
       <c r="J76" s="80"/>
@@ -5803,7 +5854,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="83"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
@@ -5820,7 +5871,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="83"/>
       <c r="B78" s="103"/>
       <c r="C78" s="28"/>
@@ -5837,7 +5888,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="83"/>
       <c r="B79" s="21"/>
       <c r="C79" s="28"/>
@@ -5854,7 +5905,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="35"/>
       <c r="C80" s="35"/>
@@ -5865,7 +5916,7 @@
       </c>
       <c r="F80" s="38">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G80" s="84"/>
       <c r="H80" s="97"/>
@@ -5877,7 +5928,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5894,7 +5945,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5911,7 +5962,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
@@ -5932,7 +5983,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5949,7 +6000,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="83"/>
       <c r="B85" s="6" t="s">
         <v>3</v>
@@ -5976,7 +6027,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="83"/>
       <c r="B86" s="12" t="s">
         <v>13</v>
@@ -5989,7 +6040,7 @@
         <v>3</v>
       </c>
       <c r="F86" s="15">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G86" s="84"/>
       <c r="H86" s="99"/>
@@ -6001,7 +6052,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="83"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -6018,7 +6069,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="83"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -6035,7 +6086,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="83"/>
       <c r="B89" s="28" t="s">
         <v>15</v>
@@ -6050,7 +6101,7 @@
         <v>7</v>
       </c>
       <c r="F89" s="30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G89" s="87"/>
       <c r="H89" s="95"/>
@@ -6062,7 +6113,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="83"/>
       <c r="B90" s="28" t="s">
         <v>15</v>
@@ -6077,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="87"/>
       <c r="H90" s="95"/>
@@ -6089,7 +6140,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="83"/>
       <c r="B91" s="103"/>
       <c r="C91" s="21"/>
@@ -6106,7 +6157,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="83"/>
       <c r="B92" s="28" t="s">
         <v>18</v>
@@ -6121,7 +6172,7 @@
         <v>13</v>
       </c>
       <c r="F92" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G92" s="87"/>
       <c r="H92" s="96"/>
@@ -6133,7 +6184,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="83"/>
       <c r="B93" s="28" t="s">
         <v>18</v>
@@ -6148,7 +6199,7 @@
         <v>6</v>
       </c>
       <c r="F93" s="30">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G93" s="92"/>
       <c r="H93" s="96"/>
@@ -6160,7 +6211,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="83"/>
       <c r="B94" s="103" t="s">
         <v>18</v>
@@ -6191,7 +6242,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="83"/>
       <c r="B95" s="103" t="s">
         <v>18</v>
@@ -6222,7 +6273,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="83"/>
       <c r="B96" s="28" t="s">
         <v>18</v>
@@ -6237,7 +6288,7 @@
         <v>283</v>
       </c>
       <c r="F96" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96" s="96">
         <v>45260</v>
@@ -6251,7 +6302,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="83"/>
       <c r="B97" s="103" t="s">
         <v>19</v>
@@ -6282,7 +6333,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="83"/>
       <c r="B98" s="28" t="s">
         <v>19</v>
@@ -6297,7 +6348,7 @@
         <v>283</v>
       </c>
       <c r="F98" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G98" s="92">
         <v>45155</v>
@@ -6311,7 +6362,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="83"/>
       <c r="B99" s="103" t="s">
         <v>19</v>
@@ -6342,7 +6393,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="83"/>
       <c r="B100" s="103" t="s">
         <v>19</v>
@@ -6373,7 +6424,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="83"/>
       <c r="B101" s="28" t="s">
         <v>19</v>
@@ -6384,8 +6435,8 @@
       <c r="D101" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="E101" s="29">
-        <v>12</v>
+      <c r="E101" s="29" t="s">
+        <v>283</v>
       </c>
       <c r="F101" s="30">
         <v>1</v>
@@ -6402,7 +6453,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="83"/>
       <c r="B102" s="28" t="s">
         <v>19</v>
@@ -6417,7 +6468,7 @@
         <v>12</v>
       </c>
       <c r="F102" s="30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G102" s="92"/>
       <c r="H102" s="96"/>
@@ -6429,7 +6480,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="83"/>
       <c r="B103" s="28" t="s">
         <v>19</v>
@@ -6444,7 +6495,7 @@
         <v>10</v>
       </c>
       <c r="F103" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G103" s="92"/>
       <c r="H103" s="96"/>
@@ -6456,25 +6507,29 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="83"/>
-      <c r="B104" s="28" t="s">
+      <c r="B104" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C104" s="28" t="s">
+      <c r="C104" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="D104" s="28" t="s">
+      <c r="D104" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="E104" s="29">
+      <c r="E104" s="104">
         <v>10</v>
       </c>
-      <c r="F104" s="30">
+      <c r="F104" s="105">
         <v>5</v>
       </c>
-      <c r="G104" s="92"/>
-      <c r="H104" s="96"/>
+      <c r="G104" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="H104" s="96">
+        <v>45288</v>
+      </c>
       <c r="I104" s="95"/>
       <c r="J104" s="80"/>
       <c r="K104" s="1"/>
@@ -6483,14 +6538,26 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="83"/>
-      <c r="B105" s="103"/>
-      <c r="C105" s="103"/>
-      <c r="D105" s="103"/>
-      <c r="E105" s="104"/>
-      <c r="F105" s="105"/>
-      <c r="G105" s="92"/>
+      <c r="B105" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E105" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="F105" s="30">
+        <v>0</v>
+      </c>
+      <c r="G105" s="92">
+        <v>45288</v>
+      </c>
       <c r="H105" s="96"/>
       <c r="I105" s="95"/>
       <c r="J105" s="80"/>
@@ -6500,7 +6567,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="83"/>
       <c r="B106" s="21"/>
       <c r="C106" s="28"/>
@@ -6517,18 +6584,18 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="35"/>
       <c r="C107" s="35"/>
       <c r="D107" s="36"/>
       <c r="E107" s="37">
         <f>SUM(E86:E106)</f>
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F107" s="38">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G107" s="84"/>
       <c r="H107" s="97"/>
@@ -6540,7 +6607,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6557,7 +6624,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6574,7 +6641,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
@@ -6595,7 +6662,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6612,7 +6679,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="83"/>
       <c r="B112" s="6" t="s">
         <v>3</v>
@@ -6639,7 +6706,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="83"/>
       <c r="B113" s="115" t="s">
         <v>13</v>
@@ -6668,7 +6735,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="83"/>
       <c r="B114" s="21" t="s">
         <v>13</v>
@@ -6681,7 +6748,7 @@
         <v>283</v>
       </c>
       <c r="F114" s="21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G114" s="99">
         <v>45239</v>
@@ -6695,7 +6762,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="83"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -6712,7 +6779,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="83"/>
       <c r="B116" s="28" t="s">
         <v>15</v>
@@ -6739,7 +6806,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="83"/>
       <c r="B117" s="28" t="s">
         <v>15</v>
@@ -6766,7 +6833,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="83"/>
       <c r="B118" s="103"/>
       <c r="C118" s="28"/>
@@ -6783,7 +6850,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="83"/>
       <c r="B119" s="28" t="s">
         <v>18</v>
@@ -6798,7 +6865,7 @@
         <v>15</v>
       </c>
       <c r="F119" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G119" s="87"/>
       <c r="H119" s="96"/>
@@ -6810,7 +6877,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="83"/>
       <c r="B120" s="28" t="s">
         <v>18</v>
@@ -6825,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="30">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G120" s="92"/>
       <c r="H120" s="96"/>
@@ -6837,7 +6904,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="83"/>
       <c r="B121" s="103" t="s">
         <v>18</v>
@@ -6868,7 +6935,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="83"/>
       <c r="B122" s="28" t="s">
         <v>18</v>
@@ -6883,7 +6950,7 @@
         <v>283</v>
       </c>
       <c r="F122" s="30">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G122" s="92">
         <v>45155</v>
@@ -6897,7 +6964,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="83"/>
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
@@ -6914,7 +6981,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="83"/>
       <c r="B124" s="28" t="s">
         <v>19</v>
@@ -6929,7 +6996,7 @@
         <v>35</v>
       </c>
       <c r="F124" s="30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G124" s="90"/>
       <c r="H124" s="99"/>
@@ -6941,7 +7008,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="83"/>
       <c r="B125" s="103" t="s">
         <v>19</v>
@@ -6972,7 +7039,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="83"/>
       <c r="B126" s="28" t="s">
         <v>19</v>
@@ -7001,7 +7068,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="83"/>
       <c r="B127" s="103" t="s">
         <v>19</v>
@@ -7032,7 +7099,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="83"/>
       <c r="B128" s="103" t="s">
         <v>19</v>
@@ -7063,7 +7130,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="83"/>
       <c r="B129" s="28" t="s">
         <v>19</v>
@@ -7078,7 +7145,7 @@
         <v>283</v>
       </c>
       <c r="F129" s="30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G129" s="92">
         <v>45232</v>
@@ -7092,7 +7159,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="83"/>
       <c r="B130" s="28" t="s">
         <v>19</v>
@@ -7107,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="30">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G130" s="87"/>
       <c r="H130" s="96"/>
@@ -7119,7 +7186,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="83"/>
       <c r="B131" s="103" t="s">
         <v>19</v>
@@ -7150,7 +7217,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="83"/>
       <c r="B132" s="28" t="s">
         <v>19</v>
@@ -7165,7 +7232,7 @@
         <v>283</v>
       </c>
       <c r="F132" s="30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G132" s="92">
         <v>45246</v>
@@ -7179,7 +7246,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="83"/>
       <c r="B133" s="103"/>
       <c r="C133" s="103"/>
@@ -7196,7 +7263,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="83"/>
       <c r="B134" s="21"/>
       <c r="C134" s="21"/>
@@ -7213,7 +7280,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="35"/>
       <c r="C135" s="35"/>
@@ -7224,7 +7291,7 @@
       </c>
       <c r="F135" s="38">
         <f>SUM(F116:F134)-SUM(F113:F115)</f>
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G135" s="84"/>
       <c r="H135" s="97"/>
@@ -7236,7 +7303,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -7253,7 +7320,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -7270,7 +7337,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="3" t="s">
@@ -7291,7 +7358,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -7308,7 +7375,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="83"/>
       <c r="B140" s="6" t="s">
         <v>3</v>
@@ -7335,7 +7402,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="83"/>
       <c r="B141" s="12" t="s">
         <v>13</v>
@@ -7348,7 +7415,7 @@
         <v>3</v>
       </c>
       <c r="F141" s="15">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G141" s="84"/>
       <c r="H141" s="99"/>
@@ -7360,7 +7427,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="83"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -7377,7 +7444,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="83"/>
       <c r="B143" s="21"/>
       <c r="C143" s="21"/>
@@ -7394,7 +7461,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="83"/>
       <c r="B144" s="28" t="s">
         <v>15</v>
@@ -7421,7 +7488,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="83"/>
       <c r="B145" s="28" t="s">
         <v>15</v>
@@ -7448,7 +7515,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="83"/>
       <c r="B146" s="103"/>
       <c r="C146" s="21"/>
@@ -7465,7 +7532,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="83"/>
       <c r="B147" s="28" t="s">
         <v>18</v>
@@ -7480,7 +7547,7 @@
         <v>39</v>
       </c>
       <c r="F147" s="30">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G147" s="92"/>
       <c r="H147" s="95"/>
@@ -7492,7 +7559,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="83"/>
       <c r="B148" s="28" t="s">
         <v>18</v>
@@ -7517,7 +7584,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="83"/>
       <c r="B149" s="28" t="s">
         <v>18</v>
@@ -7548,7 +7615,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="83"/>
       <c r="B150" s="28" t="s">
         <v>18</v>
@@ -7563,7 +7630,7 @@
         <v>283</v>
       </c>
       <c r="F150" s="30">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G150" s="92">
         <v>45183</v>
@@ -7577,7 +7644,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="83"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
@@ -7594,7 +7661,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="83"/>
       <c r="B152" s="28" t="s">
         <v>19</v>
@@ -7609,7 +7676,7 @@
         <v>34</v>
       </c>
       <c r="F152" s="30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G152" s="87"/>
       <c r="H152" s="96"/>
@@ -7621,7 +7688,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="83"/>
       <c r="B153" s="28" t="s">
         <v>19</v>
@@ -7648,7 +7715,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="83"/>
       <c r="B154" s="28" t="s">
         <v>19</v>
@@ -7675,7 +7742,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="83"/>
       <c r="B155" s="103" t="s">
         <v>19</v>
@@ -7706,7 +7773,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="83"/>
       <c r="B156" s="28" t="s">
         <v>19</v>
@@ -7721,7 +7788,7 @@
         <v>283</v>
       </c>
       <c r="F156" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G156" s="92">
         <v>45225</v>
@@ -7735,7 +7802,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="83"/>
       <c r="B157" s="103" t="s">
         <v>19</v>
@@ -7766,7 +7833,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="83"/>
       <c r="B158" s="28" t="s">
         <v>19</v>
@@ -7781,7 +7848,7 @@
         <v>283</v>
       </c>
       <c r="F158" s="30">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G158" s="92">
         <v>45169</v>
@@ -7795,7 +7862,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="83"/>
       <c r="B159" s="28"/>
       <c r="C159" s="21"/>
@@ -7812,7 +7879,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="83"/>
       <c r="B160" s="103"/>
       <c r="C160" s="21"/>
@@ -7829,7 +7896,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="83"/>
       <c r="B161" s="21"/>
       <c r="C161" s="33"/>
@@ -7846,7 +7913,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="35"/>
       <c r="C162" s="35"/>
@@ -7857,7 +7924,7 @@
       </c>
       <c r="F162" s="38">
         <f>SUM(F144:F161)-SUM(F141:F143)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G162" s="84"/>
       <c r="H162" s="97"/>
@@ -7869,7 +7936,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7886,7 +7953,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7903,7 +7970,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="3" t="s">
@@ -7924,7 +7991,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -7941,7 +8008,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="83"/>
       <c r="B167" s="6" t="s">
         <v>3</v>
@@ -7968,7 +8035,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="83"/>
       <c r="B168" s="12" t="s">
         <v>13</v>
@@ -7981,7 +8048,7 @@
         <v>4</v>
       </c>
       <c r="F168" s="15">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G168" s="84"/>
       <c r="H168" s="99"/>
@@ -7993,7 +8060,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="83"/>
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
@@ -8010,7 +8077,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="83"/>
       <c r="B170" s="21"/>
       <c r="C170" s="21"/>
@@ -8027,7 +8094,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="83"/>
       <c r="B171" s="28" t="s">
         <v>15</v>
@@ -8054,7 +8121,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="83"/>
       <c r="B172" s="28" t="s">
         <v>15</v>
@@ -8081,7 +8148,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="83"/>
       <c r="B173" s="28"/>
       <c r="C173" s="28"/>
@@ -8098,7 +8165,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="83"/>
       <c r="B174" s="28" t="s">
         <v>18</v>
@@ -8113,7 +8180,7 @@
         <v>17</v>
       </c>
       <c r="F174" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G174" s="87"/>
       <c r="H174" s="96"/>
@@ -8125,7 +8192,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="83"/>
       <c r="B175" s="28" t="s">
         <v>18</v>
@@ -8140,7 +8207,7 @@
         <v>5</v>
       </c>
       <c r="F175" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G175" s="96"/>
       <c r="H175" s="95"/>
@@ -8152,7 +8219,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="83"/>
       <c r="B176" s="28" t="s">
         <v>18</v>
@@ -8179,7 +8246,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="83"/>
       <c r="B177" s="28"/>
       <c r="C177" s="28"/>
@@ -8196,7 +8263,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="83"/>
       <c r="B178" s="28"/>
       <c r="C178" s="28"/>
@@ -8213,25 +8280,29 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="83"/>
-      <c r="B179" s="28" t="s">
+      <c r="B179" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C179" s="28" t="s">
+      <c r="C179" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="D179" s="28" t="s">
+      <c r="D179" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="E179" s="29">
+      <c r="E179" s="104">
         <v>12</v>
       </c>
-      <c r="F179" s="30">
+      <c r="F179" s="105">
         <v>4</v>
       </c>
-      <c r="G179" s="87"/>
-      <c r="H179" s="96"/>
+      <c r="G179" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="H179" s="96">
+        <v>45302</v>
+      </c>
       <c r="I179" s="95"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
@@ -8240,24 +8311,26 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="83"/>
       <c r="B180" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C180" s="28" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E180" s="29">
-        <v>1</v>
+        <v>197</v>
+      </c>
+      <c r="E180" s="29" t="s">
+        <v>283</v>
       </c>
       <c r="F180" s="30">
-        <v>3</v>
-      </c>
-      <c r="G180" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G180" s="92">
+        <v>45302</v>
+      </c>
       <c r="H180" s="96"/>
       <c r="I180" s="95"/>
       <c r="J180" s="80"/>
@@ -8267,22 +8340,22 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="83"/>
       <c r="B181" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C181" s="28" t="s">
-        <v>112</v>
+        <v>307</v>
       </c>
       <c r="D181" s="28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E181" s="29">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F181" s="30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G181" s="96"/>
       <c r="H181" s="95"/>
@@ -8294,22 +8367,22 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="83"/>
       <c r="B182" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="E182" s="29">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F182" s="30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G182" s="96"/>
       <c r="H182" s="96"/>
@@ -8321,22 +8394,22 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="83"/>
       <c r="B183" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C183" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E183" s="29">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F183" s="30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G183" s="96"/>
       <c r="H183" s="92"/>
@@ -8348,13 +8421,23 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="83"/>
-      <c r="B184" s="28"/>
-      <c r="C184" s="103"/>
-      <c r="D184" s="103"/>
-      <c r="E184" s="104"/>
-      <c r="F184" s="105"/>
+      <c r="B184" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C184" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D184" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E184" s="29">
+        <v>15</v>
+      </c>
+      <c r="F184" s="30">
+        <v>6</v>
+      </c>
       <c r="G184" s="96"/>
       <c r="H184" s="92"/>
       <c r="I184" s="95"/>
@@ -8365,7 +8448,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="83"/>
       <c r="B185" s="103"/>
       <c r="C185" s="103"/>
@@ -8382,7 +8465,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="83"/>
       <c r="B186" s="28"/>
       <c r="C186" s="28"/>
@@ -8399,7 +8482,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="83"/>
       <c r="B187" s="103"/>
       <c r="C187" s="103"/>
@@ -8416,7 +8499,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="83"/>
       <c r="B188" s="21"/>
       <c r="C188" s="28"/>
@@ -8433,7 +8516,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="35"/>
       <c r="C189" s="35"/>
@@ -8444,7 +8527,7 @@
       </c>
       <c r="F189" s="38">
         <f>SUM(F171:F188)-SUM(F168:F170)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G189" s="84"/>
       <c r="H189" s="97"/>
@@ -8456,7 +8539,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -8473,7 +8556,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -8490,7 +8573,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="3" t="s">
@@ -8511,7 +8594,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -8528,7 +8611,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="83"/>
       <c r="B194" s="6" t="s">
         <v>3</v>
@@ -8555,7 +8638,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="83"/>
       <c r="B195" s="12" t="s">
         <v>13</v>
@@ -8568,7 +8651,7 @@
         <v>2</v>
       </c>
       <c r="F195" s="15">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G195" s="84"/>
       <c r="H195" s="99"/>
@@ -8580,7 +8663,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="83"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -8597,7 +8680,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="83"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
@@ -8614,7 +8697,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="83"/>
       <c r="B198" s="28" t="s">
         <v>15</v>
@@ -8641,7 +8724,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="83"/>
       <c r="B199" s="28" t="s">
         <v>15</v>
@@ -8668,7 +8751,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="83"/>
       <c r="B200" s="103"/>
       <c r="C200" s="28"/>
@@ -8685,7 +8768,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="83"/>
       <c r="B201" s="28" t="s">
         <v>18</v>
@@ -8700,7 +8783,7 @@
         <v>3</v>
       </c>
       <c r="F201" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G201" s="87"/>
       <c r="H201" s="95"/>
@@ -8712,7 +8795,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="83"/>
       <c r="B202" s="28" t="s">
         <v>18</v>
@@ -8739,7 +8822,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="83"/>
       <c r="B203" s="28" t="s">
         <v>18</v>
@@ -8754,7 +8837,7 @@
         <v>3</v>
       </c>
       <c r="F203" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G203" s="87"/>
       <c r="H203" s="95"/>
@@ -8766,7 +8849,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="83"/>
       <c r="B204" s="28"/>
       <c r="C204" s="21"/>
@@ -8783,7 +8866,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="83"/>
       <c r="B205" s="28"/>
       <c r="C205" s="21"/>
@@ -8800,7 +8883,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="83"/>
       <c r="B206" s="28" t="s">
         <v>19</v>
@@ -8815,7 +8898,7 @@
         <v>45</v>
       </c>
       <c r="F206" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G206" s="87"/>
       <c r="H206" s="96"/>
@@ -8827,7 +8910,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="83"/>
       <c r="B207" s="28" t="s">
         <v>19</v>
@@ -8842,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G207" s="92"/>
       <c r="H207" s="95"/>
@@ -8854,7 +8937,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="83"/>
       <c r="B208" s="28" t="s">
         <v>19</v>
@@ -8869,7 +8952,7 @@
         <v>22</v>
       </c>
       <c r="F208" s="30">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G208" s="87"/>
       <c r="H208" s="95"/>
@@ -8881,7 +8964,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="83"/>
       <c r="B209" s="28" t="s">
         <v>19</v>
@@ -8896,7 +8979,7 @@
         <v>3</v>
       </c>
       <c r="F209" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G209" s="87"/>
       <c r="H209" s="96"/>
@@ -8908,7 +8991,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="83"/>
       <c r="B210" s="28" t="s">
         <v>19</v>
@@ -8923,7 +9006,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G210" s="92"/>
       <c r="H210" s="96"/>
@@ -8935,7 +9018,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="83"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -8952,7 +9035,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="83"/>
       <c r="B212" s="103"/>
       <c r="C212" s="28"/>
@@ -8969,7 +9052,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="83"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
@@ -8986,7 +9069,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="83"/>
       <c r="B214" s="103"/>
       <c r="C214" s="21"/>
@@ -9003,7 +9086,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="83"/>
       <c r="B215" s="21"/>
       <c r="C215" s="33"/>
@@ -9020,7 +9103,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="35"/>
       <c r="C216" s="35"/>
@@ -9031,7 +9114,7 @@
       </c>
       <c r="F216" s="38">
         <f>SUM(F198:F215)-SUM(F195:F197)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G216" s="84"/>
       <c r="H216" s="97"/>
@@ -9043,7 +9126,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -9060,7 +9143,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -9077,7 +9160,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="3" t="s">
@@ -9098,7 +9181,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -9115,7 +9198,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="83"/>
       <c r="B221" s="6" t="s">
         <v>3</v>
@@ -9142,7 +9225,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="61"/>
       <c r="B222" s="12" t="s">
         <v>13</v>
@@ -9171,7 +9254,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="83"/>
       <c r="B223" s="21" t="s">
         <v>13</v>
@@ -9184,7 +9267,7 @@
         <v>283</v>
       </c>
       <c r="F223" s="21">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G223" s="99">
         <v>45169</v>
@@ -9198,7 +9281,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="83"/>
       <c r="B224" s="21"/>
       <c r="C224" s="21"/>
@@ -9215,7 +9298,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="83"/>
       <c r="B225" s="28" t="s">
         <v>15</v>
@@ -9230,7 +9313,7 @@
         <v>5</v>
       </c>
       <c r="F225" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G225" s="87"/>
       <c r="H225" s="95"/>
@@ -9242,7 +9325,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="83"/>
       <c r="B226" s="28" t="s">
         <v>15</v>
@@ -9269,7 +9352,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="83"/>
       <c r="B227" s="103"/>
       <c r="C227" s="21"/>
@@ -9286,7 +9369,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="83"/>
       <c r="B228" s="28" t="s">
         <v>18</v>
@@ -9313,7 +9396,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="83"/>
       <c r="B229" s="28" t="s">
         <v>18</v>
@@ -9328,7 +9411,7 @@
         <v>5</v>
       </c>
       <c r="F229" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G229" s="92"/>
       <c r="H229" s="95"/>
@@ -9340,7 +9423,7 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="83"/>
       <c r="B230" s="103" t="s">
         <v>18</v>
@@ -9371,7 +9454,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="83"/>
       <c r="B231" s="28" t="s">
         <v>18</v>
@@ -9400,7 +9483,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="83"/>
       <c r="B232" s="28"/>
       <c r="C232" s="28"/>
@@ -9417,7 +9500,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="83"/>
       <c r="B233" s="28" t="s">
         <v>19</v>
@@ -9432,7 +9515,7 @@
         <v>25</v>
       </c>
       <c r="F233" s="30">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G233" s="92"/>
       <c r="H233" s="95"/>
@@ -9444,7 +9527,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="83"/>
       <c r="B234" s="103" t="s">
         <v>19</v>
@@ -9475,7 +9558,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="83"/>
       <c r="B235" s="28" t="s">
         <v>19</v>
@@ -9490,7 +9573,7 @@
         <v>283</v>
       </c>
       <c r="F235" s="30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G235" s="92">
         <v>45190</v>
@@ -9504,7 +9587,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="83"/>
       <c r="B236" s="103" t="s">
         <v>19</v>
@@ -9535,7 +9618,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="83"/>
       <c r="B237" s="28" t="s">
         <v>19</v>
@@ -9550,7 +9633,7 @@
         <v>283</v>
       </c>
       <c r="F237" s="30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G237" s="92">
         <v>45162</v>
@@ -9564,7 +9647,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="83"/>
       <c r="B238" s="28" t="s">
         <v>19</v>
@@ -9579,7 +9662,7 @@
         <v>1</v>
       </c>
       <c r="F238" s="30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G238" s="87"/>
       <c r="H238" s="96"/>
@@ -9591,7 +9674,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="83"/>
       <c r="B239" s="103" t="s">
         <v>19</v>
@@ -9622,7 +9705,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="83"/>
       <c r="B240" s="28" t="s">
         <v>19</v>
@@ -9637,7 +9720,7 @@
         <v>283</v>
       </c>
       <c r="F240" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G240" s="92">
         <v>45260</v>
@@ -9651,7 +9734,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="83"/>
       <c r="B241" s="103"/>
       <c r="C241" s="28"/>
@@ -9668,7 +9751,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="83"/>
       <c r="B242" s="21"/>
       <c r="C242" s="28"/>
@@ -9685,7 +9768,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="35"/>
       <c r="C243" s="35"/>
@@ -9696,7 +9779,7 @@
       </c>
       <c r="F243" s="38">
         <f>SUM(F225:F242)-SUM(F222:F224)</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G243" s="84"/>
       <c r="H243" s="97"/>
@@ -9708,7 +9791,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9725,7 +9808,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -9742,7 +9825,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="3" t="s">
@@ -9763,7 +9846,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -9780,7 +9863,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="83"/>
       <c r="B248" s="6" t="s">
         <v>3</v>
@@ -9799,7 +9882,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="83"/>
       <c r="B249" s="12" t="s">
         <v>13</v>
@@ -9812,7 +9895,7 @@
         <v>3</v>
       </c>
       <c r="F249" s="15">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G249" s="84"/>
       <c r="H249" s="99"/>
@@ -9824,7 +9907,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="83"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
@@ -9841,7 +9924,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="83"/>
       <c r="B251" s="21"/>
       <c r="C251" s="21"/>
@@ -9858,7 +9941,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="83"/>
       <c r="B252" s="28" t="s">
         <v>15</v>
@@ -9885,7 +9968,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="83"/>
       <c r="B253" s="28" t="s">
         <v>15</v>
@@ -9900,7 +9983,7 @@
         <v>1</v>
       </c>
       <c r="F253" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G253" s="92"/>
       <c r="H253" s="95"/>
@@ -9912,7 +9995,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="83"/>
       <c r="B254" s="103"/>
       <c r="C254" s="28"/>
@@ -9929,7 +10012,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="83"/>
       <c r="B255" s="103" t="s">
         <v>18</v>
@@ -9960,7 +10043,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="83"/>
       <c r="B256" s="103" t="s">
         <v>18</v>
@@ -9991,7 +10074,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="83"/>
       <c r="B257" s="28" t="s">
         <v>18</v>
@@ -10006,7 +10089,7 @@
         <v>283</v>
       </c>
       <c r="F257" s="30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G257" s="96">
         <v>45246</v>
@@ -10020,7 +10103,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="83"/>
       <c r="B258" s="28" t="s">
         <v>18</v>
@@ -10035,7 +10118,7 @@
         <v>283</v>
       </c>
       <c r="F258" s="30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G258" s="92">
         <v>45246</v>
@@ -10049,7 +10132,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="83"/>
       <c r="B259" s="28" t="s">
         <v>18</v>
@@ -10064,7 +10147,7 @@
         <v>5</v>
       </c>
       <c r="F259" s="30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G259" s="87"/>
       <c r="H259" s="95"/>
@@ -10076,7 +10159,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="83"/>
       <c r="B260" s="103" t="s">
         <v>19</v>
@@ -10107,7 +10190,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="83"/>
       <c r="B261" s="28" t="s">
         <v>19</v>
@@ -10136,7 +10219,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="83"/>
       <c r="B262" s="28" t="s">
         <v>19</v>
@@ -10151,7 +10234,7 @@
         <v>40</v>
       </c>
       <c r="F262" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G262" s="87"/>
       <c r="H262" s="96"/>
@@ -10163,7 +10246,7 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="83"/>
       <c r="B263" s="28" t="s">
         <v>19</v>
@@ -10178,7 +10261,7 @@
         <v>4</v>
       </c>
       <c r="F263" s="30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G263" s="92"/>
       <c r="H263" s="96"/>
@@ -10190,7 +10273,7 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="83"/>
       <c r="B264" s="103" t="s">
         <v>19</v>
@@ -10221,7 +10304,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="83"/>
       <c r="B265" s="103" t="s">
         <v>19</v>
@@ -10252,7 +10335,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="83"/>
       <c r="B266" s="28" t="s">
         <v>19</v>
@@ -10281,7 +10364,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="83"/>
       <c r="B267" s="28" t="s">
         <v>19</v>
@@ -10296,7 +10379,7 @@
         <v>283</v>
       </c>
       <c r="F267" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G267" s="92">
         <v>45246</v>
@@ -10310,7 +10393,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="83"/>
       <c r="B268" s="103"/>
       <c r="C268" s="21"/>
@@ -10327,7 +10410,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="83"/>
       <c r="B269" s="21"/>
       <c r="C269" s="33"/>
@@ -10344,7 +10427,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="35"/>
       <c r="C270" s="35"/>
@@ -10355,7 +10438,7 @@
       </c>
       <c r="F270" s="38">
         <f>SUM(F252:F269)-SUM(F249:F251)</f>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G270" s="84"/>
       <c r="H270" s="97"/>
@@ -10367,7 +10450,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -10384,7 +10467,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -10401,7 +10484,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1" t="s">
@@ -10422,7 +10505,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -10439,7 +10522,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="83"/>
       <c r="B275" s="6" t="s">
         <v>3</v>
@@ -10466,7 +10549,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="83"/>
       <c r="B276" s="12" t="s">
         <v>13</v>
@@ -10479,7 +10562,7 @@
         <v>11</v>
       </c>
       <c r="F276" s="15">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G276" s="84"/>
       <c r="H276" s="97"/>
@@ -10491,7 +10574,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="83"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
@@ -10508,7 +10591,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="83"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
@@ -10525,7 +10608,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="83"/>
       <c r="B279" s="28" t="s">
         <v>15</v>
@@ -10552,7 +10635,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="83"/>
       <c r="B280" s="28" t="s">
         <v>15</v>
@@ -10579,7 +10662,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="83"/>
       <c r="B281" s="103"/>
       <c r="C281" s="21"/>
@@ -10596,7 +10679,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="83"/>
       <c r="B282" s="28" t="s">
         <v>18</v>
@@ -10611,7 +10694,7 @@
         <v>18</v>
       </c>
       <c r="F282" s="30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G282" s="87"/>
       <c r="H282" s="96"/>
@@ -10623,7 +10706,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="83"/>
       <c r="B283" s="103" t="s">
         <v>18</v>
@@ -10654,7 +10737,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="83"/>
       <c r="B284" s="28" t="s">
         <v>18</v>
@@ -10669,7 +10752,7 @@
         <v>283</v>
       </c>
       <c r="F284" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G284" s="92">
         <v>45148</v>
@@ -10683,7 +10766,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="83"/>
       <c r="B285" s="28" t="s">
         <v>18</v>
@@ -10710,7 +10793,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="83"/>
       <c r="B286" s="28"/>
       <c r="C286" s="21"/>
@@ -10727,7 +10810,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="83"/>
       <c r="B287" s="28" t="s">
         <v>19</v>
@@ -10742,7 +10825,7 @@
         <v>30</v>
       </c>
       <c r="F287" s="30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G287" s="87"/>
       <c r="H287" s="96"/>
@@ -10754,7 +10837,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="83"/>
       <c r="B288" s="28" t="s">
         <v>19</v>
@@ -10781,7 +10864,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="83"/>
       <c r="B289" s="28" t="s">
         <v>19</v>
@@ -10796,7 +10879,7 @@
         <v>1</v>
       </c>
       <c r="F289" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G289" s="92"/>
       <c r="H289" s="96"/>
@@ -10808,7 +10891,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="83"/>
       <c r="B290" s="28" t="s">
         <v>19</v>
@@ -10823,7 +10906,7 @@
         <v>1</v>
       </c>
       <c r="F290" s="30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G290" s="92"/>
       <c r="H290" s="96"/>
@@ -10835,7 +10918,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="83"/>
       <c r="B291" s="28" t="s">
         <v>19</v>
@@ -10850,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="F291" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G291" s="92"/>
       <c r="H291" s="96"/>
@@ -10862,7 +10945,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="83"/>
       <c r="B292" s="28"/>
       <c r="C292" s="107"/>
@@ -10879,7 +10962,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="83"/>
       <c r="B293" s="103"/>
       <c r="C293" s="21"/>
@@ -10896,7 +10979,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="83"/>
       <c r="B294" s="28"/>
       <c r="C294" s="21"/>
@@ -10913,7 +10996,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="83"/>
       <c r="B295" s="103"/>
       <c r="C295" s="107"/>
@@ -10930,7 +11013,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="83"/>
       <c r="B296" s="21"/>
       <c r="C296" s="21"/>
@@ -10947,7 +11030,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="35"/>
       <c r="C297" s="35"/>
@@ -10958,7 +11041,7 @@
       </c>
       <c r="F297" s="38">
         <f>SUM(F278:F296)-SUM(F276:F277)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G297" s="84"/>
       <c r="H297" s="97"/>
@@ -10970,7 +11053,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -10987,7 +11070,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -11004,7 +11087,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1" t="s">
@@ -11025,7 +11108,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -11042,7 +11125,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" s="83"/>
       <c r="B302" s="6" t="s">
         <v>3</v>
@@ -11069,7 +11152,7 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="83"/>
       <c r="B303" s="12" t="s">
         <v>13</v>
@@ -11082,7 +11165,7 @@
         <v>6</v>
       </c>
       <c r="F303" s="15">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G303" s="84"/>
       <c r="H303" s="96"/>
@@ -11094,7 +11177,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="83"/>
       <c r="B304" s="21"/>
       <c r="C304" s="21"/>
@@ -11111,7 +11194,7 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="83"/>
       <c r="B305" s="21"/>
       <c r="C305" s="21"/>
@@ -11128,7 +11211,7 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="83"/>
       <c r="B306" s="28" t="s">
         <v>15</v>
@@ -11143,7 +11226,7 @@
         <v>1</v>
       </c>
       <c r="F306" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G306" s="87"/>
       <c r="H306" s="96"/>
@@ -11155,7 +11238,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="83"/>
       <c r="B307" s="28" t="s">
         <v>15</v>
@@ -11170,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="F307" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G307" s="92"/>
       <c r="H307" s="95"/>
@@ -11182,7 +11265,7 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="83"/>
       <c r="B308" s="103"/>
       <c r="C308" s="21"/>
@@ -11199,7 +11282,7 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="83"/>
       <c r="B309" s="103" t="s">
         <v>18</v>
@@ -11230,7 +11313,7 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="83"/>
       <c r="B310" s="28" t="s">
         <v>18</v>
@@ -11245,7 +11328,7 @@
         <v>283</v>
       </c>
       <c r="F310" s="30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G310" s="92">
         <v>45169</v>
@@ -11259,25 +11342,29 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="83"/>
-      <c r="B311" s="28" t="s">
+      <c r="B311" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C311" s="21" t="s">
+      <c r="C311" s="107" t="s">
         <v>253</v>
       </c>
-      <c r="D311" s="21" t="s">
+      <c r="D311" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="E311" s="22">
+      <c r="E311" s="108">
         <v>1</v>
       </c>
-      <c r="F311" s="30">
+      <c r="F311" s="105">
         <v>6</v>
       </c>
-      <c r="G311" s="87"/>
-      <c r="H311" s="96"/>
+      <c r="G311" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="H311" s="96">
+        <v>45288</v>
+      </c>
       <c r="I311" s="95"/>
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
@@ -11286,29 +11373,27 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="83"/>
-      <c r="B312" s="103" t="s">
+      <c r="B312" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C312" s="107" t="s">
-        <v>254</v>
-      </c>
-      <c r="D312" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="E312" s="108">
-        <v>1</v>
-      </c>
-      <c r="F312" s="105">
+      <c r="C312" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="D312" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E312" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="F312" s="30">
         <v>2</v>
       </c>
-      <c r="G312" s="92" t="s">
-        <v>284</v>
-      </c>
-      <c r="H312" s="96">
-        <v>45232</v>
-      </c>
+      <c r="G312" s="92">
+        <v>45288</v>
+      </c>
+      <c r="H312" s="96"/>
       <c r="I312" s="95"/>
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
@@ -11317,27 +11402,29 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="83"/>
-      <c r="B313" s="28" t="s">
+      <c r="B313" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C313" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="D313" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E313" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="F313" s="30">
+      <c r="C313" s="107" t="s">
+        <v>254</v>
+      </c>
+      <c r="D313" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="E313" s="108">
         <v>1</v>
       </c>
-      <c r="G313" s="92">
+      <c r="F313" s="105">
+        <v>2</v>
+      </c>
+      <c r="G313" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="H313" s="96">
         <v>45232</v>
       </c>
-      <c r="H313" s="95"/>
       <c r="I313" s="95"/>
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
@@ -11346,15 +11433,27 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="83"/>
-      <c r="B314" s="28"/>
-      <c r="C314" s="21"/>
-      <c r="D314" s="21"/>
-      <c r="E314" s="22"/>
-      <c r="F314" s="30"/>
-      <c r="G314" s="87"/>
-      <c r="H314" s="96"/>
+      <c r="B314" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C314" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="D314" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E314" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="F314" s="30">
+        <v>2</v>
+      </c>
+      <c r="G314" s="92">
+        <v>45232</v>
+      </c>
+      <c r="H314" s="95"/>
       <c r="I314" s="95"/>
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
@@ -11363,7 +11462,7 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="83"/>
       <c r="B315" s="28" t="s">
         <v>19</v>
@@ -11378,7 +11477,7 @@
         <v>20</v>
       </c>
       <c r="F315" s="30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G315" s="87"/>
       <c r="H315" s="96"/>
@@ -11390,7 +11489,7 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="83"/>
       <c r="B316" s="28" t="s">
         <v>19</v>
@@ -11405,7 +11504,7 @@
         <v>20</v>
       </c>
       <c r="F316" s="30">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G316" s="92"/>
       <c r="H316" s="95"/>
@@ -11417,7 +11516,7 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="83"/>
       <c r="B317" s="28" t="s">
         <v>19</v>
@@ -11432,7 +11531,7 @@
         <v>21</v>
       </c>
       <c r="F317" s="30">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G317" s="87"/>
       <c r="H317" s="95"/>
@@ -11444,25 +11543,29 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="83"/>
-      <c r="B318" s="28" t="s">
+      <c r="B318" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C318" s="21" t="s">
+      <c r="C318" s="107" t="s">
         <v>258</v>
       </c>
-      <c r="D318" s="21" t="s">
+      <c r="D318" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="E318" s="22">
+      <c r="E318" s="108">
         <v>5</v>
       </c>
-      <c r="F318" s="30">
-        <v>1</v>
-      </c>
-      <c r="G318" s="87"/>
-      <c r="H318" s="95"/>
+      <c r="F318" s="105">
+        <v>3</v>
+      </c>
+      <c r="G318" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="H318" s="96">
+        <v>45288</v>
+      </c>
       <c r="I318" s="95"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
@@ -11471,29 +11574,27 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="83"/>
-      <c r="B319" s="103" t="s">
+      <c r="B319" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C319" s="107" t="s">
-        <v>259</v>
-      </c>
-      <c r="D319" s="107" t="s">
-        <v>114</v>
-      </c>
-      <c r="E319" s="108">
-        <v>1</v>
-      </c>
-      <c r="F319" s="105">
-        <v>1</v>
-      </c>
-      <c r="G319" s="87" t="s">
-        <v>284</v>
-      </c>
-      <c r="H319" s="96">
-        <v>45169</v>
-      </c>
+      <c r="C319" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="D319" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E319" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="F319" s="30">
+        <v>0</v>
+      </c>
+      <c r="G319" s="92">
+        <v>45288</v>
+      </c>
+      <c r="H319" s="96"/>
       <c r="I319" s="95"/>
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
@@ -11502,27 +11603,29 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="83"/>
-      <c r="B320" s="28" t="s">
+      <c r="B320" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C320" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="D320" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="E320" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="F320" s="30">
-        <v>9</v>
-      </c>
-      <c r="G320" s="92">
+      <c r="C320" s="107" t="s">
+        <v>259</v>
+      </c>
+      <c r="D320" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="E320" s="108">
+        <v>1</v>
+      </c>
+      <c r="F320" s="105">
+        <v>1</v>
+      </c>
+      <c r="G320" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="H320" s="96">
         <v>45169</v>
       </c>
-      <c r="H320" s="95"/>
       <c r="I320" s="95"/>
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
@@ -11531,14 +11634,26 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="83"/>
-      <c r="B321" s="28"/>
-      <c r="C321" s="21"/>
-      <c r="D321" s="21"/>
-      <c r="E321" s="22"/>
-      <c r="F321" s="21"/>
-      <c r="G321" s="92"/>
+      <c r="B321" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C321" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D321" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E321" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="F321" s="30">
+        <v>9</v>
+      </c>
+      <c r="G321" s="92">
+        <v>45169</v>
+      </c>
       <c r="H321" s="95"/>
       <c r="I321" s="95"/>
       <c r="J321" s="1"/>
@@ -11548,7 +11663,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="83"/>
       <c r="B322" s="103"/>
       <c r="C322" s="21"/>
@@ -11565,7 +11680,7 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A323" s="83"/>
       <c r="B323" s="21"/>
       <c r="C323" s="33"/>
@@ -11582,7 +11697,7 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="35"/>
       <c r="C324" s="35"/>
@@ -11593,7 +11708,7 @@
       </c>
       <c r="F324" s="38">
         <f>SUM(F306:F323)-SUM(F303:F305)</f>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G324" s="84"/>
       <c r="H324" s="97"/>
@@ -11605,7 +11720,7 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -11622,7 +11737,7 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -11639,7 +11754,7 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1" t="s">
@@ -11660,7 +11775,7 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -11677,7 +11792,7 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A329" s="83"/>
       <c r="B329" s="6" t="s">
         <v>3</v>
@@ -11704,7 +11819,7 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A330" s="83"/>
       <c r="B330" s="115" t="s">
         <v>13</v>
@@ -11717,7 +11832,7 @@
         <v>1</v>
       </c>
       <c r="F330" s="117">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G330" s="87" t="s">
         <v>284</v>
@@ -11733,7 +11848,7 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="83"/>
       <c r="B331" s="12" t="s">
         <v>13</v>
@@ -11746,7 +11861,7 @@
         <v>283</v>
       </c>
       <c r="F331" s="21">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G331" s="92">
         <v>45183</v>
@@ -11760,7 +11875,7 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="83"/>
       <c r="B332" s="21"/>
       <c r="C332" s="21"/>
@@ -11777,7 +11892,7 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="83"/>
       <c r="B333" s="28" t="s">
         <v>15</v>
@@ -11804,7 +11919,7 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="83"/>
       <c r="B334" s="28" t="s">
         <v>15</v>
@@ -11831,7 +11946,7 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="83"/>
       <c r="B335" s="103"/>
       <c r="C335" s="21"/>
@@ -11848,7 +11963,7 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="83"/>
       <c r="B336" s="103" t="s">
         <v>18</v>
@@ -11879,27 +11994,29 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="83"/>
-      <c r="B337" s="28" t="s">
+      <c r="B337" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C337" s="21" t="s">
+      <c r="C337" s="107" t="s">
         <v>313</v>
       </c>
-      <c r="D337" s="21" t="s">
+      <c r="D337" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="E337" s="22" t="s">
+      <c r="E337" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="F337" s="30">
+      <c r="F337" s="105">
         <v>2</v>
       </c>
       <c r="G337" s="92">
         <v>45155</v>
       </c>
-      <c r="H337" s="95"/>
+      <c r="H337" s="96">
+        <v>45302</v>
+      </c>
       <c r="I337" s="95"/>
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
@@ -11908,24 +12025,26 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="83"/>
       <c r="B338" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C338" s="21" t="s">
-        <v>264</v>
+        <v>50</v>
       </c>
       <c r="D338" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E338" s="22">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="E338" s="22" t="s">
+        <v>283</v>
       </c>
       <c r="F338" s="30">
-        <v>8</v>
-      </c>
-      <c r="G338" s="92"/>
+        <v>0</v>
+      </c>
+      <c r="G338" s="92">
+        <v>45302</v>
+      </c>
       <c r="H338" s="95"/>
       <c r="I338" s="95"/>
       <c r="J338" s="1"/>
@@ -11935,29 +12054,25 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="83"/>
-      <c r="B339" s="103" t="s">
+      <c r="B339" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C339" s="107" t="s">
-        <v>265</v>
-      </c>
-      <c r="D339" s="107" t="s">
-        <v>197</v>
-      </c>
-      <c r="E339" s="108">
-        <v>1</v>
-      </c>
-      <c r="F339" s="105">
-        <v>0</v>
-      </c>
-      <c r="G339" s="87" t="s">
-        <v>284</v>
-      </c>
-      <c r="H339" s="96">
-        <v>45155</v>
-      </c>
+      <c r="C339" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D339" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E339" s="22">
+        <v>19</v>
+      </c>
+      <c r="F339" s="30">
+        <v>9</v>
+      </c>
+      <c r="G339" s="92"/>
+      <c r="H339" s="95"/>
       <c r="I339" s="95"/>
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
@@ -11966,47 +12081,61 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="83"/>
-      <c r="B340" s="28" t="s">
+      <c r="B340" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C340" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="D340" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E340" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="F340" s="30">
-        <v>3</v>
-      </c>
-      <c r="G340" s="92">
+      <c r="C340" s="107" t="s">
+        <v>265</v>
+      </c>
+      <c r="D340" s="107" t="s">
+        <v>197</v>
+      </c>
+      <c r="E340" s="108">
+        <v>1</v>
+      </c>
+      <c r="F340" s="105">
+        <v>0</v>
+      </c>
+      <c r="G340" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="H340" s="96">
         <v>45155</v>
       </c>
-      <c r="H340" s="96"/>
       <c r="I340" s="95"/>
       <c r="J340" s="1"/>
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="83"/>
-      <c r="B341" s="28"/>
-      <c r="C341" s="21"/>
-      <c r="D341" s="21"/>
-      <c r="E341" s="22"/>
-      <c r="F341" s="30"/>
-      <c r="G341" s="87"/>
-      <c r="H341" s="95"/>
+      <c r="B341" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C341" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="D341" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E341" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="F341" s="30">
+        <v>4</v>
+      </c>
+      <c r="G341" s="92">
+        <v>45155</v>
+      </c>
+      <c r="H341" s="96"/>
       <c r="I341" s="95"/>
       <c r="J341" s="1"/>
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="83"/>
       <c r="B342" s="28" t="s">
         <v>19</v>
@@ -12021,7 +12150,7 @@
         <v>22</v>
       </c>
       <c r="F342" s="30">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G342" s="87"/>
       <c r="H342" s="95"/>
@@ -12030,7 +12159,7 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="83"/>
       <c r="B343" s="28" t="s">
         <v>19</v>
@@ -12045,7 +12174,7 @@
         <v>20</v>
       </c>
       <c r="F343" s="30">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G343" s="87"/>
       <c r="H343" s="96"/>
@@ -12054,7 +12183,7 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="83"/>
       <c r="B344" s="103" t="s">
         <v>19</v>
@@ -12082,7 +12211,7 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="83"/>
       <c r="B345" s="28" t="s">
         <v>19</v>
@@ -12097,7 +12226,7 @@
         <v>283</v>
       </c>
       <c r="F345" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G345" s="92">
         <v>45190</v>
@@ -12108,7 +12237,7 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="83"/>
       <c r="B346" s="103" t="s">
         <v>19</v>
@@ -12136,7 +12265,7 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="83"/>
       <c r="B347" s="28" t="s">
         <v>19</v>
@@ -12151,7 +12280,7 @@
         <v>283</v>
       </c>
       <c r="F347" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G347" s="92">
         <v>45197</v>
@@ -12162,7 +12291,7 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="83"/>
       <c r="B348" s="28" t="s">
         <v>19</v>
@@ -12171,7 +12300,7 @@
         <v>269</v>
       </c>
       <c r="D348" s="21" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E348" s="22">
         <v>2</v>
@@ -12186,7 +12315,7 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="83"/>
       <c r="B349" s="103"/>
       <c r="C349" s="107"/>
@@ -12200,7 +12329,7 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A350" s="83"/>
       <c r="B350" s="21"/>
       <c r="C350" s="21"/>
@@ -12214,7 +12343,7 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="35"/>
       <c r="C351" s="35"/>
@@ -12225,7 +12354,7 @@
       </c>
       <c r="F351" s="38">
         <f>SUM(F333:F350)-SUM(F330:F332)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G351" s="87"/>
       <c r="H351" s="95"/>
@@ -12234,7 +12363,7 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="352" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -12248,7 +12377,7 @@
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
     </row>
-    <row r="354" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B354" s="1"/>
       <c r="C354" s="1" t="s">
         <v>222</v>
@@ -12259,14 +12388,14 @@
       <c r="E354" s="2"/>
       <c r="F354" s="1"/>
     </row>
-    <row r="355" spans="2:6" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:6" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="5"/>
       <c r="F355" s="4"/>
     </row>
-    <row r="356" spans="2:6" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:6" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B356" s="6" t="s">
         <v>3</v>
       </c>
@@ -12283,7 +12412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B357" s="12" t="s">
         <v>13</v>
       </c>
@@ -12295,24 +12424,24 @@
         <v>1</v>
       </c>
       <c r="F357" s="15">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="358" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="358" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B358" s="21"/>
       <c r="C358" s="21"/>
       <c r="D358" s="21"/>
       <c r="E358" s="22"/>
       <c r="F358" s="21"/>
     </row>
-    <row r="359" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B359" s="21"/>
       <c r="C359" s="21"/>
       <c r="D359" s="21"/>
       <c r="E359" s="22"/>
       <c r="F359" s="21"/>
     </row>
-    <row r="360" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B360" s="28" t="s">
         <v>15</v>
       </c>
@@ -12326,10 +12455,10 @@
         <v>1</v>
       </c>
       <c r="F360" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="28" t="s">
         <v>15</v>
       </c>
@@ -12346,14 +12475,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="103"/>
       <c r="C362" s="107"/>
       <c r="D362" s="107"/>
       <c r="E362" s="108"/>
       <c r="F362" s="105"/>
     </row>
-    <row r="363" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B363" s="28" t="s">
         <v>18</v>
       </c>
@@ -12367,10 +12496,10 @@
         <v>1</v>
       </c>
       <c r="F363" s="30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="364" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B364" s="28" t="s">
         <v>18</v>
       </c>
@@ -12384,10 +12513,10 @@
         <v>1</v>
       </c>
       <c r="F364" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="28" t="s">
         <v>18</v>
       </c>
@@ -12404,21 +12533,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="28"/>
       <c r="C366" s="21"/>
       <c r="D366" s="21"/>
       <c r="E366" s="22"/>
       <c r="F366" s="30"/>
     </row>
-    <row r="367" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="28"/>
       <c r="C367" s="21"/>
       <c r="D367" s="21"/>
       <c r="E367" s="22"/>
       <c r="F367" s="30"/>
     </row>
-    <row r="368" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="28" t="s">
         <v>19</v>
       </c>
@@ -12432,10 +12561,10 @@
         <v>50</v>
       </c>
       <c r="F368" s="30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="369" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="28" t="s">
         <v>19</v>
       </c>
@@ -12449,10 +12578,10 @@
         <v>35</v>
       </c>
       <c r="F369" s="30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="370" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="28" t="s">
         <v>19</v>
       </c>
@@ -12466,10 +12595,10 @@
         <v>5</v>
       </c>
       <c r="F370" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="28" t="s">
         <v>19</v>
       </c>
@@ -12486,7 +12615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="372" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="28" t="s">
         <v>19</v>
       </c>
@@ -12500,45 +12629,45 @@
         <v>1</v>
       </c>
       <c r="F372" s="30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="373" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="28"/>
       <c r="C373" s="21"/>
       <c r="D373" s="21"/>
       <c r="E373" s="22"/>
       <c r="F373" s="30"/>
     </row>
-    <row r="374" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="103"/>
       <c r="C374" s="107"/>
       <c r="D374" s="107"/>
       <c r="E374" s="108"/>
       <c r="F374" s="105"/>
     </row>
-    <row r="375" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="28"/>
       <c r="C375" s="21"/>
       <c r="D375" s="21"/>
       <c r="E375" s="22"/>
       <c r="F375" s="30"/>
     </row>
-    <row r="376" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B376" s="103"/>
       <c r="C376" s="107"/>
       <c r="D376" s="107"/>
       <c r="E376" s="108"/>
       <c r="F376" s="105"/>
     </row>
-    <row r="377" spans="2:6" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:6" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B377" s="21"/>
       <c r="C377" s="21"/>
       <c r="D377" s="21"/>
       <c r="E377" s="22"/>
       <c r="F377" s="21"/>
     </row>
-    <row r="378" spans="2:6" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:6" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B378" s="35"/>
       <c r="C378" s="35"/>
       <c r="D378" s="36"/>
@@ -12548,7 +12677,7 @@
       </c>
       <c r="F378" s="38">
         <f>SUM(F360:F377)-SUM(F357:F359)</f>
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -12585,14 +12714,14 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="41" customWidth="1"/>
     <col min="3" max="3" width="31" style="41" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="41" customWidth="1"/>
     <col min="5" max="6" width="9" style="41" customWidth="1"/>
@@ -12600,7 +12729,7 @@
     <col min="8" max="256" width="9" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -12617,7 +12746,7 @@
       </c>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -12632,7 +12761,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -12645,7 +12774,7 @@
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -12660,7 +12789,7 @@
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
     </row>
-    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -12673,7 +12802,7 @@
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
     </row>
-    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
       <c r="B6" s="51" t="s">
         <v>3</v>
@@ -12698,57 +12827,57 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50"/>
       <c r="B7" s="57">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="E7" s="25">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F7" s="26">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="G7" s="27">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H7" s="55"/>
       <c r="I7" s="44"/>
       <c r="J7" s="44"/>
       <c r="K7" s="56"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
       <c r="B8" s="57">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E8" s="25">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F8" s="26">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G8" s="27">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="44"/>
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="50"/>
       <c r="B9" s="57">
         <v>3</v>
@@ -12760,35 +12889,35 @@
         <v>115</v>
       </c>
       <c r="E9" s="25">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F9" s="26">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G9" s="27">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H9" s="55"/>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50"/>
       <c r="B10" s="57">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="25">
+        <v>38</v>
+      </c>
+      <c r="F10" s="26">
         <v>70</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="25">
-        <v>28</v>
-      </c>
-      <c r="F10" s="26">
-        <v>60</v>
       </c>
       <c r="G10" s="27">
         <v>32</v>
@@ -12798,257 +12927,257 @@
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
       <c r="B11" s="57">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="E11" s="25">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" s="26">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="27">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50"/>
       <c r="B12" s="57">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="E12" s="25">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="26">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="G12" s="27">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="50"/>
       <c r="B13" s="57">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="E13" s="25">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F13" s="26">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G13" s="27">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="50"/>
       <c r="B14" s="57">
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="E14" s="25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="59">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G14" s="60">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="50"/>
       <c r="B15" s="57">
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="E15" s="25">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15" s="26">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G15" s="27">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H15" s="55"/>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="50"/>
       <c r="B16" s="57">
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="E16" s="25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="26">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G16" s="27">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
       <c r="B17" s="57">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="E17" s="25">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F17" s="26">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G17" s="27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
       <c r="K17" s="44"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="50"/>
       <c r="B18" s="57">
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="E18" s="25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" s="26">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G18" s="27">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="B19" s="57">
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="E19" s="25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="26">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G19" s="27">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
     </row>
-    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
       <c r="B20" s="62">
         <v>14</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>97</v>
+      <c r="C20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="E20" s="25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F20" s="26">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G20" s="27">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H20" s="55"/>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
     </row>
-    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="43"/>
       <c r="B21" s="63"/>
       <c r="C21" s="63"/>
@@ -13061,7 +13190,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -13095,17 +13224,17 @@
       <selection activeCell="A24" sqref="A24:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="33.33203125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="41" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="41" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" style="41" customWidth="1"/>
     <col min="6" max="7" width="9.33203125" style="41" customWidth="1"/>
-    <col min="8" max="257" width="8.77734375" style="41" customWidth="1"/>
+    <col min="8" max="257" width="8.83203125" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="66" t="s">
         <v>116</v>
       </c>
@@ -13115,7 +13244,7 @@
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -13123,7 +13252,7 @@
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="67" t="s">
         <v>54</v>
       </c>
@@ -13133,7 +13262,7 @@
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="71" t="s">
         <v>61</v>
       </c>
@@ -13156,7 +13285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="71" t="s">
         <v>62</v>
       </c>
@@ -13179,7 +13308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="71" t="s">
         <v>63</v>
       </c>
@@ -13202,7 +13331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="71" t="s">
         <v>64</v>
       </c>
@@ -13225,7 +13354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="71" t="s">
         <v>65</v>
       </c>
@@ -13248,7 +13377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="71"/>
       <c r="B9" s="69"/>
       <c r="C9" s="69"/>
@@ -13257,7 +13386,7 @@
       <c r="F9" s="43"/>
       <c r="G9" s="65"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="67" t="s">
         <v>92</v>
       </c>
@@ -13267,7 +13396,7 @@
       <c r="F10" s="43"/>
       <c r="G10" s="65"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="71" t="s">
         <v>66</v>
       </c>
@@ -13290,7 +13419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="71" t="s">
         <v>67</v>
       </c>
@@ -13313,7 +13442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="71" t="s">
         <v>68</v>
       </c>
@@ -13336,7 +13465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="71" t="s">
         <v>69</v>
       </c>
@@ -13359,7 +13488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="69"/>
       <c r="C15" s="68"/>
       <c r="D15" s="43"/>
@@ -13367,7 +13496,7 @@
       <c r="F15" s="70"/>
       <c r="G15" s="43"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="67" t="s">
         <v>149</v>
       </c>
@@ -13377,7 +13506,7 @@
       <c r="F16" s="70"/>
       <c r="G16" s="43"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -13400,7 +13529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="69"/>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
@@ -13408,7 +13537,7 @@
       <c r="F18" s="70"/>
       <c r="G18" s="43"/>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="69"/>
       <c r="C19" s="68"/>
       <c r="D19" s="43"/>
@@ -13416,7 +13545,7 @@
       <c r="F19" s="70"/>
       <c r="G19" s="43"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="67" t="s">
         <v>55</v>
       </c>
@@ -13426,7 +13555,7 @@
       <c r="F20" s="70"/>
       <c r="G20" s="43"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="71" t="s">
         <v>128</v>
       </c>
@@ -13449,7 +13578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="71" t="s">
         <v>129</v>
       </c>
@@ -13472,7 +13601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="69"/>
       <c r="C23" s="69"/>
       <c r="D23" s="68"/>
@@ -13480,7 +13609,7 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="67" t="s">
         <v>56</v>
       </c>
@@ -13490,7 +13619,7 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="71" t="s">
         <v>150</v>
       </c>
@@ -13513,7 +13642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
       <c r="D26" s="68"/>
@@ -13521,7 +13650,7 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="67" t="s">
         <v>57</v>
       </c>
@@ -13532,7 +13661,7 @@
       <c r="G27" s="43"/>
       <c r="K27" s="109"/>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="69" t="s">
         <v>85</v>
       </c>

--- a/data/DreamLeague23-24.xlsx
+++ b/data/DreamLeague23-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2219" documentId="8_{752A8788-F056-4140-BB86-F6521855C67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A51E63B3-0184-4CFE-909E-9E1F65B34913}"/>
+  <xr:revisionPtr revIDLastSave="2818" documentId="8_{752A8788-F056-4140-BB86-F6521855C67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24D042CA-F27E-4BD9-9DEE-70FEF758F886}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="386">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1171,6 +1171,27 @@
   </si>
   <si>
     <t>(2 - 0)</t>
+  </si>
+  <si>
+    <t>PERVIS ESTUPINAN</t>
+  </si>
+  <si>
+    <t>MIKEY JOHNSTON</t>
+  </si>
+  <si>
+    <t>GABRIEL SARA</t>
+  </si>
+  <si>
+    <t>JOHN MCATEE</t>
+  </si>
+  <si>
+    <t>LUCAS AKINS</t>
+  </si>
+  <si>
+    <t>(4 - 1)</t>
+  </si>
+  <si>
+    <t>(1 - 1)</t>
   </si>
 </sst>
 </file>
@@ -3119,7 +3140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX378"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K7" sqref="K7:O7"/>
     </sheetView>
   </sheetViews>
@@ -3280,29 +3301,29 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="R5" s="81" t="s">
         <v>2</v>
       </c>
       <c r="S5" s="113">
         <f>_xlfn.XLOOKUP(R5,K:K,M:M)</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T5" s="112" t="s">
         <v>263</v>
       </c>
       <c r="U5" s="113">
         <f>_xlfn.XLOOKUP(V5,K:K,M:M)</f>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="V5" s="81" t="s">
         <v>201</v>
@@ -3341,29 +3362,29 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="R6" s="81" t="s">
         <v>2</v>
       </c>
       <c r="S6" s="113">
         <f>_xlfn.XLOOKUP(R6,K:K,M:M)</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T6" s="112" t="s">
         <v>263</v>
       </c>
       <c r="U6" s="113">
         <f>_xlfn.XLOOKUP(V6,K:K,M:M)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V6" s="81" t="s">
         <v>30</v>
@@ -3382,7 +3403,7 @@
         <v>261</v>
       </c>
       <c r="F7" s="21">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G7" s="90">
         <v>45309</v>
@@ -3400,29 +3421,29 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="R7" s="81" t="s">
         <v>2</v>
       </c>
       <c r="S7" s="113">
         <f>_xlfn.XLOOKUP(R7,K:K,M:M)</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T7" s="112" t="s">
         <v>263</v>
       </c>
       <c r="U7" s="113">
         <f>_xlfn.XLOOKUP(V7,K:K,M:M)</f>
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="V7" s="81" t="s">
         <v>34</v>
@@ -3443,7 +3464,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="87"/>
       <c r="H8" s="79"/>
@@ -3458,15 +3479,15 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3484,13 +3505,11 @@
         <v>1</v>
       </c>
       <c r="F9" s="30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G9" s="87"/>
       <c r="H9" s="79"/>
-      <c r="I9" s="109">
-        <v>1</v>
-      </c>
+      <c r="I9" s="109"/>
       <c r="J9" s="86"/>
       <c r="K9" s="75" t="str">
         <f>D110</f>
@@ -3502,15 +3521,15 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="N9" s="77">
         <f>SUM(F116:F134)</f>
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="O9" s="78">
         <f>SUM(F113:F115)</f>
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3548,15 +3567,15 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F144:F161)</f>
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F141:F143)</f>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="R10" s="120" t="s">
         <v>265</v>
@@ -3601,29 +3620,29 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F171:F188)</f>
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F168:F170)</f>
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R11" s="81" t="s">
         <v>2</v>
       </c>
       <c r="S11" s="113">
         <f>SUM(F10:F15)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="T11" s="112" t="s">
         <v>263</v>
       </c>
       <c r="U11" s="113">
         <f>SUM(F228:F232)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V11" s="81" t="s">
         <v>74</v>
@@ -3644,15 +3663,13 @@
         <v>261</v>
       </c>
       <c r="F12" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="91">
         <v>45267</v>
       </c>
       <c r="H12" s="88"/>
-      <c r="I12" s="109">
-        <v>1</v>
-      </c>
+      <c r="I12" s="109"/>
       <c r="J12" s="86"/>
       <c r="K12" s="75" t="str">
         <f>D192</f>
@@ -3664,15 +3681,15 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N12" s="77">
         <f>SUM(F198:F215)</f>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O12" s="78">
         <f>SUM(F195:F197)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3690,13 +3707,11 @@
         <v>4</v>
       </c>
       <c r="F13" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" s="91"/>
       <c r="H13" s="88"/>
-      <c r="I13" s="109">
-        <v>1</v>
-      </c>
+      <c r="I13" s="109"/>
       <c r="J13" s="86"/>
       <c r="K13" s="75" t="str">
         <f>D219</f>
@@ -3712,11 +3727,11 @@
       </c>
       <c r="N13" s="77">
         <f>SUM(F225:F242)</f>
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="O13" s="78">
         <f>SUM(F222:F224)</f>
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="R13" s="120" t="s">
         <v>266</v>
@@ -3761,15 +3776,15 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N14" s="77">
         <f>SUM(F252:F269)</f>
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="O14" s="78">
         <f>SUM(F249:F251)</f>
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="R14" s="81" t="s">
         <v>177</v>
@@ -3804,15 +3819,13 @@
         <v>261</v>
       </c>
       <c r="F15" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" s="91">
         <v>45162</v>
       </c>
       <c r="H15" s="88"/>
-      <c r="I15" s="109">
-        <v>1</v>
-      </c>
+      <c r="I15" s="109"/>
       <c r="J15" s="86"/>
       <c r="K15" s="31" t="str">
         <f>D273</f>
@@ -3824,15 +3837,15 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F278:F296)</f>
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F276:F277)</f>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="R15" s="81" t="s">
         <v>267</v>
@@ -3872,15 +3885,15 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F306:F323)</f>
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F303:F305)</f>
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3918,15 +3931,15 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F333:F350)</f>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F330:F332)</f>
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="R17" s="120" t="s">
         <v>269</v>
@@ -3971,29 +3984,29 @@
       </c>
       <c r="M18" s="25">
         <f t="shared" ref="M18" si="1">N18-O18</f>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F360:F377)</f>
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F357:F359)</f>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="R18" s="81" t="s">
         <v>277</v>
       </c>
       <c r="S18" s="113">
         <f>_xlfn.XLOOKUP(R18,K:K,O:O)</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="T18" s="112" t="s">
         <v>263</v>
       </c>
       <c r="U18" s="113">
         <f>_xlfn.XLOOKUP(V18,K:K,O:O)</f>
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="V18" s="81" t="s">
         <v>46</v>
@@ -4106,7 +4119,7 @@
       </c>
       <c r="U21" s="113">
         <f>_xlfn.XLOOKUP(V22,C:C,F:F)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V21" s="81" t="s">
         <v>70</v>
@@ -4231,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="30">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G25" s="91"/>
       <c r="H25" s="88"/>
@@ -4247,14 +4260,14 @@
       </c>
       <c r="S25" s="113">
         <f>(_xlfn.XLOOKUP(R25,K:K,M:M))-(_xlfn.XLOOKUP(R26,C:C,F:F))</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T25" s="112" t="s">
         <v>263</v>
       </c>
       <c r="U25" s="113">
         <f>(_xlfn.XLOOKUP(V25,K:K,M:M))-(_xlfn.XLOOKUP(V26,C:C,F:F))</f>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="V25" s="81" t="s">
         <v>70</v>
@@ -4271,7 +4284,7 @@
       </c>
       <c r="F26" s="38">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G26" s="84"/>
       <c r="H26" s="96"/>
@@ -4449,7 +4462,7 @@
       </c>
       <c r="S32" s="81">
         <f>SUM(F89:F91)</f>
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -4485,7 +4498,7 @@
       </c>
       <c r="S33" s="81">
         <f>SUM(F116:F118)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -4501,7 +4514,7 @@
         <v>261</v>
       </c>
       <c r="F34" s="21">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G34" s="90">
         <v>45337</v>
@@ -4509,9 +4522,7 @@
       <c r="H34" s="96"/>
       <c r="I34" s="97"/>
       <c r="J34" s="80"/>
-      <c r="K34" s="1">
-        <v>511187</v>
-      </c>
+      <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -4520,8 +4531,8 @@
         <v>2</v>
       </c>
       <c r="S34" s="81">
-        <f>SUM(F8:F10)</f>
-        <v>3</v>
+        <f>SUM(F8:F9)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -4577,7 +4588,7 @@
         <v>261</v>
       </c>
       <c r="F36" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="95">
         <v>45225</v>
@@ -4678,15 +4689,13 @@
         <v>261</v>
       </c>
       <c r="F39" s="30">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G39" s="91">
         <v>45225</v>
       </c>
       <c r="H39" s="94"/>
-      <c r="I39" s="93">
-        <v>1</v>
-      </c>
+      <c r="I39" s="93"/>
       <c r="J39" s="80"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -4756,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G41" s="91"/>
       <c r="H41" s="95"/>
@@ -4820,13 +4829,11 @@
         <v>90</v>
       </c>
       <c r="F43" s="30">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G43" s="87"/>
       <c r="H43" s="91"/>
-      <c r="I43" s="93">
-        <v>1</v>
-      </c>
+      <c r="I43" s="93"/>
       <c r="J43" s="80"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -4838,7 +4845,7 @@
       </c>
       <c r="S43" s="81">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V43" s="81" t="s">
         <v>42</v>
@@ -4879,7 +4886,7 @@
       </c>
       <c r="S44" s="81">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V44" s="81" t="s">
         <v>2</v>
@@ -4941,7 +4948,7 @@
         <v>261</v>
       </c>
       <c r="F46" s="30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G46" s="95">
         <v>45204</v>
@@ -4959,7 +4966,7 @@
       </c>
       <c r="S46" s="81">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="V46" s="81" t="s">
         <v>2</v>
@@ -5169,7 +5176,7 @@
       </c>
       <c r="S52" s="81">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V52" s="81" t="s">
         <v>201</v>
@@ -5186,7 +5193,7 @@
       </c>
       <c r="F53" s="38">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G53" s="84"/>
       <c r="H53" s="96"/>
@@ -5229,7 +5236,7 @@
       </c>
       <c r="S54" s="81">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V54" s="81" t="s">
         <v>201</v>
@@ -5287,7 +5294,7 @@
       </c>
       <c r="S56" s="81">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V56" s="81" t="s">
         <v>201</v>
@@ -5370,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="15">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G59" s="84"/>
       <c r="H59" s="96"/>
@@ -5386,7 +5393,7 @@
       </c>
       <c r="S59" s="81">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V59" s="81" t="s">
         <v>46</v>
@@ -5413,7 +5420,7 @@
       </c>
       <c r="S60" s="81">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V60" s="81" t="s">
         <v>46</v>
@@ -5562,7 +5569,7 @@
         <v>30</v>
       </c>
       <c r="F65" s="30">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G65" s="87"/>
       <c r="H65" s="94"/>
@@ -5619,7 +5626,7 @@
       </c>
       <c r="S66" s="81">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="V66" s="81" t="s">
         <v>24</v>
@@ -5640,7 +5647,7 @@
         <v>261</v>
       </c>
       <c r="F67" s="30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G67" s="91">
         <v>45260</v>
@@ -5679,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G68" s="95"/>
       <c r="H68" s="95"/>
@@ -5979,7 +5986,7 @@
         <v>261</v>
       </c>
       <c r="F78" s="30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G78" s="91">
         <v>45295</v>
@@ -6021,7 +6028,7 @@
       </c>
       <c r="F80" s="38">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G80" s="84"/>
       <c r="H80" s="96"/>
@@ -6203,7 +6210,7 @@
         <v>261</v>
       </c>
       <c r="F88" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G88" s="95">
         <v>45352</v>
@@ -6232,7 +6239,7 @@
         <v>7</v>
       </c>
       <c r="F89" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G89" s="87"/>
       <c r="H89" s="94"/>
@@ -6259,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90" s="87"/>
       <c r="H90" s="94"/>
@@ -6273,13 +6280,23 @@
     </row>
     <row r="91" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="83"/>
-      <c r="B91" s="102"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="104"/>
+      <c r="B91" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E91" s="29">
+        <v>13</v>
+      </c>
+      <c r="F91" s="30">
+        <v>15</v>
+      </c>
       <c r="G91" s="87"/>
-      <c r="H91" s="94"/>
+      <c r="H91" s="95"/>
       <c r="I91" s="94"/>
       <c r="J91" s="80"/>
       <c r="K91" s="1"/>
@@ -6294,18 +6311,18 @@
         <v>18</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E92" s="29">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F92" s="30">
-        <v>14</v>
-      </c>
-      <c r="G92" s="87"/>
+        <v>19</v>
+      </c>
+      <c r="G92" s="91"/>
       <c r="H92" s="95"/>
       <c r="I92" s="94"/>
       <c r="J92" s="80"/>
@@ -6317,23 +6334,27 @@
     </row>
     <row r="93" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="83"/>
-      <c r="B93" s="28" t="s">
+      <c r="B93" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C93" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D93" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E93" s="29">
-        <v>6</v>
-      </c>
-      <c r="F93" s="30">
-        <v>17</v>
-      </c>
-      <c r="G93" s="91"/>
-      <c r="H93" s="95"/>
+      <c r="C93" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="D93" s="102" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="103">
+        <v>10</v>
+      </c>
+      <c r="F93" s="104">
+        <v>0</v>
+      </c>
+      <c r="G93" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="H93" s="95">
+        <v>45155</v>
+      </c>
       <c r="I93" s="95"/>
       <c r="J93" s="80"/>
       <c r="K93" s="1"/>
@@ -6348,22 +6369,22 @@
         <v>18</v>
       </c>
       <c r="C94" s="102" t="s">
-        <v>50</v>
+        <v>313</v>
       </c>
       <c r="D94" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="E94" s="103">
-        <v>10</v>
+        <v>166</v>
+      </c>
+      <c r="E94" s="103" t="s">
+        <v>261</v>
       </c>
       <c r="F94" s="104">
-        <v>0</v>
-      </c>
-      <c r="G94" s="95" t="s">
-        <v>262</v>
+        <v>3</v>
+      </c>
+      <c r="G94" s="95">
+        <v>45155</v>
       </c>
       <c r="H94" s="95">
-        <v>45155</v>
+        <v>45260</v>
       </c>
       <c r="I94" s="94"/>
       <c r="J94" s="80"/>
@@ -6375,27 +6396,25 @@
     </row>
     <row r="95" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="83"/>
-      <c r="B95" s="102" t="s">
+      <c r="B95" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="102" t="s">
-        <v>313</v>
-      </c>
-      <c r="D95" s="102" t="s">
-        <v>166</v>
-      </c>
-      <c r="E95" s="103" t="s">
+      <c r="C95" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="F95" s="104">
-        <v>3</v>
+      <c r="F95" s="30">
+        <v>8</v>
       </c>
       <c r="G95" s="95">
-        <v>45155</v>
-      </c>
-      <c r="H95" s="95">
         <v>45260</v>
       </c>
+      <c r="H95" s="95"/>
       <c r="I95" s="94"/>
       <c r="J95" s="80"/>
       <c r="K95" s="1"/>
@@ -6406,28 +6425,28 @@
     </row>
     <row r="96" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="83"/>
-      <c r="B96" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="D96" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E96" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="F96" s="30">
-        <v>7</v>
-      </c>
-      <c r="G96" s="95">
-        <v>45260</v>
-      </c>
-      <c r="H96" s="95"/>
-      <c r="I96" s="94">
-        <v>1</v>
-      </c>
+      <c r="B96" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="D96" s="102" t="s">
+        <v>150</v>
+      </c>
+      <c r="E96" s="103">
+        <v>20</v>
+      </c>
+      <c r="F96" s="104">
+        <v>0</v>
+      </c>
+      <c r="G96" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="H96" s="95">
+        <v>45155</v>
+      </c>
+      <c r="I96" s="94"/>
       <c r="J96" s="80"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -6437,27 +6456,25 @@
     </row>
     <row r="97" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="83"/>
-      <c r="B97" s="102" t="s">
+      <c r="B97" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C97" s="102" t="s">
-        <v>121</v>
-      </c>
-      <c r="D97" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="E97" s="103">
-        <v>20</v>
-      </c>
-      <c r="F97" s="104">
-        <v>0</v>
-      </c>
-      <c r="G97" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="H97" s="95">
+      <c r="C97" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E97" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="F97" s="30">
+        <v>6</v>
+      </c>
+      <c r="G97" s="91">
         <v>45155</v>
       </c>
+      <c r="H97" s="95"/>
       <c r="I97" s="94"/>
       <c r="J97" s="80"/>
       <c r="K97" s="1"/>
@@ -6468,25 +6485,27 @@
     </row>
     <row r="98" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="83"/>
-      <c r="B98" s="28" t="s">
+      <c r="B98" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C98" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="D98" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E98" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="F98" s="30">
-        <v>6</v>
-      </c>
-      <c r="G98" s="91">
-        <v>45155</v>
-      </c>
-      <c r="H98" s="95"/>
+      <c r="C98" s="102" t="s">
+        <v>151</v>
+      </c>
+      <c r="D98" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="E98" s="103">
+        <v>7</v>
+      </c>
+      <c r="F98" s="104">
+        <v>0</v>
+      </c>
+      <c r="G98" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="H98" s="95">
+        <v>45148</v>
+      </c>
       <c r="I98" s="94"/>
       <c r="J98" s="80"/>
       <c r="K98" s="1"/>
@@ -6501,22 +6520,22 @@
         <v>19</v>
       </c>
       <c r="C99" s="102" t="s">
-        <v>151</v>
+        <v>276</v>
       </c>
       <c r="D99" s="102" t="s">
-        <v>117</v>
-      </c>
-      <c r="E99" s="103">
-        <v>7</v>
+        <v>224</v>
+      </c>
+      <c r="E99" s="103" t="s">
+        <v>261</v>
       </c>
       <c r="F99" s="104">
-        <v>0</v>
-      </c>
-      <c r="G99" s="87" t="s">
-        <v>262</v>
+        <v>4</v>
+      </c>
+      <c r="G99" s="91">
+        <v>45148</v>
       </c>
       <c r="H99" s="95">
-        <v>45148</v>
+        <v>45260</v>
       </c>
       <c r="I99" s="94"/>
       <c r="J99" s="80"/>
@@ -6532,7 +6551,7 @@
         <v>19</v>
       </c>
       <c r="C100" s="102" t="s">
-        <v>276</v>
+        <v>352</v>
       </c>
       <c r="D100" s="102" t="s">
         <v>224</v>
@@ -6541,13 +6560,13 @@
         <v>261</v>
       </c>
       <c r="F100" s="104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G100" s="91">
-        <v>45148</v>
+        <v>45260</v>
       </c>
       <c r="H100" s="95">
-        <v>45260</v>
+        <v>45386</v>
       </c>
       <c r="I100" s="94"/>
       <c r="J100" s="80"/>
@@ -6563,24 +6582,22 @@
         <v>19</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="E101" s="29" t="s">
         <v>261</v>
       </c>
       <c r="F101" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G101" s="91">
-        <v>45260</v>
+        <v>45386</v>
       </c>
       <c r="H101" s="95"/>
-      <c r="I101" s="94">
-        <v>1</v>
-      </c>
+      <c r="I101" s="94"/>
       <c r="J101" s="80"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -6603,13 +6620,11 @@
         <v>12</v>
       </c>
       <c r="F102" s="30">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G102" s="91"/>
       <c r="H102" s="95"/>
-      <c r="I102" s="94">
-        <v>2</v>
-      </c>
+      <c r="I102" s="94"/>
       <c r="J102" s="80"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -6632,13 +6647,11 @@
         <v>10</v>
       </c>
       <c r="F103" s="30">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G103" s="91"/>
       <c r="H103" s="95"/>
-      <c r="I103" s="94">
-        <v>1</v>
-      </c>
+      <c r="I103" s="94"/>
       <c r="J103" s="80"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -6723,7 +6736,7 @@
         <v>261</v>
       </c>
       <c r="F106" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G106" s="91">
         <v>45330</v>
@@ -6748,7 +6761,7 @@
       </c>
       <c r="F107" s="38">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G107" s="84"/>
       <c r="H107" s="96"/>
@@ -6901,15 +6914,13 @@
         <v>261</v>
       </c>
       <c r="F114" s="21">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G114" s="98">
         <v>45239</v>
       </c>
       <c r="H114" s="98"/>
-      <c r="I114" s="94">
-        <v>1</v>
-      </c>
+      <c r="I114" s="94"/>
       <c r="J114" s="80"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
@@ -6949,7 +6960,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G116" s="87"/>
       <c r="H116" s="95"/>
@@ -6976,13 +6987,11 @@
         <v>6</v>
       </c>
       <c r="F117" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G117" s="90"/>
       <c r="H117" s="98"/>
-      <c r="I117" s="94">
-        <v>1</v>
-      </c>
+      <c r="I117" s="94"/>
       <c r="J117" s="80"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
@@ -6992,13 +7001,23 @@
     </row>
     <row r="118" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="83"/>
-      <c r="B118" s="102"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="104"/>
-      <c r="G118" s="90"/>
-      <c r="H118" s="96"/>
+      <c r="B118" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E118" s="29">
+        <v>15</v>
+      </c>
+      <c r="F118" s="30">
+        <v>13</v>
+      </c>
+      <c r="G118" s="87"/>
+      <c r="H118" s="95"/>
       <c r="I118" s="94"/>
       <c r="J118" s="80"/>
       <c r="K118" s="1"/>
@@ -7013,18 +7032,18 @@
         <v>18</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E119" s="29">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F119" s="30">
-        <v>12</v>
-      </c>
-      <c r="G119" s="87"/>
+        <v>20</v>
+      </c>
+      <c r="G119" s="91"/>
       <c r="H119" s="95"/>
       <c r="I119" s="94"/>
       <c r="J119" s="80"/>
@@ -7036,23 +7055,27 @@
     </row>
     <row r="120" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="83"/>
-      <c r="B120" s="28" t="s">
+      <c r="B120" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D120" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E120" s="29">
-        <v>1</v>
-      </c>
-      <c r="F120" s="30">
-        <v>19</v>
-      </c>
-      <c r="G120" s="91"/>
-      <c r="H120" s="95"/>
+      <c r="C120" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="D120" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120" s="103">
+        <v>3</v>
+      </c>
+      <c r="F120" s="104">
+        <v>0</v>
+      </c>
+      <c r="G120" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="H120" s="95">
+        <v>45155</v>
+      </c>
       <c r="I120" s="94"/>
       <c r="J120" s="80"/>
       <c r="K120" s="1"/>
@@ -7063,27 +7086,25 @@
     </row>
     <row r="121" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="83"/>
-      <c r="B121" s="102" t="s">
+      <c r="B121" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C121" s="102" t="s">
-        <v>155</v>
-      </c>
-      <c r="D121" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E121" s="103">
-        <v>3</v>
-      </c>
-      <c r="F121" s="104">
-        <v>0</v>
-      </c>
-      <c r="G121" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H121" s="95">
+      <c r="C121" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="D121" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="E121" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="F121" s="30">
+        <v>18</v>
+      </c>
+      <c r="G121" s="91">
         <v>45155</v>
       </c>
+      <c r="H121" s="94"/>
       <c r="I121" s="94"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -7095,24 +7116,22 @@
     <row r="122" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="83"/>
       <c r="B122" s="28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C122" s="28" t="s">
-        <v>346</v>
+        <v>156</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="E122" s="29" t="s">
-        <v>261</v>
+        <v>29</v>
+      </c>
+      <c r="E122" s="29">
+        <v>35</v>
       </c>
       <c r="F122" s="30">
-        <v>15</v>
-      </c>
-      <c r="G122" s="91">
-        <v>45155</v>
-      </c>
-      <c r="H122" s="94"/>
+        <v>12</v>
+      </c>
+      <c r="G122" s="90"/>
+      <c r="H122" s="98"/>
       <c r="I122" s="94"/>
       <c r="J122" s="80"/>
       <c r="K122" s="1"/>
@@ -7123,23 +7142,27 @@
     </row>
     <row r="123" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="83"/>
-      <c r="B123" s="28" t="s">
+      <c r="B123" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C123" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="D123" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E123" s="29">
-        <v>35</v>
-      </c>
-      <c r="F123" s="30">
-        <v>10</v>
-      </c>
-      <c r="G123" s="90"/>
-      <c r="H123" s="98"/>
+      <c r="C123" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="D123" s="102" t="s">
+        <v>244</v>
+      </c>
+      <c r="E123" s="103">
+        <v>25</v>
+      </c>
+      <c r="F123" s="104">
+        <v>2</v>
+      </c>
+      <c r="G123" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="H123" s="95">
+        <v>45246</v>
+      </c>
       <c r="I123" s="94"/>
       <c r="J123" s="80"/>
       <c r="K123" s="1"/>
@@ -7154,22 +7177,22 @@
         <v>19</v>
       </c>
       <c r="C124" s="102" t="s">
-        <v>120</v>
+        <v>321</v>
       </c>
       <c r="D124" s="102" t="s">
-        <v>244</v>
-      </c>
-      <c r="E124" s="103">
-        <v>25</v>
+        <v>295</v>
+      </c>
+      <c r="E124" s="103" t="s">
+        <v>261</v>
       </c>
       <c r="F124" s="104">
         <v>2</v>
       </c>
-      <c r="G124" s="91" t="s">
-        <v>262</v>
+      <c r="G124" s="91">
+        <v>45246</v>
       </c>
       <c r="H124" s="95">
-        <v>45246</v>
+        <v>45386</v>
       </c>
       <c r="I124" s="94"/>
       <c r="J124" s="80"/>
@@ -7185,19 +7208,19 @@
         <v>19</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>295</v>
+        <v>198</v>
       </c>
       <c r="E125" s="29" t="s">
         <v>261</v>
       </c>
       <c r="F125" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G125" s="91">
-        <v>45246</v>
+        <v>45386</v>
       </c>
       <c r="H125" s="95"/>
       <c r="I125" s="94"/>
@@ -7347,7 +7370,7 @@
         <v>261</v>
       </c>
       <c r="F130" s="30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G130" s="91">
         <v>45344</v>
@@ -7380,9 +7403,7 @@
       </c>
       <c r="G131" s="87"/>
       <c r="H131" s="95"/>
-      <c r="I131" s="94">
-        <v>1</v>
-      </c>
+      <c r="I131" s="94"/>
       <c r="J131" s="80"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -7473,9 +7494,7 @@
         <v>45330</v>
       </c>
       <c r="H134" s="94"/>
-      <c r="I134" s="94">
-        <v>1</v>
-      </c>
+      <c r="I134" s="94"/>
       <c r="J134" s="80"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
@@ -7494,7 +7513,7 @@
       </c>
       <c r="F135" s="38">
         <f>SUM(F116:F134)-SUM(F113:F115)</f>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G135" s="84"/>
       <c r="H135" s="96"/>
@@ -7618,7 +7637,7 @@
         <v>3</v>
       </c>
       <c r="F141" s="15">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G141" s="84"/>
       <c r="H141" s="98"/>
@@ -7766,7 +7785,7 @@
         <v>39</v>
       </c>
       <c r="F147" s="30">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G147" s="91"/>
       <c r="H147" s="94"/>
@@ -7824,7 +7843,7 @@
         <v>261</v>
       </c>
       <c r="F149" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G149" s="91">
         <v>45316</v>
@@ -7840,7 +7859,7 @@
     </row>
     <row r="150" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="83"/>
-      <c r="B150" s="28" t="s">
+      <c r="B150" s="102" t="s">
         <v>18</v>
       </c>
       <c r="C150" s="102" t="s">
@@ -7871,25 +7890,27 @@
     </row>
     <row r="151" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="83"/>
-      <c r="B151" s="28" t="s">
+      <c r="B151" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C151" s="28" t="s">
+      <c r="C151" s="102" t="s">
         <v>301</v>
       </c>
-      <c r="D151" s="28" t="s">
+      <c r="D151" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="E151" s="29" t="s">
+      <c r="E151" s="103" t="s">
         <v>261</v>
       </c>
-      <c r="F151" s="30">
+      <c r="F151" s="104">
         <v>16</v>
       </c>
       <c r="G151" s="91">
         <v>45183</v>
       </c>
-      <c r="H151" s="95"/>
+      <c r="H151" s="95">
+        <v>45365</v>
+      </c>
       <c r="I151" s="94"/>
       <c r="J151" s="80"/>
       <c r="K151" s="1"/>
@@ -7901,21 +7922,23 @@
     <row r="152" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="83"/>
       <c r="B152" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>90</v>
+        <v>380</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="E152" s="29">
-        <v>34</v>
+        <v>327</v>
+      </c>
+      <c r="E152" s="29" t="s">
+        <v>261</v>
       </c>
       <c r="F152" s="30">
-        <v>13</v>
-      </c>
-      <c r="G152" s="87"/>
+        <v>1</v>
+      </c>
+      <c r="G152" s="91">
+        <v>45365</v>
+      </c>
       <c r="H152" s="95"/>
       <c r="I152" s="94"/>
       <c r="J152" s="80"/>
@@ -7927,27 +7950,23 @@
     </row>
     <row r="153" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="83"/>
-      <c r="B153" s="102" t="s">
+      <c r="B153" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C153" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="D153" s="102" t="s">
-        <v>322</v>
-      </c>
-      <c r="E153" s="103">
-        <v>1</v>
-      </c>
-      <c r="F153" s="104">
-        <v>4</v>
-      </c>
-      <c r="G153" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H153" s="95">
-        <v>45316</v>
-      </c>
+      <c r="C153" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D153" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E153" s="29">
+        <v>34</v>
+      </c>
+      <c r="F153" s="30">
+        <v>14</v>
+      </c>
+      <c r="G153" s="87"/>
+      <c r="H153" s="95"/>
       <c r="I153" s="94"/>
       <c r="J153" s="80"/>
       <c r="K153" s="1"/>
@@ -7958,28 +7977,28 @@
     </row>
     <row r="154" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="83"/>
-      <c r="B154" s="28" t="s">
+      <c r="B154" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C154" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="D154" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="E154" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="F154" s="30">
-        <v>2</v>
-      </c>
-      <c r="G154" s="91">
+      <c r="C154" s="102" t="s">
+        <v>161</v>
+      </c>
+      <c r="D154" s="102" t="s">
+        <v>322</v>
+      </c>
+      <c r="E154" s="103">
+        <v>1</v>
+      </c>
+      <c r="F154" s="104">
+        <v>4</v>
+      </c>
+      <c r="G154" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="H154" s="95">
         <v>45316</v>
       </c>
-      <c r="H154" s="94"/>
-      <c r="I154" s="94">
-        <v>1</v>
-      </c>
+      <c r="I154" s="94"/>
       <c r="J154" s="100"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
@@ -7993,18 +8012,20 @@
         <v>19</v>
       </c>
       <c r="C155" s="28" t="s">
-        <v>32</v>
+        <v>350</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E155" s="29">
-        <v>7</v>
+        <v>295</v>
+      </c>
+      <c r="E155" s="29" t="s">
+        <v>261</v>
       </c>
       <c r="F155" s="30">
-        <v>15</v>
-      </c>
-      <c r="G155" s="91"/>
+        <v>6</v>
+      </c>
+      <c r="G155" s="91">
+        <v>45316</v>
+      </c>
       <c r="H155" s="94"/>
       <c r="I155" s="94"/>
       <c r="J155" s="100"/>
@@ -8016,27 +8037,23 @@
     </row>
     <row r="156" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="83"/>
-      <c r="B156" s="102" t="s">
+      <c r="B156" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C156" s="102" t="s">
-        <v>138</v>
-      </c>
-      <c r="D156" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="E156" s="103">
-        <v>1</v>
-      </c>
-      <c r="F156" s="104">
-        <v>2</v>
-      </c>
-      <c r="G156" s="87" t="s">
-        <v>262</v>
-      </c>
-      <c r="H156" s="95">
-        <v>45225</v>
-      </c>
+      <c r="C156" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D156" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E156" s="29">
+        <v>7</v>
+      </c>
+      <c r="F156" s="30">
+        <v>16</v>
+      </c>
+      <c r="G156" s="91"/>
+      <c r="H156" s="94"/>
       <c r="I156" s="94"/>
       <c r="J156" s="80"/>
       <c r="K156" s="1"/>
@@ -8051,22 +8068,22 @@
         <v>19</v>
       </c>
       <c r="C157" s="102" t="s">
-        <v>317</v>
+        <v>138</v>
       </c>
       <c r="D157" s="102" t="s">
-        <v>141</v>
-      </c>
-      <c r="E157" s="103" t="s">
-        <v>261</v>
+        <v>150</v>
+      </c>
+      <c r="E157" s="103">
+        <v>1</v>
       </c>
       <c r="F157" s="104">
         <v>2</v>
       </c>
-      <c r="G157" s="91">
+      <c r="G157" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="H157" s="95">
         <v>45225</v>
-      </c>
-      <c r="H157" s="95">
-        <v>45344</v>
       </c>
       <c r="I157" s="94"/>
       <c r="J157" s="80"/>
@@ -8078,25 +8095,27 @@
     </row>
     <row r="158" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="83"/>
-      <c r="B158" s="28" t="s">
+      <c r="B158" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C158" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="D158" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="E158" s="29" t="s">
+      <c r="C158" s="102" t="s">
+        <v>317</v>
+      </c>
+      <c r="D158" s="102" t="s">
+        <v>141</v>
+      </c>
+      <c r="E158" s="103" t="s">
         <v>261</v>
       </c>
-      <c r="F158" s="30">
-        <v>1</v>
+      <c r="F158" s="104">
+        <v>2</v>
       </c>
       <c r="G158" s="91">
+        <v>45225</v>
+      </c>
+      <c r="H158" s="95">
         <v>45344</v>
       </c>
-      <c r="H158" s="95"/>
       <c r="I158" s="94"/>
       <c r="J158" s="80"/>
       <c r="K158" s="1"/>
@@ -8107,27 +8126,25 @@
     </row>
     <row r="159" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="83"/>
-      <c r="B159" s="102" t="s">
+      <c r="B159" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C159" s="102" t="s">
-        <v>39</v>
-      </c>
-      <c r="D159" s="102" t="s">
-        <v>283</v>
-      </c>
-      <c r="E159" s="103">
-        <v>1</v>
-      </c>
-      <c r="F159" s="104">
-        <v>0</v>
-      </c>
-      <c r="G159" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H159" s="95">
-        <v>45169</v>
-      </c>
+      <c r="C159" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="D159" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E159" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="F159" s="30">
+        <v>3</v>
+      </c>
+      <c r="G159" s="91">
+        <v>45344</v>
+      </c>
+      <c r="H159" s="95"/>
       <c r="I159" s="94"/>
       <c r="J159" s="80"/>
       <c r="K159" s="1"/>
@@ -8138,25 +8155,27 @@
     </row>
     <row r="160" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="83"/>
-      <c r="B160" s="28" t="s">
+      <c r="B160" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C160" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D160" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="E160" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="F160" s="30">
-        <v>16</v>
-      </c>
-      <c r="G160" s="91">
+      <c r="C160" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="D160" s="102" t="s">
+        <v>283</v>
+      </c>
+      <c r="E160" s="103">
+        <v>1</v>
+      </c>
+      <c r="F160" s="104">
+        <v>0</v>
+      </c>
+      <c r="G160" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="H160" s="95">
         <v>45169</v>
       </c>
-      <c r="H160" s="95"/>
       <c r="I160" s="94"/>
       <c r="J160" s="80"/>
       <c r="K160" s="1"/>
@@ -8167,13 +8186,25 @@
     </row>
     <row r="161" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="83"/>
-      <c r="B161" s="21"/>
-      <c r="C161" s="33"/>
-      <c r="D161" s="33"/>
-      <c r="E161" s="34"/>
-      <c r="F161" s="33"/>
-      <c r="G161" s="84"/>
-      <c r="H161" s="96"/>
+      <c r="B161" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D161" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E161" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="F161" s="30">
+        <v>17</v>
+      </c>
+      <c r="G161" s="91">
+        <v>45169</v>
+      </c>
+      <c r="H161" s="95"/>
       <c r="I161" s="96"/>
       <c r="J161" s="80"/>
       <c r="K161" s="1"/>
@@ -8193,7 +8224,7 @@
       </c>
       <c r="F162" s="38">
         <f>SUM(F144:F161)-SUM(F141:F143)</f>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G162" s="84"/>
       <c r="H162" s="96"/>
@@ -8294,7 +8325,7 @@
       <c r="F167" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G167" s="84"/>
+      <c r="G167" s="79"/>
       <c r="H167" s="96"/>
       <c r="I167" s="96"/>
       <c r="J167" s="80"/>
@@ -8317,13 +8348,11 @@
         <v>4</v>
       </c>
       <c r="F168" s="15">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G168" s="84"/>
       <c r="H168" s="98"/>
-      <c r="I168" s="96">
-        <v>2</v>
-      </c>
+      <c r="I168" s="96"/>
       <c r="J168" s="80"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
@@ -8367,23 +8396,27 @@
     </row>
     <row r="171" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="83"/>
-      <c r="B171" s="28" t="s">
+      <c r="B171" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C171" s="28" t="s">
+      <c r="C171" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="D171" s="28" t="s">
+      <c r="D171" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="E171" s="29">
+      <c r="E171" s="103">
         <v>1</v>
       </c>
-      <c r="F171" s="30">
+      <c r="F171" s="104">
         <v>0</v>
       </c>
-      <c r="G171" s="87"/>
-      <c r="H171" s="95"/>
+      <c r="G171" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="H171" s="95">
+        <v>45386</v>
+      </c>
       <c r="I171" s="95"/>
       <c r="J171" s="80"/>
       <c r="K171" s="1"/>
@@ -8398,18 +8431,20 @@
         <v>15</v>
       </c>
       <c r="C172" s="28" t="s">
-        <v>163</v>
+        <v>379</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E172" s="29">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="E172" s="29" t="s">
+        <v>261</v>
       </c>
       <c r="F172" s="30">
-        <v>2</v>
-      </c>
-      <c r="G172" s="91"/>
+        <v>0</v>
+      </c>
+      <c r="G172" s="91">
+        <v>45386</v>
+      </c>
       <c r="H172" s="94"/>
       <c r="I172" s="94"/>
       <c r="J172" s="80"/>
@@ -8421,11 +8456,21 @@
     </row>
     <row r="173" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="83"/>
-      <c r="B173" s="28"/>
-      <c r="C173" s="28"/>
-      <c r="D173" s="28"/>
-      <c r="E173" s="29"/>
-      <c r="F173" s="104"/>
+      <c r="B173" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D173" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E173" s="29">
+        <v>1</v>
+      </c>
+      <c r="F173" s="30">
+        <v>2</v>
+      </c>
       <c r="G173" s="87"/>
       <c r="H173" s="95"/>
       <c r="I173" s="94"/>
@@ -8455,9 +8500,7 @@
       </c>
       <c r="G174" s="87"/>
       <c r="H174" s="95"/>
-      <c r="I174" s="94">
-        <v>1</v>
-      </c>
+      <c r="I174" s="94"/>
       <c r="J174" s="80"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
@@ -8467,23 +8510,27 @@
     </row>
     <row r="175" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="83"/>
-      <c r="B175" s="28" t="s">
+      <c r="B175" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C175" s="28" t="s">
+      <c r="C175" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="D175" s="28" t="s">
+      <c r="D175" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="E175" s="29">
+      <c r="E175" s="103">
         <v>5</v>
       </c>
-      <c r="F175" s="30">
+      <c r="F175" s="104">
         <v>5</v>
       </c>
-      <c r="G175" s="95"/>
-      <c r="H175" s="94"/>
+      <c r="G175" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="H175" s="95">
+        <v>45386</v>
+      </c>
       <c r="I175" s="94"/>
       <c r="J175" s="80"/>
       <c r="K175" s="1"/>
@@ -8498,18 +8545,20 @@
         <v>18</v>
       </c>
       <c r="C176" s="28" t="s">
-        <v>164</v>
+        <v>302</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="E176" s="29">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E176" s="29" t="s">
+        <v>261</v>
       </c>
       <c r="F176" s="30">
-        <v>11</v>
-      </c>
-      <c r="G176" s="91"/>
+        <v>0</v>
+      </c>
+      <c r="G176" s="91">
+        <v>45386</v>
+      </c>
       <c r="H176" s="95"/>
       <c r="I176" s="94"/>
       <c r="J176" s="1"/>
@@ -8521,11 +8570,21 @@
     </row>
     <row r="177" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="83"/>
-      <c r="B177" s="28"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="28"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="30"/>
+      <c r="B177" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D177" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E177" s="29">
+        <v>1</v>
+      </c>
+      <c r="F177" s="30">
+        <v>12</v>
+      </c>
       <c r="G177" s="95"/>
       <c r="H177" s="95"/>
       <c r="I177" s="94"/>
@@ -8599,7 +8658,7 @@
         <v>261</v>
       </c>
       <c r="F180" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G180" s="91">
         <v>45302</v>
@@ -8628,13 +8687,11 @@
         <v>1</v>
       </c>
       <c r="F181" s="30">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G181" s="95"/>
       <c r="H181" s="94"/>
-      <c r="I181" s="94">
-        <v>1</v>
-      </c>
+      <c r="I181" s="94"/>
       <c r="J181" s="80"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
@@ -8671,23 +8728,27 @@
     </row>
     <row r="183" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="83"/>
-      <c r="B183" s="28" t="s">
+      <c r="B183" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C183" s="28" t="s">
+      <c r="C183" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="D183" s="28" t="s">
+      <c r="D183" s="102" t="s">
         <v>278</v>
       </c>
-      <c r="E183" s="29">
+      <c r="E183" s="103">
         <v>1</v>
       </c>
-      <c r="F183" s="30">
+      <c r="F183" s="104">
         <v>5</v>
       </c>
-      <c r="G183" s="95"/>
-      <c r="H183" s="91"/>
+      <c r="G183" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="H183" s="91">
+        <v>45386</v>
+      </c>
       <c r="I183" s="93"/>
       <c r="J183" s="80"/>
       <c r="K183" s="1"/>
@@ -8698,23 +8759,27 @@
     </row>
     <row r="184" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="83"/>
-      <c r="B184" s="28" t="s">
+      <c r="B184" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C184" s="28" t="s">
+      <c r="C184" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="D184" s="28" t="s">
+      <c r="D184" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="E184" s="29">
+      <c r="E184" s="103">
         <v>15</v>
       </c>
-      <c r="F184" s="30">
+      <c r="F184" s="104">
         <v>6</v>
       </c>
-      <c r="G184" s="95"/>
-      <c r="H184" s="91"/>
+      <c r="G184" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="H184" s="91">
+        <v>45386</v>
+      </c>
       <c r="I184" s="94"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
@@ -8725,12 +8790,24 @@
     </row>
     <row r="185" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="83"/>
-      <c r="B185" s="102"/>
-      <c r="C185" s="102"/>
-      <c r="D185" s="102"/>
-      <c r="E185" s="103"/>
-      <c r="F185" s="104"/>
-      <c r="G185" s="91"/>
+      <c r="B185" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C185" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="D185" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="E185" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="F185" s="30">
+        <v>0</v>
+      </c>
+      <c r="G185" s="91">
+        <v>45386</v>
+      </c>
       <c r="H185" s="91"/>
       <c r="I185" s="94"/>
       <c r="J185" s="80"/>
@@ -8742,12 +8819,24 @@
     </row>
     <row r="186" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="83"/>
-      <c r="B186" s="28"/>
-      <c r="C186" s="28"/>
-      <c r="D186" s="28"/>
-      <c r="E186" s="29"/>
-      <c r="F186" s="30"/>
-      <c r="G186" s="91"/>
+      <c r="B186" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C186" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="D186" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E186" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="F186" s="30">
+        <v>0</v>
+      </c>
+      <c r="G186" s="91">
+        <v>45386</v>
+      </c>
       <c r="H186" s="91"/>
       <c r="I186" s="94"/>
       <c r="J186" s="80"/>
@@ -8802,7 +8891,7 @@
       </c>
       <c r="F189" s="38">
         <f>SUM(F171:F188)-SUM(F168:F170)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G189" s="84"/>
       <c r="H189" s="96"/>
@@ -8926,7 +9015,7 @@
         <v>2</v>
       </c>
       <c r="F195" s="15">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G195" s="84"/>
       <c r="H195" s="98"/>
@@ -9085,7 +9174,7 @@
         <v>7</v>
       </c>
       <c r="F202" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G202" s="87"/>
       <c r="H202" s="94"/>
@@ -9112,13 +9201,11 @@
         <v>3</v>
       </c>
       <c r="F203" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G203" s="87"/>
       <c r="H203" s="94"/>
-      <c r="I203" s="94">
-        <v>1</v>
-      </c>
+      <c r="I203" s="94"/>
       <c r="J203" s="80"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
@@ -9175,13 +9262,11 @@
         <v>45</v>
       </c>
       <c r="F206" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G206" s="87"/>
       <c r="H206" s="95"/>
-      <c r="I206" s="94">
-        <v>1</v>
-      </c>
+      <c r="I206" s="94"/>
       <c r="J206" s="80"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
@@ -9204,7 +9289,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G207" s="91"/>
       <c r="H207" s="94"/>
@@ -9231,13 +9316,11 @@
         <v>22</v>
       </c>
       <c r="F208" s="30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G208" s="87"/>
       <c r="H208" s="94"/>
-      <c r="I208" s="94">
-        <v>1</v>
-      </c>
+      <c r="I208" s="94"/>
       <c r="J208" s="80"/>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
@@ -9264,9 +9347,7 @@
       </c>
       <c r="G209" s="87"/>
       <c r="H209" s="95"/>
-      <c r="I209" s="94">
-        <v>1</v>
-      </c>
+      <c r="I209" s="94"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
@@ -9397,7 +9478,7 @@
       </c>
       <c r="F216" s="38">
         <f>SUM(F198:F215)-SUM(F195:F197)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G216" s="84"/>
       <c r="H216" s="96"/>
@@ -9550,15 +9631,13 @@
         <v>261</v>
       </c>
       <c r="F223" s="21">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G223" s="98">
         <v>45169</v>
       </c>
       <c r="H223" s="96"/>
-      <c r="I223" s="93">
-        <v>1</v>
-      </c>
+      <c r="I223" s="93"/>
       <c r="J223" s="80"/>
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
@@ -9625,7 +9704,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226" s="91"/>
       <c r="H226" s="95"/>
@@ -9669,13 +9748,11 @@
         <v>17</v>
       </c>
       <c r="F228" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G228" s="87"/>
       <c r="H228" s="95"/>
-      <c r="I228" s="93">
-        <v>1</v>
-      </c>
+      <c r="I228" s="93"/>
       <c r="J228" s="80"/>
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
@@ -9702,9 +9779,7 @@
       </c>
       <c r="G229" s="91"/>
       <c r="H229" s="94"/>
-      <c r="I229" s="93">
-        <v>1</v>
-      </c>
+      <c r="I229" s="93"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
@@ -9776,25 +9851,27 @@
     </row>
     <row r="232" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="83"/>
-      <c r="B232" s="28" t="s">
+      <c r="B232" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C232" s="28" t="s">
+      <c r="C232" s="102" t="s">
         <v>294</v>
       </c>
-      <c r="D232" s="28" t="s">
+      <c r="D232" s="102" t="s">
         <v>295</v>
       </c>
-      <c r="E232" s="29" t="s">
+      <c r="E232" s="103" t="s">
         <v>261</v>
       </c>
-      <c r="F232" s="30">
+      <c r="F232" s="104">
         <v>0</v>
       </c>
       <c r="G232" s="91">
         <v>45344</v>
       </c>
-      <c r="H232" s="95"/>
+      <c r="H232" s="95">
+        <v>45386</v>
+      </c>
       <c r="I232" s="93"/>
       <c r="J232" s="80"/>
       <c r="K232" s="1"/>
@@ -9806,21 +9883,23 @@
     <row r="233" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="83"/>
       <c r="B233" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C233" s="28" t="s">
-        <v>186</v>
+        <v>381</v>
       </c>
       <c r="D233" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E233" s="29">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="E233" s="29" t="s">
+        <v>261</v>
       </c>
       <c r="F233" s="30">
-        <v>16</v>
-      </c>
-      <c r="G233" s="91"/>
+        <v>0</v>
+      </c>
+      <c r="G233" s="91">
+        <v>45386</v>
+      </c>
       <c r="H233" s="94"/>
       <c r="I233" s="93"/>
       <c r="J233" s="1"/>
@@ -9832,27 +9911,23 @@
     </row>
     <row r="234" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="83"/>
-      <c r="B234" s="102" t="s">
+      <c r="B234" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C234" s="102" t="s">
-        <v>187</v>
-      </c>
-      <c r="D234" s="102" t="s">
-        <v>188</v>
-      </c>
-      <c r="E234" s="103">
-        <v>18</v>
-      </c>
-      <c r="F234" s="104">
-        <v>0</v>
-      </c>
-      <c r="G234" s="87" t="s">
-        <v>262</v>
-      </c>
-      <c r="H234" s="95">
-        <v>45190</v>
-      </c>
+      <c r="C234" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D234" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E234" s="29">
+        <v>25</v>
+      </c>
+      <c r="F234" s="30">
+        <v>16</v>
+      </c>
+      <c r="G234" s="91"/>
+      <c r="H234" s="94"/>
       <c r="I234" s="93"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -9863,25 +9938,27 @@
     </row>
     <row r="235" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="83"/>
-      <c r="B235" s="28" t="s">
+      <c r="B235" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C235" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="D235" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="E235" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="F235" s="30">
-        <v>9</v>
-      </c>
-      <c r="G235" s="91">
+      <c r="C235" s="102" t="s">
+        <v>187</v>
+      </c>
+      <c r="D235" s="102" t="s">
+        <v>188</v>
+      </c>
+      <c r="E235" s="103">
+        <v>18</v>
+      </c>
+      <c r="F235" s="104">
+        <v>0</v>
+      </c>
+      <c r="G235" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="H235" s="95">
         <v>45190</v>
       </c>
-      <c r="H235" s="95"/>
       <c r="I235" s="93"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
@@ -9892,27 +9969,25 @@
     </row>
     <row r="236" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="83"/>
-      <c r="B236" s="102" t="s">
+      <c r="B236" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C236" s="102" t="s">
-        <v>189</v>
-      </c>
-      <c r="D236" s="102" t="s">
-        <v>190</v>
-      </c>
-      <c r="E236" s="103">
-        <v>12</v>
-      </c>
-      <c r="F236" s="104">
-        <v>0</v>
-      </c>
-      <c r="G236" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H236" s="95">
-        <v>45162</v>
-      </c>
+      <c r="C236" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="D236" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="E236" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="F236" s="30">
+        <v>15</v>
+      </c>
+      <c r="G236" s="91">
+        <v>45190</v>
+      </c>
+      <c r="H236" s="95"/>
       <c r="I236" s="93"/>
       <c r="J236" s="80"/>
       <c r="K236" s="1"/>
@@ -9927,22 +10002,22 @@
         <v>19</v>
       </c>
       <c r="C237" s="102" t="s">
-        <v>294</v>
+        <v>189</v>
       </c>
       <c r="D237" s="102" t="s">
-        <v>295</v>
-      </c>
-      <c r="E237" s="103" t="s">
-        <v>261</v>
+        <v>190</v>
+      </c>
+      <c r="E237" s="103">
+        <v>12</v>
       </c>
       <c r="F237" s="104">
-        <v>8</v>
-      </c>
-      <c r="G237" s="91">
+        <v>0</v>
+      </c>
+      <c r="G237" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="H237" s="95">
         <v>45162</v>
-      </c>
-      <c r="H237" s="95">
-        <v>45344</v>
       </c>
       <c r="I237" s="93"/>
       <c r="J237" s="80"/>
@@ -9954,28 +10029,28 @@
     </row>
     <row r="238" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="83"/>
-      <c r="B238" s="28" t="s">
+      <c r="B238" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C238" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="D238" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E238" s="29" t="s">
+      <c r="C238" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="D238" s="102" t="s">
+        <v>295</v>
+      </c>
+      <c r="E238" s="103" t="s">
         <v>261</v>
       </c>
-      <c r="F238" s="30">
-        <v>2</v>
+      <c r="F238" s="104">
+        <v>8</v>
       </c>
       <c r="G238" s="91">
+        <v>45162</v>
+      </c>
+      <c r="H238" s="95">
         <v>45344</v>
       </c>
-      <c r="H238" s="95"/>
-      <c r="I238" s="93">
-        <v>1</v>
-      </c>
+      <c r="I238" s="93"/>
       <c r="J238" s="80"/>
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
@@ -9989,18 +10064,20 @@
         <v>19</v>
       </c>
       <c r="C239" s="28" t="s">
-        <v>193</v>
+        <v>375</v>
       </c>
       <c r="D239" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="E239" s="29">
-        <v>1</v>
+        <v>196</v>
+      </c>
+      <c r="E239" s="29" t="s">
+        <v>261</v>
       </c>
       <c r="F239" s="30">
-        <v>10</v>
-      </c>
-      <c r="G239" s="87"/>
+        <v>2</v>
+      </c>
+      <c r="G239" s="91">
+        <v>45344</v>
+      </c>
       <c r="H239" s="95"/>
       <c r="I239" s="93"/>
       <c r="J239" s="80"/>
@@ -10012,27 +10089,23 @@
     </row>
     <row r="240" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="83"/>
-      <c r="B240" s="102" t="s">
+      <c r="B240" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C240" s="102" t="s">
-        <v>195</v>
-      </c>
-      <c r="D240" s="102" t="s">
-        <v>196</v>
-      </c>
-      <c r="E240" s="103">
+      <c r="C240" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D240" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E240" s="29">
         <v>1</v>
       </c>
-      <c r="F240" s="104">
-        <v>2</v>
-      </c>
-      <c r="G240" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H240" s="95">
-        <v>45260</v>
-      </c>
+      <c r="F240" s="30">
+        <v>12</v>
+      </c>
+      <c r="G240" s="87"/>
+      <c r="H240" s="95"/>
       <c r="I240" s="93"/>
       <c r="J240" s="80"/>
       <c r="K240" s="1"/>
@@ -10043,25 +10116,27 @@
     </row>
     <row r="241" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="83"/>
-      <c r="B241" s="28" t="s">
+      <c r="B241" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C241" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="D241" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="E241" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="F241" s="30">
-        <v>6</v>
-      </c>
-      <c r="G241" s="91">
+      <c r="C241" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="D241" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="E241" s="103">
+        <v>1</v>
+      </c>
+      <c r="F241" s="104">
+        <v>2</v>
+      </c>
+      <c r="G241" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="H241" s="95">
         <v>45260</v>
       </c>
-      <c r="H241" s="95"/>
       <c r="I241" s="94"/>
       <c r="J241" s="80"/>
       <c r="K241" s="1"/>
@@ -10072,13 +10147,25 @@
     </row>
     <row r="242" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="83"/>
-      <c r="B242" s="21"/>
-      <c r="C242" s="28"/>
-      <c r="D242" s="28"/>
-      <c r="E242" s="29"/>
-      <c r="F242" s="30"/>
-      <c r="G242" s="98"/>
-      <c r="H242" s="94"/>
+      <c r="B242" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C242" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="D242" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="E242" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="F242" s="30">
+        <v>7</v>
+      </c>
+      <c r="G242" s="91">
+        <v>45260</v>
+      </c>
+      <c r="H242" s="95"/>
       <c r="I242" s="94"/>
       <c r="J242" s="80"/>
       <c r="K242" s="1"/>
@@ -10214,7 +10301,7 @@
         <v>3</v>
       </c>
       <c r="F249" s="15">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G249" s="84"/>
       <c r="H249" s="98"/>
@@ -10391,7 +10478,7 @@
         <v>261</v>
       </c>
       <c r="F256" s="30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G256" s="95">
         <v>45246</v>
@@ -10507,7 +10594,7 @@
         <v>261</v>
       </c>
       <c r="F260" s="104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G260" s="91">
         <v>45162</v>
@@ -10569,7 +10656,7 @@
         <v>261</v>
       </c>
       <c r="F262" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G262" s="91">
         <v>45359</v>
@@ -10625,7 +10712,7 @@
         <v>4</v>
       </c>
       <c r="F264" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G264" s="91"/>
       <c r="H264" s="95"/>
@@ -10745,7 +10832,7 @@
         <v>261</v>
       </c>
       <c r="F268" s="30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G268" s="91">
         <v>45316</v>
@@ -10774,7 +10861,7 @@
         <v>261</v>
       </c>
       <c r="F269" s="30">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G269" s="91">
         <v>45246</v>
@@ -10799,7 +10886,7 @@
       </c>
       <c r="F270" s="38">
         <f>SUM(F252:F269)-SUM(F249:F251)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G270" s="84"/>
       <c r="H270" s="96"/>
@@ -10923,13 +11010,11 @@
         <v>11</v>
       </c>
       <c r="F276" s="15">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G276" s="84"/>
       <c r="H276" s="96"/>
-      <c r="I276" s="96">
-        <v>2</v>
-      </c>
+      <c r="I276" s="96"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
@@ -11057,13 +11142,11 @@
         <v>18</v>
       </c>
       <c r="F282" s="30">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G282" s="87"/>
       <c r="H282" s="95"/>
-      <c r="I282" s="94">
-        <v>2</v>
-      </c>
+      <c r="I282" s="94"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
@@ -11117,7 +11200,7 @@
         <v>261</v>
       </c>
       <c r="F284" s="30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G284" s="91">
         <v>45148</v>
@@ -11146,7 +11229,7 @@
         <v>2</v>
       </c>
       <c r="F285" s="30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G285" s="91"/>
       <c r="H285" s="94"/>
@@ -11190,7 +11273,7 @@
         <v>30</v>
       </c>
       <c r="F287" s="30">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G287" s="87"/>
       <c r="H287" s="95"/>
@@ -11211,13 +11294,13 @@
         <v>220</v>
       </c>
       <c r="D288" s="21" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E288" s="22">
         <v>20</v>
       </c>
       <c r="F288" s="30">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G288" s="91"/>
       <c r="H288" s="95"/>
@@ -11244,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="F289" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G289" s="91"/>
       <c r="H289" s="95"/>
@@ -11406,7 +11489,7 @@
       </c>
       <c r="F297" s="38">
         <f>SUM(F278:F296)-SUM(F276:F277)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G297" s="84"/>
       <c r="H297" s="96"/>
@@ -11519,24 +11602,26 @@
     </row>
     <row r="303" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="83"/>
-      <c r="B303" s="12" t="s">
+      <c r="B303" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="C303" s="13"/>
-      <c r="D303" s="13" t="s">
+      <c r="C303" s="105"/>
+      <c r="D303" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="E303" s="40">
+      <c r="E303" s="115">
         <v>6</v>
       </c>
-      <c r="F303" s="15">
-        <v>42</v>
-      </c>
-      <c r="G303" s="84"/>
-      <c r="H303" s="95"/>
-      <c r="I303" s="96">
-        <v>1</v>
-      </c>
+      <c r="F303" s="116">
+        <v>41</v>
+      </c>
+      <c r="G303" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="H303" s="95">
+        <v>45358</v>
+      </c>
+      <c r="I303" s="96"/>
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
@@ -11546,13 +11631,25 @@
     </row>
     <row r="304" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="83"/>
-      <c r="B304" s="21"/>
-      <c r="C304" s="21"/>
-      <c r="D304" s="21"/>
-      <c r="E304" s="22"/>
-      <c r="F304" s="21"/>
-      <c r="G304" s="91"/>
-      <c r="H304" s="95"/>
+      <c r="B304" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C304" s="106"/>
+      <c r="D304" s="106" t="s">
+        <v>327</v>
+      </c>
+      <c r="E304" s="107" t="s">
+        <v>261</v>
+      </c>
+      <c r="F304" s="106">
+        <v>4</v>
+      </c>
+      <c r="G304" s="91">
+        <v>45358</v>
+      </c>
+      <c r="H304" s="95">
+        <v>45386</v>
+      </c>
       <c r="I304" s="96"/>
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
@@ -11563,12 +11660,22 @@
     </row>
     <row r="305" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="83"/>
-      <c r="B305" s="21"/>
+      <c r="B305" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="C305" s="21"/>
-      <c r="D305" s="21"/>
-      <c r="E305" s="22"/>
-      <c r="F305" s="21"/>
-      <c r="G305" s="91"/>
+      <c r="D305" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E305" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="F305" s="21">
+        <v>3</v>
+      </c>
+      <c r="G305" s="91">
+        <v>45386</v>
+      </c>
       <c r="H305" s="96"/>
       <c r="I305" s="94"/>
       <c r="J305" s="1"/>
@@ -11709,7 +11816,7 @@
         <v>261</v>
       </c>
       <c r="F310" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G310" s="91">
         <v>45352</v>
@@ -11738,7 +11845,7 @@
         <v>1</v>
       </c>
       <c r="F311" s="104">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G311" s="87" t="s">
         <v>262</v>
@@ -11769,7 +11876,7 @@
         <v>261</v>
       </c>
       <c r="F312" s="30">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G312" s="91">
         <v>45288</v>
@@ -11889,7 +11996,7 @@
         <v>20</v>
       </c>
       <c r="F316" s="30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G316" s="87"/>
       <c r="H316" s="95"/>
@@ -11916,7 +12023,7 @@
         <v>20</v>
       </c>
       <c r="F317" s="30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G317" s="91"/>
       <c r="H317" s="94"/>
@@ -11943,13 +12050,11 @@
         <v>21</v>
       </c>
       <c r="F318" s="30">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G318" s="87"/>
       <c r="H318" s="94"/>
-      <c r="I318" s="94">
-        <v>1</v>
-      </c>
+      <c r="I318" s="94"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
       <c r="L318" s="1"/>
@@ -12094,7 +12199,7 @@
         <v>261</v>
       </c>
       <c r="F323" s="33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G323" s="90">
         <v>45337</v>
@@ -12119,7 +12224,7 @@
       </c>
       <c r="F324" s="38">
         <f>SUM(F306:F323)-SUM(F303:F305)</f>
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G324" s="84"/>
       <c r="H324" s="96"/>
@@ -12272,7 +12377,7 @@
         <v>261</v>
       </c>
       <c r="F331" s="106">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G331" s="91">
         <v>45183</v>
@@ -12301,15 +12406,13 @@
         <v>261</v>
       </c>
       <c r="F332" s="21">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G332" s="91">
         <v>45316</v>
       </c>
       <c r="H332" s="94"/>
-      <c r="I332" s="94">
-        <v>1</v>
-      </c>
+      <c r="I332" s="94"/>
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
       <c r="L332" s="1"/>
@@ -12359,7 +12462,7 @@
         <v>8</v>
       </c>
       <c r="F334" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G334" s="87"/>
       <c r="H334" s="94"/>
@@ -12373,13 +12476,27 @@
     </row>
     <row r="335" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="83"/>
-      <c r="B335" s="102"/>
-      <c r="C335" s="21"/>
-      <c r="D335" s="21"/>
-      <c r="E335" s="22"/>
-      <c r="F335" s="104"/>
-      <c r="G335" s="87"/>
-      <c r="H335" s="95"/>
+      <c r="B335" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C335" s="106" t="s">
+        <v>241</v>
+      </c>
+      <c r="D335" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="E335" s="107">
+        <v>22</v>
+      </c>
+      <c r="F335" s="104">
+        <v>0</v>
+      </c>
+      <c r="G335" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="H335" s="95">
+        <v>45155</v>
+      </c>
       <c r="I335" s="94"/>
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
@@ -12394,22 +12511,22 @@
         <v>18</v>
       </c>
       <c r="C336" s="106" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="D336" s="106" t="s">
-        <v>279</v>
-      </c>
-      <c r="E336" s="107">
         <v>22</v>
       </c>
+      <c r="E336" s="107" t="s">
+        <v>261</v>
+      </c>
       <c r="F336" s="104">
-        <v>0</v>
-      </c>
-      <c r="G336" s="91" t="s">
-        <v>262</v>
+        <v>2</v>
+      </c>
+      <c r="G336" s="91">
+        <v>45155</v>
       </c>
       <c r="H336" s="95">
-        <v>45155</v>
+        <v>45302</v>
       </c>
       <c r="I336" s="94"/>
       <c r="J336" s="1"/>
@@ -12421,27 +12538,25 @@
     </row>
     <row r="337" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="83"/>
-      <c r="B337" s="102" t="s">
+      <c r="B337" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C337" s="106" t="s">
-        <v>291</v>
-      </c>
-      <c r="D337" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="E337" s="107" t="s">
+      <c r="C337" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D337" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E337" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="F337" s="104">
-        <v>2</v>
+      <c r="F337" s="30">
+        <v>4</v>
       </c>
       <c r="G337" s="91">
-        <v>45155</v>
-      </c>
-      <c r="H337" s="95">
         <v>45302</v>
       </c>
+      <c r="H337" s="94"/>
       <c r="I337" s="94"/>
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
@@ -12456,20 +12571,18 @@
         <v>18</v>
       </c>
       <c r="C338" s="21" t="s">
-        <v>50</v>
+        <v>242</v>
       </c>
       <c r="D338" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E338" s="22" t="s">
-        <v>261</v>
+        <v>20</v>
+      </c>
+      <c r="E338" s="22">
+        <v>19</v>
       </c>
       <c r="F338" s="30">
-        <v>2</v>
-      </c>
-      <c r="G338" s="91">
-        <v>45302</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G338" s="91"/>
       <c r="H338" s="94"/>
       <c r="I338" s="94"/>
       <c r="J338" s="1"/>
@@ -12481,23 +12594,27 @@
     </row>
     <row r="339" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="83"/>
-      <c r="B339" s="28" t="s">
+      <c r="B339" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C339" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D339" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E339" s="22">
-        <v>19</v>
-      </c>
-      <c r="F339" s="30">
-        <v>16</v>
-      </c>
-      <c r="G339" s="91"/>
-      <c r="H339" s="94"/>
+      <c r="C339" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="D339" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="E339" s="107">
+        <v>1</v>
+      </c>
+      <c r="F339" s="104">
+        <v>0</v>
+      </c>
+      <c r="G339" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="H339" s="95">
+        <v>45155</v>
+      </c>
       <c r="I339" s="94"/>
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
@@ -12512,22 +12629,22 @@
         <v>18</v>
       </c>
       <c r="C340" s="106" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="D340" s="106" t="s">
-        <v>175</v>
-      </c>
-      <c r="E340" s="107">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="E340" s="107" t="s">
+        <v>261</v>
       </c>
       <c r="F340" s="104">
-        <v>0</v>
-      </c>
-      <c r="G340" s="87" t="s">
-        <v>262</v>
+        <v>5</v>
+      </c>
+      <c r="G340" s="91">
+        <v>45155</v>
       </c>
       <c r="H340" s="95">
-        <v>45155</v>
+        <v>45330</v>
       </c>
       <c r="I340" s="94"/>
       <c r="J340" s="1"/>
@@ -12536,27 +12653,25 @@
     </row>
     <row r="341" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="83"/>
-      <c r="B341" s="102" t="s">
+      <c r="B341" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C341" s="106" t="s">
-        <v>290</v>
-      </c>
-      <c r="D341" s="106" t="s">
-        <v>31</v>
-      </c>
-      <c r="E341" s="107" t="s">
+      <c r="C341" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="D341" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E341" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="F341" s="104">
-        <v>5</v>
+      <c r="F341" s="30">
+        <v>3</v>
       </c>
       <c r="G341" s="91">
-        <v>45155</v>
-      </c>
-      <c r="H341" s="95">
         <v>45330</v>
       </c>
+      <c r="H341" s="94"/>
       <c r="I341" s="94"/>
       <c r="J341" s="1"/>
       <c r="N341" s="1"/>
@@ -12565,23 +12680,21 @@
     <row r="342" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="83"/>
       <c r="B342" s="28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C342" s="21" t="s">
-        <v>356</v>
+        <v>293</v>
       </c>
       <c r="D342" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E342" s="22" t="s">
-        <v>261</v>
+        <v>203</v>
+      </c>
+      <c r="E342" s="22">
+        <v>22</v>
       </c>
       <c r="F342" s="30">
-        <v>0</v>
-      </c>
-      <c r="G342" s="91">
-        <v>45330</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G342" s="87"/>
       <c r="H342" s="94"/>
       <c r="I342" s="94"/>
       <c r="J342" s="1"/>
@@ -12594,19 +12707,19 @@
         <v>19</v>
       </c>
       <c r="C343" s="21" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
       <c r="D343" s="21" t="s">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="E343" s="22">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F343" s="30">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G343" s="87"/>
-      <c r="H343" s="94"/>
+      <c r="H343" s="95"/>
       <c r="I343" s="94"/>
       <c r="J343" s="1"/>
       <c r="N343" s="1"/>
@@ -12614,23 +12727,27 @@
     </row>
     <row r="344" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="83"/>
-      <c r="B344" s="28" t="s">
+      <c r="B344" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C344" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="D344" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E344" s="22">
-        <v>20</v>
-      </c>
-      <c r="F344" s="30">
-        <v>14</v>
-      </c>
-      <c r="G344" s="87"/>
-      <c r="H344" s="95"/>
+      <c r="C344" s="106" t="s">
+        <v>249</v>
+      </c>
+      <c r="D344" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="E344" s="107">
+        <v>1</v>
+      </c>
+      <c r="F344" s="104">
+        <v>0</v>
+      </c>
+      <c r="G344" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="H344" s="95">
+        <v>45190</v>
+      </c>
       <c r="I344" s="94"/>
       <c r="J344" s="1"/>
       <c r="N344" s="1"/>
@@ -12638,26 +12755,26 @@
     </row>
     <row r="345" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="83"/>
-      <c r="B345" s="102" t="s">
+      <c r="B345" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C345" s="106" t="s">
-        <v>249</v>
-      </c>
-      <c r="D345" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="E345" s="107">
-        <v>1</v>
-      </c>
-      <c r="F345" s="104">
-        <v>0</v>
-      </c>
-      <c r="G345" s="91" t="s">
-        <v>262</v>
+      <c r="C345" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D345" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E345" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="F345" s="30">
+        <v>3</v>
+      </c>
+      <c r="G345" s="91">
+        <v>45190</v>
       </c>
       <c r="H345" s="95">
-        <v>45190</v>
+        <v>45386</v>
       </c>
       <c r="I345" s="94"/>
       <c r="J345" s="1"/>
@@ -12670,19 +12787,19 @@
         <v>19</v>
       </c>
       <c r="C346" s="21" t="s">
-        <v>303</v>
+        <v>383</v>
       </c>
       <c r="D346" s="21" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="E346" s="22" t="s">
         <v>261</v>
       </c>
       <c r="F346" s="30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G346" s="91">
-        <v>45190</v>
+        <v>45386</v>
       </c>
       <c r="H346" s="95"/>
       <c r="I346" s="94"/>
@@ -12787,7 +12904,7 @@
         <v>261</v>
       </c>
       <c r="F350" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G350" s="91">
         <v>45330</v>
@@ -12809,7 +12926,7 @@
       </c>
       <c r="F351" s="38">
         <f>SUM(F333:F350)-SUM(F330:F332)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G351" s="87"/>
       <c r="H351" s="94"/>
@@ -12891,7 +13008,7 @@
         <v>1</v>
       </c>
       <c r="F357" s="15">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
@@ -12987,7 +13104,7 @@
         <v>1</v>
       </c>
       <c r="F363" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
@@ -13033,7 +13150,7 @@
         <v>261</v>
       </c>
       <c r="F365" s="30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G365" s="119">
         <v>45344</v>
@@ -13056,7 +13173,7 @@
         <v>1</v>
       </c>
       <c r="F366" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
@@ -13088,13 +13205,11 @@
         <v>50</v>
       </c>
       <c r="F368" s="30">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
-      <c r="I368" s="1">
-        <v>3</v>
-      </c>
+      <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
     <row r="369" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -13111,7 +13226,7 @@
         <v>35</v>
       </c>
       <c r="F369" s="30">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
@@ -13136,9 +13251,7 @@
       </c>
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
-      <c r="I370" s="1">
-        <v>1</v>
-      </c>
+      <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
     <row r="371" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -13176,13 +13289,11 @@
         <v>1</v>
       </c>
       <c r="F372" s="30">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
-      <c r="I372" s="1">
-        <v>1</v>
-      </c>
+      <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
     <row r="373" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -13250,7 +13361,7 @@
       </c>
       <c r="F378" s="38">
         <f>SUM(F360:F377)-SUM(F357:F359)</f>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
@@ -13279,7 +13390,7 @@
     <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
   <ignoredErrors>
-    <ignoredError sqref="T11:U11 S29:S36" formulaRange="1"/>
+    <ignoredError sqref="T11:U11 S29:S33 S35:S36" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -13292,7 +13403,7 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13416,13 +13527,13 @@
         <v>16</v>
       </c>
       <c r="E7" s="25">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F7" s="26">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="G7" s="27">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H7" s="55"/>
       <c r="I7" s="44"/>
@@ -13441,13 +13552,13 @@
         <v>71</v>
       </c>
       <c r="E8" s="25">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F8" s="26">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="G8" s="27">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="44"/>
@@ -13460,19 +13571,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="E9" s="25">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F9" s="26">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="G9" s="27">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H9" s="55"/>
       <c r="I9" s="44"/>
@@ -13485,19 +13596,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="E10" s="25">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F10" s="26">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="G10" s="27">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H10" s="55"/>
       <c r="I10" s="44"/>
@@ -13516,13 +13627,13 @@
         <v>23</v>
       </c>
       <c r="E11" s="25">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F11" s="26">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G11" s="27">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="44"/>
@@ -13544,10 +13655,10 @@
         <v>40</v>
       </c>
       <c r="F12" s="26">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G12" s="27">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="44"/>
@@ -13560,19 +13671,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E13" s="25">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F13" s="26">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="G13" s="27">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="44"/>
@@ -13585,19 +13696,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="E14" s="25">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F14" s="59">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="G14" s="60">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="44"/>
@@ -13610,19 +13721,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E15" s="25">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F15" s="59">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G15" s="60">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H15" s="55"/>
       <c r="I15" s="44"/>
@@ -13635,19 +13746,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E16" s="25">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F16" s="26">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G16" s="27">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="44"/>
@@ -13660,19 +13771,19 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E17" s="25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="26">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G17" s="27">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="44"/>
@@ -13684,20 +13795,20 @@
       <c r="B18" s="57">
         <v>12</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>73</v>
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="E18" s="25">
         <v>22</v>
       </c>
       <c r="F18" s="26">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G18" s="27">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="44"/>
@@ -13716,13 +13827,13 @@
         <v>96</v>
       </c>
       <c r="E19" s="25">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F19" s="26">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G19" s="27">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="44"/>
@@ -13741,13 +13852,13 @@
         <v>144</v>
       </c>
       <c r="E20" s="25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="26">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G20" s="27">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H20" s="55"/>
       <c r="I20" s="44"/>
@@ -13798,7 +13909,7 @@
   <dimension ref="A1:IW29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B21" sqref="B21:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14161,23 +14272,47 @@
       <c r="A22" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="68"/>
+      <c r="B22" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>385</v>
+      </c>
+      <c r="D22" s="68">
+        <v>0</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="73" t="s">
+        <v>363</v>
+      </c>
+      <c r="G22" s="110">
+        <v>-1</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="68"/>
+      <c r="B23" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="D23" s="68">
+        <v>3</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="73" t="s">
+        <v>361</v>
+      </c>
+      <c r="G23" s="110">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="69"/>
@@ -14201,10 +14336,14 @@
       <c r="A26" s="71" t="s">
         <v>372</v>
       </c>
-      <c r="B26" s="74"/>
+      <c r="B26" s="69" t="s">
+        <v>45</v>
+      </c>
       <c r="C26" s="73"/>
       <c r="D26" s="74"/>
-      <c r="E26" s="69"/>
+      <c r="E26" s="69" t="s">
+        <v>16</v>
+      </c>
       <c r="F26" s="72"/>
       <c r="G26" s="69"/>
     </row>

--- a/data/DreamLeague23-24.xlsx
+++ b/data/DreamLeague23-24.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2818" documentId="8_{752A8788-F056-4140-BB86-F6521855C67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24D042CA-F27E-4BD9-9DEE-70FEF758F886}"/>
+  <xr:revisionPtr revIDLastSave="3126" documentId="8_{752A8788-F056-4140-BB86-F6521855C67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3DF14C5-64F8-4E33-8128-5E7EB5E86F6F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
     <sheet name="Stats" sheetId="2" r:id="rId2"/>
     <sheet name="Table" sheetId="3" r:id="rId3"/>
     <sheet name="Cup" sheetId="4" r:id="rId4"/>
+    <sheet name="Side Bet Resolution" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="396">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1192,6 +1193,36 @@
   </si>
   <si>
     <t>(1 - 1)</t>
+  </si>
+  <si>
+    <t>H2H</t>
+  </si>
+  <si>
+    <t>HSM</t>
+  </si>
+  <si>
+    <t>HSP</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>HSMEP</t>
+  </si>
+  <si>
+    <t>HS excl MEP</t>
+  </si>
+  <si>
+    <t>HSDef</t>
+  </si>
+  <si>
+    <t>HS £1</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Buy In</t>
   </si>
 </sst>
 </file>
@@ -3140,8 +3171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX378"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:O7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3301,29 +3332,29 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R5" s="81" t="s">
         <v>2</v>
       </c>
       <c r="S5" s="113">
         <f>_xlfn.XLOOKUP(R5,K:K,M:M)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T5" s="112" t="s">
         <v>263</v>
       </c>
       <c r="U5" s="113">
         <f>_xlfn.XLOOKUP(V5,K:K,M:M)</f>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="V5" s="81" t="s">
         <v>201</v>
@@ -3362,22 +3393,22 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="R6" s="81" t="s">
         <v>2</v>
       </c>
       <c r="S6" s="113">
         <f>_xlfn.XLOOKUP(R6,K:K,M:M)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T6" s="112" t="s">
         <v>263</v>
@@ -3403,7 +3434,7 @@
         <v>261</v>
       </c>
       <c r="F7" s="21">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G7" s="90">
         <v>45309</v>
@@ -3425,25 +3456,25 @@
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="R7" s="81" t="s">
         <v>2</v>
       </c>
       <c r="S7" s="113">
         <f>_xlfn.XLOOKUP(R7,K:K,M:M)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T7" s="112" t="s">
         <v>263</v>
       </c>
       <c r="U7" s="113">
         <f>_xlfn.XLOOKUP(V7,K:K,M:M)</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="V7" s="81" t="s">
         <v>34</v>
@@ -3479,15 +3510,15 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3521,15 +3552,15 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N9" s="77">
         <f>SUM(F116:F134)</f>
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O9" s="78">
         <f>SUM(F113:F115)</f>
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3567,11 +3598,11 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F144:F161)</f>
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F141:F143)</f>
@@ -3620,29 +3651,29 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F171:F188)</f>
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F168:F170)</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R11" s="81" t="s">
         <v>2</v>
       </c>
       <c r="S11" s="113">
         <f>SUM(F10:F15)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T11" s="112" t="s">
         <v>263</v>
       </c>
       <c r="U11" s="113">
-        <f>SUM(F228:F232)</f>
-        <v>20</v>
+        <f>SUM(F228:F233)</f>
+        <v>22</v>
       </c>
       <c r="V11" s="81" t="s">
         <v>74</v>
@@ -3681,15 +3712,15 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N12" s="77">
         <f>SUM(F198:F215)</f>
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="O12" s="78">
         <f>SUM(F195:F197)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3707,7 +3738,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" s="91"/>
       <c r="H13" s="88"/>
@@ -3723,15 +3754,15 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N13" s="77">
         <f>SUM(F225:F242)</f>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="O13" s="78">
         <f>SUM(F222:F224)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R13" s="120" t="s">
         <v>266</v>
@@ -3776,22 +3807,22 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N14" s="77">
         <f>SUM(F252:F269)</f>
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="O14" s="78">
         <f>SUM(F249:F251)</f>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="R14" s="81" t="s">
         <v>177</v>
       </c>
       <c r="S14" s="113">
         <f>_xlfn.XLOOKUP(R14,C:C,F:F)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T14" s="112" t="s">
         <v>263</v>
@@ -3837,15 +3868,15 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F278:F296)</f>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F276:F277)</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R15" s="81" t="s">
         <v>267</v>
@@ -3869,7 +3900,7 @@
         <v>31</v>
       </c>
       <c r="F16" s="30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
@@ -3885,15 +3916,15 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F306:F323)</f>
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F303:F305)</f>
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3931,15 +3962,15 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F333:F350)</f>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F330:F332)</f>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="R17" s="120" t="s">
         <v>269</v>
@@ -3984,29 +4015,29 @@
       </c>
       <c r="M18" s="25">
         <f t="shared" ref="M18" si="1">N18-O18</f>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F360:F377)</f>
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F357:F359)</f>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R18" s="81" t="s">
         <v>277</v>
       </c>
       <c r="S18" s="113">
         <f>_xlfn.XLOOKUP(R18,K:K,O:O)</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="T18" s="112" t="s">
         <v>263</v>
       </c>
       <c r="U18" s="113">
         <f>_xlfn.XLOOKUP(V18,K:K,O:O)</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="V18" s="81" t="s">
         <v>46</v>
@@ -4094,7 +4125,7 @@
         <v>261</v>
       </c>
       <c r="F21" s="30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" s="91">
         <v>45218</v>
@@ -4112,7 +4143,7 @@
       </c>
       <c r="S21" s="113">
         <f>_xlfn.XLOOKUP(R22,C:C,F:F)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T21" s="112" t="s">
         <v>263</v>
@@ -4267,7 +4298,7 @@
       </c>
       <c r="U25" s="113">
         <f>(_xlfn.XLOOKUP(V25,K:K,M:M))-(_xlfn.XLOOKUP(V26,C:C,F:F))</f>
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V25" s="81" t="s">
         <v>70</v>
@@ -4284,7 +4315,7 @@
       </c>
       <c r="F26" s="38">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G26" s="84"/>
       <c r="H26" s="96"/>
@@ -4392,7 +4423,7 @@
       </c>
       <c r="S30" s="81">
         <f>SUM(F62:F64)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4425,7 +4456,7 @@
         <v>75</v>
       </c>
       <c r="S31" s="81">
-        <f>SUM(F252:F254)</f>
+        <f>SUM(F252:F253)</f>
         <v>2</v>
       </c>
     </row>
@@ -4461,8 +4492,8 @@
         <v>34</v>
       </c>
       <c r="S32" s="81">
-        <f>SUM(F89:F91)</f>
-        <v>26</v>
+        <f>SUM(F89:F90)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -4497,8 +4528,8 @@
         <v>70</v>
       </c>
       <c r="S33" s="81">
-        <f>SUM(F116:F118)</f>
-        <v>20</v>
+        <f>SUM(F116:F117)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -4514,7 +4545,7 @@
         <v>261</v>
       </c>
       <c r="F34" s="21">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G34" s="90">
         <v>45337</v>
@@ -4605,7 +4636,7 @@
         <v>277</v>
       </c>
       <c r="S36" s="81">
-        <f>SUM(F306:F308)</f>
+        <f>SUM(F306:F307)</f>
         <v>5</v>
       </c>
     </row>
@@ -4689,7 +4720,7 @@
         <v>261</v>
       </c>
       <c r="F39" s="30">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G39" s="91">
         <v>45225</v>
@@ -4829,7 +4860,7 @@
         <v>90</v>
       </c>
       <c r="F43" s="30">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G43" s="87"/>
       <c r="H43" s="91"/>
@@ -4845,7 +4876,7 @@
       </c>
       <c r="S43" s="81">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V43" s="81" t="s">
         <v>42</v>
@@ -5067,7 +5098,7 @@
         <v>261</v>
       </c>
       <c r="F49" s="30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G49" s="91">
         <v>45148</v>
@@ -5176,7 +5207,7 @@
       </c>
       <c r="S52" s="81">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V52" s="81" t="s">
         <v>201</v>
@@ -5193,7 +5224,7 @@
       </c>
       <c r="F53" s="38">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G53" s="84"/>
       <c r="H53" s="96"/>
@@ -5294,7 +5325,7 @@
       </c>
       <c r="S56" s="81">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="V56" s="81" t="s">
         <v>201</v>
@@ -5377,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="15">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G59" s="84"/>
       <c r="H59" s="96"/>
@@ -5420,7 +5451,7 @@
       </c>
       <c r="S60" s="81">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V60" s="81" t="s">
         <v>46</v>
@@ -5468,7 +5499,7 @@
         <v>8</v>
       </c>
       <c r="F62" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G62" s="87"/>
       <c r="H62" s="94"/>
@@ -5569,7 +5600,7 @@
         <v>30</v>
       </c>
       <c r="F65" s="30">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G65" s="87"/>
       <c r="H65" s="94"/>
@@ -5837,7 +5868,7 @@
         <v>13</v>
       </c>
       <c r="F73" s="30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G73" s="91"/>
       <c r="H73" s="95"/>
@@ -5926,7 +5957,7 @@
         <v>261</v>
       </c>
       <c r="F76" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="91">
         <v>45337</v>
@@ -5986,7 +6017,7 @@
         <v>261</v>
       </c>
       <c r="F78" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G78" s="91">
         <v>45295</v>
@@ -6210,13 +6241,15 @@
         <v>261</v>
       </c>
       <c r="F88" s="21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G88" s="95">
         <v>45352</v>
       </c>
       <c r="H88" s="96"/>
-      <c r="I88" s="96"/>
+      <c r="I88" s="96">
+        <v>1</v>
+      </c>
       <c r="J88" s="80"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -6239,7 +6272,7 @@
         <v>7</v>
       </c>
       <c r="F89" s="30">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G89" s="87"/>
       <c r="H89" s="94"/>
@@ -6320,7 +6353,7 @@
         <v>6</v>
       </c>
       <c r="F92" s="30">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G92" s="91"/>
       <c r="H92" s="95"/>
@@ -6591,13 +6624,15 @@
         <v>261</v>
       </c>
       <c r="F101" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G101" s="91">
         <v>45386</v>
       </c>
       <c r="H101" s="95"/>
-      <c r="I101" s="94"/>
+      <c r="I101" s="94">
+        <v>1</v>
+      </c>
       <c r="J101" s="80"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -6620,7 +6655,7 @@
         <v>12</v>
       </c>
       <c r="F102" s="30">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G102" s="91"/>
       <c r="H102" s="95"/>
@@ -6736,7 +6771,7 @@
         <v>261</v>
       </c>
       <c r="F106" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G106" s="91">
         <v>45330</v>
@@ -6761,7 +6796,7 @@
       </c>
       <c r="F107" s="38">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G107" s="84"/>
       <c r="H107" s="96"/>
@@ -6914,7 +6949,7 @@
         <v>261</v>
       </c>
       <c r="F114" s="21">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G114" s="98">
         <v>45239</v>
@@ -6987,7 +7022,7 @@
         <v>6</v>
       </c>
       <c r="F117" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G117" s="90"/>
       <c r="H117" s="98"/>
@@ -7099,7 +7134,7 @@
         <v>261</v>
       </c>
       <c r="F121" s="30">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G121" s="91">
         <v>45155</v>
@@ -7217,7 +7252,7 @@
         <v>261</v>
       </c>
       <c r="F125" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G125" s="91">
         <v>45386</v>
@@ -7370,7 +7405,7 @@
         <v>261</v>
       </c>
       <c r="F130" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130" s="91">
         <v>45344</v>
@@ -7399,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G131" s="87"/>
       <c r="H131" s="95"/>
@@ -7488,7 +7523,7 @@
         <v>261</v>
       </c>
       <c r="F134" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G134" s="91">
         <v>45330</v>
@@ -7513,7 +7548,7 @@
       </c>
       <c r="F135" s="38">
         <f>SUM(F116:F134)-SUM(F113:F115)</f>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G135" s="84"/>
       <c r="H135" s="96"/>
@@ -7785,7 +7820,7 @@
         <v>39</v>
       </c>
       <c r="F147" s="30">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G147" s="91"/>
       <c r="H147" s="94"/>
@@ -7963,7 +7998,7 @@
         <v>34</v>
       </c>
       <c r="F153" s="30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G153" s="87"/>
       <c r="H153" s="95"/>
@@ -8021,7 +8056,7 @@
         <v>261</v>
       </c>
       <c r="F155" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G155" s="91">
         <v>45316</v>
@@ -8050,7 +8085,7 @@
         <v>7</v>
       </c>
       <c r="F156" s="30">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G156" s="91"/>
       <c r="H156" s="94"/>
@@ -8224,7 +8259,7 @@
       </c>
       <c r="F162" s="38">
         <f>SUM(F144:F161)-SUM(F141:F143)</f>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G162" s="84"/>
       <c r="H162" s="96"/>
@@ -8348,11 +8383,13 @@
         <v>4</v>
       </c>
       <c r="F168" s="15">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G168" s="84"/>
       <c r="H168" s="98"/>
-      <c r="I168" s="96"/>
+      <c r="I168" s="96">
+        <v>1</v>
+      </c>
       <c r="J168" s="80"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
@@ -8658,7 +8695,7 @@
         <v>261</v>
       </c>
       <c r="F180" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G180" s="91">
         <v>45302</v>
@@ -8687,7 +8724,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G181" s="95"/>
       <c r="H181" s="94"/>
@@ -8803,7 +8840,7 @@
         <v>261</v>
       </c>
       <c r="F185" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" s="91">
         <v>45386</v>
@@ -8832,7 +8869,7 @@
         <v>261</v>
       </c>
       <c r="F186" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G186" s="91">
         <v>45386</v>
@@ -8891,7 +8928,7 @@
       </c>
       <c r="F189" s="38">
         <f>SUM(F171:F188)-SUM(F168:F170)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G189" s="84"/>
       <c r="H189" s="96"/>
@@ -9015,7 +9052,7 @@
         <v>2</v>
       </c>
       <c r="F195" s="15">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G195" s="84"/>
       <c r="H195" s="98"/>
@@ -9147,7 +9184,7 @@
         <v>3</v>
       </c>
       <c r="F201" s="30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G201" s="87"/>
       <c r="H201" s="94"/>
@@ -9201,7 +9238,7 @@
         <v>3</v>
       </c>
       <c r="F203" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G203" s="87"/>
       <c r="H203" s="94"/>
@@ -9316,7 +9353,7 @@
         <v>22</v>
       </c>
       <c r="F208" s="30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G208" s="87"/>
       <c r="H208" s="94"/>
@@ -9343,7 +9380,7 @@
         <v>3</v>
       </c>
       <c r="F209" s="30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G209" s="87"/>
       <c r="H209" s="95"/>
@@ -9478,7 +9515,7 @@
       </c>
       <c r="F216" s="38">
         <f>SUM(F198:F215)-SUM(F195:F197)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G216" s="84"/>
       <c r="H216" s="96"/>
@@ -9631,7 +9668,7 @@
         <v>261</v>
       </c>
       <c r="F223" s="21">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G223" s="98">
         <v>45169</v>
@@ -9748,7 +9785,7 @@
         <v>17</v>
       </c>
       <c r="F228" s="30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G228" s="87"/>
       <c r="H228" s="95"/>
@@ -9895,7 +9932,7 @@
         <v>261</v>
       </c>
       <c r="F233" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G233" s="91">
         <v>45386</v>
@@ -9924,7 +9961,7 @@
         <v>25</v>
       </c>
       <c r="F234" s="30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G234" s="91"/>
       <c r="H234" s="94"/>
@@ -9982,7 +10019,7 @@
         <v>261</v>
       </c>
       <c r="F236" s="30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G236" s="91">
         <v>45190</v>
@@ -10160,7 +10197,7 @@
         <v>261</v>
       </c>
       <c r="F242" s="30">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G242" s="91">
         <v>45260</v>
@@ -10185,7 +10222,7 @@
       </c>
       <c r="F243" s="38">
         <f>SUM(F225:F242)-SUM(F222:F224)</f>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G243" s="84"/>
       <c r="H243" s="96"/>
@@ -10301,7 +10338,7 @@
         <v>3</v>
       </c>
       <c r="F249" s="15">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G249" s="84"/>
       <c r="H249" s="98"/>
@@ -10478,7 +10515,7 @@
         <v>261</v>
       </c>
       <c r="F256" s="30">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G256" s="95">
         <v>45246</v>
@@ -10507,7 +10544,7 @@
         <v>261</v>
       </c>
       <c r="F257" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G257" s="91">
         <v>45246</v>
@@ -10712,7 +10749,7 @@
         <v>4</v>
       </c>
       <c r="F264" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G264" s="91"/>
       <c r="H264" s="95"/>
@@ -10861,7 +10898,7 @@
         <v>261</v>
       </c>
       <c r="F269" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G269" s="91">
         <v>45246</v>
@@ -10886,7 +10923,7 @@
       </c>
       <c r="F270" s="38">
         <f>SUM(F252:F269)-SUM(F249:F251)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G270" s="84"/>
       <c r="H270" s="96"/>
@@ -11010,7 +11047,7 @@
         <v>11</v>
       </c>
       <c r="F276" s="15">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G276" s="84"/>
       <c r="H276" s="96"/>
@@ -11142,7 +11179,7 @@
         <v>18</v>
       </c>
       <c r="F282" s="30">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G282" s="87"/>
       <c r="H282" s="95"/>
@@ -11300,7 +11337,7 @@
         <v>20</v>
       </c>
       <c r="F288" s="30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G288" s="91"/>
       <c r="H288" s="95"/>
@@ -11381,7 +11418,7 @@
         <v>1</v>
       </c>
       <c r="F291" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G291" s="91"/>
       <c r="H291" s="95"/>
@@ -11489,7 +11526,7 @@
       </c>
       <c r="F297" s="38">
         <f>SUM(F278:F296)-SUM(F276:F277)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G297" s="84"/>
       <c r="H297" s="96"/>
@@ -11671,7 +11708,7 @@
         <v>261</v>
       </c>
       <c r="F305" s="21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G305" s="91">
         <v>45386</v>
@@ -11816,7 +11853,7 @@
         <v>261</v>
       </c>
       <c r="F310" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G310" s="91">
         <v>45352</v>
@@ -11876,7 +11913,7 @@
         <v>261</v>
       </c>
       <c r="F312" s="30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G312" s="91">
         <v>45288</v>
@@ -11967,7 +12004,7 @@
         <v>261</v>
       </c>
       <c r="F315" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G315" s="91">
         <v>45330</v>
@@ -11996,7 +12033,7 @@
         <v>20</v>
       </c>
       <c r="F316" s="30">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G316" s="87"/>
       <c r="H316" s="95"/>
@@ -12050,7 +12087,7 @@
         <v>21</v>
       </c>
       <c r="F318" s="30">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G318" s="87"/>
       <c r="H318" s="94"/>
@@ -12224,7 +12261,7 @@
       </c>
       <c r="F324" s="38">
         <f>SUM(F306:F323)-SUM(F303:F305)</f>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G324" s="84"/>
       <c r="H324" s="96"/>
@@ -12406,7 +12443,7 @@
         <v>261</v>
       </c>
       <c r="F332" s="21">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G332" s="91">
         <v>45316</v>
@@ -12462,7 +12499,7 @@
         <v>8</v>
       </c>
       <c r="F334" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G334" s="87"/>
       <c r="H334" s="94"/>
@@ -12551,7 +12588,7 @@
         <v>261</v>
       </c>
       <c r="F337" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G337" s="91">
         <v>45302</v>
@@ -12580,7 +12617,7 @@
         <v>19</v>
       </c>
       <c r="F338" s="30">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G338" s="91"/>
       <c r="H338" s="94"/>
@@ -12692,7 +12729,7 @@
         <v>22</v>
       </c>
       <c r="F342" s="30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G342" s="87"/>
       <c r="H342" s="94"/>
@@ -12716,7 +12753,7 @@
         <v>20</v>
       </c>
       <c r="F343" s="30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G343" s="87"/>
       <c r="H343" s="95"/>
@@ -12926,7 +12963,7 @@
       </c>
       <c r="F351" s="38">
         <f>SUM(F333:F350)-SUM(F330:F332)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G351" s="87"/>
       <c r="H351" s="94"/>
@@ -13008,7 +13045,7 @@
         <v>1</v>
       </c>
       <c r="F357" s="15">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
@@ -13104,7 +13141,7 @@
         <v>1</v>
       </c>
       <c r="F363" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
@@ -13150,7 +13187,7 @@
         <v>261</v>
       </c>
       <c r="F365" s="30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G365" s="119">
         <v>45344</v>
@@ -13205,7 +13242,7 @@
         <v>50</v>
       </c>
       <c r="F368" s="30">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
@@ -13247,7 +13284,7 @@
         <v>5</v>
       </c>
       <c r="F370" s="30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
@@ -13289,7 +13326,7 @@
         <v>1</v>
       </c>
       <c r="F372" s="30">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
@@ -13361,7 +13398,7 @@
       </c>
       <c r="F378" s="38">
         <f>SUM(F360:F377)-SUM(F357:F359)</f>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
@@ -13390,7 +13427,7 @@
     <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
   <ignoredErrors>
-    <ignoredError sqref="T11:U11 S29:S33 S35:S36" formulaRange="1"/>
+    <ignoredError sqref="T11 S29:S30 S35" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -13402,8 +13439,8 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13527,13 +13564,13 @@
         <v>16</v>
       </c>
       <c r="E7" s="25">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F7" s="26">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G7" s="27">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H7" s="55"/>
       <c r="I7" s="44"/>
@@ -13546,19 +13583,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="E8" s="25">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F8" s="26">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G8" s="27">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="44"/>
@@ -13577,13 +13614,13 @@
         <v>114</v>
       </c>
       <c r="E9" s="25">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F9" s="26">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G9" s="27">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H9" s="55"/>
       <c r="I9" s="44"/>
@@ -13596,19 +13633,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E10" s="25">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F10" s="26">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="G10" s="27">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H10" s="55"/>
       <c r="I10" s="44"/>
@@ -13627,13 +13664,13 @@
         <v>23</v>
       </c>
       <c r="E11" s="25">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F11" s="26">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G11" s="27">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="44"/>
@@ -13652,13 +13689,13 @@
         <v>82</v>
       </c>
       <c r="E12" s="25">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F12" s="26">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G12" s="27">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="44"/>
@@ -13677,13 +13714,13 @@
         <v>200</v>
       </c>
       <c r="E13" s="25">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F13" s="26">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G13" s="27">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="44"/>
@@ -13696,19 +13733,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="E14" s="25">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F14" s="59">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G14" s="60">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="44"/>
@@ -13721,19 +13758,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="E15" s="25">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" s="59">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="G15" s="60">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H15" s="55"/>
       <c r="I15" s="44"/>
@@ -13752,13 +13789,13 @@
         <v>73</v>
       </c>
       <c r="E16" s="25">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F16" s="26">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G16" s="27">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="44"/>
@@ -13777,13 +13814,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="25">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F17" s="26">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G17" s="27">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="44"/>
@@ -13802,13 +13839,13 @@
         <v>45</v>
       </c>
       <c r="E18" s="25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F18" s="26">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G18" s="27">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="44"/>
@@ -13827,13 +13864,13 @@
         <v>96</v>
       </c>
       <c r="E19" s="25">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="26">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G19" s="27">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="44"/>
@@ -13855,10 +13892,10 @@
         <v>13</v>
       </c>
       <c r="F20" s="26">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G20" s="27">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H20" s="55"/>
       <c r="I20" s="44"/>
@@ -13909,7 +13946,7 @@
   <dimension ref="A1:IW29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:G23"/>
+      <selection activeCell="B25" sqref="B25:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13960,7 +13997,7 @@
       <c r="C4" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="68">
         <v>-1</v>
       </c>
       <c r="E4" s="73" t="s">
@@ -13983,7 +14020,7 @@
       <c r="C5" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="68">
         <v>5</v>
       </c>
       <c r="E5" s="73" t="s">
@@ -14006,7 +14043,7 @@
       <c r="C6" s="73" t="s">
         <v>365</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="110">
         <v>1</v>
       </c>
       <c r="E6" s="72" t="s">
@@ -14029,7 +14066,7 @@
       <c r="C7" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="68">
         <v>2</v>
       </c>
       <c r="E7" s="72" t="s">
@@ -14052,7 +14089,7 @@
       <c r="C8" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="68">
         <v>3</v>
       </c>
       <c r="E8" s="73" t="s">
@@ -14075,7 +14112,7 @@
       <c r="C9" s="73" t="s">
         <v>368</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="110">
         <v>-1</v>
       </c>
       <c r="E9" s="72" t="s">
@@ -14092,7 +14129,7 @@
       <c r="A10" s="71"/>
       <c r="B10" s="69"/>
       <c r="C10" s="69"/>
-      <c r="D10" s="73"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="74"/>
       <c r="F10" s="43"/>
       <c r="G10" s="65"/>
@@ -14102,7 +14139,7 @@
         <v>344</v>
       </c>
       <c r="C11" s="70"/>
-      <c r="D11" s="43"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
       <c r="G11" s="65"/>
@@ -14117,7 +14154,7 @@
       <c r="C12" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="68">
         <v>3</v>
       </c>
       <c r="E12" s="73" t="s">
@@ -14253,7 +14290,7 @@
     <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="69"/>
       <c r="C20" s="68"/>
-      <c r="D20" s="43"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="43"/>
       <c r="F20" s="70"/>
       <c r="G20" s="43"/>
@@ -14263,7 +14300,7 @@
         <v>55</v>
       </c>
       <c r="C21" s="70"/>
-      <c r="D21" s="43"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="43"/>
       <c r="F21" s="70"/>
       <c r="G21" s="43"/>
@@ -14336,16 +14373,24 @@
       <c r="A26" s="71" t="s">
         <v>372</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="74"/>
+      <c r="C26" s="73" t="s">
+        <v>363</v>
+      </c>
+      <c r="D26" s="74">
+        <v>-1</v>
+      </c>
       <c r="E26" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="69"/>
+      <c r="F26" s="72" t="s">
+        <v>385</v>
+      </c>
+      <c r="G26" s="68">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
@@ -14367,7 +14412,9 @@
       <c r="K28" s="108"/>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="69"/>
+      <c r="B29" s="69" t="s">
+        <v>16</v>
+      </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
       <c r="E29" s="43"/>
@@ -14383,6 +14430,354 @@
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
     <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3A7B2E-B44D-4615-8D37-DEE4947E6EAC}">
+  <dimension ref="B1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J1" t="s">
+        <v>391</v>
+      </c>
+      <c r="K1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>-5</v>
+      </c>
+      <c r="K2">
+        <v>-35</v>
+      </c>
+      <c r="M2">
+        <f>SUM(D2:L2)</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M15" si="0">SUM(D3:L3)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>-5</v>
+      </c>
+      <c r="J5">
+        <v>-5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>-5</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>-5</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>-5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>-25</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>-5</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId1"/>
   </customProperties>
 </worksheet>
 </file>

--- a/data/DreamLeague23-24.xlsx
+++ b/data/DreamLeague23-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\dreamleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3126" documentId="8_{752A8788-F056-4140-BB86-F6521855C67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3DF14C5-64F8-4E33-8128-5E7EB5E86F6F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB63CC7D-207A-4075-ACC6-7E4CD2D70740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -1297,7 +1297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1659,11 +1659,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1978,6 +1993,15 @@
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3157,7 +3181,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -3169,23 +3193,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IX378"/>
+  <dimension ref="A1:IX405"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A364" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B379" sqref="B379:F406"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="81" customWidth="1"/>
     <col min="2" max="2" width="16" style="81" customWidth="1"/>
     <col min="3" max="3" width="39.33203125" style="81" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" style="81" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="81" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" style="81" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="81" customWidth="1"/>
     <col min="6" max="6" width="17" style="81" customWidth="1"/>
     <col min="7" max="8" width="11.33203125" style="81" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" style="81" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="81" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="81" customWidth="1"/>
     <col min="11" max="11" width="25.6640625" style="81" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="33.33203125" style="81" customWidth="1"/>
     <col min="13" max="14" width="12" style="81" customWidth="1"/>
@@ -3193,12 +3217,12 @@
     <col min="16" max="17" width="9" style="81" customWidth="1"/>
     <col min="18" max="18" width="32.33203125" style="81" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="9" style="81" customWidth="1"/>
-    <col min="22" max="22" width="30.109375" style="81" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.1640625" style="81" bestFit="1" customWidth="1"/>
     <col min="23" max="258" width="9" style="81" customWidth="1"/>
     <col min="259" max="16384" width="9" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3217,7 +3241,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -3238,7 +3262,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3255,7 +3279,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="83"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -3291,15 +3315,15 @@
       <c r="O4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="120" t="s">
+      <c r="R4" s="125" t="s">
         <v>264</v>
       </c>
-      <c r="S4" s="120"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="120"/>
-      <c r="V4" s="120"/>
-    </row>
-    <row r="5" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="83"/>
       <c r="B5" s="114" t="s">
         <v>13</v>
@@ -3332,11 +3356,11 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
@@ -3347,20 +3371,20 @@
       </c>
       <c r="S5" s="113">
         <f>_xlfn.XLOOKUP(R5,K:K,M:M)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T5" s="112" t="s">
         <v>263</v>
       </c>
       <c r="U5" s="113">
         <f>_xlfn.XLOOKUP(V5,K:K,M:M)</f>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="V5" s="81" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="83"/>
       <c r="B6" s="114" t="s">
         <v>13</v>
@@ -3393,35 +3417,35 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="R6" s="81" t="s">
         <v>2</v>
       </c>
       <c r="S6" s="113">
         <f>_xlfn.XLOOKUP(R6,K:K,M:M)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T6" s="112" t="s">
         <v>263</v>
       </c>
       <c r="U6" s="113">
         <f>_xlfn.XLOOKUP(V6,K:K,M:M)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V6" s="81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="83"/>
       <c r="B7" s="21" t="s">
         <v>13</v>
@@ -3452,35 +3476,35 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R7" s="81" t="s">
         <v>2</v>
       </c>
       <c r="S7" s="113">
         <f>_xlfn.XLOOKUP(R7,K:K,M:M)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T7" s="112" t="s">
         <v>263</v>
       </c>
       <c r="U7" s="113">
         <f>_xlfn.XLOOKUP(V7,K:K,M:M)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V7" s="81" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="83"/>
       <c r="B8" s="28" t="s">
         <v>15</v>
@@ -3510,18 +3534,18 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="83"/>
       <c r="B9" s="28" t="s">
         <v>15</v>
@@ -3552,18 +3576,18 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N9" s="77">
         <f>SUM(F116:F134)</f>
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O9" s="78">
         <f>SUM(F113:F115)</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="83"/>
       <c r="B10" s="102" t="s">
         <v>18</v>
@@ -3598,25 +3622,25 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F144:F161)</f>
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F141:F143)</f>
-        <v>44</v>
-      </c>
-      <c r="R10" s="120" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="125" t="s">
         <v>265</v>
       </c>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="120"/>
-    </row>
-    <row r="11" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="125"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+    </row>
+    <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="83"/>
       <c r="B11" s="102" t="s">
         <v>18</v>
@@ -3666,20 +3690,20 @@
       </c>
       <c r="S11" s="113">
         <f>SUM(F10:F15)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T11" s="112" t="s">
         <v>263</v>
       </c>
       <c r="U11" s="113">
         <f>SUM(F228:F233)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V11" s="81" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="83"/>
       <c r="B12" s="28" t="s">
         <v>18</v>
@@ -3712,18 +3736,18 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N12" s="77">
         <f>SUM(F198:F215)</f>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O12" s="78">
         <f>SUM(F195:F197)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="83"/>
       <c r="B13" s="28" t="s">
         <v>18</v>
@@ -3738,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="91"/>
       <c r="H13" s="88"/>
@@ -3764,15 +3788,15 @@
         <f>SUM(F222:F224)</f>
         <v>50</v>
       </c>
-      <c r="R13" s="120" t="s">
+      <c r="R13" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="S13" s="120"/>
-      <c r="T13" s="120"/>
-      <c r="U13" s="120"/>
-      <c r="V13" s="120"/>
-    </row>
-    <row r="14" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="125"/>
+      <c r="T13" s="125"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="125"/>
+    </row>
+    <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="83"/>
       <c r="B14" s="102" t="s">
         <v>18</v>
@@ -3807,11 +3831,11 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N14" s="77">
         <f>SUM(F252:F269)</f>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O14" s="78">
         <f>SUM(F249:F251)</f>
@@ -3835,7 +3859,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="83"/>
       <c r="B15" s="28" t="s">
         <v>18</v>
@@ -3868,15 +3892,15 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F278:F296)</f>
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F276:F277)</f>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="R15" s="81" t="s">
         <v>267</v>
@@ -3885,7 +3909,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="83"/>
       <c r="B16" s="28" t="s">
         <v>19</v>
@@ -3916,18 +3940,18 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F306:F323)</f>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F303:F305)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="83"/>
       <c r="B17" s="102" t="s">
         <v>19</v>
@@ -3962,25 +3986,25 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F333:F350)</f>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F330:F332)</f>
-        <v>77</v>
-      </c>
-      <c r="R17" s="120" t="s">
+        <v>80</v>
+      </c>
+      <c r="R17" s="125" t="s">
         <v>269</v>
       </c>
-      <c r="S17" s="120"/>
-      <c r="T17" s="120"/>
-      <c r="U17" s="120"/>
-      <c r="V17" s="120"/>
-    </row>
-    <row r="18" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+    </row>
+    <row r="18" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="83"/>
       <c r="B18" s="102" t="s">
         <v>19</v>
@@ -4015,15 +4039,15 @@
       </c>
       <c r="M18" s="25">
         <f t="shared" ref="M18" si="1">N18-O18</f>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F360:F377)</f>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F357:F359)</f>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="R18" s="81" t="s">
         <v>277</v>
@@ -4043,7 +4067,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="83"/>
       <c r="B19" s="102" t="s">
         <v>19</v>
@@ -4074,7 +4098,7 @@
       <c r="N19" s="92"/>
       <c r="O19" s="92"/>
     </row>
-    <row r="20" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="83"/>
       <c r="B20" s="28" t="s">
         <v>19</v>
@@ -4102,15 +4126,15 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="R20" s="120" t="s">
+      <c r="R20" s="125" t="s">
         <v>270</v>
       </c>
-      <c r="S20" s="120"/>
-      <c r="T20" s="120"/>
-      <c r="U20" s="120"/>
-      <c r="V20" s="120"/>
-    </row>
-    <row r="21" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="125"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
+    </row>
+    <row r="21" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="83"/>
       <c r="B21" s="28" t="s">
         <v>19</v>
@@ -4156,7 +4180,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="83"/>
       <c r="B22" s="102" t="s">
         <v>19</v>
@@ -4193,7 +4217,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="83"/>
       <c r="B23" s="102" t="s">
         <v>19</v>
@@ -4224,7 +4248,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="83"/>
       <c r="B24" s="28" t="s">
         <v>19</v>
@@ -4252,15 +4276,15 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="R24" s="120" t="s">
+      <c r="R24" s="125" t="s">
         <v>271</v>
       </c>
-      <c r="S24" s="120"/>
-      <c r="T24" s="120"/>
-      <c r="U24" s="120"/>
-      <c r="V24" s="120"/>
-    </row>
-    <row r="25" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S24" s="125"/>
+      <c r="T24" s="125"/>
+      <c r="U24" s="125"/>
+      <c r="V24" s="125"/>
+    </row>
+    <row r="25" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="83"/>
       <c r="B25" s="28" t="s">
         <v>19</v>
@@ -4298,13 +4322,13 @@
       </c>
       <c r="U25" s="113">
         <f>(_xlfn.XLOOKUP(V25,K:K,M:M))-(_xlfn.XLOOKUP(V26,C:C,F:F))</f>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="V25" s="81" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -4315,7 +4339,7 @@
       </c>
       <c r="F26" s="38">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" s="84"/>
       <c r="H26" s="96"/>
@@ -4333,7 +4357,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4350,7 +4374,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4366,15 +4390,15 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="R28" s="120" t="s">
+      <c r="R28" s="125" t="s">
         <v>272</v>
       </c>
-      <c r="S28" s="120"/>
-      <c r="T28" s="120"/>
-      <c r="U28" s="120"/>
-      <c r="V28" s="120"/>
-    </row>
-    <row r="29" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S28" s="125"/>
+      <c r="T28" s="125"/>
+      <c r="U28" s="125"/>
+      <c r="V28" s="125"/>
+    </row>
+    <row r="29" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
@@ -4399,10 +4423,10 @@
       </c>
       <c r="S29" s="81">
         <f>SUM(F144:F146)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4426,7 +4450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="83"/>
       <c r="B31" s="6" t="s">
         <v>3</v>
@@ -4460,7 +4484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="83"/>
       <c r="B32" s="114" t="s">
         <v>13</v>
@@ -4493,10 +4517,10 @@
       </c>
       <c r="S32" s="81">
         <f>SUM(F89:F90)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="83"/>
       <c r="B33" s="106" t="s">
         <v>13</v>
@@ -4532,7 +4556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="83"/>
       <c r="B34" s="21" t="s">
         <v>13</v>
@@ -4545,7 +4569,7 @@
         <v>261</v>
       </c>
       <c r="F34" s="21">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G34" s="90">
         <v>45337</v>
@@ -4566,7 +4590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="83"/>
       <c r="B35" s="102" t="s">
         <v>15</v>
@@ -4604,7 +4628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="83"/>
       <c r="B36" s="28" t="s">
         <v>15</v>
@@ -4640,7 +4664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="83"/>
       <c r="B37" s="28" t="s">
         <v>15</v>
@@ -4667,7 +4691,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="83"/>
       <c r="B38" s="102" t="s">
         <v>18</v>
@@ -4697,15 +4721,15 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="R38" s="120" t="s">
+      <c r="R38" s="125" t="s">
         <v>273</v>
       </c>
-      <c r="S38" s="120"/>
-      <c r="T38" s="120"/>
-      <c r="U38" s="120"/>
-      <c r="V38" s="120"/>
-    </row>
-    <row r="39" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S38" s="125"/>
+      <c r="T38" s="125"/>
+      <c r="U38" s="125"/>
+      <c r="V38" s="125"/>
+    </row>
+    <row r="39" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="83"/>
       <c r="B39" s="28" t="s">
         <v>18</v>
@@ -4744,7 +4768,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="83"/>
       <c r="B40" s="28" t="s">
         <v>18</v>
@@ -4759,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G40" s="87"/>
       <c r="H40" s="95"/>
@@ -4781,7 +4805,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="83"/>
       <c r="B41" s="28" t="s">
         <v>18</v>
@@ -4818,7 +4842,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="83"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -4845,7 +4869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="83"/>
       <c r="B43" s="28" t="s">
         <v>19</v>
@@ -4860,7 +4884,7 @@
         <v>90</v>
       </c>
       <c r="F43" s="30">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G43" s="87"/>
       <c r="H43" s="91"/>
@@ -4882,7 +4906,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="83"/>
       <c r="B44" s="102" t="s">
         <v>19</v>
@@ -4923,7 +4947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="83"/>
       <c r="B45" s="102" t="s">
         <v>19</v>
@@ -4964,7 +4988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="83"/>
       <c r="B46" s="28" t="s">
         <v>19</v>
@@ -5003,7 +5027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="83"/>
       <c r="B47" s="28" t="s">
         <v>19</v>
@@ -5042,7 +5066,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="83"/>
       <c r="B48" s="102" t="s">
         <v>19</v>
@@ -5083,7 +5107,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="83"/>
       <c r="B49" s="28" t="s">
         <v>19</v>
@@ -5098,7 +5122,7 @@
         <v>261</v>
       </c>
       <c r="F49" s="30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G49" s="91">
         <v>45148</v>
@@ -5122,7 +5146,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="83"/>
       <c r="B50" s="28" t="s">
         <v>19</v>
@@ -5137,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G50" s="91"/>
       <c r="H50" s="95"/>
@@ -5159,7 +5183,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="83"/>
       <c r="B51" s="102"/>
       <c r="C51" s="28"/>
@@ -5186,7 +5210,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="83"/>
       <c r="B52" s="21"/>
       <c r="C52" s="28"/>
@@ -5213,7 +5237,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
@@ -5224,7 +5248,7 @@
       </c>
       <c r="F53" s="38">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G53" s="84"/>
       <c r="H53" s="96"/>
@@ -5246,7 +5270,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -5273,7 +5297,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -5300,7 +5324,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
@@ -5325,13 +5349,13 @@
       </c>
       <c r="S56" s="81">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V56" s="81" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -5358,7 +5382,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="83"/>
       <c r="B58" s="6" t="s">
         <v>3</v>
@@ -5395,7 +5419,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="83"/>
       <c r="B59" s="12" t="s">
         <v>13</v>
@@ -5408,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="15">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G59" s="84"/>
       <c r="H59" s="96"/>
@@ -5430,7 +5454,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="83"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -5457,7 +5481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="83"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -5484,7 +5508,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="83"/>
       <c r="B62" s="28" t="s">
         <v>15</v>
@@ -5521,7 +5545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="83"/>
       <c r="B63" s="28" t="s">
         <v>15</v>
@@ -5558,7 +5582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="83"/>
       <c r="B64" s="102"/>
       <c r="C64" s="21"/>
@@ -5585,7 +5609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="83"/>
       <c r="B65" s="28" t="s">
         <v>18</v>
@@ -5616,13 +5640,13 @@
       </c>
       <c r="S65" s="81">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V65" s="81" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="83"/>
       <c r="B66" s="102" t="s">
         <v>18</v>
@@ -5663,7 +5687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="83"/>
       <c r="B67" s="28" t="s">
         <v>18</v>
@@ -5678,7 +5702,7 @@
         <v>261</v>
       </c>
       <c r="F67" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G67" s="91">
         <v>45260</v>
@@ -5702,7 +5726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="83"/>
       <c r="B68" s="28" t="s">
         <v>18</v>
@@ -5739,7 +5763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="83"/>
       <c r="B69" s="28"/>
       <c r="C69" s="21"/>
@@ -5760,13 +5784,13 @@
       </c>
       <c r="S69" s="81">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V69" s="81" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="83"/>
       <c r="B70" s="102" t="s">
         <v>19</v>
@@ -5797,7 +5821,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="83"/>
       <c r="B71" s="28" t="s">
         <v>19</v>
@@ -5812,7 +5836,7 @@
         <v>261</v>
       </c>
       <c r="F71" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G71" s="91">
         <v>45647</v>
@@ -5826,7 +5850,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="83"/>
       <c r="B72" s="28" t="s">
         <v>19</v>
@@ -5853,7 +5877,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="83"/>
       <c r="B73" s="28" t="s">
         <v>19</v>
@@ -5880,7 +5904,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="83"/>
       <c r="B74" s="102" t="s">
         <v>19</v>
@@ -5911,7 +5935,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="83"/>
       <c r="B75" s="102" t="s">
         <v>19</v>
@@ -5942,7 +5966,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="83"/>
       <c r="B76" s="28" t="s">
         <v>19</v>
@@ -5971,7 +5995,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="83"/>
       <c r="B77" s="102" t="s">
         <v>19</v>
@@ -6002,7 +6026,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="83"/>
       <c r="B78" s="28" t="s">
         <v>19</v>
@@ -6017,7 +6041,7 @@
         <v>261</v>
       </c>
       <c r="F78" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G78" s="91">
         <v>45295</v>
@@ -6031,7 +6055,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="83"/>
       <c r="B79" s="21"/>
       <c r="C79" s="28"/>
@@ -6048,7 +6072,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="35"/>
       <c r="C80" s="35"/>
@@ -6059,7 +6083,7 @@
       </c>
       <c r="F80" s="38">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G80" s="84"/>
       <c r="H80" s="96"/>
@@ -6071,7 +6095,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -6088,7 +6112,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -6105,7 +6129,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
@@ -6126,7 +6150,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -6143,7 +6167,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="83"/>
       <c r="B85" s="6" t="s">
         <v>3</v>
@@ -6170,7 +6194,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="83"/>
       <c r="B86" s="114" t="s">
         <v>13</v>
@@ -6199,7 +6223,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="83"/>
       <c r="B87" s="106" t="s">
         <v>13</v>
@@ -6228,7 +6252,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="83"/>
       <c r="B88" s="21" t="s">
         <v>13</v>
@@ -6247,9 +6271,7 @@
         <v>45352</v>
       </c>
       <c r="H88" s="96"/>
-      <c r="I88" s="96">
-        <v>1</v>
-      </c>
+      <c r="I88" s="96"/>
       <c r="J88" s="80"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -6257,7 +6279,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="83"/>
       <c r="B89" s="28" t="s">
         <v>15</v>
@@ -6284,7 +6306,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="83"/>
       <c r="B90" s="28" t="s">
         <v>15</v>
@@ -6299,7 +6321,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G90" s="87"/>
       <c r="H90" s="94"/>
@@ -6311,7 +6333,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="83"/>
       <c r="B91" s="28" t="s">
         <v>18</v>
@@ -6338,7 +6360,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="83"/>
       <c r="B92" s="28" t="s">
         <v>18</v>
@@ -6365,7 +6387,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="83"/>
       <c r="B93" s="102" t="s">
         <v>18</v>
@@ -6396,7 +6418,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="83"/>
       <c r="B94" s="102" t="s">
         <v>18</v>
@@ -6427,7 +6449,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="83"/>
       <c r="B95" s="28" t="s">
         <v>18</v>
@@ -6456,7 +6478,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="83"/>
       <c r="B96" s="102" t="s">
         <v>19</v>
@@ -6487,7 +6509,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="83"/>
       <c r="B97" s="28" t="s">
         <v>19</v>
@@ -6516,7 +6538,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="83"/>
       <c r="B98" s="102" t="s">
         <v>19</v>
@@ -6547,7 +6569,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="83"/>
       <c r="B99" s="102" t="s">
         <v>19</v>
@@ -6578,7 +6600,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="83"/>
       <c r="B100" s="102" t="s">
         <v>19</v>
@@ -6609,7 +6631,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="83"/>
       <c r="B101" s="28" t="s">
         <v>19</v>
@@ -6624,15 +6646,13 @@
         <v>261</v>
       </c>
       <c r="F101" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G101" s="91">
         <v>45386</v>
       </c>
       <c r="H101" s="95"/>
-      <c r="I101" s="94">
-        <v>1</v>
-      </c>
+      <c r="I101" s="94"/>
       <c r="J101" s="80"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -6640,7 +6660,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="83"/>
       <c r="B102" s="28" t="s">
         <v>19</v>
@@ -6667,7 +6687,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="83"/>
       <c r="B103" s="28" t="s">
         <v>19</v>
@@ -6694,7 +6714,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="83"/>
       <c r="B104" s="102" t="s">
         <v>19</v>
@@ -6725,7 +6745,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="83"/>
       <c r="B105" s="102" t="s">
         <v>19</v>
@@ -6756,7 +6776,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="83"/>
       <c r="B106" s="21" t="s">
         <v>19</v>
@@ -6785,7 +6805,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="35"/>
       <c r="C107" s="35"/>
@@ -6796,7 +6816,7 @@
       </c>
       <c r="F107" s="38">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G107" s="84"/>
       <c r="H107" s="96"/>
@@ -6808,7 +6828,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6825,7 +6845,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6842,7 +6862,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
@@ -6863,7 +6883,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6880,7 +6900,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="83"/>
       <c r="B112" s="6" t="s">
         <v>3</v>
@@ -6907,7 +6927,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="83"/>
       <c r="B113" s="114" t="s">
         <v>13</v>
@@ -6936,7 +6956,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="83"/>
       <c r="B114" s="21" t="s">
         <v>13</v>
@@ -6949,7 +6969,7 @@
         <v>261</v>
       </c>
       <c r="F114" s="21">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G114" s="98">
         <v>45239</v>
@@ -6963,7 +6983,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="83"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -6980,7 +7000,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="83"/>
       <c r="B116" s="28" t="s">
         <v>15</v>
@@ -7007,7 +7027,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="83"/>
       <c r="B117" s="28" t="s">
         <v>15</v>
@@ -7034,7 +7054,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="83"/>
       <c r="B118" s="28" t="s">
         <v>18</v>
@@ -7061,7 +7081,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="83"/>
       <c r="B119" s="28" t="s">
         <v>18</v>
@@ -7076,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="30">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G119" s="91"/>
       <c r="H119" s="95"/>
@@ -7088,7 +7108,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="83"/>
       <c r="B120" s="102" t="s">
         <v>18</v>
@@ -7119,7 +7139,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="83"/>
       <c r="B121" s="28" t="s">
         <v>18</v>
@@ -7148,7 +7168,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="83"/>
       <c r="B122" s="28" t="s">
         <v>19</v>
@@ -7175,7 +7195,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="83"/>
       <c r="B123" s="102" t="s">
         <v>19</v>
@@ -7206,7 +7226,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="83"/>
       <c r="B124" s="102" t="s">
         <v>19</v>
@@ -7237,7 +7257,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="83"/>
       <c r="B125" s="28" t="s">
         <v>19</v>
@@ -7266,7 +7286,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="83"/>
       <c r="B126" s="102" t="s">
         <v>19</v>
@@ -7297,7 +7317,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="83"/>
       <c r="B127" s="102" t="s">
         <v>19</v>
@@ -7328,7 +7348,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="83"/>
       <c r="B128" s="102" t="s">
         <v>19</v>
@@ -7359,7 +7379,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="83"/>
       <c r="B129" s="102" t="s">
         <v>19</v>
@@ -7390,7 +7410,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="83"/>
       <c r="B130" s="28" t="s">
         <v>19</v>
@@ -7419,7 +7439,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="83"/>
       <c r="B131" s="28" t="s">
         <v>19</v>
@@ -7434,7 +7454,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="30">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G131" s="87"/>
       <c r="H131" s="95"/>
@@ -7446,7 +7466,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="83"/>
       <c r="B132" s="102" t="s">
         <v>19</v>
@@ -7477,7 +7497,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="83"/>
       <c r="B133" s="102" t="s">
         <v>19</v>
@@ -7508,7 +7528,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="83"/>
       <c r="B134" s="21" t="s">
         <v>354</v>
@@ -7537,7 +7557,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="35"/>
       <c r="C135" s="35"/>
@@ -7548,7 +7568,7 @@
       </c>
       <c r="F135" s="38">
         <f>SUM(F116:F134)-SUM(F113:F115)</f>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G135" s="84"/>
       <c r="H135" s="96"/>
@@ -7560,7 +7580,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -7577,7 +7597,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -7594,7 +7614,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="3" t="s">
@@ -7615,7 +7635,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -7632,7 +7652,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="83"/>
       <c r="B140" s="6" t="s">
         <v>3</v>
@@ -7659,7 +7679,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="83"/>
       <c r="B141" s="12" t="s">
         <v>13</v>
@@ -7672,7 +7692,7 @@
         <v>3</v>
       </c>
       <c r="F141" s="15">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G141" s="84"/>
       <c r="H141" s="98"/>
@@ -7684,7 +7704,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="83"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -7701,7 +7721,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="83"/>
       <c r="B143" s="21"/>
       <c r="C143" s="21"/>
@@ -7718,7 +7738,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="83"/>
       <c r="B144" s="28" t="s">
         <v>15</v>
@@ -7745,7 +7765,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="83"/>
       <c r="B145" s="102" t="s">
         <v>15</v>
@@ -7776,7 +7796,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="83"/>
       <c r="B146" s="28" t="s">
         <v>15</v>
@@ -7791,7 +7811,7 @@
         <v>261</v>
       </c>
       <c r="F146" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G146" s="91">
         <v>45316</v>
@@ -7805,7 +7825,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="83"/>
       <c r="B147" s="28" t="s">
         <v>18</v>
@@ -7832,7 +7852,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="83"/>
       <c r="B148" s="102" t="s">
         <v>18</v>
@@ -7863,7 +7883,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="83"/>
       <c r="B149" s="28" t="s">
         <v>18</v>
@@ -7892,7 +7912,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="83"/>
       <c r="B150" s="102" t="s">
         <v>18</v>
@@ -7923,7 +7943,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="83"/>
       <c r="B151" s="102" t="s">
         <v>18</v>
@@ -7954,7 +7974,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="83"/>
       <c r="B152" s="28" t="s">
         <v>18</v>
@@ -7983,7 +8003,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="83"/>
       <c r="B153" s="28" t="s">
         <v>19</v>
@@ -7998,7 +8018,7 @@
         <v>34</v>
       </c>
       <c r="F153" s="30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G153" s="87"/>
       <c r="H153" s="95"/>
@@ -8010,7 +8030,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="83"/>
       <c r="B154" s="102" t="s">
         <v>19</v>
@@ -8041,7 +8061,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="83"/>
       <c r="B155" s="28" t="s">
         <v>19</v>
@@ -8070,7 +8090,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="83"/>
       <c r="B156" s="28" t="s">
         <v>19</v>
@@ -8097,7 +8117,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="83"/>
       <c r="B157" s="102" t="s">
         <v>19</v>
@@ -8128,7 +8148,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="83"/>
       <c r="B158" s="102" t="s">
         <v>19</v>
@@ -8159,7 +8179,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="83"/>
       <c r="B159" s="28" t="s">
         <v>19</v>
@@ -8188,7 +8208,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="83"/>
       <c r="B160" s="102" t="s">
         <v>19</v>
@@ -8219,7 +8239,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="83"/>
       <c r="B161" s="28" t="s">
         <v>19</v>
@@ -8248,7 +8268,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="35"/>
       <c r="C162" s="35"/>
@@ -8259,7 +8279,7 @@
       </c>
       <c r="F162" s="38">
         <f>SUM(F144:F161)-SUM(F141:F143)</f>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G162" s="84"/>
       <c r="H162" s="96"/>
@@ -8271,7 +8291,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -8288,7 +8308,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -8305,7 +8325,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="3" t="s">
@@ -8326,7 +8346,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -8343,7 +8363,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="83"/>
       <c r="B167" s="6" t="s">
         <v>3</v>
@@ -8370,7 +8390,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="83"/>
       <c r="B168" s="12" t="s">
         <v>13</v>
@@ -8387,9 +8407,7 @@
       </c>
       <c r="G168" s="84"/>
       <c r="H168" s="98"/>
-      <c r="I168" s="96">
-        <v>1</v>
-      </c>
+      <c r="I168" s="96"/>
       <c r="J168" s="80"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
@@ -8397,7 +8415,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="83"/>
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
@@ -8414,7 +8432,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="83"/>
       <c r="B170" s="21"/>
       <c r="C170" s="21"/>
@@ -8431,7 +8449,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="83"/>
       <c r="B171" s="102" t="s">
         <v>15</v>
@@ -8462,7 +8480,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="83"/>
       <c r="B172" s="28" t="s">
         <v>15</v>
@@ -8491,7 +8509,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="83"/>
       <c r="B173" s="28" t="s">
         <v>15</v>
@@ -8518,7 +8536,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="83"/>
       <c r="B174" s="28" t="s">
         <v>18</v>
@@ -8545,7 +8563,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="83"/>
       <c r="B175" s="102" t="s">
         <v>18</v>
@@ -8576,7 +8594,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="83"/>
       <c r="B176" s="28" t="s">
         <v>18</v>
@@ -8605,7 +8623,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="83"/>
       <c r="B177" s="28" t="s">
         <v>18</v>
@@ -8632,7 +8650,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="83"/>
       <c r="B178" s="28"/>
       <c r="C178" s="28"/>
@@ -8649,7 +8667,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="83"/>
       <c r="B179" s="102" t="s">
         <v>19</v>
@@ -8680,7 +8698,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="83"/>
       <c r="B180" s="28" t="s">
         <v>19</v>
@@ -8709,7 +8727,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="83"/>
       <c r="B181" s="28" t="s">
         <v>19</v>
@@ -8736,7 +8754,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="83"/>
       <c r="B182" s="28" t="s">
         <v>19</v>
@@ -8763,7 +8781,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="83"/>
       <c r="B183" s="102" t="s">
         <v>19</v>
@@ -8794,7 +8812,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="83"/>
       <c r="B184" s="102" t="s">
         <v>19</v>
@@ -8825,7 +8843,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="83"/>
       <c r="B185" s="28" t="s">
         <v>19</v>
@@ -8854,7 +8872,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="83"/>
       <c r="B186" s="28" t="s">
         <v>19</v>
@@ -8883,7 +8901,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="83"/>
       <c r="B187" s="102"/>
       <c r="C187" s="102"/>
@@ -8900,7 +8918,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="83"/>
       <c r="B188" s="21"/>
       <c r="C188" s="28"/>
@@ -8917,7 +8935,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="35"/>
       <c r="C189" s="35"/>
@@ -8940,7 +8958,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -8957,7 +8975,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -8974,7 +8992,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="3" t="s">
@@ -8995,7 +9013,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -9012,7 +9030,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="83"/>
       <c r="B194" s="6" t="s">
         <v>3</v>
@@ -9039,7 +9057,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="83"/>
       <c r="B195" s="12" t="s">
         <v>13</v>
@@ -9052,7 +9070,7 @@
         <v>2</v>
       </c>
       <c r="F195" s="15">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G195" s="84"/>
       <c r="H195" s="98"/>
@@ -9064,7 +9082,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="83"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -9081,7 +9099,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="83"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
@@ -9098,7 +9116,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="83"/>
       <c r="B198" s="28" t="s">
         <v>15</v>
@@ -9125,7 +9143,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="83"/>
       <c r="B199" s="28" t="s">
         <v>15</v>
@@ -9152,7 +9170,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="83"/>
       <c r="B200" s="102"/>
       <c r="C200" s="28"/>
@@ -9169,7 +9187,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="83"/>
       <c r="B201" s="28" t="s">
         <v>18</v>
@@ -9196,7 +9214,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="83"/>
       <c r="B202" s="28" t="s">
         <v>18</v>
@@ -9211,7 +9229,7 @@
         <v>7</v>
       </c>
       <c r="F202" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G202" s="87"/>
       <c r="H202" s="94"/>
@@ -9223,7 +9241,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="83"/>
       <c r="B203" s="28" t="s">
         <v>18</v>
@@ -9238,7 +9256,7 @@
         <v>3</v>
       </c>
       <c r="F203" s="30">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G203" s="87"/>
       <c r="H203" s="94"/>
@@ -9250,7 +9268,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="83"/>
       <c r="B204" s="28"/>
       <c r="C204" s="21"/>
@@ -9267,7 +9285,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="83"/>
       <c r="B205" s="28"/>
       <c r="C205" s="21"/>
@@ -9284,7 +9302,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="83"/>
       <c r="B206" s="28" t="s">
         <v>19</v>
@@ -9311,7 +9329,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="83"/>
       <c r="B207" s="28" t="s">
         <v>19</v>
@@ -9338,7 +9356,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="83"/>
       <c r="B208" s="28" t="s">
         <v>19</v>
@@ -9353,7 +9371,7 @@
         <v>22</v>
       </c>
       <c r="F208" s="30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G208" s="87"/>
       <c r="H208" s="94"/>
@@ -9365,7 +9383,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="83"/>
       <c r="B209" s="28" t="s">
         <v>19</v>
@@ -9392,7 +9410,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="83"/>
       <c r="B210" s="28" t="s">
         <v>19</v>
@@ -9419,7 +9437,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="83"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -9436,7 +9454,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="83"/>
       <c r="B212" s="102"/>
       <c r="C212" s="28"/>
@@ -9453,7 +9471,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="83"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
@@ -9470,7 +9488,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="83"/>
       <c r="B214" s="102"/>
       <c r="C214" s="21"/>
@@ -9487,7 +9505,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="83"/>
       <c r="B215" s="21"/>
       <c r="C215" s="33"/>
@@ -9504,7 +9522,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="35"/>
       <c r="C216" s="35"/>
@@ -9515,7 +9533,7 @@
       </c>
       <c r="F216" s="38">
         <f>SUM(F198:F215)-SUM(F195:F197)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G216" s="84"/>
       <c r="H216" s="96"/>
@@ -9527,7 +9545,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -9544,7 +9562,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -9561,7 +9579,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="3" t="s">
@@ -9582,7 +9600,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -9599,7 +9617,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="83"/>
       <c r="B221" s="6" t="s">
         <v>3</v>
@@ -9626,7 +9644,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="61"/>
       <c r="B222" s="12" t="s">
         <v>13</v>
@@ -9655,7 +9673,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="83"/>
       <c r="B223" s="21" t="s">
         <v>13</v>
@@ -9682,7 +9700,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="83"/>
       <c r="B224" s="21"/>
       <c r="C224" s="21"/>
@@ -9699,7 +9717,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="83"/>
       <c r="B225" s="28" t="s">
         <v>15</v>
@@ -9726,7 +9744,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="83"/>
       <c r="B226" s="28" t="s">
         <v>15</v>
@@ -9735,13 +9753,13 @@
         <v>197</v>
       </c>
       <c r="D226" s="28" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="E226" s="29">
         <v>1</v>
       </c>
       <c r="F226" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G226" s="91"/>
       <c r="H226" s="95"/>
@@ -9753,7 +9771,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="83"/>
       <c r="B227" s="102"/>
       <c r="C227" s="21"/>
@@ -9770,7 +9788,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="83"/>
       <c r="B228" s="28" t="s">
         <v>18</v>
@@ -9785,7 +9803,7 @@
         <v>17</v>
       </c>
       <c r="F228" s="30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G228" s="87"/>
       <c r="H228" s="95"/>
@@ -9797,7 +9815,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="83"/>
       <c r="B229" s="28" t="s">
         <v>18</v>
@@ -9824,7 +9842,7 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="83"/>
       <c r="B230" s="102" t="s">
         <v>18</v>
@@ -9855,7 +9873,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="83"/>
       <c r="B231" s="102" t="s">
         <v>18</v>
@@ -9886,7 +9904,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="83"/>
       <c r="B232" s="102" t="s">
         <v>18</v>
@@ -9917,7 +9935,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="83"/>
       <c r="B233" s="28" t="s">
         <v>18</v>
@@ -9946,7 +9964,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="83"/>
       <c r="B234" s="28" t="s">
         <v>19</v>
@@ -9973,7 +9991,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="83"/>
       <c r="B235" s="102" t="s">
         <v>19</v>
@@ -10004,7 +10022,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="83"/>
       <c r="B236" s="28" t="s">
         <v>19</v>
@@ -10033,7 +10051,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="83"/>
       <c r="B237" s="102" t="s">
         <v>19</v>
@@ -10064,7 +10082,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="83"/>
       <c r="B238" s="102" t="s">
         <v>19</v>
@@ -10095,7 +10113,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="83"/>
       <c r="B239" s="28" t="s">
         <v>19</v>
@@ -10124,7 +10142,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="83"/>
       <c r="B240" s="28" t="s">
         <v>19</v>
@@ -10151,7 +10169,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="83"/>
       <c r="B241" s="102" t="s">
         <v>19</v>
@@ -10182,7 +10200,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="83"/>
       <c r="B242" s="28" t="s">
         <v>19</v>
@@ -10211,7 +10229,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="35"/>
       <c r="C243" s="35"/>
@@ -10234,7 +10252,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -10251,7 +10269,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -10268,7 +10286,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="3" t="s">
@@ -10289,7 +10307,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -10306,7 +10324,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="83"/>
       <c r="B248" s="6" t="s">
         <v>3</v>
@@ -10325,7 +10343,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="83"/>
       <c r="B249" s="12" t="s">
         <v>13</v>
@@ -10350,7 +10368,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="83"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
@@ -10367,7 +10385,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="83"/>
       <c r="B251" s="21"/>
       <c r="C251" s="21"/>
@@ -10384,7 +10402,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="83"/>
       <c r="B252" s="28" t="s">
         <v>15</v>
@@ -10411,7 +10429,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="83"/>
       <c r="B253" s="28" t="s">
         <v>15</v>
@@ -10438,7 +10456,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="83"/>
       <c r="B254" s="102" t="s">
         <v>18</v>
@@ -10469,7 +10487,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="83"/>
       <c r="B255" s="102" t="s">
         <v>18</v>
@@ -10500,7 +10518,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="83"/>
       <c r="B256" s="28" t="s">
         <v>18</v>
@@ -10515,7 +10533,7 @@
         <v>261</v>
       </c>
       <c r="F256" s="30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G256" s="95">
         <v>45246</v>
@@ -10529,7 +10547,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="83"/>
       <c r="B257" s="28" t="s">
         <v>18</v>
@@ -10558,7 +10576,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="83"/>
       <c r="B258" s="28" t="s">
         <v>18</v>
@@ -10585,7 +10603,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="83"/>
       <c r="B259" s="102" t="s">
         <v>19</v>
@@ -10616,7 +10634,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="83"/>
       <c r="B260" s="102" t="s">
         <v>19</v>
@@ -10647,7 +10665,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="83"/>
       <c r="B261" s="102" t="s">
         <v>19</v>
@@ -10678,7 +10696,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="83"/>
       <c r="B262" s="28" t="s">
         <v>19</v>
@@ -10707,7 +10725,7 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="83"/>
       <c r="B263" s="28" t="s">
         <v>19</v>
@@ -10734,7 +10752,7 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="83"/>
       <c r="B264" s="28" t="s">
         <v>19</v>
@@ -10761,7 +10779,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="83"/>
       <c r="B265" s="102" t="s">
         <v>19</v>
@@ -10792,7 +10810,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="83"/>
       <c r="B266" s="102" t="s">
         <v>19</v>
@@ -10823,7 +10841,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="83"/>
       <c r="B267" s="102" t="s">
         <v>19</v>
@@ -10854,7 +10872,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="83"/>
       <c r="B268" s="28" t="s">
         <v>19</v>
@@ -10869,7 +10887,7 @@
         <v>261</v>
       </c>
       <c r="F268" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G268" s="91">
         <v>45316</v>
@@ -10883,7 +10901,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="83"/>
       <c r="B269" s="28" t="s">
         <v>19</v>
@@ -10898,7 +10916,7 @@
         <v>261</v>
       </c>
       <c r="F269" s="30">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G269" s="91">
         <v>45246</v>
@@ -10912,7 +10930,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="35"/>
       <c r="C270" s="35"/>
@@ -10923,7 +10941,7 @@
       </c>
       <c r="F270" s="38">
         <f>SUM(F252:F269)-SUM(F249:F251)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G270" s="84"/>
       <c r="H270" s="96"/>
@@ -10935,7 +10953,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -10952,7 +10970,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -10969,7 +10987,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1" t="s">
@@ -10990,7 +11008,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -11007,7 +11025,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="83"/>
       <c r="B275" s="6" t="s">
         <v>3</v>
@@ -11034,7 +11052,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="83"/>
       <c r="B276" s="12" t="s">
         <v>13</v>
@@ -11047,7 +11065,7 @@
         <v>11</v>
       </c>
       <c r="F276" s="15">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G276" s="84"/>
       <c r="H276" s="96"/>
@@ -11059,7 +11077,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="83"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
@@ -11076,7 +11094,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="83"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
@@ -11093,7 +11111,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="83"/>
       <c r="B279" s="28" t="s">
         <v>15</v>
@@ -11120,7 +11138,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="83"/>
       <c r="B280" s="28" t="s">
         <v>15</v>
@@ -11147,7 +11165,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="83"/>
       <c r="B281" s="102"/>
       <c r="C281" s="21"/>
@@ -11164,7 +11182,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="83"/>
       <c r="B282" s="28" t="s">
         <v>18</v>
@@ -11179,7 +11197,7 @@
         <v>18</v>
       </c>
       <c r="F282" s="30">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G282" s="87"/>
       <c r="H282" s="95"/>
@@ -11191,7 +11209,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="83"/>
       <c r="B283" s="102" t="s">
         <v>18</v>
@@ -11222,7 +11240,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="83"/>
       <c r="B284" s="28" t="s">
         <v>18</v>
@@ -11251,7 +11269,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="83"/>
       <c r="B285" s="28" t="s">
         <v>18</v>
@@ -11266,7 +11284,7 @@
         <v>2</v>
       </c>
       <c r="F285" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G285" s="91"/>
       <c r="H285" s="94"/>
@@ -11278,7 +11296,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="83"/>
       <c r="B286" s="28"/>
       <c r="C286" s="21"/>
@@ -11295,7 +11313,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="83"/>
       <c r="B287" s="28" t="s">
         <v>19</v>
@@ -11322,7 +11340,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="83"/>
       <c r="B288" s="28" t="s">
         <v>19</v>
@@ -11337,7 +11355,7 @@
         <v>20</v>
       </c>
       <c r="F288" s="30">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G288" s="91"/>
       <c r="H288" s="95"/>
@@ -11349,7 +11367,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="83"/>
       <c r="B289" s="28" t="s">
         <v>19</v>
@@ -11376,7 +11394,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="83"/>
       <c r="B290" s="28" t="s">
         <v>19</v>
@@ -11403,7 +11421,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="83"/>
       <c r="B291" s="28" t="s">
         <v>19</v>
@@ -11418,7 +11436,7 @@
         <v>1</v>
       </c>
       <c r="F291" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G291" s="91"/>
       <c r="H291" s="95"/>
@@ -11430,7 +11448,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="83"/>
       <c r="B292" s="28"/>
       <c r="C292" s="106"/>
@@ -11447,7 +11465,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="83"/>
       <c r="B293" s="102"/>
       <c r="C293" s="21"/>
@@ -11464,7 +11482,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="83"/>
       <c r="B294" s="28"/>
       <c r="C294" s="21"/>
@@ -11481,7 +11499,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="83"/>
       <c r="B295" s="102"/>
       <c r="C295" s="106"/>
@@ -11498,7 +11516,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="83"/>
       <c r="B296" s="21"/>
       <c r="C296" s="21"/>
@@ -11515,7 +11533,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="35"/>
       <c r="C297" s="35"/>
@@ -11526,7 +11544,7 @@
       </c>
       <c r="F297" s="38">
         <f>SUM(F278:F296)-SUM(F276:F277)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G297" s="84"/>
       <c r="H297" s="96"/>
@@ -11538,7 +11556,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -11555,7 +11573,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -11572,7 +11590,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1" t="s">
@@ -11593,7 +11611,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -11610,7 +11628,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" s="83"/>
       <c r="B302" s="6" t="s">
         <v>3</v>
@@ -11637,7 +11655,7 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="83"/>
       <c r="B303" s="114" t="s">
         <v>13</v>
@@ -11666,7 +11684,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="83"/>
       <c r="B304" s="106" t="s">
         <v>13</v>
@@ -11695,7 +11713,7 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="83"/>
       <c r="B305" s="21" t="s">
         <v>13</v>
@@ -11722,7 +11740,7 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="83"/>
       <c r="B306" s="28" t="s">
         <v>15</v>
@@ -11749,7 +11767,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="83"/>
       <c r="B307" s="28" t="s">
         <v>15</v>
@@ -11776,7 +11794,7 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="83"/>
       <c r="B308" s="102" t="s">
         <v>18</v>
@@ -11807,7 +11825,7 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="83"/>
       <c r="B309" s="102" t="s">
         <v>18</v>
@@ -11838,7 +11856,7 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="83"/>
       <c r="B310" s="28" t="s">
         <v>18</v>
@@ -11867,7 +11885,7 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="83"/>
       <c r="B311" s="102" t="s">
         <v>18</v>
@@ -11898,7 +11916,7 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="83"/>
       <c r="B312" s="28" t="s">
         <v>18</v>
@@ -11913,7 +11931,7 @@
         <v>261</v>
       </c>
       <c r="F312" s="30">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G312" s="91">
         <v>45288</v>
@@ -11927,7 +11945,7 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="83"/>
       <c r="B313" s="102" t="s">
         <v>18</v>
@@ -11958,7 +11976,7 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="83"/>
       <c r="B314" s="102" t="s">
         <v>18</v>
@@ -11989,7 +12007,7 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="83"/>
       <c r="B315" s="28" t="s">
         <v>18</v>
@@ -12018,7 +12036,7 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="83"/>
       <c r="B316" s="28" t="s">
         <v>19</v>
@@ -12045,7 +12063,7 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="83"/>
       <c r="B317" s="28" t="s">
         <v>19</v>
@@ -12072,7 +12090,7 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="83"/>
       <c r="B318" s="28" t="s">
         <v>19</v>
@@ -12087,7 +12105,7 @@
         <v>21</v>
       </c>
       <c r="F318" s="30">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G318" s="87"/>
       <c r="H318" s="94"/>
@@ -12099,7 +12117,7 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="83"/>
       <c r="B319" s="102" t="s">
         <v>19</v>
@@ -12130,7 +12148,7 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="83"/>
       <c r="B320" s="28" t="s">
         <v>19</v>
@@ -12159,7 +12177,7 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="83"/>
       <c r="B321" s="102" t="s">
         <v>19</v>
@@ -12190,7 +12208,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="83"/>
       <c r="B322" s="102" t="s">
         <v>19</v>
@@ -12221,7 +12239,7 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A323" s="83"/>
       <c r="B323" s="21" t="s">
         <v>19</v>
@@ -12250,7 +12268,7 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="35"/>
       <c r="C324" s="35"/>
@@ -12261,7 +12279,7 @@
       </c>
       <c r="F324" s="38">
         <f>SUM(F306:F323)-SUM(F303:F305)</f>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G324" s="84"/>
       <c r="H324" s="96"/>
@@ -12273,7 +12291,7 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -12290,7 +12308,7 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -12307,7 +12325,7 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1" t="s">
@@ -12328,7 +12346,7 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -12345,7 +12363,7 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A329" s="83"/>
       <c r="B329" s="6" t="s">
         <v>3</v>
@@ -12372,7 +12390,7 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A330" s="83"/>
       <c r="B330" s="114" t="s">
         <v>13</v>
@@ -12401,7 +12419,7 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="83"/>
       <c r="B331" s="114" t="s">
         <v>13</v>
@@ -12430,7 +12448,7 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="83"/>
       <c r="B332" s="21" t="s">
         <v>13</v>
@@ -12443,7 +12461,7 @@
         <v>261</v>
       </c>
       <c r="F332" s="21">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G332" s="91">
         <v>45316</v>
@@ -12457,7 +12475,7 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="83"/>
       <c r="B333" s="28" t="s">
         <v>15</v>
@@ -12484,7 +12502,7 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="83"/>
       <c r="B334" s="28" t="s">
         <v>15</v>
@@ -12511,7 +12529,7 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="83"/>
       <c r="B335" s="102" t="s">
         <v>18</v>
@@ -12542,7 +12560,7 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="83"/>
       <c r="B336" s="102" t="s">
         <v>18</v>
@@ -12573,7 +12591,7 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="83"/>
       <c r="B337" s="28" t="s">
         <v>18</v>
@@ -12602,7 +12620,7 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="83"/>
       <c r="B338" s="28" t="s">
         <v>18</v>
@@ -12629,7 +12647,7 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="83"/>
       <c r="B339" s="102" t="s">
         <v>18</v>
@@ -12660,7 +12678,7 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="83"/>
       <c r="B340" s="102" t="s">
         <v>18</v>
@@ -12688,7 +12706,7 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="83"/>
       <c r="B341" s="28" t="s">
         <v>18</v>
@@ -12714,7 +12732,7 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="83"/>
       <c r="B342" s="28" t="s">
         <v>19</v>
@@ -12738,7 +12756,7 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="83"/>
       <c r="B343" s="28" t="s">
         <v>19</v>
@@ -12753,7 +12771,7 @@
         <v>20</v>
       </c>
       <c r="F343" s="30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G343" s="87"/>
       <c r="H343" s="95"/>
@@ -12762,7 +12780,7 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="83"/>
       <c r="B344" s="102" t="s">
         <v>19</v>
@@ -12790,7 +12808,7 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="83"/>
       <c r="B345" s="28" t="s">
         <v>19</v>
@@ -12818,7 +12836,7 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="83"/>
       <c r="B346" s="28" t="s">
         <v>19</v>
@@ -12844,7 +12862,7 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="83"/>
       <c r="B347" s="102" t="s">
         <v>19</v>
@@ -12872,7 +12890,7 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="83"/>
       <c r="B348" s="28" t="s">
         <v>19</v>
@@ -12898,7 +12916,7 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="83"/>
       <c r="B349" s="102" t="s">
         <v>19</v>
@@ -12926,7 +12944,7 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A350" s="83"/>
       <c r="B350" s="21" t="s">
         <v>19</v>
@@ -12941,7 +12959,7 @@
         <v>261</v>
       </c>
       <c r="F350" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G350" s="91">
         <v>45330</v>
@@ -12952,7 +12970,7 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="35"/>
       <c r="C351" s="35"/>
@@ -12963,7 +12981,7 @@
       </c>
       <c r="F351" s="38">
         <f>SUM(F333:F350)-SUM(F330:F332)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G351" s="87"/>
       <c r="H351" s="94"/>
@@ -12972,7 +12990,7 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="352" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -12986,7 +13004,7 @@
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
     </row>
-    <row r="354" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B354" s="1"/>
       <c r="C354" s="1" t="s">
         <v>200</v>
@@ -13001,7 +13019,7 @@
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
     </row>
-    <row r="355" spans="2:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -13012,7 +13030,7 @@
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
     </row>
-    <row r="356" spans="2:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B356" s="6" t="s">
         <v>3</v>
       </c>
@@ -13033,7 +13051,7 @@
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B357" s="12" t="s">
         <v>13</v>
       </c>
@@ -13045,14 +13063,14 @@
         <v>1</v>
       </c>
       <c r="F357" s="15">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B358" s="21"/>
       <c r="C358" s="21"/>
       <c r="D358" s="21"/>
@@ -13063,7 +13081,7 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B359" s="21"/>
       <c r="C359" s="21"/>
       <c r="D359" s="21"/>
@@ -13074,7 +13092,7 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B360" s="28" t="s">
         <v>15</v>
       </c>
@@ -13095,7 +13113,7 @@
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="28" t="s">
         <v>15</v>
       </c>
@@ -13116,7 +13134,7 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="102"/>
       <c r="C362" s="106"/>
       <c r="D362" s="106"/>
@@ -13127,7 +13145,7 @@
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
     </row>
-    <row r="363" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B363" s="28" t="s">
         <v>18</v>
       </c>
@@ -13148,7 +13166,7 @@
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
     </row>
-    <row r="364" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B364" s="102" t="s">
         <v>18</v>
       </c>
@@ -13173,7 +13191,7 @@
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
     </row>
-    <row r="365" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="28" t="s">
         <v>18</v>
       </c>
@@ -13196,7 +13214,7 @@
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="28" t="s">
         <v>18</v>
       </c>
@@ -13217,7 +13235,7 @@
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
     </row>
-    <row r="367" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="28"/>
       <c r="C367" s="21"/>
       <c r="D367" s="21"/>
@@ -13228,7 +13246,7 @@
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
     </row>
-    <row r="368" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="28" t="s">
         <v>19</v>
       </c>
@@ -13249,7 +13267,7 @@
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="28" t="s">
         <v>19</v>
       </c>
@@ -13270,7 +13288,7 @@
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
     </row>
-    <row r="370" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="28" t="s">
         <v>19</v>
       </c>
@@ -13291,7 +13309,7 @@
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
-    <row r="371" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="28" t="s">
         <v>19</v>
       </c>
@@ -13312,7 +13330,7 @@
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row r="372" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="28" t="s">
         <v>19</v>
       </c>
@@ -13326,14 +13344,14 @@
         <v>1</v>
       </c>
       <c r="F372" s="30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row r="373" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="28"/>
       <c r="C373" s="21"/>
       <c r="D373" s="21"/>
@@ -13344,7 +13362,7 @@
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="102"/>
       <c r="C374" s="106"/>
       <c r="D374" s="106"/>
@@ -13355,7 +13373,7 @@
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
     </row>
-    <row r="375" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="28"/>
       <c r="C375" s="21"/>
       <c r="D375" s="21"/>
@@ -13366,7 +13384,7 @@
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
     </row>
-    <row r="376" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B376" s="102"/>
       <c r="C376" s="106"/>
       <c r="D376" s="106"/>
@@ -13377,7 +13395,7 @@
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
     </row>
-    <row r="377" spans="2:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B377" s="21"/>
       <c r="C377" s="21"/>
       <c r="D377" s="21"/>
@@ -13388,7 +13406,7 @@
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
     </row>
-    <row r="378" spans="2:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B378" s="35"/>
       <c r="C378" s="35"/>
       <c r="D378" s="36"/>
@@ -13398,12 +13416,187 @@
       </c>
       <c r="F378" s="38">
         <f>SUM(F360:F377)-SUM(F357:F359)</f>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
+    </row>
+    <row r="381" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B381" s="1"/>
+      <c r="C381" s="3"/>
+      <c r="D381" s="3"/>
+      <c r="E381" s="2"/>
+      <c r="F381" s="1"/>
+    </row>
+    <row r="382" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B382" s="4"/>
+      <c r="C382" s="4"/>
+      <c r="D382" s="4"/>
+      <c r="E382" s="5"/>
+      <c r="F382" s="4"/>
+    </row>
+    <row r="383" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B383" s="6"/>
+      <c r="C383" s="6"/>
+      <c r="D383" s="6"/>
+      <c r="E383" s="6"/>
+      <c r="F383" s="6"/>
+    </row>
+    <row r="384" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B384" s="12"/>
+      <c r="C384" s="13"/>
+      <c r="D384" s="12"/>
+      <c r="E384" s="14"/>
+      <c r="F384" s="15"/>
+    </row>
+    <row r="385" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B385" s="21"/>
+      <c r="C385" s="21"/>
+      <c r="D385" s="21"/>
+      <c r="E385" s="22"/>
+      <c r="F385" s="21"/>
+    </row>
+    <row r="386" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B386" s="21"/>
+      <c r="C386" s="21"/>
+      <c r="D386" s="21"/>
+      <c r="E386" s="22"/>
+      <c r="F386" s="21"/>
+    </row>
+    <row r="387" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B387" s="28"/>
+      <c r="C387" s="28"/>
+      <c r="D387" s="28"/>
+      <c r="E387" s="29"/>
+      <c r="F387" s="30"/>
+    </row>
+    <row r="388" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B388" s="28"/>
+      <c r="C388" s="28"/>
+      <c r="D388" s="28"/>
+      <c r="E388" s="29"/>
+      <c r="F388" s="30"/>
+    </row>
+    <row r="389" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B389" s="102"/>
+      <c r="C389" s="28"/>
+      <c r="D389" s="28"/>
+      <c r="E389" s="29"/>
+      <c r="F389" s="104"/>
+    </row>
+    <row r="390" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B390" s="28"/>
+      <c r="C390" s="28"/>
+      <c r="D390" s="28"/>
+      <c r="E390" s="29"/>
+      <c r="F390" s="30"/>
+    </row>
+    <row r="391" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B391" s="28"/>
+      <c r="C391" s="28"/>
+      <c r="D391" s="28"/>
+      <c r="E391" s="29"/>
+      <c r="F391" s="30"/>
+    </row>
+    <row r="392" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B392" s="28"/>
+      <c r="C392" s="28"/>
+      <c r="D392" s="28"/>
+      <c r="E392" s="29"/>
+      <c r="F392" s="30"/>
+    </row>
+    <row r="393" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B393" s="28"/>
+      <c r="C393" s="21"/>
+      <c r="D393" s="21"/>
+      <c r="E393" s="22"/>
+      <c r="F393" s="30"/>
+    </row>
+    <row r="394" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B394" s="28"/>
+      <c r="C394" s="21"/>
+      <c r="D394" s="21"/>
+      <c r="E394" s="22"/>
+      <c r="F394" s="30"/>
+    </row>
+    <row r="395" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B395" s="28"/>
+      <c r="C395" s="28"/>
+      <c r="D395" s="28"/>
+      <c r="E395" s="29"/>
+      <c r="F395" s="30"/>
+    </row>
+    <row r="396" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B396" s="28"/>
+      <c r="C396" s="28"/>
+      <c r="D396" s="28"/>
+      <c r="E396" s="29"/>
+      <c r="F396" s="30"/>
+    </row>
+    <row r="397" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B397" s="28"/>
+      <c r="C397" s="28"/>
+      <c r="D397" s="28"/>
+      <c r="E397" s="29"/>
+      <c r="F397" s="30"/>
+    </row>
+    <row r="398" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B398" s="28"/>
+      <c r="C398" s="28"/>
+      <c r="D398" s="28"/>
+      <c r="E398" s="29"/>
+      <c r="F398" s="30"/>
+    </row>
+    <row r="399" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B399" s="28"/>
+      <c r="C399" s="28"/>
+      <c r="D399" s="28"/>
+      <c r="E399" s="29"/>
+      <c r="F399" s="30"/>
+    </row>
+    <row r="400" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B400" s="28"/>
+      <c r="C400" s="28"/>
+      <c r="D400" s="28"/>
+      <c r="E400" s="29"/>
+      <c r="F400" s="30"/>
+    </row>
+    <row r="401" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B401" s="102"/>
+      <c r="C401" s="28"/>
+      <c r="D401" s="28"/>
+      <c r="E401" s="29"/>
+      <c r="F401" s="30"/>
+    </row>
+    <row r="402" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B402" s="28"/>
+      <c r="C402" s="28"/>
+      <c r="D402" s="28"/>
+      <c r="E402" s="29"/>
+      <c r="F402" s="30"/>
+    </row>
+    <row r="403" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B403" s="102"/>
+      <c r="C403" s="21"/>
+      <c r="D403" s="21"/>
+      <c r="E403" s="22"/>
+      <c r="F403" s="21"/>
+    </row>
+    <row r="404" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B404" s="21"/>
+      <c r="C404" s="33"/>
+      <c r="D404" s="33"/>
+      <c r="E404" s="34"/>
+      <c r="F404" s="33"/>
+    </row>
+    <row r="405" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B405" s="35"/>
+      <c r="C405" s="35"/>
+      <c r="D405" s="36"/>
+      <c r="E405" s="37"/>
+      <c r="F405" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13440,13 +13633,13 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D20"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="41" customWidth="1"/>
     <col min="3" max="3" width="31" style="41" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="41" customWidth="1"/>
     <col min="5" max="6" width="9" style="41" customWidth="1"/>
@@ -13454,7 +13647,7 @@
     <col min="8" max="256" width="9" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -13471,7 +13664,7 @@
       </c>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -13486,7 +13679,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -13499,7 +13692,7 @@
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -13514,7 +13707,7 @@
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
     </row>
-    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -13527,7 +13720,7 @@
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
     </row>
-    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
       <c r="B6" s="51" t="s">
         <v>3</v>
@@ -13552,9 +13745,9 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50"/>
-      <c r="B7" s="57">
+      <c r="B7" s="120">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -13564,10 +13757,10 @@
         <v>16</v>
       </c>
       <c r="E7" s="25">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F7" s="26">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G7" s="27">
         <v>44</v>
@@ -13577,7 +13770,7 @@
       <c r="J7" s="44"/>
       <c r="K7" s="56"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
       <c r="B8" s="57">
         <v>2</v>
@@ -13589,70 +13782,70 @@
         <v>41</v>
       </c>
       <c r="E8" s="25">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F8" s="26">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G8" s="27">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="44"/>
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="50"/>
       <c r="B9" s="57">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>277</v>
+        <v>70</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="E9" s="25">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F9" s="26">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G9" s="27">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H9" s="55"/>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50"/>
       <c r="B10" s="57">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>277</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="E10" s="25">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F10" s="26">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G10" s="27">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H10" s="55"/>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
       <c r="B11" s="57">
         <v>5</v>
@@ -13664,20 +13857,20 @@
         <v>23</v>
       </c>
       <c r="E11" s="25">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" s="26">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G11" s="27">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50"/>
       <c r="B12" s="57">
         <v>6</v>
@@ -13702,57 +13895,57 @@
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="50"/>
       <c r="B13" s="57">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E13" s="25">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" s="26">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="G13" s="27">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="50"/>
       <c r="B14" s="57">
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E14" s="25">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="59">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G14" s="60">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="50"/>
       <c r="B15" s="57">
         <v>9</v>
@@ -13764,20 +13957,20 @@
         <v>84</v>
       </c>
       <c r="E15" s="25">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="59">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G15" s="60">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H15" s="55"/>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="50"/>
       <c r="B16" s="57">
         <v>10</v>
@@ -13785,41 +13978,41 @@
       <c r="C16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="58" t="s">
         <v>73</v>
       </c>
       <c r="E16" s="25">
-        <v>29</v>
-      </c>
-      <c r="F16" s="26">
-        <v>71</v>
-      </c>
-      <c r="G16" s="27">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="F16" s="59">
+        <v>76</v>
+      </c>
+      <c r="G16" s="60">
+        <v>43</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
-      <c r="B17" s="57">
+      <c r="B17" s="120">
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="58" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="25">
-        <v>26</v>
-      </c>
-      <c r="F17" s="26">
-        <v>93</v>
-      </c>
-      <c r="G17" s="27">
+        <v>27</v>
+      </c>
+      <c r="F17" s="59">
+        <v>94</v>
+      </c>
+      <c r="G17" s="60">
         <v>67</v>
       </c>
       <c r="H17" s="55"/>
@@ -13827,7 +14020,7 @@
       <c r="J17" s="44"/>
       <c r="K17" s="44"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="50"/>
       <c r="B18" s="57">
         <v>12</v>
@@ -13852,7 +14045,7 @@
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="B19" s="57">
         <v>13</v>
@@ -13864,20 +14057,20 @@
         <v>96</v>
       </c>
       <c r="E19" s="25">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" s="26">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G19" s="27">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
     </row>
-    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
       <c r="B20" s="62">
         <v>14</v>
@@ -13889,20 +14082,20 @@
         <v>144</v>
       </c>
       <c r="E20" s="25">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F20" s="26">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G20" s="27">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H20" s="55"/>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
     </row>
-    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="43"/>
       <c r="B21" s="63"/>
       <c r="C21" s="63"/>
@@ -13915,7 +14108,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -13946,20 +14139,20 @@
   <dimension ref="A1:IW29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:G26"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="33.33203125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="41" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="41" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" style="41" customWidth="1"/>
     <col min="6" max="7" width="9.33203125" style="41" customWidth="1"/>
-    <col min="8" max="257" width="8.77734375" style="41" customWidth="1"/>
+    <col min="8" max="257" width="8.83203125" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="66" t="s">
         <v>341</v>
       </c>
@@ -13969,7 +14162,7 @@
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -13977,7 +14170,7 @@
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="67" t="s">
         <v>54</v>
       </c>
@@ -13987,7 +14180,7 @@
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="71" t="s">
         <v>61</v>
       </c>
@@ -14010,7 +14203,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="71" t="s">
         <v>62</v>
       </c>
@@ -14033,7 +14226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="71" t="s">
         <v>63</v>
       </c>
@@ -14056,7 +14249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="71" t="s">
         <v>64</v>
       </c>
@@ -14079,7 +14272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="71" t="s">
         <v>65</v>
       </c>
@@ -14102,7 +14295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="71" t="s">
         <v>66</v>
       </c>
@@ -14125,7 +14318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="71"/>
       <c r="B10" s="69"/>
       <c r="C10" s="69"/>
@@ -14134,7 +14327,7 @@
       <c r="F10" s="43"/>
       <c r="G10" s="65"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="67" t="s">
         <v>344</v>
       </c>
@@ -14144,7 +14337,7 @@
       <c r="F11" s="43"/>
       <c r="G11" s="65"/>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="71" t="s">
         <v>67</v>
       </c>
@@ -14167,7 +14360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="71"/>
       <c r="B13" s="69"/>
       <c r="C13" s="72"/>
@@ -14176,7 +14369,7 @@
       <c r="F13" s="73"/>
       <c r="G13" s="110"/>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="71"/>
       <c r="B14" s="67" t="s">
         <v>91</v>
@@ -14187,7 +14380,7 @@
       <c r="F14" s="72"/>
       <c r="G14" s="68"/>
     </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="71" t="s">
         <v>68</v>
       </c>
@@ -14210,7 +14403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="71" t="s">
         <v>69</v>
       </c>
@@ -14233,7 +14426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="71" t="s">
         <v>92</v>
       </c>
@@ -14256,7 +14449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="71" t="s">
         <v>125</v>
       </c>
@@ -14279,7 +14472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="69"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
@@ -14287,7 +14480,7 @@
       <c r="F19" s="70"/>
       <c r="G19" s="43"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="69"/>
       <c r="C20" s="68"/>
       <c r="D20" s="65"/>
@@ -14295,7 +14488,7 @@
       <c r="F20" s="70"/>
       <c r="G20" s="43"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="67" t="s">
         <v>55</v>
       </c>
@@ -14305,7 +14498,7 @@
       <c r="F21" s="70"/>
       <c r="G21" s="43"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="71" t="s">
         <v>126</v>
       </c>
@@ -14328,7 +14521,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="71" t="s">
         <v>134</v>
       </c>
@@ -14351,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="69"/>
       <c r="C24" s="69"/>
       <c r="D24" s="68"/>
@@ -14359,7 +14552,7 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="67" t="s">
         <v>56</v>
       </c>
@@ -14369,7 +14562,7 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="71" t="s">
         <v>372</v>
       </c>
@@ -14379,7 +14572,7 @@
       <c r="C26" s="73" t="s">
         <v>363</v>
       </c>
-      <c r="D26" s="74">
+      <c r="D26" s="110">
         <v>-1</v>
       </c>
       <c r="E26" s="69" t="s">
@@ -14392,7 +14585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
       <c r="D27" s="68"/>
@@ -14400,7 +14593,7 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
     </row>
-    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="67" t="s">
         <v>57</v>
       </c>
@@ -14411,7 +14604,7 @@
       <c r="G28" s="43"/>
       <c r="K28" s="108"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="69" t="s">
         <v>16</v>
       </c>
@@ -14439,337 +14632,421 @@
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D1" s="124" t="s">
         <v>395</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="124" t="s">
         <v>386</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="124" t="s">
         <v>387</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="124" t="s">
         <v>388</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="124" t="s">
         <v>389</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="124" t="s">
         <v>390</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="124" t="s">
         <v>391</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="124" t="s">
         <v>392</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="124" t="s">
         <v>393</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="124" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="121">
         <v>20</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="121">
         <v>-5</v>
       </c>
-      <c r="K2">
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121">
         <v>-35</v>
       </c>
-      <c r="M2">
+      <c r="L2" s="121"/>
+      <c r="M2" s="121">
         <f>SUM(D2:L2)</f>
         <v>-20</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="121">
         <v>20</v>
       </c>
-      <c r="K3">
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121">
         <v>5</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="121">
         <v>5</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="121">
         <f t="shared" ref="M3:M15" si="0">SUM(D3:L3)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="122" t="s">
         <v>277</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="122" t="s">
         <v>114</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="121">
         <v>20</v>
       </c>
-      <c r="H4">
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121">
         <v>5</v>
       </c>
-      <c r="K4">
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121">
         <v>5</v>
       </c>
-      <c r="M4">
+      <c r="L4" s="121"/>
+      <c r="M4" s="121">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="121">
         <v>20</v>
       </c>
-      <c r="I5">
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121">
         <v>-5</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="121">
         <v>-5</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="121">
         <v>5</v>
       </c>
-      <c r="M5">
+      <c r="L5" s="121"/>
+      <c r="M5" s="121">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="121">
         <v>20</v>
       </c>
-      <c r="J6">
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121">
         <v>5</v>
       </c>
-      <c r="L6">
+      <c r="K6" s="121"/>
+      <c r="L6" s="121">
         <v>5</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="121">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="121">
         <v>20</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="121"/>
+      <c r="F7" s="121">
         <v>5</v>
       </c>
-      <c r="M7">
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="122" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="122" t="s">
         <v>200</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="121">
         <v>20</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="121">
         <v>-5</v>
       </c>
-      <c r="L8">
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121">
         <v>5</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="121">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="121">
         <v>20</v>
       </c>
-      <c r="G9">
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121">
         <v>5</v>
       </c>
-      <c r="K9">
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121">
         <v>5</v>
       </c>
-      <c r="M9">
+      <c r="L9" s="121"/>
+      <c r="M9" s="121">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="121">
         <v>20</v>
       </c>
-      <c r="M10">
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="121">
         <v>20</v>
       </c>
-      <c r="G11">
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121">
         <v>-5</v>
       </c>
-      <c r="K11">
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121">
         <v>5</v>
       </c>
-      <c r="M11">
+      <c r="L11" s="121"/>
+      <c r="M11" s="121">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="121">
         <v>20</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="121">
         <v>5</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="121">
         <v>-5</v>
       </c>
-      <c r="I12">
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121">
         <v>5</v>
       </c>
-      <c r="K12">
+      <c r="J12" s="121"/>
+      <c r="K12" s="121">
         <v>5</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="121">
         <v>-25</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="121">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="121">
         <v>20</v>
       </c>
-      <c r="H13">
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121">
         <v>-5</v>
       </c>
-      <c r="L13">
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121">
         <v>5</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="121">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="121">
         <v>20</v>
       </c>
-      <c r="L14">
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121">
         <v>5</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="121">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="122" t="s">
         <v>144</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="121">
         <v>20</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="121">
         <v>5</v>
       </c>
-      <c r="K15">
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121">
         <v>5</v>
       </c>
-      <c r="M15">
+      <c r="L15" s="121"/>
+      <c r="M15" s="121">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -14777,7 +15054,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId1"/>
+    <customPr name="_pios_id" r:id="rId1"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
   </customProperties>
 </worksheet>
 </file>
